--- a/data/02_intermediate/cleaned_Mister_You_songs.xlsx
+++ b/data/02_intermediate/cleaned_Mister_You_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>La Rue Puis La Prison</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J'suis dans mon quartier, j'galère, j'regarde en l'air J'suis en train d'cogiter, j'suis défoncé sa mère J'arrive chargé, comme une porteuse à Tanger Après mon passage, ou t'es refait ou bien il te reste plus grand chose à manger J'roule un sdeh pour me percher, rejoindre l'étoile du Berger C'est plus des couilles que j'ai, eh non, c'est des gros ufs de Fabergé J'suis overbooké, ok zoogataga J'ai appris une chose chez Ruquier, c'est le mot rutabaga J'rêve que d'pouvoir, et comme vous avez pu le voir Bah le rap français c'est pas vraiment l'truc tah Audrey Pulvar Mon point commun avec Natacha c'est mes chicos d'devant Que moi-même sans mes 32 dents, j'leur faisais du rentre-dedans Ouais, bien sûr que l'avenir est inquiétant Pour des barrettes, ils nous mettent 8 ans, wesh, monsieur le président Dites leur bien que j'représente les 3arbis et les niggas Moi, j'suis plus riche qu'eux, donc pourquoi j'irai fouiller leurs caisses Eux, ils sont en pleine crise, moi j'suis en plein dans les 30 glorieuses Mais j'sais que ma liberté bah, vaut pas grand chose à leur yeuz Demande à Lacrim quand j'étais à l'école, c'était pour gratter les remises de peine Du dispatching au disque d'platine, de la fiche de recherche à la fiche de paye J'ai pété tous les barrages, mais j'n'ai jamais été odieux Comment idolâtrer la vache, quand l'univers est à Dieu Dites leur bien que, m'en bats les couilles de leur baratin Que là j'suis en promenade, 3ème tour, khapta dans un bar à tinp' Nique l'État, ces chmatas, ils rêvent que de nous mettre dans la de-mer J'vais m'branler et même cracher sur leur putain de système de merde Woogata ekh tfou, rap tah les fous Qui préfèrent s'acheter une Rafleuse que d'faire du kung-fu La Mecque, j'suis d'ceux qui se baissent et qui toussent, mec, Allah yaafo J't'ai déjà dis, nous on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophile pour des histoires de barrettes Autant vendre de la cocaïne, butez-nous pour qu'on s'arrête Les 3ineurs montrent pas l'il, dites-leur de niquer leur mère les chouettes Moi, m'occupe de la vodka, woogataga gardez la Schweppes Hey, d'après mon entourage, moi, j'reste un brave J'reste un vrai, c'est pour ça qu'il m'encourage Après la pluie, y a pas le beau temps, y a l'orage C'est vrai que les petits sont hardcore, on était pareil à leur âge À deux sur un scooter on vivait que de vol à l'arrach' Puis on a connu la crave-bi et on a vite tourné la page On s'est mis à couper des barrettes, ensuite à vendre des plaquettes Puis d'la coke et des galettes, jusqu'à ce que les keufs nous arrêtent Un jour j'étais dans le 19, l'lendemain un hessess fermait ma porte Un soir j'étais avec une meuf, l'lendemain elle était avec mon pote La vie c'est dur, pas de peine nous tout ce qu'on porte c'est des flingues Et y a pas de vice de procédure gros c'est la loi de la jungle C'est pas d'ma faute, darwa, j'crois bien que j'suis taré d'naissance J'me reconnais pas moi-même des fois j'suis ravi de faire ma connaissance Et quand je pars au shtar, bah t'inquiète pas que j'reçois des mandats Et j'ai toujours la frappe, tah Hollanda et tah Belhanda J'suis khapta, zoogataga sous ma véranda J'glisse mes doigts dans les cheveux tah Esméralda J'emmerde l'État, j'emmerde les stups, j'emmerde les gendarmes Trafiquant de rimes, trafiquant d'stups ou trafiquant d'armes Je suis, comment vous dites ? Paranoïaque ! Ouais J'm'en bat les yeuks, madame la juge, baraneyek ! Ytiyyeh sa3dek ! J'te l'avais dit que j'avais des projets Là, j'graille des brochettes, j'insulte ta mère et j'touche des gros chèques M'achète des trucs qui valent cher, rien qu'avant hier J'me suis acheté 3-4 t-shirt, j'ai dépensé ton salaire J'me suis roulé un gros sdeh, puis j'ai repensé à la misère À cet été, à cet hiver, Alicante ou au Val-d'Isère Au mitard tah la Santé, les promenades en camembert Au mitard tah Fleury, j'revois les toilettes, j'me dis beurk ! Ah les bâtards, comment ils ont pu me faire ça ? Ils me l'ont mise, j'leur ai remise woogata vice et versa Ya zzeh, obligé de se faire remarquer Obligé de se faire embarquer, déféré au parquet Direction les grillages, bon, trêve d'enfantillage Yeah, I speak a little English, motherfucking biatch ! Weld lqahba, what you gonna do? Ok, j'continue tout doux, j're-big up le rott' Mamadou Yoogata yoogata gangz to gangz Ouais, tu connais la musique, celui qui veut me test, j'le baise You might also like Ban-ban-bandit j'fait que du propre, j'effectue les sales tâches Ça sert à quoi de jouer le pirate, si pas à l'abordage Ils dopent en dopant, co on t'laisse le dos en deux On est nous-mêmes en paix exorcistes avec un joint d'beuh Tous les soirs j'dégrise, nos combines se développent Mais des fois les quis' débarquent et dans les comptes ça fait des flops Du crime ouais y'a la crème, Sta-ive c'est du vécu Mon gros, chez moi le sang s'est vidé à cause du manque d'écus Pas de ces collabos, que t'achètes avec alcool et abus De plus, j'baise ces nabots qui croient contrôler la rue Les yeux cernés au poste, menotté à des barreaux de chaise J'rêve d'Îles Vierges m'en fumer avec des barreaux de chaises La nuit j'dors mal, éternellement tourmenté En pensant que j'vais prendre cher si les keufs arrivent à tout remonter Ceux qui sèment le vent, récolte du ons dans le ventre A-L, futur ex-braqueur reconverti dans la vente J'aimerais partir tranquille, les pieds d'vant Un monde de fils de pute, j'suis obligé de vendre Ah bon ? Ça suffit pas alors on braque sa mère M'en voulais pas dans le rap y'a trop de zamels 3 quart, belle coupe, chico cassé La vie c'est speed même mon ombre veut me dépasser Oh, le sky est classé, j'suis chaud Menacer ne sert à rien, j't'envoie 2-3 balles l'affaire est classé Ramassé du biff, voilà dans quoi j'me suis perdu J'sais c'que c'est d'avoir la dalle, j'en connais ces vertus Hyper dur, fréquentation malsaine Chiale pas sur mon sort, tu sais qu'ici personne nous accepte On connait le respect, les valeurs et les principes T'es le plus grand des hommes si tu te lèves pour bosser à Rungis Malheureusement pas mon cas, au fond de moi je les envie Nos vies, c'est faire du biff, mais resté en vie Donc faut marcher armé, puis avoir la trique Aujourd'hui t'allumes demain t'es complètement matrixé C'est la vie du western, la vie d'moi j'suis réel La tranquillité frérot est bloquée dans mes rêves Impossible de l'avoir, je ne prends jamais de Mais Belek au feu le couz si tu mets trop de bois Beaucoup de salopes font les voyous, wallah que c'est pas une fierté Dis-moi qui sera là le jour ou t'auras vraiment merdé J'ai l'orgueil d'un bébé, je m'énerve et je pète tout J'assume les conséquences khey dans mes bras je prend le mektoub Oui j'aime pas les poulets et je f'rais recette sans eux Une impression même jaloux de ma paire à 700E Ils m'inventent des vies, le mythe ils veulent casser Hum j'en ai assez, les traquer, les chlasser Quand j'allais tu revenais, dans ta tête ça ne rentre pas Je le ferai tout les jours, je compte l'oseille me dérange pas Bien sur qu'on s'est fait tout seul, je sais très bien que tu sais J'ai braqué des bijouteries quand les autres allaient sucer Sans t'manquer de respect, dans l'rap dis-moi ce qui est facile Frérot on viens de la rue c'est des filles faciles J'ai roulé ma bosse, j'en ai marre d'bouffer d'la merde Coup d'crosse, la vie t'assomme pire qu'un joint d'herbe Tout c'qu'on a, on finit par l'perdre Étoile de mer, dix mille kilomètres, perdu sur la lune verte J'suis tellement loin des je veux être Berrad d'atay, j'allume un jaabouq à la fenêtre T'es dans l'paraître, moi j'veux disparaître Les kheys passent au dispatching, une mère qui pleure c'est la faute d'un traître Y'a plus qu'des bras cassés dis-moi à qui serrer les coudes ? Six pieds sous terre, quand j'me ferai bouffer par l'doud Noyé dans l'doute, j'suis toujours dans l'hood Les yeux rouges, Wydad Casanegra j'suis pas un Blood Passe-moi des feuilles, c'soir j'fume mes dernières illusions Sers-moi un verre que j'tourne cette tragédie en dérision 11.43, mortuaire sera la saison Maintenant j'marche avec des rétros, dis-moi qui va m'sauter l'caisson Y'a, y'a, y'a plus d'rage que d'la fashionnerie J'enterre l'espoir dans un parloir à Fleury Ghetto youth langage, du whisky, les chicots pourries Bonbon sauvage, 0.4 khoya souris Heh-hep-pep, Dieu seul est maitre de ma destinée Moi j'me verrais bien à La Mecque avec mes rents-pa et ma dulcinée La vie c'est pas un clip ni du ciné ou une bande dessinée On va peut-être finir à Clairvaux, on va peut-être s'faire assassiner C'est clair gros qu'on peut tout perdre sur un coup d'ker-po J'te parle d'une boite où pour rentrer y'a même pas besoin d'se faire beau Le cercle est vicieux bienvenue dans le cerceau Quand j'ai fêté mes 16 ans c'est pas du plomb que j'avais dans le cerveau J'ai 28 ans, j'habite dans l'zoo, je m'appelle Hédi Chabar J'veux réussir, j'veux m'en sortir depuis que j'suis tout petit je chabarde J'ai bicrave, j'ai fais plein d'conneries dont j'suis pas du tout fier Comme les aller-retours à Fleury pour battre le fer faut du fer Pour faire du flouze faut du flouze, des couilles et d'la gamberge Surtout quand t'es seul contre tous y'a personne pour te tendre la perche Moi, hamdullah, j'suis pas comme ça, j'préfère aider mon prochain Car j'sais que Dieu me l'rendra ici bas ou dans un monde prochain Howa yaalem b kolchi, hata tkoun labes Gucci Lmout tjik w teddik, tedderbek kima lfuchi J'arrive dans l'game avec You pour écraser tous ces chiens Même s'ils sont plein, on les baise tous kalachnikov à la main Ça va péter dans l'quartier, dans tous les ghettos d'France Ayet lkursi, 11.43 pour me souhaiter bonne chance M'en bats les couilles de c'que tu penses, depuis ma tendre enfance J'laisse la concurrence en transe, lourde sera la sentence Brulux on the flux toujours dans les bacs Hier, ils m'boycottaient, maintenant, ils veulent faire mes backs Prochain clip, j'appelle Fredo, il m'prépare le Maybach Cette fois-ci, j'ferai pas l'gamin, promis, j'cacherai tes plaques Ils m'ont pris pour une blague, des mesures, il m'en reste quatre Pour ma mère, j'veux du 2.4, pour moi qamis, un RS4 Dédicace l'Algérie, le Maroc, la Tunisie Faudra bientôt retourner chez nous car y a trop d'crapules ici Parce que tu manges du lion l'matin devant moi tu veux rugir Approche j'te mets une claque de roumain, tu vas rougir Plus tu vas monter, plus les rumeurs vont surgir Personne n'est au-dessus d'personne, écoute bien tout c'que j'vais te dire Tout ce qui est autour de moi, j'vais te l'exposer La j'pète les plombs j'ai retiré la goupille, j'vais exploser À ma droite, les frères muz débarquent pour nous faire des rappels Par la gauche, y en a qui vesqui s'hab quelqu'un les appelle En primaire j'te frappais ouai j'me prenais pour l'king À 10 ans au comico voiture péta dans un parking Le quartier c'est une plaque tournante, ça défouraille de partout Dans mon escalier j'tombe sur un sac remplis d'billets j'garde tout Assis sur un banc toute la journée ça bibi Dans les bois ça fait bep-bep ou cric-cric bim bim ! Au collège, lycée v'là les bagarres, boy, j'casse des dents Avec Oxmo ou pas leurs uppercuts te rentre dedans On sait que la police nous surveille mais elle ne sait pas tout Les malins savent très bien que l'argent ne fait pas tout On a des avocats mais ils n'arrangent pas tout Les médecins sont la mais il ne soignent pas tout Pas de chance cette nuit la juge s'est fait mal baiser Donc forcément des chance d'être acquitté on baissées T'es pressé, t'accélères risquer sont les raccourcis Kazou dis leur que cette est pute mais plus de soucis que d'sursis Posé à la tess j'ai rien vu, rien entendu J'ves-qui les histoires tendu, des fois c'est tes potes qui t'enculent Avec du recul, tu finis par devenir solitaire Pour l'Etat on a pas les critères, donc on a fini sur le ter J'vois des pères, des mères qui travaillent dur pour ceux qu'ils aiment Wallah ça m'fait de la peine d'les rentrer pour rien dans nos problèmes 11.43 c'est le thème, là c'est Tirgo sur l'antenne Poto dès l'début de l'enquête c'est possible que tu perds la tête Envoie la frappe de Ketama dédicace à Khadama J'suis obligé d'faire du sale y'a toute la cité derrière moi Y'en a qui braquait des tabacs nous on bicravait du taga Ouais continuer à taguer nous on à pas l'temps on tabasse On va t'laisser aux aguets dé-ter comme l'armée du Hamas J'savais pas que sur ce banc ouais j'allais fumer des kamas Toute l'année tu fais des phases poto, c'est pas comme a-ç Dans l'arène j'ai toujours la faille, flow qui tire comme un Fa-mas Nous on est comme des hommes, on va toujours à la chasse Y'a du biff' et des liasses obligé on s'déplace Ça bicrave au fond de l'impasse, désolé si ça dépasse Dans ton bigo y'a les vrais et les boloss que t'effaces We-wesh la racaille, les raclures la police en a ras-le-cul Ma vie c'est un texte de rap remplit d'ratures Nerveux l'sourire aux lèvres doté d'pouvoir céleste J'ai perdu l'nord ma direction à moi c'est l'est J'écris des textes de fou, beaucoup métaphorique L'histoire d'un braqueur qui finit par taffer au Ritz Rosny-sous-Bois, la Sambuy, les braquos, les sous-salles Les sous-sols, les mouses, ceux qui moussent et qui s'débat ainsi qu'les douzes J'rappe, je pense comme un mec de la ur J'aime la pure qui branche les clients sur mon terrain tout les jours J'ai pas d'bonnes habitudes j'descends et j'traine J'truande j'ves-qui la justice dédicace à Fresnes Les sirènes retentissent, les criminels se repentissent La pisse du sheïtan, mes repentises, ma hantise C'est vraiment pas la mort mais c'qui s'en suit J'aime quand ça va que dans un sens Oui !, quand c'est classé sans suite Moi j'ai ramé, ramené la merde à mes rents-pa Et j'donne tout à mes frères marlich s'ils me le rendent pas La justice on s'la fait nous même, I'm so Hood ! Un dialogue de sourd entre moi et ma bouteille d'Absolut Me parle pas d'la gloire n'y même du sommet Nan, nan, nan Pour l'instant j'me bats pour finir la semaine Mais guette moi j'suis la j'rappe sale vas-y acquiesce De nos jours tu peux rater l'grand amour si t'as pas d'caisse - Sta-ive c'est du vécu On comprend que chez moi le sang c'est vidé à cause du manque d'écus - Oui c'est l'cercle est vicieux bienvenue dans le cerceau - Ça va péter dans l'quartier, dans tout les ghettos d'France - J'sais c'que c'est d'avoir la dalle, j'en connais les vertus - 11.43 mortuaire sera la saison13</t>
+          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un bâtard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans leur cul puis Ils n'ont fait que m'pister car pour me sauter fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veut test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser, on regrette Tony et petit Zé D'une balle on peut t'viser après avoir sympathisé Petit c'est, tranchant si, si comme un coup d'couteau C'est bouillant comme un toto poto, c'est clair comme une goutte d'eau Qu'les p'tits oiseaux dans l'ghetto, ils bé-tom avant d'savoir voler Parce qu'ils s'achètent un pistolet pour plus vite se rafistoler Pédé si tu sais sucer ben personne pourra t'pistonner Jadis c'était sur 6 maintenant sur 24, piste on est Sous haute tension, Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous, nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sait pas danser le zouk par contre on sait frotter les cavus On sait chiner une pute sans lui payer ce qu'elle veut On fait un vu que d'vant un oint-j à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portefeuilles On va au charbon quand y'a foye, dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone, au 36 ils raffolent Voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacances et nage avec Le me-seu c'est ma navette, la ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie Dieu, j'remercie m'man Car j'suis né en ce-Fran mais je ne suis pas un autochtone Putain d'poissard aux arrivants un mois d'octobre J'mérite le brassard tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à bersa J'roule un perso, je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaut mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse, Marvin avec Younes Le coup droit d'la coupe, barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe, le singe descend de l'arbre C'est pour ça qu'j'kiffe l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du Coca chaud Hey mutchatcho, Shriki once quarenta y tres Big up Chérif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace à Nos mère pleurent, les lits sont vides dans nos chambres On compte sur l'Seigneur, nos deux bras, nos trois jambes La rue la son-pri ses rasoirs à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y'a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavons aimeraient avoir ce que nous avons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au Quai d'l'a Rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Si si on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maques moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rait Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison, Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou À quiconque voudrait parier ben ça d'vrait lui couter ses sous Pour Lassana Diarra ben on pourrait ligoter Zizou J'mérite pas d'bisou, j'm'en fous j'sors du zoo J'éclate les ondes, j'éclaire les ombres j'rappe quatre saisons J'vend du crack des tazoo, j'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la basons Dehors ça vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de ce qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouches depuis qu'tous les chemins mènent à Zou J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier, Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier ? Moral en béton quand on bé-tom y'a pas d'brancardier Ça sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le mac Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure j'cause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre Et qui fait l'écoute du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veut m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchska et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics You might also like Be-bebebe-bebebe-bebebe-Belleville ! Attention, c'est Mister You, gros Ah, Woogataga La rue puis la prison, gros Belleville, 11ème, 19ème4</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>La Rue Puis La Prison</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un bâtard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans leur cul puis Ils n'ont fait que m'pister car pour me sauter fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veut test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser, on regrette Tony et petit Zé D'une balle on peut t'viser après avoir sympathisé Petit c'est, tranchant si, si comme un coup d'couteau C'est bouillant comme un toto poto, c'est clair comme une goutte d'eau Qu'les p'tits oiseaux dans l'ghetto, ils bé-tom avant d'savoir voler Parce qu'ils s'achètent un pistolet pour plus vite se rafistoler Pédé si tu sais sucer ben personne pourra t'pistonner Jadis c'était sur 6 maintenant sur 24, piste on est Sous haute tension, Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous, nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sait pas danser le zouk par contre on sait frotter les cavus On sait chiner une pute sans lui payer ce qu'elle veut On fait un vu que d'vant un oint-j à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portefeuilles On va au charbon quand y'a foye, dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone, au 36 ils raffolent Voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacances et nage avec Le me-seu c'est ma navette, la ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie Dieu, j'remercie m'man Car j'suis né en ce-Fran mais je ne suis pas un autochtone Putain d'poissard aux arrivants un mois d'octobre J'mérite le brassard tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à bersa J'roule un perso, je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaut mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse, Marvin avec Younes Le coup droit d'la coupe, barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe, le singe descend de l'arbre C'est pour ça qu'j'kiffe l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du Coca chaud Hey mutchatcho, Shriki once quarenta y tres Big up Chérif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace à Nos mère pleurent, les lits sont vides dans nos chambres On compte sur l'Seigneur, nos deux bras, nos trois jambes La rue la son-pri ses rasoirs à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y'a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavons aimeraient avoir ce que nous avons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au Quai d'l'a Rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Si si on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maques moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rait Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison, Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou À quiconque voudrait parier ben ça d'vrait lui couter ses sous Pour Lassana Diarra ben on pourrait ligoter Zizou J'mérite pas d'bisou, j'm'en fous j'sors du zoo J'éclate les ondes, j'éclaire les ombres j'rappe quatre saisons J'vend du crack des tazoo, j'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la basons Dehors ça vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de ce qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouches depuis qu'tous les chemins mènent à Zou J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier, Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier ? Moral en béton quand on bé-tom y'a pas d'brancardier Ça sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le mac Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure j'cause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre Et qui fait l'écoute du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veut m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchska et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics You might also like Be-bebebe-bebebe-bebebe-Belleville ! Attention, c'est Mister You, gros Ah, Woogataga La rue puis la prison, gros Belleville, 11ème, 19ème4</t>
+          <t>J'suis dans mon quartier, j'galère, j'regarde en l'air J'suis en train d'cogiter, j'suis défoncé sa mère J'arrive chargé, comme une porteuse à Tanger Après mon passage, ou t'es refait ou bien il te reste plus grand chose à manger J'roule un sdeh pour me percher, rejoindre l'étoile du Berger C'est plus des couilles que j'ai, eh non, c'est des gros ufs de Fabergé J'suis overbooké, ok zoogataga J'ai appris une chose chez Ruquier, c'est le mot rutabaga J'rêve que d'pouvoir, et comme vous avez pu le voir Bah le rap français c'est pas vraiment l'truc tah Audrey Pulvar Mon point commun avec Natacha c'est mes chicos d'devant Que moi-même sans mes 32 dents, j'leur faisais du rentre-dedans Ouais, bien sûr que l'avenir est inquiétant Pour des barrettes, ils nous mettent 8 ans, wesh, monsieur le président Dites leur bien que j'représente les 3arbis et les niggas Moi, j'suis plus riche qu'eux, donc pourquoi j'irai fouiller leurs caisses Eux, ils sont en pleine crise, moi j'suis en plein dans les 30 glorieuses Mais j'sais que ma liberté bah, vaut pas grand chose à leur yeuz Demande à Lacrim quand j'étais à l'école, c'était pour gratter les remises de peine Du dispatching au disque d'platine, de la fiche de recherche à la fiche de paye J'ai pété tous les barrages, mais j'n'ai jamais été odieux Comment idolâtrer la vache, quand l'univers est à Dieu Dites leur bien que, m'en bats les couilles de leur baratin Que là j'suis en promenade, 3ème tour, khapta dans un bar à tinp' Nique l'État, ces chmatas, ils rêvent que de nous mettre dans la de-mer J'vais m'branler et même cracher sur leur putain de système de merde Woogata ekh tfou, rap tah les fous Qui préfèrent s'acheter une Rafleuse que d'faire du kung-fu La Mecque, j'suis d'ceux qui se baissent et qui toussent, mec, Allah yaafo J't'ai déjà dis, nous on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophile pour des histoires de barrettes Autant vendre de la cocaïne, butez-nous pour qu'on s'arrête Les 3ineurs montrent pas l'il, dites-leur de niquer leur mère les chouettes Moi, m'occupe de la vodka, woogataga gardez la Schweppes Hey, d'après mon entourage, moi, j'reste un brave J'reste un vrai, c'est pour ça qu'il m'encourage Après la pluie, y a pas le beau temps, y a l'orage C'est vrai que les petits sont hardcore, on était pareil à leur âge À deux sur un scooter on vivait que de vol à l'arrach' Puis on a connu la crave-bi et on a vite tourné la page On s'est mis à couper des barrettes, ensuite à vendre des plaquettes Puis d'la coke et des galettes, jusqu'à ce que les keufs nous arrêtent Un jour j'étais dans le 19, l'lendemain un hessess fermait ma porte Un soir j'étais avec une meuf, l'lendemain elle était avec mon pote La vie c'est dur, pas de peine nous tout ce qu'on porte c'est des flingues Et y a pas de vice de procédure gros c'est la loi de la jungle C'est pas d'ma faute, darwa, j'crois bien que j'suis taré d'naissance J'me reconnais pas moi-même des fois j'suis ravi de faire ma connaissance Et quand je pars au shtar, bah t'inquiète pas que j'reçois des mandats Et j'ai toujours la frappe, tah Hollanda et tah Belhanda J'suis khapta, zoogataga sous ma véranda J'glisse mes doigts dans les cheveux tah Esméralda J'emmerde l'État, j'emmerde les stups, j'emmerde les gendarmes Trafiquant de rimes, trafiquant d'stups ou trafiquant d'armes Je suis, comment vous dites ? Paranoïaque ! Ouais J'm'en bat les yeuks, madame la juge, baraneyek ! Ytiyyeh sa3dek ! J'te l'avais dit que j'avais des projets Là, j'graille des brochettes, j'insulte ta mère et j'touche des gros chèques M'achète des trucs qui valent cher, rien qu'avant hier J'me suis acheté 3-4 t-shirt, j'ai dépensé ton salaire J'me suis roulé un gros sdeh, puis j'ai repensé à la misère À cet été, à cet hiver, Alicante ou au Val-d'Isère Au mitard tah la Santé, les promenades en camembert Au mitard tah Fleury, j'revois les toilettes, j'me dis beurk ! Ah les bâtards, comment ils ont pu me faire ça ? Ils me l'ont mise, j'leur ai remise woogata vice et versa Ya zzeh, obligé de se faire remarquer Obligé de se faire embarquer, déféré au parquet Direction les grillages, bon, trêve d'enfantillage Yeah, I speak a little English, motherfucking biatch ! Weld lqahba, what you gonna do? Ok, j'continue tout doux, j're-big up le rott' Mamadou Yoogata yoogata gangz to gangz Ouais, tu connais la musique, celui qui veut me test, j'le baise You might also like Ban-ban-bandit j'fait que du propre, j'effectue les sales tâches Ça sert à quoi de jouer le pirate, si pas à l'abordage Ils dopent en dopant, co on t'laisse le dos en deux On est nous-mêmes en paix exorcistes avec un joint d'beuh Tous les soirs j'dégrise, nos combines se développent Mais des fois les quis' débarquent et dans les comptes ça fait des flops Du crime ouais y'a la crème, Sta-ive c'est du vécu Mon gros, chez moi le sang s'est vidé à cause du manque d'écus Pas de ces collabos, que t'achètes avec alcool et abus De plus, j'baise ces nabots qui croient contrôler la rue Les yeux cernés au poste, menotté à des barreaux de chaise J'rêve d'Îles Vierges m'en fumer avec des barreaux de chaises La nuit j'dors mal, éternellement tourmenté En pensant que j'vais prendre cher si les keufs arrivent à tout remonter Ceux qui sèment le vent, récolte du ons dans le ventre A-L, futur ex-braqueur reconverti dans la vente J'aimerais partir tranquille, les pieds d'vant Un monde de fils de pute, j'suis obligé de vendre Ah bon ? Ça suffit pas alors on braque sa mère M'en voulais pas dans le rap y'a trop de zamels 3 quart, belle coupe, chico cassé La vie c'est speed même mon ombre veut me dépasser Oh, le sky est classé, j'suis chaud Menacer ne sert à rien, j't'envoie 2-3 balles l'affaire est classé Ramassé du biff, voilà dans quoi j'me suis perdu J'sais c'que c'est d'avoir la dalle, j'en connais ces vertus Hyper dur, fréquentation malsaine Chiale pas sur mon sort, tu sais qu'ici personne nous accepte On connait le respect, les valeurs et les principes T'es le plus grand des hommes si tu te lèves pour bosser à Rungis Malheureusement pas mon cas, au fond de moi je les envie Nos vies, c'est faire du biff, mais resté en vie Donc faut marcher armé, puis avoir la trique Aujourd'hui t'allumes demain t'es complètement matrixé C'est la vie du western, la vie d'moi j'suis réel La tranquillité frérot est bloquée dans mes rêves Impossible de l'avoir, je ne prends jamais de Mais Belek au feu le couz si tu mets trop de bois Beaucoup de salopes font les voyous, wallah que c'est pas une fierté Dis-moi qui sera là le jour ou t'auras vraiment merdé J'ai l'orgueil d'un bébé, je m'énerve et je pète tout J'assume les conséquences khey dans mes bras je prend le mektoub Oui j'aime pas les poulets et je f'rais recette sans eux Une impression même jaloux de ma paire à 700E Ils m'inventent des vies, le mythe ils veulent casser Hum j'en ai assez, les traquer, les chlasser Quand j'allais tu revenais, dans ta tête ça ne rentre pas Je le ferai tout les jours, je compte l'oseille me dérange pas Bien sur qu'on s'est fait tout seul, je sais très bien que tu sais J'ai braqué des bijouteries quand les autres allaient sucer Sans t'manquer de respect, dans l'rap dis-moi ce qui est facile Frérot on viens de la rue c'est des filles faciles J'ai roulé ma bosse, j'en ai marre d'bouffer d'la merde Coup d'crosse, la vie t'assomme pire qu'un joint d'herbe Tout c'qu'on a, on finit par l'perdre Étoile de mer, dix mille kilomètres, perdu sur la lune verte J'suis tellement loin des je veux être Berrad d'atay, j'allume un jaabouq à la fenêtre T'es dans l'paraître, moi j'veux disparaître Les kheys passent au dispatching, une mère qui pleure c'est la faute d'un traître Y'a plus qu'des bras cassés dis-moi à qui serrer les coudes ? Six pieds sous terre, quand j'me ferai bouffer par l'doud Noyé dans l'doute, j'suis toujours dans l'hood Les yeux rouges, Wydad Casanegra j'suis pas un Blood Passe-moi des feuilles, c'soir j'fume mes dernières illusions Sers-moi un verre que j'tourne cette tragédie en dérision 11.43, mortuaire sera la saison Maintenant j'marche avec des rétros, dis-moi qui va m'sauter l'caisson Y'a, y'a, y'a plus d'rage que d'la fashionnerie J'enterre l'espoir dans un parloir à Fleury Ghetto youth langage, du whisky, les chicots pourries Bonbon sauvage, 0.4 khoya souris Heh-hep-pep, Dieu seul est maitre de ma destinée Moi j'me verrais bien à La Mecque avec mes rents-pa et ma dulcinée La vie c'est pas un clip ni du ciné ou une bande dessinée On va peut-être finir à Clairvaux, on va peut-être s'faire assassiner C'est clair gros qu'on peut tout perdre sur un coup d'ker-po J'te parle d'une boite où pour rentrer y'a même pas besoin d'se faire beau Le cercle est vicieux bienvenue dans le cerceau Quand j'ai fêté mes 16 ans c'est pas du plomb que j'avais dans le cerveau J'ai 28 ans, j'habite dans l'zoo, je m'appelle Hédi Chabar J'veux réussir, j'veux m'en sortir depuis que j'suis tout petit je chabarde J'ai bicrave, j'ai fais plein d'conneries dont j'suis pas du tout fier Comme les aller-retours à Fleury pour battre le fer faut du fer Pour faire du flouze faut du flouze, des couilles et d'la gamberge Surtout quand t'es seul contre tous y'a personne pour te tendre la perche Moi, hamdullah, j'suis pas comme ça, j'préfère aider mon prochain Car j'sais que Dieu me l'rendra ici bas ou dans un monde prochain Howa yaalem b kolchi, hata tkoun labes Gucci Lmout tjik w teddik, tedderbek kima lfuchi J'arrive dans l'game avec You pour écraser tous ces chiens Même s'ils sont plein, on les baise tous kalachnikov à la main Ça va péter dans l'quartier, dans tous les ghettos d'France Ayet lkursi, 11.43 pour me souhaiter bonne chance M'en bats les couilles de c'que tu penses, depuis ma tendre enfance J'laisse la concurrence en transe, lourde sera la sentence Brulux on the flux toujours dans les bacs Hier, ils m'boycottaient, maintenant, ils veulent faire mes backs Prochain clip, j'appelle Fredo, il m'prépare le Maybach Cette fois-ci, j'ferai pas l'gamin, promis, j'cacherai tes plaques Ils m'ont pris pour une blague, des mesures, il m'en reste quatre Pour ma mère, j'veux du 2.4, pour moi qamis, un RS4 Dédicace l'Algérie, le Maroc, la Tunisie Faudra bientôt retourner chez nous car y a trop d'crapules ici Parce que tu manges du lion l'matin devant moi tu veux rugir Approche j'te mets une claque de roumain, tu vas rougir Plus tu vas monter, plus les rumeurs vont surgir Personne n'est au-dessus d'personne, écoute bien tout c'que j'vais te dire Tout ce qui est autour de moi, j'vais te l'exposer La j'pète les plombs j'ai retiré la goupille, j'vais exploser À ma droite, les frères muz débarquent pour nous faire des rappels Par la gauche, y en a qui vesqui s'hab quelqu'un les appelle En primaire j'te frappais ouai j'me prenais pour l'king À 10 ans au comico voiture péta dans un parking Le quartier c'est une plaque tournante, ça défouraille de partout Dans mon escalier j'tombe sur un sac remplis d'billets j'garde tout Assis sur un banc toute la journée ça bibi Dans les bois ça fait bep-bep ou cric-cric bim bim ! Au collège, lycée v'là les bagarres, boy, j'casse des dents Avec Oxmo ou pas leurs uppercuts te rentre dedans On sait que la police nous surveille mais elle ne sait pas tout Les malins savent très bien que l'argent ne fait pas tout On a des avocats mais ils n'arrangent pas tout Les médecins sont la mais il ne soignent pas tout Pas de chance cette nuit la juge s'est fait mal baiser Donc forcément des chance d'être acquitté on baissées T'es pressé, t'accélères risquer sont les raccourcis Kazou dis leur que cette est pute mais plus de soucis que d'sursis Posé à la tess j'ai rien vu, rien entendu J'ves-qui les histoires tendu, des fois c'est tes potes qui t'enculent Avec du recul, tu finis par devenir solitaire Pour l'Etat on a pas les critères, donc on a fini sur le ter J'vois des pères, des mères qui travaillent dur pour ceux qu'ils aiment Wallah ça m'fait de la peine d'les rentrer pour rien dans nos problèmes 11.43 c'est le thème, là c'est Tirgo sur l'antenne Poto dès l'début de l'enquête c'est possible que tu perds la tête Envoie la frappe de Ketama dédicace à Khadama J'suis obligé d'faire du sale y'a toute la cité derrière moi Y'en a qui braquait des tabacs nous on bicravait du taga Ouais continuer à taguer nous on à pas l'temps on tabasse On va t'laisser aux aguets dé-ter comme l'armée du Hamas J'savais pas que sur ce banc ouais j'allais fumer des kamas Toute l'année tu fais des phases poto, c'est pas comme a-ç Dans l'arène j'ai toujours la faille, flow qui tire comme un Fa-mas Nous on est comme des hommes, on va toujours à la chasse Y'a du biff' et des liasses obligé on s'déplace Ça bicrave au fond de l'impasse, désolé si ça dépasse Dans ton bigo y'a les vrais et les boloss que t'effaces We-wesh la racaille, les raclures la police en a ras-le-cul Ma vie c'est un texte de rap remplit d'ratures Nerveux l'sourire aux lèvres doté d'pouvoir céleste J'ai perdu l'nord ma direction à moi c'est l'est J'écris des textes de fou, beaucoup métaphorique L'histoire d'un braqueur qui finit par taffer au Ritz Rosny-sous-Bois, la Sambuy, les braquos, les sous-salles Les sous-sols, les mouses, ceux qui moussent et qui s'débat ainsi qu'les douzes J'rappe, je pense comme un mec de la ur J'aime la pure qui branche les clients sur mon terrain tout les jours J'ai pas d'bonnes habitudes j'descends et j'traine J'truande j'ves-qui la justice dédicace à Fresnes Les sirènes retentissent, les criminels se repentissent La pisse du sheïtan, mes repentises, ma hantise C'est vraiment pas la mort mais c'qui s'en suit J'aime quand ça va que dans un sens Oui !, quand c'est classé sans suite Moi j'ai ramé, ramené la merde à mes rents-pa Et j'donne tout à mes frères marlich s'ils me le rendent pas La justice on s'la fait nous même, I'm so Hood ! Un dialogue de sourd entre moi et ma bouteille d'Absolut Me parle pas d'la gloire n'y même du sommet Nan, nan, nan Pour l'instant j'me bats pour finir la semaine Mais guette moi j'suis la j'rappe sale vas-y acquiesce De nos jours tu peux rater l'grand amour si t'as pas d'caisse - Sta-ive c'est du vécu On comprend que chez moi le sang c'est vidé à cause du manque d'écus - Oui c'est l'cercle est vicieux bienvenue dans le cerceau - Ça va péter dans l'quartier, dans tout les ghettos d'France - J'sais c'que c'est d'avoir la dalle, j'en connais les vertus - 11.43 mortuaire sera la saison13</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mister Mister</t>
+          <t>GOGETA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J'tourne au Mali, en Algérie, au Maroc, en Tunisie J'roule sans permis décapoter j'graisse la patte aux policiers Moi, mon rap c'est d'la pure donc vos oreilles s'anesthésient Y'a plus de schmet' dans c'game que d'muslims en Indonésie Si t'es un brave j'suis ton ami, si tu veux jouer j'suis Konami J'ai fait connaître Belleville de Marrakech à Miami Traces ta route, ne t'arrêtes pas j'te conseilles d'aller tout droit Un mec avertit il en vaux deux, un mec affranchis il en vaux trois Ah ! Ah ! Woogataga, y'a qu'la maille qui m'aille J'suis déréglé comme le calendrier Maya Quand tu dors moi j'suis réveillé Mon cerveau il aime trop travailler J'suis miclo, j'suis pas popeye-yé j'mésquive pas quand faut payer Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best You might also like J'arrive l'sourire en coin avec un regard de vénère J'attire toutes les femelles donc tout les mâles ont les nerfs Moi mes souvenirs au château c'est des promenades en plein air J'suis devenu l'prince de machiavel, de ma ville pas de Bel-Air V'là la jet-set avenue des Peupliers Ouuaaaii ! J'suis venu foutre le feu donc appeler les pompiers Dans l'rap j'ai pris un bon billet Bénef les plus éparpillés La SACEM je l'ai plié Ca à fini par payer J'suis en règle j'ai mes papiers et mon pochka dans la saccoche J'ai deux bras droit j'ai pas d'bras gauche Et j'sais bien que l'droit chemin y vire à che-gau Eux se qui ont éco darwa j'ai dans la che-fo Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Du nord au sud, à l'est, à l'ouest Y'a qu'un Younès que j'connaisse I am the best of the best tah le best des best T'as pas senti la patate ça vient direct de Paris Passe moi les clés d'la baraque j'te laisse celle du Ferrari La patience est une vertu récompensant l'escargot Ils s'la racontent avec leur barque fallait que j'leur laisse un cargo Vas dire aux 3ineurs d'aller faire un tour chez l'ophtalmo Gros j'suis parano j'regarde même plus les panneaux Moi je n'étais rien, mais voila qu'aujourd'hui J'suis devenu l'prince du gardien du sommeil de ses nuits J'ai l'train vie d'Usain Bolt impossible que je m'ennuie J'suis en train d'danser la samba va voir le roi et demande lui qui est le best Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Toujours frais ! Ouai, ouai, ouai ! I'm the best of the best tah le best des best2</t>
+          <t>Eh T'as changé l'fusil d'épaule, dis-moi c'est quoi cette phrase Gros, t'as toujours le fusil, bref j'ai dû cracher ma haine De l'amour dans les draps, j'défends ma cause, celle de la Cosa Nostra La finalité pour moi c'est pas d'rouler en caisse Il faut des rentes et tous les mois j'encaisse Faire du gros papier sans crier sur tous les toits J'mettrai jamais de l'or dans mes lettes-toi J'suis sur la route avec elle, on écoute la Bohème Même Lacrim bâtard, il sait faire des poèmes J'ai le .45 dans la veste, les oiseaux sont dans le nid Tu rêvais de grimper l'Everest, on l'a fait dans le lit Les fantômes du passé m'attendent dans mon avenir Aussi vrai que Jésus va revenir J'connais ma vie, y'a 2000 choses qui t'attirent Tu m'aimes tellement que tu veux être là quand ça tire J'suis sur Paname avec Omar On écoute Pop Smoke Envie de faire couler le sang, très calibrés sont mes Apaches Dans le garage y'a la Kalash, aux épaules j'ai poussé 200 Depuis petit, j'ai vu des choses c'est digne d'un cinéma Que Dieu m'en soit témoin, j'ai pas besoin de mentir J'suis pas Teddy Riner mais j'ai toujours été un tigre Dans la prison pour mineurs, j'étais pas du côté victime You might also like Il fallait manger à la baraque sur qui avait pas de thune En fait, se venger car l'état fait preuve d'ingratitude Jamais se ranger, être marginal c'est dans nos habitudes On rêve de nager dans le bonheur et dans la solitude Des fils de pute, viens pas froisser nos relations On parle en crypté sur des applications On a toujours des solutions mais encore plus de problèmes On se monte dessus c'est nos résolutions Faut des diamants sur la couronne qu'est sur la tête de ma daronne Ouais nous quand on prend la parole, bah on demande pas la permission Ouvre la session, j'pars en mission, sors le whisky, sors la potion Toi plus moi la solution, hormis devant Dieu pas de soumission Suffit d'un regard pour les refroidir, on va s'les faire avant d'partir Crois mon veau-cer écrit des trucs que mes vres-lè ne peuvent pas dire C'est un empire qu'on a bâti, c'est tous les faux qu'on a battus Plus l'temps pour la sympathie, le regard noir quand y a pas d'shit Mon colonel c'est pas Fabian, mon capitaine c'est pas Magic Certains me disent C'est pas logique, moi j'leur réponds C'est d'la magie Décapoté j'suis dans la Jeep, j'écoute le son, j'suis avec Ça m'fait plaisir d'aller aux Maldives, ça m'fait kiffer d'croiser ma team C'est le 9-4 et Rebeval, tu nous connais on fait les gros titres On préfère canner d'une rafale que de crever d'une hépatite Bats les couilles de ton réseau, nous c'est la fibre optique Nous ne sommes pas de ces rappeurs qui montrent leurs chibres aux p'tites Les poulets sont déjà rôtis, on braque l'oseille à Rothschild Le show il est garanti, t'arrives en caisse, tu repars en jeans Disque d'or et l'platine, putain quelle bête de routine J'ai la rime qui touche tout le monde, le micro c'est d'la chevrotine On t'nique ta mère pour des broutilles, pour un regard on peut t' Faut une guitare pour s'dire au revoir et des bougies pour le jour J On a grandi dans l'banditisme, on n'en fait pas l'apologie Ils veulent fumer nos racines, c'est pas bon pour l'écologie</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GOGETA</t>
+          <t>Mister Mister</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Eh T'as changé l'fusil d'épaule, dis-moi c'est quoi cette phrase Gros, t'as toujours le fusil, bref j'ai dû cracher ma haine De l'amour dans les draps, j'défends ma cause, celle de la Cosa Nostra La finalité pour moi c'est pas d'rouler en caisse Il faut des rentes et tous les mois j'encaisse Faire du gros papier sans crier sur tous les toits J'mettrai jamais de l'or dans mes lettes-toi J'suis sur la route avec elle, on écoute la Bohème Même Lacrim bâtard, il sait faire des poèmes J'ai le .45 dans la veste, les oiseaux sont dans le nid Tu rêvais de grimper l'Everest, on l'a fait dans le lit Les fantômes du passé m'attendent dans mon avenir Aussi vrai que Jésus va revenir J'connais ma vie, y'a 2000 choses qui t'attirent Tu m'aimes tellement que tu veux être là quand ça tire J'suis sur Paname avec Omar On écoute Pop Smoke Envie de faire couler le sang, très calibrés sont mes Apaches Dans le garage y'a la Kalash, aux épaules j'ai poussé 200 Depuis petit, j'ai vu des choses c'est digne d'un cinéma Que Dieu m'en soit témoin, j'ai pas besoin de mentir J'suis pas Teddy Riner mais j'ai toujours été un tigre Dans la prison pour mineurs, j'étais pas du côté victime You might also like Il fallait manger à la baraque sur qui avait pas de thune En fait, se venger car l'état fait preuve d'ingratitude Jamais se ranger, être marginal c'est dans nos habitudes On rêve de nager dans le bonheur et dans la solitude Des fils de pute, viens pas froisser nos relations On parle en crypté sur des applications On a toujours des solutions mais encore plus de problèmes On se monte dessus c'est nos résolutions Faut des diamants sur la couronne qu'est sur la tête de ma daronne Ouais nous quand on prend la parole, bah on demande pas la permission Ouvre la session, j'pars en mission, sors le whisky, sors la potion Toi plus moi la solution, hormis devant Dieu pas de soumission Suffit d'un regard pour les refroidir, on va s'les faire avant d'partir Crois mon veau-cer écrit des trucs que mes vres-lè ne peuvent pas dire C'est un empire qu'on a bâti, c'est tous les faux qu'on a battus Plus l'temps pour la sympathie, le regard noir quand y a pas d'shit Mon colonel c'est pas Fabian, mon capitaine c'est pas Magic Certains me disent C'est pas logique, moi j'leur réponds C'est d'la magie Décapoté j'suis dans la Jeep, j'écoute le son, j'suis avec Ça m'fait plaisir d'aller aux Maldives, ça m'fait kiffer d'croiser ma team C'est le 9-4 et Rebeval, tu nous connais on fait les gros titres On préfère canner d'une rafale que de crever d'une hépatite Bats les couilles de ton réseau, nous c'est la fibre optique Nous ne sommes pas de ces rappeurs qui montrent leurs chibres aux p'tites Les poulets sont déjà rôtis, on braque l'oseille à Rothschild Le show il est garanti, t'arrives en caisse, tu repars en jeans Disque d'or et l'platine, putain quelle bête de routine J'ai la rime qui touche tout le monde, le micro c'est d'la chevrotine On t'nique ta mère pour des broutilles, pour un regard on peut t' Faut une guitare pour s'dire au revoir et des bougies pour le jour J On a grandi dans l'banditisme, on n'en fait pas l'apologie Ils veulent fumer nos racines, c'est pas bon pour l'écologie</t>
+          <t>J'tourne au Mali, en Algérie, au Maroc, en Tunisie J'roule sans permis décapoter j'graisse la patte aux policiers Moi, mon rap c'est d'la pure donc vos oreilles s'anesthésient Y'a plus de schmet' dans c'game que d'muslims en Indonésie Si t'es un brave j'suis ton ami, si tu veux jouer j'suis Konami J'ai fait connaître Belleville de Marrakech à Miami Traces ta route, ne t'arrêtes pas j'te conseilles d'aller tout droit Un mec avertit il en vaux deux, un mec affranchis il en vaux trois Ah ! Ah ! Woogataga, y'a qu'la maille qui m'aille J'suis déréglé comme le calendrier Maya Quand tu dors moi j'suis réveillé Mon cerveau il aime trop travailler J'suis miclo, j'suis pas popeye-yé j'mésquive pas quand faut payer Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best You might also like J'arrive l'sourire en coin avec un regard de vénère J'attire toutes les femelles donc tout les mâles ont les nerfs Moi mes souvenirs au château c'est des promenades en plein air J'suis devenu l'prince de machiavel, de ma ville pas de Bel-Air V'là la jet-set avenue des Peupliers Ouuaaaii ! J'suis venu foutre le feu donc appeler les pompiers Dans l'rap j'ai pris un bon billet Bénef les plus éparpillés La SACEM je l'ai plié Ca à fini par payer J'suis en règle j'ai mes papiers et mon pochka dans la saccoche J'ai deux bras droit j'ai pas d'bras gauche Et j'sais bien que l'droit chemin y vire à che-gau Eux se qui ont éco darwa j'ai dans la che-fo Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Du nord au sud, à l'est, à l'ouest Y'a qu'un Younès que j'connaisse I am the best of the best tah le best des best T'as pas senti la patate ça vient direct de Paris Passe moi les clés d'la baraque j'te laisse celle du Ferrari La patience est une vertu récompensant l'escargot Ils s'la racontent avec leur barque fallait que j'leur laisse un cargo Vas dire aux 3ineurs d'aller faire un tour chez l'ophtalmo Gros j'suis parano j'regarde même plus les panneaux Moi je n'étais rien, mais voila qu'aujourd'hui J'suis devenu l'prince du gardien du sommeil de ses nuits J'ai l'train vie d'Usain Bolt impossible que je m'ennuie J'suis en train d'danser la samba va voir le roi et demande lui qui est le best Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Toujours frais ! Ouai, ouai, ouai ! I'm the best of the best tah le best des best2</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleurer des rivières Il nous détestent on les détestent On a la culture de la gagne, la haine de la défaite Là pour la famille, Là pour les frères Préfèrent faire les choses pour les choses Que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrais pété les portes Pour que les notre prenne une autre chance La bas le monde est a nous c'est que du flanc Soit t'es in, soit t'es out, soit t'allonge, soit tu flanche Les règles suivent, retenir les reines Ce qui t'aime c'est ce qui compte le reste On s'en bat les reins, tout n'est pas donner, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais Tout n'est pas sain, dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps a refaire le coin Trop y'a la peine trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 You might also like C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement finte crochées passement de jambes Tu connais la musique dahwa On se mélanges pas trop avec les gens On s'en bas les couilles, il nous faut dl'argent On reve d'etre dans un palais Mais pas en étant guidé par un darme-gen Sa sent la p'tata Zoogataga Ouais wahad , jouj , tlata J'suis venu pointé du doigt l'Etat C'est enculé qui vivent dans un vrai confort 9 métres carrés sans télé y'a que le shit qui nous réconforte Pour s'évadé rejoindre les airs on s'roule de gros bulldozer Qui démolisse nos veau-cer les hésess nikez vos soeurs Vu que le me-seu c'est consistant laisse la be-her pour l'désert On a la dalle on graille nos ongles on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafic les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troc sa toutes p'tites voitures Contre un bête de yacht et c'est parti pour la dictature Mais il croit la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'africains Dahwa sort du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga Misla, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainés, le Sheitan vient engrainé La course aux milliards rend notre cur noir, l'a gangrèné Sur l'autoroute du suicide inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face du bédo dans l'traîneau J'donne plus mon amour pour toujours À la manu chao perquise en guise de Ciao Gadjo,Gadji, nos destins sont gâchés Enragé le navire de nos rêves a déjà naufragée Embrassé ma tess par les flammes du mal C'est fait embrassé Sur le bitume nos silhouette sont tracé Nous laissé déclassé des classes Et déplacé des basses Térassé par la pouasses Nos destins entrasse au passé khey On bataille on veut tous faire de la maille Qu'on bicrave qu'on travail on sera traité de racaille Alors nique leurs meres à c'est Gros Fils de Putes Y'a pas ma téte a l'affiche j'suis fiché chez les stups 93.13 presse dans les yeuz on pense qu'a craché comme mon gun Crache la fumée mes poumons sont encrassé Grassié Gracias muchachos muchachas, comme Fallait bien que j'me refasse Atrophié assomer par l'enclume du procureur Sur street lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
+          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleuré des rivières Il nous détestent, on les déteste On a la culture de la gagne, la haine de la défaite Là pour la famille, là pour les frères Préfère faire les choses pour les choses que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrait péter les portes pour que les nôtres aient une autre chance Là-bas le monde est à nous c'est que du flan Soit t'es in, soit t'es out, soit t'as l'manche, soit tu flanches Les règles suivent, retenir les rênes Ceux qui t'aiment, tout ce qui compte, le reste on s'en bat les reins Tout n'est pas donné, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais, tout n'est pas sain Dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps à refaire le coin Trop y'a la peine, trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 You might also like C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement, feinte crochets passement de jambes Tu connais la musique, dahwa on se mélange pas trop avec les gens On s'en bas les couilles, il nous faut d'l'argent On rêve d'être dans un palais mais pas en étant guidé par un darme-gen Sa sent la p'tata, zoogataga Ouais wahad , jouj , tlata J'suis venu pointer du doigt l'État Ces enculés qui vivent dans un vrai confort Neuf mètres carrés sans télé y'a que le shit qui nous réconforte Pour s'évader, rejoindre les airs, on roule de gros bulldozers Qui démolisse nos veaux-cer, les hésess niquez vos surs Vu que le me-seu c'est consistant, laisse la be-her pour l'désert On a la dalle, on graille nos ongles, on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafique les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troque sa tout p'tite voiture Contre un bête de yacht et c'est parti pour la dictature Mais ils croient la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'Africains Dahwa, sors du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga, Mista, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic, t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainées, le Sheitan vient engrainer La course aux milliards rend notre cur noir, l'a gangréné Sur l'autoroute du suicide, inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face, du bédo dans l'traîneau J'taime plus mon amour pour toujours À la Manu Chao, perquise en guise de Ciao Gadjo, Gadji, nos destins sont gâchés Enragé, le navire de nos rêves a déjà naufragé Embrasée, ma tess par les flammes du mal s'est faite embrasser Sur le bitume, nos silhouettes sont tracées Délaissés, déclassés, déclassés, déplacés Dépassés, terrassés par la poisse Nos destins on trace au passé, khey On bataille, on veut tous faire de la maille Qu'on bicrave, qu'on travaille, on sera traité de racaille Alors nique leurs mères à ces gros fils de putes Y'a pas ma tête a l'affiche, j'suis fiché chez les stups 93, 13 braise dans les yeuz, on pense qu'à brasser Comme mon gun, j'crache la fumée, mes poumons sont encrassés Grazie, gracias muchachos muchachas Comme Pachanga, fallait bien que j'me refasse Atrophié, assommé par l'enclume du procureur Sur Street Lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais You might also like Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à vif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
+          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais You might also like Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à Fif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Les temps actuels déçoivent, nous remontent pas le moral Pourquoi on râle, observe mon constat visuel Vis nos vies, tu verras qu'y'a peu de joie dans les ruelles Et ce détail veut nous appâter dans le piège comme des ânes bâtés Si mon ssiste-gro il serait sicilien, je débiterais plus que Tati Je niquerais Carla et Cécilia ainsi que Rachida Dati Diakite, Belmadi m'ont dit de te dire qu'ils sont vénères Si je fais un gosse je l'appelle condi sur la vie de ma mère Cher monsieur le président va niquer tes morts Ton discours est trop amer dehwa va niquer ta mère Trop les crocs gros c'est le remake des Dents de la mer Quand y'a les keufs on dit tous qu'ils veulent nous mettre dans de la merde Cher monsieur le président va niquer tes morts Ton discours est trop amer je répète va niquer ta mère Là on a plus de repères donc on agit anormalement Faire le cher monsieur le président va niquer ta maman You might also like</t>
+          <t>Les temps actuels déçoivent, nous remontent pas le moral Pourquoi on râle, observe mon constat visuel Vis nos vies, tu verras qu'y'a peu de joie dans les ruelles Et ce détail veut nous appâter dans le piège comme des ânes bâtés Si mon ssiste-gro il serait sicilien, je débiterais plus que Tati Je niquerais Carla et Cécilia ainsi que Rachida Dati Diakite, Belmadi m'ont dit de te dire qu'ils sont vénères Si je fais un gosse je l'appelle condi sur la vie de ma mère Cher monsieur le président va niquer tes morts Ton discours est trop amer dehwa va niquer ta mère Trop les crocs gros c'est le remake des Dents de la mer Quand y'a les keufs on dit tous qu'ils veulent nous mettre dans de la merde Cher monsieur le président va niquer tes morts Ton discours est trop amer je répète va niquer ta mère Là on a plus de repères donc on agit anormalement Faire le cher monsieur le président va niquer ta maman Dans ma plume la situation je la résume Sans aucune substance sans diplôme et sans résine Que ceux qui écoutent désapprouvent ou s'en résignent Je m'adresse aux dirigeants et du doigt je les désigne De parent résident j'encule Sarkozy évident Le ghetto on vit dedans On est géman on dupe la juge le gouvernement le proc et la police aisément Aigrement on parle de tous ces faits gênants Cher monsieur le président je m'adresse à oit Dans ton trou de balle je mets le oid J'ai un bon fond à ton égard je peux que rester bad Eh ouais je m'en bats que les RG focalisent sur notre audimat C'est pas le cachot ni leurs poulets qui vont me traumatiser Bah qu'ils viennent c'est de la haine En tirer public on la baise du bout du stylo bic On taffe pour eux pour grailler des pépites You might also like D5 D4 eh chez nous y'a que des P4 Si on respecte Chirac c'est pour ces rottes ca sur les frégates Des payes de tortionnaire et ça sans même lever le petit oid Moi j'suis pas millionnaire dis ça aux stups en bas de chez oim Fais gaffe les gros poissons ils se font hameçonner par un anchois La rue ou la prison à nous de faire le bon choix Message à la secrétaire ta3 monsieur Sarkozy Dites lui qu'il nique sa mère sa sur son père et même sa cousine Le jacuzzi bah ce coup ci il est rempli de champagne Et à cette heure ci Carla elle suce pour 100 grammes Les gendarmes lancent des brigades prennent des clichés sur moi Car j'suis cramé comme un M3 garé à Clichy sous Bois Je m'en bats les couilles j'sors du Zoogataga Ça se douille pour du taga ça s'embrouille pour des thiaga Président de la République sérieux va niquer ta mama Je me verrai bien rouler un petit stick vers Ketama M'en bats les klawis que t'as libéré Bettancourt Pour l'instant je fume de la weed je pense à Mesrine vers Clignancourt Et je me dis que la roue tourne que Allah te le fera payer Et ses contrôles musclés ses réveils à coups de bélier Ze pequeño il vend de la drogue dure les microbes dégoûtent Béné Le grossiste c'est qu'une ordure le 36 c'est un poubellier Esse on t'arrache les dents en guise de mea culpa Cher monsieur président t'es qu'un hijo de puta</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Non même pas, wAllah, cest juste la rue Cest rien, cest la rue WAllah, cest lamour et la mort SHK Cest compliqué des fois Avec ISK, ça s'passe toujours comme ça, tu connais La rue ma eu très tôt, j'suis tombé dans ses bras ah ouais Cest Dieu qui donne et cest lui qui reprendra En quelques secondes, j'me branche tout seul, en cinq minutes j'fais ta baraque J'fais du bien en f'sant du sale, ils appellent ça travail dArabe Avant dagir, j'pens aux répercussions, les bons, les mauvais tch Un texte, des punch', des percussions, j'te fais tourner la tête Cest nous la street, pas celle quils admirent, celle qui passe sur BFM la vraie Ils sont pas nets comme des immigrés qui vont voter FN Jai mes raisons et jai mes torts, pour eux, jai tort davoir raison Vaut mieux prévenir que guérir, jattends encore la guérison Le cur est sale, noirci par mes crasses, mes douleurs et mes peines ah ouais Dis-moi c'que cest la mort si la vie est une chienne On court après les sous, on en d'vient fou, on 'evient pas des ingrats jamais Guette la taille de leur langue et pas celle de leur bras Moi, j'suis l'même, frérot, jai pas changé, d'mande à la Rose ou Slime Cest les trophées qui cachent tous mes défauts, pas l'revers de la médaille You might also like Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Arracheur de sacoches, le cauchemar des touristes La voiture cest Porsche, l'assurance, c'est est tous risques Eux, ils connaissent rien du tout mais ils aiment trop faire les puristes Nous, depuis p'tits, on sen bat les couilles et on fait courir la police Je me rappelle de la Santé, tordu comme la Tour de Pise À membrouiller avec les gradés, cette salope de directrice Quatre roues motrices comme Néo dans la matrice Fin d'carrière assez triste quand ça se termine à lOCRTIS Et ouais dahoua, cest la crise, à deux doigts d'chopper un ulcère Tout ce que je sais, cest quon finira poussière Intervention qui te massacrent à plusieurs Fais attention aux garçons, à n'pas finir comme un looser Cest le 7.7 et Belleville, un parigot et un banlieusard Tous les jours, j'fume de lherbe, la richesse est dans les arbres Petit conseil dArabe , ninvestis pas dans les armes Et si tu cherches la merde, tu périras par les armes Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite</t>
+          <t>Non même pas, wAllah, cest juste la rue Cest rien, cest la rue WAllah, cest lamour et la mort SHK Cest compliqué des fois Avec ISK, ça s'passe toujours comme ça, tu connais La rue ma eu Très tôt, j'suis tombé dans ses bras Ah ouais Cest Dieu qui donne et cest lui qui reprendra En quelques secondes, j'me branche tout seul, en cinq minutes j'fais ta baraque J'fais du bien en f'sant du sale, ils appellent ça travail dArabe Ah ouais Avant dagir, j'pens aux répercussions, les bons, les mauvais tch Un texte, des punch', des percussions, j'te fais tourner la tête Cest nous la street, pas celle quils admirent, celle qui passe sur BFM la vraie Ils sont pas nets comme des immigrés qui vont voter FN Jai mes raisons et jai mes torts, pour eux, jai tort davoir raison Vaut mieux prévenir que guérir, jattends encore la guérison Mon cur est sale, noirci par mes crasses, mes douleurs et mes peines ah ouais Dis-moi c'que cest la mort si la vie est une chienne On court après les sous, on en d'vient fou, on d'vient pas des ingrats jamais Guette la taille de leur langue et pas celle de leur bras Moi, j'suis l'même, frérot, jai pas changé, d'mande à la Rose ou Slime Cest les trophées qui cachent tous mes défauts, pas l'revers de la médaille You might also like Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez l'véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Arracheur de sacoches, le cauchemar des touristes La voiture, cest Porsche, l'assurance, c'est tous risques Eux, ils connaissent rien du tout mais ils aiment trop faire les puristes Nous, depuis p'tits, on sen bat les couilles et on fait courir la police Je me rappelle de la Santé, tordu comme la Tour de Pise À membrouiller avec les gradés, cette salope de directrice Quatre roues motrices comme Néo dans la matrice Fin d'carrière assez triste quand ça se termine à lOCRTIS Et ouais dahoua, cest la crise, à deux doigts d'chopper un ulcère Tout ce que je sais, cest quon finira poussière Intervention qui te massacrent à plusieurs Fais attention aux garçons, à n'pas finir comme un looser Cest le 7.7 et Belleville, un parigot et un banlieusard Tous les jours, j'fume de lherbe, la richesse est dans les arbres Petit conseil dArabe , ninvestis pas dans les armes Et si tu cherches la merde, tu périras par les armes Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>RESTE TRANKIL</t>
+          <t>Représente Paname</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Hades Hasta la muerte la vida loca, wesh mon poto Ju-Ju-JuL et Yougataga Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul La roue tourne, les poucaves, t'inquiète pas qu'elles vont payer C'est pour les braves comme les frères du Select à Montpellier C'est l'heure de manger, j'veux des crevettes pili-pili J'passe par Tanger voir David au Bling Bling Faut faire du chiffre, rien à foutre d'l'alphabet Sirote un Jack avec Hamid au Myah Bay, moi Ouais, j'veux des diamants avec beaucoup d'carats Big up , big up tout le Clara Au volant d'un Audi, matrixé J'sors le son même s'il est pas mixé Ici, tu peux t'prendre une balle à force de fixer Y a que quand les gens m'rendent parano que j'fais des fixettes Plein de big soucis, j't'avais dit d'faire comme ça et tu l'as pas fait comme Tony et Sosa Moi c'est anti cé'-cé' et société Moi j'suis pas là pour ces seins, j'sais qui j'étais You might also like Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Accélération tah Farès Chaïbi, moi Ouais, j'veux des millions à la banque Chaabi J'ai toujours c'qui faut, gros, même au tard-mi Et comme dit 3ami, faut vendre les kil' par mille J'ai pas l'temps d'en perdre vu qu'ça s'rachète pas On a beau viser l'ciel, on finira terre-par Les faux, j'ai pas l'temps pour eux, même Richard Millésé C'qu'ils rêvaient d'faire ? Pour nous c'est normalisé Viens on s'prend pas la tête, béa Après j'ai envie d'tout niquer comme dans GTA C'soir on va au restau', j'sors la CBA dans la sacoche CPA Plusieurs fumées, ça m'reconnaît au péage J'ai pas fumé, j'viens d'me lever, j'suis en serrage Faut voir qui t'es, toi, quand t'es là Faut voir qui t'aide quand c'est large Là j'suis avec Kakou, Danil, Chico et Houariz Ici ça part en couilles, à deux doigts d'faire mes valises C'est loin d'être merveilleux comme le pays d'Alice Les jeunes, ils font des dingueries parce qu'ils ont pas de khaliss Reste tranquille, j'ai pas la tête à ça Reste tranquille ou j'nique tout Reste tranquille, c'est Paris, c'est Marseille Reste tranquille, on n'a plus l'temps Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul J'ai du trier pendant toutes ces années Ça fait mal au cur, des fois, on perd ses amis Va arroser si la fleur s'est fanée C'est qu'j'te considère vraiment si nous deux on s'allie On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde</t>
+          <t>Regarde pas ce que j'écris regarde plutôt ce que je décris À cause du shit j'ai maigri à cause des flics j'suis yégri Y'a pas de taf donc obligé de partir au bonchar 1000 euros par mois tu fais le triple si t'as du bon chav J'suis pas dans le mouv pas de boîte d'audi Q7 Le soir ça groove avec du shit de maudit cul sec C'est la nuit que se déviergent les petites pucelles Mets ta poteca à moins que tu veuilles pousser une poussette Tu veux du bon son bah vois les connaisseurs Toujours souriant mes soucis sont voilés comme mes soeurs OK fumeur de ... qui pousse à faire des grasses mat Faut que je me décrasse J'baise le FN et toute sa propagande Dis leur que je baise des blanches et que j'ai de la drogue à vendre Et puis des comptes à rendre chez moi c'est pas la thanksgiving Les petits sont armés et sache que c'est pas les cents qu'ils visent À 12 sur une pizza on a le sens du partage Paris c'est pas Ibiza y'a pas d'âge pour un paquetage Là c'est Abis je pense prétends pas voyou Mais tu vas bouffer des cailloux ça c'est pour la mixtape à YouYou might also like</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>RETOUR AUX SOURCES</t>
+          <t>RESTE TRANKIL</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Esé Mister Yougataga Que des putains d'péripéties Marvelous Si, si 71 Beats Stef Becker beatmaker Le cercle d'amis s'est rétréci Derrière chaque homme, y a de grosses plaies ou des blessures bénignes Beaucoup d'questions, combien d'réponses s'cachent dans le livre délit ? Un gros joint d'herbe, un caillou d'crack, c'est pas le même délire Dans la vraie vie, c'est pas l riche qu'a lu le plus de livrs Y a pas un seul feignant ici qu'aura sa part de riz Nous on s'amuse pourtant y a pas, on tape des barres de rire La plupart de nos choix divers comporte une part de risques J'connais la plupart de mes s7ab depuis la garderie Me foutre en l'air, j'peux pas, pour un regard ça perd la vie Ne neige pas qu'en décembre, t'expulser, ils en meurent d'envie Depuis ma tendre enfance, j'rêve l'oseille des qataris J'mouille le maillot comme Hakimi, j'représente toujours Paris Bien sûr qu'on est réglo, on veut des billets mauves Jamais sans mes frérots, jamais sans mes loves J'arrache pas la SACEM, j'investis dans la drogue J'défouraille au mic comme si j'tirais sur des opps You might also like Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Chaque jour que Dieu fait, j'essaye d'être mieux qu'la veille J'représente Belleville, j'fume le doré d'la veille Y a pas qu'les grands qui dealent, y a pas qu'les p'tits qui volent J'sais qu'les tarés rêveraient qu'j'finisse comme King Von J'ai fait disque d'roro et disque de platinum J'suis en train d'grailler un kebab sur rue des Batignolles Y a les condés qui passent et d'un coup qui s'arrêtent Ils veulent prendre un selfie, sur moi j'ai quatre barrettes J'suis en train d'sourire, j'ai failli courir J'me rappelle du proc', du réquisitoire, j'croyais qu'j'allais mourir Ils veulent nous pourrir, nan c'est pas pour rire Sous la pluie des balles tirée par la BAC, on aurait pu périr Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Ils veulent m'enterrer, j'suis une graine qui pousse C'est la sécheresse et y a qu'mes larmes qui coulent J'aime trop écrire, même sur des feuilles qui coupent Ils aiment le teh mais c'est d'la merde c'qu'ils touchent Plus d'amitié dès qu'il s'agit d'gros sous On s'ra jugé pour tout c'qui sort d'nos bouches Le jour, on riait, c'est le soir qu'on doute Fonds-moi ton prix comme à cette poule qui couve Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés</t>
+          <t>Hades Hasta la muerte la vida loca, wesh mon poto Ju-Ju-JuL et Yougataga Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul La roue tourne, les poucaves, t'inquiète pas qu'elles vont payer C'est pour les braves comme les frères du Select à Montpellier C'est l'heure de manger, j'veux des crevettes pili-pili J'passe par Tanger voir David au Bling Bling Faut faire du chiffre, rien à foutre d'l'alphabet Sirote un Jack avec Hamid au Myah Bay, moi Ouais, j'veux des diamants avec beaucoup d'carats Big up , big up tout le Clara Au volant d'un Audi, matrixé J'sors le son même s'il est pas mixé Ici, tu peux t'prendre une balle à force de fixer Y a que quand les gens m'rendent parano que j'fais des fixettes Plein de big soucis, j't'avais dit d'faire comme ça et tu l'as pas fait comme Tony et Sosa Moi c'est anti cé'-cé' et société Moi j'suis pas là pour ces seins, j'sais qui j'étais You might also like Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Accélération tah Farès Chaïbi, moi Ouais, j'veux des millions à la banque Chaabi J'ai toujours c'qui faut, gros, même au tard-mi Et comme dit 3ami, faut vendre les kil' par mille J'ai pas l'temps d'en perdre vu qu'ça s'rachète pas On a beau viser l'ciel, on finira terre-par Les faux, j'ai pas l'temps pour eux, même Richard Millésé C'qu'ils rêvaient d'faire ? Pour nous c'est normalisé Viens on s'prend pas la tête, béa Après j'ai envie d'tout niquer comme dans GTA C'soir on va au restau', j'sors la CBA dans la sacoche CPA Plusieurs fumées, ça m'reconnaît au péage J'ai pas fumé, j'viens d'me lever, j'suis en serrage Faut voir qui t'es, toi, quand t'es là Faut voir qui t'aide quand c'est large Là j'suis avec Kakou, Danil, Chico et Houariz Ici ça part en couilles, à deux doigts d'faire mes valises C'est loin d'être merveilleux comme le pays d'Alice Les jeunes, ils font des dingueries parce qu'ils ont pas de khaliss Reste tranquille, j'ai pas la tête à ça Reste tranquille ou j'nique tout Reste tranquille, c'est Paris, c'est Marseille Reste tranquille, on n'a plus l'temps Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul J'ai du trier pendant toutes ces années Ça fait mal au cur, des fois, on perd ses amis Va arroser si la fleur s'est fanée C'est qu'j'te considère vraiment si nous deux on s'allie On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Rien à perdre</t>
+          <t>RETOUR AUX SOURCES</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wesh, prépare-toi Brams, Mister You C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa J'ai rien à perdre, ni à prendre des sous Du khaba qu'tu grattes, c'est pas ma came J'ai choisi la 'sique J'préfère rester classique Adidas, Asics Corrompez pas mon esprit lucide Mon talent j'le valide, kiffez ma 'sique, les gars ou faites vos valises J'suis un sérieux rival, comme vous j'ai la dalle Comme vous je mange mal, économisez les balles là c'est que le début du bal Yougatabrah, Rebeval, dresser le C'est le ghetto qui parle You, Brams, pas de soucis, à vie, on vous régale J'parle peu, j'suis efficace autant qu'un baveu J'tue le time chez No Time j'tiens pas à baver Toujours rebelle, mic en main dans le Woogataga, êtes-vous d'accord le beat j'le taba' You might also like Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Le contraire de Kamini L'genre de mec qu'arrive faya en te-boi à 4h d'l'après minuit C'est Mister You, ok roule un sdeh que jm'échauffe Kiffez ma 'sique, les gars ou faites vos valises You, Brams, pas de soucis, à vie, on vous régale Fuck les stups, sur l'rrain-té posté 24 sur 36 C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa</t>
+          <t>Esé Mister Yougataga Que des putains d'péripéties Marvelous Si, si 71 Beats Stef Becker beatmaker Le cercle d'amis s'est rétréci Derrière chaque homme, y a de grosses plaies ou des blessures bénignes Beaucoup d'questions, combien d'réponses s'cachent dans le livre délit ? Un gros joint d'herbe, un caillou d'crack, c'est pas le même délire Dans la vraie vie, c'est pas l riche qu'a lu le plus de livrs Y a pas un seul feignant ici qu'aura sa part de riz Nous on s'amuse pourtant y a pas, on tape des barres de rire La plupart de nos choix divers comporte une part de risques J'connais la plupart de mes s7ab depuis la garderie Me foutre en l'air, j'peux pas, pour un regard ça perd la vie Ne neige pas qu'en décembre, t'expulser, ils en meurent d'envie Depuis ma tendre enfance, j'rêve l'oseille des qataris J'mouille le maillot comme Hakimi, j'représente toujours Paris Bien sûr qu'on est réglo, on veut des billets mauves Jamais sans mes frérots, jamais sans mes loves J'arrache pas la SACEM, j'investis dans la drogue J'défouraille au mic comme si j'tirais sur des opps You might also like Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Chaque jour que Dieu fait, j'essaye d'être mieux qu'la veille J'représente Belleville, j'fume le doré d'la veille Y a pas qu'les grands qui dealent, y a pas qu'les p'tits qui volent J'sais qu'les tarés rêveraient qu'j'finisse comme King Von J'ai fait disque d'roro et disque de platinum J'suis en train d'grailler un kebab sur rue des Batignolles Y a les condés qui passent et d'un coup qui s'arrêtent Ils veulent prendre un selfie, sur moi j'ai quatre barrettes J'suis en train d'sourire, j'ai failli courir J'me rappelle du proc', du réquisitoire, j'croyais qu'j'allais mourir Ils veulent nous pourrir, nan c'est pas pour rire Sous la pluie des balles tirée par la BAC, on aurait pu périr Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Ils veulent m'enterrer, j'suis une graine qui pousse C'est la sécheresse et y a qu'mes larmes qui coulent J'aime trop écrire, même sur des feuilles qui coupent Ils aiment le teh mais c'est d'la merde c'qu'ils touchent Plus d'amitié dès qu'il s'agit d'gros sous On s'ra jugé pour tout c'qui sort d'nos bouches Le jour, on riait, c'est le soir qu'on doute Fonds-moi ton prix comme à cette poule qui couve Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Rumoreo</t>
+          <t>Rien à perdre</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Si no lo veo, pues no lo creo Si no lo veo A-LA-LA-LA-LA-LA-LA-LA-LA M-M-M-M.D.L.R A-LA-LA-LA-LA-LA-LA-LA-LA Yougataga Y no me cuentes cuentos que a ti ya te han contao' Aquí se paga o el traslado no se hace Y sobre todo no acepto, nunca lo he fiao por fiarte a veces te la hacen Los niños hace días que yo los tengo montao' Y siguen metiendo lo trabajo Y por fajo tranquilo que yo ya he contao' Así que problemas rápido yo me mojo Si no lo veo nunca lo cojo A veces no lo cojo porque lo veo flojo Porque a veces pa que t coje y se moja Pero m lo tomo todo como un trabajo Me gustan los fajos en gomas Aunque a veces sean mejor en el banco Si no lo veo no es por ciego Y si no lo cojo no ha sido por manco You might also like Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Joder, madre mía, no pasa nada tío Soy caliente, si, tu mujer tiene frío Nosotros en el coche, dime que tu eres mía Chivas por la noche, Sangría por el día Haciendo dinero la policía detrás mío Soy como todos los moros, primero la familia Gucci, Balenciaga, Prada, Louis Vuitton Escúchame guapa, te dedico esta canción No es un rumoreo, dinero te amo Dame la maleta, quemando la goma Si no lo veo, no lo creo Te lo juro hermano, eh, si Dame billete', te doy paquete Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo</t>
+          <t>Wesh, prépare-toi Brams, Mister You C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa J'ai rien à perdre, ni à prendre des sous Du khaba qu'tu grattes, c'est pas ma came J'ai choisi la 'sique J'préfère rester classique Adidas, Asics Corrompez pas mon esprit lucide Mon talent j'le valide, kiffez ma 'sique, les gars ou faites vos valises J'suis un sérieux rival, comme vous j'ai la dalle Comme vous je mange mal, économisez les balles là c'est que le début du bal Yougatabrah, Rebeval, dresser le C'est le ghetto qui parle You, Brams, pas de soucis, à vie, on vous régale J'parle peu, j'suis efficace autant qu'un baveu J'tue le time chez No Time j'tiens pas à baver Toujours rebelle, mic en main dans le Woogataga, êtes-vous d'accord le beat j'le taba' You might also like Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Le contraire de Kamini L'genre de mec qu'arrive faya en te-boi à 4h d'l'après minuit C'est Mister You, ok roule un sdeh que jm'échauffe Kiffez ma 'sique, les gars ou faites vos valises You, Brams, pas de soucis, à vie, on vous régale Fuck les stups, sur l'rrain-té posté 24 sur 36 C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Salir ma cape</t>
+          <t>Rumoreo</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Non!Non!Non! Jpas eu le choix , que je le fasse il fallait Affronter tout les obstacles , a lheure ou tout les autres stagne Si!Si!Si! Tu connais pas, moi cest AL YASS MONEY RIDERZ Pour les connaisseurs Featuring nouvelle fraicheur !! Montréal doit accoucher De A.L sa spourrais 3heur on est pas couché Et si tu pense a mtoucher Tes mieu de ne pas mlouper Ou tu va tfaire cartoucher ARABIZER CAHLOUCHER Sa tapprendra a loucher Tu nous cherche on est partout Disparru comme Ssama-Ou Ya pas 36 solutions Sa va Ou Sa va pas La magouille La Khadma Ta pas dflouz ta pas dfemme Ta wallou ta pas dshab Mister You et Al Yass Fonceeee a 240 Javance en sachant Que le bien sappel GARBRIELLE kIBLISS sallonge dans sa chambre Enfance sans argent Jannonce le gagnant. al yass moenay riderz! La mise aux jeux est tentatrice et nous on est cerné d'dans La vie est un combat alors jla boxe et je serre les dents Encerclé dans une atmosphere sale et macabre Si j'étais super man pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape Si j'étais super man pour qui j'irais salir ma cape! You might also likeAl Yass ''Montréal dois ACCOUCHER De AL SA S'POURRAIS 3h00 on est PAS COUCHER Et si tu pense A M'TOUCHER T'es mieu de ne PAS M'LOUPER Ou tu va t'faire CARTOUCHER ARABISÉCAHLOUCHER Sa t'apprendra A LOUCHER'' Mister You - ''I'm not in the biz ''I'M THE BIZ'' I Fuck the muthafuckin police with my muthafuckin homies sit the fuck down !!'' - ''A cet heur ci , j'crois bien que les jeux sont FAIT la jsuis FAIT j'suis REFAIT j'suis en train de vivre un compte de FÉE my name is YOU GA TA GA... Im not a muthafucker... I'm not a sucker, but I play soccer !!''</t>
+          <t>Si no lo veo, pues no lo creo Si no lo veo A-LA-LA-LA-LA-LA-LA-LA-LA M-M-M-M.D.L.R A-LA-LA-LA-LA-LA-LA-LA-LA Yougataga Y no me cuentes cuentos que a ti ya te han contao' Aquí se paga o el traslado no se hace Y sobre todo no acepto, nunca lo he fiao por fiarte a veces te la hacen Los niños hace días que yo los tengo montao' Y siguen metiendo lo trabajo Y por fajo tranquilo que yo ya he contao' Así que problemas rápido yo me mojo Si no lo veo nunca lo cojo A veces no lo cojo porque lo veo flojo Porque a veces pa que t coje y se moja Pero m lo tomo todo como un trabajo Me gustan los fajos en gomas Aunque a veces sean mejor en el banco Si no lo veo no es por ciego Y si no lo cojo no ha sido por manco You might also like Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Joder, madre mía, no pasa nada tío Soy caliente, si, tu mujer tiene frío Nosotros en el coche, dime que tu eres mía Chivas por la noche, Sangría por el día Haciendo dinero la policía detrás mío Soy como todos los moros, primero la familia Gucci, Balenciaga, Prada, Louis Vuitton Escúchame guapa, te dedico esta canción No es un rumoreo, dinero te amo Dame la maleta, quemando la goma Si no lo veo, no lo creo Te lo juro hermano, eh, si Dame billete', te doy paquete Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Session freestyle</t>
+          <t>Salir ma cape</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Elle a vomi sa blanquette sur ma banquette Obligé d'mettre tempête les 3atay enquêtent l'hypothèque, saperlipopette T'es même pas foutu d'faire partir une plaquette J'suis sous neurones stimulateur, han Calibré, j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han J'te remonte grâce au traceur, la chatte à ta sur Joue pas trop les mousquetaires wAllah étranglement coup du mousqueton Tu peux pas fumer ça c'est d'la mousse, le teh Fuck les suceurs, bouffe tes ongles J'roule des pétards et des mécaniques J'baise des panthères et des méga milfs J'rappe plus que toi c'est ma thématique Un seul couplet téma t'es ma bitch Tu jouais aux légo devant l'instit' On comptait plus de kichtas que d'élastiques Petit reste tranquille fais pas la street Fais le sportif l'entrepreneur fait l'artiste, han J'suis dans les astres, la voie lactée surnommée l'Hayce des Hayce Les yeux rouge sang, les idées noires comme J'm'endors sur la voix d'Arte avec une p'tite Kendale J'ai un nine tout neuf t'sais quoi J'crois qu'j'vais t'pull up chez toi Askip j'suis aud-ch c'est tout Les graille, les boire, j'sais pas J'ai jeté le Magnum Champagne écrire au cur d'une grasse campagne Moi j' j'sais comment les ingrats s'comportent La vérité dérange toujours le même qui en parle J'recompte pas, bordel de merde Gouvernement nous divise depuis le bord de mer Manipulent depuis piscine à débordement Des manuels à la file de nos bandes de merde Langue de Molière comme un prof de lettres Vieillit bien comme le vin Bordelais Ils sont là Aucun fils de putain ne m'apporte de l'aide Au bord de l'eau, verre de Crystal Poitrine généreuse pleine de lait J'suis au bord de l'eau j'ai moins peur de l'autre Et j'ai fini d'acheter ma villa en bord de mer Hasta la Muerte Hasta la Muerte Hasta la Muerte Hasta la Muerte H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5, le zinc' You might also like Ici tout l'monde a une guitare, pourtant, personne ne connait les Beatles Bac-térie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de Grrr-Grrr, quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vers le sol, hey Cimetière de mauvais pêchers vient pyramide de Benjamin Franklin J'marche avec les requins j'danse avec les loups rage et folie ne feront qu'un La bavette a frotté la police a frappé déféré au parquet j'fais couler son fond d'teint Algérien toujours effronté entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe C'est l'retour du grand méchant You J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Brr-t, Brr-t, hey J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Gare au Tokarev chargé sous le manteau noir Tu vas ravaler ton venin par l'entonnoir Moi j'ai donné sans jamais recevoir j'les ai vus pleurer avant qu'il s'mette à pleuvoir Beaucoup de pouvoir mais très peu d'argent, ou beaucoup d'argent mais très peu de pouvoir Vallet baise la Reine pour devenir le Roi, le gladiateur sur un cheval de Troie J'sors le que-tru j'vais compter jusqu'à trois, Juste un scato de plus, viens chercher la merde dans une fosse septique petit grand c'est la même Sur le rain-té d'une démarche solennelle y a la mache en en lamelles Rebeu j'suis trop éclectique, j'ai le biff' et la fiche technique J'ai ché-cra pour ton vieille pute, que j'te cite Shakespire Ou qu'j'te vêtisse de chic textile sans la bulle bleue j'sais pas si j' Nébuleuse affiche Big Lemsi rafale pluvieuse peureuse ineptie Et je sais qu'j'les ai choqués Mon shooteur arrive en chuchotant fait crier le Grr-ah les jaloux vont s'affiner La canon du 11-43 te faire perdre le bras J'suis toujours là pour le fight, hey H.L.M 2 dans les bacs', han H.L.M 2 dans les bacs', hey H.L.M 2 dans les bacs', han, hey Dans quel tiroir tu vas ranger l'polichinelle On t'a vu garer voiture de sport t'introduire dans les stores deux jumelles full Chanel Poussé par mon père hermano j'récupère depuis qu'j'suis prépubère, dans l'four sa mère Algéria recherche de Martin Luther humain faire depuis l'pêcher originel Toujours vers solitaire, j'veux pilot' l'hélicoptère sans mis-per Une kichta deux kichtas j'récupère une , premier bikow qui donne un prix qui perd Wo, crochet du gauche plus d'lumière wo, sagittaire mal luné Tout droit sorti d'une tempête de sable noir on m'a trouvé dans un berceau sublunaire Pas de Subutex pas de S dans les sinus Est-ce que la vida vaut d'être vécue sans Urus la télévision j'ai la vision depuis la fusée folie passionnelle et métaphores en fusion J'ai refusé j'ai mes raisons d'envisager de les rafaler tous de les voler leurs maisons Méga Husstler, gros SLR, gros SLS dans l'parking Bingston, chargé comme Kinston marche avec des mercenaires en kaki Elle veut qu'j'lui paye tout elle m'prend pour un chien Trop curieuse elle m'demande combien j'prends pour un show Ces bikow pourraient sucer pour un shoot j'vais t'éclater si ces bikow t'prennent pour un chaud Elle sait très bien comment j'aime la vitesse elle dégueule à 320 sur les marées-chau' Les plus timides ils savent pas s'arrêter La sur les réchauds Big gauche pop Henni, j'vais pull up ces ops à la Henneni Pas très magnanime pas de bel3ani Big bad Hayce fait les bails 3ami À la base moi j'suis là pour déconner J'ai commencé dans l'parking avec les rats tu connais On mène la vie d'tess, tous les jours, c'est pas du comique Et puis c'est moi j'sais qu'j'suis l'acteur de c'que j'ai commis Eh 2020 c'est fini, qu'est-ce qu'il nous attend le kho Parce qu'on sait pas d'quoi s'ra fait demain dans c'monde c'est bizarre Ils nous envoient des virus, ils nous enferment au mitard Ils nous font croire que l'bonheur il s'est perdu vers Ibiza Mais bon on est que de passage, j'ai soufflé 26 bougies C'est loin l'époque où on dansaient tous sur du Boogie Woogie J'ai mon crâne sur l'appui-tête, y'a mon pied collé au plancher J'ai vu des mecs qui suivent des mecs et même quand ils vont pisser C'est quoi la tess sans le shit c'est quoi la vie sans les flics C'est quoi L'Allemand sans ses potos, sans sa famille, son équipe Walou, walou, walou, walou, 6.9 la trik ouais pelo Représentant d'la ville j'mets des buts comme El Fenomeno Dans ce fils de pute de rap j'suis v'nu avec les potos Si c'était 15 piges en arrière t'écouterais dans ta Punto Dans un 406 V6 ou une Golf IV R32 Avec ton pack de 12, d'l'a fume à 50 de beuh Pour toutes les cités Love and Peace, personne va nous diviser Avant l'showcase, la boule au ventre, ça passe pas quand j'vais pisser J'suis pas du côté d'la victime, j'suis du côté d'l'accusé C'est nous on t'nique et c'est toi qui repars cicatrices au visage Et aujourd'hui c'est une époque où tout l'monde il est bizarre Ils veulent le beurre, ils veulent le buzz, ils veulent la beurette qui passe Eh pelo moi j'veux m'en sortir et j'men balec' de qui reste Ouais c'est fini les promesses, tu peux rien quand t'agonises Mais toi j'sais pas, t'es un fils de traître comme Bafétimbi Gomis J'aime bien les khos qui ont des couilles et qui les portent en qamis Pas ceux qui jactent trop à tout l'monde et même à ta miss Tu nous connais, nous les ratus on la met trois fois ta mise J'mets mon tapis comme Bernard, rêvant d'une vie plus peinard C'est moi qui provoque toute l'action et j'te laisse tirer l'péno Chez nous y'a pas d'numéro 10 y'a qu'des numéros d'écrou Y'a des frérots qui deviennent fous et qui ramassent des mégots Ça vend du shit et d'la beuh, mélangés à l'ecstasy Ouais vers chez nous tu trouves de tout, le four c'est la pharmacie Du jaune teh la Seleção, enfume toi si t'es primaire Moi j'suis comme toi, j'ai fais d'la taule, enfermé tout un hiver</t>
+          <t>Non!Non!Non! Jpas eu le choix , que je le fasse il fallait Affronter tout les obstacles , a lheure ou tout les autres stagne Si!Si!Si! Tu connais pas, moi cest AL YASS MONEY RIDERZ Pour les connaisseurs Featuring nouvelle fraicheur !! Montréal doit accoucher De A.L sa spourrais 3heur on est pas couché Et si tu pense a mtoucher Tes mieu de ne pas mlouper Ou tu va tfaire cartoucher ARABIZER CAHLOUCHER Sa tapprendra a loucher Tu nous cherche on est partout Disparru comme Ssama-Ou Ya pas 36 solutions Sa va Ou Sa va pas La magouille La Khadma Ta pas dflouz ta pas dfemme Ta wallou ta pas dshab Mister You et Al Yass Fonceeee a 240 Javance en sachant Que le bien sappel GARBRIELLE kIBLISS sallonge dans sa chambre Enfance sans argent Jannonce le gagnant. al yass moenay riderz! La mise aux jeux est tentatrice et nous on est cerné d'dans La vie est un combat alors jla boxe et je serre les dents Encerclé dans une atmosphere sale et macabre Si j'étais super man pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape Si j'étais super man pour qui j'irais salir ma cape! You might also likeAl Yass ''Montréal dois ACCOUCHER De AL SA S'POURRAIS 3h00 on est PAS COUCHER Et si tu pense A M'TOUCHER T'es mieu de ne PAS M'LOUPER Ou tu va t'faire CARTOUCHER ARABISÉCAHLOUCHER Sa t'apprendra A LOUCHER'' Mister You - ''I'm not in the biz ''I'M THE BIZ'' I Fuck the muthafuckin police with my muthafuckin homies sit the fuck down !!'' - ''A cet heur ci , j'crois bien que les jeux sont FAIT la jsuis FAIT j'suis REFAIT j'suis en train de vivre un compte de FÉE my name is YOU GA TA GA... Im not a muthafucker... I'm not a sucker, but I play soccer !!''</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Solide</t>
+          <t>Session freestyle</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Ouh, ouh J'fais réveiller des couche tards, éveiller des vrais Hmar , rhabiller des petites kehs avec un Q.I de calamar J'ai fait évader des taulards à l'Aide de mes cordes vocales Message à la racaille, qui vole et vend de la caille Incapable d'être réglo, tu tailles un jour avant que tu die Questions de principes l'argent n'est qu'un détail Personne se mouill pour une race de morts mais pour un frèr en or, on s'embrouille annule des représailles Ils ont étudié nos failles, 9-4 mentale, On fait des bébés parloir pour la condi parentale J'entends mes sons quand je cavale en promenade Je fais pas la resta, c'est d'égal à égal Les fouilles sont brutales, même pour une heja Que Dieu nous pardonne, nous aides à zapper illicite et chicha On est des mecs Hnine, d'origine, j'essaie de suivre le Dine Des fois je perds la main comme mel-Ja J'Marche plus sur des ufs mais sur des poussins, Je suis passé du Georges V au foyer des maliens Les portes du coeur sont nos yeux, mais on ne voit rien Sans la barakah ta richesse ne vaut rien La street nous a éduqués Agis comme un homme, on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide You might also like Je me rappelle de ma cavale quand mes potes m'esquivaient Quand je vois les yeux de mon fils bah faut que je le fasse kiffer Nan nan, crois pas que tout est carré des fois je me sens trop égaré Quand j'suis confiant avec une paire d'As madame la juge sort le carré Je passe en conseil de discipline, collège école primaire ensuite j'suis passé par Fleury ce putain de quartier disciplinaire Les panneaux de portes rempli de sel3a je revenais de Rotter d'un air serein Solo comme un mercenaire je me fait péter, m'en fou c'est rien En vrai ma mère à trop souffert je l'ai fait vieillir avant l'âge Non crois pas que je suis fier d'être dans ce putain d'engrenage Petit fréro fais gaffe à oi-t car l'amitié vaut que 30 euros Ton meilleur pote pourrait te fumer et venir pleurer à ton enterrement J'suis comme un mec qui sur j'ai serré que des paquets, bon la plupart c'était des connes niveau dialogue c'était claqué Darwa toi t'as perdu ta perle parce que t'aimais trop les rées-soi Aujourd'hui chacun sa merde chacun doit s'occuper de soi Hier ça parlait d'amour aujourd'hui ça parle de pension Cette folle t'as fait du shour, elle t'as fait boire sa potion Dans la rue, t'es le toubib, frérot, viens chez le patient La rue m'a pris du temps et m'a appris à être patient La street nous a éduqués Agis comme un homme on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide Reste polie polie, on a évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli Reste polie polie, on à évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide La street qui nous a éduqués Agis comme un homme on donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide C'est pour les gars solide ma gueule, lourd les mecs de la street. En chaire et en shit Woogataga Quand on dofmait parterre ma gueule Roh2guerre On s'est cassé le dos sur le terrain Wallah Aujourd'hui palace, hélicoptère, jet privé ma gueule Rolls Royce, Limousine Ça bouge pas une oreille À l'aise en Clio 1 comme en Bentley Ta mère C'est la street gros en chaire et en shit wallah Accélération. Ça pars, ça reviens Accélération sur la A7 ta mère. hahaha Pour les Vrai de Vrai gros, ceux qui ont charbonnés qui ont tout donné Pas pour les girouettes faire Woogataga les gars C'est pour les hommes POUR LES GARS SOLIDE,SOLIDE !</t>
+          <t>Elle a vomi sa blanquette sur ma banquette Obligé d'mettre tempête les 3atay enquêtent l'hypothèque, saperlipopette T'es même pas foutu d'faire partir une plaquette J'suis sous neurones stimulateur, han Calibré, j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han J'te remonte grâce au traceur, la chatte à ta sur Joue pas trop les mousquetaires wAllah étranglement coup du mousqueton Tu peux pas fumer ça c'est d'la mousse, le teh Fuck les suceurs, bouffe tes ongles J'roule des pétards et des mécaniques J'baise des panthères et des méga milfs J'rappe plus que toi c'est ma thématique Un seul couplet téma t'es ma bitch Tu jouais aux légo devant l'instit' On comptait plus de kichtas que d'élastiques Petit reste tranquille fais pas la street Fais le sportif l'entrepreneur fait l'artiste, han J'suis dans les astres, la voie lactée surnommée l'Hayce des Hayce Les yeux rouge sang, les idées noires comme J'm'endors sur la voix d'Arte avec une p'tite Kendale J'ai un nine tout neuf t'sais quoi J'crois qu'j'vais t'pull up chez toi Askip j'suis aud-ch c'est tout Les graille, les boire, j'sais pas J'ai jeté le Magnum Champagne écrire au cur d'une grasse campagne Moi j' j'sais comment les ingrats s'comportent La vérité dérange toujours le même qui en parle J'recompte pas, bordel de merde Gouvernement nous divise depuis le bord de mer Manipulent depuis piscine à débordement Des manuels à la file de nos bandes de merde Langue de Molière comme un prof de lettres Vieillit bien comme le vin Bordelais Ils sont là Aucun fils de putain ne m'apporte de l'aide Au bord de l'eau, verre de Crystal Poitrine généreuse pleine de lait J'suis au bord de l'eau j'ai moins peur de l'autre Et j'ai fini d'acheter ma villa en bord de mer Hasta la Muerte Hasta la Muerte Hasta la Muerte Hasta la Muerte H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5, le zinc' You might also like Ici tout l'monde a une guitare, pourtant, personne ne connait les Beatles Bac-térie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de Grrr-Grrr, quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vers le sol, hey Cimetière de mauvais pêchers vient pyramide de Benjamin Franklin J'marche avec les requins j'danse avec les loups rage et folie ne feront qu'un La bavette a frotté la police a frappé déféré au parquet j'fais couler son fond d'teint Algérien toujours effronté entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe C'est l'retour du grand méchant You J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Brr-t, Brr-t, hey J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Gare au Tokarev chargé sous le manteau noir Tu vas ravaler ton venin par l'entonnoir Moi j'ai donné sans jamais recevoir j'les ai vus pleurer avant qu'il s'mette à pleuvoir Beaucoup de pouvoir mais très peu d'argent, ou beaucoup d'argent mais très peu de pouvoir Vallet baise la Reine pour devenir le Roi, le gladiateur sur un cheval de Troie J'sors le que-tru j'vais compter jusqu'à trois, Juste un scato de plus, viens chercher la merde dans une fosse septique petit grand c'est la même Sur le rain-té d'une démarche solennelle y a la mache en en lamelles Rebeu j'suis trop éclectique, j'ai le biff' et la fiche technique J'ai ché-cra pour ton vieille pute, que j'te cite Shakespire Ou qu'j'te vêtisse de chic textile sans la bulle bleue j'sais pas si j' Nébuleuse affiche Big Lemsi rafale pluvieuse peureuse ineptie Et je sais qu'j'les ai choqués Mon shooteur arrive en chuchotant fait crier le Grr-ah les jaloux vont s'affiner La canon du 11-43 te faire perdre le bras J'suis toujours là pour le fight, hey H.L.M 2 dans les bacs', han H.L.M 2 dans les bacs', hey H.L.M 2 dans les bacs', han, hey Dans quel tiroir tu vas ranger l'polichinelle On t'a vu garer voiture de sport t'introduire dans les stores deux jumelles full Chanel Poussé par mon père hermano j'récupère depuis qu'j'suis prépubère, dans l'four sa mère Algéria recherche de Martin Luther humain faire depuis l'pêcher originel Toujours vers solitaire, j'veux pilot' l'hélicoptère sans mis-per Une kichta deux kichtas j'récupère une , premier bikow qui donne un prix qui perd Wo, crochet du gauche plus d'lumière wo, sagittaire mal luné Tout droit sorti d'une tempête de sable noir on m'a trouvé dans un berceau sublunaire Pas de Subutex pas de S dans les sinus Est-ce que la vida vaut d'être vécue sans Urus la télévision j'ai la vision depuis la fusée folie passionnelle et métaphores en fusion J'ai refusé j'ai mes raisons d'envisager de les rafaler tous de les voler leurs maisons Méga Husstler, gros SLR, gros SLS dans l'parking Bingston, chargé comme Kinston marche avec des mercenaires en kaki Elle veut qu'j'lui paye tout elle m'prend pour un chien Trop curieuse elle m'demande combien j'prends pour un show Ces bikow pourraient sucer pour un shoot j'vais t'éclater si ces bikow t'prennent pour un chaud Elle sait très bien comment j'aime la vitesse elle dégueule à 320 sur les marées-chau' Les plus timides ils savent pas s'arrêter La sur les réchauds Big gauche pop Henni, j'vais pull up ces ops à la Henneni Pas très magnanime pas de bel3ani Big bad Hayce fait les bails 3ami À la base moi j'suis là pour déconner J'ai commencé dans l'parking avec les rats tu connais On mène la vie d'tess, tous les jours, c'est pas du comique Et puis c'est moi j'sais qu'j'suis l'acteur de c'que j'ai commis Eh 2020 c'est fini, qu'est-ce qu'il nous attend le kho Parce qu'on sait pas d'quoi s'ra fait demain dans c'monde c'est bizarre Ils nous envoient des virus, ils nous enferment au mitard Ils nous font croire que l'bonheur il s'est perdu vers Ibiza Mais bon on est que de passage, j'ai soufflé 26 bougies C'est loin l'époque où on dansaient tous sur du Boogie Woogie J'ai mon crâne sur l'appui-tête, y'a mon pied collé au plancher J'ai vu des mecs qui suivent des mecs et même quand ils vont pisser C'est quoi la tess sans le shit c'est quoi la vie sans les flics C'est quoi L'Allemand sans ses potos, sans sa famille, son équipe Walou, walou, walou, walou, 6.9 la trik ouais pelo Représentant d'la ville j'mets des buts comme El Fenomeno Dans ce fils de pute de rap j'suis v'nu avec les potos Si c'était 15 piges en arrière t'écouterais dans ta Punto Dans un 406 V6 ou une Golf IV R32 Avec ton pack de 12, d'l'a fume à 50 de beuh Pour toutes les cités Love and Peace, personne va nous diviser Avant l'showcase, la boule au ventre, ça passe pas quand j'vais pisser J'suis pas du côté d'la victime, j'suis du côté d'l'accusé C'est nous on t'nique et c'est toi qui repars cicatrices au visage Et aujourd'hui c'est une époque où tout l'monde il est bizarre Ils veulent le beurre, ils veulent le buzz, ils veulent la beurette qui passe Eh pelo moi j'veux m'en sortir et j'men balec' de qui reste Ouais c'est fini les promesses, tu peux rien quand t'agonises Mais toi j'sais pas, t'es un fils de traître comme Bafétimbi Gomis J'aime bien les khos qui ont des couilles et qui les portent en qamis Pas ceux qui jactent trop à tout l'monde et même à ta miss Tu nous connais, nous les ratus on la met trois fois ta mise J'mets mon tapis comme Bernard, rêvant d'une vie plus peinard C'est moi qui provoque toute l'action et j'te laisse tirer l'péno Chez nous y'a pas d'numéro 10 y'a qu'des numéros d'écrou Y'a des frérots qui deviennent fous et qui ramassent des mégots Ça vend du shit et d'la beuh, mélangés à l'ecstasy Ouais vers chez nous tu trouves de tout, le four c'est la pharmacie Du jaune teh la Seleção, enfume toi si t'es primaire Moi j'suis comme toi, j'ai fais d'la taule, enfermé tout un hiver</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Son coeur (Marvin - Coktail de Rue)</t>
+          <t>Solide</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Quand les anges brillent dans le ciel le diable s'agite sur le trottoir C'est trop tard le mal fait, me bouleverse la haine est gratuite J'entend des coup d'feu, les âmes quittent leurs corps et gravitent On navigue, on parle d'million virtuel avec le ventre vide C'est Koh-Lanta j'part en expédition même sans vivre Moi jespère vivre jusquà la destruction de Belleville J'relativise, vise pas la tête ou c'est lhémorragie Je réagis, kill plutôt le mic comme Bilel Nadjib Quand on m'dit coronaire j'sais que c'est d'un mort qu'il s'agit Quand j'voit ma mère en pleur je ne voit pas le drapeau qui s'agite Laisser pour compte, toujours les même qui tombe pour coke La même misère en bas j'te refait le monde avec un cône Très désorienté, j'veux sortir en indé Je n'm'interdit plus rien faut faire du chiffre sur le terrain Indigent, on rêve de faire sauter la diligence Baiser les dirigeant qui nous croient en manque d'intelligence On rêve d'un harem, niquer la meuf d'Pharrell Et on s'questionne, Dieu, comment a tu fait un monde pareil ? On aimes toucher et coucher, regarder l'coucher su soleil Approcher nos rêve, pouvoir s'réveiller du sommeil J'aime, la vie qu'je mène même si c'est l'bordel Avec la volonté tout sa mènera au bord d'la mer Bref, j'réve, d'authentifier mon existence Mais le rap est pris pour cible comparé pour délinquance Quand j'pense au disparu, a la beuh ou au charrue A ses kilo d'coco qui sont écouler dans nos rue La Russie n'est qu'a deux pat sais-tu que la roulette aussi On rêve dêtre docile, tout autour tout est nocif On signe d'un Z avec un zeste de poésie Souvent on s'arme pour pas laisser notre peau ici Donc ? la vie en bas elle nous sidère On s'croit dans count striker et on aime tirer au ? A force de traîner on s'y perd Dans nos peine, on s'y baigne, on fera péter ton sasse au décibel On ressasse le bon et l'mauvais, on chekera José Bové Le bonheur n'est pas loin il est difficile a trouver Éprouver par cette vie y a comme un gout de mélancolie J'suis seul sur ma colline moi et mon taux d'alcoolémie J'les laisse me blesser, croire qu'ils mont mis en laisse Mais la rue m'a plus appris que leur Pythagore est a l'est Donc jespère vivre libre tant qu'je respire J'vie a Belleville de mon ghetto je m'inspire M'en méfie comme de la peste, de la belle, de la bête J'reste humble car je perdrai si j'me la pète La perte est proche le diable appel et on décroche On veux s'la faire pépère jusqu'au dernier coup de cross On a toujours les crocs, on partira sans un centimes Si j'doit cané demain Younes m'enterra en Guyane Cest gentiment que je t'exprime juste un ressentiment Garde le pour toi lEurope n'est pas mon continent 22 ans, maintenant, encore en vie c'est étonnant J'aide toujours mon prochain car j'aime recevoir en donnant J'suis précis, j'ai des principes j'ai surtout des valeur De l'honneur mais, s'il vont tous au sud j'irai au Nord Mon cur renferme tant d'haine et de joie a la fois Père, je pense a toi je l'jure Aussi fort que j'pense au poto You A la renaissance Pataya, linnocence des Ghetto Youth On court vers un avenir surement incertain Pour un ? j'peu m'prendre une balle comme a Verdun Et j'souhaite remplacé l'sky J'souhaite, contre les verre d'eau Préserver ma famille de la dépendance et de l'overdose J'ose faire parler de moi d'effrayer la chronique J'reste pas là sans bouger le cul poser sur le granit C'est grave, ? nous interdit pas au dicave Chaque journée ? je cotoie le handicap Des fois mon coeur gueule me dit de n'pas baisser les bras Qu'un jour tout se payera Et nique sa mère l'jour où on se sépare J'te dit à taleur mais on sais pas De l'autre coté d'la rue je peux me prendre un coup d'barre Partir, y'a 1000 kalash de raisons d'mourir Ma mère, rien ne remplace son sourireYou might also like</t>
+          <t>Ouh, ouh J'fais réveiller des couche tards, éveiller des vrais Hmar , rhabiller des petites kehs avec un Q.I de calamar J'ai fait évader des taulards à l'Aide de mes cordes vocales Message à la racaille, qui vole et vend de la caille Incapable d'être réglo, tu tailles un jour avant que tu die Questions de principes l'argent n'est qu'un détail Personne se mouill pour une race de morts mais pour un frèr en or, on s'embrouille annule des représailles Ils ont étudié nos failles, 9-4 mentale, On fait des bébés parloir pour la condi parentale J'entends mes sons quand je cavale en promenade Je fais pas la resta, c'est d'égal à égal Les fouilles sont brutales, même pour une heja Que Dieu nous pardonne, nous aides à zapper illicite et chicha On est des mecs Hnine, d'origine, j'essaie de suivre le Dine Des fois je perds la main comme mel-Ja J'Marche plus sur des ufs mais sur des poussins, Je suis passé du Georges V au foyer des maliens Les portes du coeur sont nos yeux, mais on ne voit rien Sans la barakah ta richesse ne vaut rien La street nous a éduqués Agis comme un homme, on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide You might also like Je me rappelle de ma cavale quand mes potes m'esquivaient Quand je vois les yeux de mon fils bah faut que je le fasse kiffer Nan nan, crois pas que tout est carré des fois je me sens trop égaré Quand j'suis confiant avec une paire d'As madame la juge sort le carré Je passe en conseil de discipline, collège école primaire ensuite j'suis passé par Fleury ce putain de quartier disciplinaire Les panneaux de portes rempli de sel3a je revenais de Rotter d'un air serein Solo comme un mercenaire je me fait péter, m'en fou c'est rien En vrai ma mère à trop souffert je l'ai fait vieillir avant l'âge Non crois pas que je suis fier d'être dans ce putain d'engrenage Petit fréro fais gaffe à oi-t car l'amitié vaut que 30 euros Ton meilleur pote pourrait te fumer et venir pleurer à ton enterrement J'suis comme un mec qui sur j'ai serré que des paquets, bon la plupart c'était des connes niveau dialogue c'était claqué Darwa toi t'as perdu ta perle parce que t'aimais trop les rées-soi Aujourd'hui chacun sa merde chacun doit s'occuper de soi Hier ça parlait d'amour aujourd'hui ça parle de pension Cette folle t'as fait du shour, elle t'as fait boire sa potion Dans la rue, t'es le toubib, frérot, viens chez le patient La rue m'a pris du temps et m'a appris à être patient La street nous a éduqués Agis comme un homme on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide Reste polie polie, on a évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli Reste polie polie, on à évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide La street qui nous a éduqués Agis comme un homme on donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide C'est pour les gars solide ma gueule, lourd les mecs de la street. En chaire et en shit Woogataga Quand on dofmait parterre ma gueule Roh2guerre On s'est cassé le dos sur le terrain Wallah Aujourd'hui palace, hélicoptère, jet privé ma gueule Rolls Royce, Limousine Ça bouge pas une oreille À l'aise en Clio 1 comme en Bentley Ta mère C'est la street gros en chaire et en shit wallah Accélération. Ça pars, ça reviens Accélération sur la A7 ta mère. hahaha Pour les Vrai de Vrai gros, ceux qui ont charbonnés qui ont tout donné Pas pour les girouettes faire Woogataga les gars C'est pour les hommes POUR LES GARS SOLIDE,SOLIDE !</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Suce mes boules</t>
+          <t>Son coeur (Marvin - Coktail de Rue)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Suce ma bite Lèche mes boules Lèche ma bite Suce mes boules Suce mes boules, lèche ma bite Lèche ma bite, suce mes boules Suce mes boules, suce mes boules Lèche ma bite, lèche ma bite Lèche mes boules, lèche mes boules Suce ma bite, suce ma bite Suce ma bite, lèch mes boules, lèche ms boules C'était pas prévu au programme Mais tu vas cé-su nos godasses Car c'est du trop haut de gamme Jonathan H la mitrailleuse Envoie des rimes mafieuses Et fourre des filles hargneuses Taille-moi une pipe sale chieuse si t'as la gueule de Nathalie Baye Laisse-moi faire mes bails pour que la famille graille salope Trop dhéroïnomanes et de ravissantes demoiselles Cocaïnomane transforme leurs narines en toilettes J'décapite ta tête de pute comme Marie-Antoinette C'est rapide atteste le but, gros, j'arrive en touareg J'te fascine en trois seize, que j'manigance moi-même encore Qu'est-ce que tu crois, mec encore, lèche mes noisettes encore Je me fais contrôler par des blondinets J'ai combiné la drogue, l'alcool et j'ai sacrifié mon dîner J'suis pas allé à la fac mais à la Fnac J'suis pas rasé sale macaque, j'passe à l'attaque ! You might also like Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Avec ma queue j'fais c'que j'veux alors tu m'laisses ball Avec ma queue, on joue pas au billard on fait du baseball Caresse la batte, mets toi à quatre pattes et j'tire au paintball Avec mon gun tu passes aux assiettes si t'as pas d'bol Avec ma gueule, ma gueule, t'es sur d'être mis sur l'té-co Fuck la plage, j'veux un château avec une vue sur l'ghetto Avec Michael, j'gueule, le mic', rime avec Tyson Devant lautre Michael, jrajoute Daniels pour que Jackson Wilkinson tranchants dès lors où la perquise sonne Jredoute personne à part les shtars de peur qu'ils m'saignent Jsuis pisté par les pe-stu, en X5 Le micro j'le fais bler-trem, il attrape Parkinson Le crack imprègne mes disques sans passer par Kingston Si deux PD préméditent, c'est 100 pour qu'ils s'donnent Armé dun uzi, l'esprit lucide quand les gens rentrent solo Si la vie s'rait une pute, ouais, je l'appellerais Sharon Stone Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Ce son, cest comme cette putain de chaine cryptée la nuit le samedi Que des fous, que des loups même prêts à ler-vio le cro-mi Le 20ème, cest mon réseau, les keufs nous té-ma avec trop d'ces-vi Va dire à ces batards qu'on restera là sans les servir J'vais sévir sur l'beat, appelle ça violence gratuite J'vais te buter sans but pourquoi pas pécho des thunes Si j'pécho une pute ce qu'on fera, c'est du bite à bouche On fuck les dirigeants Français en glissant capotes dans l'urne Ils disent tes lyrics sont dun vulgaire Fermes ta gueule, cest soit ça ou bien ma bulle dair Dans ta bouche, ton crew Vas-y bouge ou tauras la même impression quaprès-avoir laissé lsavon dans la douche Mon équipe, te liquide, te rend fou, comme deux shits Eh reste cool face au futur leader Nouvelle école, Alcailllou, jcrois que tas vu la couleur Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous</t>
+          <t>Quand les anges brillent dans le ciel le diable s'agite sur le trottoir C'est trop tard le mal fait, me bouleverse la haine est gratuite J'entend des coup d'feu, les âmes quittent leurs corps et gravitent On navigue, on parle d'million virtuel avec le ventre vide C'est Koh-Lanta j'part en expédition même sans vivre Moi jespère vivre jusquà la destruction de Belleville J'relativise, vise pas la tête ou c'est lhémorragie Je réagis, kill plutôt le mic comme Bilel Nadjib Quand on m'dit coronaire j'sais que c'est d'un mort qu'il s'agit Quand j'voit ma mère en pleur je ne voit pas le drapeau qui s'agite Laisser pour compte, toujours les même qui tombe pour coke La même misère en bas j'te refait le monde avec un cône Très désorienté, j'veux sortir en indé Je n'm'interdit plus rien faut faire du chiffre sur le terrain Indigent, on rêve de faire sauter la diligence Baiser les dirigeant qui nous croient en manque d'intelligence On rêve d'un harem, niquer la meuf d'Pharrell Et on s'questionne, Dieu, comment a tu fait un monde pareil ? On aimes toucher et coucher, regarder l'coucher su soleil Approcher nos rêve, pouvoir s'réveiller du sommeil J'aime, la vie qu'je mène même si c'est l'bordel Avec la volonté tout sa mènera au bord d'la mer Bref, j'réve, d'authentifier mon existence Mais le rap est pris pour cible comparé pour délinquance Quand j'pense au disparu, a la beuh ou au charrue A ses kilo d'coco qui sont écouler dans nos rue La Russie n'est qu'a deux pat sais-tu que la roulette aussi On rêve dêtre docile, tout autour tout est nocif On signe d'un Z avec un zeste de poésie Souvent on s'arme pour pas laisser notre peau ici Donc ? la vie en bas elle nous sidère On s'croit dans count striker et on aime tirer au ? A force de traîner on s'y perd Dans nos peine, on s'y baigne, on fera péter ton sasse au décibel On ressasse le bon et l'mauvais, on chekera José Bové Le bonheur n'est pas loin il est difficile a trouver Éprouver par cette vie y a comme un gout de mélancolie J'suis seul sur ma colline moi et mon taux d'alcoolémie J'les laisse me blesser, croire qu'ils mont mis en laisse Mais la rue m'a plus appris que leur Pythagore est a l'est Donc jespère vivre libre tant qu'je respire J'vie a Belleville de mon ghetto je m'inspire M'en méfie comme de la peste, de la belle, de la bête J'reste humble car je perdrai si j'me la pète La perte est proche le diable appel et on décroche On veux s'la faire pépère jusqu'au dernier coup de cross On a toujours les crocs, on partira sans un centimes Si j'doit cané demain Younes m'enterra en Guyane Cest gentiment que je t'exprime juste un ressentiment Garde le pour toi lEurope n'est pas mon continent 22 ans, maintenant, encore en vie c'est étonnant J'aide toujours mon prochain car j'aime recevoir en donnant J'suis précis, j'ai des principes j'ai surtout des valeur De l'honneur mais, s'il vont tous au sud j'irai au Nord Mon cur renferme tant d'haine et de joie a la fois Père, je pense a toi je l'jure Aussi fort que j'pense au poto You A la renaissance Pataya, linnocence des Ghetto Youth On court vers un avenir surement incertain Pour un ? j'peu m'prendre une balle comme a Verdun Et j'souhaite remplacé l'sky J'souhaite, contre les verre d'eau Préserver ma famille de la dépendance et de l'overdose J'ose faire parler de moi d'effrayer la chronique J'reste pas là sans bouger le cul poser sur le granit C'est grave, ? nous interdit pas au dicave Chaque journée ? je cotoie le handicap Des fois mon coeur gueule me dit de n'pas baisser les bras Qu'un jour tout se payera Et nique sa mère l'jour où on se sépare J'te dit à taleur mais on sais pas De l'autre coté d'la rue je peux me prendre un coup d'barre Partir, y'a 1000 kalash de raisons d'mourir Ma mère, rien ne remplace son sourireYou might also like</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Summer Zoo</t>
+          <t>Suce mes boules</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>J'touche pas aux vlo-tra j'baise qu'les go sans triques Je suis, comment vous dites ? égocentrique Sucer des bites, c'est pas autoriser J'ai écris c'texte à Fleury, à Fresnes j'vais le remastériser Vaporisez les billets, comme à ça ils auront une odeur Les 3ineurs s'que j'sais c'est qu'ils volent mieux qu'Harry Potter Un répondeur, ça sert à vesqui les gens Tu veux qu'on dorme ? t'es folle, écarte un peu les jambes Le feu d'l'amour on l'éteint pas en l'attisant Houbi, t'a un regard traumatisant Zebi, à la barre j'fais l'mec til-gen Mais l'juge s'bâtard il veut m'mettre 10 ans Woogataga Belleville grosse dédicace Miss reste en chatte et graille des whiskas Y'a l'36 postiché en bas d'la house Moi, j'm'en fiche là j'suis en train d'danser sur d'la house What in the world is a girl to do? When in this smokey place I only see you Was far away when you caught my eye You've brought me back and now you're making me high I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me You might also like C'soir évite les embrouilles même si on t'parles mal C'est la fête soit cool paye un verre au barman Sur la piste y'a qu'des missiles, c'est la guerre mondiale J'les aimes fines et sportives genre Sophie Thalmann C'est pour ceux et aussi celles qu'on pris la vie sur un coup d'tête Les voyous à la table qui enchaîne les bouteilles C'est pour Steve, Mamadou et Be-be-bechir J'ai entendu un pull up, pull up ça dé-dé-déchire C'est l'94 gataga connexion, Rap de barj' en action pour les braves On fais du son pure en illicite Marre d'voir XXX XXX Malfrat dans la boite ça peut douiller Gare aux mésaventure si t'espérais me fouiller J'ai le biff dans les fouilles si y'a heja J'vais faire des dégâts avec poto Tadja Eh excuse moi, eh demoiselle, wesh t'es sérieuse ? eh wallah j'vais t'charrier hey Anorexique 44 kilos poids net Tu fais pas d'pipi tu sniff dans les toilettes Gucci, Versace, Dolce Gabanna A la bouche un gare-ci tah la Havana Faya sous vodka j'préfère le whisky Suivi d'une lahsa d'Monica Lewinsky I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes</t>
+          <t>Suce ma bite Lèche mes boules Lèche ma bite Suce mes boules Suce mes boules, lèche ma bite Lèche ma bite, suce mes boules Suce mes boules, suce mes boules Lèche ma bite, lèche ma bite Lèche mes boules, lèche mes boules Suce ma bite, suce ma bite Suce ma bite, lèch mes boules, lèche ms boules C'était pas prévu au programme Mais tu vas cé-su nos godasses Car c'est du trop haut de gamme Jonathan H la mitrailleuse Envoie des rimes mafieuses Et fourre des filles hargneuses Taille-moi une pipe sale chieuse si t'as la gueule de Nathalie Baye Laisse-moi faire mes bails pour que la famille graille salope Trop dhéroïnomanes et de ravissantes demoiselles Cocaïnomane transforme leurs narines en toilettes J'décapite ta tête de pute comme Marie-Antoinette C'est rapide atteste le but, gros, j'arrive en touareg J'te fascine en trois seize, que j'manigance moi-même encore Qu'est-ce que tu crois, mec encore, lèche mes noisettes encore Je me fais contrôler par des blondinets J'ai combiné la drogue, l'alcool et j'ai sacrifié mon dîner J'suis pas allé à la fac mais à la Fnac J'suis pas rasé sale macaque, j'passe à l'attaque ! You might also like Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Avec ma queue j'fais c'que j'veux alors tu m'laisses ball Avec ma queue, on joue pas au billard on fait du baseball Caresse la batte, mets toi à quatre pattes et j'tire au paintball Avec mon gun tu passes aux assiettes si t'as pas d'bol Avec ma gueule, ma gueule, t'es sur d'être mis sur l'té-co Fuck la plage, j'veux un château avec une vue sur l'ghetto Avec Michael, j'gueule, le mic', rime avec Tyson Devant lautre Michael, jrajoute Daniels pour que Jackson Wilkinson tranchants dès lors où la perquise sonne Jredoute personne à part les shtars de peur qu'ils m'saignent Jsuis pisté par les pe-stu, en X5 Le micro j'le fais bler-trem, il attrape Parkinson Le crack imprègne mes disques sans passer par Kingston Si deux PD préméditent, c'est 100 pour qu'ils s'donnent Armé dun uzi, l'esprit lucide quand les gens rentrent solo Si la vie s'rait une pute, ouais, je l'appellerais Sharon Stone Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Ce son, cest comme cette putain de chaine cryptée la nuit le samedi Que des fous, que des loups même prêts à ler-vio le cro-mi Le 20ème, cest mon réseau, les keufs nous té-ma avec trop d'ces-vi Va dire à ces batards qu'on restera là sans les servir J'vais sévir sur l'beat, appelle ça violence gratuite J'vais te buter sans but pourquoi pas pécho des thunes Si j'pécho une pute ce qu'on fera, c'est du bite à bouche On fuck les dirigeants Français en glissant capotes dans l'urne Ils disent tes lyrics sont dun vulgaire Fermes ta gueule, cest soit ça ou bien ma bulle dair Dans ta bouche, ton crew Vas-y bouge ou tauras la même impression quaprès-avoir laissé lsavon dans la douche Mon équipe, te liquide, te rend fou, comme deux shits Eh reste cool face au futur leader Nouvelle école, Alcailllou, jcrois que tas vu la couleur Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sur le toit</t>
+          <t>Summer Zoo</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Eh ma gueule, ouais, ouais, ouais Eh, eh Eh, eh, eh Nique ta mère et ton re-pè Ah-ah Le jour où j'ai raté mon BEP Mister Yougataga, ALP Alpha Lima Pedro Eh, eh, eh Rah J'me réveille, j'suis dans les hautes sphères, dans des problèmes, dans mon domaine Elle veut mon visage en poster, que j'la balade, que j'lui promette J'vois son sourire jusqu'aux pommettes, ses yeux bridés, j'vois ses fossettes J'suis trop distant, j'fais mon possible, l re-noi est violent t docile Lima a grandi à Bercy, volé à Bercy, chanté à Bercy J'vais pas t'quémander un merci pour un service, j'ai des principes On fait la rue, on fait la té-ci, on est très précis si tu persistes Heures du matin, c'est les perquises, t'as pas coffré, ils t'ont saisi Ma daronne a confiance en moi, j'peux pas flancher, j'peux pas lâcher J'finis un jet, donner mon cur, ils ont tout gâché, ils l'ont cassé Pas une nuit sans penser à brasser, à brasser, à embrasser J'aimais la rue donc j'l'ai embrassé, embrassé, la rue embrassée Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi You might also like Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Quand y a drah, on n'a jamais balisé Balisé, les keufs sont v'nus nous faire baliser Baliser Chez nous, ça traîne qu'en bande organisée Organisée d'la maternelle au lycée Ouais, yeah Grosse Ferrari, r'présente Paris, doublé d'Mbappé, feinte de frappe tah Neymar crari J'fais tmenick j'ai mal au dos et bicyclette dans vos grands-mères C'est Mister You, Alpha Lima Pedro, y a d'la frappe d'Outre-Mer On fait d'l'oseille, on sort les armes, les keufs sans hlel dans la lasagne J'suis d'ceux qu'investissent en Lausanne, y a les ch'vaux d'course et y a les ânes Yeah, yeah Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine</t>
+          <t>J'touche pas aux vlo-tra j'baise qu'les go sans triques Je suis, comment vous dites ? égocentrique Sucer des bites, c'est pas autoriser J'ai écris c'texte à Fleury, à Fresnes j'vais le remastériser Vaporisez les billets, comme à ça ils auront une odeur Les 3ineurs s'que j'sais c'est qu'ils volent mieux qu'Harry Potter Un répondeur, ça sert à vesqui les gens Tu veux qu'on dorme ? t'es folle, écarte un peu les jambes Le feu d'l'amour on l'éteint pas en l'attisant Houbi, t'a un regard traumatisant Zebi, à la barre j'fais l'mec til-gen Mais l'juge s'bâtard il veut m'mettre 10 ans Woogataga Belleville grosse dédicace Miss reste en chatte et graille des whiskas Y'a l'36 postiché en bas d'la house Moi, j'm'en fiche là j'suis en train d'danser sur d'la house What in the world is a girl to do? When in this smokey place I only see you Was far away when you caught my eye You've brought me back and now you're making me high I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me You might also like C'soir évite les embrouilles même si on t'parles mal C'est la fête soit cool paye un verre au barman Sur la piste y'a qu'des missiles, c'est la guerre mondiale J'les aimes fines et sportives genre Sophie Thalmann C'est pour ceux et aussi celles qu'on pris la vie sur un coup d'tête Les voyous à la table qui enchaîne les bouteilles C'est pour Steve, Mamadou et Be-be-bechir J'ai entendu un pull up, pull up ça dé-dé-déchire C'est l'94 gataga connexion, Rap de barj' en action pour les braves On fais du son pure en illicite Marre d'voir XXX XXX Malfrat dans la boite ça peut douiller Gare aux mésaventure si t'espérais me fouiller J'ai le biff dans les fouilles si y'a heja J'vais faire des dégâts avec poto Tadja Eh excuse moi, eh demoiselle, wesh t'es sérieuse ? eh wallah j'vais t'charrier hey Anorexique 44 kilos poids net Tu fais pas d'pipi tu sniff dans les toilettes Gucci, Versace, Dolce Gabanna A la bouche un gare-ci tah la Havana Faya sous vodka j'préfère le whisky Suivi d'une lahsa d'Monica Lewinsky I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Teh les premiers soirs</t>
+          <t>Sur le toit</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Dj Kayz Paris,Oran New York Bimbim Mister You Braaah Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Scuse-moi désolé de te déranger J'ai rêvé de nous tous les deux allongés sous un oranger Si tes copines elles m'aimes pas C'est pas grave laisse les rager De toute façon j'suis courageux Timinik j'me suis rangé Une heure dans tes bras c'est mieux que le tour du monde Ouai Pour toi j'ferais la guerre J'pourrais tuer tout le monde Non c'est pas vrai, t'sais bien que j'fais le tomi Ce que j'veux c'est te serrer et finir dans ton lit Accroche toi direction le septième ciel Dans tes petits yeux j'ai vu l'étincelle Mets tes porte-jarretelles jt'emmène en balade Ouai J'vais t'faire passer une soirée de malade... You might also like Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Bienvenue dans ma city tu vas faire des saltos Tellement t'es mimi moi j'ai sorti le smalto FENDI, ZILLI J'suis sous col-al On fini au sommet on est parti des halls crades Si tu fais du sale un jour ou l'autre tu paye Évidemment j'voulais pas que les keufs nous pètent Tu m'as fait du charme quand t'as vu les billets Ma montre briller, et là jt'ai grillé! Cette meuf est maléfique ouai elle aime les grossistes Le biffe les profits, les hits les gros feats Tu m'a donné ton cur pour une coupe de champagne J'ai laissé 30 balles j'partirai pas sans toi... Elle m'a mis les menottes pris de vitesse Ce soir tu conduis, moi j'suis dans l'ivresse On s'retrouve au parking On s'fait pas remarquer J'peux oublier la tess et le business Les galères les drames et la tristesse C'est pas la fin dla partie Rizer remet le paquet! Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs</t>
+          <t>Eh ma gueule, ouais, ouais, ouais Eh, eh Eh, eh, eh Nique ta mère et ton re-pè Ah-ah Le jour où j'ai raté mon BEP Mister Yougataga, ALP Alpha Lima Pedro Eh, eh, eh Rah J'me réveille, j'suis dans les hautes sphères, dans des problèmes, dans mon domaine Elle veut mon visage en poster, que j'la balade, que j'lui promette J'vois son sourire jusqu'aux pommettes, ses yeux bridés, j'vois ses fossettes J'suis trop distant, j'fais mon possible, l re-noi est violent t docile Lima a grandi à Bercy, volé à Bercy, chanté à Bercy J'vais pas t'quémander un merci pour un service, j'ai des principes On fait la rue, on fait la té-ci, on est très précis si tu persistes Heures du matin, c'est les perquises, t'as pas coffré, ils t'ont saisi Ma daronne a confiance en moi, j'peux pas flancher, j'peux pas lâcher J'finis un jet, donner mon cur, ils ont tout gâché, ils l'ont cassé Pas une nuit sans penser à brasser, à brasser, à embrasser J'aimais la rue donc j'l'ai embrassé, embrassé, la rue embrassée Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi You might also like Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Quand y a drah, on n'a jamais balisé Balisé, les keufs sont v'nus nous faire baliser Baliser Chez nous, ça traîne qu'en bande organisée Organisée d'la maternelle au lycée Ouais, yeah Grosse Ferrari, r'présente Paris, doublé d'Mbappé, feinte de frappe tah Neymar crari J'fais tmenick j'ai mal au dos et bicyclette dans vos grands-mères C'est Mister You, Alpha Lima Pedro, y a d'la frappe d'Outre-Mer On fait d'l'oseille, on sort les armes, les keufs sans hlel dans la lasagne J'suis d'ceux qu'investissent en Lausanne, y a les ch'vaux d'course et y a les ânes Yeah, yeah Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Tosma</t>
+          <t>Teh les premiers soirs</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Mister Yougataga On vie dans une putain d'époque, on vend dla drogue, on fuck le proc' Bois d'Arcy, nes-Fres, la té-San ouais, ouais, ouais, on pourrait tourner pendant dix ans Fuck les jaloux, on va les écraser, Bentley ou Testarossa, ça vend le shit, ça vend la CC, ça mène une putain dvie de laud-sa J'te jure frérot crois-moi, j'ai vu des trucs insensés, ils sont bés-tom deux-trois mois, ils veulent m'apprendre à danser Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent Jai commencé par fumer lpilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, jai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas J'reviens mettre la fessée au rap français, les trois quarts des MC peuvent mappeler papa Y'a qu'au dispatching que l'froc est baissé Et si tu nous crois pas, rendez-vous là-bas Pas b'soin d' ou de psychanalyse pour savoir qu'y a du khaliss dans la valise Quand y a les keufs, crois pas que j'balise You c'est la Tour Eiffel à Bériz You might also like Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent J'ai commencé par fumer l'pilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, j'ai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Mister Yougataga</t>
+          <t>Dj Kayz Paris,Oran New York Bimbim Mister You Braaah Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Scuse-moi désolé de te déranger J'ai rêvé de nous tous les deux allongés sous un oranger Si tes copines elles m'aimes pas C'est pas grave laisse les rager De toute façon j'suis courageux Timinik j'me suis rangé Une heure dans tes bras c'est mieux que le tour du monde Ouai Pour toi j'ferais la guerre J'pourrais tuer tout le monde Non c'est pas vrai, t'sais bien que j'fais le tomi Ce que j'veux c'est te serrer et finir dans ton lit Accroche toi direction le septième ciel Dans tes petits yeux j'ai vu l'étincelle Mets tes porte-jarretelles jt'emmène en balade Ouai J'vais t'faire passer une soirée de malade... You might also like Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Bienvenue dans ma city tu vas faire des saltos Tellement t'es mimi moi j'ai sorti le smalto FENDI, ZILLI J'suis sous col-al On fini au sommet on est parti des halls crades Si tu fais du sale un jour ou l'autre tu paye Évidemment j'voulais pas que les keufs nous pètent Tu m'as fait du charme quand t'as vu les billets Ma montre briller, et là jt'ai grillé! Cette meuf est maléfique ouai elle aime les grossistes Le biffe les profits, les hits les gros feats Tu m'a donné ton cur pour une coupe de champagne J'ai laissé 30 balles j'partirai pas sans toi... Elle m'a mis les menottes pris de vitesse Ce soir tu conduis, moi j'suis dans l'ivresse On s'retrouve au parking On s'fait pas remarquer J'peux oublier la tess et le business Les galères les drames et la tristesse C'est pas la fin dla partie Rizer remet le paquet! Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Totti</t>
+          <t>Tosma</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>J'ai fini l'jeu éteins ta console, j'suis la tête de gondole T'arrête pas d'parler chinois mais t'as une tête de mongole Rhalala qu'est-ce qu'elle est bonne mais khey qu'est-ce qu'elle consomme Elle veut faire un gosse dans l'dos mais j'oublie pas les condoms Ils portent l'il ils ont du mal à m'localiser Ils veulent tous rapper, miskine j'vais les traumatiser Vive le ter-ter niqu son père la retraite j'ai pas cotisé Alcoolisé du soir au soir y a trop d'brouillons à corrigr J'vais leur faire l'effet d'une bombe, tu vas t'croire à Bagdad Quand j'enverrais la purée ils sentiront pas la patate J'baise vos grandes surs comme si j'étais à Pattaya J'm'endors tranquillement à l'hôtel en sirotant mon Ruinart sale bâtard Ils vont s'en mordre les doigts à en devenir manchots J'viens d'paname un peu d'respect m'appelle pas l'sancho J'vais pas retourner ma veste j'ai déjà c'qu'y faut sous l'manteau J'fais flipper comme un revenant quand tu m'vois dans l'Rolls Phantom C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide You might also like J'me noie dans l'alcool tu crois que tout baigne Tu sors la poubelle je sers la plus belle En vrai jusqu'à mon dernier souffle, comme Abdelhak et Youssouf Quand y a les portières qui s'ouvrent, ben y a plein de mères qui souffrent Là j'suis posé sur le sofa, j'te refroidis fuck le chauffage Tu m'testes tu pers l'sophage, j'ai grandi avec les sauvages Spécialiste tah les go fast, j'suis chargé comme une gova Armé d'kalashnikov, là ça sécurise les convois Y a ceux qui envoient et ceux qu'on voit Y a ceux qui mordent y a ceux qui aboient Y a ceux qui assurent et ceux qui foirent Une chose est sûre c'est que ce soir on va foutre le feu avec mes enfoirés Ouais l'surveillant Oh zehma tu fais pas passer hein Eh j'te revois dehors j'te nique ta mère C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Faut le diamant de la couronne, tah la reine Elisabeth Tu claques ton 'seille dans le miel, j'investis sur les abeilles Ca casse du sucre les hypocrites vont finir avec le diabète Gros tu connais dans la street faut chiffrer avant que ça pète Tu peux pas m'la faire, tu la fais qu'aux p'tits Jamais j'trahirai ma team comme Totti Si tu m'as taclé dans l'dos c'est qu'entre nous t'es l'fautif Arrête de casser les couilles ou j'désactive les notifs Paraît que j'suis pas trop émotif Y a que les gros chiffres qui me motivent J'veux pas vieillir comme un pauvre type J'avais huit piges j'écoutais Mob Deep Fuck tous tes rappeurs de merde, moi t'inquiète pas j'me démerde J'ai grandi dans le de-mer, quatre boites dans scooter des mers Y a pas d'règles ça pue l'urine, j'suis avec You en featuring J'veux une oseille de JR Ewing, j'te fume ta mère sur le ring C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Trop de dos d'âne il faudrait qu'on pile Parle pas en face sois un peu comme pile Copain copine il faudrait qu'on pine Faut qu't'arrête tah Mary Poppins C'est l'album qui baise ta compil' C'est Mister You c'est BimBim C'est nous les best t'as compris? C'est Mister You c'est BimBim T'inquiète pas ça gère le style, de Verollot à Rebeval La street sur un pied d'estale, il n'y a que la maille qui maille</t>
+          <t>Mister Yougataga On vie dans une putain d'époque, on vend dla drogue, on fuck le proc' Bois d'Arcy, nes-Fres, la té-San ouais, ouais, ouais, on pourrait tourner pendant dix ans Fuck les jaloux, on va les écraser, Bentley ou Testarossa, ça vend le shit, ça vend la CC, ça mène une putain dvie de laud-sa J'te jure frérot crois-moi, j'ai vu des trucs insensés, ils sont bés-tom deux-trois mois, ils veulent m'apprendre à danser Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent Jai commencé par fumer lpilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, jai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas J'reviens mettre la fessée au rap français, les trois quarts des MC peuvent mappeler papa Y'a qu'au dispatching que l'froc est baissé Et si tu nous crois pas, rendez-vous là-bas Pas b'soin d' ou de psychanalyse pour savoir qu'y a du khaliss dans la valise Quand y a les keufs, crois pas que j'balise You c'est la Tour Eiffel à Bériz You might also like Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent J'ai commencé par fumer l'pilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, j'ai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Mister Yougataga</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Touche pas à mon biff</t>
+          <t>Totti</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Hades Hasta la muerte, on a connu le meilleur et le pire On va se démerder, solo pour bâtir un empire Qu'est-ce que j'voulais dire ? Y a du lourd dans le ffre-co de la tire On aboie pas, on mord rect-di, on braque pas, on ré-ti J'descends du Rif, j'descends pas du singe et pourtant j'suis khfif J'dois faire du biff, pour ça faut faire passer la marchandise Samantha, Bogota, Véronique, Point-à-Pitre, que des litres Adeline, Medellín, Hanane, Paname, Dominique, Pierrefitte, han Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Une boîte plus deux plus trois plus quatre Il m'faut un zodiac, pas juste un scooter des mers Sous Jack, Dom Pé, Chivas, Toucas Que ces fils de timp aillent tous niquer leurs mères On fume du shit et de l'herbe On a grandi dans la merde Quand t'es en chien, personne t'aide Les gens veulent même te voir dead Vida loca, vida vida loca Fuck les condés venus vider la ve-ca Ils ont pris le pilon, ils ont pris la me-ca Ces putains de fils de pute font péter un ble-câ ah Pas de krav-maga, j'ai mon bouche-ca gé-char pour calmer tous tes gars crr, crr Yougataga, tu connais Yougataga ah, brrrah You might also like Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non J'suis défoncé, mes pensées deviennent diaboliques Pied au plancher, j'accélère dans un bolide J'ai la potion, j'vais la bicrave au druide Plus noir que la weed Le caviar, le saumon, le foie gars vont remplacer les frites, on rêve d'être millionnaires On fume de la bonne résine, de la putain de ganja histoire de calmer nos nerfs L'oseille, l'argent, les lovés On a fait des trucs de fou pour en trouver Parfois, j'ai même failli en crever Gros, tu peux remballer J'ai fait tout ce qu'il fallait, non, j'ai plus rien à prouver Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non</t>
+          <t>J'ai fini l'jeu éteins ta console, j'suis la tête de gondole T'arrête pas d'parler chinois mais t'as une tête de mongole Rhalala qu'est-ce qu'elle est bonne mais khey qu'est-ce qu'elle consomme Elle veut faire un gosse dans l'dos mais j'oublie pas les condoms Ils portent l'il ils ont du mal à m'localiser Ils veulent tous rapper, miskine j'vais les traumatiser Vive le ter-ter niqu son père la retraite j'ai pas cotisé Alcoolisé du soir au soir y a trop d'brouillons à corrigr J'vais leur faire l'effet d'une bombe, tu vas t'croire à Bagdad Quand j'enverrais la purée ils sentiront pas la patate J'baise vos grandes surs comme si j'étais à Pattaya J'm'endors tranquillement à l'hôtel en sirotant mon Ruinart sale bâtard Ils vont s'en mordre les doigts à en devenir manchots J'viens d'paname un peu d'respect m'appelle pas l'sancho J'vais pas retourner ma veste j'ai déjà c'qu'y faut sous l'manteau J'fais flipper comme un revenant quand tu m'vois dans l'Rolls Phantom C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide You might also like J'me noie dans l'alcool tu crois que tout baigne Tu sors la poubelle je sers la plus belle En vrai jusqu'à mon dernier souffle, comme Abdelhak et Youssouf Quand y a les portières qui s'ouvrent, ben y a plein de mères qui souffrent Là j'suis posé sur le sofa, j'te refroidis fuck le chauffage Tu m'testes tu pers l'sophage, j'ai grandi avec les sauvages Spécialiste tah les go fast, j'suis chargé comme une gova Armé d'kalashnikov, là ça sécurise les convois Y a ceux qui envoient et ceux qu'on voit Y a ceux qui mordent y a ceux qui aboient Y a ceux qui assurent et ceux qui foirent Une chose est sûre c'est que ce soir on va foutre le feu avec mes enfoirés Ouais l'surveillant Oh zehma tu fais pas passer hein Eh j'te revois dehors j'te nique ta mère C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Faut le diamant de la couronne, tah la reine Elisabeth Tu claques ton 'seille dans le miel, j'investis sur les abeilles Ca casse du sucre les hypocrites vont finir avec le diabète Gros tu connais dans la street faut chiffrer avant que ça pète Tu peux pas m'la faire, tu la fais qu'aux p'tits Jamais j'trahirai ma team comme Totti Si tu m'as taclé dans l'dos c'est qu'entre nous t'es l'fautif Arrête de casser les couilles ou j'désactive les notifs Paraît que j'suis pas trop émotif Y a que les gros chiffres qui me motivent J'veux pas vieillir comme un pauvre type J'avais huit piges j'écoutais Mob Deep Fuck tous tes rappeurs de merde, moi t'inquiète pas j'me démerde J'ai grandi dans le de-mer, quatre boites dans scooter des mers Y a pas d'règles ça pue l'urine, j'suis avec You en featuring J'veux une oseille de JR Ewing, j'te fume ta mère sur le ring C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Trop de dos d'âne il faudrait qu'on pile Parle pas en face sois un peu comme pile Copain copine il faudrait qu'on pine Faut qu't'arrête tah Mary Poppins C'est l'album qui baise ta compil' C'est Mister You c'est BimBim C'est nous les best t'as compris? C'est Mister You c'est BimBim T'inquiète pas ça gère le style, de Verollot à Rebeval La street sur un pied d'estale, il n'y a que la maille qui maille</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Tranquillement</t>
+          <t>Touche pas à mon biff</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais ce qu'on dit Plutôt que d'squatter l'palace d'une pute et beh vaut mieux son ptit taudis Mon soce fait peter l'son dans ton Porshe ou ton Audi C'est Mister you rap de barge ouais freestyle d'antologie Commissaire j'madresse à oit, ouais arrêtes moi si tu peux Paris woogataga nique la Bac et les stupeux Sous sky dans les virages ça joue les Raïkkonen Les faux c'est des fils de pute mais t'inquiéte les vrais y connaissent 96 heures operationnel mais c'est pas fini Mandat de depot criminel j'freestyle jusqu'à l'infinie Woogataa'rtfou sur la gueule des batards les matons Ainsi que les gradés qui revent que d'nous foutre au mitard J'ai du rétrogradé vus qu'les an-ges étaient en retard J'ai enclanché la marche arrière ils arrivent toujours pas a m'guélar Quand j'cris Bébébelleville tout l'tier-quar bébébégaye T'es une belle fille jt'ai dit hobbi c'étais juste pour tkékékéne - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 You might also like Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais c'qu'on dit La parole vaut l'homme mais nous n'sommes pas des Carabantes Faut pas s'mentir jsuis pas d'ceux qui cassent des brinks C'est pour ceux qui brise le ter-ter que j'casse-dedi Les suceurs ils ont de l'herpes j'crois pas qu'ils gouteront a ma tise Les vrais j'les respecte par contre les faux j'les traumatise J'ai trop squatté la street j'en ai attrapé des rhumatismes C'est les Bloods et les Crips entre Alphonse Kert et Rue Mathys J'suis d'lautre côté du mouchoir celui qu'est remplie de khnouna Le revers d'la medaille si on trahit n'3el bouna A Belleville en mémoire à Zyad et Bouna On a graillé les poulets une boite de 4 par laguna - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 Y se acabó la di... J'arrive et j'vous affranchis Tranquillement tu connais moi j'suis pas un apprenti C'est la merde A st'heure ci j'vien d'prendre une peine de bandit Inch'Allah j'connais du monde j'sortirais donc en condi Woogataga eh mon gars viens j'te dis Crame mon blaze une, deux,trois fois et j'deviens mal Kandi J'arrive trop lourd donc les rappeurs s'inscrivent à la gym Ils crient tous A3oudou Billah mina shaytan ar rajim Tranquillement j'arrive et j'les affranchis J'suis faya j'suis fonc-dé mais j'réfrite un ptit bout d'shit Demande aux gars d'la street c'est qui le best des best ils t'diront Woogataga you wanna gangst to gangst Quand sa sent l'Must ou bien l'Pasha tèh Cartier Bah y'a 36 fois plus de keufs que d'meufs dans l'quartier Il nous faut Monica Bellucci Eh ouais c'est çà p'tit on boycott Fabio Lucci pour Gianni Versace Leche ma eue'qu et t'auras ptetre un ech de one Enchanté Laziza mais nan jm'appelle pas Balavoine Wesh me gusta la vida me gusta tu J'laisse les aufx en levrette et les vrais j'leurs dedicasse tous Si elle m'kiff la rue c'est parce qu'elle est pas conne MrYOU.SKYROCK.COM Si t'es un batard tu peux garder tes commentaires J'rap pour l'placard pour Fleury pour Fresnes pour Nanterre Pour Aboubakar, pour Abdelkader Ma plus belle nuit à moi c'était Laylat al-Qadr Akhi nan j'finirais pas comme De Villepin Moi j'terminrais comme les frères qui sortent de Villepinte J'rap pour No times fansdé Moh aux platines A la gloire Inch'allah du dispatching au disque platine T'as qu'a demander a la street c'est qui le best des best Bebebelleville zoo wanna gangst to gangst - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2</t>
+          <t>Hades Hasta la muerte, on a connu le meilleur et le pire On va se démerder, solo pour bâtir un empire Qu'est-ce que j'voulais dire ? Y a du lourd dans le ffre-co de la tire On aboie pas, on mord rect-di, on braque pas, on ré-ti J'descends du Rif, j'descends pas du singe et pourtant j'suis khfif J'dois faire du biff, pour ça faut faire passer la marchandise Samantha, Bogota, Véronique, Point-à-Pitre, que des litres Adeline, Medellín, Hanane, Paname, Dominique, Pierrefitte, han Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Une boîte plus deux plus trois plus quatre Il m'faut un zodiac, pas juste un scooter des mers Sous Jack, Dom Pé, Chivas, Toucas Que ces fils de timp aillent tous niquer leurs mères On fume du shit et de l'herbe On a grandi dans la merde Quand t'es en chien, personne t'aide Les gens veulent même te voir dead Vida loca, vida vida loca Fuck les condés venus vider la ve-ca Ils ont pris le pilon, ils ont pris la me-ca Ces putains de fils de pute font péter un ble-câ ah Pas de krav-maga, j'ai mon bouche-ca gé-char pour calmer tous tes gars crr, crr Yougataga, tu connais Yougataga ah, brrrah You might also like Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non J'suis défoncé, mes pensées deviennent diaboliques Pied au plancher, j'accélère dans un bolide J'ai la potion, j'vais la bicrave au druide Plus noir que la weed Le caviar, le saumon, le foie gars vont remplacer les frites, on rêve d'être millionnaires On fume de la bonne résine, de la putain de ganja histoire de calmer nos nerfs L'oseille, l'argent, les lovés On a fait des trucs de fou pour en trouver Parfois, j'ai même failli en crever Gros, tu peux remballer J'ai fait tout ce qu'il fallait, non, j'ai plus rien à prouver Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tremblement de ter-ter</t>
+          <t>Tranquillement</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !You might also like</t>
+          <t>Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais ce qu'on dit Plutôt que d'squatter l'palace d'une pute et beh vaut mieux son ptit taudis Mon soce fait peter l'son dans ton Porshe ou ton Audi C'est Mister you rap de barge ouais freestyle d'antologie Commissaire j'madresse à oit, ouais arrêtes moi si tu peux Paris woogataga nique la Bac et les stupeux Sous sky dans les virages ça joue les Raïkkonen Les faux c'est des fils de pute mais t'inquiéte les vrais y connaissent 96 heures operationnel mais c'est pas fini Mandat de depot criminel j'freestyle jusqu'à l'infinie Woogataa'rtfou sur la gueule des batards les matons Ainsi que les gradés qui revent que d'nous foutre au mitard J'ai du rétrogradé vus qu'les an-ges étaient en retard J'ai enclanché la marche arrière ils arrivent toujours pas a m'guélar Quand j'cris Bébébelleville tout l'tier-quar bébébégaye T'es une belle fille jt'ai dit hobbi c'étais juste pour tkékékéne - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 You might also like Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais c'qu'on dit La parole vaut l'homme mais nous n'sommes pas des Carabantes Faut pas s'mentir jsuis pas d'ceux qui cassent des brinks C'est pour ceux qui brise le ter-ter que j'casse-dedi Les suceurs ils ont de l'herpes j'crois pas qu'ils gouteront a ma tise Les vrais j'les respecte par contre les faux j'les traumatise J'ai trop squatté la street j'en ai attrapé des rhumatismes C'est les Bloods et les Crips entre Alphonse Kert et Rue Mathys J'suis d'lautre côté du mouchoir celui qu'est remplie de khnouna Le revers d'la medaille si on trahit n'3el bouna A Belleville en mémoire à Zyad et Bouna On a graillé les poulets une boite de 4 par laguna - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 Y se acabó la di... J'arrive et j'vous affranchis Tranquillement tu connais moi j'suis pas un apprenti C'est la merde A st'heure ci j'vien d'prendre une peine de bandit Inch'Allah j'connais du monde j'sortirais donc en condi Woogataga eh mon gars viens j'te dis Crame mon blaze une, deux,trois fois et j'deviens mal Kandi J'arrive trop lourd donc les rappeurs s'inscrivent à la gym Ils crient tous A3oudou Billah mina shaytan ar rajim Tranquillement j'arrive et j'les affranchis J'suis faya j'suis fonc-dé mais j'réfrite un ptit bout d'shit Demande aux gars d'la street c'est qui le best des best ils t'diront Woogataga you wanna gangst to gangst Quand sa sent l'Must ou bien l'Pasha tèh Cartier Bah y'a 36 fois plus de keufs que d'meufs dans l'quartier Il nous faut Monica Bellucci Eh ouais c'est çà p'tit on boycott Fabio Lucci pour Gianni Versace Leche ma eue'qu et t'auras ptetre un ech de one Enchanté Laziza mais nan jm'appelle pas Balavoine Wesh me gusta la vida me gusta tu J'laisse les aufx en levrette et les vrais j'leurs dedicasse tous Si elle m'kiff la rue c'est parce qu'elle est pas conne MrYOU.SKYROCK.COM Si t'es un batard tu peux garder tes commentaires J'rap pour l'placard pour Fleury pour Fresnes pour Nanterre Pour Aboubakar, pour Abdelkader Ma plus belle nuit à moi c'était Laylat al-Qadr Akhi nan j'finirais pas comme De Villepin Moi j'terminrais comme les frères qui sortent de Villepinte J'rap pour No times fansdé Moh aux platines A la gloire Inch'allah du dispatching au disque platine T'as qu'a demander a la street c'est qui le best des best Bebebelleville zoo wanna gangst to gangst - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Triste Époque</t>
+          <t>Tremblement de ter-ter</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>11ème 19ème 20ème Triste époque mon pote ! Eh ouuuais aaaaaaaaaaaaaah tention' Bébébébélleville Wesh dahwa parait que ta fait ton halal zooogataga Psartek en ce qui m'concerne moi J'ai fait le haram avec ma rue quand j'ai bédave ma première barrette On s'est marié direct le jour où j'ai bicrave la première galette C'est pour les braves comme Nas, comme Sidyou, comme Toumi, Khaled À tous ceux que j'aurais oublié les mecs qui auront su m'venir en aide Khabta mon bien être j'suis pas net j'fuck toute la planète Y'a trop de sky dans ma canette regarde ma gueule sur internet À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre Ohh il est dejà l'heure j'big up Shakar El Mansour Triste Epoque, mon pote le monde il part en glawi oui oui J'me verrai bien au bled avec Abderrazak El Mahraoui Blanchir juste un lion-mi léjéh el baraka L'rap français pour moi c'est comme du bachi pour un maraka J'oublie pas No Times Records Boubakar Tristan Comme dit Wisla fuck les bâtards qu'ils fument tout seul leurs tipisla Un conseil joue pas le voyou arrête le rap et fais du basket C'est Mister You sur écoute comme Avon barksdale You might also like Woogataga le refré Yaston À Slimane a Souleymane, ah woogatabraaaaaaaaaaaaaaaa J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assess Triste époque mon pote j'te jure demande à Aladin J'fume du seum, j'ai du plomb et donc du monde dans la tête Les mecs pour une barrette ils te mettent une peine exemplaire Rachida il faut qu'elle s'en va, Sarko faut qui nique son père J'me sens seul comme cette goutte d'huile dans l'océan J'essaie en vain de rentabiliser les séances Là j'tourne en rond autant qu'un taulard en promenade Ou un mec qui cherche un bête de taf, mais qu'a le teint trop mat Moi quand j'sors de gard'av c'est que j'rentre au placard V.I.P en chaussette, nique les 3asses bande de batard Ils sont là pour t'faire la misère fouille cellulaire à 6h J'ai pas le profil de l'auxiliaire moi c'est pour ça qu'ils m'ont dans le viseur Le rôle j'vais m'l'accaparer çà j'te l'dit fih seh Y'a plus de coke à Paris qu'y a de neige dans le Val dIsère C'est Mister Youu Gataga pour les intimes Pour tous les mecs cramés, comme les dramé baka ou Latifi J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses1</t>
+          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !You might also like</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Trocadero</t>
+          <t>Triste Époque</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up? Bellek track Jfais danser ta mère, ton père, ta cousine, c'est Mister You avec Uzi L'salaire du procureur ne vaut pas ma paire de Gucci Veulent voir la vie en rose, on va leur bicrave dla toussi Des bulles, v'là les pa-pages, sur les chèques et dans le jacuzzi Dahwa, on a trop de soucis, on a mis du Jack dans le smoothie Remballe ta gueule de shneck, remballe ta gueule d pussy J'rappe pour mes Congolais, mes Algérins, mes Mgharba Tounsi Dans la zone, j'transforme tous mes billets bleus J'suis comme on en fait plus, on fait la diff', on fait les eu' J'te laisse pas perdre, si on prend la gratte à deux Jveux tlaisser par terre, t'as vu la haine dans mes yeux On sconnaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça sen bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh You might also like Tu lui dis je t'aime habibi, elle t'demande combien tu poses pour la dote Donc y'a qu'nos mères qu'on aime, et il n'y'a qu'Allah qu'on adore Pied au plancher, j'suis déjà à 3.40, même Bugs Bunny s'est fait carotte Ce qui fait l'homme, c'est la parole ce qui fait l'homme, c'est la parole C'est pour de vrai quand ça rafale, devant les keufs, ça parlera pas J'continue, c'est pas pour l'rap, c'est pour faire rentrer des oiseaux Regarder mon fils graille le gratin, quand sur ces catins Debout à seize heures, tous les matins, j'suis trop loin plus rien ne m'atteint T'as ouvert ton clapet, ils s'étaient broliqués, wow, yo, yo, yo T'as joué les cros-ma, tu t'es fais niquer, wow, yo, yo, yo On s'connaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça s'en bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh</t>
+          <t>11ème 19ème 20ème Triste époque mon pote ! Eh ouuuais aaaaaaaaaaaaaah tention' Bébébébélleville Wesh dahwa parait que ta fait ton halal zooogataga Psartek en ce qui m'concerne moi J'ai fait le haram avec ma rue quand j'ai bédave ma première barrette On s'est marié direct le jour où j'ai bicrave la première galette C'est pour les braves comme Nas, comme Sidyou, comme Toumi, Khaled À tous ceux que j'aurais oublié les mecs qui auront su m'venir en aide Khabta mon bien être j'suis pas net j'fuck toute la planète Y'a trop de sky dans ma canette regarde ma gueule sur internet À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre Ohh il est dejà l'heure j'big up Shakar El Mansour Triste Epoque, mon pote le monde il part en glawi oui oui J'me verrai bien au bled avec Abderrazak El Mahraoui Blanchir juste un lion-mi léjéh el baraka L'rap français pour moi c'est comme du bachi pour un maraka J'oublie pas No Times Records Boubakar Tristan Comme dit Wisla fuck les bâtards qu'ils fument tout seul leurs tipisla Un conseil joue pas le voyou arrête le rap et fais du basket C'est Mister You sur écoute comme Avon barksdale You might also like Woogataga le refré Yaston À Slimane a Souleymane, ah woogatabraaaaaaaaaaaaaaaa J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assess Triste époque mon pote j'te jure demande à Aladin J'fume du seum, j'ai du plomb et donc du monde dans la tête Les mecs pour une barrette ils te mettent une peine exemplaire Rachida il faut qu'elle s'en va, Sarko faut qui nique son père J'me sens seul comme cette goutte d'huile dans l'océan J'essaie en vain de rentabiliser les séances Là j'tourne en rond autant qu'un taulard en promenade Ou un mec qui cherche un bête de taf, mais qu'a le teint trop mat Moi quand j'sors de gard'av c'est que j'rentre au placard V.I.P en chaussette, nique les 3asses bande de batard Ils sont là pour t'faire la misère fouille cellulaire à 6h J'ai pas le profil de l'auxiliaire moi c'est pour ça qu'ils m'ont dans le viseur Le rôle j'vais m'l'accaparer çà j'te l'dit fih seh Y'a plus de coke à Paris qu'y a de neige dans le Val dIsère C'est Mister Youu Gataga pour les intimes Pour tous les mecs cramés, comme les dramé baka ou Latifi J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses1</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TROIS PETITS CHATS</t>
+          <t>Trocadero</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre You might also like Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
+          <t>Nabz, nigga, what's up? Bellek track Jfais danser ta mère, ton père, ta cousine, c'est Mister You avec Uzi L'salaire du procureur ne vaut pas ma paire de Gucci Veulent voir la vie en rose, on va leur bicrave dla toussi Des bulles, v'là les pa-pages, sur les chèques et dans le jacuzzi Dahwa, on a trop de soucis, on a mis du Jack dans le smoothie Remballe ta gueule de shneck, remballe ta gueule d pussy J'rappe pour mes Congolais, mes Algérins, mes Mgharba Tounsi Dans la zone, j'transforme tous mes billets bleus J'suis comme on en fait plus, on fait la diff', on fait les eu' J'te laisse pas perdre, si on prend la gratte à deux Jveux tlaisser par terre, t'as vu la haine dans mes yeux On sconnaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça sen bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh You might also like Tu lui dis je t'aime habibi, elle t'demande combien tu poses pour la dote Donc y'a qu'nos mères qu'on aime, et il n'y'a qu'Allah qu'on adore Pied au plancher, j'suis déjà à 3.40, même Bugs Bunny s'est fait carotte Ce qui fait l'homme, c'est la parole ce qui fait l'homme, c'est la parole C'est pour de vrai quand ça rafale, devant les keufs, ça parlera pas J'continue, c'est pas pour l'rap, c'est pour faire rentrer des oiseaux Regarder mon fils graille le gratin, quand sur ces catins Debout à seize heures, tous les matins, j'suis trop loin plus rien ne m'atteint T'as ouvert ton clapet, ils s'étaient broliqués, wow, yo, yo, yo T'as joué les cros-ma, tu t'es fais niquer, wow, yo, yo, yo On s'connaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça s'en bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>VACANZA A MARBELLA</t>
+          <t>TROIS PETITS CHATS</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer J't'ai tout donné mais t'as douté d'moi Maintenant dans mon cur tout est noir J'ai déjà enfreint toutes les lois J'ai tourné j'ai coffré l'pénav J'ai pas vendu des cinquenta C'est moi qui paie toutes les cuenta Dans le VIP d'Olivia Valere Versace jusque sur l'peignoir J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rjoindre mes hermanos Ma p'tit andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella You might also like J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza a Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Partito dalla cite Oui oui, comment tu t'appelles Ma chérie, je suis italien Con il binks binks, fino a Malaga Ah Marbella, All' Habana Jack Daniel's le sere mon bebe Quiere fumar conmigo Amigo, mentalita' don Vito Una bebecita zero cellulite a Cadiz Vetri neri sopra l'AMG Mangio pasta al Olivia Valere Otto mafia tu non sei mio frere Philip, Mister You, Hayce Lemsi J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Meute de loups suivie par des hyènes Sdeh Marocain chemise Italienne J'passe de l'opinel à la mitraillette Le jet s'arrête à l'hôtel Hyat Pour un dollar c'est lance-roquettes Ou finir en chien graille des croquettes Y a un gros calibre dans les discothèques Genre du si j'veux je rentre en claquettes J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rejoindre mes hermanos Ma p'tite andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella</t>
+          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre You might also like Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Vie de voyou</t>
+          <t>VACANZA A MARBELLA</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>La nouvelle école décolle future patronne du rap Chez nous ca bicrave tous c'qui s'fume nique sa mère les biens durables Négro ca vient du zoo tous les frelots s'mette debout Pour les darons qu'on deux femmes dix gosses mais qu'arrive pas à joindre les deux bouts Elle est loin l'insouciance d'la maternelle Maintenant mes potes plaident coupable rien est éternel Si tu poucaves les coups partent et tu l'sais rheys Les problèmes partent mais reviennent agravés et tu l'sais rheys Le 7.5 c'est frais zinks surtout quand t'as du bif L'argent fait pas l'bonheur c'est que si j'en ai qu'j'vais t'le dire Mais j'me sens seul sans ça comme Gainsbourg sans sa Havanne Lil Wayne sans son sureau Biggie sans sa canne Négro on cherche ça on cherche les dames on cherche le drame En gros on cherche la merde comme un mec bourré en boîte Pour régler ça dans les équipes toujours un casse machoire Si c'est pas avec 10 keums c'est avec un gun qu'on marche le soir On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 2010 faites de la place que j'pète le tympan des puristes Putain putain d'dédicaces a tous les frérots qui prennent des risques Qui s'en battent les cojones qui restent posés sur l'pavé J'me présente moi c'est Youness c'lui qui r'ssort jamais d'GAV J't'ai dis surveille tes seufs j'suis d'ceux qui rentre direct au hebs A 200 000 Km dahwa j'peut t'dire qu'ca va très deus Aïe aïe aïe Saddam Husen non il est pas mort C'est la vengeance d'la guerre du golfe j'enfonce un club dans l'bide des porcs J'suis venu sodomisé leur maman l'rap j'suis comme son médicaments D'mande à Fialso ou bien Still fresh comment on représente nos département? C'est hasta la muerte comue Guevara cha Hasta la victoria siempre comme dirait Da Djé Het p'tit sur la mecque sa rigole ap Et sur la tombe de mon grand pere qu'on nique la mere a c'putain d'rap Dahwa c'est d'la frappe donc faut l'écouter par le zen J'répete c'est d'la frappe don c c'est normal que ca passe creme You might also likeOn vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 Le rap c'était mieux avant jusqu'a c'que You et Fresh arrive Deux gars qui cherche du liquide pour arrosé nos terre aride Man ils nous font perdre la santé on nous enferment a Bois D'Arcy La mauvaise graine a frennes et c'est plus de haine qui fleuris On perd trop d'espoir dans cette vie la Moi j'veux vite croire au mot victoire Donc fuck la proc appelle tes potes défoce les portes Pour qui nous entendes desfois obligé d'lancer l'coktail molotov Merde un con gamberge Un seul faux pas et tu peut etre a 20 000 lieues dans la merde Nouvelle école ca vient d'Paris pur black MC Dis pas qu't'aime si mon teint t'gene comme un barbu dans un jet petit T'attache pas a la vie c'est une garce on m'a dit Que des gars qui médisent et des tass qui font les garcons manqués Pff dédicace a Mister You Une vie d'voyou implique des peines de voyous On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x4</t>
+          <t>Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer J't'ai tout donné mais t'as douté d'moi Maintenant dans mon cur tout est noir J'ai déjà enfreint toutes les lois J'ai tourné j'ai coffré l'pénav J'ai pas vendu des cinquenta C'est moi qui paie toutes les cuenta Dans le VIP d'Olivia Valere Versace jusque sur l'peignoir J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rjoindre mes hermanos Ma p'tit andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella You might also like J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza a Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Partito dalla cite Oui oui, comment tu t'appelles Ma chérie, je suis italien Con il binks binks, fino a Malaga Ah Marbella, All' Habana Jack Daniel's le sere mon bebe Quiere fumar conmigo Amigo, mentalita' don Vito Una bebecita zero cellulite a Cadiz Vetri neri sopra l'AMG Mangio pasta al Olivia Valere Otto mafia tu non sei mio frere Philip, Mister You, Hayce Lemsi J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Meute de loups suivie par des hyènes Sdeh Marocain chemise Italienne J'passe de l'opinel à la mitraillette Le jet s'arrête à l'hôtel Hyat Pour un dollar c'est lance-roquettes Ou finir en chien graille des croquettes Y a un gros calibre dans les discothèques Genre du si j'veux je rentre en claquettes J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rejoindre mes hermanos Ma p'tite andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Vieille meuf</t>
+          <t>Vie de voyou</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>J'suis déconseillé aux mines-ga Aux michtonneuses et de manière générale A toutes les meufs zine-ga J'ai pas de temps et encore moins de tunes à perdre Donc si t'es bonne et que tu frimes pas, faut que tu m'appelles John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie J'suis pas un plouc arrache toi Je chante pas la Cucaracha Moi j'suis un loup, j'tire mon coup et j'natchave C'est aussi simple que d'dire bonjour Tu t'es fais belle coquine, là c'est sur ton boule qu'on zoome Dis-le moi si ça te déplait, arrête de faire ta mijaurée steuplait J'te manque pas d'respect, tu fais exprès, j'ai cramé ton vice Je sais bien où tu veux en venir mais oublie c'est pas méthodique C'est bon, on les connait les meufs comme toi Qui font leurs coups en douce et ont des airs de psychopathe Tu trompes ton gars avec le premier venu Tu seras bien près de mes burnes, attends que je m'occupe de ton cas là Et puis merde, j'm'en tape, t'as 2 ans d'âge mental Les ta-tass comme toi ça court les rues J'préfère les filles sérieuses qui se respectent Pas celles qui se laissent faire et qui se comportent comme des chiennes J'balance des 16 en vrac pour les gros comiques qui m'font gol-ri Lorsqu'ils me parlent d'hydroponic C'est Wira Zaka, enchanté mesdames et mesdames J'me fous de leurs médailles, venez juste embrasser mes burnes You might also like John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Madame n'est pas une michtonneuse mais elle n'sort pas avec les pauvres Il en faut plein pour être heureuse, elle ouvre son cur devant une clé de coffre Elle est pas là pour ton argent car c'est clair, elle préfère l'or A la recherche de l'espoir, rallume tes phares, il pourrait faire noir Woogataga, j'ai vu et là j'vous raconte ce qu'elles m'ont fait voir Elles m'ont montré que l'avenir rime avec gent-ar donc désespoir Si timide puis si vulgaire, si si, j'vous pousse à l'croire C'est le nerf de la guerre, wallah les meufs c'est que des histoires La vérité c'est peu plaisant, c'est blessant tels des rasoirs La liberté s'cache en prison, si j'guide mon peuple ça s'ra dérisoire On dirait le soir dans ma tête même quand il est 14 heures Une folle m'a dit faut faire la fête, c'est à bronzer que l'équateur sert Dieu est grand, le monde est petit, tu connais tous les coins tah sah Yes, sah el sbah, sans mascara t'as l'air bizarre Une fois à l'hotel bah tu ressort plus avant 13 heures C'est plus Lancôme ton trésor vu que t'as l'cul dans le compresseur Et c'est le désordre dans ta tête et encore t'as que 20 piges T'as une reput' de vraie pute mais bon toi tu t'en fiches Tu veux être riche, shab tu sniffes, tu veux faire partie d'la jet-set Tu mérites qu'un tour d'YZ, espèce de vieille khenzete John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Moi j'kiffe pas les fouffes qui ont une bite dans le veau-cer Une liasse à la place du cur, qui s'frottent devant les gangsters Les Holster de ma garde les font mouiller En soirée, sous vodka, ma clique elles aimeraient souiller Espèce de vieille meuf, tu m'as rodave avec une poupée genre Halle Berry Comme Vanessa, t'as choqué J'ai pare-choqué la rue avec mes rimes et mes crochets Les crasseuses s'accrochent à mon zgeg comme un trophée Elles en ont trop fait, cramées comme les vil-ci Hassoul, par tié-pi, cassez-vous loin d'ici Laissez donc la place à ses dames qui ont la classe Qui déclassent la number one des michtos en place J'vous fracasse a coup de hanches Veux tu ton x dans le merco benz, dans ton benz La puissance du beau negro, après mon passage tu crieras Woogataga Nous ce qu'on aime c'est les boules qui s'font pas hagra, mon gars John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller</t>
+          <t>La nouvelle école décolle future patronne du rap Chez nous ca bicrave tous c'qui s'fume nique sa mère les biens durables Négro ca vient du zoo tous les frelots s'mette debout Pour les darons qu'on deux femmes dix gosses mais qu'arrive pas à joindre les deux bouts Elle est loin l'insouciance d'la maternelle Maintenant mes potes plaident coupable rien est éternel Si tu poucaves les coups partent et tu l'sais rheys Les problèmes partent mais reviennent agravés et tu l'sais rheys Le 7.5 c'est frais zinks surtout quand t'as du bif L'argent fait pas l'bonheur c'est que si j'en ai qu'j'vais t'le dire Mais j'me sens seul sans ça comme Gainsbourg sans sa Havanne Lil Wayne sans son sureau Biggie sans sa canne Négro on cherche ça on cherche les dames on cherche le drame En gros on cherche la merde comme un mec bourré en boîte Pour régler ça dans les équipes toujours un casse machoire Si c'est pas avec 10 keums c'est avec un gun qu'on marche le soir On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 2010 faites de la place que j'pète le tympan des puristes Putain putain d'dédicaces a tous les frérots qui prennent des risques Qui s'en battent les cojones qui restent posés sur l'pavé J'me présente moi c'est Youness c'lui qui r'ssort jamais d'GAV J't'ai dis surveille tes seufs j'suis d'ceux qui rentre direct au hebs A 200 000 Km dahwa j'peut t'dire qu'ca va très deus Aïe aïe aïe Saddam Husen non il est pas mort C'est la vengeance d'la guerre du golfe j'enfonce un club dans l'bide des porcs J'suis venu sodomisé leur maman l'rap j'suis comme son médicaments D'mande à Fialso ou bien Still fresh comment on représente nos département? C'est hasta la muerte comue Guevara cha Hasta la victoria siempre comme dirait Da Djé Het p'tit sur la mecque sa rigole ap Et sur la tombe de mon grand pere qu'on nique la mere a c'putain d'rap Dahwa c'est d'la frappe donc faut l'écouter par le zen J'répete c'est d'la frappe don c c'est normal que ca passe creme You might also likeOn vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 Le rap c'était mieux avant jusqu'a c'que You et Fresh arrive Deux gars qui cherche du liquide pour arrosé nos terre aride Man ils nous font perdre la santé on nous enferment a Bois D'Arcy La mauvaise graine a frennes et c'est plus de haine qui fleuris On perd trop d'espoir dans cette vie la Moi j'veux vite croire au mot victoire Donc fuck la proc appelle tes potes défoce les portes Pour qui nous entendes desfois obligé d'lancer l'coktail molotov Merde un con gamberge Un seul faux pas et tu peut etre a 20 000 lieues dans la merde Nouvelle école ca vient d'Paris pur black MC Dis pas qu't'aime si mon teint t'gene comme un barbu dans un jet petit T'attache pas a la vie c'est une garce on m'a dit Que des gars qui médisent et des tass qui font les garcons manqués Pff dédicace a Mister You Une vie d'voyou implique des peines de voyous On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x4</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Viens pas test</t>
+          <t>Vieille meuf</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AAAAAh attention B.I.L.E.L Mr Yougataga John Steed petrodollar AAAAAAAH, bbrrrrrraaaa Belleville viens surtout pas test l'équipe Le ptit yas Un coup de fil, on débarque on t'baise, on t'liquide Dédicace Belleville viens surtout pas test l'équipe Belleville Un coup de fil, on débarque on t'baise, on t'liquide Zooogatagaaa J'fais mon entrée dans la cabine Un peu comme un boxeur J'volais déjà tout à la cantine On m'a pas élevé chez les bonnes surs Y'a ceux qui volent, ceux qui dealent, ceux qui braquent et les bosseurs Y'a ceux qui sautent, ceux qui tirent, ceux qui parlent et les crosseurs pour protester Tandis que nous on s'amuse Tout ceux qui viendront pour tester Repartiront avec le S.A.M.U T'as le flow de l'abbé Pierre, avec un tout ptit duvet T'as rien à faire dans le RAP comme un black dans un salon d'UV Arrêtes de m'parler de coke On t'a fait sniffer de la craie mec On a cramé ta loc', nous fait pas croire que t'es un mec de grec Aaaah hoooougataga Nous on bicrave sous la grêle Les boloss se grattent les veines quand au quartier on fait la grève Le 34 des rappeurs sucent des bites à crédit Ils veulent pas me faire d'la place par peur de pointer aux ASSEDICS J'sais pas pour qui ils se prennent, mais ils sont pas si terribles Si mon flow avait des mains, il aurait déjà baffé tes rimes You might also likeBelleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide ...</t>
+          <t>J'suis déconseillé aux mines-ga Aux michtonneuses et de manière générale A toutes les meufs zine-ga J'ai pas de temps et encore moins de tunes à perdre Donc si t'es bonne et que tu frimes pas, faut que tu m'appelles John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie J'suis pas un plouc arrache toi Je chante pas la Cucaracha Moi j'suis un loup, j'tire mon coup et j'natchave C'est aussi simple que d'dire bonjour Tu t'es fais belle coquine, là c'est sur ton boule qu'on zoome Dis-le moi si ça te déplait, arrête de faire ta mijaurée steuplait J'te manque pas d'respect, tu fais exprès, j'ai cramé ton vice Je sais bien où tu veux en venir mais oublie c'est pas méthodique C'est bon, on les connait les meufs comme toi Qui font leurs coups en douce et ont des airs de psychopathe Tu trompes ton gars avec le premier venu Tu seras bien près de mes burnes, attends que je m'occupe de ton cas là Et puis merde, j'm'en tape, t'as 2 ans d'âge mental Les ta-tass comme toi ça court les rues J'préfère les filles sérieuses qui se respectent Pas celles qui se laissent faire et qui se comportent comme des chiennes J'balance des 16 en vrac pour les gros comiques qui m'font gol-ri Lorsqu'ils me parlent d'hydroponic C'est Wira Zaka, enchanté mesdames et mesdames J'me fous de leurs médailles, venez juste embrasser mes burnes You might also like John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Madame n'est pas une michtonneuse mais elle n'sort pas avec les pauvres Il en faut plein pour être heureuse, elle ouvre son cur devant une clé de coffre Elle est pas là pour ton argent car c'est clair, elle préfère l'or A la recherche de l'espoir, rallume tes phares, il pourrait faire noir Woogataga, j'ai vu et là j'vous raconte ce qu'elles m'ont fait voir Elles m'ont montré que l'avenir rime avec gent-ar donc désespoir Si timide puis si vulgaire, si si, j'vous pousse à l'croire C'est le nerf de la guerre, wallah les meufs c'est que des histoires La vérité c'est peu plaisant, c'est blessant tels des rasoirs La liberté s'cache en prison, si j'guide mon peuple ça s'ra dérisoire On dirait le soir dans ma tête même quand il est 14 heures Une folle m'a dit faut faire la fête, c'est à bronzer que l'équateur sert Dieu est grand, le monde est petit, tu connais tous les coins tah sah Yes, sah el sbah, sans mascara t'as l'air bizarre Une fois à l'hotel bah tu ressort plus avant 13 heures C'est plus Lancôme ton trésor vu que t'as l'cul dans le compresseur Et c'est le désordre dans ta tête et encore t'as que 20 piges T'as une reput' de vraie pute mais bon toi tu t'en fiches Tu veux être riche, shab tu sniffes, tu veux faire partie d'la jet-set Tu mérites qu'un tour d'YZ, espèce de vieille khenzete John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Moi j'kiffe pas les fouffes qui ont une bite dans le veau-cer Une liasse à la place du cur, qui s'frottent devant les gangsters Les Holster de ma garde les font mouiller En soirée, sous vodka, ma clique elles aimeraient souiller Espèce de vieille meuf, tu m'as rodave avec une poupée genre Halle Berry Comme Vanessa, t'as choqué J'ai pare-choqué la rue avec mes rimes et mes crochets Les crasseuses s'accrochent à mon zgeg comme un trophée Elles en ont trop fait, cramées comme les vil-ci Hassoul, par tié-pi, cassez-vous loin d'ici Laissez donc la place à ses dames qui ont la classe Qui déclassent la number one des michtos en place J'vous fracasse a coup de hanches Veux tu ton x dans le merco benz, dans ton benz La puissance du beau negro, après mon passage tu crieras Woogataga Nous ce qu'on aime c'est les boules qui s'font pas hagra, mon gars John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Vieux mec</t>
+          <t>Viens pas test</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>COUPLET 1 - MISTER YOU Espèce de vieux mec et jdirai même espèce de vieille merde Tes tombé love dune vieille meuf qui insulte sa belle-mère Qui nest autre que la femme qui ta mis au monde Et vu que tu nes quun bouffon tu laisses passer cette chose immonde Arrête de m3iyane tes fatigué questu connait espèce de 3ayane Ah rkhiss va, sale vieux ceu-mé Tes pas mon pote, tu ma boycott pour mettre un ouk Tes quun pd, tu tfera péter comme un boloss au métro Ourcq WOOGATAGA dahwa tes sérieux ou quoi Tu crois qutu vas mtrahir et ten sortir avec tous tes doigts Chut tait-toi ya les peu-stu sur tous les toits Tu fais ni pipi ni caca mais tu squatte trop les lettes-toi WOOGATABRAAAH Jai du cran moi Si jdemande la main de Carla sa serai juste pour lui mettre une peu-cran Certes, tes ptetre intrigant Mais ta pas le style dun briguant Essé reste quille-tran Le monde est petit car Dieu est grand REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrai cochonne You might also likeCOUPLET 2 - GORSAFARA ..... franchement vasi tiens ta langue Trop de vieux mec trop de vieux type transforme le WOOGATAGANG Boussoul bâtiment tous amateur de gang-bang Real man a Gangsta a osé Paname .... Ta tout dit ta tout fait on font tu n'fais que sucer Le comble des vrais ke-mé il est difficile d'imiter T'es toujours bien sapé le petit reuf a les Shoes trouée Tu balade ta chienne en bolide pendant que la Mif prend le tro-mé On ta vu t'esquivé quand ton pote c'est fait cafouillé T'étonne pas si aujourd'hui les petits de la Tess veulent te dépouillé Des des des Barres A la Baraque c'est toujours la Hess T'explose le moindre billets dans les clubs Ou une paire de fesse Connard c'est tout juste si ta Gadji te tiens pas en laisse Et celle qui ta enfanté n'a pas le droit A la moindre pièce REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrai cochonne COUPLET 3 - MISTER YOU Cest toi qui a le pushka mais cest toi qui ble-trem Tous tes crimes sont passionnelles tes un peu comme Cantat Bertrand Etant petit on sest fait hagar donc cest normal quon tape les grands Nous dehwa cest de lahwa et toi cest dla lette-bran A cause des mecs comme wat les gens boycott ma coupe fashion Chez moi les ptits bicrave du crack ils jouent pas trop à la Playstation Ta rien dcharmant, ta pas dargent en plus tes cheum Moi cque jkifferai voir cest que tous les jeunes de cité jeûnent Car j'me sens comme ses de-mer quand je rompt le carême pour un kamas J'me répète que ses tards-ba ils boycottent leurs mère pour une conasse Hamdoullah j'suis pas comme a-s j'sais que les rents-pa c'est comme la prière Pour eux lève-toi frère même quand t'es trop naze INSTRU All that she wants is another baby All that she wants is another baby WOOGATABRAAAAAH REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrais cochonnes -Salut ma chérie comment tu va ? ta passer une bonne journée -Oh vasi la j'ai pas trop le temps -mais euh euh mais sinon mais mais mais -rend toi utile la va me chercher ma tenue s'il te plait Elle est chez ma copine j'lai oublier j'vais sortir en boite -mais attend 2 petites minutes -Quel 2 minutes la vasi vasi prend le métro la -Nan c'est vraiment parce que c'est toi ma chérie -Ouais Stylie -D'accord j'y vais en courant -Ouais mais ta intérêt</t>
+          <t>AAAAAh attention B.I.L.E.L Mr Yougataga John Steed petrodollar AAAAAAAH, bbrrrrrraaaa Belleville viens surtout pas test l'équipe Le ptit yas Un coup de fil, on débarque on t'baise, on t'liquide Dédicace Belleville viens surtout pas test l'équipe Belleville Un coup de fil, on débarque on t'baise, on t'liquide Zooogatagaaa J'fais mon entrée dans la cabine Un peu comme un boxeur J'volais déjà tout à la cantine On m'a pas élevé chez les bonnes surs Y'a ceux qui volent, ceux qui dealent, ceux qui braquent et les bosseurs Y'a ceux qui sautent, ceux qui tirent, ceux qui parlent et les crosseurs pour protester Tandis que nous on s'amuse Tout ceux qui viendront pour tester Repartiront avec le S.A.M.U T'as le flow de l'abbé Pierre, avec un tout ptit duvet T'as rien à faire dans le RAP comme un black dans un salon d'UV Arrêtes de m'parler de coke On t'a fait sniffer de la craie mec On a cramé ta loc', nous fait pas croire que t'es un mec de grec Aaaah hoooougataga Nous on bicrave sous la grêle Les boloss se grattent les veines quand au quartier on fait la grève Le 34 des rappeurs sucent des bites à crédit Ils veulent pas me faire d'la place par peur de pointer aux ASSEDICS J'sais pas pour qui ils se prennent, mais ils sont pas si terribles Si mon flow avait des mains, il aurait déjà baffé tes rimes You might also likeBelleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide Belleville viens surtout pas test l'équipe Un coup de fil, on débarque on t'baise, on t'liquide ...</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Vote ou Raï, Part 1</t>
+          <t>Vieux mec</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Jarrive en force men le bléd kima kima Hannibal Rap mta3 les cannibales wléd blédi on est al ! Maghrébin comme Massinissa 7ar kima el harissa Jay men tounés la3ziza souti youssel men ghir viza J'ai la dale n7eb nakel la tour Eiffel Nelbis el gilet par balle trop de cadavre a l'appel Tounés bled chahid yé franca ménech 3abid Rana 7did tounsi dziri maghribi sendid Tnafassna el crimogéne fi 3oudh el oxygéne 3arbi dans les veines 3arbi moslém ménech indigénes Cliqui Cliqui j'aime C'est balti yougataga Tunis gataga ghanni w achta7 nakata nakata Men Tounes el Wahran w men Wahran li Ribat Rap mta3 lebléd débarque Rainb Fever 4 Met le son dans ta gova 5ouya chméta fel kléb Jarrête le rap quand Carla Bruni porte le hijab You might also like2</t>
+          <t>COUPLET 1 - MISTER YOU Espèce de vieux mec et jdirai même espèce de vieille merde Tes tombé love dune vieille meuf qui insulte sa belle-mère Qui nest autre que la femme qui ta mis au monde Et vu que tu nes quun bouffon tu laisses passer cette chose immonde Arrête de m3iyane tes fatigué questu connait espèce de 3ayane Ah rkhiss va, sale vieux ceu-mé Tes pas mon pote, tu ma boycott pour mettre un ouk Tes quun pd, tu tfera péter comme un boloss au métro Ourcq WOOGATAGA dahwa tes sérieux ou quoi Tu crois qutu vas mtrahir et ten sortir avec tous tes doigts Chut tait-toi ya les peu-stu sur tous les toits Tu fais ni pipi ni caca mais tu squatte trop les lettes-toi WOOGATABRAAAH Jai du cran moi Si jdemande la main de Carla sa serai juste pour lui mettre une peu-cran Certes, tes ptetre intrigant Mais ta pas le style dun briguant Essé reste quille-tran Le monde est petit car Dieu est grand REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrai cochonne You might also likeCOUPLET 2 - GORSAFARA ..... franchement vasi tiens ta langue Trop de vieux mec trop de vieux type transforme le WOOGATAGANG Boussoul bâtiment tous amateur de gang-bang Real man a Gangsta a osé Paname .... Ta tout dit ta tout fait on font tu n'fais que sucer Le comble des vrais ke-mé il est difficile d'imiter T'es toujours bien sapé le petit reuf a les Shoes trouée Tu balade ta chienne en bolide pendant que la Mif prend le tro-mé On ta vu t'esquivé quand ton pote c'est fait cafouillé T'étonne pas si aujourd'hui les petits de la Tess veulent te dépouillé Des des des Barres A la Baraque c'est toujours la Hess T'explose le moindre billets dans les clubs Ou une paire de fesse Connard c'est tout juste si ta Gadji te tiens pas en laisse Et celle qui ta enfanté n'a pas le droit A la moindre pièce REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrai cochonne COUPLET 3 - MISTER YOU Cest toi qui a le pushka mais cest toi qui ble-trem Tous tes crimes sont passionnelles tes un peu comme Cantat Bertrand Etant petit on sest fait hagar donc cest normal quon tape les grands Nous dehwa cest de lahwa et toi cest dla lette-bran A cause des mecs comme wat les gens boycott ma coupe fashion Chez moi les ptits bicrave du crack ils jouent pas trop à la Playstation Ta rien dcharmant, ta pas dargent en plus tes cheum Moi cque jkifferai voir cest que tous les jeunes de cité jeûnent Car j'me sens comme ses de-mer quand je rompt le carême pour un kamas J'me répète que ses tards-ba ils boycottent leurs mère pour une conasse Hamdoullah j'suis pas comme a-s j'sais que les rents-pa c'est comme la prière Pour eux lève-toi frère même quand t'es trop naze INSTRU All that she wants is another baby All that she wants is another baby WOOGATABRAAAAAH REFRAIN GOR SAFARA Sa joue les hommes dans la zone De vrais gosses devant les civils .................................. Jamais la pour la daronne A croire qu'il n'a plus de famille Devenue l'esclave d'une vraie bouffonne Répond plus au téléphone Constamment sur messagerie Tous ses potes l'appel Fantôme Tous ces man sans paroles remplis de False story Leurs daronnes sont des vrais cochonnes -Salut ma chérie comment tu va ? ta passer une bonne journée -Oh vasi la j'ai pas trop le temps -mais euh euh mais sinon mais mais mais -rend toi utile la va me chercher ma tenue s'il te plait Elle est chez ma copine j'lai oublier j'vais sortir en boite -mais attend 2 petites minutes -Quel 2 minutes la vasi vasi prend le métro la -Nan c'est vraiment parce que c'est toi ma chérie -Ouais Stylie -D'accord j'y vais en courant -Ouais mais ta intérêt</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ya ceux</t>
+          <t>Vote ou Raï, Part 1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Franco c'est plus d'la patience, crois moi qu'j'en perds mon latin Si tu ne veux pas tout baiser quand j'pète mon joint dès l'matin Catin, boloss, j'ai creusé l'écart Minuit sur la terre j'suis vers la lune à minuit et quart Bon bref, RS4, attitude Rolex Big up, cités chaudes, grosse banlieue lyonnaise Younes prend leur la couronne et même le brassard Moi j'aime trop le saint frérot dans ce rap j'pars en croisade Rien que j'coupe des têtes, cheval, GP800 Déter, ouais j'ai trop la dalle j'suis trop puissant J'envoie un chargeur complet sur ton barreau Un costard à Palerme tu m'as vu dans Chaos K-O, pelo, Carlo, Brigante Placard en pleine été car ils t'ont briganté Non faut pas fréquenter, si t'a pas de grosses couilles Bois du sec de Tennessee nan je n'veux pas de Moscou x2 Y'a ceux qui braquent, y'a ceux qui delaent y'a ceux qui braquent ceux qui dealent Y'a ceux qui parlent, y'a ceux qui tirent, y'a ceux qui restent, y'a ceux qui s'tirent Y'a ceux qui crèveraient l'un pour l'autre, y'a ceux qu'on plus rien à s'dire Y'a Christian Dior, y'a Hello Kitty Y'a les graves hauts y'a les petits L'atmosphère est machiavélique, les p'tits charbonnent des vélibs Poto, là, faut que tu t'équipes, c'est plus les bagares en équipe On t'liquide, on est quittes pour nous t'es qu'un faux caïd hein Ils rappent en mode les States, nous en mode Al Quaida Vends d'la cocaïna Dès que tu peux tu va tomber, dès que tu l'veux tu vas mourir Sans qu'tu l'veuilles tu va périr C'étaient les meilleurs maintenant c'est les pires Combien me suceront la bite quand j'aurais bâti mon empire ? J'ai plus rien à leur dire, envers eux rien n'm'attire Poto t'es pas mature, tu va rentrer dans la matrix Ça lâche des rafales de balles, les Zoulous s'coucher tout bas On est pas fiers de faire les mafieux pendant qu'nos mères sont tout pâles C'est pour mes arbi tous-bab, c'est pas des traîtres en tout cas On fais du sale sur tout-terrain, chez nous y'as pas de trucages Ne t'accroches pas si tu lâches, pour moi t'es un fils de lâche Le boule à Nicki Minaj, on lui rentre le pot du T-Max You might also likex2 Qu'est ce qui vous arrive ? J'viens resserrer votre câble Plus rien ne m'effraie je soigne mes plaies avec d'la Vodka Plus rien ne m'adoucit, une balle malgré mon jeu d'jambe Quand j'vois l'état de l'espèce humaine j'ai du respect pour peu d'gens L'rap c'est un bar à timp, moi j'choisis mes victimes Tu va sucer toute la nuit finit les emplois fictifs Nike sa mère le 50, tout ça pour moi c'est pareil Personne ne remplit mon frigo XXX de tonnes et d'barettes C'est pas de l'impro, pour faire du sale j'suis un pro J'fais faire du bruit comme un pot, venu faire des sous comme un gros Oh, j'élimine les faux c'est la voix d'la relève mon ami Ok, Tirgo au micro venu faire du sale j'en suis ravi J'ai égaré mon navire, j'suis un naufragé du 94 J'vais me propager comme d'la frappe Je suis le putain de joker dans le jeu de carte J'arive en mode à la one again Gros joint d'beuh en mode hollande et du shit a la marocaine x21</t>
+          <t>Jarrive en force men le bléd kima kima Hannibal Rap mta3 les cannibales wléd blédi on est al ! Maghrébin comme Massinissa 7ar kima el harissa Jay men tounés la3ziza souti youssel men ghir viza J'ai la dale n7eb nakel la tour Eiffel Nelbis el gilet par balle trop de cadavre a l'appel Tounés bled chahid yé franca ménech 3abid Rana 7did tounsi dziri maghribi sendid Tnafassna el crimogéne fi 3oudh el oxygéne 3arbi dans les veines 3arbi moslém ménech indigénes Cliqui Cliqui j'aime C'est balti yougataga Tunis gataga ghanni w achta7 nakata nakata Men Tounes el Wahran w men Wahran li Ribat Rap mta3 lebléd débarque Rainb Fever 4 Met le son dans ta gova 5ouya chméta fel kléb Jarrête le rap quand Carla Bruni porte le hijab You might also like2</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Youcenzo</t>
+          <t>Ya ceux</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Mister Youcenzo Hmm J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais On est bien, on est plein en bas du bloc à faire du blé, dans mon tieks on est trop Depuis le départ on se bat, on s'emballe pour une étoile sur l'maillot comme Christiano Ronaldo Minuit dans la ville, j'ai pas l'moral à zéro Regarde d'où tu viens, tu ne seras pas déçu gros Fais ça pour la thune, à la base y a pas d'études Prêt à sortir l'projet, j'ai les che-po pleines d'euros J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais You might also like J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais Ouais Erise Yougataga, Lucenzo</t>
+          <t>Franco c'est plus d'la patience, crois moi qu'j'en perds mon latin Si tu ne veux pas tout baiser quand j'pète mon joint dès l'matin Catin, boloss, j'ai creusé l'écart Minuit sur la terre j'suis vers la lune à minuit et quart Bon bref, RS4, attitude Rolex Big up, cités chaudes, grosse banlieue lyonnaise Younes prend leur la couronne et même le brassard Moi j'aime trop le saint frérot dans ce rap j'pars en croisade Rien que j'coupe des têtes, cheval, GP800 Déter, ouais j'ai trop la dalle j'suis trop puissant J'envoie un chargeur complet sur ton barreau Un costard à Palerme tu m'as vu dans Chaos K-O, pelo, Carlo, Brigante Placard en pleine été car ils t'ont briganté Non faut pas fréquenter, si t'a pas de grosses couilles Bois du sec de Tennessee nan je n'veux pas de Moscou x2 Y'a ceux qui braquent, y'a ceux qui delaent y'a ceux qui braquent ceux qui dealent Y'a ceux qui parlent, y'a ceux qui tirent, y'a ceux qui restent, y'a ceux qui s'tirent Y'a ceux qui crèveraient l'un pour l'autre, y'a ceux qu'on plus rien à s'dire Y'a Christian Dior, y'a Hello Kitty Y'a les graves hauts y'a les petits L'atmosphère est machiavélique, les p'tits charbonnent des vélibs Poto, là, faut que tu t'équipes, c'est plus les bagares en équipe On t'liquide, on est quittes pour nous t'es qu'un faux caïd hein Ils rappent en mode les States, nous en mode Al Quaida Vends d'la cocaïna Dès que tu peux tu va tomber, dès que tu l'veux tu vas mourir Sans qu'tu l'veuilles tu va périr C'étaient les meilleurs maintenant c'est les pires Combien me suceront la bite quand j'aurais bâti mon empire ? J'ai plus rien à leur dire, envers eux rien n'm'attire Poto t'es pas mature, tu va rentrer dans la matrix Ça lâche des rafales de balles, les Zoulous s'coucher tout bas On est pas fiers de faire les mafieux pendant qu'nos mères sont tout pâles C'est pour mes arbi tous-bab, c'est pas des traîtres en tout cas On fais du sale sur tout-terrain, chez nous y'as pas de trucages Ne t'accroches pas si tu lâches, pour moi t'es un fils de lâche Le boule à Nicki Minaj, on lui rentre le pot du T-Max You might also likex2 Qu'est ce qui vous arrive ? J'viens resserrer votre câble Plus rien ne m'effraie je soigne mes plaies avec d'la Vodka Plus rien ne m'adoucit, une balle malgré mon jeu d'jambe Quand j'vois l'état de l'espèce humaine j'ai du respect pour peu d'gens L'rap c'est un bar à timp, moi j'choisis mes victimes Tu va sucer toute la nuit finit les emplois fictifs Nike sa mère le 50, tout ça pour moi c'est pareil Personne ne remplit mon frigo XXX de tonnes et d'barettes C'est pas de l'impro, pour faire du sale j'suis un pro J'fais faire du bruit comme un pot, venu faire des sous comme un gros Oh, j'élimine les faux c'est la voix d'la relève mon ami Ok, Tirgo au micro venu faire du sale j'en suis ravi J'ai égaré mon navire, j'suis un naufragé du 94 J'vais me propager comme d'la frappe Je suis le putain de joker dans le jeu de carte J'arive en mode à la one again Gros joint d'beuh en mode hollande et du shit a la marocaine x21</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Yougataflow</t>
+          <t>Youcenzo</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Ouais Ouais Ouais Mister Yougataga sur une instru téh Jay'Z Aie Aie Aie J'veux voir toutes les mains en l'air Tous les Majeurs en l'air Tous les verres en l'air Tous les zdéh en l'air C'est Yougataga l'Commissaire nique sa grand-mère Français j'y comprend rien ni vocabulaire ni grammaire 2010 c'est au cachot que j'ai passé l'été Nique sa mère les raccourcis, et nique sa mère la facilité À quoi bon faire simple quand on peut faire compliqué C'est ou la santé ou l'D5 quand le tier-quar est trop fliqué 2011 quelques millions d'euros à péter, quelques fils de putes à plomber Quitte à engager quelques clandés J'suis venu pour doigté les condés les bâtards qui m'ont boycotté Zoogata, woogataa hein bandes de PD Attendez 2,3 minutes j'me ressers un verre de champagne Suivi d'une coupe et ensuite d'une flûte Ahahah les concurrents téh Paris msèkine Ils sont morts dans le film moi j'suis un gamin là j'suis entrain de gole-ri Vas-y jette ton lacet, quand y'a plus de shit, j'peux plus ricaner J'suis comme Chef Dahmani j'suis dans l'assault et là j'suis prêt à caner Moi, c'est Yougataga zoogataga gangst to gangst Prêt à manger plus de riz qu'un thaï même plus que l'Oncle Ben's J'veux voir toutes les mains en l'air Tous les Majeurs en l'air Tous les verres en l'air Tous les zdéh en l'air C'est Yougataga l'Commissaire nique sa grand-mère Français j'y comprend rien ni vocabulaire ni grammaire ... Que des mathématiques ma gueule ahh Woogataga vous faites quoi dans la vie ? Moi j'fais attention Zoogataga à coups de calibre dans leurs gueules ma gueule Zoogataga Yougataga Woogataga Zoogataga Yougataga Woogataga Zoogataga Yougatagaaaaaaaa 'tention Bébébébébéh quoi aaah woogatagaYou might also like</t>
+          <t>Mister Youcenzo Hmm J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais On est bien, on est plein en bas du bloc à faire du blé, dans mon tieks on est trop Depuis le départ on se bat, on s'emballe pour une étoile sur l'maillot comme Christiano Ronaldo Minuit dans la ville, j'ai pas l'moral à zéro Regarde d'où tu viens, tu ne seras pas déçu gros Fais ça pour la thune, à la base y a pas d'études Prêt à sortir l'projet, j'ai les che-po pleines d'euros J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais You might also like J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais J'ai fais l'dawa je sais plus, j'crois qu'on a laissé des plumes J'me rappelle juste qu'on a posé en gros J'ai mis d'côté les études, j'ai préféré faire des thunes Pendant qu'ces haineux font qu'jacter dans l'dos, yeah Mamacita, à ton vice on est habitués Oh yeah mamacita, des meufs belles y'en a partout tu sais Ouais Erise Yougataga, Lucenzo</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Yougatakayz</t>
+          <t>Yougataflow</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Ouai Ouai Ouai Salut ça va? Comment ça va? Ça va très bien Quoi comment ça se passe? Ça s'passe t'il? Ça s'passe t'il pas? Ougataga, lever les bras Tirgoooo! Ok, c'est ta i-ve poto, fait que-cro les potos Les michtonneuses en vrai mériteraient même pas une photo 94 coco, c'est pas les chiffres du loto Un concert à Bercy sur la scène j'ramène des motos On est au top VIP ramène l'auto, la beuh, le shit, l'alcool Les vips dans nos locaux Mais l'étau se resserre t'es disparu comme Etoo' T'as des gros métaux mais t'es pas un mec du ghetto On est tous en place et t'as pas d'amigos Nous sommes Ancelloti laissez leur José Anigo C'est vrai que j'en rigole poto c'est pas l'même niveau VIP 4 Sose, family Baise les rivaux Baise les rivaux Toute l'année khey j'veux en découdre Pour l'instant on est sur écoute j'avance j'vois plus rien sur ma route You You You Yougatakayz x4 You might also like J'suis en part d'collac, Bouteille d'colaté Hier j'suis au max pour bandit comme Al Grosse dédicace pour DJ Kayz 5 6 Llions-Mi et après j'me casse Ça bicrave la poudre tah Frank 1 2 3 4 putes et après j'me casse Matte mes corones sert à rien qu'tu m'les casse Sahb le Rosay la bicrave et les gazelles 53 94 ça pisse les XXX Investit dans la bière, le crack et l'canabis J'veux voir toutes les mains en l'air, tout le monde sur la piste Les a3ineurs niquez vos mères me faites pas la bise Chez moi c'est la guerre on peux pas faire autrement Fuck ceux qui boycott la Putain d'leur Maman J'vais tous les allumer click click Brah WOOGATABrahh, Levez les bras J'en ai absolument rien a battre de ta i-ve Criminel comme XXX même si Vodka mennivre Jean Pepe, T-Shirt Tah Yves, La serveuse a du mal a calculer l'tarif J'ai la peau dorée, Armand de Brignac, Grosse fête en bois ou dans une grosse baraque Paris Oran New-York, Soir-ce c'est Kech-Marra Pour mes 3arbis, Sonikés, banbarras Big-Up la Street en Vodka comme Jawouara Bête de heflits, Pas d'baveux trois bous-mara J'revide la baraque comme khel, Karim et Barra Comme Oussama j'ai c'qui faut pour débarras Ils sont dans l'embarras, on force les routes barrées Trop d'joints, Hagras, Pour décoller on est parés Big up a Pepe à tous mes XXX</t>
+          <t>Ouais Ouais Ouais Mister Yougataga sur une instru téh Jay'Z Aie Aie Aie J'veux voir toutes les mains en l'air Tous les Majeurs en l'air Tous les verres en l'air Tous les zdéh en l'air C'est Yougataga l'Commissaire nique sa grand-mère Français j'y comprend rien ni vocabulaire ni grammaire 2010 c'est au cachot que j'ai passé l'été Nique sa mère les raccourcis, et nique sa mère la facilité À quoi bon faire simple quand on peut faire compliqué C'est ou la santé ou l'D5 quand le tier-quar est trop fliqué 2011 quelques millions d'euros à péter, quelques fils de putes à plomber Quitte à engager quelques clandés J'suis venu pour doigté les condés les bâtards qui m'ont boycotté Zoogata, woogataa hein bandes de PD Attendez 2,3 minutes j'me ressers un verre de champagne Suivi d'une coupe et ensuite d'une flûte Ahahah les concurrents téh Paris msèkine Ils sont morts dans le film moi j'suis un gamin là j'suis entrain de gole-ri Vas-y jette ton lacet, quand y'a plus de shit, j'peux plus ricaner J'suis comme Chef Dahmani j'suis dans l'assault et là j'suis prêt à caner Moi, c'est Yougataga zoogataga gangst to gangst Prêt à manger plus de riz qu'un thaï même plus que l'Oncle Ben's J'veux voir toutes les mains en l'air Tous les Majeurs en l'air Tous les verres en l'air Tous les zdéh en l'air C'est Yougataga l'Commissaire nique sa grand-mère Français j'y comprend rien ni vocabulaire ni grammaire ... Que des mathématiques ma gueule ahh Woogataga vous faites quoi dans la vie ? Moi j'fais attention Zoogataga à coups de calibre dans leurs gueules ma gueule Zoogataga Yougataga Woogataga Zoogataga Yougataga Woogataga Zoogataga Yougatagaaaaaaaa 'tention Bébébébébéh quoi aaah woogatagaYou might also like</t>
         </is>
       </c>
     </row>
@@ -4980,10 +4980,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
+          <t>Yougatakayz</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Ouai Ouai Ouai Salut ça va? Comment ça va? Ça va très bien Quoi comment ça se passe? Ça s'passe t'il? Ça s'passe t'il pas? Ougataga, lever les bras Tirgoooo! Ok, c'est ta i-ve poto, fait que-cro les potos Les michtonneuses en vrai mériteraient même pas une photo 94 coco, c'est pas les chiffres du loto Un concert à Bercy sur la scène j'ramène des motos On est au top VIP ramène l'auto, la beuh, le shit, l'alcool Les vips dans nos locaux Mais l'étau se resserre t'es disparu comme Etoo' T'as des gros métaux mais t'es pas un mec du ghetto On est tous en place et t'as pas d'amigos Nous sommes Ancelloti laissez leur José Anigo C'est vrai que j'en rigole poto c'est pas l'même niveau VIP 4 Sose, family Baise les rivaux Baise les rivaux Toute l'année khey j'veux en découdre Pour l'instant on est sur écoute j'avance j'vois plus rien sur ma route You You You Yougatakayz x4 You might also like J'suis en part d'collac, Bouteille d'colaté Hier j'suis au max pour bandit comme Al Grosse dédicace pour DJ Kayz 5 6 Llions-Mi et après j'me casse Ça bicrave la poudre tah Frank 1 2 3 4 putes et après j'me casse Matte mes corones sert à rien qu'tu m'les casse Sahb le Rosay la bicrave et les gazelles 53 94 ça pisse les XXX Investit dans la bière, le crack et l'canabis J'veux voir toutes les mains en l'air, tout le monde sur la piste Les a3ineurs niquez vos mères me faites pas la bise Chez moi c'est la guerre on peux pas faire autrement Fuck ceux qui boycott la Putain d'leur Maman J'vais tous les allumer click click Brah WOOGATABrahh, Levez les bras J'en ai absolument rien a battre de ta i-ve Criminel comme XXX même si Vodka mennivre Jean Pepe, T-Shirt Tah Yves, La serveuse a du mal a calculer l'tarif J'ai la peau dorée, Armand de Brignac, Grosse fête en bois ou dans une grosse baraque Paris Oran New-York, Soir-ce c'est Kech-Marra Pour mes 3arbis, Sonikés, banbarras Big-Up la Street en Vodka comme Jawouara Bête de heflits, Pas d'baveux trois bous-mara J'revide la baraque comme khel, Karim et Barra Comme Oussama j'ai c'qui faut pour débarras Ils sont dans l'embarras, on force les routes barrées Trop d'joints, Hagras, Pour décoller on est parés Big up a Pepe à tous mes XXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mister You</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
           <t>Zoogatazblex</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>J'veux un putain d'ventilo, mais j'ai pas d'lovés sur mon pécule Attends j'te récapitule Ça fait huit jours que j'tourne en rond dans une putain d'cellule Jamais vu d'aussi près l'bitume J'souhaite à personne le placard pendant la canicule Ce putain de soleil, ces putains de grilles aux fenêtres Sur mon lit j'fais bronzette, j'ressemble à une gaufrette J'écris des lettres pour le coiffeur, pour la muscul' La juge sait plus quoi faire pour que j'me sente minuscule Mais bats les yeuks, on s'fait la causette de fenêtre à fenêtre T'es pas content, on t'fait ta fête La recette ? Deux, trois boîtes de thon dans une chaussette Bracos, peu-stu, faux chèques on est tous là pour chose-quelque Même un chien voudrait pas d'la gamelle qu'on mange Mon co' veut rouler son pét' et aussi démouler son cake Donc j'tire le rideau et j'crame une peau d'orange Gros on est bien loin des chiottes de Prison Break Un pigeon m'guette, là derrière les barreaux J'ai des chtars sur l'dos, et ni l'baveux, ni l'dermato' pourront sauver ma peau Wesh surveillant ! La douche, là ! Ça fait une heure que j'ai mis l'drapeau ! Alors je cogne à la porte comme un rat mort Qu'on m'colle un rapport, j'm'en bats les noix d'cajou J'irai au mitard avec le phone à Bazou Prévenez les majeurs, dites au cas où Qué pasa ?, j'entends comme des booms de grenades C'est les colis qui tombent dans la cour de promenade Narvalo, on s'lave au lavabo comme au camping J'ai écrit c'texte sur un bon d'cantine You might also like Mercredi 30 Juin 2010, 21 heures 27 Ça fait près d'une semaine qui font lère-ga aux arrivants Seth Tu demanderas même quand c'est la merde bah moi je m'en bas les coucougnettes Il me reste qu'un zdah alors je le roule sans faire tomber aucune boulette J'appelle Foued pas au phone-télé, nan par la fenêtre, j'ai eu la fouille ministériel J'ai du le planquer, dahwa t'inquiète pas Dans la maine-se je reprends une ce-pu et je me rebranche, nan Il m'en faut 2 ouais, il me faut une puce Bouygues et une puce Orange À cette heure-ci, je me verrais bien en train de me habat dans un ranch Woogataga, un petit verre de Vodka, avec un zeste d'orange J'ai envie de faire du rodéo, une petite lehsa et que des coups de hanches Mais trop souvent on m'a boycotté, je suis rancunier envers beaucoup de ens-g Qu'ils aillent se faire enculer, la roue elle fait pas du sur-place On m'a dit, aides-toi et le ciel t'aidera, dahwa c'est pour ça que je me surpasse Je sais pas ce qui ce passe dans ma tête, je sais ce qui ce passe dans ma cité Les petits, ils ont repris rrain-té donc les grands sont sur-excités Quand la tension devient trop forte, les plombs ils sont obligés de sauter Armé de mes cordes vocales, l'instru' j'étais en train de la ligoter Si t'as pas de parloir soit débrouillard, obliger de traficoter Quand t'es en plein cur de la chose faut juste voir le bon côté Quand on me pose la question, wesh You alors comment vont les zamours ? Je réponds, ils vont bien, ils sont sur la 2, ils s'marrent presque tous les jours Dites à Zemmour qu'il s'étonne pas que je contienne autant de haine en moi J'observe que plus les années passent, plus elles se font rares les peines en moi J'ai envie de faire beaucoup de hébètes, investir dans mon bled Je kifferais rendre à bel Mohamed ce que jadis était à Mohamed La charité faut que je l'ordonne bien donc je la commence par moi même Les faux je leur donne rien si ce n'est un savon quand je suis au hammam J'ai un fusil, je fais pas de K-1, je suis le genre de mec qui vend de la one Dahwa moi je viens pas de l'usine crois moi, là-bas profite à oi-m Bon bah je vais me faire un petit kawa vu que là il est déjà 7 heures du mat' Ensuite faut que je dorme et Inch'Allah dès que je sors, je pète l'audimat2</t>
         </is>

--- a/data/02_intermediate/cleaned_Mister_You_songs.xlsx
+++ b/data/02_intermediate/cleaned_Mister_You_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Est-ce que tu te rappelles ? La première fois qu'on s'est vus, quand nos regards se sont croisés Oh que tu étais belle... J'ai senti mon cur battre et tout mon corps s'embraser Perfection au féminin, contraire de Gillette Ceinture assortie au sac à main brushing et une paire de lunettes J'aurai beau lire tout le dictionnaire, je trouverai aucun mot pour te décrire Victime de ma nostalgie, prisonnier de mon esprit À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon Laisse-moi t'enlacer, habi laisse-moi t'embrasser Laisse-moi te montrer à quelle point je suis un mec censé, qu'j'ai envie de me caser Non, ne te fie pas à mon casier et n'écoute pas les médias Qui te font croire que je suis un diable qui me connaissent que de Wikipédia Dans l'immédiat, j'ai envie de te dire plein de choses Que t'es fraîche, que tes quatre lèvres sont comme les pétales d'une rose Que tes beaux yeux sont entrain de m'hypnotiser Que la vérité sort de la bouteille donc faut que je me mette à tiser Une petite goutte de fraise dans une grande coupe de Taittinger Ah, c'est fini le stress sauf à la douane à Tanger En fait l'amour, c'est un peu Shakespeare et un peu Pythagore ou de Thalès Baby s'il te plaît retire ta veste histoire qu'on se mette à l'aise You might also like À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon Je veux pas finir ma vie tout seul, je veux la finir avec toi mon bébé Le bonheur est dans les choses simples, pourquoi l'amour est-il si compliqué ? À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon23</t>
+          <t>Est-ce que tu te rappelles ? La première fois qu'on s'est vus, quand nos regards se sont croisés Oh que tu étais belle... J'ai senti mon cur battre et tout mon corps s'embraser Perfection au féminin, contraire de Gillette Ceinture assortie au sac à main brushing et une paire de lunettes J'aurai beau lire tout le dictionnaire, je trouverai aucun mot pour te décrire Victime de ma nostalgie, prisonnier de mon esprit À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon Laisse-moi t'enlacer, habi laisse-moi t'embrasser Laisse-moi te montrer à quelle point je suis un mec censé, qu'j'ai envie de me caser Non, ne te fie pas à mon casier et n'écoute pas les médias Qui te font croire que je suis un diable qui me connaissent que de Wikipédia Dans l'immédiat, j'ai envie de te dire plein de choses Que t'es fraîche, que tes quatre lèvres sont comme les pétales d'une rose Que tes beaux yeux sont entrain de m'hypnotiser Que la vérité sort de la bouteille donc faut que je me mette à tiser Une petite goutte de fraise dans une grande coupe de Taittinger Ah, c'est fini le stress sauf à la douane à Tanger En fait l'amour, c'est un peu Shakespeare et un peu Pythagore ou de Thalès Baby s'il te plaît retire ta veste histoire qu'on se mette à l'aise À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon Je veux pas finir ma vie tout seul, je veux la finir avec toi mon bébé Le bonheur est dans les choses simples, pourquoi l'amour est-il si compliqué ? À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon, han À toi mon petit cur, à toi mon petit papillon Tu te rappelles qu'on se réveillait avec le sourire et le chant des grillons Quand ton regard scintillait autant que le soleil et ses rayons Quand j'étais ton prince charmant et que toi t'étais ma p'tite Cendrillon23</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Aujourd'hui, c'est le premier jour du reste ma vie Grâce à dieu j'ai grandi et j'suis même devenu le prince de ma ville L'amour sa fait du bien mais des fois ça fait souffrir Je me suis noyé dans ton regard en plongeant dans ton sourire J'arrive même plus à réfléchir, j'comprends pas ce qu'il m'arrive Mon cerveau il est conscient, J'crois que c'est mon cur qui est naïf Demain des l'aube à l'heure ou blanchit la campagne Je partirais comme je suis arrivé, j'espère que tu seras ma compagne Ooh je te suis et je te suivrai Ici l'amour commence à sessouffler J'attends que tu memmènes J'te laisserais m'dire je t'aime Yo, te amo mi amor, car j'sais bien que c'est réciproque J'ai envie de te prendre dans mes bras, j'ai envie de te serrer si fort Je veux sentir ton cur battre contre ma cage thoracique C'est plus un regard révolver c'est une arme de destruction massif You might also like Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas Viens avec moi, je t'emmènerais au pays des merveilles Il me semble que la misère serait moins pénible au soleil J'te ferai des bisous partout , je parasiterai ton sommeil On s'lâchera pas d'une semelle, on fera ça toute la semaine J'suis pas très fort en amour mais avec toi je suis professionnel J'sais quand t'as froid, j'sais quand t'as faim , j'kiffe quand tes cheveux semmêlent Ton visage d'ange le matin qui se réveille à mes cotés J'ai appris que mon cur savait parler, J'me suis mis à l'écouter Nous deux c'est tout ce qui m'importe, j's'rai ton soce tu seras ma pote Jusqu'à ce que la mort nous emporte ou que les problèmes frappent à la porte Demain dès l'aube mon cur à l'heure ou blanchit la campagne Je partirai comme je suis arrivé, j'espère que tu seras ma compagne Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas Emmènes-moi loin d'ici Que j'oublie mes problèmes que j'oublie mes soucis Quand je suis avec toi, c'est la fête j'ai pas besoin de me prendre la tête Et ouai, c'est clair c'est net , je suis sur une autre planête Emmènes-moi à travers le monde et ses allées Loin des autres très loin d'ici, je veux m'en aller Mi amor emmènes-moi, emmènes-moi ... Mi amor emmènes-moi, emmènes-moi Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas26</t>
+          <t>Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Aujourd'hui, c'est le premier jour du reste ma vie Grâce à dieu j'ai grandi et j'suis même devenu le prince de ma ville L'amour sa fait du bien mais des fois ça fait souffrir Je me suis noyé dans ton regard en plongeant dans ton sourire J'arrive même plus à réfléchir, j'comprends pas ce qu'il m'arrive Mon cerveau il est conscient, J'crois que c'est mon cur qui est naïf Demain des l'aube à l'heure ou blanchit la campagne Je partirais comme je suis arrivé, j'espère que tu seras ma compagne Ooh je te suis et je te suivrai Ici l'amour commence à sessouffler J'attends que tu memmènes J'te laisserais m'dire je t'aime Yo, te amo mi amor, car j'sais bien que c'est réciproque J'ai envie de te prendre dans mes bras, j'ai envie de te serrer si fort Je veux sentir ton cur battre contre ma cage thoracique C'est plus un regard révolver c'est une arme de destruction massif Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas Viens avec moi, je t'emmènerais au pays des merveilles Il me semble que la misère serait moins pénible au soleil J'te ferai des bisous partout , je parasiterai ton sommeil On s'lâchera pas d'une semelle, on fera ça toute la semaine J'suis pas très fort en amour mais avec toi je suis professionnel J'sais quand t'as froid, j'sais quand t'as faim , j'kiffe quand tes cheveux semmêlent Ton visage d'ange le matin qui se réveille à mes cotés J'ai appris que mon cur savait parler, J'me suis mis à l'écouter Nous deux c'est tout ce qui m'importe, j's'rai ton soce tu seras ma pote Jusqu'à ce que la mort nous emporte ou que les problèmes frappent à la porte Demain dès l'aube mon cur à l'heure ou blanchit la campagne Je partirai comme je suis arrivé, j'espère que tu seras ma compagne Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas Emmènes-moi loin d'ici Que j'oublie mes problèmes que j'oublie mes soucis Quand je suis avec toi, c'est la fête j'ai pas besoin de me prendre la tête Et ouai, c'est clair c'est net , je suis sur une autre planête Emmènes-moi à travers le monde et ses allées Loin des autres très loin d'ici, je veux m'en aller Mi amor emmènes-moi, emmènes-moi ... Mi amor emmènes-moi, emmènes-moi Mais juste emmène moi Ici je nous vois mourir et de pire en pire je perds ma voix... ma voix... Oooh juste emmène moi Où tu veux où le soleil brille loin d'ici avec toi je m'en fais pas, la bas26</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Belleville Mister Yougataga Seuls les vrais reconnaissent les vrais Qui aurait pu croire hein Et ouais ma gueule... Qui aurait pu croire quau bled j'serais coté comme Cheb Khaled Jconnais lhistoire de Hind et celle de Marie Antoinette Jai une éternelle reconnaissance envers celle qui ma fait naître Les erreurs sont comme des gosses faut les assumer et les reconnaître Largent, certains en manquent dautres le jettent par les fenêtres Jai vu des mâles dominants se faire dompter par des femelles Jsais bien que quand il y a embrouille ce nest pas tout le monde qui sen mêle Jvoulais mengager pour la vie mais ça a pas duré une semaine J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise You might also like Jvoulais pas dcrème de cassis mais du sirop de groseille Javais des kilos de problèmes jvoulais des tonnes doseilles Jai fais disques dor et d'platine jétais même pas inscrit à la SACEM Jsuis la preuve quil faut croire en soi, jai vu le mal comme Azazel Jpeux plus déclarer ma flamme allez ldire a cupidon Moi si joffre la lune a ma femme c'est que ma mère a déjà pluton Faut rester simple et humble , faut pas être fier comme Artaban Va pas gâcher ta jeunesse en galérant sur un banc Comment se fait il quen si peu de temps les murs aient tellement changé Comment se fait il que dans certains bleds y a toujours pas de quoi manger En 2013 bref, j'sais bien qu'il ne faut pas tenter le diable Mon album sappelle le prince il sortira chez Def Jam J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse Jsuis fait de terre, de chaire, de zdeh, damour et de haine J'voulais que tu deviennes ma princesse mais tes devenu mon ex Laissez moi de toi, de lui, de vous... et de elle J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse Jsuis fait de terre, de chaire, de zdeh, damour et de haine Jvoulais qu'tu deviennes ma princesse mais tes devenu mon ex Tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise4</t>
+          <t>Belleville Mister Yougataga Seuls les vrais reconnaissent les vrais Qui aurait pu croire hein Et ouais ma gueule... Qui aurait pu croire quau bled j'serais coté comme Cheb Khaled Jconnais lhistoire de Hind et celle de Marie Antoinette Jai une éternelle reconnaissance envers celle qui ma fait naître Les erreurs sont comme des gosses faut les assumer et les reconnaître Largent, certains en manquent dautres le jettent par les fenêtres Jai vu des mâles dominants se faire dompter par des femelles Jsais bien que quand il y a embrouille ce nest pas tout le monde qui sen mêle Jvoulais mengager pour la vie mais ça a pas duré une semaine J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise Jvoulais pas dcrème de cassis mais du sirop de groseille Javais des kilos de problèmes jvoulais des tonnes doseilles Jai fais disques dor et d'platine jétais même pas inscrit à la SACEM Jsuis la preuve quil faut croire en soi, jai vu le mal comme Azazel Jpeux plus déclarer ma flamme allez ldire a cupidon Moi si joffre la lune a ma femme c'est que ma mère a déjà pluton Faut rester simple et humble , faut pas être fier comme Artaban Va pas gâcher ta jeunesse en galérant sur un banc Comment se fait il quen si peu de temps les murs aient tellement changé Comment se fait il que dans certains bleds y a toujours pas de quoi manger En 2013 bref, j'sais bien qu'il ne faut pas tenter le diable Mon album sappelle le prince il sortira chez Def Jam J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse Jsuis fait de terre, de chaire, de zdeh, damour et de haine J'voulais que tu deviennes ma princesse mais tes devenu mon ex Laissez moi de toi, de lui, de vous... et de elle J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse Jsuis fait de terre, de chaire, de zdeh, damour et de haine Jvoulais qu'tu deviennes ma princesse mais tes devenu mon ex Tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise J'voulais vivre ma vie de tous les jours sans que personne me reconnaisse J'voulais connaître la fraîcheur, les grosses caisses et les Rolex J'voulais faire d'elle ma princesse mais elle est devenue mon ex Wougataga tout ce que j'voulais c'était me mettre à mon aise4</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oui Papipou, viens écouter viens Apoka, B.A.L.T.I., Mister Yougataga 3Arbi in Bériz de luxe Brulux on the flux Ana ou khouyti, lila, Khelouni nahki Chabiba raha ghi triski ,ou nta 3liya rak ghir techki Dakhelha whisky ,9allet chi rahi trechi Rajel wella ghir te3 chichi,yebghi chicha ou les sushis Dans ma tête j'ai trop d'soucis,habss w les surcis Koulchi wella hram bled chetan ou les pussy Verbalisé , f'les champs elysées Ma bitch t'dreb la c', la gov banalisée 3arbouch mais kahlouch bayen yiredouna wouhouch Vis la nuit gatagApoka, bruler mec c'est trop louche Bezaf le7nouch , Paris rahi mcheloucha Avec ma tête de 3arbi impossible nkoune annouche 3andi demmi tounsi , jazaiyri , meghribi Sarhaoui , Chaoui , Hamraoui , ki nrapi Wahran ou Paris Semmouni Apoka , sma3 we3lach tetchocka J'suis au bled avec les frères on vit la vida loca Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti You might also like Rani f'bariz , j'fais mon biz Ou nikou da3wa lila ana ou khouyti Fine a wled Casa , fine a wled Casa Choufou fiya tferjou f'telfasa, Lyouma dahk ou ghedda gnaza Yougataga Balti Apoka, L9a3da l'jerra derbouka Champagne ma7yia ou l'Vodka, 9er3a Whisky ou 9er3a Coca Fi khater ould khali Mourad, La makan l'visa yn3al bou lewra9 Chefna L'3awdan te3 l'Ferrariete, Machi b7al tla3na 3la Boura9 Lyoum fi Bariz ghedwa f Settat, Ou mbe3d ghedda fel imarat 3andi l'kelma te3 rajel machi l'kelma te3 pirate I'm the best since the beggining, Kayen ghir l'mmima li tbekini La3roussa labssa l'bikini, t3edi starossa Lamborghini Jat le3endi galtli ha berrani yak?! 6 f'sbah netla9aw fel Cabariyete yeh Wlad Haddou wlad Ben Houmane, kmaya hlouwa 3al romane Shab Tanja , Shab eshamal , ge3 li m3almine fel domaine Sidi Maarouf Derb Naja7 , men l'Wafa l'Wad El Malah Bnadem ki ymout bel jou3, boulissi chouf ch7al rabe7 XXX Saha saha wlad el houma , men Tounes l'Bèriz l'Roma 7achakoum Blad el bouma , Tounes lekhra lel Grouma Bladi Ma3atch Bladi , Gata3 gata3, are you ready Tounes a les jambes écartées , le7kouma Rocco Siffredi Galou thawra ze3ma ze3ma , XXX Bladi la planète des singes , grouda takoul fel banana Fel 3ar 3amal 7achak, i love you Mama Ya tounesna rahi te7chelek , majliss te'ssissi piranha Ra'iss bladna zabrat , eche3b machi kamia Madhroub fi siham badi sabat , aama tayah b aamia Ya bledi halek sakat weli hokmouk asket skata Khssara ye7kem fina 3afat , fel korsi kemel zbata Saha Saha Paname , Saha saha Brulux Son début à la Zlatan , 3arbi harbi , 3arbi de luxe 500 Kawa-Kawasaki , jib el birra , jib el kaki On vient foutre le da3wa da3wa , les rageux se démaquillent Boombastic kima shaggy , fuck I'm not lova lova Un flow un peu zarbi sahbi , mets le à fond dans ta gova Un son pour les you-voi you-voi , tounsi Jazayri maghribi Bruler , Mister YouGataga , Apoka , B.a.l.t.i Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti XXX Tounsi fi Bèriz , Jazayri fi Bèriz , Maghribi fi Bèriz , Kahlouche fi Bèriz Cramés fi Bèriz , condamné fi Bèriz , enflammé fi Bèriz , rani 3arbi fi Bèriz Tounsi fi Bèriz , Jazayri fi Bèriz , Maghribi fi Bèriz , Kahlouche fi Bèriz Tounsi yijib edevise , Jazayri yijib eddevise , Maghribi yijib eddevise7</t>
+          <t>Oui Papipou, viens écouter viens Apoka, B.A.L.T.I., Mister Yougataga 3Arbi in Bériz de luxe Brulux on the flux Ana ou khouyti, lila, Khelouni nahki Chabiba raha ghi triski ,ou nta 3liya rak ghir techki Dakhelha whisky ,9allet chi rahi trechi Rajel wella ghir te3 chichi,yebghi chicha ou les sushis Dans ma tête j'ai trop d'soucis,habss w les surcis Koulchi wella hram bled chetan ou les pussy Verbalisé , f'les champs elysées Ma bitch t'dreb la c', la gov banalisée 3arbouch mais kahlouch bayen yiredouna wouhouch Vis la nuit gatagApoka, bruler mec c'est trop louche Bezaf le7nouch , Paris rahi mcheloucha Avec ma tête de 3arbi impossible nkoune annouche 3andi demmi tounsi , jazaiyri , meghribi Sarhaoui , Chaoui , Hamraoui , ki nrapi Wahran ou Paris Semmouni Apoka , sma3 we3lach tetchocka J'suis au bled avec les frères on vit la vida loca Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti Rani f'bariz , j'fais mon biz Ou nikou da3wa lila ana ou khouyti Fine a wled Casa , fine a wled Casa Choufou fiya tferjou f'telfasa, Lyouma dahk ou ghedda gnaza Yougataga Balti Apoka, L9a3da l'jerra derbouka Champagne ma7yia ou l'Vodka, 9er3a Whisky ou 9er3a Coca Fi khater ould khali Mourad, La makan l'visa yn3al bou lewra9 Chefna L'3awdan te3 l'Ferrariete, Machi b7al tla3na 3la Boura9 Lyoum fi Bariz ghedwa f Settat, Ou mbe3d ghedda fel imarat 3andi l'kelma te3 rajel machi l'kelma te3 pirate I'm the best since the beggining, Kayen ghir l'mmima li tbekini La3roussa labssa l'bikini, t3edi starossa Lamborghini Jat le3endi galtli ha berrani yak?! 6 f'sbah netla9aw fel Cabariyete yeh Wlad Haddou wlad Ben Houmane, kmaya hlouwa 3al romane Shab Tanja , Shab eshamal , ge3 li m3almine fel domaine Sidi Maarouf Derb Naja7 , men l'Wafa l'Wad El Malah Bnadem ki ymout bel jou3, boulissi chouf ch7al rabe7 XXX Saha saha wlad el houma , men Tounes l'Bèriz l'Roma 7achakoum Blad el bouma , Tounes lekhra lel Grouma Bladi Ma3atch Bladi , Gata3 gata3, are you ready Tounes a les jambes écartées , le7kouma Rocco Siffredi Galou thawra ze3ma ze3ma , XXX Bladi la planète des singes , grouda takoul fel banana Fel 3ar 3amal 7achak, i love you Mama Ya tounesna rahi te7chelek , majliss te'ssissi piranha Ra'iss bladna zabrat , eche3b machi kamia Madhroub fi siham badi sabat , aama tayah b aamia Ya bledi halek sakat weli hokmouk asket skata Khssara ye7kem fina 3afat , fel korsi kemel zbata Saha Saha Paname , Saha saha Brulux Son début à la Zlatan , 3arbi harbi , 3arbi de luxe 500 Kawa-Kawasaki , jib el birra , jib el kaki On vient foutre le da3wa da3wa , les rageux se démaquillent Boombastic kima shaggy , fuck I'm not lova lova Un flow un peu zarbi sahbi , mets le à fond dans ta gova Un son pour les you-voi you-voi , tounsi Jazayri maghribi Bruler , Mister YouGataga , Apoka , B.a.l.t.i Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti Arwah tchouf Paris la réalité La blanche ou zetla rahi tdor sans pitié Bled eshitan khoya c'est la vérité Nikou da3wa leyla ana ou khouyti XXX Tounsi fi Bèriz , Jazayri fi Bèriz , Maghribi fi Bèriz , Kahlouche fi Bèriz Cramés fi Bèriz , condamné fi Bèriz , enflammé fi Bèriz , rani 3arbi fi Bèriz Tounsi fi Bèriz , Jazayri fi Bèriz , Maghribi fi Bèriz , Kahlouche fi Bèriz Tounsi yijib edevise , Jazayri yijib eddevise , Maghribi yijib eddevise7</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ok , Lacrim , You RIPRO 3 J'en ai beaucoup sur la conscience fréro tu sais qu'on est fort J'ai un putain d'sourire aux lèvres quand tu m'parles de mes torts La porte était fermée, oui j'suis rentré par la fenêtre C'est vrai qu'jvoulais t'baiser ta mère on m'a dit Prend toi pas la tête T'as beau mettre des bandanas , de Tupac t'es la rumeur Je hais comme un tueur, et j'aime comme un dictateur Comme à l'époque Yougataga , on voulait tout pakave Là comme Frank Lucas, j'ai mon tapis en Alpaga On a des problèmes personnels faut pas rentrer dans l'detail On y vois pas le pire elle pourrait puiser dans tes failles Et mon moteur fait vroum vroum j'roule à Saint-Michel On a la tonne à 600.000 au bled on va nichan A pars si on m'allume mon bébé j'suis dans les temps J'revois la directrice me dire t'es foutu dans huit ans J'vois mon père avec des larmes mais pris par la déception Les fils de généraux qui m'attendent à la réception Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos You might also like Sâle batârd tous l'or du monde vaut pas l'sourire de lwalida L'amour c'est comme la drogue , ça coûte moins cher à Meda C'est l'Algérie feat le Maroc fuck leur musique c'est d'la carotte Ce qui fait l'homme c'est pas l'oseille c'est la parole Draaaah L'argent propre on le salit, la SACEM part dans des gommes Et pour gratter les remises de peine que ça retourne à l'école Là j'me fais masser par Nicole J'fume un zdeh et je picole Sourire au coin j'en rigole J'attends patiemment la récolte Parigo comme M'Bappé, bâtard a des papiers Les condés veulent des photos, poto ils veulent plus mes papiers Grillé comme un rdv devant l'palais des congrés Avec moi faut pas bégayer mais faut parler que concrèt Y'a ceux qui guettent et ceux qui bute hein Le gérant qui récolte le butin Qui ramène ça au boss posé pépère avec sa putain Yougataga Lacrim t'sais bien qu'on est parti de rien Avant d'faire d'l'oseille dans l'pe-ra nous on en a fait sur le terrain Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos Cousin, pourrait, t'niquer, ta mère, rata, comme dans, rue de, Palerme Salaire, Rio, string fe, -sses à l'air, frérot, tôt ou tard, que des galères Chez nous la haine est une fleur qui pousse, sans qu'on l'arrose Ma famille me tient à coeur, mon Burberry me tient au carreau C'est You' toujours aussi paro, big up à ceux derrière les barreaux Un zdeh, une feuille, une garo, j'suis sur le Kilimandjaro Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos Ewewewe, fais gaffe à ton dos Yougataga, Lacrim, Ripro 3 Draaah7</t>
+          <t>Ok , Lacrim , You RIPRO 3 J'en ai beaucoup sur la conscience fréro tu sais qu'on est fort J'ai un putain d'sourire aux lèvres quand tu m'parles de mes torts La porte était fermée, oui j'suis rentré par la fenêtre C'est vrai qu'jvoulais t'baiser ta mère on m'a dit Prend toi pas la tête T'as beau mettre des bandanas , de Tupac t'es la rumeur Je hais comme un tueur, et j'aime comme un dictateur Comme à l'époque Yougataga , on voulait tout pakave Là comme Frank Lucas, j'ai mon tapis en Alpaga On a des problèmes personnels faut pas rentrer dans l'detail On y vois pas le pire elle pourrait puiser dans tes failles Et mon moteur fait vroum vroum j'roule à Saint-Michel On a la tonne à 600.000 au bled on va nichan A pars si on m'allume mon bébé j'suis dans les temps J'revois la directrice me dire t'es foutu dans huit ans J'vois mon père avec des larmes mais pris par la déception Les fils de généraux qui m'attendent à la réception Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos Sâle batârd tous l'or du monde vaut pas l'sourire de lwalida L'amour c'est comme la drogue , ça coûte moins cher à Meda C'est l'Algérie feat le Maroc fuck leur musique c'est d'la carotte Ce qui fait l'homme c'est pas l'oseille c'est la parole Draaaah L'argent propre on le salit, la SACEM part dans des gommes Et pour gratter les remises de peine que ça retourne à l'école Là j'me fais masser par Nicole J'fume un zdeh et je picole Sourire au coin j'en rigole J'attends patiemment la récolte Parigo comme M'Bappé, bâtard a des papiers Les condés veulent des photos, poto ils veulent plus mes papiers Grillé comme un rdv devant l'palais des congrés Avec moi faut pas bégayer mais faut parler que concrèt Y'a ceux qui guettent et ceux qui bute hein Le gérant qui récolte le butin Qui ramène ça au boss posé pépère avec sa putain Yougataga Lacrim t'sais bien qu'on est parti de rien Avant d'faire d'l'oseille dans l'pe-ra nous on en a fait sur le terrain Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos Cousin, pourrait, t'niquer, ta mère, rata, comme dans, rue de, Palerme Salaire, Rio, string fe, -sses à l'air, frérot, tôt ou tard, que des galères Chez nous la haine est une fleur qui pousse, sans qu'on l'arrose Ma famille me tient à coeur, mon Burberry me tient au carreau C'est You' toujours aussi paro, big up à ceux derrière les barreaux Un zdeh, une feuille, une garo, j'suis sur le Kilimandjaro Tu donnes à tout Paname l'ami de quoi tu parles ? Des sous comme le tarot J'sais qu'il veulent nous graille, nous graille, nous graille, nous graille, et qu'on prenne un K.O Teinter la vago, fuir tous ces barjos, quelques mythos, qui mènent en bateau Qui nous souhaite le malheur, voudraient nos valeurs Qui pourraient tuer pour voler ta paye, fais gaffe à ton dos Ewewewe, fais gaffe à ton dos Yougataga, Lacrim, Ripro 3 Draaah7</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! Pour nos surs qui souffrent, toujours une pensée sincère Bah ouais, Ta mère la pute c'est ton blase à la SACEM De Marseille à Bilbao, le taro est imbattable Bar à putes, pipe à eau, j'crache ma vie de bâtard Bon bref à c'te heure-ci alcool et bizutages Mon oseille je veux le prendre, j'connais pas les dessous d'table Tout a un prix, comme ma montre et ta chatte Dis-leur, Bruler tel est pris qui croyait tahcha Dans le mal j'ai mes repères, inch'Allah j'serai grand-père J'connais pas un fils de pute sur Terre qui serait heureux d'perdre Voyons, reste mignon, hombre Une affaire à deux millions, ta femme viendra se cambrer Ces bienfaits sont éphémères, tout ça n'est qu'artifice J'te laisserai de l'oseille et des principes quand j'serais parti, fils Mister You, Lacrim, ton équipe au tapin Le son qui pue la rue car on a son parfum You might also like Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! Fuck les haineux, ces fils de putes, ils ont trop l'seum qu'on pèse En 2013, c'est plus eux mais leurs daronnes qu'on baise Ils retravaillent nos phases, ils rêvent d'avoir nos vécus Ils sont comme des hémorroïdes ils arrêtent pas d'nous bouffer l'cul Un imbécile peut être un génie quand il revient d'loin Ils ont découvert l'Amérique en croyant rejoindre l'Inde Tu peux tout perdre sur un coup d'poker, et j'parle pas d'ta blinde Une chose est sûre, c'est qu'l'Ange Gabriel prendra pas ta plainte J'sais bien qu'la frappe de Ketama s'vend mieux qu'le chocolat Lindt J'connais la vengeance des femmes, j'connais l'histoire de Hinde J'ai trop la dalle fils, y'a qu'à regarder mes crocs J'préfère l'appel de la prière, mais c'est Ibliss qui m'tient l'micro Né pour mourir, y'a pas qu'dans South Park qu'on nique Kenny Flow tah la 23ème chambre, rap tah les flagrants délits Crois pas qu'on va tout perdre, n'écoute pas tous ces tards-bâ' Inch'Allah on fera tout le tour du monde, et sept fois celui d'la kaaba Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! On va, on va tous perdre On va tout perdre On va tout perdre On va, on va tous perdre Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre !6</t>
+          <t>Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! Pour nos surs qui souffrent, toujours une pensée sincère Bah ouais, Ta mère la pute c'est ton blase à la SACEM De Marseille à Bilbao, le taro est imbattable Bar à putes, pipe à eau, j'crache ma vie de bâtard Bon bref à c'te heure-ci alcool et bizutages Mon oseille je veux le prendre, j'connais pas les dessous d'table Tout a un prix, comme ma montre et ta chatte Dis-leur, Bruler tel est pris qui croyait tahcha Dans le mal j'ai mes repères, inch'Allah j'serai grand-père J'connais pas un fils de pute sur Terre qui serait heureux d'perdre Voyons, reste mignon, hombre Une affaire à deux millions, ta femme viendra se cambrer Ces bienfaits sont éphémères, tout ça n'est qu'artifice J'te laisserai de l'oseille et des principes quand j'serais parti, fils Mister You, Lacrim, ton équipe au tapin Le son qui pue la rue car on a son parfum Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! Fuck les haineux, ces fils de putes, ils ont trop l'seum qu'on pèse En 2013, c'est plus eux mais leurs daronnes qu'on baise Ils retravaillent nos phases, ils rêvent d'avoir nos vécus Ils sont comme des hémorroïdes ils arrêtent pas d'nous bouffer l'cul Un imbécile peut être un génie quand il revient d'loin Ils ont découvert l'Amérique en croyant rejoindre l'Inde Tu peux tout perdre sur un coup d'poker, et j'parle pas d'ta blinde Une chose est sûre, c'est qu'l'Ange Gabriel prendra pas ta plainte J'sais bien qu'la frappe de Ketama s'vend mieux qu'le chocolat Lindt J'connais la vengeance des femmes, j'connais l'histoire de Hinde J'ai trop la dalle fils, y'a qu'à regarder mes crocs J'préfère l'appel de la prière, mais c'est Ibliss qui m'tient l'micro Né pour mourir, y'a pas qu'dans South Park qu'on nique Kenny Flow tah la 23ème chambre, rap tah les flagrants délits Crois pas qu'on va tout perdre, n'écoute pas tous ces tards-bâ' Inch'Allah on fera tout le tour du monde, et sept fois celui d'la kaaba Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre ! On va, on va tous perdre On va tout perdre On va tout perdre On va, on va tous perdre Toujours opérationnels pour foutre le bordel Les mêmes phrases qui reviennent, sommes-nous vraiment des modèles ? À quoi bon lutter ? Seul Dieu est éternel C'est dans nos gènes depuis la maternelle À la fin du film, gros, on va tous perdre Flics, mitraillettes et micro on va tout perdre Plein, détail, semi-gros on va tout perdre On va, on va tous perdre !6</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lyoum ya yema bghit nahreg l'frança La khedma la guedema, la chkoupi la madrasa Fi Blad el gwer netmecha khlit Tipaza Miat melyoun f sakocha channel nerja3 l'leblad netbronza Nhabe villa 4 étages, Mercedes f el garage Maamra b el bagage, mabnia qoddam la plage Wlad Meghnia, wlad Bab el Oued, wlad El Harach Génération Allah ghaleb, tzawej maa Madame Courage Keraa rouge, refaa chemma qaaed f el houma Khouya kraht el ghouma, kraht el hkouma Homa klaw el cavier w khlaw lina el beghrir Seksi ala yougataga yseksi alik el khir 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad llahomma wahed yebka f el houma Ho Hamani aji nahkilek kessa Aibad b diplome abad wejhoum fesda Abad f terkina jibouna sico-mama Lhem tguetaa b'sekina click click brah Lyam mchou mataadou ana rakech f el cabaria Tchouf fia maghmoum alach tzidou ala mabia La talla la bakou ghala la chameia Kahel ala el policia w el himaia el madania Tekliaa me leblad madabia Fadit m el mizirya rabi chahed alia Hia hwa lazem a romian El hakem hwa el massoul ala li sayer f el blad You might also like 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad normale wahed yebka f el houma Kbel ma yedini allah yahdini , allah yahdina kamlin Wahed a lila gali ya khouya karim Wach kaestahak gaa shabek tekriban ghir monafikin Ghir teshar el walidin kayebkaw kol lila faykin Wach khesek el aaryan, khatame wla tricot ? Matkonchsa9ram ki der moul chfenj fin ken khedam rico Kan kibi3 al telj tfarg3 3alih el frigo Kolchi tahreg flekher mol sfenj mala takhringo Li bgha ydour yet3alem ala tahraimiat Khouya li fat yekder ghir yatzawej maa li mat El walida w el walidin dozo kbel mel Rajah ou Lwidad El mohim allah yahdina bach nahna ndirou wlidat 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad normale wahed yebka f el houma13</t>
+          <t>Lyoum ya yema bghit nahreg l'frança La khedma la guedema, la chkoupi la madrasa Fi Blad el gwer netmecha khlit Tipaza Miat melyoun f sakocha channel nerja3 l'leblad netbronza Nhabe villa 4 étages, Mercedes f el garage Maamra b el bagage, mabnia qoddam la plage Wlad Meghnia, wlad Bab el Oued, wlad El Harach Génération Allah ghaleb, tzawej maa Madame Courage Keraa rouge, refaa chemma qaaed f el houma Khouya kraht el ghouma, kraht el hkouma Homa klaw el cavier w khlaw lina el beghrir Seksi ala yougataga yseksi alik el khir 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad llahomma wahed yebka f el houma Ho Hamani aji nahkilek kessa Aibad b diplome abad wejhoum fesda Abad f terkina jibouna sico-mama Lhem tguetaa b'sekina click click brah Lyam mchou mataadou ana rakech f el cabaria Tchouf fia maghmoum alach tzidou ala mabia La talla la bakou ghala la chameia Kahel ala el policia w el himaia el madania Tekliaa me leblad madabia Fadit m el mizirya rabi chahed alia Hia hwa lazem a romian El hakem hwa el massoul ala li sayer f el blad 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad normale wahed yebka f el houma Kbel ma yedini allah yahdini , allah yahdina kamlin Wahed a lila gali ya khouya karim Wach kaestahak gaa shabek tekriban ghir monafikin Ghir teshar el walidin kayebkaw kol lila faykin Wach khesek el aaryan, khatame wla tricot ? Matkonchsa9ram ki der moul chfenj fin ken khedam rico Kan kibi3 al telj tfarg3 3alih el frigo Kolchi tahreg flekher mol sfenj mala takhringo Li bgha ydour yet3alem ala tahraimiat Khouya li fat yekder ghir yatzawej maa li mat El walida w el walidin dozo kbel mel Rajah ou Lwidad El mohim allah yahdina bach nahna ndirou wlidat 3lash kololi 3lash thabou tkhalo el aaila M'aandnach makhesnach walou men ghir el walida Chhal men wahed fat, dkhel leblad chaf el ghourba chal saaiba Chhal men wahed mat yalewlad normale wahed yebka f el houma13</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ok même si t'es broliqué, tu vas te faire niquer J'sors l'album, donc faut rappliquer J'rêve que de liasse, de caisse, de Audemars Piguet Niveau gonzess,e j'ai les même goûts que Gerard Piqué Comment t'expliquer, tu veux m'faire kiffer ? Ramène toutes tes amies J'sors ma bite, j'pisse sur le tsunami Raconte nous ta i-ve pas celle des javon No Time Records, Sta Ive Music c'est que du poison, y'a que du bavon Elle est trop cheum ta meuf, j'veux pas d'son numéro 2013 rime avec 700 000 euros Mister-Mister You du zoogatazoo Une plaquette, un stylo, une feuille, un gros paquet de sous, truc de fou 1-2 1-2 test, rap de tess, microphone check, check Crois pas que je rigole mec Y'a ceux qui jouent la Champions League, et y'a ceux qui restent sur le teck Fuck les zeros, matière de merde, big up à ceux sur le chèque J'ai tout pris j'ai rien laissé, même pas un p'tit zdeh sur l'étagère Quand c'est kasher chez moi c'est halal,quand c'est halal c'est pas kasher Cherche pas, y'a rien à comprendre, faut tout prendre avant d'se faire prendre Délit d'faciès aux assiettes, les juges y kifferaient nous pendre J'reste unique en mon genre, donc s'il vous plait pas d'comparaison Faites péter les baffles du caissons, l'flow qui fait kiffer l'ingé' son Si tu savais vraiment c'qui s'passe en bas de la maison C'est la route qu'est sur le pavé, il s'passe des trucs à en perdre la raison Le cauchemar d'Eric Besson, les petits font qu'des agressions Leurs parents sentent la pression, leurs grands frères sont en prison Et ils ne respectent plus les anciens, ils s'en battent les couilles d'l'âge qu'ils ont Ils savent qu'armé en pushka, on peut faire fuir un bison Et ouais on arrive cagoulé, nique sa grand mère le physio C'est pas la lune que nous visons, c'est sur nos couilles que nous misons On est tordu sans être de Pise, le rap nous le traumatisons En pleine période de crise, beh y'a qu'le Coran que nous lisons Freestyle sur répétition, on rappe hors compétition J'm'esquive pas pour l'addition, il me manque une phrase en -ison On rêve tous d'une jolie mousso, d'visa, d'fourrure en vison L'héritage de tous leurs ancêtres, fera pas le quart de mes éditions Nique sa mère la télévision, nique sa mère leurs émissions Dites leur que je suis chtarbé, que je parle au jnoun et que j'ai des visions Rafleuse caché dans l'buisson, ouais, j'déborde d'ambition J'ai tout c'qu'il faut dans l'caleçon, j'suis paré pour chaque mission You might also like J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.79</t>
+          <t>Ok même si t'es broliqué, tu vas te faire niquer J'sors l'album, donc faut rappliquer J'rêve que de liasse, de caisse, de Audemars Piguet Niveau gonzess,e j'ai les même goûts que Gerard Piqué Comment t'expliquer, tu veux m'faire kiffer ? Ramène toutes tes amies J'sors ma bite, j'pisse sur le tsunami Raconte nous ta i-ve pas celle des javon No Time Records, Sta Ive Music c'est que du poison, y'a que du bavon Elle est trop cheum ta meuf, j'veux pas d'son numéro 2013 rime avec 700 000 euros Mister-Mister You du zoogatazoo Une plaquette, un stylo, une feuille, un gros paquet de sous, truc de fou 1-2 1-2 test, rap de tess, microphone check, check Crois pas que je rigole mec Y'a ceux qui jouent la Champions League, et y'a ceux qui restent sur le teck Fuck les zeros, matière de merde, big up à ceux sur le chèque J'ai tout pris j'ai rien laissé, même pas un p'tit zdeh sur l'étagère Quand c'est kasher chez moi c'est halal,quand c'est halal c'est pas kasher Cherche pas, y'a rien à comprendre, faut tout prendre avant d'se faire prendre Délit d'faciès aux assiettes, les juges y kifferaient nous pendre J'reste unique en mon genre, donc s'il vous plait pas d'comparaison Faites péter les baffles du caissons, l'flow qui fait kiffer l'ingé' son Si tu savais vraiment c'qui s'passe en bas de la maison C'est la route qu'est sur le pavé, il s'passe des trucs à en perdre la raison Le cauchemar d'Eric Besson, les petits font qu'des agressions Leurs parents sentent la pression, leurs grands frères sont en prison Et ils ne respectent plus les anciens, ils s'en battent les couilles d'l'âge qu'ils ont Ils savent qu'armé en pushka, on peut faire fuir un bison Et ouais on arrive cagoulé, nique sa grand mère le physio C'est pas la lune que nous visons, c'est sur nos couilles que nous misons On est tordu sans être de Pise, le rap nous le traumatisons En pleine période de crise, beh y'a qu'le Coran que nous lisons Freestyle sur répétition, on rappe hors compétition J'm'esquive pas pour l'addition, il me manque une phrase en -ison On rêve tous d'une jolie mousso, d'visa, d'fourrure en vison L'héritage de tous leurs ancêtres, fera pas le quart de mes éditions Nique sa mère la télévision, nique sa mère leurs émissions Dites leur que je suis chtarbé, que je parle au jnoun et que j'ai des visions Rafleuse caché dans l'buisson, ouais, j'déborde d'ambition J'ai tout c'qu'il faut dans l'caleçon, j'suis paré pour chaque mission J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.7 J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler J'ai besoin d'personne pour défourailler Juste mon casque Arai et mon 3.5.79</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh Toutes tes tminics et toutes ces soirées d'ivresses Nan je ne regrette rien, ni mes joies ni mes tristesses Là, J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh ! J'ai l'air d'un con, j'me sens totalement du-per Moi qui m'étais juré de n'aimer que ma mère Un jour jt'ai offert un bouquet d'fleur Tu m'as dis il est beau mais pas autant qu'un Hummer Jt'ai dit eh oh largent ne fait pas le bonheur Tu m'as dit ouais non mais ça fait pas non plus le malheur Le passé ça meurt, mais les souvenirs ça reste Des fois ça fait du bien des fois ça blesse Ton regard de braise, tes petites fesses en forme de fraises Ton petit corps de crevette, ta silhouette parfaite ou presque Tes yeux noisettes et tes petites mains de poupée Ta mèche coupée t'es petites mimiques de princesse Tout tes tminics et toutes ces soirée d'ivresses Non je ne regrette rien ni mes joies ni mes tristesses You might also like J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh Toutes tes tminics et toutes ces soirées d'ivresses Mais je ne regrette rien, ni mes joie ni mes tristesses Quand t'as reprit tes clics tes clacs, t'as remis ta veste Tu m'as dis je m'en vais Younès maintenant faut que tu me laisse Je t'ai dis je te retiens pas bien que rien ne presse Je te souhaite tout le bonheur du monde à toi et à ton futur ex Comme une traitresse, t'as fuis et tu m'as lâché Sous prétexte que j'étais recherché Tu ma dis c'est clair, c'est net, ça peut pas marcher Donc ouais je te dédis ce texte seulement pour te faire chier Moi qui t'ai dis j'vois l'étoile du berger Bah si tu m'attends, j'irai, je te la décrocherai Mais toi t'y a pas cru, ça tu me l'as prouvé Aujourd'hui je te dis une de perdue c'est 4 milliards de retrouvées 3</t>
+          <t>J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh Toutes tes tminics et toutes ces soirées d'ivresses Nan je ne regrette rien, ni mes joies ni mes tristesses Là, J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh ! J'ai l'air d'un con, j'me sens totalement du-per Moi qui m'étais juré de n'aimer que ma mère Un jour jt'ai offert un bouquet d'fleur Tu m'as dis il est beau mais pas autant qu'un Hummer Jt'ai dit eh oh largent ne fait pas le bonheur Tu m'as dit ouais non mais ça fait pas non plus le malheur Le passé ça meurt, mais les souvenirs ça reste Des fois ça fait du bien des fois ça blesse Ton regard de braise, tes petites fesses en forme de fraises Ton petit corps de crevette, ta silhouette parfaite ou presque Tes yeux noisettes et tes petites mains de poupée Ta mèche coupée t'es petites mimiques de princesse Tout tes tminics et toutes ces soirée d'ivresses Non je ne regrette rien ni mes joies ni mes tristesses J'suis dans ma cellule j'galère, j'regarde en l'air J'suis en train d'cogiter j'repense à toi ya zèhh Toutes tes tminics et toutes ces soirées d'ivresses Mais je ne regrette rien, ni mes joie ni mes tristesses Quand t'as reprit tes clics tes clacs, t'as remis ta veste Tu m'as dis je m'en vais Younès maintenant faut que tu me laisse Je t'ai dis je te retiens pas bien que rien ne presse Je te souhaite tout le bonheur du monde à toi et à ton futur ex Comme une traitresse, t'as fuis et tu m'as lâché Sous prétexte que j'étais recherché Tu ma dis c'est clair, c'est net, ça peut pas marcher Donc ouais je te dédis ce texte seulement pour te faire chier Moi qui t'ai dis j'vois l'étoile du berger Bah si tu m'attends, j'irai, je te la décrocherai Mais toi t'y a pas cru, ça tu me l'as prouvé Aujourd'hui je te dis une de perdue c'est 4 milliards de retrouvées 3</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'me sens seul sur Terre, même quand derrière moi y'a des choristes Bolide assuré tous risques, quinze zdehs, une Philip Morris J'suis venu graille tout l'gâteau, ok je vous laisserai peut-être la cerise Mets une fleur pourrie dans un bouquet, c'est toutes les fleurs qui pourrissent Comment j'm'hypnotise Un vrai chez moi, il en vaut dix N'écoute pas ce que les faux disent Quand je croise Casper au parloir, t'es pris d'une espèce d'hantise Au placard, t'sais que la juge elle fait moins peur que la dentiste Qui vit avec l'acier, périra par le fer Ouais j'voulais pas bicrave la C, mais j'ai fini par le faire Je ne suis pas un animal, j'trouve pas ça normal qu'on m'enferme Fuck ces magistrats de merde, que leurs mères crèvent en enfer Un jour j'étais posé hata tranquillement dans le quartier Lorsqu'une patrouille de condés passa et décida d'me faire chier A la recherche de la petite bête, ils me demandèrent mes papiers Et moi Walahi Bileh, tout ce que je leur ai dit c'est A Babyé papiers Ouled Lek'hab a moitié nu j'me lève avec la barre de fer, j'baise vos mère toute la matinée Osez descendre de vos voitures j'peux vous fumer comme du saumons Sur le terrains à Belleville y a plus d'herbe que dans les rues de Chaumont Ok zoogataga daawa venez pas m'casser les couilles C'est pas d'ma faute si les ti-pe préfèrent crave-bi qu'aller à la school Ici c'est Belleville Zoo, on roule un zdeh on redécolle Tu traînes un quart d'heure avec nous tu crèves d'une overdose d'alcool Barrez vous bande de schtroumpfs remballez vos gyrophares Bande de trimards, bande de hmar , bande de koufar Le monde tourne à l'envers J'suis dans le décor et tout son envers Moi tout ce que je souhaite c'est que vos grand-méres elles crèvent en enfer You might also likeOk zougata wougata what ? Motherfucker ! Je suis dans le décors et tout son envers Moi tout ce que je souhaite c'est que vos grand-mère crèvent en enfer Un jour j'était posé, pénard, tranquille en promenade C'était l'été, j'fumais un pétard, j'sirotais une p'tite citronnade J'en avais marre de voir autant de surveillants autour de oim J'sortais bientôt et puis le greffier est venu et m'a rajouté 8 oim Le lendemain j'étais posé hata dans ma llule-ce à la Té-San Lorsque une équipe de hassess débarqua et fit une descente A la recherche de mon phone-télé ils sont venus ils m'ont même pris la télé Puis ils l'ont trouvé ils m'ont envoyé au cachot ces enculés Ils m'ont eu, comme une merde, comme une croquette La d'dans mon pote je rêvais pas de pute mais de lance roquettes Tnaked pour moi mon frère j'savais plus comment faire MDR, tout ce que j'souhaite ce que leurs ancêtre crèvent en enfer Ok zougata wougata what ? Motherfucker ! Tnakete pour moi mon frère je savais plus comment faire 2012 tout ce que j'souhait ce que leurs ancêtre crèvent en enfer Ok zougata wougata Chbik weld el kehba8</t>
+          <t>J'me sens seul sur Terre, même quand derrière moi y'a des choristes Bolide assuré tous risques, quinze zdehs, une Philip Morris J'suis venu graille tout l'gâteau, ok je vous laisserai peut-être la cerise Mets une fleur pourrie dans un bouquet, c'est toutes les fleurs qui pourrissent Comment j'm'hypnotise Un vrai chez moi, il en vaut dix N'écoute pas ce que les faux disent Quand je croise Casper au parloir, t'es pris d'une espèce d'hantise Au placard, t'sais que la juge elle fait moins peur que la dentiste Qui vit avec l'acier, périra par le fer Ouais j'voulais pas bicrave la C, mais j'ai fini par le faire Je ne suis pas un animal, j'trouve pas ça normal qu'on m'enferme Fuck ces magistrats de merde, que leurs mères crèvent en enfer Un jour j'étais posé hata tranquillement dans le quartier Lorsqu'une patrouille de condés passa et décida d'me faire chier A la recherche de la petite bête, ils me demandèrent mes papiers Et moi Walahi Bileh, tout ce que je leur ai dit c'est A Babyé papiers Ouled Lek'hab a moitié nu j'me lève avec la barre de fer, j'baise vos mère toute la matinée Osez descendre de vos voitures j'peux vous fumer comme du saumons Sur le terrains à Belleville y a plus d'herbe que dans les rues de Chaumont Ok zoogataga daawa venez pas m'casser les couilles C'est pas d'ma faute si les ti-pe préfèrent crave-bi qu'aller à la school Ici c'est Belleville Zoo, on roule un zdeh on redécolle Tu traînes un quart d'heure avec nous tu crèves d'une overdose d'alcool Barrez vous bande de schtroumpfs remballez vos gyrophares Bande de trimards, bande de hmar , bande de koufar Le monde tourne à l'envers J'suis dans le décor et tout son envers Moi tout ce que je souhaite c'est que vos grand-méres elles crèvent en enfer Ok zougata wougata what ? Motherfucker ! Je suis dans le décors et tout son envers Moi tout ce que je souhaite c'est que vos grand-mère crèvent en enfer Un jour j'était posé, pénard, tranquille en promenade C'était l'été, j'fumais un pétard, j'sirotais une p'tite citronnade J'en avais marre de voir autant de surveillants autour de oim J'sortais bientôt et puis le greffier est venu et m'a rajouté 8 oim Le lendemain j'étais posé hata dans ma llule-ce à la Té-San Lorsque une équipe de hassess débarqua et fit une descente A la recherche de mon phone-télé ils sont venus ils m'ont même pris la télé Puis ils l'ont trouvé ils m'ont envoyé au cachot ces enculés Ils m'ont eu, comme une merde, comme une croquette La d'dans mon pote je rêvais pas de pute mais de lance roquettes Tnaked pour moi mon frère j'savais plus comment faire MDR, tout ce que j'souhaite ce que leurs ancêtre crèvent en enfer Ok zougata wougata what ? Motherfucker ! Tnakete pour moi mon frère je savais plus comment faire 2012 tout ce que j'souhait ce que leurs ancêtre crèvent en enfer Ok zougata wougata Chbik weld el kehba8</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aïe aïe aïe yougataga, Mister You, JUL Vas-y sors du taga fais kiffer, roule À Paname, ça s'met à genoux que devant Dieu À Paname, des fois ça défouraille pour un dix eu Aïe aïe aïe, big up tous les frères écroués Si t'es un kharai nan, cherche pas la merde tu vas la trouver A Casa', Sidi Makhlouf ça pète les plombs ça désespère Ça passe des années entières à s'péter l'veau-cer fumer des zdeh À Gaza un truc de ouf, ça fait la guerre avec des pierres De l'autre côté ça arrose ça, avec des missiles et avec des bières Quelle justice de merde, quel système de fils de pute Des problèmes immenses, j'ai l'impression d'vivre dans un monde de lutins Depuis tout petit, j'ai qu'des mauvaises fréquentations Traîne qu'avec des mandats d'dépôt, laissez passer mauvais garçon On est au stud' hatta pépères, nous tisons nous bédavons On est khabta on plane dans les airs, on écrit sur des billets d'avion Normal que ça saigne, là j'suis avec JuL on est sous Jack L'argent d'la SACEM, en balot d'trente sur un Zodiac À Marseille ça cambute ça braque, ça roule sans permis sous l'nom d'un pote À Marseille ça insulte la BAC cagoulés dans l'block avec un Glock J't'aime pas tu m'jalouses, tu m'fais passer pour quelqu'un d'autre J'te baise tu m'critiques, tu veux essayer d'fracturer ma porte Ça tire ça lève des vies, dis-leur You' faut qu'tout ça cesse C'est pour mes potes en cellules qui m'disent j'te rappelle là y'a l'hessess C'qu'on vit c'est pas facile, c'qu'on vit c'est pas des scènes Ça dit viens on s'parle seul à seul, s't'es costaud y'a l'arme sous la selle Ça s'haït ça s'rentre dedans, pour une folle ça s'met dedans Les shmits veulent t'casser tes 32 dents, pour une poursuite en 2T Ça parle en balo plus en détail ça déclare pas quand c'est d'la fumette Parachute pour assumer, j'vois l'mirador avec son fusil à lunette Tu m'fais l'cambrioleur, tu mets quatre ans pour ouvrir une fenêtre Ça fait un an qu'j'suis dans l'game, douze ans qu'j'le pénètre À Marseille c'est les Baumettes, Luynes, le Pontet et Salon C'pour Mortadon, Fafa et Tchyco, demande-leur on a pas l'bras long You might also like Avec À Toi j'ai pris un bon pactole Nique bien leurs grand-mères ceux qu'ont pas pigé Combien ont brassé des tonnes Aujourd'hui suceraient pour moins que dix g ? J'en ai pris des risques dans l'métier J'vais tous les baiser j't'ai dit J Les keufs kifferaient m'faire tourner sans tié-pi Et l'proc s'prend pour un DJ Nique zouk khaltou weld el kahba De la part de tous mes frères au card-pla Qui font leur peine aux leittes-toi tranquillement pépèrement Sur une be-jan en dehka w lahba J'en ai sorti plein d'la lère-ga Puis une fois qu'ils étaient bien j'étais plus trop leur gars J'ai trop d'potes c'est devenu des putes mais Hamdullah c'est pas tous leur cas J'vis, j'ai vu j'ai zoné, non j'ai jamais mythonné On m'a trahi, j'ai pardonné, moi j'avais rien et j'ai donné Tu roules en loc', tu as pas un et tu t'la pètes Et ferme ta gueule, reste cool s'tu veux pas qu'ça pète J'passe mon temps à rien faire au tieks avec les couz' J'dis pourquoi ils sont jaloux ? Ils m'ont dit c'est rien JUL baise-les tous Certains potos ont changé, ils m'font tous plein d'manies J'leur ai rien fait ils m'regardent comme quand Tony a tué Manny Disque d'or j'taffais la pelle et la pioche Y'a qu'des loups fais pas tomber l'dix de la poche J'dors le jour, j'vit la noche, corazón dur comme la roche Poto c'est auch que ça m'esquive à droite à gauche L'État nous fauche, nous fâche, les policiers cherchent l'outrage T'as rien fait, si tu vois qu'ton pote crache tout cache Cash to cash Frère on a trop les crocs y'a des diamants sur nos chicos Demande à Bim-Bim, à Momostre, à Simo ou à Tchyco On a pété les Cristal, les Dom Pe', les Veuve Clicquot On a épongé avec les Perrier, les San Pe', les Tropico Ne cherche pas à faire la course, tu vas t'prendre un K.O Demande à l'Ours, trop d'salopes de shmits te pètent quand tu vises le but C'est parce que la juge c'est une chienne qu'elle nous voit comme des fils de pute Moi y'a qu'le seigneur qui m'fascine Tout c'que j'espère c'est qu'il me guide avant qu'la mort me fasse signe Yougataga On mérite l'asile STA-IVE, Liga One J'vais ramener la Coupe du Brésil Laissez-moi j'suis ailleurs, j'fais des tours des fois solo Faut voir qui est là quand t'es bien, qui est là quand t'es sous l'eau Tu m'as trahi tant de fois, j'ai toujours dis c'est rien On m'a dit ils s'font rares les vrais mais ça je le sais bien15</t>
+          <t>Aïe aïe aïe yougataga, Mister You, JUL Vas-y sors du taga fais kiffer, roule À Paname, ça s'met à genoux que devant Dieu À Paname, des fois ça défouraille pour un dix eu Aïe aïe aïe, big up tous les frères écroués Si t'es un kharai nan, cherche pas la merde tu vas la trouver A Casa', Sidi Makhlouf ça pète les plombs ça désespère Ça passe des années entières à s'péter l'veau-cer fumer des zdeh À Gaza un truc de ouf, ça fait la guerre avec des pierres De l'autre côté ça arrose ça, avec des missiles et avec des bières Quelle justice de merde, quel système de fils de pute Des problèmes immenses, j'ai l'impression d'vivre dans un monde de lutins Depuis tout petit, j'ai qu'des mauvaises fréquentations Traîne qu'avec des mandats d'dépôt, laissez passer mauvais garçon On est au stud' hatta pépères, nous tisons nous bédavons On est khabta on plane dans les airs, on écrit sur des billets d'avion Normal que ça saigne, là j'suis avec JuL on est sous Jack L'argent d'la SACEM, en balot d'trente sur un Zodiac À Marseille ça cambute ça braque, ça roule sans permis sous l'nom d'un pote À Marseille ça insulte la BAC cagoulés dans l'block avec un Glock J't'aime pas tu m'jalouses, tu m'fais passer pour quelqu'un d'autre J'te baise tu m'critiques, tu veux essayer d'fracturer ma porte Ça tire ça lève des vies, dis-leur You' faut qu'tout ça cesse C'est pour mes potes en cellules qui m'disent j'te rappelle là y'a l'hessess C'qu'on vit c'est pas facile, c'qu'on vit c'est pas des scènes Ça dit viens on s'parle seul à seul, s't'es costaud y'a l'arme sous la selle Ça s'haït ça s'rentre dedans, pour une folle ça s'met dedans Les shmits veulent t'casser tes 32 dents, pour une poursuite en 2T Ça parle en balo plus en détail ça déclare pas quand c'est d'la fumette Parachute pour assumer, j'vois l'mirador avec son fusil à lunette Tu m'fais l'cambrioleur, tu mets quatre ans pour ouvrir une fenêtre Ça fait un an qu'j'suis dans l'game, douze ans qu'j'le pénètre À Marseille c'est les Baumettes, Luynes, le Pontet et Salon C'pour Mortadon, Fafa et Tchyco, demande-leur on a pas l'bras long Avec À Toi j'ai pris un bon pactole Nique bien leurs grand-mères ceux qu'ont pas pigé Combien ont brassé des tonnes Aujourd'hui suceraient pour moins que dix g ? J'en ai pris des risques dans l'métier J'vais tous les baiser j't'ai dit J Les keufs kifferaient m'faire tourner sans tié-pi Et l'proc s'prend pour un DJ Nique zouk khaltou weld el kahba De la part de tous mes frères au card-pla Qui font leur peine aux leittes-toi tranquillement pépèrement Sur une be-jan en dehka w lahba J'en ai sorti plein d'la lère-ga Puis une fois qu'ils étaient bien j'étais plus trop leur gars J'ai trop d'potes c'est devenu des putes mais Hamdullah c'est pas tous leur cas J'vis, j'ai vu j'ai zoné, non j'ai jamais mythonné On m'a trahi, j'ai pardonné, moi j'avais rien et j'ai donné Tu roules en loc', tu as pas un et tu t'la pètes Et ferme ta gueule, reste cool s'tu veux pas qu'ça pète J'passe mon temps à rien faire au tieks avec les couz' J'dis pourquoi ils sont jaloux ? Ils m'ont dit c'est rien JUL baise-les tous Certains potos ont changé, ils m'font tous plein d'manies J'leur ai rien fait ils m'regardent comme quand Tony a tué Manny Disque d'or j'taffais la pelle et la pioche Y'a qu'des loups fais pas tomber l'dix de la poche J'dors le jour, j'vit la noche, corazón dur comme la roche Poto c'est auch que ça m'esquive à droite à gauche L'État nous fauche, nous fâche, les policiers cherchent l'outrage T'as rien fait, si tu vois qu'ton pote crache tout cache Cash to cash Frère on a trop les crocs y'a des diamants sur nos chicos Demande à Bim-Bim, à Momostre, à Simo ou à Tchyco On a pété les Cristal, les Dom Pe', les Veuve Clicquot On a épongé avec les Perrier, les San Pe', les Tropico Ne cherche pas à faire la course, tu vas t'prendre un K.O Demande à l'Ours, trop d'salopes de shmits te pètent quand tu vises le but C'est parce que la juge c'est une chienne qu'elle nous voit comme des fils de pute Moi y'a qu'le seigneur qui m'fascine Tout c'que j'espère c'est qu'il me guide avant qu'la mort me fasse signe Yougataga On mérite l'asile STA-IVE, Liga One J'vais ramener la Coupe du Brésil Laissez-moi j'suis ailleurs, j'fais des tours des fois solo Faut voir qui est là quand t'es bien, qui est là quand t'es sous l'eau Tu m'as trahi tant de fois, j'ai toujours dis c'est rien On m'a dit ils s'font rares les vrais mais ça je le sais bien15</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mehsah à la prod Mehsah à la prod, Mehsah à la prod J'sais qu'la musique, c'est comme la drogue tout ça, ça dure qu'un temps À chaque contrat, j'leur prends trois millions, fils de p', j'ai pas vingt ans Ça fait longtemps qu'j'compte plus mon oseille, pourtant, je paye comptant Ça fait longtemps, poto, qu'j'suis plus content, qu'j'ai pas compté le temps Autant le dire je braque depuis les francs, j'ai dormi sur les bancs Pourquoi mentir ? Avant d'être un capo, j'ai gravi tous les rangs P'tit embêtant, sur moi, j'ai l'pétard et j'roule sur un deux temps Il faut d'l'argent quand ta vie en dépend, tu tombes dans tous les plans C'est ta meuf qui va t'baiser ou c'est ton reuf qui va t'carotte J'ai fait des choses, du haut d'mes quinze ans, j'en paraissais quarante La vie est belle mais courte, alors, j'me sers d'elle Joue pas au con, la mort est certaine Yeah, dios mio amore mio Les microbes ont pris un tournant sans mettre de cligno' C'est chacun sa mère et Dieu pour tous, amore mio Dramatique musique, la muerte vient pas de Rio J'te joue pas de vice pah, quartiers Nord à risques pah, nique ses morts le fisc rah C'est soit des détonations de M16 ou vendre des disques 9 milli', ça te fuma pour le mili' Personne se réconcilie et que ça t'humilie Nan, j'suis un ancien comme les points morts aux vaches, le pollen, pas la mache ouais Tu sais qu'j'm'en bats la race, j'rappe à l'arrache rah Tu sais qu'j'm'en bats la race, j'rappe à l'arrache rah C'que j'veux faire, c'est du cash paw, pour ça qu'j'ai nagé dans les marécages Joue pas les King-Kong, bim bim Si tu frappes comme à Hong-Kong, on t'arrache tout ton bling-bling J'enclenche le DRS, vous laisse en PLS, je rentre à la tess Wesh le S, y a les CRS, la guigne, guigne You might also like Passe-moi l'mic', j'en fais d'la rfissa, y a pas d'Vix, on met d'l'harissa J'aime plus trop les autres là, ils ont cru avoir tué Sidna Issa Depuis p'tits, déscolarisés, on a vite misé sur la résine Tu fais l'fou mais t'es la risée, shab, t'as des contacts au Brésil Mec, chez nous, t'inquiète, c'est précis, si on t'aime pas, personne t'apprécie 700 eu', c'est l'prix du pressing, imagine-toi celui du dressing Pour faire des papiers, t'inquiète pas que j'connais la r'cette À c'tte heure-ci, quand on parle de jet, c'est ni 31, ni 27 Gros, eh, bellek quand tu t'confies car les p'tites go donnent vite le go Faut d'la business, faut plus déco, marre d'charger les filles d'à té-cô Et ouais, ça y est, c'est l'Classico, des Marseillais, des Parigos Si si, dahwa tu nous nnais-co, on empile les liasses comme des Lego Les poursuites, les rafales, le bon shit, c'est nous À 200 avec les sangs sur l'périph', c'est nous Les mythos, les poukies montent dans des caisses ches-lou Une rafale dans ton corps, ça vise pas l'genou J'braque le game comme Ferrara, comprends pourquoi j'me fais ra-rare J'fumais la weed au volant, je disais que j'allais tout niquer, ils criaient ahah Vingt-cinq piges, j'avais le FeFe, j'traînais où y avait des rah, rah Du shit dans le bloc, des sous dans les couilles et le civ' qui monte, ça crie akha On porte pas d'couilles, pas de papa, on fume la moula, on prend pas de CC Wesh, ma cousine, j'veux le world pour celle qui m'a tout donné, j'parle de mama J'm'en rappelle d'cette année-là où ça volait des Ford Fiesta La rue, c'est paro, tu peux caner si tu mènes une vie d'gangsta Il est fou c'monde, ça jalouse quand tu fais d'l'avant Sur la moto avec Capo, tu es blanc quand on déboule à deux Et le soir tard, j'repense à avant, nique avant J'suis défoncé, j'ai mélangé le shit et la beuh j'ai mélangé le shit et la beuh T'as croisé ma ganache dans tous les quartiers d'Marseille à Paname On est respectés, la jalousie comme la musique, c'est haram Sors une mission comme Luciano Youzi vrai de vrai, j'suis comme DA Uzi, j'suis M'Ghetta au shit Faut pas qu'le rap nous bousille, Younès, Karim et Kassim, on a tous le même discours La violence et la misère, j'les vois partout comme le signe JuL Et quand la mif' souffle, on les shoote tous comme dans le film Chouf Boss de la rime sous vodka-rhum, j'suis saoul On a l'mental, le métal, le montant, le sens du détail On met ta life dans un état regrettable La putain d'ta ouais, étale pas tes états d'âme Faut choquer les bâtards, faut poser les Kalash', faut stopper les dramas Ils veulent la guerre ? Jvous attends, venez, tu vas t'affoler Besoin d'une bécane ? Wesh le J, sors le cross volé À la tienne, ma mère dans un jet, Houari Boumédiène J'ai l'sang chaud comme Ribéry, le sang chaud comme Boumediene Six heures pile, la police t'appelle, aux geôles, ils t'mettent à poil J'suis à Air-Bel, j'vais voir Alonzo, Avenue d'Saint-Antoine Depuis qu'papa n'est plus présent, j'ramène le fric à la maison Mister You, dis-leur, le sang, c'est la rue puis la prison Des frères qui perdent la raison pour un gros cul ou un réseau Découpe le shit sur du Niro, maman, t'avais raison La Kala' ou le Uzi ? Le milli' ou le fusil ? L'adhan ou la musique ? Kofs ou DA Uzi ? J'reviens de Cannes, on prend les prix, les médailles et les Oscars On prend les loves et on s'taille, Mode de vie Béton Style J'suis ici, j'suis là-bas, j'suis partout, MC, j'suis quelque part où ? Au milieu du peuple comme la putain d'Copa J't'emmerde, j'fais la même merde que Big Poppa ouh C'est l'grand classico, j'ai r'mis la paire d'Copa J'suis 1.3, dramatico comme à Mexico Tout pour la fama, illico, format hélico' prr Eh ouais, chico, que la plata, ça rend trop psycho Mais la r'traite, c'est pour Serpico, on sirote Tropico À l'horizon, tout rend paro, la loi d'la calle Si trahison a son tarot, ton nom sur l'cahier Âmes tiraillées, curs mitraillés mais pas ravitaillés Et s'tu nous vois enfourailler, faudra vite tailler uh Mauvais karma, tout l'monde mate ma... Tout ira mieux, Mañana, pardona me, mama non, non, non Jamais au-d'ssus du macadama, dans la tête, c'est l'Maracana Papier zik dans la banana, petits pas avec madama, on y va calma Eh, des kilomètres de bon-char, mes surs pleurent plus, maintenant ont rien Un cur de pierre, quart de siècle atteint, j'peux cartonner tous les soirs Grâce à la cellule, j'connais tous vos sons J'commence tout doux comme à Belleville ou à Cambrai J'sais bien qu'ces tes-traî m'attendront au virage, mode eh, j'vais le tuer On s'défend donc on attaque, tac, tac, tac J'fais du rap de pauvre ah, c'est Sevran, c'est l'9.3, donne-moi du temps et des loves 6.6.6, que Dieu nous épargne, c'est nous la calle J'suis des 3T, laisse-moi faire, je n'suis pas comme eux J'ai d'jà braqué pour pas win, on s'en vante pas, on n'invente pas J'suis gentil, souriant mais j'peux t'remplir J'ai cru qu'j'allais péter l'million cette année-là Mystère et suspense, jamais on sucera C'est Fonky, peu d'family, j'écoute pas trop leurs conseils C'est pas tout l'monde, c'est mon sang, j'attends la sortie d'mon zeuzeu Les poursuites, les rafales, le bon shit, c'est nous À 200 avec les sangs sur l'périph', c'est nous Les mythos, les poukies montent dans des caisses ches-lou Une rafale dans ton corps, ça vise pas l'genou</t>
+          <t>Mehsah à la prod Mehsah à la prod, Mehsah à la prod J'sais qu'la musique, c'est comme la drogue tout ça, ça dure qu'un temps À chaque contrat, j'leur prends trois millions, fils de p', j'ai pas vingt ans Ça fait longtemps qu'j'compte plus mon oseille, pourtant, je paye comptant Ça fait longtemps, poto, qu'j'suis plus content, qu'j'ai pas compté le temps Autant le dire je braque depuis les francs, j'ai dormi sur les bancs Pourquoi mentir ? Avant d'être un capo, j'ai gravi tous les rangs P'tit embêtant, sur moi, j'ai l'pétard et j'roule sur un deux temps Il faut d'l'argent quand ta vie en dépend, tu tombes dans tous les plans C'est ta meuf qui va t'baiser ou c'est ton reuf qui va t'carotte J'ai fait des choses, du haut d'mes quinze ans, j'en paraissais quarante La vie est belle mais courte, alors, j'me sers d'elle Joue pas au con, la mort est certaine Yeah, dios mio amore mio Les microbes ont pris un tournant sans mettre de cligno' C'est chacun sa mère et Dieu pour tous, amore mio Dramatique musique, la muerte vient pas de Rio J'te joue pas de vice pah, quartiers Nord à risques pah, nique ses morts le fisc rah C'est soit des détonations de M16 ou vendre des disques 9 milli', ça te fuma pour le mili' Personne se réconcilie et que ça t'humilie Nan, j'suis un ancien comme les points morts aux vaches, le pollen, pas la mache ouais Tu sais qu'j'm'en bats la race, j'rappe à l'arrache rah Tu sais qu'j'm'en bats la race, j'rappe à l'arrache rah C'que j'veux faire, c'est du cash paw, pour ça qu'j'ai nagé dans les marécages Joue pas les King-Kong, bim bim Si tu frappes comme à Hong-Kong, on t'arrache tout ton bling-bling J'enclenche le DRS, vous laisse en PLS, je rentre à la tess Wesh le S, y a les CRS, la guigne, guigne Passe-moi l'mic', j'en fais d'la rfissa, y a pas d'Vix, on met d'l'harissa J'aime plus trop les autres là, ils ont cru avoir tué Sidna Issa Depuis p'tits, déscolarisés, on a vite misé sur la résine Tu fais l'fou mais t'es la risée, shab, t'as des contacts au Brésil Mec, chez nous, t'inquiète, c'est précis, si on t'aime pas, personne t'apprécie 700 eu', c'est l'prix du pressing, imagine-toi celui du dressing Pour faire des papiers, t'inquiète pas que j'connais la r'cette À c'tte heure-ci, quand on parle de jet, c'est ni 31, ni 27 Gros, eh, bellek quand tu t'confies car les p'tites go donnent vite le go Faut d'la business, faut plus déco, marre d'charger les filles d'à té-cô Et ouais, ça y est, c'est l'Classico, des Marseillais, des Parigos Si si, dahwa tu nous nnais-co, on empile les liasses comme des Lego Les poursuites, les rafales, le bon shit, c'est nous À 200 avec les sangs sur l'périph', c'est nous Les mythos, les poukies montent dans des caisses ches-lou Une rafale dans ton corps, ça vise pas l'genou J'braque le game comme Ferrara, comprends pourquoi j'me fais ra-rare J'fumais la weed au volant, je disais que j'allais tout niquer, ils criaient ahah Vingt-cinq piges, j'avais le FeFe, j'traînais où y avait des rah, rah Du shit dans le bloc, des sous dans les couilles et le civ' qui monte, ça crie akha On porte pas d'couilles, pas de papa, on fume la moula, on prend pas de CC Wesh, ma cousine, j'veux le world pour celle qui m'a tout donné, j'parle de mama J'm'en rappelle d'cette année-là où ça volait des Ford Fiesta La rue, c'est paro, tu peux caner si tu mènes une vie d'gangsta Il est fou c'monde, ça jalouse quand tu fais d'l'avant Sur la moto avec Capo, tu es blanc quand on déboule à deux Et le soir tard, j'repense à avant, nique avant J'suis défoncé, j'ai mélangé le shit et la beuh j'ai mélangé le shit et la beuh T'as croisé ma ganache dans tous les quartiers d'Marseille à Paname On est respectés, la jalousie comme la musique, c'est haram Sors une mission comme Luciano Youzi vrai de vrai, j'suis comme DA Uzi, j'suis M'Ghetta au shit Faut pas qu'le rap nous bousille, Younès, Karim et Kassim, on a tous le même discours La violence et la misère, j'les vois partout comme le signe JuL Et quand la mif' souffle, on les shoote tous comme dans le film Chouf Boss de la rime sous vodka-rhum, j'suis saoul On a l'mental, le métal, le montant, le sens du détail On met ta life dans un état regrettable La putain d'ta ouais, étale pas tes états d'âme Faut choquer les bâtards, faut poser les Kalash', faut stopper les dramas Ils veulent la guerre ? Jvous attends, venez, tu vas t'affoler Besoin d'une bécane ? Wesh le J, sors le cross volé À la tienne, ma mère dans un jet, Houari Boumédiène J'ai l'sang chaud comme Ribéry, le sang chaud comme Boumediene Six heures pile, la police t'appelle, aux geôles, ils t'mettent à poil J'suis à Air-Bel, j'vais voir Alonzo, Avenue d'Saint-Antoine Depuis qu'papa n'est plus présent, j'ramène le fric à la maison Mister You, dis-leur, le sang, c'est la rue puis la prison Des frères qui perdent la raison pour un gros cul ou un réseau Découpe le shit sur du Niro, maman, t'avais raison La Kala' ou le Uzi ? Le milli' ou le fusil ? L'adhan ou la musique ? Kofs ou DA Uzi ? J'reviens de Cannes, on prend les prix, les médailles et les Oscars On prend les loves et on s'taille, Mode de vie Béton Style J'suis ici, j'suis là-bas, j'suis partout, MC, j'suis quelque part où ? Au milieu du peuple comme la putain d'Copa J't'emmerde, j'fais la même merde que Big Poppa ouh C'est l'grand classico, j'ai r'mis la paire d'Copa J'suis 1.3, dramatico comme à Mexico Tout pour la fama, illico, format hélico' prr Eh ouais, chico, que la plata, ça rend trop psycho Mais la r'traite, c'est pour Serpico, on sirote Tropico À l'horizon, tout rend paro, la loi d'la calle Si trahison a son tarot, ton nom sur l'cahier Âmes tiraillées, curs mitraillés mais pas ravitaillés Et s'tu nous vois enfourailler, faudra vite tailler uh Mauvais karma, tout l'monde mate ma... Tout ira mieux, Mañana, pardona me, mama non, non, non Jamais au-d'ssus du macadama, dans la tête, c'est l'Maracana Papier zik dans la banana, petits pas avec madama, on y va calma Eh, des kilomètres de bon-char, mes surs pleurent plus, maintenant ont rien Un cur de pierre, quart de siècle atteint, j'peux cartonner tous les soirs Grâce à la cellule, j'connais tous vos sons J'commence tout doux comme à Belleville ou à Cambrai J'sais bien qu'ces tes-traî m'attendront au virage, mode eh, j'vais le tuer On s'défend donc on attaque, tac, tac, tac J'fais du rap de pauvre ah, c'est Sevran, c'est l'9.3, donne-moi du temps et des loves 6.6.6, que Dieu nous épargne, c'est nous la calle J'suis des 3T, laisse-moi faire, je n'suis pas comme eux J'ai d'jà braqué pour pas win, on s'en vante pas, on n'invente pas J'suis gentil, souriant mais j'peux t'remplir J'ai cru qu'j'allais péter l'million cette année-là Mystère et suspense, jamais on sucera C'est Fonky, peu d'family, j'écoute pas trop leurs conseils C'est pas tout l'monde, c'est mon sang, j'attends la sortie d'mon zeuzeu Les poursuites, les rafales, le bon shit, c'est nous À 200 avec les sangs sur l'périph', c'est nous Les mythos, les poukies montent dans des caisses ches-lou Une rafale dans ton corps, ça vise pas l'genou</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga Le taux de suicide augmente, mais est-ce pour ça que le métro tarde ? Je rétrograde car faut quon me suive mais pour lescargot cest trop tard Comment faire pour avancer quand dans tes roues y a des troncs darbres Des histoires de grammes ou bien des affaires de litrons darmes Crois pas que tu rames comme Lilian quand ta le ze-bla dun étranger Tes pas fait pour le commandement non toi tes que fait pour les tranchées Tes pas français tu te crois où whoa? Tu crois que cest pour ton père quon bouge ! Cest pas toi le grand méchant loup mec toi tes que le chaperon rouge Je te le répète petit frère perds pas ton temps avec les garces Tu croyais être la fève de la galette mais en fait tes que le dindon de la farce En vrai tes comme un agneau livré à lui-même dans une forêt Il a fait le malin Ze pequeño, il a fini entièrement perforé Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga You might also like Lan 2000 nest pas passé dans notre calendrier lunaire Donc à Paris cest lâge de pierre, mets pas de citron dans ta cuillère Ok, soit bonhomme sur le beat, on t'a rien dit de spectaculaire Les mecs comme moi arrivent en bolide, ils repartent en car cellulaire Quand cest la merde on dort sur le ter-ter, demande a black sa Ouais on se fout de la gueule de keufs quand les tit-pe leurs font des blagues sales C'est vrai que je suis cromé que je suis galbé comme le petit Younis Mais je nique la mère à ta re-mé je la prends et je la dépose a Toulouse Pour trouvé l'inspi beh pas besoins d'une guitare Nan! Je repense a la hass quand je freestylais au mitard Quand j'étais dans la merde et qu'y avait personne derrière oim Donc a cette heure-ci ça me fait plaisir d'être reconnu en tant que number 1 Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga Demande à Chabrulet on mélange pas le sky et le chardonnay Petit pour monté sur le toit c'est pas au rez de chaussée qu'il faut charbonner Mec les plus mal chaussés c'est pas forcément les cordonniers Maintenant j'espère que tu sais qu'il faut du temps pour pardonner Le meilleur conseil que je puisse donner à tous les petits c'est bon courage Et ils comprendront à un certain âge qui faut pas se fier a son entourage Moins t'as de potes et mieux tu te porte, conseil évite les confidences Le Portable c'est qu'une balance quand tu blablate les keufs ils dansent C'est Mister You sur une instru d'E-rise Joue pas le fou avec les ti-pe si tu veux pas qu'il t'allume ta race Eh ouais, les petits de chez moi beh sur La Mecque c'est des galères Si aujourd'hui tu joues le croma Mec, demain ils te niqueront ta mère Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga1</t>
+          <t>Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga Le taux de suicide augmente, mais est-ce pour ça que le métro tarde ? Je rétrograde car faut quon me suive mais pour lescargot cest trop tard Comment faire pour avancer quand dans tes roues y a des troncs darbres Des histoires de grammes ou bien des affaires de litrons darmes Crois pas que tu rames comme Lilian quand ta le ze-bla dun étranger Tes pas fait pour le commandement non toi tes que fait pour les tranchées Tes pas français tu te crois où whoa? Tu crois que cest pour ton père quon bouge ! Cest pas toi le grand méchant loup mec toi tes que le chaperon rouge Je te le répète petit frère perds pas ton temps avec les garces Tu croyais être la fève de la galette mais en fait tes que le dindon de la farce En vrai tes comme un agneau livré à lui-même dans une forêt Il a fait le malin Ze pequeño, il a fini entièrement perforé Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga Lan 2000 nest pas passé dans notre calendrier lunaire Donc à Paris cest lâge de pierre, mets pas de citron dans ta cuillère Ok, soit bonhomme sur le beat, on t'a rien dit de spectaculaire Les mecs comme moi arrivent en bolide, ils repartent en car cellulaire Quand cest la merde on dort sur le ter-ter, demande a black sa Ouais on se fout de la gueule de keufs quand les tit-pe leurs font des blagues sales C'est vrai que je suis cromé que je suis galbé comme le petit Younis Mais je nique la mère à ta re-mé je la prends et je la dépose a Toulouse Pour trouvé l'inspi beh pas besoins d'une guitare Nan! Je repense a la hass quand je freestylais au mitard Quand j'étais dans la merde et qu'y avait personne derrière oim Donc a cette heure-ci ça me fait plaisir d'être reconnu en tant que number 1 Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga Demande à Chabrulet on mélange pas le sky et le chardonnay Petit pour monté sur le toit c'est pas au rez de chaussée qu'il faut charbonner Mec les plus mal chaussés c'est pas forcément les cordonniers Maintenant j'espère que tu sais qu'il faut du temps pour pardonner Le meilleur conseil que je puisse donner à tous les petits c'est bon courage Et ils comprendront à un certain âge qui faut pas se fier a son entourage Moins t'as de potes et mieux tu te porte, conseil évite les confidences Le Portable c'est qu'une balance quand tu blablate les keufs ils dansent C'est Mister You sur une instru d'E-rise Joue pas le fou avec les ti-pe si tu veux pas qu'il t'allume ta race Eh ouais, les petits de chez moi beh sur La Mecque c'est des galères Si aujourd'hui tu joues le croma Mec, demain ils te niqueront ta mère Une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga C'est une génération qui fuck tout et qui fout la merde Yeah, yeah, yeah, yeah Les p'tits d'chez moi, ils bicravent tous du taga, Ils crient tous Paris cest magique, Paris c'est Zoogataga1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ah Woogataga Jugni Ji J'voudrais m's'excuser j'fais un bitches Jugni Ji Ana shriki j'ai prit un cheese Jugni Ji Hey ce soir on va s'asseoir Jugni Ji Paris Oran New York C'est DJ Kayz et Mister You Sophia De Paris Oran New York You De Marrakech à Bollywood Casanegra, Boys in the hood Jugni Ji Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji C'est 2015, ok, j'peux commencer à me la raconter Ils savent tous que jsuis coté Dieu seul sait ce que jai de coté Big up à tous mes frères toujours en train de traficoter Le comble pour un blindé cest de pas savoir sur qui compter Jsuis en colloc avec moi-même Là dans ma tête jsais pas ce qui se passe Jai bu trois verre jsuis faya, jquitte la terre, jrejoins lespace Ceux qui m'boycottent jlève mon majeur jprends un selfie jleur dédicace Moi à cette heure-ci jsuis sur la piste et aux platines cest DJ Kayz Jugni taar khaeein vich thaaley Jugni taar khaeein vich thaaley Chad duniya dey janjaal Chad duniya dey janjaal Jugni taar khaeein vich thaaley Chad duniya dey janjaal Kuch ni nibna bandiya naal Rakhi saabat sidh amaal J'suis sur Facebook et sur Snapchat Jugni Ji J'suis en ami avec Natacha Jugni Ji Ce qu'elle kiff c'est les chichas Jugni Ji Avec Aicha Kandisha Jugni Ji You might also like Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji Jugni dig payee vich roi Jugni dig payee vich roi Othay ro ro kamli hoi Othay ro ro kamli hoi Dum gutkoon, dum gutkoon, dum gutkoon Dum gootkun, dum gutkoon, dum gutkoon Dum gutkoon, gutkoon, gutkoon Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji J'suis vers New Delhi, j'mange un tandoori Dehwah jrepense à Paris et à son vieux temps pourri Jme fais masser, jfais bronzette toute laprès midi Jgoûte toutes sortes de cocktails fraise, vodka, litchi Bref, pour lmoment si jinvestis cest pour la Maman Jai pas trop le temps donc svous plait, parlez à ma montre Ce soir, jchauffe tout le monde, même Gandhi j'le pousse à bout On s'croirait dans Les Simpson lépicier, j'lappelle Apu Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji Hey DJ Kayz Jugni Ji Hey Sophia Jugni Ji Hey Mister You Jugni Ji Hey Docteur Zeus Jugni Ji Hey Juston Records Jugni Ji8</t>
+          <t>Ah Woogataga Jugni Ji J'voudrais m's'excuser j'fais un bitches Jugni Ji Ana shriki j'ai prit un cheese Jugni Ji Hey ce soir on va s'asseoir Jugni Ji Paris Oran New York C'est DJ Kayz et Mister You Sophia De Paris Oran New York You De Marrakech à Bollywood Casanegra, Boys in the hood Jugni Ji Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji C'est 2015, ok, j'peux commencer à me la raconter Ils savent tous que jsuis coté Dieu seul sait ce que jai de coté Big up à tous mes frères toujours en train de traficoter Le comble pour un blindé cest de pas savoir sur qui compter Jsuis en colloc avec moi-même Là dans ma tête jsais pas ce qui se passe Jai bu trois verre jsuis faya, jquitte la terre, jrejoins lespace Ceux qui m'boycottent jlève mon majeur jprends un selfie jleur dédicace Moi à cette heure-ci jsuis sur la piste et aux platines cest DJ Kayz Jugni taar khaeein vich thaaley Jugni taar khaeein vich thaaley Chad duniya dey janjaal Chad duniya dey janjaal Jugni taar khaeein vich thaaley Chad duniya dey janjaal Kuch ni nibna bandiya naal Rakhi saabat sidh amaal J'suis sur Facebook et sur Snapchat Jugni Ji J'suis en ami avec Natacha Jugni Ji Ce qu'elle kiff c'est les chichas Jugni Ji Avec Aicha Kandisha Jugni Ji Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji Jugni dig payee vich roi Jugni dig payee vich roi Othay ro ro kamli hoi Othay ro ro kamli hoi Dum gutkoon, dum gutkoon, dum gutkoon Dum gootkun, dum gutkoon, dum gutkoon Dum gutkoon, gutkoon, gutkoon Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji J'suis vers New Delhi, j'mange un tandoori Dehwah jrepense à Paris et à son vieux temps pourri Jme fais masser, jfais bronzette toute laprès midi Jgoûte toutes sortes de cocktails fraise, vodka, litchi Bref, pour lmoment si jinvestis cest pour la Maman Jai pas trop le temps donc svous plait, parlez à ma montre Ce soir, jchauffe tout le monde, même Gandhi j'le pousse à bout On s'croirait dans Les Simpson lépicier, j'lappelle Apu Ae ve Allah waleya, jugni ji Ae ve Allah waleya, jugni ji Ae way navey pir di, jugni ji Ae way navey pir di, jugni ji Ae way maula Ali wali, jugni ji Ae way maula Ali wali, jugni ji Ae way meray pir di jugni ji Ae way meray pir di jugni ji Hey DJ Kayz Jugni Ji Hey Sophia Jugni Ji Hey Mister You Jugni Ji Hey Docteur Zeus Jugni Ji Hey Juston Records Jugni Ji8</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hey mister bartender, mix me a drink I really need something to tell me it's okay not to think Because I've been to all these bars and I've seen all these places I've hit on all these girls, I've heard the same conversations Cab driver, cab driver, take me away 'Cause I already know all the words that she'll say And I'll be creeping out the window at the first sight of day 'Cause every single night it seems to go the same way I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu Mister bartender, you will kick me out And the blond girl in the back, you'll put your tongue down my mouth And the greaser in the jacket's gonna pick a fight And they'll probably kick my ass 'cause I'm drunk every night Officer, officer, tell me the truth How many times can I get in trouble with you Before they lock me up for all the bad things that I do? But you don't and that's why this feels like déjà vu You might also like I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I did it like this I did it like that And it always comes back around I don't know how to break this pattern down I did it like this I did it like that And it always comes back around I don't know how to break this pattern down I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu2</t>
+          <t>Hey mister bartender, mix me a drink I really need something to tell me it's okay not to think Because I've been to all these bars and I've seen all these places I've hit on all these girls, I've heard the same conversations Cab driver, cab driver, take me away 'Cause I already know all the words that she'll say And I'll be creeping out the window at the first sight of day 'Cause every single night it seems to go the same way I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu Mister bartender, you will kick me out And the blond girl in the back, you'll put your tongue down my mouth And the greaser in the jacket's gonna pick a fight And they'll probably kick my ass 'cause I'm drunk every night Officer, officer, tell me the truth How many times can I get in trouble with you Before they lock me up for all the bad things that I do? But you don't and that's why this feels like déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I did it like this I did it like that And it always comes back around I don't know how to break this pattern down I did it like this I did it like that And it always comes back around I don't know how to break this pattern down I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu I think I've been here before I think I've run into you I know the things that you do 'Cause this is déjà vu woah This is déjà vu woah This is déjà vu2</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un bâtard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans leur cul puis Ils n'ont fait que m'pister car pour me sauter fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veut test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser, on regrette Tony et petit Zé D'une balle on peut t'viser après avoir sympathisé Petit c'est, tranchant si, si comme un coup d'couteau C'est bouillant comme un toto poto, c'est clair comme une goutte d'eau Qu'les p'tits oiseaux dans l'ghetto, ils bé-tom avant d'savoir voler Parce qu'ils s'achètent un pistolet pour plus vite se rafistoler Pédé si tu sais sucer ben personne pourra t'pistonner Jadis c'était sur 6 maintenant sur 24, piste on est Sous haute tension, Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous, nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sait pas danser le zouk par contre on sait frotter les cavus On sait chiner une pute sans lui payer ce qu'elle veut On fait un vu que d'vant un oint-j à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portefeuilles On va au charbon quand y'a foye, dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone, au 36 ils raffolent Voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacances et nage avec Le me-seu c'est ma navette, la ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie Dieu, j'remercie m'man Car j'suis né en ce-Fran mais je ne suis pas un autochtone Putain d'poissard aux arrivants un mois d'octobre J'mérite le brassard tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à bersa J'roule un perso, je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaut mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse, Marvin avec Younes Le coup droit d'la coupe, barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe, le singe descend de l'arbre C'est pour ça qu'j'kiffe l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du Coca chaud Hey mutchatcho, Shriki once quarenta y tres Big up Chérif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace à Nos mère pleurent, les lits sont vides dans nos chambres On compte sur l'Seigneur, nos deux bras, nos trois jambes La rue la son-pri ses rasoirs à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y'a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavons aimeraient avoir ce que nous avons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au Quai d'l'a Rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Si si on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maques moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rait Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison, Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou À quiconque voudrait parier ben ça d'vrait lui couter ses sous Pour Lassana Diarra ben on pourrait ligoter Zizou J'mérite pas d'bisou, j'm'en fous j'sors du zoo J'éclate les ondes, j'éclaire les ombres j'rappe quatre saisons J'vend du crack des tazoo, j'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la basons Dehors ça vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de ce qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouches depuis qu'tous les chemins mènent à Zou J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier, Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier ? Moral en béton quand on bé-tom y'a pas d'brancardier Ça sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le mac Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure j'cause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre Et qui fait l'écoute du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veut m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchska et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics You might also like Be-bebebe-bebebe-bebebe-Belleville ! Attention, c'est Mister You, gros Ah, Woogataga La rue puis la prison, gros Belleville, 11ème, 19ème4</t>
+          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un bâtard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans leur cul puis Ils n'ont fait que m'pister car pour me sauter fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veut test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser, on regrette Tony et petit Zé D'une balle on peut t'viser après avoir sympathisé Petit c'est, tranchant si, si comme un coup d'couteau C'est bouillant comme un toto poto, c'est clair comme une goutte d'eau Qu'les p'tits oiseaux dans l'ghetto, ils bé-tom avant d'savoir voler Parce qu'ils s'achètent un pistolet pour plus vite se rafistoler Pédé si tu sais sucer ben personne pourra t'pistonner Jadis c'était sur 6 maintenant sur 24, piste on est Sous haute tension, Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous, nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sait pas danser le zouk par contre on sait frotter les cavus On sait chiner une pute sans lui payer ce qu'elle veut On fait un vu que d'vant un oint-j à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portefeuilles On va au charbon quand y'a foye, dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone, au 36 ils raffolent Voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacances et nage avec Le me-seu c'est ma navette, la ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie Dieu, j'remercie m'man Car j'suis né en ce-Fran mais je ne suis pas un autochtone Putain d'poissard aux arrivants un mois d'octobre J'mérite le brassard tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à bersa J'roule un perso, je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaut mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse, Marvin avec Younes Le coup droit d'la coupe, barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe, le singe descend de l'arbre C'est pour ça qu'j'kiffe l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du Coca chaud Hey mutchatcho, Shriki once quarenta y tres Big up Chérif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace à Nos mère pleurent, les lits sont vides dans nos chambres On compte sur l'Seigneur, nos deux bras, nos trois jambes La rue la son-pri ses rasoirs à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y'a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavons aimeraient avoir ce que nous avons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au Quai d'l'a Rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Si si on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maques moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rait Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison, Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou À quiconque voudrait parier ben ça d'vrait lui couter ses sous Pour Lassana Diarra ben on pourrait ligoter Zizou J'mérite pas d'bisou, j'm'en fous j'sors du zoo J'éclate les ondes, j'éclaire les ombres j'rappe quatre saisons J'vend du crack des tazoo, j'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la basons Dehors ça vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de ce qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouches depuis qu'tous les chemins mènent à Zou J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier, Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier ? Moral en béton quand on bé-tom y'a pas d'brancardier Ça sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le mac Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure j'cause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre Et qui fait l'écoute du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veut m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchska et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puhska et allons tous chasser les flics Be-bebebe-bebebe-bebebe-Belleville ! Attention, c'est Mister You, gros Ah, Woogataga La rue puis la prison, gros Belleville, 11ème, 19ème4</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>J'suis dans mon quartier, j'galère, j'regarde en l'air J'suis en train d'cogiter, j'suis défoncé sa mère J'arrive chargé, comme une porteuse à Tanger Après mon passage, ou t'es refait ou bien il te reste plus grand chose à manger J'roule un sdeh pour me percher, rejoindre l'étoile du Berger C'est plus des couilles que j'ai, eh non, c'est des gros ufs de Fabergé J'suis overbooké, ok zoogataga J'ai appris une chose chez Ruquier, c'est le mot rutabaga J'rêve que d'pouvoir, et comme vous avez pu le voir Bah le rap français c'est pas vraiment l'truc tah Audrey Pulvar Mon point commun avec Natacha c'est mes chicos d'devant Que moi-même sans mes 32 dents, j'leur faisais du rentre-dedans Ouais, bien sûr que l'avenir est inquiétant Pour des barrettes, ils nous mettent 8 ans, wesh, monsieur le président Dites leur bien que j'représente les 3arbis et les niggas Moi, j'suis plus riche qu'eux, donc pourquoi j'irai fouiller leurs caisses Eux, ils sont en pleine crise, moi j'suis en plein dans les 30 glorieuses Mais j'sais que ma liberté bah, vaut pas grand chose à leur yeuz Demande à Lacrim quand j'étais à l'école, c'était pour gratter les remises de peine Du dispatching au disque d'platine, de la fiche de recherche à la fiche de paye J'ai pété tous les barrages, mais j'n'ai jamais été odieux Comment idolâtrer la vache, quand l'univers est à Dieu Dites leur bien que, m'en bats les couilles de leur baratin Que là j'suis en promenade, 3ème tour, khapta dans un bar à tinp' Nique l'État, ces chmatas, ils rêvent que de nous mettre dans la de-mer J'vais m'branler et même cracher sur leur putain de système de merde Woogata ekh tfou, rap tah les fous Qui préfèrent s'acheter une Rafleuse que d'faire du kung-fu La Mecque, j'suis d'ceux qui se baissent et qui toussent, mec, Allah yaafo J't'ai déjà dis, nous on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophile pour des histoires de barrettes Autant vendre de la cocaïne, butez-nous pour qu'on s'arrête Les 3ineurs montrent pas l'il, dites-leur de niquer leur mère les chouettes Moi, m'occupe de la vodka, woogataga gardez la Schweppes Hey, d'après mon entourage, moi, j'reste un brave J'reste un vrai, c'est pour ça qu'il m'encourage Après la pluie, y a pas le beau temps, y a l'orage C'est vrai que les petits sont hardcore, on était pareil à leur âge À deux sur un scooter on vivait que de vol à l'arrach' Puis on a connu la crave-bi et on a vite tourné la page On s'est mis à couper des barrettes, ensuite à vendre des plaquettes Puis d'la coke et des galettes, jusqu'à ce que les keufs nous arrêtent Un jour j'étais dans le 19, l'lendemain un hessess fermait ma porte Un soir j'étais avec une meuf, l'lendemain elle était avec mon pote La vie c'est dur, pas de peine nous tout ce qu'on porte c'est des flingues Et y a pas de vice de procédure gros c'est la loi de la jungle C'est pas d'ma faute, darwa, j'crois bien que j'suis taré d'naissance J'me reconnais pas moi-même des fois j'suis ravi de faire ma connaissance Et quand je pars au shtar, bah t'inquiète pas que j'reçois des mandats Et j'ai toujours la frappe, tah Hollanda et tah Belhanda J'suis khapta, zoogataga sous ma véranda J'glisse mes doigts dans les cheveux tah Esméralda J'emmerde l'État, j'emmerde les stups, j'emmerde les gendarmes Trafiquant de rimes, trafiquant d'stups ou trafiquant d'armes Je suis, comment vous dites ? Paranoïaque ! Ouais J'm'en bat les yeuks, madame la juge, baraneyek ! Ytiyyeh sa3dek ! J'te l'avais dit que j'avais des projets Là, j'graille des brochettes, j'insulte ta mère et j'touche des gros chèques M'achète des trucs qui valent cher, rien qu'avant hier J'me suis acheté 3-4 t-shirt, j'ai dépensé ton salaire J'me suis roulé un gros sdeh, puis j'ai repensé à la misère À cet été, à cet hiver, Alicante ou au Val-d'Isère Au mitard tah la Santé, les promenades en camembert Au mitard tah Fleury, j'revois les toilettes, j'me dis beurk ! Ah les bâtards, comment ils ont pu me faire ça ? Ils me l'ont mise, j'leur ai remise woogata vice et versa Ya zzeh, obligé de se faire remarquer Obligé de se faire embarquer, déféré au parquet Direction les grillages, bon, trêve d'enfantillage Yeah, I speak a little English, motherfucking biatch ! Weld lqahba, what you gonna do? Ok, j'continue tout doux, j're-big up le rott' Mamadou Yoogata yoogata gangz to gangz Ouais, tu connais la musique, celui qui veut me test, j'le baise You might also like Ban-ban-bandit j'fait que du propre, j'effectue les sales tâches Ça sert à quoi de jouer le pirate, si pas à l'abordage Ils dopent en dopant, co on t'laisse le dos en deux On est nous-mêmes en paix exorcistes avec un joint d'beuh Tous les soirs j'dégrise, nos combines se développent Mais des fois les quis' débarquent et dans les comptes ça fait des flops Du crime ouais y'a la crème, Sta-ive c'est du vécu Mon gros, chez moi le sang s'est vidé à cause du manque d'écus Pas de ces collabos, que t'achètes avec alcool et abus De plus, j'baise ces nabots qui croient contrôler la rue Les yeux cernés au poste, menotté à des barreaux de chaise J'rêve d'Îles Vierges m'en fumer avec des barreaux de chaises La nuit j'dors mal, éternellement tourmenté En pensant que j'vais prendre cher si les keufs arrivent à tout remonter Ceux qui sèment le vent, récolte du ons dans le ventre A-L, futur ex-braqueur reconverti dans la vente J'aimerais partir tranquille, les pieds d'vant Un monde de fils de pute, j'suis obligé de vendre Ah bon ? Ça suffit pas alors on braque sa mère M'en voulais pas dans le rap y'a trop de zamels 3 quart, belle coupe, chico cassé La vie c'est speed même mon ombre veut me dépasser Oh, le sky est classé, j'suis chaud Menacer ne sert à rien, j't'envoie 2-3 balles l'affaire est classé Ramassé du biff, voilà dans quoi j'me suis perdu J'sais c'que c'est d'avoir la dalle, j'en connais ces vertus Hyper dur, fréquentation malsaine Chiale pas sur mon sort, tu sais qu'ici personne nous accepte On connait le respect, les valeurs et les principes T'es le plus grand des hommes si tu te lèves pour bosser à Rungis Malheureusement pas mon cas, au fond de moi je les envie Nos vies, c'est faire du biff, mais resté en vie Donc faut marcher armé, puis avoir la trique Aujourd'hui t'allumes demain t'es complètement matrixé C'est la vie du western, la vie d'moi j'suis réel La tranquillité frérot est bloquée dans mes rêves Impossible de l'avoir, je ne prends jamais de Mais Belek au feu le couz si tu mets trop de bois Beaucoup de salopes font les voyous, wallah que c'est pas une fierté Dis-moi qui sera là le jour ou t'auras vraiment merdé J'ai l'orgueil d'un bébé, je m'énerve et je pète tout J'assume les conséquences khey dans mes bras je prend le mektoub Oui j'aime pas les poulets et je f'rais recette sans eux Une impression même jaloux de ma paire à 700E Ils m'inventent des vies, le mythe ils veulent casser Hum j'en ai assez, les traquer, les chlasser Quand j'allais tu revenais, dans ta tête ça ne rentre pas Je le ferai tout les jours, je compte l'oseille me dérange pas Bien sur qu'on s'est fait tout seul, je sais très bien que tu sais J'ai braqué des bijouteries quand les autres allaient sucer Sans t'manquer de respect, dans l'rap dis-moi ce qui est facile Frérot on viens de la rue c'est des filles faciles J'ai roulé ma bosse, j'en ai marre d'bouffer d'la merde Coup d'crosse, la vie t'assomme pire qu'un joint d'herbe Tout c'qu'on a, on finit par l'perdre Étoile de mer, dix mille kilomètres, perdu sur la lune verte J'suis tellement loin des je veux être Berrad d'atay, j'allume un jaabouq à la fenêtre T'es dans l'paraître, moi j'veux disparaître Les kheys passent au dispatching, une mère qui pleure c'est la faute d'un traître Y'a plus qu'des bras cassés dis-moi à qui serrer les coudes ? Six pieds sous terre, quand j'me ferai bouffer par l'doud Noyé dans l'doute, j'suis toujours dans l'hood Les yeux rouges, Wydad Casanegra j'suis pas un Blood Passe-moi des feuilles, c'soir j'fume mes dernières illusions Sers-moi un verre que j'tourne cette tragédie en dérision 11.43, mortuaire sera la saison Maintenant j'marche avec des rétros, dis-moi qui va m'sauter l'caisson Y'a, y'a, y'a plus d'rage que d'la fashionnerie J'enterre l'espoir dans un parloir à Fleury Ghetto youth langage, du whisky, les chicots pourries Bonbon sauvage, 0.4 khoya souris Heh-hep-pep, Dieu seul est maitre de ma destinée Moi j'me verrais bien à La Mecque avec mes rents-pa et ma dulcinée La vie c'est pas un clip ni du ciné ou une bande dessinée On va peut-être finir à Clairvaux, on va peut-être s'faire assassiner C'est clair gros qu'on peut tout perdre sur un coup d'ker-po J'te parle d'une boite où pour rentrer y'a même pas besoin d'se faire beau Le cercle est vicieux bienvenue dans le cerceau Quand j'ai fêté mes 16 ans c'est pas du plomb que j'avais dans le cerveau J'ai 28 ans, j'habite dans l'zoo, je m'appelle Hédi Chabar J'veux réussir, j'veux m'en sortir depuis que j'suis tout petit je chabarde J'ai bicrave, j'ai fais plein d'conneries dont j'suis pas du tout fier Comme les aller-retours à Fleury pour battre le fer faut du fer Pour faire du flouze faut du flouze, des couilles et d'la gamberge Surtout quand t'es seul contre tous y'a personne pour te tendre la perche Moi, hamdullah, j'suis pas comme ça, j'préfère aider mon prochain Car j'sais que Dieu me l'rendra ici bas ou dans un monde prochain Howa yaalem b kolchi, hata tkoun labes Gucci Lmout tjik w teddik, tedderbek kima lfuchi J'arrive dans l'game avec You pour écraser tous ces chiens Même s'ils sont plein, on les baise tous kalachnikov à la main Ça va péter dans l'quartier, dans tous les ghettos d'France Ayet lkursi, 11.43 pour me souhaiter bonne chance M'en bats les couilles de c'que tu penses, depuis ma tendre enfance J'laisse la concurrence en transe, lourde sera la sentence Brulux on the flux toujours dans les bacs Hier, ils m'boycottaient, maintenant, ils veulent faire mes backs Prochain clip, j'appelle Fredo, il m'prépare le Maybach Cette fois-ci, j'ferai pas l'gamin, promis, j'cacherai tes plaques Ils m'ont pris pour une blague, des mesures, il m'en reste quatre Pour ma mère, j'veux du 2.4, pour moi qamis, un RS4 Dédicace l'Algérie, le Maroc, la Tunisie Faudra bientôt retourner chez nous car y a trop d'crapules ici Parce que tu manges du lion l'matin devant moi tu veux rugir Approche j'te mets une claque de roumain, tu vas rougir Plus tu vas monter, plus les rumeurs vont surgir Personne n'est au-dessus d'personne, écoute bien tout c'que j'vais te dire Tout ce qui est autour de moi, j'vais te l'exposer La j'pète les plombs j'ai retiré la goupille, j'vais exploser À ma droite, les frères muz débarquent pour nous faire des rappels Par la gauche, y en a qui vesqui s'hab quelqu'un les appelle En primaire j'te frappais ouai j'me prenais pour l'king À 10 ans au comico voiture péta dans un parking Le quartier c'est une plaque tournante, ça défouraille de partout Dans mon escalier j'tombe sur un sac remplis d'billets j'garde tout Assis sur un banc toute la journée ça bibi Dans les bois ça fait bep-bep ou cric-cric bim bim ! Au collège, lycée v'là les bagarres, boy, j'casse des dents Avec Oxmo ou pas leurs uppercuts te rentre dedans On sait que la police nous surveille mais elle ne sait pas tout Les malins savent très bien que l'argent ne fait pas tout On a des avocats mais ils n'arrangent pas tout Les médecins sont la mais il ne soignent pas tout Pas de chance cette nuit la juge s'est fait mal baiser Donc forcément des chance d'être acquitté on baissées T'es pressé, t'accélères risquer sont les raccourcis Kazou dis leur que cette est pute mais plus de soucis que d'sursis Posé à la tess j'ai rien vu, rien entendu J'ves-qui les histoires tendu, des fois c'est tes potes qui t'enculent Avec du recul, tu finis par devenir solitaire Pour l'Etat on a pas les critères, donc on a fini sur le ter J'vois des pères, des mères qui travaillent dur pour ceux qu'ils aiment Wallah ça m'fait de la peine d'les rentrer pour rien dans nos problèmes 11.43 c'est le thème, là c'est Tirgo sur l'antenne Poto dès l'début de l'enquête c'est possible que tu perds la tête Envoie la frappe de Ketama dédicace à Khadama J'suis obligé d'faire du sale y'a toute la cité derrière moi Y'en a qui braquait des tabacs nous on bicravait du taga Ouais continuer à taguer nous on à pas l'temps on tabasse On va t'laisser aux aguets dé-ter comme l'armée du Hamas J'savais pas que sur ce banc ouais j'allais fumer des kamas Toute l'année tu fais des phases poto, c'est pas comme a-ç Dans l'arène j'ai toujours la faille, flow qui tire comme un Fa-mas Nous on est comme des hommes, on va toujours à la chasse Y'a du biff' et des liasses obligé on s'déplace Ça bicrave au fond de l'impasse, désolé si ça dépasse Dans ton bigo y'a les vrais et les boloss que t'effaces We-wesh la racaille, les raclures la police en a ras-le-cul Ma vie c'est un texte de rap remplit d'ratures Nerveux l'sourire aux lèvres doté d'pouvoir céleste J'ai perdu l'nord ma direction à moi c'est l'est J'écris des textes de fou, beaucoup métaphorique L'histoire d'un braqueur qui finit par taffer au Ritz Rosny-sous-Bois, la Sambuy, les braquos, les sous-salles Les sous-sols, les mouses, ceux qui moussent et qui s'débat ainsi qu'les douzes J'rappe, je pense comme un mec de la ur J'aime la pure qui branche les clients sur mon terrain tout les jours J'ai pas d'bonnes habitudes j'descends et j'traine J'truande j'ves-qui la justice dédicace à Fresnes Les sirènes retentissent, les criminels se repentissent La pisse du sheïtan, mes repentises, ma hantise C'est vraiment pas la mort mais c'qui s'en suit J'aime quand ça va que dans un sens Oui !, quand c'est classé sans suite Moi j'ai ramé, ramené la merde à mes rents-pa Et j'donne tout à mes frères marlich s'ils me le rendent pas La justice on s'la fait nous même, I'm so Hood ! Un dialogue de sourd entre moi et ma bouteille d'Absolut Me parle pas d'la gloire n'y même du sommet Nan, nan, nan Pour l'instant j'me bats pour finir la semaine Mais guette moi j'suis la j'rappe sale vas-y acquiesce De nos jours tu peux rater l'grand amour si t'as pas d'caisse - Sta-ive c'est du vécu On comprend que chez moi le sang c'est vidé à cause du manque d'écus - Oui c'est l'cercle est vicieux bienvenue dans le cerceau - Ça va péter dans l'quartier, dans tout les ghettos d'France - J'sais c'que c'est d'avoir la dalle, j'en connais les vertus - 11.43 mortuaire sera la saison13</t>
+          <t>J'suis dans mon quartier, j'galère, j'regarde en l'air J'suis en train d'cogiter, j'suis défoncé sa mère J'arrive chargé, comme une porteuse à Tanger Après mon passage, ou t'es refait ou bien il te reste plus grand chose à manger J'roule un sdeh pour me percher, rejoindre l'étoile du Berger C'est plus des couilles que j'ai, eh non, c'est des gros ufs de Fabergé J'suis overbooké, ok zoogataga J'ai appris une chose chez Ruquier, c'est le mot rutabaga J'rêve que d'pouvoir, et comme vous avez pu le voir Bah le rap français c'est pas vraiment l'truc tah Audrey Pulvar Mon point commun avec Natacha c'est mes chicos d'devant Que moi-même sans mes 32 dents, j'leur faisais du rentre-dedans Ouais, bien sûr que l'avenir est inquiétant Pour des barrettes, ils nous mettent 8 ans, wesh, monsieur le président Dites leur bien que j'représente les 3arbis et les niggas Moi, j'suis plus riche qu'eux, donc pourquoi j'irai fouiller leurs caisses Eux, ils sont en pleine crise, moi j'suis en plein dans les 30 glorieuses Mais j'sais que ma liberté bah, vaut pas grand chose à leur yeuz Demande à Lacrim quand j'étais à l'école, c'était pour gratter les remises de peine Du dispatching au disque d'platine, de la fiche de recherche à la fiche de paye J'ai pété tous les barrages, mais j'n'ai jamais été odieux Comment idolâtrer la vache, quand l'univers est à Dieu Dites leur bien que, m'en bats les couilles de leur baratin Que là j'suis en promenade, 3ème tour, khapta dans un bar à tinp' Nique l'État, ces chmatas, ils rêvent que de nous mettre dans la de-mer J'vais m'branler et même cracher sur leur putain de système de merde Woogata ekh tfou, rap tah les fous Qui préfèrent s'acheter une Rafleuse que d'faire du kung-fu La Mecque, j'suis d'ceux qui se baissent et qui toussent, mec, Allah yaafo J't'ai déjà dis, nous on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophile pour des histoires de barrettes Autant vendre de la cocaïne, butez-nous pour qu'on s'arrête Les 3ineurs montrent pas l'il, dites-leur de niquer leur mère les chouettes Moi, m'occupe de la vodka, woogataga gardez la Schweppes Hey, d'après mon entourage, moi, j'reste un brave J'reste un vrai, c'est pour ça qu'il m'encourage Après la pluie, y a pas le beau temps, y a l'orage C'est vrai que les petits sont hardcore, on était pareil à leur âge À deux sur un scooter on vivait que de vol à l'arrach' Puis on a connu la crave-bi et on a vite tourné la page On s'est mis à couper des barrettes, ensuite à vendre des plaquettes Puis d'la coke et des galettes, jusqu'à ce que les keufs nous arrêtent Un jour j'étais dans le 19, l'lendemain un hessess fermait ma porte Un soir j'étais avec une meuf, l'lendemain elle était avec mon pote La vie c'est dur, pas de peine nous tout ce qu'on porte c'est des flingues Et y a pas de vice de procédure gros c'est la loi de la jungle C'est pas d'ma faute, darwa, j'crois bien que j'suis taré d'naissance J'me reconnais pas moi-même des fois j'suis ravi de faire ma connaissance Et quand je pars au shtar, bah t'inquiète pas que j'reçois des mandats Et j'ai toujours la frappe, tah Hollanda et tah Belhanda J'suis khapta, zoogataga sous ma véranda J'glisse mes doigts dans les cheveux tah Esméralda J'emmerde l'État, j'emmerde les stups, j'emmerde les gendarmes Trafiquant de rimes, trafiquant d'stups ou trafiquant d'armes Je suis, comment vous dites ? Paranoïaque ! Ouais J'm'en bat les yeuks, madame la juge, baraneyek ! Ytiyyeh sa3dek ! J'te l'avais dit que j'avais des projets Là, j'graille des brochettes, j'insulte ta mère et j'touche des gros chèques M'achète des trucs qui valent cher, rien qu'avant hier J'me suis acheté 3-4 t-shirt, j'ai dépensé ton salaire J'me suis roulé un gros sdeh, puis j'ai repensé à la misère À cet été, à cet hiver, Alicante ou au Val-d'Isère Au mitard tah la Santé, les promenades en camembert Au mitard tah Fleury, j'revois les toilettes, j'me dis beurk ! Ah les bâtards, comment ils ont pu me faire ça ? Ils me l'ont mise, j'leur ai remise woogata vice et versa Ya zzeh, obligé de se faire remarquer Obligé de se faire embarquer, déféré au parquet Direction les grillages, bon, trêve d'enfantillage Yeah, I speak a little English, motherfucking biatch ! Weld lqahba, what you gonna do? Ok, j'continue tout doux, j're-big up le rott' Mamadou Yoogata yoogata gangz to gangz Ouais, tu connais la musique, celui qui veut me test, j'le baise Ban-ban-bandit j'fait que du propre, j'effectue les sales tâches Ça sert à quoi de jouer le pirate, si pas à l'abordage Ils dopent en dopant, co on t'laisse le dos en deux On est nous-mêmes en paix exorcistes avec un joint d'beuh Tous les soirs j'dégrise, nos combines se développent Mais des fois les quis' débarquent et dans les comptes ça fait des flops Du crime ouais y'a la crème, Sta-ive c'est du vécu Mon gros, chez moi le sang s'est vidé à cause du manque d'écus Pas de ces collabos, que t'achètes avec alcool et abus De plus, j'baise ces nabots qui croient contrôler la rue Les yeux cernés au poste, menotté à des barreaux de chaise J'rêve d'Îles Vierges m'en fumer avec des barreaux de chaises La nuit j'dors mal, éternellement tourmenté En pensant que j'vais prendre cher si les keufs arrivent à tout remonter Ceux qui sèment le vent, récolte du ons dans le ventre A-L, futur ex-braqueur reconverti dans la vente J'aimerais partir tranquille, les pieds d'vant Un monde de fils de pute, j'suis obligé de vendre Ah bon ? Ça suffit pas alors on braque sa mère M'en voulais pas dans le rap y'a trop de zamels 3 quart, belle coupe, chico cassé La vie c'est speed même mon ombre veut me dépasser Oh, le sky est classé, j'suis chaud Menacer ne sert à rien, j't'envoie 2-3 balles l'affaire est classé Ramassé du biff, voilà dans quoi j'me suis perdu J'sais c'que c'est d'avoir la dalle, j'en connais ces vertus Hyper dur, fréquentation malsaine Chiale pas sur mon sort, tu sais qu'ici personne nous accepte On connait le respect, les valeurs et les principes T'es le plus grand des hommes si tu te lèves pour bosser à Rungis Malheureusement pas mon cas, au fond de moi je les envie Nos vies, c'est faire du biff, mais resté en vie Donc faut marcher armé, puis avoir la trique Aujourd'hui t'allumes demain t'es complètement matrixé C'est la vie du western, la vie d'moi j'suis réel La tranquillité frérot est bloquée dans mes rêves Impossible de l'avoir, je ne prends jamais de Mais Belek au feu le couz si tu mets trop de bois Beaucoup de salopes font les voyous, wallah que c'est pas une fierté Dis-moi qui sera là le jour ou t'auras vraiment merdé J'ai l'orgueil d'un bébé, je m'énerve et je pète tout J'assume les conséquences khey dans mes bras je prend le mektoub Oui j'aime pas les poulets et je f'rais recette sans eux Une impression même jaloux de ma paire à 700E Ils m'inventent des vies, le mythe ils veulent casser Hum j'en ai assez, les traquer, les chlasser Quand j'allais tu revenais, dans ta tête ça ne rentre pas Je le ferai tout les jours, je compte l'oseille me dérange pas Bien sur qu'on s'est fait tout seul, je sais très bien que tu sais J'ai braqué des bijouteries quand les autres allaient sucer Sans t'manquer de respect, dans l'rap dis-moi ce qui est facile Frérot on viens de la rue c'est des filles faciles J'ai roulé ma bosse, j'en ai marre d'bouffer d'la merde Coup d'crosse, la vie t'assomme pire qu'un joint d'herbe Tout c'qu'on a, on finit par l'perdre Étoile de mer, dix mille kilomètres, perdu sur la lune verte J'suis tellement loin des je veux être Berrad d'atay, j'allume un jaabouq à la fenêtre T'es dans l'paraître, moi j'veux disparaître Les kheys passent au dispatching, une mère qui pleure c'est la faute d'un traître Y'a plus qu'des bras cassés dis-moi à qui serrer les coudes ? Six pieds sous terre, quand j'me ferai bouffer par l'doud Noyé dans l'doute, j'suis toujours dans l'hood Les yeux rouges, Wydad Casanegra j'suis pas un Blood Passe-moi des feuilles, c'soir j'fume mes dernières illusions Sers-moi un verre que j'tourne cette tragédie en dérision 11.43, mortuaire sera la saison Maintenant j'marche avec des rétros, dis-moi qui va m'sauter l'caisson Y'a, y'a, y'a plus d'rage que d'la fashionnerie J'enterre l'espoir dans un parloir à Fleury Ghetto youth langage, du whisky, les chicots pourries Bonbon sauvage, 0.4 khoya souris Heh-hep-pep, Dieu seul est maitre de ma destinée Moi j'me verrais bien à La Mecque avec mes rents-pa et ma dulcinée La vie c'est pas un clip ni du ciné ou une bande dessinée On va peut-être finir à Clairvaux, on va peut-être s'faire assassiner C'est clair gros qu'on peut tout perdre sur un coup d'ker-po J'te parle d'une boite où pour rentrer y'a même pas besoin d'se faire beau Le cercle est vicieux bienvenue dans le cerceau Quand j'ai fêté mes 16 ans c'est pas du plomb que j'avais dans le cerveau J'ai 28 ans, j'habite dans l'zoo, je m'appelle Hédi Chabar J'veux réussir, j'veux m'en sortir depuis que j'suis tout petit je chabarde J'ai bicrave, j'ai fais plein d'conneries dont j'suis pas du tout fier Comme les aller-retours à Fleury pour battre le fer faut du fer Pour faire du flouze faut du flouze, des couilles et d'la gamberge Surtout quand t'es seul contre tous y'a personne pour te tendre la perche Moi, hamdullah, j'suis pas comme ça, j'préfère aider mon prochain Car j'sais que Dieu me l'rendra ici bas ou dans un monde prochain Howa yaalem b kolchi, hata tkoun labes Gucci Lmout tjik w teddik, tedderbek kima lfuchi J'arrive dans l'game avec You pour écraser tous ces chiens Même s'ils sont plein, on les baise tous kalachnikov à la main Ça va péter dans l'quartier, dans tous les ghettos d'France Ayet lkursi, 11.43 pour me souhaiter bonne chance M'en bats les couilles de c'que tu penses, depuis ma tendre enfance J'laisse la concurrence en transe, lourde sera la sentence Brulux on the flux toujours dans les bacs Hier, ils m'boycottaient, maintenant, ils veulent faire mes backs Prochain clip, j'appelle Fredo, il m'prépare le Maybach Cette fois-ci, j'ferai pas l'gamin, promis, j'cacherai tes plaques Ils m'ont pris pour une blague, des mesures, il m'en reste quatre Pour ma mère, j'veux du 2.4, pour moi qamis, un RS4 Dédicace l'Algérie, le Maroc, la Tunisie Faudra bientôt retourner chez nous car y a trop d'crapules ici Parce que tu manges du lion l'matin devant moi tu veux rugir Approche j'te mets une claque de roumain, tu vas rougir Plus tu vas monter, plus les rumeurs vont surgir Personne n'est au-dessus d'personne, écoute bien tout c'que j'vais te dire Tout ce qui est autour de moi, j'vais te l'exposer La j'pète les plombs j'ai retiré la goupille, j'vais exploser À ma droite, les frères muz débarquent pour nous faire des rappels Par la gauche, y en a qui vesqui s'hab quelqu'un les appelle En primaire j'te frappais ouai j'me prenais pour l'king À 10 ans au comico voiture péta dans un parking Le quartier c'est une plaque tournante, ça défouraille de partout Dans mon escalier j'tombe sur un sac remplis d'billets j'garde tout Assis sur un banc toute la journée ça bibi Dans les bois ça fait bep-bep ou cric-cric bim bim ! Au collège, lycée v'là les bagarres, boy, j'casse des dents Avec Oxmo ou pas leurs uppercuts te rentre dedans On sait que la police nous surveille mais elle ne sait pas tout Les malins savent très bien que l'argent ne fait pas tout On a des avocats mais ils n'arrangent pas tout Les médecins sont la mais il ne soignent pas tout Pas de chance cette nuit la juge s'est fait mal baiser Donc forcément des chance d'être acquitté on baissées T'es pressé, t'accélères risquer sont les raccourcis Kazou dis leur que cette est pute mais plus de soucis que d'sursis Posé à la tess j'ai rien vu, rien entendu J'ves-qui les histoires tendu, des fois c'est tes potes qui t'enculent Avec du recul, tu finis par devenir solitaire Pour l'Etat on a pas les critères, donc on a fini sur le ter J'vois des pères, des mères qui travaillent dur pour ceux qu'ils aiment Wallah ça m'fait de la peine d'les rentrer pour rien dans nos problèmes 11.43 c'est le thème, là c'est Tirgo sur l'antenne Poto dès l'début de l'enquête c'est possible que tu perds la tête Envoie la frappe de Ketama dédicace à Khadama J'suis obligé d'faire du sale y'a toute la cité derrière moi Y'en a qui braquait des tabacs nous on bicravait du taga Ouais continuer à taguer nous on à pas l'temps on tabasse On va t'laisser aux aguets dé-ter comme l'armée du Hamas J'savais pas que sur ce banc ouais j'allais fumer des kamas Toute l'année tu fais des phases poto, c'est pas comme a-ç Dans l'arène j'ai toujours la faille, flow qui tire comme un Fa-mas Nous on est comme des hommes, on va toujours à la chasse Y'a du biff' et des liasses obligé on s'déplace Ça bicrave au fond de l'impasse, désolé si ça dépasse Dans ton bigo y'a les vrais et les boloss que t'effaces We-wesh la racaille, les raclures la police en a ras-le-cul Ma vie c'est un texte de rap remplit d'ratures Nerveux l'sourire aux lèvres doté d'pouvoir céleste J'ai perdu l'nord ma direction à moi c'est l'est J'écris des textes de fou, beaucoup métaphorique L'histoire d'un braqueur qui finit par taffer au Ritz Rosny-sous-Bois, la Sambuy, les braquos, les sous-salles Les sous-sols, les mouses, ceux qui moussent et qui s'débat ainsi qu'les douzes J'rappe, je pense comme un mec de la ur J'aime la pure qui branche les clients sur mon terrain tout les jours J'ai pas d'bonnes habitudes j'descends et j'traine J'truande j'ves-qui la justice dédicace à Fresnes Les sirènes retentissent, les criminels se repentissent La pisse du sheïtan, mes repentises, ma hantise C'est vraiment pas la mort mais c'qui s'en suit J'aime quand ça va que dans un sens Oui !, quand c'est classé sans suite Moi j'ai ramé, ramené la merde à mes rents-pa Et j'donne tout à mes frères marlich s'ils me le rendent pas La justice on s'la fait nous même, I'm so Hood ! Un dialogue de sourd entre moi et ma bouteille d'Absolut Me parle pas d'la gloire n'y même du sommet Nan, nan, nan Pour l'instant j'me bats pour finir la semaine Mais guette moi j'suis la j'rappe sale vas-y acquiesce De nos jours tu peux rater l'grand amour si t'as pas d'caisse - Sta-ive c'est du vécu On comprend que chez moi le sang c'est vidé à cause du manque d'écus - Oui c'est l'cercle est vicieux bienvenue dans le cerceau - Ça va péter dans l'quartier, dans tout les ghettos d'France - J'sais c'que c'est d'avoir la dalle, j'en connais les vertus - 11.43 mortuaire sera la saison13</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA You might also like On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
+          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Le Prince ! Zoogatazou Du shit, des feuilles, des clopes.. Du Yougataga ! Et on est paré pour décoller... J'observe des meufs qui s'rasent et des raclos qui s'épilent Darhwa j'sais pas c'qui s'passe, j'crois bien qu'ce monde est débile J'arrive dans la surface, comme Cristiano sous bibine Si t'as misé sur face, j'me présente moi c'est Pile J'avais des potes on était comme Boule et Bill Mais les souvenirs m'font mal, ils m'laissent des traces indélébiles Nous quand on te fait une fleur, on enlève pas les épines Les fruits sont empoisonnés, demandes au Sept Nains et à leur copines Derrière mon ex-femme se cachait une sorcière, j'savais pas qu'le diable portait un corset Fuck le 36, et le boulevard Bessières, faut investir après chaque concert Ma gueule après t'avoir fumer on aura pas peur de choper le cancer ! Un jour tes frères deviennent adversaires, t'souhaite la mort à ton anniversaire Qu'on les blesse, qu'on les baise, à l'aise, dans la tièks ma gueule faut qu'on reste les best C'est Mister You, Paris Zoo, des courgettes des khizo, du flouz, du rap de tess Il m'faut des douze pour écrire un seize Et dire qu'hier ça vendait d'la cess' J'suis Vegeta et en même temps Sangoku, j'suis dans la merde jusqu'au cou J'ai fais le même rêve que beaucoup, celui d'me refaire sur un bon coup Je pense donc je mène, j'suis pas un mouton pour dire Je suis H24 dans la de-mer, donc H24 je m'essuie La musique c'est comme le stup', faut savoir vendre le produit, j'te dis Les impôts c'est comme les stups, ils veulent tout me prendre, aujourd'hui Ils ont le seum ces enfoirés, parce que j'm'auto produis ! Si ils veulent me voir à genoux, qu'ils viennent à la squée-mo Vendredi Parfois les crades d'la confiance, d'un prêtre, un faux poto peut être un vrai traître La confiance ca s'passe pas ca s'prete, la patience s'avance en screte Les commissaires on les traites de fils de chmeta ces croquettes Ils rêvent que de nous mettre de la sureté, leurs mères on les baise en brochettes On s'demande c'qu'on va devenir, 22 ans toi-même tu sais C'est des peines de meurtrier, à la barre nos daronnes tétanisées Ambiance sheitanisée, une p'tite lumière tamisée Ma montre indique qu'il est l'heure, de tous venir les baiser Les faux j'leur encule leur grand mère, les vrais faut qu'j'les fasse kiffer Moi mes frères ne tirent pas en l'air, les leurs font que d's'esquiver Je suis venu te fumer sale pourriture, si j't'enterre c'est pas pour te cultiver Harba tsselek dans la nature... Facebook desactivé ! J'sais qu'on m'attendait par derrière, donc j'suis arrivé par le côté J'suis venu pour niquer leur grand mère, et aussi pour les godder Regard froid sourire aux lèvres, on est pas là pour rigoler J'vais tout prendre j'vais rien laisser, même pas une pièce de monnaie Plus rien n'peut m'étonner, les keufs aiment trop mythonner Le baveux fait qu'nous michtonner, j'crois qu'le proc' s'en est mis dans l'nez On finira comme Ze Pequenio, les microbes vont venir nous canner Dans les mollets reprise de volée, après une rafale de balles tu connais ! You might also like À l'école quand j'étais p'tit, j'me suis mis à déconner L'moment où j'm'amusais l'plus, c'était quand j'étais collé Petit bikini, poitrine siliconée Lamborghini, toujours bien épaulé Nouveau skeu-di, concurrence affolée Haschich de Rifi, paré pour décoller J't'ai dit nouveau skeu-di, concurrence affolée Haschich de Rifi, paré pour décoller À l'école quand j'étais p'tit, j'me suis mis à déconner L'moment où j'm'amusais l'plus, c'était quand j'étais collé J'suis paré pour décoller J'suis paré pour décoller GP-800, T-Max ou Fazer, paré pour décoller J'te fume et quitte, les paye en deux-trois heures, paré pour décoller 3.5.7, Glock 7.65, paré pour décoller 9mn, Colt 45, j'suis paré pour décoller Fuck la police, L'O.C.R.T.I.S et l'36, paré pour décoller Gyrophare, plein phares sur l'periph', paré pour décoller Porteuse chargée, or plaqué, paré pour décoller J'roule un zdeh pépère, ça y est ! J'suis paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller3</t>
+          <t>Le Prince ! Zoogatazou Du shit, des feuilles, des clopes.. Du Yougataga ! Et on est paré pour décoller... J'observe des meufs qui s'rasent et des raclos qui s'épilent Darhwa j'sais pas c'qui s'passe, j'crois bien qu'ce monde est débile J'arrive dans la surface, comme Cristiano sous bibine Si t'as misé sur face, j'me présente moi c'est Pile J'avais des potes on était comme Boule et Bill Mais les souvenirs m'font mal, ils m'laissent des traces indélébiles Nous quand on te fait une fleur, on enlève pas les épines Les fruits sont empoisonnés, demandes au Sept Nains et à leur copines Derrière mon ex-femme se cachait une sorcière, j'savais pas qu'le diable portait un corset Fuck le 36, et le boulevard Bessières, faut investir après chaque concert Ma gueule après t'avoir fumer on aura pas peur de choper le cancer ! Un jour tes frères deviennent adversaires, t'souhaite la mort à ton anniversaire Qu'on les blesse, qu'on les baise, à l'aise, dans la tièks ma gueule faut qu'on reste les best C'est Mister You, Paris Zoo, des courgettes des khizo, du flouz, du rap de tess Il m'faut des douze pour écrire un seize Et dire qu'hier ça vendait d'la cess' J'suis Vegeta et en même temps Sangoku, j'suis dans la merde jusqu'au cou J'ai fais le même rêve que beaucoup, celui d'me refaire sur un bon coup Je pense donc je mène, j'suis pas un mouton pour dire Je suis H24 dans la de-mer, donc H24 je m'essuie La musique c'est comme le stup', faut savoir vendre le produit, j'te dis Les impôts c'est comme les stups, ils veulent tout me prendre, aujourd'hui Ils ont le seum ces enfoirés, parce que j'm'auto produis ! Si ils veulent me voir à genoux, qu'ils viennent à la squée-mo Vendredi Parfois les crades d'la confiance, d'un prêtre, un faux poto peut être un vrai traître La confiance ca s'passe pas ca s'prete, la patience s'avance en screte Les commissaires on les traites de fils de chmeta ces croquettes Ils rêvent que de nous mettre de la sureté, leurs mères on les baise en brochettes On s'demande c'qu'on va devenir, 22 ans toi-même tu sais C'est des peines de meurtrier, à la barre nos daronnes tétanisées Ambiance sheitanisée, une p'tite lumière tamisée Ma montre indique qu'il est l'heure, de tous venir les baiser Les faux j'leur encule leur grand mère, les vrais faut qu'j'les fasse kiffer Moi mes frères ne tirent pas en l'air, les leurs font que d's'esquiver Je suis venu te fumer sale pourriture, si j't'enterre c'est pas pour te cultiver Harba tsselek dans la nature... Facebook desactivé ! J'sais qu'on m'attendait par derrière, donc j'suis arrivé par le côté J'suis venu pour niquer leur grand mère, et aussi pour les godder Regard froid sourire aux lèvres, on est pas là pour rigoler J'vais tout prendre j'vais rien laisser, même pas une pièce de monnaie Plus rien n'peut m'étonner, les keufs aiment trop mythonner Le baveux fait qu'nous michtonner, j'crois qu'le proc' s'en est mis dans l'nez On finira comme Ze Pequenio, les microbes vont venir nous canner Dans les mollets reprise de volée, après une rafale de balles tu connais ! À l'école quand j'étais p'tit, j'me suis mis à déconner L'moment où j'm'amusais l'plus, c'était quand j'étais collé Petit bikini, poitrine siliconée Lamborghini, toujours bien épaulé Nouveau skeu-di, concurrence affolée Haschich de Rifi, paré pour décoller J't'ai dit nouveau skeu-di, concurrence affolée Haschich de Rifi, paré pour décoller À l'école quand j'étais p'tit, j'me suis mis à déconner L'moment où j'm'amusais l'plus, c'était quand j'étais collé J'suis paré pour décoller J'suis paré pour décoller GP-800, T-Max ou Fazer, paré pour décoller J'te fume et quitte, les paye en deux-trois heures, paré pour décoller 3.5.7, Glock 7.65, paré pour décoller 9mn, Colt 45, j'suis paré pour décoller Fuck la police, L'O.C.R.T.I.S et l'36, paré pour décoller Gyrophare, plein phares sur l'periph', paré pour décoller Porteuse chargée, or plaqué, paré pour décoller J'roule un zdeh pépère, ça y est ! J'suis paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller Paré pour décoller, paré, paré pour décoller3</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre You might also like Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
+          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A-A-Attention ! Be-Be-Be-Belleville Hachek, Woogataga, 24 sur 7 j'pars en sucette Tu verras qu'mon pare-chocs, da3wa, si j'pète un Q7 Tu m'as trahi, mahlich, tu pourras pas tromper Dieu M'fais pas la bise, ta bouche sent la bite d'Clément Peythieux À travers les barreaux, moi l'ciel j'fais que l'mater Là j'fais plus d'sport, parce que l'sbah m'fait colmater Comment j'étais en galère quand c'était Casper qui venait me voir Et qui m'disait Wesh poto You, t'as vu dehors y'a qu'des bâtards Un conseil, les tes-comp c'est dans la tête qu'faut les inscrire Parle pas trop avec les cons ça pourrait les instruire Ça pourrit les instrus de trop rapper avec d'la merde J'insulte pas ta mère, j'la respecte, mais toi j't'emmerde Un mec comme oi-t en garde-à-v' il aurait fini par m'donner Libérable un jour ou l'autre, la roue finit par tourner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais j'peux pas pardonner Libérable un jour ou l'autre, la roue finit par tourner Un mec comme oit en garde-à-v' il aurait fini par m'donner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais comment pardonner You might also like J'lève mon verre à mes ex-amis, futurs ex-amis Sur l'terrain, une amitié ça vaut que 30 euros Étrange comme les potes changent Y'en a marre du placard, au prétoire elle t'prend en otage En direction du mitard, au D3 quatrième étage Quand tu fais ton paquetage, pourtant t'es pas libérable Ce trou d'balle de juge, laisse c'est devant Allah que lui il payera Rien qu'khamem là j'suis en cavale à croire qu'j'suis Scofield Toxicomane j'allume un sdah j'le fume jusqu'au filtre Alors petite merde hein qu'est-ce que t'as fais dans ta ie-v ? Une seule garda-à-v' où t'es sorti et pas ivre ! Bref j'rentre pas dans les détails, nan le gros ça paye plus Je suis le revers de la médaille ou le Porsche qui a rattrapé l'bus Là j't'offre une corde et j'te laisse descendre au sous-sol T'as oublié, cogno, on baise pas Alejandro Sosa Tu racontes ma vie sur le beat, perroquet Mais ton rap il pue la bite autant qu'un pédé qui a roté J'suis faya, j'suis pété en train d'répéter cette danse macabre Si demain tu dois caner, Younes t'enterra dans sa cave Un mec comme oi-t en garde-à-v' il aurait fini par m'donner Libérable un jour ou l'autre, la roue finit par tourner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais j'peux pas pardonner Libérable un jour ou l'autre, la roue finit par tourner Un mec comme oit en garde-à-v' il aurait fini par m'donner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais comment pardonner J'lève mon verre à mes ex-amis, futurs ex-amis Sur l'terrain, une amitié ça vaut que 30 euros Étrange comme les potes changent3</t>
+          <t>A-A-Attention ! Be-Be-Be-Belleville Hachek, Woogataga, 24 sur 7 j'pars en sucette Tu verras qu'mon pare-chocs, da3wa, si j'pète un Q7 Tu m'as trahi, mahlich, tu pourras pas tromper Dieu M'fais pas la bise, ta bouche sent la bite d'Clément Peythieux À travers les barreaux, moi l'ciel j'fais que l'mater Là j'fais plus d'sport, parce que l'sbah m'fait colmater Comment j'étais en galère quand c'était Casper qui venait me voir Et qui m'disait Wesh poto You, t'as vu dehors y'a qu'des bâtards Un conseil, les tes-comp c'est dans la tête qu'faut les inscrire Parle pas trop avec les cons ça pourrait les instruire Ça pourrit les instrus de trop rapper avec d'la merde J'insulte pas ta mère, j'la respecte, mais toi j't'emmerde Un mec comme oi-t en garde-à-v' il aurait fini par m'donner Libérable un jour ou l'autre, la roue finit par tourner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais j'peux pas pardonner Libérable un jour ou l'autre, la roue finit par tourner Un mec comme oit en garde-à-v' il aurait fini par m'donner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais comment pardonner J'lève mon verre à mes ex-amis, futurs ex-amis Sur l'terrain, une amitié ça vaut que 30 euros Étrange comme les potes changent Y'en a marre du placard, au prétoire elle t'prend en otage En direction du mitard, au D3 quatrième étage Quand tu fais ton paquetage, pourtant t'es pas libérable Ce trou d'balle de juge, laisse c'est devant Allah que lui il payera Rien qu'khamem là j'suis en cavale à croire qu'j'suis Scofield Toxicomane j'allume un sdah j'le fume jusqu'au filtre Alors petite merde hein qu'est-ce que t'as fais dans ta ie-v ? Une seule garda-à-v' où t'es sorti et pas ivre ! Bref j'rentre pas dans les détails, nan le gros ça paye plus Je suis le revers de la médaille ou le Porsche qui a rattrapé l'bus Là j't'offre une corde et j'te laisse descendre au sous-sol T'as oublié, cogno, on baise pas Alejandro Sosa Tu racontes ma vie sur le beat, perroquet Mais ton rap il pue la bite autant qu'un pédé qui a roté J'suis faya, j'suis pété en train d'répéter cette danse macabre Si demain tu dois caner, Younes t'enterra dans sa cave Un mec comme oi-t en garde-à-v' il aurait fini par m'donner Libérable un jour ou l'autre, la roue finit par tourner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais j'peux pas pardonner Libérable un jour ou l'autre, la roue finit par tourner Un mec comme oit en garde-à-v' il aurait fini par m'donner J'étais en vale-ca, l'amitié bah m'a fermé la porte au nez Allahou Akbar j'le sais mais comment pardonner J'lève mon verre à mes ex-amis, futurs ex-amis Sur l'terrain, une amitié ça vaut que 30 euros Étrange comme les potes changent3</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala là j'mange du karmoss Dans mon cerveau c'est Clairvaux, dans mes poumons c'est Chefchaouen J'sais pas c'qui s'passe dans ma tête, j'crois qu'j'suis en coloc' avec moi-même Si tu fais l'malin p'tit fils de pute j'te baise ta mère toi et ton équipe Ensuite j'te baise et j'te re-rebaise, te re-re-rebaise puis la on est quitte Il est trop tard pour prendre la fuite, j't'attrape, j'te fracasse en huit Et si tu veux connaitre la suite, passe à la chambre 1408 J'tabasse le mic tu suces des bites, j'fais du hardcore, j'fais des hits Mais j'oublie pas d'casse-ded, Cherif, Maurice et Frédéric 700E le prix du pavé, j'compte habiter tout près du Rif Dommage que Paris soit grillée, trop d'Mondéo sur le périph'... J'arrive chargé comme les panneaux d'porte d'une porteuse à Tanger Chargé comme le 3.5.7., d'un mec venu pour s'venger Chargé comme la chatte à leur mère quand elles s'font ken le week-end Chargé comme le crâne d'un taulard après l'parloir, yes we can smoke Goutes mon son c'est comme si t'avais touché d'la bête de pefra Fais tourner ça dans la street, comme du shit ou du cke-cra Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss J'me souviens, d'une époque, où le matin c'était l'club Dorothée Mais qu'est ce qu'elle est loin sa mère la putain la il faut tout niquer XXXXXX Et vas bien, dire aux boycotteurs que, j'vais tous leur mettre en beauté Des coups d'cross et des coups d'cutter, un peu partout dans la tê-té Jack, Justerini Brooks, Veuve Clicquot, Cristal ou Grey Goose J'les baise tous Opinel 12, ou au CZ dans la Canada Goose You might also like C'est la guerre, c'est pas la Toussaint, j'suis ni leur frère ni leur cousin Y'a les aigles et y'a les poussins, Parisien du 20-1 J'ai des meu-ar j'ai tout c'qu'il faut, t'inquiète j'suis un bête de pilote Mais ne t'assier pas à côté d'moi, si ta kharay la culotte J'me r'vois y'a quinze ans à quinze sur un plat chez N'Koto Maintenant l'quartier il a changé, ça veut s'fumer entre ex-potos Char-charclage au couteau, défouraillage en moto Daronne qui pleure, frero qui s'venge ou qui s'fait fumer à leurs tour Click-boum ! Ca va trop vite, rafale à travers la vitre Là t'es mort mon ami, t'a même pas eu l'temps d'voir défiler ta vie D'un coup tu t'demandes c'qui t'arrive, Azraël te dit fais pas crari Au lieu de louer ton Seigneur t'a préféré vendre d'la cocaine Y'a deux chances sur trois que tu sois là à cause de l'aïn Tout ton corps s'met à rendre des coups, tes mains, tes pieds, ta bouche, tes narines Tu vas goûter l'feu tu t'es fais fumer comme de la weed Tu vas aller rejoindre Sigmund Freud... et Charles Robert Darwin Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss J'me souviens, d'une époque, où le matin c'était l'club Dorothée Mais qu'est ce qu'elle est loin sa mère la putain la il faut tout niquer XXXXXX Et vas bien, dire aux boycotteurs que, j'vais tous leur mettre en beauté Des coups d'cross et des coups d'cutter, un peu partout dans la tê-té Jack, Justerini Brooks, Veuve Clicquot, Cristal ou Grey Goose J'les baise tous Opinel 12, ou au CZ dans la Canada Goose T'as joué les malins tu t'es fais fumer Bienvenue en enfer espèce d'enfoiré ! T'as joué les malins tu t'es fais fumer Bienvenue en enfer espèce d'enfoiré ! Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss T'as joué les malins tu t'es fais fumer... Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss T'as joué les malins tu t'es fais fumer... Chambre 1408 espèce d'enfoiré !8</t>
+          <t>Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala là j'mange du karmoss Dans mon cerveau c'est Clairvaux, dans mes poumons c'est Chefchaouen J'sais pas c'qui s'passe dans ma tête, j'crois qu'j'suis en coloc' avec moi-même Si tu fais l'malin p'tit fils de pute j'te baise ta mère toi et ton équipe Ensuite j'te baise et j'te re-rebaise, te re-re-rebaise puis la on est quitte Il est trop tard pour prendre la fuite, j't'attrape, j'te fracasse en huit Et si tu veux connaitre la suite, passe à la chambre 1408 J'tabasse le mic tu suces des bites, j'fais du hardcore, j'fais des hits Mais j'oublie pas d'casse-ded, Cherif, Maurice et Frédéric 700E le prix du pavé, j'compte habiter tout près du Rif Dommage que Paris soit grillée, trop d'Mondéo sur le périph'... J'arrive chargé comme les panneaux d'porte d'une porteuse à Tanger Chargé comme le 3.5.7., d'un mec venu pour s'venger Chargé comme la chatte à leur mère quand elles s'font ken le week-end Chargé comme le crâne d'un taulard après l'parloir, yes we can smoke Goutes mon son c'est comme si t'avais touché d'la bête de pefra Fais tourner ça dans la street, comme du shit ou du cke-cra Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss J'me souviens, d'une époque, où le matin c'était l'club Dorothée Mais qu'est ce qu'elle est loin sa mère la putain la il faut tout niquer XXXXXX Et vas bien, dire aux boycotteurs que, j'vais tous leur mettre en beauté Des coups d'cross et des coups d'cutter, un peu partout dans la tê-té Jack, Justerini Brooks, Veuve Clicquot, Cristal ou Grey Goose J'les baise tous Opinel 12, ou au CZ dans la Canada Goose C'est la guerre, c'est pas la Toussaint, j'suis ni leur frère ni leur cousin Y'a les aigles et y'a les poussins, Parisien du 20-1 J'ai des meu-ar j'ai tout c'qu'il faut, t'inquiète j'suis un bête de pilote Mais ne t'assier pas à côté d'moi, si ta kharay la culotte J'me r'vois y'a quinze ans à quinze sur un plat chez N'Koto Maintenant l'quartier il a changé, ça veut s'fumer entre ex-potos Char-charclage au couteau, défouraillage en moto Daronne qui pleure, frero qui s'venge ou qui s'fait fumer à leurs tour Click-boum ! Ca va trop vite, rafale à travers la vitre Là t'es mort mon ami, t'a même pas eu l'temps d'voir défiler ta vie D'un coup tu t'demandes c'qui t'arrive, Azraël te dit fais pas crari Au lieu de louer ton Seigneur t'a préféré vendre d'la cocaine Y'a deux chances sur trois que tu sois là à cause de l'aïn Tout ton corps s'met à rendre des coups, tes mains, tes pieds, ta bouche, tes narines Tu vas goûter l'feu tu t'es fais fumer comme de la weed Tu vas aller rejoindre Sigmund Freud... et Charles Robert Darwin Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss J'me souviens, d'une époque, où le matin c'était l'club Dorothée Mais qu'est ce qu'elle est loin sa mère la putain la il faut tout niquer XXXXXX Et vas bien, dire aux boycotteurs que, j'vais tous leur mettre en beauté Des coups d'cross et des coups d'cutter, un peu partout dans la tê-té Jack, Justerini Brooks, Veuve Clicquot, Cristal ou Grey Goose J'les baise tous Opinel 12, ou au CZ dans la Canada Goose T'as joué les malins tu t'es fais fumer Bienvenue en enfer espèce d'enfoiré ! T'as joué les malins tu t'es fais fumer Bienvenue en enfer espèce d'enfoiré ! Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss T'as joué les malins tu t'es fais fumer... Dé-dé-dé-dégaine de chicanos, kha-kha-khabta dans un p'tit gamos Freestyle en direct de Ketama, j'fume d'la Khardala la j'mange du karmoss T'as joué les malins tu t'es fais fumer... Chambre 1408 espèce d'enfoiré !8</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yougataga Wesh Rise-E Wesh Karisma 2000 ze-sei 2016 c'est le monde à l'envers C'est mon fréro Frédo qui est au ballon C'est Mister You qui est dehors C'est les manchots qui ont le bras long Bien sûr que si je sors ma bite Y'a plus d'cent putes qui diraient pas non Faut plein de juments pour l'étalon Faut du rouge en dessous de tes talons il pour il c'est la loi du talion Je suis entouré de hyènes mon père est un lion On va le dévorer le terminer parterre New Jack City, la city Carter Si t'en as marre tu t'barres du ter-ter Tu redémarres t'appuies sur l'starter Embrayage, première et soleil On a tous la rage en nous qui sommeille Racontes ça à Pasteur Fuck les imposteurs, les traîtres Les schmets qui sucent pour un zde3 You might also like En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte Deux mille ze-sei fuck les plus aisés Y'a du shit et de la CC Les concurrents sont baisés J'suis de retour j'vais tous les blesser Deux mille ze-sei fuck les plus aisés Y'a du shit et de la CC Les concurrents sont baisés J'suis de retour j'vais tous les blesser Les poucaves sortent de garde-à-vue Les a3ineurs sont a l'affût La C tue plus que la fume Ça charge 400 meug par ovules C'est paro vu le nombre de passeuses Vu le nombre de keh', vu le nombre de crasseuses A huit piges ça sort la gazeuse A dix le tazeur, à treize le fazer A dix-huit ça sort la raffleuse Ça prend 20 piges et ça nique sa soeur À ce petit bâtard de procureur En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte5</t>
+          <t>Yougataga Wesh Rise-E Wesh Karisma 2000 ze-sei 2016 c'est le monde à l'envers C'est mon fréro Frédo qui est au ballon C'est Mister You qui est dehors C'est les manchots qui ont le bras long Bien sûr que si je sors ma bite Y'a plus d'cent putes qui diraient pas non Faut plein de juments pour l'étalon Faut du rouge en dessous de tes talons il pour il c'est la loi du talion Je suis entouré de hyènes mon père est un lion On va le dévorer le terminer parterre New Jack City, la city Carter Si t'en as marre tu t'barres du ter-ter Tu redémarres t'appuies sur l'starter Embrayage, première et soleil On a tous la rage en nous qui sommeille Racontes ça à Pasteur Fuck les imposteurs, les traîtres Les schmets qui sucent pour un zde3 En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte Deux mille ze-sei fuck les plus aisés Y'a du shit et de la CC Les concurrents sont baisés J'suis de retour j'vais tous les blesser Deux mille ze-sei fuck les plus aisés Y'a du shit et de la CC Les concurrents sont baisés J'suis de retour j'vais tous les blesser Les poucaves sortent de garde-à-vue Les a3ineurs sont a l'affût La C tue plus que la fume Ça charge 400 meug par ovules C'est paro vu le nombre de passeuses Vu le nombre de keh', vu le nombre de crasseuses A huit piges ça sort la gazeuse A dix le tazeur, à treize le fazer A dix-huit ça sort la raffleuse Ça prend 20 piges et ça nique sa soeur À ce petit bâtard de procureur En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte En bas de chez moi ça cross fort En promenade les gens se transforment Y a trop de serrures et trop de portes Y a que de la sel3a qu'on transporte5</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T'es parti mais on t'oublie pas !! D'un tragique accident sur Ris-Pa L'alcool sensé nous divertir A fini par nous détruire Il te restais tant de chemins a parcourir J'te revois au te-foo entrain de nous faire courir J'regarde une tof ou t'es entrain de sourire Y'a pas d'âge pour mourir T'es parti mais on t'oublie pas !! Tes frérots, tes surs, tes rents-pa Ont été très fort m'ont même dit ne pleure pas Quand j'pense a ton frère au card-pla Qu'apprend ta mort dans ce triste décor Qui demande une perm' pour la lever du corps Et puis qui retourne en son-pri tout seul Revoyant sa chair dans un linceul On espère tous ce revoir dans l'aù-delà Auprés d'Allah Soubhana wa-taà'ala Je prie pour qu'il nous accorde sa clémence C'est quand on meurt que la vie ça commence Quand je repense à notre enfance Les tournois de foot, les souvenirs de vacances Ton absence me ronge comme une tumeur Le passé meurt, les souvenirs demeurent You might also like T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas Mais, on ne t'oublie pas, nonnn T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas mais, on ne t'oublie pas non T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tes frérots, tes surs, tes rents-pa Etait tous la pour la janâza On est parti jusqu'à Serekunda Avec Frédéric, Chérif, Azzedine J'me suis revu à l'enterrement de Badrédine Allah y Rahmou Je repense à la mort du petit Mehdi Allah y Rahmou Dans le quartier trop de tragédies C'est à croire que la malchance nous colle à vie Que le mot Poisse rime avec Belleville J'ai pas oublié ce qu'on c'était dit A la vie a la mort casse-dédi T'es parti comment t'oublier ? Un vrai Rajjèl pas une poule mouillée Toujours chaud quand il fallait s'embrouiller Mais devant la famille toujours l'douillé Je revois toi, moi, Khaled et Bersa T'avais le talent d'un joueur du Barça Mais c'est au porc qu'on donne la confiture Nous, on a eu le droit à la vie dure !! T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas Mais, on ne t'oublie pas, nonnn T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas mais, on ne t'oublie pas non T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix Sékou Diamé Sékou Diamé... Tu nous manques Repose en paix ! Naâm howa dahaba kablan wa kana akhan lana aâzizan alayna Walabouda an takouna hadihi ayatan lana Wala natabiâ torokat a sheitan Wa touroukati ataghout Wa âalayna bil matali al aâla matali a rassuli sala allahu alayhi wasallam Fa âalaykoum bi rassuli sala allahu alayhi wasallam Wala tatabiâ foulana fi chariâ yachroub al khamr Wala tatabiâ foulana fi chariâ yasta'âmilou al maysira Wala tatabiâ foulana moughani Wala tatabiâ foulana fi chariâ moukawir Wa âalayka bi rassuli wama khayro mina arassuli sala allahu alayhi wasallam Irjiâaou ila Allahi yabani Adam wala hawla wala kouwata ila bi Allahi al âaliyi al âadim N'écoute pas les gens qui te font rire Écoute plutôt ceux qui te font pleurer N'écoute pas les gens qui te font rire Écoute plutôt ceux qui te font pleurer T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas4</t>
+          <t>T'es parti mais on t'oublie pas !! D'un tragique accident sur Ris-Pa L'alcool sensé nous divertir A fini par nous détruire Il te restais tant de chemins a parcourir J'te revois au te-foo entrain de nous faire courir J'regarde une tof ou t'es entrain de sourire Y'a pas d'âge pour mourir T'es parti mais on t'oublie pas !! Tes frérots, tes surs, tes rents-pa Ont été très fort m'ont même dit ne pleure pas Quand j'pense a ton frère au card-pla Qu'apprend ta mort dans ce triste décor Qui demande une perm' pour la lever du corps Et puis qui retourne en son-pri tout seul Revoyant sa chair dans un linceul On espère tous ce revoir dans l'aù-delà Auprés d'Allah Soubhana wa-taà'ala Je prie pour qu'il nous accorde sa clémence C'est quand on meurt que la vie ça commence Quand je repense à notre enfance Les tournois de foot, les souvenirs de vacances Ton absence me ronge comme une tumeur Le passé meurt, les souvenirs demeurent T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas Mais, on ne t'oublie pas, nonnn T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas mais, on ne t'oublie pas non T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tes frérots, tes surs, tes rents-pa Etait tous la pour la janâza On est parti jusqu'à Serekunda Avec Frédéric, Chérif, Azzedine J'me suis revu à l'enterrement de Badrédine Allah y Rahmou Je repense à la mort du petit Mehdi Allah y Rahmou Dans le quartier trop de tragédies C'est à croire que la malchance nous colle à vie Que le mot Poisse rime avec Belleville J'ai pas oublié ce qu'on c'était dit A la vie a la mort casse-dédi T'es parti comment t'oublier ? Un vrai Rajjèl pas une poule mouillée Toujours chaud quand il fallait s'embrouiller Mais devant la famille toujours l'douillé Je revois toi, moi, Khaled et Bersa T'avais le talent d'un joueur du Barça Mais c'est au porc qu'on donne la confiture Nous, on a eu le droit à la vie dure !! T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas Mais, on ne t'oublie pas, nonnn T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix T'es parti mais on t'oublie pas Tu es parti T'es parti mais on t'oublie pas mais, on ne t'oublie pas non T'es parti mais on t'oublie pas Non T'es parti mais on t'oublie pas Repose en paix Sékou Diamé Sékou Diamé... Tu nous manques Repose en paix ! Naâm howa dahaba kablan wa kana akhan lana aâzizan alayna Walabouda an takouna hadihi ayatan lana Wala natabiâ torokat a sheitan Wa touroukati ataghout Wa âalayna bil matali al aâla matali a rassuli sala allahu alayhi wasallam Fa âalaykoum bi rassuli sala allahu alayhi wasallam Wala tatabiâ foulana fi chariâ yachroub al khamr Wala tatabiâ foulana fi chariâ yasta'âmilou al maysira Wala tatabiâ foulana moughani Wala tatabiâ foulana fi chariâ moukawir Wa âalayka bi rassuli wama khayro mina arassuli sala allahu alayhi wasallam Irjiâaou ila Allahi yabani Adam wala hawla wala kouwata ila bi Allahi al âaliyi al âadim N'écoute pas les gens qui te font rire Écoute plutôt ceux qui te font pleurer N'écoute pas les gens qui te font rire Écoute plutôt ceux qui te font pleurer T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas T'es parti, mais on t'oublie pas4</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Est-ce que tu connais tes droits civiques au moins, hein ? -Je la connais votre merdasse, Seidelbaum, t'essouffle pas. Tu n'as rien contre moi, tu le sais et ça je le sais. Je fais le compte de billets, c'est tout. Tu veux me faire perdre mon temps ? Ok. J'alerte mon avocat, c'est le meilleur à Miami, c'est l'as des avocats. Je te préviens que demain matin, toi tu vas bosser en Alaska ... alors prends du chaud ! Ne fera pas long feu qui nous empêche de manger La vie est ainsi faite, pas là pour t'arranger J'irai me venger l'ami on aime le danger L'état nous encule tu nous parles de s'ranger À cause de qui ça ? Comprends si j'vends d'la coke... Lacrim À cause de qui ça ? On roule à 220 car nous sommes nés pour pas perdre Braquo... Comprends si j'vends d'la coke Le succès monte à la tête mais faut pas s'prendre pour chais pas qui 2 ou 3 quets-pa d'cigarettes, 1 ou 2 quettes-pla d'Paki Comme dit Nessbeal mieux vaut perdre la vue qu'la raison On rêve de changer d'horizon, marre des barreaux d'prison Faut faire plaisir à la mama, lui offrir une belle maison J'suis transféré au FC Ketama à la prochaine saison J'ai ken le game dahwa, j'lui ai fais perdre ses eaux J'suis dangereux comme Christophe Khider avec une paire d'ciseaux Ok c'est l'zoo gata woo gata wesh mon suisse Tous les jours ça frôle la cour d'assises normal que nos reufs mincissent Niveau d'étude catastrophique on a tous un bac -6 Y'a trop d'vodka dans l'Oasis donc nos artères moisissent Moi c'est Mister j'arrive tout d'suite j'prends l'numéro d'ta miss Viens pas m'fatiguer l'crâne si un d'mes shab t'la mise J'suis avec Lacrim, tranquille j'arrive et j'augmente la mise D'Fabio Lucci à chez Gucci, inchallah j'partirai en qamis You might also like Y'a pas 10 façons de faire Tu sais l'ami c'est trop simple Ici c'est, faire du cash, fusil d'assaut, gros seins Attirés par la pierre, on s'en bat les couilles du succès T'as le flow d'mon pote tellement qu'tu l'as trop bien sucé Ramène moi du Jack j'veux pas de Fraise Vittel Disons qu'jsuis sur les rails et qu'ya le train à toute vitesse Vas-y prends les restes, j'te jure qu'elle est trop chim Je marche armé parce que dans l'mois j'fume 3 litrons d'shit Plus rien ne me fait peur, tiens en parlant d'ça J'avais 9 ans j'ai mis 2 balles dans l'corps du marchand d'sable Pit-Pit, ouais, des choses qui n'ont pas vu J'ai eu rencard avec la mort mais finalement j'suis pas venu Pas vu, pas pris, va la faire à d'autres Combien sont en prison, combien s'se sont fait Rak-pouk? J'veux pas qu'ça m'arrive J'ai qu'une phrase dans ma mémoire Le jour où tu me butes frère je t'emmènes avec moi 3</t>
+          <t>Est-ce que tu connais tes droits civiques au moins, hein ? -Je la connais votre merdasse, Seidelbaum, t'essouffle pas. Tu n'as rien contre moi, tu le sais et ça je le sais. Je fais le compte de billets, c'est tout. Tu veux me faire perdre mon temps ? Ok. J'alerte mon avocat, c'est le meilleur à Miami, c'est l'as des avocats. Je te préviens que demain matin, toi tu vas bosser en Alaska ... alors prends du chaud ! Ne fera pas long feu qui nous empêche de manger La vie est ainsi faite, pas là pour t'arranger J'irai me venger l'ami on aime le danger L'état nous encule tu nous parles de s'ranger À cause de qui ça ? Comprends si j'vends d'la coke... Lacrim À cause de qui ça ? On roule à 220 car nous sommes nés pour pas perdre Braquo... Comprends si j'vends d'la coke Le succès monte à la tête mais faut pas s'prendre pour chais pas qui 2 ou 3 quets-pa d'cigarettes, 1 ou 2 quettes-pla d'Paki Comme dit Nessbeal mieux vaut perdre la vue qu'la raison On rêve de changer d'horizon, marre des barreaux d'prison Faut faire plaisir à la mama, lui offrir une belle maison J'suis transféré au FC Ketama à la prochaine saison J'ai ken le game dahwa, j'lui ai fais perdre ses eaux J'suis dangereux comme Christophe Khider avec une paire d'ciseaux Ok c'est l'zoo gata woo gata wesh mon suisse Tous les jours ça frôle la cour d'assises normal que nos reufs mincissent Niveau d'étude catastrophique on a tous un bac -6 Y'a trop d'vodka dans l'Oasis donc nos artères moisissent Moi c'est Mister j'arrive tout d'suite j'prends l'numéro d'ta miss Viens pas m'fatiguer l'crâne si un d'mes shab t'la mise J'suis avec Lacrim, tranquille j'arrive et j'augmente la mise D'Fabio Lucci à chez Gucci, inchallah j'partirai en qamis Y'a pas 10 façons de faire Tu sais l'ami c'est trop simple Ici c'est, faire du cash, fusil d'assaut, gros seins Attirés par la pierre, on s'en bat les couilles du succès T'as le flow d'mon pote tellement qu'tu l'as trop bien sucé Ramène moi du Jack j'veux pas de Fraise Vittel Disons qu'jsuis sur les rails et qu'ya le train à toute vitesse Vas-y prends les restes, j'te jure qu'elle est trop chim Je marche armé parce que dans l'mois j'fume 3 litrons d'shit Plus rien ne me fait peur, tiens en parlant d'ça J'avais 9 ans j'ai mis 2 balles dans l'corps du marchand d'sable Pit-Pit, ouais, des choses qui n'ont pas vu J'ai eu rencard avec la mort mais finalement j'suis pas venu Pas vu, pas pris, va la faire à d'autres Combien sont en prison, combien s'se sont fait Rak-pouk? J'veux pas qu'ça m'arrive J'ai qu'une phrase dans ma mémoire Le jour où tu me butes frère je t'emmènes avec moi 3</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Mais bon j'étais bourré donc j'ai pas pu rentrer L'octris est venu et m'a pété ils ont voulu m'éventrer Ils m'ont parlé de c'qui s'passait vers le détroit de Gibraltar Je leur ai dit j'suis au courant de rien bande de bâtards Ils me reprochent plus d'un zodiac, j'suis pas armé d'un nunchak' dans mon Jack J'ai les yeux plissés comme Bruce Lee, à c't'heure-ci j'suis sous jack Fuck l'OCRTRIS, la BRB, la Guardia est vraiment te-bê De Malaga à Saint-Tropez, ça envoie des tonnes de do-bé Bolides des sel3a coupées, la police du Maroc s'en bat les couilles tant que tu raques Chaque contrôle 200 dirhams Me parle pas de liberté, d'égalité, va te faire niquer La jeunesse est broliquée, ok Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? You might also like Étant jeunes on est tous passés par Bois-d'Arcy ou Fleury On a grandi on s'habille tous chez Versace ou Burberry Fuck le kawai et sa théorie, j'ai un petit air d'Thierry Henry Roule un p'tit zdeh et on rit, j'suis hors catégorie L'argent m'a pas pourri, je pourrais canner pour Yves Pour Baka ou pour Sambo, j'suis assuré tous risques J'les baise, nique sa mère la police Dilemme sur la ble-ta donc pépère je m'alcoolise Le parquet il était flottant donc fallait bien que je glisse Y'avait l'octris et le 36 donc fallait que je méclipse C'était pas les Crips et les Bloods c'était les riches et les pauvres À Fleury fallait cinq-six clopes le lundi pour être au top J'ai appris qu'face à l'ennemi faut pas arriver que ganté Faut l'terminer à quatre pattes al dente Défouraille-le sa mère derrière les vitres teintées Y'a plus d'temps de liker ni de commenter Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Place des teuf' le 19, et le poto à Gaston Pinot J'crame pas de blase, tout le monde sait me pousser par 300 kilos Ils me disaient wesh poto You faut pas finir alcoolo Calma un peu donc l'alcool, termine pas comme ces clodos Opinel, 11.43, glock, beretta De la rette-ba une tonne et demie, da3wa ils m'arrêteront pas Le détail passe en jetski, le gravos pas son paquebot À Ketama, Abdelhamid il est plus côté qu'Pablo Bah ouais il brasse des milliards il s'en bat les couilles d'être pas beau Il a quatre femmes, quinze hectares plein de chevaux sous l'capot Ferrari, Lamborghini, fuck les keufs de Bobigny Ils tirent dans le mile ils t'éliminent, avec nous c'est jamais fini Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ?</t>
+          <t>Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Mais bon j'étais bourré donc j'ai pas pu rentrer L'octris est venu et m'a pété ils ont voulu m'éventrer Ils m'ont parlé de c'qui s'passait vers le détroit de Gibraltar Je leur ai dit j'suis au courant de rien bande de bâtards Ils me reprochent plus d'un zodiac, j'suis pas armé d'un nunchak' dans mon Jack J'ai les yeux plissés comme Bruce Lee, à c't'heure-ci j'suis sous jack Fuck l'OCRTRIS, la BRB, la Guardia est vraiment te-bê De Malaga à Saint-Tropez, ça envoie des tonnes de do-bé Bolides des sel3a coupées, la police du Maroc s'en bat les couilles tant que tu raques Chaque contrôle 200 dirhams Me parle pas de liberté, d'égalité, va te faire niquer La jeunesse est broliquée, ok Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Étant jeunes on est tous passés par Bois-d'Arcy ou Fleury On a grandi on s'habille tous chez Versace ou Burberry Fuck le kawai et sa théorie, j'ai un petit air d'Thierry Henry Roule un p'tit zdeh et on rit, j'suis hors catégorie L'argent m'a pas pourri, je pourrais canner pour Yves Pour Baka ou pour Sambo, j'suis assuré tous risques J'les baise, nique sa mère la police Dilemme sur la ble-ta donc pépère je m'alcoolise Le parquet il était flottant donc fallait bien que je glisse Y'avait l'octris et le 36 donc fallait que je méclipse C'était pas les Crips et les Bloods c'était les riches et les pauvres À Fleury fallait cinq-six clopes le lundi pour être au top J'ai appris qu'face à l'ennemi faut pas arriver que ganté Faut l'terminer à quatre pattes al dente Défouraille-le sa mère derrière les vitres teintées Y'a plus d'temps de liker ni de commenter Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Place des teuf' le 19, et le poto à Gaston Pinot J'crame pas de blase, tout le monde sait me pousser par 300 kilos Ils me disaient wesh poto You faut pas finir alcoolo Calma un peu donc l'alcool, termine pas comme ces clodos Opinel, 11.43, glock, beretta De la rette-ba une tonne et demie, da3wa ils m'arrêteront pas Le détail passe en jetski, le gravos pas son paquebot À Ketama, Abdelhamid il est plus côté qu'Pablo Bah ouais il brasse des milliards il s'en bat les couilles d'être pas beau Il a quatre femmes, quinze hectares plein de chevaux sous l'capot Ferrari, Lamborghini, fuck les keufs de Bobigny Ils tirent dans le mile ils t'éliminent, avec nous c'est jamais fini Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Là j'suis avec Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ? Ce soir c'est quoi les bails ? Je suis pas là pour banave Ça fait la guerre pépère quitte à finir en garde-à-v' Yves Backa ou Abdoulaye, bientôt on s'barre à Dubaï Belleville, Rébeval, dites-moi c'est quoi les bails ?</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Appelle moi R.A.B.A.H., rap dApache, tu peux pas clasher Eux ils parlent tous de clash, mais dans les charts gros ils sont cachés En clip tu roule en fer, mais tas le flow dune 404 bâché Remballe ta carte vitale, passe à Belleville, ça vend des cachets Cest le rap des têtes cramées, ils sont froids nous on a le sang chaud Parce que poto jarrive dans le game avec les couilles dun manchot Crois pas que les mecs de rue sont différents de tes enfants Ils sont pas tombés du ciel, ils sont tombés pour stupéfiants Les rappeurs vendent leur boule entre sexe et cess Je serais pas de leur partouze, moi je roule en Carrera hass Dans le 20ème on est paro, préparés pour le KO En face ils croient être carrés, mais ils sont sur le carreau Cest signé R.A.B.A.H Ça se démerde MDR2, dans la merde Nos demeures, nos humeurs de tous les jours 6 milliards au meurtre militaire On a mis des terre sous les portes dans mon six bordel Jexporte du bon seum, arrivé à Belleville, le bon port Elle est belle la vie, mais elle est pas belle la vue Si tu savais même nos darons font de la garde à vue On avance, avance comme des braves, les échelons on les gravit Dans le taf, le vol ou la crave-bi, tous cramés, black et arbi Mec de rue je suis condamné, la justice me réserve trois années Ah Woo Gataga, je vais pas me laisser aller You might also like Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Un jour, un petit au collège sest fait coller il en a recollé une à sa prof Les keufs sont venus il sest fait gaulé, résultat il va plus à cole-lé La mort fait pleurer bien que lamour ne fasse pas forcément rigoler Quand ça va que dans un sens et que tu te retrouves seul à picoler Il est encore moins épais quun cheveu le seuil entre lamour et la haine Moi jy peux rien quest ce tu veux ? Jobserve cest tout le temps la merde On se dirige à fond dans limpasse plus deusse que Virenque et Räikkönen On sait que la coke ça porte la poisse mais on sen fout on la vend quand même Si tu te ballades à Paname handèk une balle pourrait se perdre Si tes un te-trai si tes un bacman ou si tas la bouche bourrée de bref Je rallume mon zdèh moi dahwa quest ce que jespère ?? Que du bonheur zèh, la fraicheur mieux quun iceberg Je fais partie de ceux quon respecte qui se laissent pas faire qui rouspètent Qui savent que Woo GATAGA ça veut dire nique les teurs-inspec Qui participent pas pour perdre, qui ont bicrave shit coke herbe A défaut de vodka les gars, servez moi juste un bol dair Ok Zoo Gataga gars, on va zouker ta go, go Je vivais la crise du disque, tu vivais ta crise dado Paname ça place des kettes, ça casse des têtes, en cas de défaite, sort le 47 Pas de carence, rien quon te la rentre sec, jai posé bien plus de 40 seize Viens pas parler avec moi si tu me crachais dessus la veille Passe et tourne dans nos sacs donc on a péta celui de la vieille X.X Fougère, Belleville, ton gang on va le saigner Nous on veut la coupe mais pas celle de Sagna On fait de lescrime avec des Opinels, on fait lamour sans sentiments Cest la hass mais on fait du chiffre de temps en temps On est déter, donc on enterre tout ton crew Moi je veux pas attendre de crever pour faire mon trou,NE Wesh Mister You, envoies la basse, décidément on sintègre pas Ya que le seum qui se fond dans la masse Assis au fond de la classe, et sur mon hier-ca des absences Boy si tu me cherches, je suis comme un café, noir, souvent dans une tasse blanche Dans tous les cas je fais rentrer tous mes gars, grossiste de rimes, je fais plus de détails Consomme le zèbe de toutes les tailles, passe à lappart si tu bédaves Man ça vend pas des packs de bière Jai la flemme quand je vois que le bail sopère vu que dans la rue des balles se perdent Moi, jai deux trois trucs à faire, le coup pour toutes les petites affaires Une planque si un de ces flics saffaire, You faut pas que tu atterrisses à Fresnes S.Pri tinquiète, Belleville, Fougère ça vient du 7.5 Ah avec largent du Sh on nourrit sept zincs Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec1</t>
+          <t>Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Appelle moi R.A.B.A.H., rap dApache, tu peux pas clasher Eux ils parlent tous de clash, mais dans les charts gros ils sont cachés En clip tu roule en fer, mais tas le flow dune 404 bâché Remballe ta carte vitale, passe à Belleville, ça vend des cachets Cest le rap des têtes cramées, ils sont froids nous on a le sang chaud Parce que poto jarrive dans le game avec les couilles dun manchot Crois pas que les mecs de rue sont différents de tes enfants Ils sont pas tombés du ciel, ils sont tombés pour stupéfiants Les rappeurs vendent leur boule entre sexe et cess Je serais pas de leur partouze, moi je roule en Carrera hass Dans le 20ème on est paro, préparés pour le KO En face ils croient être carrés, mais ils sont sur le carreau Cest signé R.A.B.A.H Ça se démerde MDR2, dans la merde Nos demeures, nos humeurs de tous les jours 6 milliards au meurtre militaire On a mis des terre sous les portes dans mon six bordel Jexporte du bon seum, arrivé à Belleville, le bon port Elle est belle la vie, mais elle est pas belle la vue Si tu savais même nos darons font de la garde à vue On avance, avance comme des braves, les échelons on les gravit Dans le taf, le vol ou la crave-bi, tous cramés, black et arbi Mec de rue je suis condamné, la justice me réserve trois années Ah Woo Gataga, je vais pas me laisser aller Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Un jour, un petit au collège sest fait coller il en a recollé une à sa prof Les keufs sont venus il sest fait gaulé, résultat il va plus à cole-lé La mort fait pleurer bien que lamour ne fasse pas forcément rigoler Quand ça va que dans un sens et que tu te retrouves seul à picoler Il est encore moins épais quun cheveu le seuil entre lamour et la haine Moi jy peux rien quest ce tu veux ? Jobserve cest tout le temps la merde On se dirige à fond dans limpasse plus deusse que Virenque et Räikkönen On sait que la coke ça porte la poisse mais on sen fout on la vend quand même Si tu te ballades à Paname handèk une balle pourrait se perdre Si tes un te-trai si tes un bacman ou si tas la bouche bourrée de bref Je rallume mon zdèh moi dahwa quest ce que jespère ?? Que du bonheur zèh, la fraicheur mieux quun iceberg Je fais partie de ceux quon respecte qui se laissent pas faire qui rouspètent Qui savent que Woo GATAGA ça veut dire nique les teurs-inspec Qui participent pas pour perdre, qui ont bicrave shit coke herbe A défaut de vodka les gars, servez moi juste un bol dair Ok Zoo Gataga gars, on va zouker ta go, go Je vivais la crise du disque, tu vivais ta crise dado Paname ça place des kettes, ça casse des têtes, en cas de défaite, sort le 47 Pas de carence, rien quon te la rentre sec, jai posé bien plus de 40 seize Viens pas parler avec moi si tu me crachais dessus la veille Passe et tourne dans nos sacs donc on a péta celui de la vieille X.X Fougère, Belleville, ton gang on va le saigner Nous on veut la coupe mais pas celle de Sagna On fait de lescrime avec des Opinels, on fait lamour sans sentiments Cest la hass mais on fait du chiffre de temps en temps On est déter, donc on enterre tout ton crew Moi je veux pas attendre de crever pour faire mon trou,NE Wesh Mister You, envoies la basse, décidément on sintègre pas Ya que le seum qui se fond dans la masse Assis au fond de la classe, et sur mon hier-ca des absences Boy si tu me cherches, je suis comme un café, noir, souvent dans une tasse blanche Dans tous les cas je fais rentrer tous mes gars, grossiste de rimes, je fais plus de détails Consomme le zèbe de toutes les tailles, passe à lappart si tu bédaves Man ça vend pas des packs de bière Jai la flemme quand je vois que le bail sopère vu que dans la rue des balles se perdent Moi, jai deux trois trucs à faire, le coup pour toutes les petites affaires Une planque si un de ces flics saffaire, You faut pas que tu atterrisses à Fresnes S.Pri tinquiète, Belleville, Fougère ça vient du 7.5 Ah avec largent du Sh on nourrit sept zincs Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec Je fais partie de ceux quon respecte, qui se laissent pas faire, qui rouspètent Qui savent que Woo Gataga, ça veut dire nique les teurs-inspec1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Blanka, Cosmos Prod Les lions de la casse, BXL, ah ! F khater lblad, c'est le début de la faim With Kalsha, lions de la casse Le début de la faim Et ouais, chacal Koul simana 3endi mra jdida Wejda, Tanja, Casa wella Jdida Myat melyoun f l7dida Baghi nchri qser n3tih l lwalida Tlqani f Meknas gales m3a Kalsha Wella f 3oukacha bla kacha Wella m3a lbeznasa f rremla Nsifto lghobra f lghorba Nes qentar f lgoma N3el zouk mmat l7okoma! Fi khater ga3 wlad lblad Li mchaw 7argin rakbin foq jet Denya khayba, khodha kifma jat Kedba bayna, qalthali Najat Nes f Europa kabrin f l7basat W nnes lakhor gales ka ykeffet Wa fiq a khoya, ta malek? Hezz rasek wella jme3 kerrek! Bda ka ybi3 m3ak, f llekher tferreq Ch7al men wa7ed li mat 7areg Khellithom ydwiw bghaw y7egroni Darbin khyota s7abo ryoshom Tony Zetla, vodka m3a gin tonic 7req jedd babahom, dites-leur tous, j'les nique Ils sont comme Pulvar et comme Polony Ils retournent leur veste pour de la money Nouvel album bientôt disponible Les lions de la casse pour tous mes homies Ga3 lmgharba machi b7ala tsettaw Drebna lma7ya b7ala drebna ddaw Lakhor li slet, ma 3reft fin wella 7amra, khadra, wa tiwliwla ! You might also like J'suis ce capitaliste qui vient de Rabat À la recherche de loves, toujours khabat Wa khoya malek ka tchouf bab ljiran W qeddam darek, khessek tkerret? On peut me loger à Bab Diwana Tu comprends pourquoi j'baise les douanes, non non C'est pas des courses de zodiaque Que mes frelons préparent à Tétouan Comme l'a dit Hassan Ttani non, on fera pas de bons immigrés À Paris, j'me sens mort, pour ça que j'la vends à plusieurs degrés Vaurien Gang, 212, l'étoile est verte, le drapeau ensanglanté Avoir eu un Abdelkrim dans notre pays Wallah qu'on peut s'en vanter Dans 20 ans, tu m'verras jolie barbe vêtu d'un qamis En gros bolide avec mes fils sur le boulevard Mohamed Lkhamis J'veux que du biff dans le seddari Une jolie qesba dans les Oudayas Le meilleur tailleur pour mes 3abaya Des mitraillettes qui s'enrayent pas Coupe de bâtard, grosse barbe du Fatah J'fuck la liberté d'expression Qui sont Qatar c'est bien les deux taga Rebeu, j'me pose grave la question Tu penses à demain, j'pense à la mort J'parle pas chinois comme quand j'la sors Ouais, j'suis d'la sorte, j'suis un sauvage Toujours du tact, même du Jack dans le breuvage T'inq-t'inq-t'inquiète, on est jeunes et sincères Rebeu, rebeu, on est jeunes et sincères Moroccan Boys, ça, c'est élémentaire Sewwel Mariya wach baqa célibataire Rouge, vert, beur, t'as reconnu l'emblème Va vers Meuda, tu verras, c'est la même Lions d'la casse, marocain, c'est f ddem Kalsha, khellini j'vais les neddem Backpack, faut le pactole Plus d'zeille pour la daronne, moins de factures Tu parles, tu crèves, ils te censurent Et cela va de soi, c'est nous les ordures J'kiffe trop mon bled, j'kiffe trop mon bled Posés f l7ouma J'vois le sin-cou, direct, on sort l'oseille C'est la famille, les homies, la femme et les frères Oui, on est posés, ils vont s'reposer 3abaya, babouches, les massas sont dosées 3emmi t'a parlé, t'as visé le danger Touche mon re-frè, là, le tier-quar viendra se venger D'Agadir à Meknès, de Casa à Tanja T'inquiète pas, mon re-frè, qu'on est doués Si mon frère me l'a mise, c'est qu'une partie remise Mais tu sais qu'dans le fond, on est soudés Enfants de la Lune, on évite le soleil Si j'pouvais construire un studio sous terre J'te jure que nos ennemis feraient tous pareil Et donc, y aurait plus personne sur Terre J'suis posé avec mes gavas, qu'on me laisse J'évite de me montrer, me parle pas de relève T'inquiète pas, l'élève a dépassé le maître au sommet, j'le vois à des kilomètres Ok, j'arrive trop lourd pour les ken J'étais pas là, j'cherchais l'oseille J'suis à la tess avec ma 'teille J'suis au de-ble, un verre d'atay Je savais que j'les baiserais à l'aise Ils ont pas cru en moi, ces merguez Y a plus d'amis, tu donnes tes fesses À Villetaneuse, je resterai le best J'suis dans le bendo, j'te regarde même pas J'texte ta hlal juste devant toi Tu vas rien faire, tu veux me parler ? On t'a dit de lever le doigt J'suis dans ma werss, j'cherche la moula J'ai un Glock, j'suis en mode boulard J'vends des pneus, j'fais des dollars Dans mon équipe, y a pas qu'des taulards J'ai un cerveau, j'suis pas de ces connards Quand j'les écoute, j'en ai des mollards Ils sont pas crédibles, j'te jure, woullah ! Ils vont rien faire, leur pute de mwima Si ta meuf sent le crevette, la mienne elle pue le Sonia Rykiel J'suis plus Fatou qu'Obama Michelle J'appelle mes potes, t'appelles le 17, nigga ! Il suffit pas d'avoir des couilles, il faut savoir les porter Chez nous, elles sont trop lourdes Elles savent même plus comment m'aborder Porté par une lionne, j'suis prêt à tous les défoncer J'ai pas eu de chance en amour pourtant on m'a dit de foncer J'revois cette scène, ya yemma J'revois ce calibre sur ma tempe, ma tombe à Zaouïa Oui, j'revois ce soleil de Tadla Avec mes zinc fog ssta7, sebsi w rwina Ah ! J'essaye de tenir, lésions, alcoolique Monnaie, vroum, 150 chevaux et un brolic Oui, la patrie, je l'ai dans le gelb Oui, j'veux une gâterie et mon nemmi dans le hum Galo liya weld Danone Sem3ouni ga3, hadchi fabor Le linge sale, chez nous, c'est en mifa Qu'il se lave et, tout ça, sans sabon Le Maroc, le Maroc, oui, ma patrie, un jour j'y retournerai La mifa, ma petite, mon million, les impôts, j'les contournerai Mais est-ce qu'ils me voient comme un bougnoule ? Y a pas de lardon dans mon couscous On est d'accord, j'arrache le sol Des ballots, des ballots, on fait l'compte sur l'iPhone J'connais des gavas qu'ont appris le rifton Pour que la sel3a soit bénéfique en somme Tel-hô, ge-pla, ya khoya, bqiti fiya Jeune au village, j'porte lfamila Khoya, b chwiya, jendarmiya Ils ont voulu voler mon flow mais, putain, j'm'en bats, les mecs Sur le toit du aqser avec un fusil à lunettes Maghribi, non, personne va me la mettre Va leur dire que j'suis l'enfer qui s'fout d'la gueule des allumettes Oh non ! Rebeu, que pasa ? J'suis présent pour Kalsha De Marrakech à Casa, Abderrezaq, Fat Mizzo et Masta Putain de phénomène ouais Va savoir ou est-ce que l'effet nous mène Le buzz, on le fait nous-mêmes Sans se mettre à poil, pas comme les Femen Est-ce que t'entends ? La plupart sont incompétents Ça devient embêtant, rapanpanpan ! J'veux pas descendre de chez moi Entendre un tel qui a parlé sur un tel J'veux pas descendre de chez moi J'veux pas rejoindre le commun des mortels Wahyawina, dis-leur que l'attitude est phénoménale Pas de Glock sur l'abdominal Lion de l'Atlas, j'suis le mâle dominant Ils disent que les keufs sont corrompus, mais ils sont là chaque été Le bled est rempli de prostitution, mais ils sont là chaque été Qu'on baigne dans la sorcellerie, mais ils sont là chaque été Et que mon bled, il pue la merde, mais ils sont là chaque été Arwah, arwah, achkid adak inih awma Rih adak inih lhaqiqa, hati nga tatsa Arwah, arwah, achkid adak inih awma Rih adak inih lhaqiqa, hati nga tatsa Oujda, Filaj Toba, ouais, je viens de là-bas Viens approche, marhaba, trabando et casa J'rappe et j'suis l'étoile verte, pousse-toi, je vais me faire la malle J'atterris, j'suis en mode binks à l'aéroport des Angads C'est la terre de mes ancêtres et de mon père Alors, steuplaît, garde ton grade Garde ton grade, salopard Il se peut que tu glisses comme à Belgrade Laisse parler chekkama, khoya, wach ddani l Ktama? J'veux faire passer des tonnes comme des ballons Les glisser au fond comme Nordin Amrabat Demande à Saïd, c'est pas la chute qui compte Un lion d'la casse retombe sur ses pattes Y a plus rien dans cette vie qui m'épate La routine te fume, détruit à coups de batte Saïdia, retrouve-moi sur la côte Ça sort le yacht et le cap, le yacht et le cap En France, c'est les allocs et le câble en rêvant de la vie à Pablo Khoya, Allah, Alwatan, Almalik ! Nique-toi et toute ta putain de République Tous ces humains sont loin d'être magnifiques J'vois l'Europe couler comme le Titanic C'est pour tous mes bonhommes d'Ahfir Et ouais, ça investit comme au Qatar J'me suis vu seul sur une barque À chanter ana ma 3endi zhar Marruecos, shab lbarod w lkarabina Prendre le mic, ça devient évident Shab lbarod w lkarabina Prendre le mic, ça devient imminent Kheyo, j'suis un lion de l'Atlas Donc normal qu'ça sente le shit dans le Classe E Tu fais le fou, t'aimes faire le clasheur J't'encule pas, j't'envoie mes gars, khey, j'ai trop de classe Non, mon khey, j'imite rien ni personne Un lion ne copie pas, non, il fait pas le singe Il fait tout tout seul Il se mélange pas même si, des fois, il finit hyper-seul C'est A-Deal de Fas Jjdid, chez moi, aucun À l'ancienne Les marocains l'savent, ouais, c'est normal Qu'aujourd'hui, j'la fasse briller, ouais, c'est inévitable Là, j'suis avec le R à Sidi Bounafa3 Gros, on est sereins, on arrache tout le ter-ter Poto, fais pas l'fou, fais pas le déter' Mes Fassis blaguent pas, ils vont te découper, frère Kheyo, j'ai grandi à Marseille Parano, j'vais finir comme un lion d'la casse J'vais tout casser, à commencer par le cul à ta go Kheyo, comme un vulgaire chien d'la casse J'donnerai tout pour ma mère, mon père Vous ne manquerez plus de rien Les valeurs de la famille oblige le lion à se coucher avec la faim J'deploie mes ailes, suis-moi, j't'emmène J'vais finir royal, si tu me suis, t'auras la belle vie J'veux voir ma belle fassiya Dans la tunique de coutume comme ma mère Mon nom de famille, c'est le Ma3koul Tu comprends que j'suis droit parce que tu veux me la faire Moi, c'est le Z, j'viens de Meknès J'te baise, j'fais des tours de la ville sans stress C'est là que les vrais mecs naissent Toute la 7ouma dans une caisse Y a rien, ici, pas de plages, pas de pacotilles Mais viens l'été, tu seras ébloui Tu vas te souvenir de l'hôtel Zaki, Benyaki On veut des billets verts, reste tranquille Et lève ton verre, hello, j'ai besoin qu'on m'isole J'ai trop souffert, j'veux pas être une idole Fais bellek, la douane nous colle Ici, les tits-pe sniffent d'la colle Pendant qu'chez nous, ils pleurent chez Paul Toujours en pôle, j'évite la taule T'évites les coups, j'évite le sol Ouais, y a d'la folle pour les lions d'la casse Dans le VIP avec une liasse C'est nous les marchands de glace On te vissère, et ça, sur place J'ai treize envies, je t'oublie, j'en ai douze J'noie ma peine dans la Grey Goose Faut du flou-flou-flous, mettre bien les cou-cou-couz Hello ! C'est le Morocco Un conseil fais pas le fou, j'suis avec mes loups-garous Paris à Meknès, Dyour Salam, Hamria J'fais un tour dans la ville, désolé si j'suis sous hiya J'suis posé, je bois mon thé, j'refais le monde en entier Señorita, t'es pas mal alors j'te laisse passer volontiers Tonton me dit monte dans la voiture On monte f Rrif, j'lui dis volontiers Tu n'admireras pas la vue, t'étais pas là pendant la montée J'suis à Tanger, douane volante, Audi blanche, phares xénon Le gars t'harcèle, dis-lui que c'est non Tu manques de rien, ok, c'est bon J'suis en claquettes, wlad l7ouma, safi ih wah ih Ma ka n3erfouch, goulli chkoun homa, safi ih wah ih Et même d'ici, j'peux sentir votre seum, ih wah ih Tanja, nmchiw , ih wah ih Il m'faut des pépètes, téma ma silhouette J'déboule en pirouette, rhabille ta terma Ici, on file au bord de la mer Là-bas, on file un mauvais karma La kenti baghi t3ref kifach ka ndiro Koun rajel w khellik m3aya La kenti chmata, snanek gha ytiro Ma ghadich tbqa tchof lmraya Sbo3a ka ymchiw bu7dhom w l7wala khashom l'berger Bqaw 7adini 7adini 7adini b7ala kollkom m3a les RG Kalsha ga3 ma ka ytfella, maghribi yjib likom ljadid Men Meknas tal Mirikan, sewwel Meek Mill w DJ Khaled F blaset Versace, Versace, Versace Labes les babouches, les babouches, les babouches Ghadi ndir chi 7wayej ma ka ytdaroch Rrap rah sekhfan, ghadi ndirlo l'bouche-à-bouche Men BX l Paname, khouti gha ngol likom lsalam Li baghini ghadi nbghih, li mektabli ghadi neddih Men ba3d, yn3el bo l3alam Ana machi derri daser, maghribi hazz drapeau Dima m3ak rani m3emmer, semmini Kalsha El Chapo 3awtani, 3awtani ghadi njibo chhad, ghadi ndiro m3ak ay blan Nkherjo ndebbro lwraq f Sbanya, ntberr3o b l7did dyal Lalman Mgharba dima rjal, sir sewwel sahbi Hicham La frada, la gilet pare-balles, la jbedtina, redd lbal8</t>
+          <t>Blanka, Cosmos Prod Les lions de la casse, BXL, ah ! F khater lblad, c'est le début de la faim With Kalsha, lions de la casse Le début de la faim Et ouais, chacal Koul simana 3endi mra jdida Wejda, Tanja, Casa wella Jdida Myat melyoun f l7dida Baghi nchri qser n3tih l lwalida Tlqani f Meknas gales m3a Kalsha Wella f 3oukacha bla kacha Wella m3a lbeznasa f rremla Nsifto lghobra f lghorba Nes qentar f lgoma N3el zouk mmat l7okoma! Fi khater ga3 wlad lblad Li mchaw 7argin rakbin foq jet Denya khayba, khodha kifma jat Kedba bayna, qalthali Najat Nes f Europa kabrin f l7basat W nnes lakhor gales ka ykeffet Wa fiq a khoya, ta malek? Hezz rasek wella jme3 kerrek! Bda ka ybi3 m3ak, f llekher tferreq Ch7al men wa7ed li mat 7areg Khellithom ydwiw bghaw y7egroni Darbin khyota s7abo ryoshom Tony Zetla, vodka m3a gin tonic 7req jedd babahom, dites-leur tous, j'les nique Ils sont comme Pulvar et comme Polony Ils retournent leur veste pour de la money Nouvel album bientôt disponible Les lions de la casse pour tous mes homies Ga3 lmgharba machi b7ala tsettaw Drebna lma7ya b7ala drebna ddaw Lakhor li slet, ma 3reft fin wella 7amra, khadra, wa tiwliwla ! J'suis ce capitaliste qui vient de Rabat À la recherche de loves, toujours khabat Wa khoya malek ka tchouf bab ljiran W qeddam darek, khessek tkerret? On peut me loger à Bab Diwana Tu comprends pourquoi j'baise les douanes, non non C'est pas des courses de zodiaque Que mes frelons préparent à Tétouan Comme l'a dit Hassan Ttani non, on fera pas de bons immigrés À Paris, j'me sens mort, pour ça que j'la vends à plusieurs degrés Vaurien Gang, 212, l'étoile est verte, le drapeau ensanglanté Avoir eu un Abdelkrim dans notre pays Wallah qu'on peut s'en vanter Dans 20 ans, tu m'verras jolie barbe vêtu d'un qamis En gros bolide avec mes fils sur le boulevard Mohamed Lkhamis J'veux que du biff dans le seddari Une jolie qesba dans les Oudayas Le meilleur tailleur pour mes 3abaya Des mitraillettes qui s'enrayent pas Coupe de bâtard, grosse barbe du Fatah J'fuck la liberté d'expression Qui sont Qatar c'est bien les deux taga Rebeu, j'me pose grave la question Tu penses à demain, j'pense à la mort J'parle pas chinois comme quand j'la sors Ouais, j'suis d'la sorte, j'suis un sauvage Toujours du tact, même du Jack dans le breuvage T'inq-t'inq-t'inquiète, on est jeunes et sincères Rebeu, rebeu, on est jeunes et sincères Moroccan Boys, ça, c'est élémentaire Sewwel Mariya wach baqa célibataire Rouge, vert, beur, t'as reconnu l'emblème Va vers Meuda, tu verras, c'est la même Lions d'la casse, marocain, c'est f ddem Kalsha, khellini j'vais les neddem Backpack, faut le pactole Plus d'zeille pour la daronne, moins de factures Tu parles, tu crèves, ils te censurent Et cela va de soi, c'est nous les ordures J'kiffe trop mon bled, j'kiffe trop mon bled Posés f l7ouma J'vois le sin-cou, direct, on sort l'oseille C'est la famille, les homies, la femme et les frères Oui, on est posés, ils vont s'reposer 3abaya, babouches, les massas sont dosées 3emmi t'a parlé, t'as visé le danger Touche mon re-frè, là, le tier-quar viendra se venger D'Agadir à Meknès, de Casa à Tanja T'inquiète pas, mon re-frè, qu'on est doués Si mon frère me l'a mise, c'est qu'une partie remise Mais tu sais qu'dans le fond, on est soudés Enfants de la Lune, on évite le soleil Si j'pouvais construire un studio sous terre J'te jure que nos ennemis feraient tous pareil Et donc, y aurait plus personne sur Terre J'suis posé avec mes gavas, qu'on me laisse J'évite de me montrer, me parle pas de relève T'inquiète pas, l'élève a dépassé le maître au sommet, j'le vois à des kilomètres Ok, j'arrive trop lourd pour les ken J'étais pas là, j'cherchais l'oseille J'suis à la tess avec ma 'teille J'suis au de-ble, un verre d'atay Je savais que j'les baiserais à l'aise Ils ont pas cru en moi, ces merguez Y a plus d'amis, tu donnes tes fesses À Villetaneuse, je resterai le best J'suis dans le bendo, j'te regarde même pas J'texte ta hlal juste devant toi Tu vas rien faire, tu veux me parler ? On t'a dit de lever le doigt J'suis dans ma werss, j'cherche la moula J'ai un Glock, j'suis en mode boulard J'vends des pneus, j'fais des dollars Dans mon équipe, y a pas qu'des taulards J'ai un cerveau, j'suis pas de ces connards Quand j'les écoute, j'en ai des mollards Ils sont pas crédibles, j'te jure, woullah ! Ils vont rien faire, leur pute de mwima Si ta meuf sent le crevette, la mienne elle pue le Sonia Rykiel J'suis plus Fatou qu'Obama Michelle J'appelle mes potes, t'appelles le 17, nigga ! Il suffit pas d'avoir des couilles, il faut savoir les porter Chez nous, elles sont trop lourdes Elles savent même plus comment m'aborder Porté par une lionne, j'suis prêt à tous les défoncer J'ai pas eu de chance en amour pourtant on m'a dit de foncer J'revois cette scène, ya yemma J'revois ce calibre sur ma tempe, ma tombe à Zaouïa Oui, j'revois ce soleil de Tadla Avec mes zinc fog ssta7, sebsi w rwina Ah ! J'essaye de tenir, lésions, alcoolique Monnaie, vroum, 150 chevaux et un brolic Oui, la patrie, je l'ai dans le gelb Oui, j'veux une gâterie et mon nemmi dans le hum Galo liya weld Danone Sem3ouni ga3, hadchi fabor Le linge sale, chez nous, c'est en mifa Qu'il se lave et, tout ça, sans sabon Le Maroc, le Maroc, oui, ma patrie, un jour j'y retournerai La mifa, ma petite, mon million, les impôts, j'les contournerai Mais est-ce qu'ils me voient comme un bougnoule ? Y a pas de lardon dans mon couscous On est d'accord, j'arrache le sol Des ballots, des ballots, on fait l'compte sur l'iPhone J'connais des gavas qu'ont appris le rifton Pour que la sel3a soit bénéfique en somme Tel-hô, ge-pla, ya khoya, bqiti fiya Jeune au village, j'porte lfamila Khoya, b chwiya, jendarmiya Ils ont voulu voler mon flow mais, putain, j'm'en bats, les mecs Sur le toit du aqser avec un fusil à lunettes Maghribi, non, personne va me la mettre Va leur dire que j'suis l'enfer qui s'fout d'la gueule des allumettes Oh non ! Rebeu, que pasa ? J'suis présent pour Kalsha De Marrakech à Casa, Abderrezaq, Fat Mizzo et Masta Putain de phénomène ouais Va savoir ou est-ce que l'effet nous mène Le buzz, on le fait nous-mêmes Sans se mettre à poil, pas comme les Femen Est-ce que t'entends ? La plupart sont incompétents Ça devient embêtant, rapanpanpan ! J'veux pas descendre de chez moi Entendre un tel qui a parlé sur un tel J'veux pas descendre de chez moi J'veux pas rejoindre le commun des mortels Wahyawina, dis-leur que l'attitude est phénoménale Pas de Glock sur l'abdominal Lion de l'Atlas, j'suis le mâle dominant Ils disent que les keufs sont corrompus, mais ils sont là chaque été Le bled est rempli de prostitution, mais ils sont là chaque été Qu'on baigne dans la sorcellerie, mais ils sont là chaque été Et que mon bled, il pue la merde, mais ils sont là chaque été Arwah, arwah, achkid adak inih awma Rih adak inih lhaqiqa, hati nga tatsa Arwah, arwah, achkid adak inih awma Rih adak inih lhaqiqa, hati nga tatsa Oujda, Filaj Toba, ouais, je viens de là-bas Viens approche, marhaba, trabando et casa J'rappe et j'suis l'étoile verte, pousse-toi, je vais me faire la malle J'atterris, j'suis en mode binks à l'aéroport des Angads C'est la terre de mes ancêtres et de mon père Alors, steuplaît, garde ton grade Garde ton grade, salopard Il se peut que tu glisses comme à Belgrade Laisse parler chekkama, khoya, wach ddani l Ktama? J'veux faire passer des tonnes comme des ballons Les glisser au fond comme Nordin Amrabat Demande à Saïd, c'est pas la chute qui compte Un lion d'la casse retombe sur ses pattes Y a plus rien dans cette vie qui m'épate La routine te fume, détruit à coups de batte Saïdia, retrouve-moi sur la côte Ça sort le yacht et le cap, le yacht et le cap En France, c'est les allocs et le câble en rêvant de la vie à Pablo Khoya, Allah, Alwatan, Almalik ! Nique-toi et toute ta putain de République Tous ces humains sont loin d'être magnifiques J'vois l'Europe couler comme le Titanic C'est pour tous mes bonhommes d'Ahfir Et ouais, ça investit comme au Qatar J'me suis vu seul sur une barque À chanter ana ma 3endi zhar Marruecos, shab lbarod w lkarabina Prendre le mic, ça devient évident Shab lbarod w lkarabina Prendre le mic, ça devient imminent Kheyo, j'suis un lion de l'Atlas Donc normal qu'ça sente le shit dans le Classe E Tu fais le fou, t'aimes faire le clasheur J't'encule pas, j't'envoie mes gars, khey, j'ai trop de classe Non, mon khey, j'imite rien ni personne Un lion ne copie pas, non, il fait pas le singe Il fait tout tout seul Il se mélange pas même si, des fois, il finit hyper-seul C'est A-Deal de Fas Jjdid, chez moi, aucun À l'ancienne Les marocains l'savent, ouais, c'est normal Qu'aujourd'hui, j'la fasse briller, ouais, c'est inévitable Là, j'suis avec le R à Sidi Bounafa3 Gros, on est sereins, on arrache tout le ter-ter Poto, fais pas l'fou, fais pas le déter' Mes Fassis blaguent pas, ils vont te découper, frère Kheyo, j'ai grandi à Marseille Parano, j'vais finir comme un lion d'la casse J'vais tout casser, à commencer par le cul à ta go Kheyo, comme un vulgaire chien d'la casse J'donnerai tout pour ma mère, mon père Vous ne manquerez plus de rien Les valeurs de la famille oblige le lion à se coucher avec la faim J'deploie mes ailes, suis-moi, j't'emmène J'vais finir royal, si tu me suis, t'auras la belle vie J'veux voir ma belle fassiya Dans la tunique de coutume comme ma mère Mon nom de famille, c'est le Ma3koul Tu comprends que j'suis droit parce que tu veux me la faire Moi, c'est le Z, j'viens de Meknès J'te baise, j'fais des tours de la ville sans stress C'est là que les vrais mecs naissent Toute la 7ouma dans une caisse Y a rien, ici, pas de plages, pas de pacotilles Mais viens l'été, tu seras ébloui Tu vas te souvenir de l'hôtel Zaki, Benyaki On veut des billets verts, reste tranquille Et lève ton verre, hello, j'ai besoin qu'on m'isole J'ai trop souffert, j'veux pas être une idole Fais bellek, la douane nous colle Ici, les tits-pe sniffent d'la colle Pendant qu'chez nous, ils pleurent chez Paul Toujours en pôle, j'évite la taule T'évites les coups, j'évite le sol Ouais, y a d'la folle pour les lions d'la casse Dans le VIP avec une liasse C'est nous les marchands de glace On te vissère, et ça, sur place J'ai treize envies, je t'oublie, j'en ai douze J'noie ma peine dans la Grey Goose Faut du flou-flou-flous, mettre bien les cou-cou-couz Hello ! C'est le Morocco Un conseil fais pas le fou, j'suis avec mes loups-garous Paris à Meknès, Dyour Salam, Hamria J'fais un tour dans la ville, désolé si j'suis sous hiya J'suis posé, je bois mon thé, j'refais le monde en entier Señorita, t'es pas mal alors j'te laisse passer volontiers Tonton me dit monte dans la voiture On monte f Rrif, j'lui dis volontiers Tu n'admireras pas la vue, t'étais pas là pendant la montée J'suis à Tanger, douane volante, Audi blanche, phares xénon Le gars t'harcèle, dis-lui que c'est non Tu manques de rien, ok, c'est bon J'suis en claquettes, wlad l7ouma, safi ih wah ih Ma ka n3erfouch, goulli chkoun homa, safi ih wah ih Et même d'ici, j'peux sentir votre seum, ih wah ih Tanja, nmchiw , ih wah ih Il m'faut des pépètes, téma ma silhouette J'déboule en pirouette, rhabille ta terma Ici, on file au bord de la mer Là-bas, on file un mauvais karma La kenti baghi t3ref kifach ka ndiro Koun rajel w khellik m3aya La kenti chmata, snanek gha ytiro Ma ghadich tbqa tchof lmraya Sbo3a ka ymchiw bu7dhom w l7wala khashom l'berger Bqaw 7adini 7adini 7adini b7ala kollkom m3a les RG Kalsha ga3 ma ka ytfella, maghribi yjib likom ljadid Men Meknas tal Mirikan, sewwel Meek Mill w DJ Khaled F blaset Versace, Versace, Versace Labes les babouches, les babouches, les babouches Ghadi ndir chi 7wayej ma ka ytdaroch Rrap rah sekhfan, ghadi ndirlo l'bouche-à-bouche Men BX l Paname, khouti gha ngol likom lsalam Li baghini ghadi nbghih, li mektabli ghadi neddih Men ba3d, yn3el bo l3alam Ana machi derri daser, maghribi hazz drapeau Dima m3ak rani m3emmer, semmini Kalsha El Chapo 3awtani, 3awtani ghadi njibo chhad, ghadi ndiro m3ak ay blan Nkherjo ndebbro lwraq f Sbanya, ntberr3o b l7did dyal Lalman Mgharba dima rjal, sir sewwel sahbi Hicham La frada, la gilet pare-balles, la jbedtina, redd lbal8</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Yah sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Tout ce qui brille n'est pas de l'or, bah non parfois c'est du diamant Ça prémédite quilletran, c'est mieux qu'agir inconsciemment Ceux qu'tu porteras sur tes épaules, sont les premiers à vouloir te marcher dessus L'oiseau que t'élèvera il s'envolera et ne reviendra que pour te chier dessus Je suis resté vrai depuis le jour d'ma naissance Au lieu de les arroser au champagne j'aurai du le faire à l'essence Je me connais pas moi-même, des fois je suis ravi de faire ma connaissance Dans mon tiequar j'aurai tout vu à part de la reconnaissance J'leur ai fait passer le miper, ils ont voulu me blé-dou Ouais ils ont oublié que Mister You c'est du W12 Maintenant ils me font les yeux doux, mais je me dois de les blesser tous J'en ai vendu des zedoux, da3wa j'en ai fait du flouss Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Yah sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya You might also like C'est pour Medhi du Mistral, non j'oublie pas la familia C'est pour son fils Kyllian et sa ptite princesse Camilia 500 000 E de caution, da3wa on pesera jusqu'au milliard LV 6 4 Motion nous fera office de corbillard Jsuis en train dattendre Haykel, jsuis avec fué dela te-chouet Crois moi quOn a réussi la ou les 34 ont échoué Chez moi ça te sort un calibre à lâge de manier des jouets D-da3wa on boycotte les condés, pour nous planquer ils ont déjoué Galess ken da3ya el waqt, dayer rassek ga3 ma msari Bghaw iqat3ou liya lsani, tal ghyabek ya ghzali Tounsi, Moghrabi, Dzayri, l3aqa taht sedari Wa fin a l'khawa ? Wa fin a drari ? Bou Zebel labess 3lih idour m3a Kilimini Khellini, baghi Reporter ou Lamborghini El mouhim qteltouni hram 3likoum a 3adyani a 3adyani Sbart ou tal 3dabi Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya ...2</t>
+          <t>Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Yah sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Tout ce qui brille n'est pas de l'or, bah non parfois c'est du diamant Ça prémédite quilletran, c'est mieux qu'agir inconsciemment Ceux qu'tu porteras sur tes épaules, sont les premiers à vouloir te marcher dessus L'oiseau que t'élèvera il s'envolera et ne reviendra que pour te chier dessus Je suis resté vrai depuis le jour d'ma naissance Au lieu de les arroser au champagne j'aurai du le faire à l'essence Je me connais pas moi-même, des fois je suis ravi de faire ma connaissance Dans mon tiequar j'aurai tout vu à part de la reconnaissance J'leur ai fait passer le miper, ils ont voulu me blé-dou Ouais ils ont oublié que Mister You c'est du W12 Maintenant ils me font les yeux doux, mais je me dois de les blesser tous J'en ai vendu des zedoux, da3wa j'en ai fait du flouss Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Yah sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya C'est pour Medhi du Mistral, non j'oublie pas la familia C'est pour son fils Kyllian et sa ptite princesse Camilia 500 000 E de caution, da3wa on pesera jusqu'au milliard LV 6 4 Motion nous fera office de corbillard Jsuis en train dattendre Haykel, jsuis avec fué dela te-chouet Crois moi quOn a réussi la ou les 34 ont échoué Chez moi ça te sort un calibre à lâge de manier des jouets D-da3wa on boycotte les condés, pour nous planquer ils ont déjoué Galess ken da3ya el waqt, dayer rassek ga3 ma msari Bghaw iqat3ou liya lsani, tal ghyabek ya ghzali Tounsi, Moghrabi, Dzayri, l3aqa taht sedari Wa fin a l'khawa ? Wa fin a drari ? Bou Zebel labess 3lih idour m3a Kilimini Khellini, baghi Reporter ou Lamborghini El mouhim qteltouni hram 3likoum a 3adyani a 3adyani Sbart ou tal 3dabi Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal 3dabi, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya Sbart ou tal l7al, ana m3ak ntiya Ki ndir sidi Rabbi, khtitek hessit bel kiya ...2</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kherrjo lqra3i m ttelaja, drari, Mister You ja M3a Balti kima Lqa3ida, ddisk wa3er b ddarija Ddenya ghada w ga3 ma raj3a, ddenya ghada w ga3 ma raj3a Lyouma Wydad, ghedda Raja, lyouma Wydad, ghedda Raja Tferrjo fiya f telfaza, tsennto liya f radio Jay b7al bbakom, s7ab Hadji, Bassir w Camacho Sewwlo 3liya f chamal, seqsiw ga3 lbeznasa Gha ygoulo likom Yougataga, l3chiwer ta3 Casa Khawa daba daba daba Europa tendem 3liya Khobz ddar klato gha lberraniya Kano 3endi chi s7ab, kount baghi nmout 3lihom W lyouma bghaw yqetlouni, lghira dekhlet fihom Ddenya 3aycha b l3kes, Falistini mat 3la lkhobz Sa3oudi dda Champs-Élysées, Lihoudi dda Lqods Ddenya 3aycha b l3kes, Falistini mat 3la lkhobz Sa3oudi dda Champs-Élysées, Lihoudi dda Lqods Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille You might also like Galo maghrébins w galo 3lina danger Babor 7arraga machi l l'étranger Ma tête de 3arbi hiya li tdéranger Ma tête de 3arbi hiya li tdéranger Rapapampam, s7ab lbaroud w lkarabila Rapapampam, s7ab lme7na w lftila Rapapampam, s7ab chikha koll lila Rapapampam, khellouni tranquille Chafo rasi f lpasseport, yestkhaloni terroriste Galo Terminator, goltlhom hasta la vista N7ebb njib l'or kima Tony Montana Te quiero mi amor, n7ebb Dolce w l'Gabbana Goltlhom rani 3arbi kima Karim Benzema Jay l l'Europe w labes 7wayji lgdem Ghir had lblad li ma 3tatnach lqima N7ebb nbeddel ljaw w n7ebb nbeddel lclimat Hareb m lklab li testenna fi mouti W nrja3 l lblad w nferra7 7babi w khouti W jrina 7afyanin w lyouma mchina b Zanotti Chmata f tta7ana li t7ebbni nakol kabboti Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille</t>
+          <t>Kherrjo lqra3i m ttelaja, drari, Mister You ja M3a Balti kima Lqa3ida, ddisk wa3er b ddarija Ddenya ghada w ga3 ma raj3a, ddenya ghada w ga3 ma raj3a Lyouma Wydad, ghedda Raja, lyouma Wydad, ghedda Raja Tferrjo fiya f telfaza, tsennto liya f radio Jay b7al bbakom, s7ab Hadji, Bassir w Camacho Sewwlo 3liya f chamal, seqsiw ga3 lbeznasa Gha ygoulo likom Yougataga, l3chiwer ta3 Casa Khawa daba daba daba Europa tendem 3liya Khobz ddar klato gha lberraniya Kano 3endi chi s7ab, kount baghi nmout 3lihom W lyouma bghaw yqetlouni, lghira dekhlet fihom Ddenya 3aycha b l3kes, Falistini mat 3la lkhobz Sa3oudi dda Champs-Élysées, Lihoudi dda Lqods Ddenya 3aycha b l3kes, Falistini mat 3la lkhobz Sa3oudi dda Champs-Élysées, Lihoudi dda Lqods Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille Galo maghrébins w galo 3lina danger Babor 7arraga machi l l'étranger Ma tête de 3arbi hiya li tdéranger Ma tête de 3arbi hiya li tdéranger Rapapampam, s7ab lbaroud w lkarabila Rapapampam, s7ab lme7na w lftila Rapapampam, s7ab chikha koll lila Rapapampam, khellouni tranquille Chafo rasi f lpasseport, yestkhaloni terroriste Galo Terminator, goltlhom hasta la vista N7ebb njib l'or kima Tony Montana Te quiero mi amor, n7ebb Dolce w l'Gabbana Goltlhom rani 3arbi kima Karim Benzema Jay l l'Europe w labes 7wayji lgdem Ghir had lblad li ma 3tatnach lqima N7ebb nbeddel ljaw w n7ebb nbeddel lclimat Hareb m lklab li testenna fi mouti W nrja3 l lblad w nferra7 7babi w khouti W jrina 7afyanin w lyouma mchina b Zanotti Chmata f tta7ana li t7ebbni nakol kabboti Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille Fin homa l7bab li baghin ythellaw fina? Ddenya m3ekksa, nnemla 3eftet 3la lfil Lyouma zawali, hamdoulillah, 3ayech f lvilla W li kan labas 3lih, rah daba 3ayech f rrwina Fin homa l7bab li baghin ythellaw fina? Rapapampam, s7ab lmafia w lqtila Lyouma zawali, hamdoulillah, 3ayech f lvilla Rapapampam, khellouni tranquille</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Haw jayek ya 7ouma Balti Mister yougataga Li wlad l7ouma eli mchaw fi baber harraga Galou 3lina kavia galou 3lina des blédards 3a9liya irhabiya Tounes li Dar El Beïda Je suis maghrébin dit fuck les qataris Rap de tarés chérie de Tunis à Paris 3arbi demmi s5oun tounsi jazairi maghribi Sinon maghribi btou3 wi salatou 3annibi Ija chouf l7ouma t7eb tjib l'euro Min beriz lroma zatla fil marlboro Jeunesse dans le coma 7areg fi babourou Wil blad mchouma y7eb ybadel décorou 7areg lil europe 3ayech fiha clandestino Dharba casino un peu comme Al Pacino Da3wa fi frança c'est les gars de chez nous Fil champs elysées 7ouma zatla capuccino 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata You might also like A cette heure si chui faya je crois que j'vais me barrer vers Malaga Vers Tanger ou Hammamet fi khater tous les harraga J'rappe pour mes fréres au bled qui sont H24 dans la lére-ga Qui rêvent devant la mer l'espoir se lit dans tous les regards 2016 rien à changer c'est toujours la révolution Beaucoup d'problèmes, toujours aucune solution Dites au 3assés et à ma voisine que non je ne baisserais pas le son J'en ai besoin pour m'evader, j'envie de surfer sur les ondes Liasses des illets-bi bien aplaties Ok c'est reparti y' a plein de trucs qu'on t'a pas dit Wougataga balti J'roule un zdeh pépère, j'effritte sur deux,trois, quatres plaquettes J'veux voir toutes les mains en l'air pour faire kiffer les pickpockets J'tourne en quad dans le desert je peux freestyler pendant des heures La kherdala elle est pour l'entrée la beldia elle est pour l'déssert Prochain album sera bien un viscère Les 3aineurs je leur ferais la misére Les boycotteurs je t'en parle même pas à cette heure-ci ils sont déjà tous dans le viseur 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata De Tunis à Tanger balti Gataga danger 7ala mala partout mil blad lil étranger Tunis Casa Alger on est fort t'est mort dans le jeu Le maghreb c'est Bagdad ici y'a pa de fils de Chez nous pas d'enfant chmata, on s'oppose toujours à l'état C'est pour qu'on adore les trav' Faut de l'oseille couleur betterave Ce soir c'est la guerre faut sortir les 9mm les famas et les kalash Histoire de la mettre à tout ces traitres Son sahraoui bedoui chargui jay mil guebla Bledi 7walek zebla 5sara chadouk kbabbla Balti gataga habla sur un son de malade Ici ou là bas t'as déconné on te met un oigt-d On te met un oigt-d ou on te met un ied-p On te rentre un bras si tu veux pas yép' Entre la hass et les paillettes, les porsche cayenne et les 7kayet Toujours chaud toujours caliente Les 3ineurs sont dans la chaîne et pendant que nous on roule des capotées et tinquiète y'a d'ce qu'il faut d'côté 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata7</t>
+          <t>Haw jayek ya 7ouma Balti Mister yougataga Li wlad l7ouma eli mchaw fi baber harraga Galou 3lina kavia galou 3lina des blédards 3a9liya irhabiya Tounes li Dar El Beïda Je suis maghrébin dit fuck les qataris Rap de tarés chérie de Tunis à Paris 3arbi demmi s5oun tounsi jazairi maghribi Sinon maghribi btou3 wi salatou 3annibi Ija chouf l7ouma t7eb tjib l'euro Min beriz lroma zatla fil marlboro Jeunesse dans le coma 7areg fi babourou Wil blad mchouma y7eb ybadel décorou 7areg lil europe 3ayech fiha clandestino Dharba casino un peu comme Al Pacino Da3wa fi frança c'est les gars de chez nous Fil champs elysées 7ouma zatla capuccino 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata A cette heure si chui faya je crois que j'vais me barrer vers Malaga Vers Tanger ou Hammamet fi khater tous les harraga J'rappe pour mes fréres au bled qui sont H24 dans la lére-ga Qui rêvent devant la mer l'espoir se lit dans tous les regards 2016 rien à changer c'est toujours la révolution Beaucoup d'problèmes, toujours aucune solution Dites au 3assés et à ma voisine que non je ne baisserais pas le son J'en ai besoin pour m'evader, j'envie de surfer sur les ondes Liasses des illets-bi bien aplaties Ok c'est reparti y' a plein de trucs qu'on t'a pas dit Wougataga balti J'roule un zdeh pépère, j'effritte sur deux,trois, quatres plaquettes J'veux voir toutes les mains en l'air pour faire kiffer les pickpockets J'tourne en quad dans le desert je peux freestyler pendant des heures La kherdala elle est pour l'entrée la beldia elle est pour l'déssert Prochain album sera bien un viscère Les 3aineurs je leur ferais la misére Les boycotteurs je t'en parle même pas à cette heure-ci ils sont déjà tous dans le viseur 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata De Tunis à Tanger balti Gataga danger 7ala mala partout mil blad lil étranger Tunis Casa Alger on est fort t'est mort dans le jeu Le maghreb c'est Bagdad ici y'a pa de fils de Chez nous pas d'enfant chmata, on s'oppose toujours à l'état C'est pour qu'on adore les trav' Faut de l'oseille couleur betterave Ce soir c'est la guerre faut sortir les 9mm les famas et les kalash Histoire de la mettre à tout ces traitres Son sahraoui bedoui chargui jay mil guebla Bledi 7walek zebla 5sara chadouk kbabbla Balti gataga habla sur un son de malade Ici ou là bas t'as déconné on te met un oigt-d On te met un oigt-d ou on te met un ied-p On te rentre un bras si tu veux pas yép' Entre la hass et les paillettes, les porsche cayenne et les 7kayet Toujours chaud toujours caliente Les 3ineurs sont dans la chaîne et pendant que nous on roule des capotées et tinquiète y'a d'ce qu'il faut d'côté 3arbi erakh lala-lalalala Jaloux tu veux ma part? T'es-t'es t'es t'es qui toi? Bande des bata-tatatatards On revient vous raffaler Rata-tatatata Fallait pas déconner Nana-nanana Fais pas s7ab tu nous connais na-nananana Balti yougataga-tagatataga On revient vous raffaler Rata-tatatata7</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hadouken C'était comment l'parlu ? C'est bon, j'ai vu les potes T'inquiète, le 3esses va nous ramener les entrecôtes Et l'fils de pute ? C'est bon, j't'ai fait rentrer ta puce Ce soir, j'te branche directement avec le mec Assis-toi et roule un p'tit, j'sais bien qu'tu pètes un câble On va s'le faire, mon reuf, c'est pas l'mitard qui va arranger les choses Tu vux d'mander la condi', en même tmps, tu veux l'voir dans l'coffre de la Audi Ne laisse pas les nerfs prendre le pas sur ta cause Ouais, j'veux l'voir dans la fosse, You, j'vois plus mes quatre gosses Le pire j'ai honte, j'ai fait confiance à un dromadaire qui avait quatre bosses Tu sais, même dans mes rêves, j'passe la porte, j'suis libérable Y a Reda qui m'tire le col pour me ramener en cellule Ça fait quarante mois qu'je tourne, la concu' m'a mis aux archives Dans les pellicules de Snap', j'revois mes vacances aux Maldives Mon frérot, branche-moi une bonne fois pour toute, qu'on en finisse Je paie c'qu'il faut pour qu'ça soit propre et pas qu'on nous remonte - Tu veux parler avec lui ? Tiens, parle avec lui. Tiens, ça sonne - Ouais, allô ? - Ouais, allô ? Poto ? - Bien ou quoi ? - Ouais, bien. Eh, frérot, j't'appelle par rapport à l'autre là. Eh, j'suis en sang sa mère, frérot. C'est un mec de chez toi, t'as capté ? Il a pas été carré, il nous a donné directement, ma gueule. Il est branché avec eux directement. J'peux pas laisser. Dis-moi, j'paie c'qu'il faut et faut qu'ça vienne de chez toi, ma gueule. - T'inquiète, on va l'faire, on va l'faire. You might also like Rien qui bouge sans mon accord, zone quadrillée, tout l'monde raccorde Un coup, un corps, j'l'entends crier, il est d'jà mort, Il l'sait pas encore Okay, vamos, y a vrais vatos, y a gros matos, son nom gravé sur la bastos Ta cause, ma cause, pas de taros Ouais, on te l'arrose et tout, gratos Merci Sois en paix, j'vais bipper Ouais, sa grand-mère, faut qu'il paie sa dette, sa Patek Philippée Okay Équipiers équipés, OP pour s'en occuper Okay, sac mortuaire d'jà zippé, sur son torse R.I.P Ouais, Lacrim ? Ouais, salam T'sais qu'chez moi, ça démarre au quart J'connais deux-trois hayawan avec qui ils jouaient au poker à l'occas' Mon tit-pe baisait sa sur, j'sais qu'il va souvent la voir pour voir si elle est pas seule, facile d'lui mettre un traceur Eh, t'sais quoi ? J'ai les outils adéquats, de quoi ? Éteindre les témoins ? J'reçois De quoi l'allumer, j'déploie, deux-trois gars d'chez moi, dis-moi le jour et l'endroit J'ai d'quoi régler mes conflits, d'habitude, faut payer plein pot, pour lui, ça sera moitié prix - Ouais, allô ? - Ouais, allô ? Reda ? - Ouais, frérot ? - Ouais, ça va ou quoi, frérot ? Bien ? - Ça va et toi ? - Ouais, tranquille. Qu'est-ce qu'j'voulais dire ? Y a des affaires là, qui sont arrivées là - Ah, cool - Ouais, ouais... Donc, vas-y, hein, passe, hein... Passe comme d'hab' au café - Euh... J'passerai ce soir ou demain, ça t'va ? - Vas-y, c'est bon. Direct - Vas-y, carré, carré - Vas-y, salam, frérot. Salam Ça dit quoi ? J'ai une clope, fais voir un stick, faut qu'j'te dise, j'crois qu'j'ai cramé l'appartement de sa pute Mes potes connaissent tous ses potes, t'es mon reuf, j'veux pas qu'tu m'payes Et t'inquiète, il t'a balance, ils vont tous prendre mes patins J'ai un sin-c' qui traite avec un sin-c' qui connaît tous ses sins-c' et comme d'habitude, avec Rimkus, pour les plavons ches-lou J'ai trop d'ges-sh' sur la SIM et j'ai te-j' la carte SIM, avant d'te-j' la carte SIM, j'ai d'jà copié tous les num' Apparemment, tout s'passe bien, ils ont la bonne logistique Tes potes, c'est pas du bidon, il va s'faire fumer comme un p'tit stick Ouais Dès qu'il sort du Bât' 7 Ouais, dans sa Audi A7 Ouais, ce fils de pute va regretter d'avoir volé dans nos assiettes, amigo Faut lui niquer sa tante, même tout l'or du monde ne pourra pas racheter sa langue Ils m'ont bippé, tout est en place, demain, ils vont s'le faire Quand la parole devient bip, mon reuf, on répond par le fer, eh T'es une balance et t'arrives pas à peser tes actes Tes actes, tes actes ? On t'mettra du plomb dans la cervelle Cervelle Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes On t'remet les pieds sur la terre ferme Terre ferme T'as fait pleurer les miens, j'vais faire pleurer les tiens, gros Pleurer les tiens, gros Du 7.62 pour soigner ton syndrome Ton syndrome Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes T'aurais dû tenir ta langue, gros Ta langue, gros, ta langue, gros Gardien d'mon frère, en effet En effet, c'qui compte, c'est les faits et on l'a fait On l'a fait, il est dans l'fer Dans l'fer Faire ses affaires sans s'laisser faire notre sphère et rien n'y fait Rien n'y fait C'est comme ça, frère, toujours fier Toujours fier J'espère qu'tu as l'cur soulagé, la petite merde en sachet a fini comme promis, Champomy1</t>
+          <t>Hadouken C'était comment l'parlu ? C'est bon, j'ai vu les potes T'inquiète, le 3esses va nous ramener les entrecôtes Et l'fils de pute ? C'est bon, j't'ai fait rentrer ta puce Ce soir, j'te branche directement avec le mec Assis-toi et roule un p'tit, j'sais bien qu'tu pètes un câble On va s'le faire, mon reuf, c'est pas l'mitard qui va arranger les choses Tu vux d'mander la condi', en même tmps, tu veux l'voir dans l'coffre de la Audi Ne laisse pas les nerfs prendre le pas sur ta cause Ouais, j'veux l'voir dans la fosse, You, j'vois plus mes quatre gosses Le pire j'ai honte, j'ai fait confiance à un dromadaire qui avait quatre bosses Tu sais, même dans mes rêves, j'passe la porte, j'suis libérable Y a Reda qui m'tire le col pour me ramener en cellule Ça fait quarante mois qu'je tourne, la concu' m'a mis aux archives Dans les pellicules de Snap', j'revois mes vacances aux Maldives Mon frérot, branche-moi une bonne fois pour toute, qu'on en finisse Je paie c'qu'il faut pour qu'ça soit propre et pas qu'on nous remonte - Tu veux parler avec lui ? Tiens, parle avec lui. Tiens, ça sonne - Ouais, allô ? - Ouais, allô ? Poto ? - Bien ou quoi ? - Ouais, bien. Eh, frérot, j't'appelle par rapport à l'autre là. Eh, j'suis en sang sa mère, frérot. C'est un mec de chez toi, t'as capté ? Il a pas été carré, il nous a donné directement, ma gueule. Il est branché avec eux directement. J'peux pas laisser. Dis-moi, j'paie c'qu'il faut et faut qu'ça vienne de chez toi, ma gueule. - T'inquiète, on va l'faire, on va l'faire. Rien qui bouge sans mon accord, zone quadrillée, tout l'monde raccorde Un coup, un corps, j'l'entends crier, il est d'jà mort, Il l'sait pas encore Okay, vamos, y a vrais vatos, y a gros matos, son nom gravé sur la bastos Ta cause, ma cause, pas de taros Ouais, on te l'arrose et tout, gratos Merci Sois en paix, j'vais bipper Ouais, sa grand-mère, faut qu'il paie sa dette, sa Patek Philippée Okay Équipiers équipés, OP pour s'en occuper Okay, sac mortuaire d'jà zippé, sur son torse R.I.P Ouais, Lacrim ? Ouais, salam T'sais qu'chez moi, ça démarre au quart J'connais deux-trois hayawan avec qui ils jouaient au poker à l'occas' Mon tit-pe baisait sa sur, j'sais qu'il va souvent la voir pour voir si elle est pas seule, facile d'lui mettre un traceur Eh, t'sais quoi ? J'ai les outils adéquats, de quoi ? Éteindre les témoins ? J'reçois De quoi l'allumer, j'déploie, deux-trois gars d'chez moi, dis-moi le jour et l'endroit J'ai d'quoi régler mes conflits, d'habitude, faut payer plein pot, pour lui, ça sera moitié prix - Ouais, allô ? - Ouais, allô ? Reda ? - Ouais, frérot ? - Ouais, ça va ou quoi, frérot ? Bien ? - Ça va et toi ? - Ouais, tranquille. Qu'est-ce qu'j'voulais dire ? Y a des affaires là, qui sont arrivées là - Ah, cool - Ouais, ouais... Donc, vas-y, hein, passe, hein... Passe comme d'hab' au café - Euh... J'passerai ce soir ou demain, ça t'va ? - Vas-y, c'est bon. Direct - Vas-y, carré, carré - Vas-y, salam, frérot. Salam Ça dit quoi ? J'ai une clope, fais voir un stick, faut qu'j'te dise, j'crois qu'j'ai cramé l'appartement de sa pute Mes potes connaissent tous ses potes, t'es mon reuf, j'veux pas qu'tu m'payes Et t'inquiète, il t'a balance, ils vont tous prendre mes patins J'ai un sin-c' qui traite avec un sin-c' qui connaît tous ses sins-c' et comme d'habitude, avec Rimkus, pour les plavons ches-lou J'ai trop d'ges-sh' sur la SIM et j'ai te-j' la carte SIM, avant d'te-j' la carte SIM, j'ai d'jà copié tous les num' Apparemment, tout s'passe bien, ils ont la bonne logistique Tes potes, c'est pas du bidon, il va s'faire fumer comme un p'tit stick Ouais Dès qu'il sort du Bât' 7 Ouais, dans sa Audi A7 Ouais, ce fils de pute va regretter d'avoir volé dans nos assiettes, amigo Faut lui niquer sa tante, même tout l'or du monde ne pourra pas racheter sa langue Ils m'ont bippé, tout est en place, demain, ils vont s'le faire Quand la parole devient bip, mon reuf, on répond par le fer, eh T'es une balance et t'arrives pas à peser tes actes Tes actes, tes actes ? On t'mettra du plomb dans la cervelle Cervelle Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes On t'remet les pieds sur la terre ferme Terre ferme T'as fait pleurer les miens, j'vais faire pleurer les tiens, gros Pleurer les tiens, gros Du 7.62 pour soigner ton syndrome Ton syndrome Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes T'aurais dû tenir ta langue, gros Ta langue, gros, ta langue, gros Gardien d'mon frère, en effet En effet, c'qui compte, c'est les faits et on l'a fait On l'a fait, il est dans l'fer Dans l'fer Faire ses affaires sans s'laisser faire notre sphère et rien n'y fait Rien n'y fait C'est comme ça, frère, toujours fier Toujours fier J'espère qu'tu as l'cur soulagé, la petite merde en sachet a fini comme promis, Champomy1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mister Yougataga, DJ E-Rise à la compo' Bien mal acquis ne profite jamais donc réciproquement Mal bien acquis profite toujours J'suis avec Youssouf' au niouf Dans une affaire d'pillon et shnouf Car si il nous dit de faire la prière Golo il nous fait de la bête de bouffe Passe le gruyère, des pommes de terre Il te fait un gratin ou des pizza Le jour ou il m'a dit des qu'j'sors You je vais vendre de la coke vers Ibiza On a pas eu le destin de Valéry Giscard ni celui de Lisa non On a connu la hass, le prétoire, les cellules bizarre C'est un peu comme l'impression d'être dans une baraque hantée Où des mecs se serait pendus ou ch'pa.. se seraient fait pointer Trop souvent en manque d'affection, la réalité bat la fiction La vérité donne des frissons, le manque d'argent mène en prison Si y'a les keufs et qu'j'pars en taule et j'fonce vers la rue d'Buisson Darwa si j'suis à rebeval j'me cache derrière un buisson Laissez passer mauvais garçon, 45 grammes dans l'caleçon Bête de formation, chez nous on boycottent les francs-maçons N'crois pas ce qui disent à la télé, sont sur les informations Ils veulent nous faire croire que la Palestine ne mérite pas toute notre attention Woogataga, j'suis venu choquer la nation J'suis mal vu comme un çon-gla au pays du chocolat chaud Le surveillant le chef et le major j'ai l'impression que c'est des fachos Au lieu de trouver des solutions, y préfère nous foutre au cachot Grosse dédicace à Foued, à la Repu ainsi qu'à Jo Balance du Moët que j'me ouette J'ai pas bu depuis 4 jours J'ai la preuve par A B que mal bien acquis profite toujours C'est à Belleville que je naquis toutes les belles filles s'passent le bonjour Moi c'est Yougataga, les concurrents bon débarras Rap cai-fran pour moi, c'est comme du mafé pour un bambara Darwa ! C'est ce qui me permet de retirer plus rapidement les pinces C'est comme un oinj pour les keins ou bien une couronne pour un prince J'arrive toutes les chicos grincent, les rappeurs ont la ne-hai Sucent tous des haaaa ben disons qu'ils font comme Delanoé Hé hé Yougataga ouai ouai t'étais ou ouai ouai darwa Le placard c'est de la branlette, la liberté sera darwa Pour accéder à la gloire non non personne ne m'a aidé J'ai du aller acheter du Bicar et cuisiner mieux que Maïté J'sors du zoogataga, les concurrents sont décédés T'es pas au courant, ils sont morts le jour de la sortie de mon CDYou might also like3</t>
+          <t>Mister Yougataga, DJ E-Rise à la compo' Bien mal acquis ne profite jamais donc réciproquement Mal bien acquis profite toujours J'suis avec Youssouf' au niouf Dans une affaire d'pillon et shnouf Car si il nous dit de faire la prière Golo il nous fait de la bête de bouffe Passe le gruyère, des pommes de terre Il te fait un gratin ou des pizza Le jour ou il m'a dit des qu'j'sors You je vais vendre de la coke vers Ibiza On a pas eu le destin de Valéry Giscard ni celui de Lisa non On a connu la hass, le prétoire, les cellules bizarre C'est un peu comme l'impression d'être dans une baraque hantée Où des mecs se serait pendus ou ch'pa.. se seraient fait pointer Trop souvent en manque d'affection, la réalité bat la fiction La vérité donne des frissons, le manque d'argent mène en prison Si y'a les keufs et qu'j'pars en taule et j'fonce vers la rue d'Buisson Darwa si j'suis à rebeval j'me cache derrière un buisson Laissez passer mauvais garçon, 45 grammes dans l'caleçon Bête de formation, chez nous on boycottent les francs-maçons N'crois pas ce qui disent à la télé, sont sur les informations Ils veulent nous faire croire que la Palestine ne mérite pas toute notre attention Woogataga, j'suis venu choquer la nation J'suis mal vu comme un çon-gla au pays du chocolat chaud Le surveillant le chef et le major j'ai l'impression que c'est des fachos Au lieu de trouver des solutions, y préfère nous foutre au cachot Grosse dédicace à Foued, à la Repu ainsi qu'à Jo Balance du Moët que j'me ouette J'ai pas bu depuis 4 jours J'ai la preuve par A B que mal bien acquis profite toujours C'est à Belleville que je naquis toutes les belles filles s'passent le bonjour Moi c'est Yougataga, les concurrents bon débarras Rap cai-fran pour moi, c'est comme du mafé pour un bambara Darwa ! C'est ce qui me permet de retirer plus rapidement les pinces C'est comme un oinj pour les keins ou bien une couronne pour un prince J'arrive toutes les chicos grincent, les rappeurs ont la ne-hai Sucent tous des haaaa ben disons qu'ils font comme Delanoé Hé hé Yougataga ouai ouai t'étais ou ouai ouai darwa Le placard c'est de la branlette, la liberté sera darwa Pour accéder à la gloire non non personne ne m'a aidé J'ai du aller acheter du Bicar et cuisiner mieux que Maïté J'sors du zoogataga, les concurrents sont décédés T'es pas au courant, ils sont morts le jour de la sortie de mon CD3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mardi 30 Juin 2009 21 heures 29 Je suis posé dans le 19 J'ai le flemme d'appeler une petite meuf Je suis recherché par les keufs, mais je m'en bats les couilles Car je sais bien qu'après la gamelle, c'est du caviar leranekoul Je dois purger ma peine mais je compte bien la faire à la cool J'ai dit à Lacrim' pour faire de l'oseille bientôt tu mettras plus la cagoule Cristal ou Veuve Clicquot La clim ou un ventillo Micro stylo Dodo De la conss 2, 3 kilos On me dira Bsahtek la réussite, La Mecque j'suis pas un aïneur Moi c'est mister, j'arrive tout de suite, au fait, je pars à une heure Message aux femelles j'arrive qu'avec des amis mâles On fais tous des fautes, c'est pour ça que je dit qu'on est tous des animals On sort du ZOO gataga mon gars On veut récuperer nos sous et le tout sans frais d'avocat Te casse pas les cojones, sors du bohro. Laisse Moi rouler un zdeh parce que là mon cerveau stress poto! Je suis marteau et je crois bien que j'vais te clouer le bec Ouais, c'est le remake mec, Yhrek jed bebet ymak Si t'es un bâtard tu peux garder tes commentaires Là je suis en cavale j'appelle Buakaw toujours incarcéré à nanterre Il me dit qu'il a le morale, il a pas besoin d'aide mais il a besoin d'air Je lui dis que moi ça va mal, il me dit courage tout passe mon frère Je suis au resto en solo, je suis assis je graille des brochettes J'ai tout plein de projets, je sors un maxi la semaine prochaine Je fume du shit et de la salade, les condés je les rends malade Sur internet je les nargue et dans toute la France je me balade Je fais que grimper, gros ma carrière c'est une escapade Arrête You si tu peux mais bon entraîne toi et fais de l'escaladeYou might also like2</t>
+          <t>Mardi 30 Juin 2009 21 heures 29 Je suis posé dans le 19 J'ai le flemme d'appeler une petite meuf Je suis recherché par les keufs, mais je m'en bats les couilles Car je sais bien qu'après la gamelle, c'est du caviar leranekoul Je dois purger ma peine mais je compte bien la faire à la cool J'ai dit à Lacrim' pour faire de l'oseille bientôt tu mettras plus la cagoule Cristal ou Veuve Clicquot La clim ou un ventillo Micro stylo Dodo De la conss 2, 3 kilos On me dira Bsahtek la réussite, La Mecque j'suis pas un aïneur Moi c'est mister, j'arrive tout de suite, au fait, je pars à une heure Message aux femelles j'arrive qu'avec des amis mâles On fais tous des fautes, c'est pour ça que je dit qu'on est tous des animals On sort du ZOO gataga mon gars On veut récuperer nos sous et le tout sans frais d'avocat Te casse pas les cojones, sors du bohro. Laisse Moi rouler un zdeh parce que là mon cerveau stress poto! Je suis marteau et je crois bien que j'vais te clouer le bec Ouais, c'est le remake mec, Yhrek jed bebet ymak Si t'es un bâtard tu peux garder tes commentaires Là je suis en cavale j'appelle Buakaw toujours incarcéré à nanterre Il me dit qu'il a le morale, il a pas besoin d'aide mais il a besoin d'air Je lui dis que moi ça va mal, il me dit courage tout passe mon frère Je suis au resto en solo, je suis assis je graille des brochettes J'ai tout plein de projets, je sors un maxi la semaine prochaine Je fume du shit et de la salade, les condés je les rends malade Sur internet je les nargue et dans toute la France je me balade Je fais que grimper, gros ma carrière c'est une escapade Arrête You si tu peux mais bon entraîne toi et fais de l'escalade2</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Putain, où ai-je atterri ? Les condés m'ont tamponné vite fait, bien fait J'ai fini dans l'car cellulaire, les fils de p' m'ont mis à Fleury Et j'ai pas dormi d'la nuit, j'suis resté debout, à fumer par la fenêtre J'sais toujours pas comment j'ai fait pour en arriver là, après demain, j'devais m'barrer à Marbella Ils ont pété ma bella et saisi ma villa, l'avocat va m'casser l'dos pour que j'me barre de là Mais nique sa mère, on reste fort vu qu'j'suis arrivé au bâtiment Premièrement j'ai mis mon cur au coffre-fort, deuxièmement faut faire sa place J'commence par prendre le lit d'en bas, si l'codétenu, il fait l'malin, j'lui nique sa race - Eh, You ? - Ouais, ouais, ouais... - Eh, y a ton poto là, Lacrim aux arrivants ! - Dis wAllah ? - Ouais, il est juste en face là. - Ouais, Lacrim ! - Ouais, ouais ! - Ouais, c'est You, ma gueule ! - Ouais, You, bien ou quoi ? - Ouais, ouais, ouais... - Eh, descends, descends, enfoiré, eh, descends, descends, c'est la promenade là. Wesh mon reuf, bien ou quoi ? Ah, putain, j'suis dégoûté quand j'ai appris la nouvelle pour oi-t Comment ils ont fait ? J'me suis demandé Tu faisais ton 'seille, t'étais scret-di, beaucoup de cash et plus d'crédit Un peu d'fumette, un peu d'Tidrine, un peu d'buvette, un peu d'training Là, maintenant, va falloir t'y faire et faire belek aux petits frères Car au placard, ça va trop vite, on passe du paradis à l'enfer Ne fais confiance qu'à la famille, j'planquais mon 'phone dans paquets d'pâtes Mon fils de pute de codétenu parti m'poucave au chef du bât' J'peux t'le jurer, l'été au cachot, il fait très chaud et tu parles tout seul Y a plein d'bonhommes, wallaye billaye qu'ont perdu la boussole Frérot, ici, t'confie à personne, compte sur tes couilles et ton pécule Mon ancien co', j'l'ai éclaté, j'ai failli finir comme un légume You might also like - Rah ouais, You, paro - Rah, laisse tomber. - On est au shtar ensemble - Rah, laisse tomber, mon reuf wAllah, laisse tomber. Et toi là, comment ils t'ont remonté, ma gueule ? Frérot, tu le sais, j'suis discret à mort, à part deux-trois têtes, personne sait nada J'suis rempli d'parasites, ils m'ont pris un demi-litre J'allais visser un Égyptien qui s'appelle Réda Mais attends, l'rendez-vous, c'était pas à Porte de la Chapelle ? Un mec au crâne chauve, yeux clairs, balafre en dessous d'l'oreille ? Des keufs de partout, un BP quand il t'ramène la paie Ce fils de pute, il s'évapore pendant qu'les condés te balayent J'pète les plombs, sur la vie d'ma mère, c'est lui Un gros sac qui pue d'la gueule qu'j'ai pété en boîte de nuit Il m'a pas lâché d'une s'melle, il m'a appelé toute la semaine C'fils de pute a payé cash alors j'pensais qu'il était cuit Oh, putain, l'bâtard, j'ai l'seum Il a fait fermer des terrains, des gars d'Lyon, des gars d'Paname, des mecs de Nantes, etcetera Moi, c'fils de putain, il m'a appâté en m'vendant une Patek , puis deux, puis trois, c'est devenu mon pote, et puis tneket J'l'ai rentré dans l'cercle familial, j'lui ai présenté la daronne, j'ai envie d'lui faire du sale, j'ai envie d'lui niquer sa reum fils de pute Il a donné ses potes d'enfance, pour lui, c'n'est pas du tout grave C'est l'comble mais c'fils de pute, il a même poucave des poucaves Faut qu'on lui montre bien que la rue, c'est pas n'importe comment Ce gros bâtard, il va payer l'excès d'comportement Le fait qu'on soit en taule, il va l'regretter fortement On va l'attraper puis l'attacher dans l'appartement directement Y a ma mère qui pleure, ils ont pété ma femme Y a la perte de sous due à la perte de time Je rêve de la manger ou bien de kalasher J'irai p't-être m'enfoncer, ouais, mais lui, j'vais pas l'lâcher - Oh, quelle dinguerie c'tte histoire quand même, frérot - Eh, chaque chose en son temps, mon reuf. Un jour, avec le chef du bâtiment, on va s'mettre en cellule ensemble. T'inquiète, j'suis branché. On va bien s'occuper d'ça. - T'es un bon - Latifi, Zenoud ! Promenade terminée, on rentre.</t>
+          <t>Putain, où ai-je atterri ? Les condés m'ont tamponné vite fait, bien fait J'ai fini dans l'car cellulaire, les fils de p' m'ont mis à Fleury Et j'ai pas dormi d'la nuit, j'suis resté debout, à fumer par la fenêtre J'sais toujours pas comment j'ai fait pour en arriver là, après demain, j'devais m'barrer à Marbella Ils ont pété ma bella et saisi ma villa, l'avocat va m'casser l'dos pour que j'me barre de là Mais nique sa mère, on reste fort vu qu'j'suis arrivé au bâtiment Premièrement j'ai mis mon cur au coffre-fort, deuxièmement faut faire sa place J'commence par prendre le lit d'en bas, si l'codétenu, il fait l'malin, j'lui nique sa race - Eh, You ? - Ouais, ouais, ouais... - Eh, y a ton poto là, Lacrim aux arrivants ! - Dis wAllah ? - Ouais, il est juste en face là. - Ouais, Lacrim ! - Ouais, ouais ! - Ouais, c'est You, ma gueule ! - Ouais, You, bien ou quoi ? - Ouais, ouais, ouais... - Eh, descends, descends, enfoiré, eh, descends, descends, c'est la promenade là. Wesh mon reuf, bien ou quoi ? Ah, putain, j'suis dégoûté quand j'ai appris la nouvelle pour oi-t Comment ils ont fait ? J'me suis demandé Tu faisais ton 'seille, t'étais scret-di, beaucoup de cash et plus d'crédit Un peu d'fumette, un peu d'Tidrine, un peu d'buvette, un peu d'training Là, maintenant, va falloir t'y faire et faire belek aux petits frères Car au placard, ça va trop vite, on passe du paradis à l'enfer Ne fais confiance qu'à la famille, j'planquais mon 'phone dans paquets d'pâtes Mon fils de pute de codétenu parti m'poucave au chef du bât' J'peux t'le jurer, l'été au cachot, il fait très chaud et tu parles tout seul Y a plein d'bonhommes, wallaye billaye qu'ont perdu la boussole Frérot, ici, t'confie à personne, compte sur tes couilles et ton pécule Mon ancien co', j'l'ai éclaté, j'ai failli finir comme un légume - Rah ouais, You, paro - Rah, laisse tomber. - On est au shtar ensemble - Rah, laisse tomber, mon reuf wAllah, laisse tomber. Et toi là, comment ils t'ont remonté, ma gueule ? Frérot, tu le sais, j'suis discret à mort, à part deux-trois têtes, personne sait nada J'suis rempli d'parasites, ils m'ont pris un demi-litre J'allais visser un Égyptien qui s'appelle Réda Mais attends, l'rendez-vous, c'était pas à Porte de la Chapelle ? Un mec au crâne chauve, yeux clairs, balafre en dessous d'l'oreille ? Des keufs de partout, un BP quand il t'ramène la paie Ce fils de pute, il s'évapore pendant qu'les condés te balayent J'pète les plombs, sur la vie d'ma mère, c'est lui Un gros sac qui pue d'la gueule qu'j'ai pété en boîte de nuit Il m'a pas lâché d'une s'melle, il m'a appelé toute la semaine C'fils de pute a payé cash alors j'pensais qu'il était cuit Oh, putain, l'bâtard, j'ai l'seum Il a fait fermer des terrains, des gars d'Lyon, des gars d'Paname, des mecs de Nantes, etcetera Moi, c'fils de putain, il m'a appâté en m'vendant une Patek , puis deux, puis trois, c'est devenu mon pote, et puis tneket J'l'ai rentré dans l'cercle familial, j'lui ai présenté la daronne, j'ai envie d'lui faire du sale, j'ai envie d'lui niquer sa reum fils de pute Il a donné ses potes d'enfance, pour lui, c'n'est pas du tout grave C'est l'comble mais c'fils de pute, il a même poucave des poucaves Faut qu'on lui montre bien que la rue, c'est pas n'importe comment Ce gros bâtard, il va payer l'excès d'comportement Le fait qu'on soit en taule, il va l'regretter fortement On va l'attraper puis l'attacher dans l'appartement directement Y a ma mère qui pleure, ils ont pété ma femme Y a la perte de sous due à la perte de time Je rêve de la manger ou bien de kalasher J'irai p't-être m'enfoncer, ouais, mais lui, j'vais pas l'lâcher - Oh, quelle dinguerie c'tte histoire quand même, frérot - Eh, chaque chose en son temps, mon reuf. Un jour, avec le chef du bâtiment, on va s'mettre en cellule ensemble. T'inquiète, j'suis branché. On va bien s'occuper d'ça. - T'es un bon - Latifi, Zenoud ! Promenade terminée, on rentre.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wesh Rise-E dis moi comment c'est N'écoutes pas les clébards qu'aboient Fais juste bellek aux lions qui rugissent Moi j'ai grandis dans la street Et à Fleury-Mérogis C'est pas que je veux faire l'gars côté Mais non, j'te laisse pas mon numéro miss J'dois mettre l'oseille de côté Ils sont tous au shtar mes homies Ils comptent sur moi comme les remises de peine J'suis riche J'm'en fiche J'ai pas de fiches de paie On me paie au black en show-case Escorté pouchka dans le top-case Nique sa mère qui veut test Je suis tout spouki mais je vous baise Je vous donne rencard à l'Everest Je serai juste au-dessus en train de grailler des fraises J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko You might also likeNananana nanananananananananana Nananana Nananana nanananananananananana Wesh Rise-E dis moi comment c'est Tu sais que ça a même pas encore commencé Keblack, You on a trop manigancé Putain on va pas recommencer Le sommet pour nous est accessible Je voulais passer une deco c'est impossible, my negga Impossible, j'suis dans le game Pour commettre des homicides Depuis peu, je leur fais du mal Depuis peu, je me suis fais la malle J'ai appris que, qu'il fallait faire la mala J'suis impliqué dans un délire de malade Dans un délire de malade Ne me raconte pas tes salades My negga Que des salopes Ça sort Titus et tu galopes J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko Nananana nanananananananananana Nananana Nananana nanananananananananana Nananana La plupart sont des mythos Ouais sont des mythos J'pars sans faire demi-tour Ils ont jamais rien fais mais ça me vend des mythos C'est vrai les gens sont devenus chelou Chez moi la brebis a braqué le loup Même le guépard s'est fait mettre à genoux Les 3aineurs voient bien même sans Afflelou C'est vrai que l'être humain il est mauvais Il est pas écolo comme José Bové Il pense qu'a faire des lovés Et il se repentit que quand il se fait coffré J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko Nananana nanananananananananana Nananana Nananana nanananananananananana Nananana Erise en altitude You en altitude Keblack toujours en altitude Dans le carré en altitude</t>
+          <t>Wesh Rise-E dis moi comment c'est N'écoutes pas les clébards qu'aboient Fais juste bellek aux lions qui rugissent Moi j'ai grandis dans la street Et à Fleury-Mérogis C'est pas que je veux faire l'gars côté Mais non, j'te laisse pas mon numéro miss J'dois mettre l'oseille de côté Ils sont tous au shtar mes homies Ils comptent sur moi comme les remises de peine J'suis riche J'm'en fiche J'ai pas de fiches de paie On me paie au black en show-case Escorté pouchka dans le top-case Nique sa mère qui veut test Je suis tout spouki mais je vous baise Je vous donne rencard à l'Everest Je serai juste au-dessus en train de grailler des fraises J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko Nananana nanananananananananana Nananana Nananana nanananananananananana Wesh Rise-E dis moi comment c'est Tu sais que ça a même pas encore commencé Keblack, You on a trop manigancé Putain on va pas recommencer Le sommet pour nous est accessible Je voulais passer une deco c'est impossible, my negga Impossible, j'suis dans le game Pour commettre des homicides Depuis peu, je leur fais du mal Depuis peu, je me suis fais la malle J'ai appris que, qu'il fallait faire la mala J'suis impliqué dans un délire de malade Dans un délire de malade Ne me raconte pas tes salades My negga Que des salopes Ça sort Titus et tu galopes J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko Nananana nanananananananananana Nananana Nananana nanananananananananana Nananana La plupart sont des mythos Ouais sont des mythos J'pars sans faire demi-tour Ils ont jamais rien fais mais ça me vend des mythos C'est vrai les gens sont devenus chelou Chez moi la brebis a braqué le loup Même le guépard s'est fait mettre à genoux Les 3aineurs voient bien même sans Afflelou C'est vrai que l'être humain il est mauvais Il est pas écolo comme José Bové Il pense qu'a faire des lovés Et il se repentit que quand il se fait coffré J'suis en altitude, négro Changement d'attitude, igo Comme d'habitude Je piétinerai plus ce sale bitume, deko Nananana nanananananananananana Nananana Nananana nanananananananananana Nananana Erise en altitude You en altitude Keblack toujours en altitude Dans le carré en altitude</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wesh Clem's enfoiré bien ? Écoute ça gros ! Quand on était petit, ta daronne, j'l'ai aidée à porter ses courses Aujourd'hui, si j'la vois j'lui arrache les veuch' et j'la course Alors Clément, au 36 tu fais pas de crise d'épilepsie Tu ravales pas ta gue-lan tu surveilles pas ton lexique À cause de toi sale âne bâté j'ai pas fait l'hiver au Mexique Da3wa, j'vais pas t'rater j'vais t'fumer comme un vrai stick Diakité, Belmahdi ils ont opté pour l'inertie Bazoo m'a dit que l'OPJ n'a pas arrêté d'te dire merci P'tit p'tit p'tit p'tit p'tit, nan, grand fils de pute J'vais t'niquer tes morts ta mère et ta grand-mère la pute T'as poukave en garde à v', t'as foiré l'diplôme du brave J'ai pris Maitre Haik Lebras, pour t'fumer y m'faudra 4 taffes Gros tu mérites une rafale, j'vais engager les p'tits d'la place Au 14 rue Rébéval, ils vont venir t'allumer ta race À cause de toi j'suis en cavale, paraît qu'tu kiffes les bananes J'ai vu le 36 aboyer man j'étais dans la caravane T'as vu la rue c'est paro, t'as sucé là faut qu't'avales Gros même derrière les barreaux, j'représente toujours Paname M'en bats les couilles faut qu'j'assume, Ougataga faut qu'j'assure La promenade c'est pas aux anglais elle s'trouve pas sur la Côte d'Azur J'm'en bats les couilles t'sais qu'j'assume, Ougataga t'sais qu'j'assure La promenade c'est pas aux anglais elle s'trouve pas sur la Côte d'Azur You might also like Surveillant ! Ouuuugataga ! On partira dans ma cave C'est l'son des familles nombreuses, le rap tah les chien d'la CAF Le rap tah les chien d'la CAF C'est l'son des familles nombreuses Planque vite ton shit que j'débite, va niquer ta mère la pute Espèce de boycotteur de merde, suce moi la bite quand j'débute Suce moi la bite quand j'débute, va niquer ta mère la pute Espèce de poukave de merde, j'vais t'niquer ta mère la pute Be-be-be-be-be-be-Belleville ! C'est l'son d'la zone gros, le son du zoo ! Tu t'rappelles de moi ?</t>
+          <t>Wesh Clem's enfoiré bien ? Écoute ça gros ! Quand on était petit, ta daronne, j'l'ai aidée à porter ses courses Aujourd'hui, si j'la vois j'lui arrache les veuch' et j'la course Alors Clément, au 36 tu fais pas de crise d'épilepsie Tu ravales pas ta gue-lan tu surveilles pas ton lexique À cause de toi sale âne bâté j'ai pas fait l'hiver au Mexique Da3wa, j'vais pas t'rater j'vais t'fumer comme un vrai stick Diakité, Belmahdi ils ont opté pour l'inertie Bazoo m'a dit que l'OPJ n'a pas arrêté d'te dire merci P'tit p'tit p'tit p'tit p'tit, nan, grand fils de pute J'vais t'niquer tes morts ta mère et ta grand-mère la pute T'as poukave en garde à v', t'as foiré l'diplôme du brave J'ai pris Maitre Haik Lebras, pour t'fumer y m'faudra 4 taffes Gros tu mérites une rafale, j'vais engager les p'tits d'la place Au 14 rue Rébéval, ils vont venir t'allumer ta race À cause de toi j'suis en cavale, paraît qu'tu kiffes les bananes J'ai vu le 36 aboyer man j'étais dans la caravane T'as vu la rue c'est paro, t'as sucé là faut qu't'avales Gros même derrière les barreaux, j'représente toujours Paname M'en bats les couilles faut qu'j'assume, Ougataga faut qu'j'assure La promenade c'est pas aux anglais elle s'trouve pas sur la Côte d'Azur J'm'en bats les couilles t'sais qu'j'assume, Ougataga t'sais qu'j'assure La promenade c'est pas aux anglais elle s'trouve pas sur la Côte d'Azur Surveillant ! Ouuuugataga ! On partira dans ma cave C'est l'son des familles nombreuses, le rap tah les chien d'la CAF Le rap tah les chien d'la CAF C'est l'son des familles nombreuses Planque vite ton shit que j'débite, va niquer ta mère la pute Espèce de boycotteur de merde, suce moi la bite quand j'débute Suce moi la bite quand j'débute, va niquer ta mère la pute Espèce de poukave de merde, j'vais t'niquer ta mère la pute Be-be-be-be-be-be-Belleville ! C'est l'son d'la zone gros, le son du zoo ! Tu t'rappelles de moi ?</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi l'taré qui a sali le rap Quest-ce que je men bats les couilles de leurs saloperies de soirées de merde Moi j'veux que les petits bicravent de la drogue même à cet enfoiré de Maire La Liberté cest quune Statue, pour lobserver je fume une plaquette H-24 sur le rrain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Passe moi un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el Hanoutt Da3wa cest ça qui fait le goût Khouya, demande à mon soce d'baroud On se barre où cet été ? Des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer des zbars Ou à sembrouiller avec ces bâtards de hessess qui nous font ier-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tars-ba Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok, fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, j'finis par Yougataga Enfant du peuple toujours du Caramelo dans une clope Jai une galerie de trophées comme tous les grands clubs Débrouillard, coup de crosse, frère on fait du cash Coup de crasse, la vérité dun homme cest ce quil cache Coup de click, coup de poignet sur la bécane On se bagarre plus à mon âge, direct on sort le pétard À tous mes Détenus Particulièrement Surveillés Fuck les politiques, ces chiens surpayés Jai que des frères adoptifs, jai pas de bande, j'ai pas de clan Je te mets une baffe à Noël, tu ten remets le jour de lan Passe moi les clefs, passe moi le plan pour quitter la cité La blanche a intoxiqué les petits émancipés On était là avant le Stade de France, les antennes paraboliques On se propose d'racheter Paris pour un euro symbolique Bim Bim cest le son de cloche Je peux produire un album, juste avec mes fonds de poche On revient de loin, on sest fait tirer dessus Tenlèves ma rue, les pages du Val-de-Marne, Le Parisien nexisterait plus Donc mon petit tu restes au calme Au bled on fait pousser les palmiers Ici on fructifie les fonds dépargne You might also like Jarrive dans le Game en claquette comme un taulard à la douche Rap de pure 3arbouch, on a que le mot dollar à la bouche Mister You, Rim-K, Woogataga, je crois que ça va chier Surveillant fais passer ça, tranquille saka maché Quand tes en promenade au mitard, crois moi tes loin dêtre à Nice Ce quon veut tous cest du flouze, on rêve dêtre blindés de rhaliss On veut senvoler dans les airs sans que ces bâtards nous neutralisent On veut fumer dlherbe tranquille, pépère, ouais la vie dartiste La vie dartiste, on est hors piste, hors normes dune zone de sinistre Aux tauliers, braqueurs d'DABistes, tapes la bise Je rappe pour les familles sans défenses, sans dépenses Il y aura toujours des cocktails même à cent euros le litre dessence Parle à mon arme de guerre, ma tête est malade Je marche sur un fil cest le partage Vitry-Belleville Affilié à la coke des îles, no futur Mange-toi notre putain de vécu en pleine figure Reçu comme un chien aux arrivants, ces bâtards texaminent Sans être chrétien, tu mets une croix sur la plupart de tes amis Au bout de quelques jours, tu réalises que la galère se banalise Et hop libérable, rebelote Nique sa mère la police Nique sa mère la polizia, Maghreb Arabia Tête à queue à Porte Maillot en Féfé Italia On rassemble les hommes, les vrais, les troupes On la ferme et on prouve On réveille les pulsions les plus troubles À force de tourner en promenade, on fini par chopper le tournis Mais on sen fout au tribunal, chacun notre tour on nie Jusquà la mort on nie, devant les juges les plus gros thos-my On lâchera pas promis Jusquau llion-mi cest rhami1</t>
+          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi l'taré qui a sali le rap Quest-ce que je men bats les couilles de leurs saloperies de soirées de merde Moi j'veux que les petits bicravent de la drogue même à cet enfoiré de Maire La Liberté cest quune Statue, pour lobserver je fume une plaquette H-24 sur le rrain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Passe moi un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el Hanoutt Da3wa cest ça qui fait le goût Khouya, demande à mon soce d'baroud On se barre où cet été ? Des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer des zbars Ou à sembrouiller avec ces bâtards de hessess qui nous font ier-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tars-ba Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok, fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, j'finis par Yougataga Enfant du peuple toujours du Caramelo dans une clope Jai une galerie de trophées comme tous les grands clubs Débrouillard, coup de crosse, frère on fait du cash Coup de crasse, la vérité dun homme cest ce quil cache Coup de click, coup de poignet sur la bécane On se bagarre plus à mon âge, direct on sort le pétard À tous mes Détenus Particulièrement Surveillés Fuck les politiques, ces chiens surpayés Jai que des frères adoptifs, jai pas de bande, j'ai pas de clan Je te mets une baffe à Noël, tu ten remets le jour de lan Passe moi les clefs, passe moi le plan pour quitter la cité La blanche a intoxiqué les petits émancipés On était là avant le Stade de France, les antennes paraboliques On se propose d'racheter Paris pour un euro symbolique Bim Bim cest le son de cloche Je peux produire un album, juste avec mes fonds de poche On revient de loin, on sest fait tirer dessus Tenlèves ma rue, les pages du Val-de-Marne, Le Parisien nexisterait plus Donc mon petit tu restes au calme Au bled on fait pousser les palmiers Ici on fructifie les fonds dépargne Jarrive dans le Game en claquette comme un taulard à la douche Rap de pure 3arbouch, on a que le mot dollar à la bouche Mister You, Rim-K, Woogataga, je crois que ça va chier Surveillant fais passer ça, tranquille saka maché Quand tes en promenade au mitard, crois moi tes loin dêtre à Nice Ce quon veut tous cest du flouze, on rêve dêtre blindés de rhaliss On veut senvoler dans les airs sans que ces bâtards nous neutralisent On veut fumer dlherbe tranquille, pépère, ouais la vie dartiste La vie dartiste, on est hors piste, hors normes dune zone de sinistre Aux tauliers, braqueurs d'DABistes, tapes la bise Je rappe pour les familles sans défenses, sans dépenses Il y aura toujours des cocktails même à cent euros le litre dessence Parle à mon arme de guerre, ma tête est malade Je marche sur un fil cest le partage Vitry-Belleville Affilié à la coke des îles, no futur Mange-toi notre putain de vécu en pleine figure Reçu comme un chien aux arrivants, ces bâtards texaminent Sans être chrétien, tu mets une croix sur la plupart de tes amis Au bout de quelques jours, tu réalises que la galère se banalise Et hop libérable, rebelote Nique sa mère la police Nique sa mère la polizia, Maghreb Arabia Tête à queue à Porte Maillot en Féfé Italia On rassemble les hommes, les vrais, les troupes On la ferme et on prouve On réveille les pulsions les plus troubles À force de tourner en promenade, on fini par chopper le tournis Mais on sen fout au tribunal, chacun notre tour on nie Jusquà la mort on nie, devant les juges les plus gros thos-my On lâchera pas promis Jusquau llion-mi cest rhami1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Y'en à un seul qui joue au con et on y reste tous Dans le sceau, vire moi ça Doucement, Frank dans le sceau j'ai dit Chacun son tour Très bien Maleck, voilà doucement A toi Ange Voila, voila, dans l'aquarium J'représente Paname, fuck les putes qui font des manières L'salaire de Zlatan vaut pas le sourire d'ma mère Producteur et rappeur, j'fabrique et brise des carrières Cagoulé, Glocké, roofé et ganté j'arrive par derrière Sur l'terrain faut tout niquer avant que les flics s'amènent Y'a des choses qu'ils faut déléguer et d'autres qu'on doit faire soi-même J'ai du shit il m'faut d'la salade, j'écris qu'des phrases de malades Woogataga, j'ai pas le cur qui bat à la chamade J'frappe cette putain d'police avec mes bête de homies Au bout d'plusieurs tei-teilles j'suis pas d'ceux qui vomissent J'suis qu'un rappeur moi, j'suis un espèce de protagoniste J'ai mal au cur car j'vois qu'au shtar mes potes agonisent Lacrim ou XXXX Yannis, Mounir, Kligno, Doumams elle est trop longue la liste Ils exécutent leurs peines bien qu'ils kiffent les remises J'veux plaire à mes auditeurs bien plus que j'veux plaire aux miss Libérable sous caution, paye 1 million, t'en aura 10 Ok, j'rappe sous potion Panoramix Pur parigo ouai poto comme Verratti Remballer vos Saxo laisser passer l'Maserati Un coup d'calibre dans vos gueules ma gueule bête de reur-ti M'en vais grailler la gamelle me souhaiter pas bon appétit Une grosse dédicace à Bakaw à XXXX à Ladji Nos bicyclettes en lucarne vaut mieux que 3 penaltys You might also like XXXXXXXXXXXXXXXXXX XXXXXXXXXXXXXXXXXX Alors ça vous a plu ? Eeeehh ! Vous aimez ça ? Enfoirés d'putes Eh ! XXXXXXXXXXX Eh ! Veille fiotte de mes deux couilles ! Tu crois que tu vas me baiser !? Faudrait toute une armée pour menculer ! L'autre bouffonne aux yeux clairs, tout l'monde sait bien que c'est ma doublette Il reprend mes phases, il rêve d'être oim un peu comme tout mes zinc' du bled Mais bon bref la je m'adresse à Drylan le Camer j'vais un trou dans l'crâne aussi gros qu'la chatte à ta mère Aaattend tu crois quoi que c'était fini t'as oublié heeeinn ! Limsou m'a dit phili Moi c'est Younes Latifi lit bien votre déposition Depuis que j'suis petit j'nique la lice-po dans toutes les positions Augmente le son garçon et leçon numéro 1 N'oublies jamais qu'dans toute la zone c'est moi l'numéro 1 Ok yougata-you leçon numéro 2 Si t'es très stock moi on s'en bas les yeu-cou niamorodé Très bientôt Insha'Allah j'te fumes ta mère et j'pars au Hajj Ensuite j'reviens pépère j'me refait péter j'repars au hebs Ca viendra, t'inquiètes pas tu t'y attendras pas Tu verras un p'tit sloughi cagoulé et puis t'entendras paah La vie de rêve, on te dit quoi il faut penser, ou quoi écrire, quoi faire, Être le mouton tu aimes ? Avec le troupeau des bêtes Beeeeeh Beeeeh ! Qu'Est-ce que tu dis de ça Quoi tu aimes mieux que je reste dans le lit à rien foutre heeein ! Ne me prends pas pour un voyou mec, je suis pas une pute qui vole Je suis Mister YOUGATAGA, et j'ai décidé d'enlever la cagoule Avec ta tête de bite et ton flow tah Calimero T'as pas frappé à la bonne porte, t'as pas fait l'bon numéro T'es qu'un pointeur comme XXXXXX Moi c'est Robert de Niro 11.43 et ouai gros y'a plus d'super-héros Qui vivra, crèvera darwah Qui consommera m'paiera Aujourd'hui j'serre plus de meufs, que Mariano Libera Ok le Runner 180, il est plus utile que l'Panamera On ne choisit pas sa famille, regarde la sur et l'frère à Merah Ton fils, ce fils de pute j'le verrait bien à l'orphelinat Arrête de jouer les Toto Riina nique ta mère la Cicciolina Putain met la gasolina j'suis paré pour l'assassinat Woogataga kayen ghir l'mouïma li t'bekina Avant d'vouloir jouer les guerriers commence déjà par faire la guerre J'serais pas sous sky' mais sous Perrier quand j'vais t'fumer ta mère Toujours incarcéré à cette heure-ci grosse pensée pour XXXXX Tourmenté depuis que j'suis petit demande à la brigade des mineurs Eeeehhh ! c'est moi non pour percer j'ai pas sucé Pour avancer faut du censé, j'sais bien sur quel pied danser J'ai tellement d'choses à dire que j'sais plus par où commencer J'suis l'seul rappeur qu'on pourra retrouver dans Faites entrer l'accusé J'ai vu des costauds s'coucher lorsque les balles fusaient Les hagar' s'faire arrosé, s'faire exploser l'gosier Ok, c'est Yougata-you darwa toi-même tu sais Que même si t'es brolické bah t'vas t'faire niquer Tu sais qui je suis ? Comment je m'appelle ? Charly Matteï, je m'appelle Charly Matteï et je vais te tuer A visage découvert c'est une question de respect J'veux que tu saches qui te tue, j'veux que tu saches pourquoi tu meurt Tu sais pourquoi tu meurt Bastien ? - Oui Oui bah parce quand on met une cagoule, une cagoule c'est un message qui est pas signé C'est un assassinat, tu comprends la différence ? Tout le monde a compris ? Parce que je vais tous vous abattre, tous ! Les uns après les autres, mais pas tout de suite J'veux que vous ayez le temps de penser à ce que vous avez fais Je veux que vous y pensiez jour et nuit, que vous demandiez pardon à vos femmes et vos enfants Que vous leurs disiez pourquoi vous aller mourir Et quand vous vous y attendrez le moins Demain, dans six mois, dans un an je serais la ! Vous serez en sécurité nulle part, tant que je serais vivant Et dites aussi à Zach que son tour viendra Il faudra me tuer pour m'arrêter Bastien ! - Charly, s'il te plait Regarde ta montre une dernière fois Bon anniversaire Bastien Deux coups de feu2</t>
+          <t>Y'en à un seul qui joue au con et on y reste tous Dans le sceau, vire moi ça Doucement, Frank dans le sceau j'ai dit Chacun son tour Très bien Maleck, voilà doucement A toi Ange Voila, voila, dans l'aquarium J'représente Paname, fuck les putes qui font des manières L'salaire de Zlatan vaut pas le sourire d'ma mère Producteur et rappeur, j'fabrique et brise des carrières Cagoulé, Glocké, roofé et ganté j'arrive par derrière Sur l'terrain faut tout niquer avant que les flics s'amènent Y'a des choses qu'ils faut déléguer et d'autres qu'on doit faire soi-même J'ai du shit il m'faut d'la salade, j'écris qu'des phrases de malades Woogataga, j'ai pas le cur qui bat à la chamade J'frappe cette putain d'police avec mes bête de homies Au bout d'plusieurs tei-teilles j'suis pas d'ceux qui vomissent J'suis qu'un rappeur moi, j'suis un espèce de protagoniste J'ai mal au cur car j'vois qu'au shtar mes potes agonisent Lacrim ou XXXX Yannis, Mounir, Kligno, Doumams elle est trop longue la liste Ils exécutent leurs peines bien qu'ils kiffent les remises J'veux plaire à mes auditeurs bien plus que j'veux plaire aux miss Libérable sous caution, paye 1 million, t'en aura 10 Ok, j'rappe sous potion Panoramix Pur parigo ouai poto comme Verratti Remballer vos Saxo laisser passer l'Maserati Un coup d'calibre dans vos gueules ma gueule bête de reur-ti M'en vais grailler la gamelle me souhaiter pas bon appétit Une grosse dédicace à Bakaw à XXXX à Ladji Nos bicyclettes en lucarne vaut mieux que 3 penaltys XXXXXXXXXXXXXXXXXX XXXXXXXXXXXXXXXXXX Alors ça vous a plu ? Eeeehh ! Vous aimez ça ? Enfoirés d'putes Eh ! XXXXXXXXXXX Eh ! Veille fiotte de mes deux couilles ! Tu crois que tu vas me baiser !? Faudrait toute une armée pour menculer ! L'autre bouffonne aux yeux clairs, tout l'monde sait bien que c'est ma doublette Il reprend mes phases, il rêve d'être oim un peu comme tout mes zinc' du bled Mais bon bref la je m'adresse à Drylan le Camer j'vais un trou dans l'crâne aussi gros qu'la chatte à ta mère Aaattend tu crois quoi que c'était fini t'as oublié heeeinn ! Limsou m'a dit phili Moi c'est Younes Latifi lit bien votre déposition Depuis que j'suis petit j'nique la lice-po dans toutes les positions Augmente le son garçon et leçon numéro 1 N'oublies jamais qu'dans toute la zone c'est moi l'numéro 1 Ok yougata-you leçon numéro 2 Si t'es très stock moi on s'en bas les yeu-cou niamorodé Très bientôt Insha'Allah j'te fumes ta mère et j'pars au Hajj Ensuite j'reviens pépère j'me refait péter j'repars au hebs Ca viendra, t'inquiètes pas tu t'y attendras pas Tu verras un p'tit sloughi cagoulé et puis t'entendras paah La vie de rêve, on te dit quoi il faut penser, ou quoi écrire, quoi faire, Être le mouton tu aimes ? Avec le troupeau des bêtes Beeeeeh Beeeeh ! Qu'Est-ce que tu dis de ça Quoi tu aimes mieux que je reste dans le lit à rien foutre heeein ! Ne me prends pas pour un voyou mec, je suis pas une pute qui vole Je suis Mister YOUGATAGA, et j'ai décidé d'enlever la cagoule Avec ta tête de bite et ton flow tah Calimero T'as pas frappé à la bonne porte, t'as pas fait l'bon numéro T'es qu'un pointeur comme XXXXXX Moi c'est Robert de Niro 11.43 et ouai gros y'a plus d'super-héros Qui vivra, crèvera darwah Qui consommera m'paiera Aujourd'hui j'serre plus de meufs, que Mariano Libera Ok le Runner 180, il est plus utile que l'Panamera On ne choisit pas sa famille, regarde la sur et l'frère à Merah Ton fils, ce fils de pute j'le verrait bien à l'orphelinat Arrête de jouer les Toto Riina nique ta mère la Cicciolina Putain met la gasolina j'suis paré pour l'assassinat Woogataga kayen ghir l'mouïma li t'bekina Avant d'vouloir jouer les guerriers commence déjà par faire la guerre J'serais pas sous sky' mais sous Perrier quand j'vais t'fumer ta mère Toujours incarcéré à cette heure-ci grosse pensée pour XXXXX Tourmenté depuis que j'suis petit demande à la brigade des mineurs Eeeehhh ! c'est moi non pour percer j'ai pas sucé Pour avancer faut du censé, j'sais bien sur quel pied danser J'ai tellement d'choses à dire que j'sais plus par où commencer J'suis l'seul rappeur qu'on pourra retrouver dans Faites entrer l'accusé J'ai vu des costauds s'coucher lorsque les balles fusaient Les hagar' s'faire arrosé, s'faire exploser l'gosier Ok, c'est Yougata-you darwa toi-même tu sais Que même si t'es brolické bah t'vas t'faire niquer Tu sais qui je suis ? Comment je m'appelle ? Charly Matteï, je m'appelle Charly Matteï et je vais te tuer A visage découvert c'est une question de respect J'veux que tu saches qui te tue, j'veux que tu saches pourquoi tu meurt Tu sais pourquoi tu meurt Bastien ? - Oui Oui bah parce quand on met une cagoule, une cagoule c'est un message qui est pas signé C'est un assassinat, tu comprends la différence ? Tout le monde a compris ? Parce que je vais tous vous abattre, tous ! Les uns après les autres, mais pas tout de suite J'veux que vous ayez le temps de penser à ce que vous avez fais Je veux que vous y pensiez jour et nuit, que vous demandiez pardon à vos femmes et vos enfants Que vous leurs disiez pourquoi vous aller mourir Et quand vous vous y attendrez le moins Demain, dans six mois, dans un an je serais la ! Vous serez en sécurité nulle part, tant que je serais vivant Et dites aussi à Zach que son tour viendra Il faudra me tuer pour m'arrêter Bastien ! - Charly, s'il te plait Regarde ta montre une dernière fois Bon anniversaire Bastien Deux coups de feu2</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Eh, eh ouais, poto Wesh, mon soce ouais, ma gueule Mister YouGataga Belleville tu connais la zone Onzième, dix-neuvième, vingtième Mister YouGataga Hé l'surveillant, sale bâtard, nique ta mère, baisse mon illeton Tu tprends pour qui ? Qu'est-c'tu rgardes ? Tu m'as pris pour un feuilleton ? C'est pas pour rien qu'on est bés-tom, putain d'moral en béton On finira tous d'une rafale, on verra pas l'Armageddon Comme dit l'poto Khalid, on daewa dun putain de don On est fait pour graille du caviar, pas pour faire des pâtes au thon Vaut mieux jeûner comme un berger que sfaire graille comme un mouton J'ai plus les pieds collés au plancher, jai les doigts sur des boutons La poisse m'a pas que frôlé, les keufs m'ont trop contrôlé J'ai dormi dans des palaces comme jai dormi dans le tro-mé J'dormais sur mon palier et dans des aires de repos J'ai toujours mangé du ferme, j'ai jamais graille de re-po Un vrai Marocain, ouais, tu connais le topo J'ai fumé le quinquin, j'ai vendu le popo Étant p'tit, j'accélérais, j'payais en skets-ba les tacos D'vant toi, ça t'serrait la main, derrière, ça t'serrait ta go' Comme des crocos, ça l'accoste, les trous d'boulette sur les Lacoste À huit ans, on rêvait d'Piwi, à treize, de braquer la poste Juste pour péter le coffre-fort, qu'est-c'tu veux serrer la boss ? L'chameau s'croit meilleur qu'le dromadaire en observant sa bosse Y a d'la sel3a, on fait de l'oseille, H24 que ça bosse Big up Lacrim et Nordo, daewa 94 Chez nous, y a toujours du matos, on défouraille le micro Deawa comme Miklo, j'suis un putain de Vatos J'me représente, c'est Younes, nom d'famille Latifi Dahwa, l'passé, il est d'jà mort, l'avenir se rectifie Chez moi, le ferme s'additionne, le sursis se notifie Les vrais n'portent pas la couronne, y a qu'les faux qu'on gratifie C'est pas les pièces d'identité mais les murs qu'on plastifie Même plein d'oseille, on reste les mêmes, crois pas qu'on se modifie Fuck le jour de l'an à Bois-d'Arcy, fuck les surveillants comme Percy Aux Arrivants, j'roule un gare-ci, intouchable comme Omar Sy Ou bien comme Dry et Demon One, y a du zbar et de la one Toute la jungle est derrière oi-m, fais pas l'taulard, t'as fait qu'trois ois-m J't'allume ta mère, j'fais pas d'K-1, tout l'monde sait qui est number one Faïd Rédoine, Tricky et Marwan, j'oublie pas Mehdi du Mistral Ça chipote pas, ça paye en cash cinq cents mille eu' de caution Ça charge les PGP, les calibres et les quatre motions J'ai pas eu l'bac, j'encule la BAC avec très bien comme mention On leur a fait mal, ça nous a plu, du coup, nous recommençons Il m'faut des million sous mes coussins, j'veux la même pour tous mes cousins Surtout pour ceux au bled qui tous les jours te fument un douze Y a 3amti d'la taille d'un poussin, elle rentrait chez Mauboussin Hadji, il m'fallait du flouze donc j'ai tout pris avec mon kabouss Kherdala pour entrée, Critical est pour dîner Ça commence par voler des sacs, ensuite, ça commence à dealer Ça s'embrouille sur le rrain-te donc ça commence à tirer Bien sur qu'le cercle est vicieux, t'sais plus comment t'en tirer Quand la baveux, elle est bavonne, tu commences à respirer La beuh est bonne et le shit nous a tous inspiré D'l'école, on s'est tous fait virer, nos problèmes n'ont fait qu'empirer Ton pire ennemi n'fera pas de douaa sur ta tombe, non, il la pillerait C'est YouGataga, tu connais la r'cette Bâtard appelle la police, sale shmet compose le 17 Moi, comment j'vois l'rap ? Comme une biatch en nuisette J'rappe toujours pour les Mgharba, pour les Twansa, les DZ J'm'revois tout p'tit étant gamin en train d'regarder DBZ Maintenant, c'est plus Kamehameha non, c'est minimum un CZ J'ai une folle qui fouille dans mon phone et une autre qui fait ma vaisselle Une sur l'boulevard de la Villette, l'autre sur celui de Sunset Deawa, c'est la Jet 7, avenue des Peupliers Bâtard arrête de pompier, j'vous conseille d'vous replier J'suis pas là pour roupiller, non, j'suis v'nu pour prendre un bon billet J'ai rêvé d'beaucoup de zéros et j'crois pas qu'le compte y est Plusieurs millions d'euros, des feuilles, du shit, des Marlboro Pas besoin d'gonfler les pectoraux, la secrétaire est sous l'bureau J'suis pas que dans l'hlel, j'ai dû changer mon numéro C'est pour nos gens d'Creil, sans oublier Les Mureaux You might also like Eh gros, le temps, c'est pas d'l'argent Et t'sais c'est quoi, la différence ? La différence, ouais ouais ouais Bah c'est qu'le temps, on peut pas l'refaire1</t>
+          <t>Eh, eh ouais, poto Wesh, mon soce ouais, ma gueule Mister YouGataga Belleville tu connais la zone Onzième, dix-neuvième, vingtième Mister YouGataga Hé l'surveillant, sale bâtard, nique ta mère, baisse mon illeton Tu tprends pour qui ? Qu'est-c'tu rgardes ? Tu m'as pris pour un feuilleton ? C'est pas pour rien qu'on est bés-tom, putain d'moral en béton On finira tous d'une rafale, on verra pas l'Armageddon Comme dit l'poto Khalid, on daewa dun putain de don On est fait pour graille du caviar, pas pour faire des pâtes au thon Vaut mieux jeûner comme un berger que sfaire graille comme un mouton J'ai plus les pieds collés au plancher, jai les doigts sur des boutons La poisse m'a pas que frôlé, les keufs m'ont trop contrôlé J'ai dormi dans des palaces comme jai dormi dans le tro-mé J'dormais sur mon palier et dans des aires de repos J'ai toujours mangé du ferme, j'ai jamais graille de re-po Un vrai Marocain, ouais, tu connais le topo J'ai fumé le quinquin, j'ai vendu le popo Étant p'tit, j'accélérais, j'payais en skets-ba les tacos D'vant toi, ça t'serrait la main, derrière, ça t'serrait ta go' Comme des crocos, ça l'accoste, les trous d'boulette sur les Lacoste À huit ans, on rêvait d'Piwi, à treize, de braquer la poste Juste pour péter le coffre-fort, qu'est-c'tu veux serrer la boss ? L'chameau s'croit meilleur qu'le dromadaire en observant sa bosse Y a d'la sel3a, on fait de l'oseille, H24 que ça bosse Big up Lacrim et Nordo, daewa 94 Chez nous, y a toujours du matos, on défouraille le micro Deawa comme Miklo, j'suis un putain de Vatos J'me représente, c'est Younes, nom d'famille Latifi Dahwa, l'passé, il est d'jà mort, l'avenir se rectifie Chez moi, le ferme s'additionne, le sursis se notifie Les vrais n'portent pas la couronne, y a qu'les faux qu'on gratifie C'est pas les pièces d'identité mais les murs qu'on plastifie Même plein d'oseille, on reste les mêmes, crois pas qu'on se modifie Fuck le jour de l'an à Bois-d'Arcy, fuck les surveillants comme Percy Aux Arrivants, j'roule un gare-ci, intouchable comme Omar Sy Ou bien comme Dry et Demon One, y a du zbar et de la one Toute la jungle est derrière oi-m, fais pas l'taulard, t'as fait qu'trois ois-m J't'allume ta mère, j'fais pas d'K-1, tout l'monde sait qui est number one Faïd Rédoine, Tricky et Marwan, j'oublie pas Mehdi du Mistral Ça chipote pas, ça paye en cash cinq cents mille eu' de caution Ça charge les PGP, les calibres et les quatre motions J'ai pas eu l'bac, j'encule la BAC avec très bien comme mention On leur a fait mal, ça nous a plu, du coup, nous recommençons Il m'faut des million sous mes coussins, j'veux la même pour tous mes cousins Surtout pour ceux au bled qui tous les jours te fument un douze Y a 3amti d'la taille d'un poussin, elle rentrait chez Mauboussin Hadji, il m'fallait du flouze donc j'ai tout pris avec mon kabouss Kherdala pour entrée, Critical est pour dîner Ça commence par voler des sacs, ensuite, ça commence à dealer Ça s'embrouille sur le rrain-te donc ça commence à tirer Bien sur qu'le cercle est vicieux, t'sais plus comment t'en tirer Quand la baveux, elle est bavonne, tu commences à respirer La beuh est bonne et le shit nous a tous inspiré D'l'école, on s'est tous fait virer, nos problèmes n'ont fait qu'empirer Ton pire ennemi n'fera pas de douaa sur ta tombe, non, il la pillerait C'est YouGataga, tu connais la r'cette Bâtard appelle la police, sale shmet compose le 17 Moi, comment j'vois l'rap ? Comme une biatch en nuisette J'rappe toujours pour les Mgharba, pour les Twansa, les DZ J'm'revois tout p'tit étant gamin en train d'regarder DBZ Maintenant, c'est plus Kamehameha non, c'est minimum un CZ J'ai une folle qui fouille dans mon phone et une autre qui fait ma vaisselle Une sur l'boulevard de la Villette, l'autre sur celui de Sunset Deawa, c'est la Jet 7, avenue des Peupliers Bâtard arrête de pompier, j'vous conseille d'vous replier J'suis pas là pour roupiller, non, j'suis v'nu pour prendre un bon billet J'ai rêvé d'beaucoup de zéros et j'crois pas qu'le compte y est Plusieurs millions d'euros, des feuilles, du shit, des Marlboro Pas besoin d'gonfler les pectoraux, la secrétaire est sous l'bureau J'suis pas que dans l'hlel, j'ai dû changer mon numéro C'est pour nos gens d'Creil, sans oublier Les Mureaux Eh gros, le temps, c'est pas d'l'argent Et t'sais c'est quoi, la différence ? La différence, ouais ouais ouais Bah c'est qu'le temps, on peut pas l'refaire1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Combien sont morts, combien sont dead ? Combien sont morts, ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch, ouais tout le monde est fou Putain d'rap de grossiste La Jonquera, l'Artémis Coté mieux que ses fils de putes de Rabat, Alger en passant par Tunis J'rafale ce Kalachnikov, normal que ces schmet agonisent Elle pense qu'à la Schnikav, nique leur mères ainsi que la police Yougataga à mort les porcs Daâwa ! Faut que j'tue le temps qu'j'm'alcoolise J'fume du taga, j'frotte des kahba dans les coulisses Je t'allume ta mère gratuitement Pas besoin de faire de remise Si y'a de la mouille sur tes vêtements C'est qu'il y'a du sang sur ma chemise J'roule en cabriolet ou en coupé comme mon pénis Ma p'tite gueule chez moi ça te racket Sans même savoir jouer au tennis J'suis tombé dedans comme Obélix Mais crois pas que les jnouns m'obéissent Ce qu'il faut c'est que les faux périssent mais que le seigneur nous bénisse Fuck les gradés, fuck la directrice Fuck le 36 et l'OCRTIS Welcome dans la matrice Ce morceau est classé X Tous les jours ça frôle les assises Toujours en cavale, big up à Morris J'soulève les rappeurs par leurs clitoris Si je les fumes, jenrichis le fleuriste You might also like C'est pour tout ceux qu'ont voulu assumer Une histoire de fou et qui se sont fait fumés Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou Combien sont morts, combien sont dead ? Combien sont morts ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais, tout le monde est fou J'fais pas tourner mon joint de seum Dans mon linceul j'serai tout seul Dans l'addition j'te rajoute du sel Je t'la rentre dans l'uc' c'est normal que tu saignes J'rappe pour mes 3rabs à Bruxelles A Malaga, Francfort ou à Rotter' Toujours chaud pour baiser toute la terre Putain d'rap de communautaire J'avais des frères sont devenus des schmets Quand c'est la merde j'ai mon 9 millimètres J'compte sur personne il n'y a que Dieu qui m'aide Si t'es millionnaire dis Al-Hamdoulilah J'ai des kheys en promenade qui en ont marre de se taire Ils veulent pas de Ferrari mais des hélicoptères Fuck l'inspecteur Harry, fuck Harry Potter Fuck 3aïneurs, pointeurs et boycotteurs Du shit dans les poumons de l'huile dans l'moteur C'est Paris ma gueule, c'est le bruit et l'odeur Baise les flics en uniforme ou en civil Comment ce fait t'il que les gens changent aussi vite C'est pour mes Soninké et mes Bambara Faut tout niquer on a grandi dans l'khara J'fais peur à l'Europe comme Boko Haram Je suis passionnément en paix, beaucoup arabe Si tu fais le malin bah je t'allume ta race Je te mets des crochets comme Adel Taarabt Yougataga wesh bande de kharay J'vous ramène de la pure, du 24 carats Fuck la juge bent el kahba Coup de pompe dans le derrière et bon débarras C'est toujours pour Halim, Karim et Bara Sans oublier le vieux reuf' Amara C'est pour tout ceux qu'ont voulu assumer Une histoire de fous qui se sont fait fumés Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou Combien sont morts, combien sont dead ? Combien sont morts ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou1</t>
+          <t>Combien sont morts, combien sont dead ? Combien sont morts, ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch, ouais tout le monde est fou Putain d'rap de grossiste La Jonquera, l'Artémis Coté mieux que ses fils de putes de Rabat, Alger en passant par Tunis J'rafale ce Kalachnikov, normal que ces schmet agonisent Elle pense qu'à la Schnikav, nique leur mères ainsi que la police Yougataga à mort les porcs Daâwa ! Faut que j'tue le temps qu'j'm'alcoolise J'fume du taga, j'frotte des kahba dans les coulisses Je t'allume ta mère gratuitement Pas besoin de faire de remise Si y'a de la mouille sur tes vêtements C'est qu'il y'a du sang sur ma chemise J'roule en cabriolet ou en coupé comme mon pénis Ma p'tite gueule chez moi ça te racket Sans même savoir jouer au tennis J'suis tombé dedans comme Obélix Mais crois pas que les jnouns m'obéissent Ce qu'il faut c'est que les faux périssent mais que le seigneur nous bénisse Fuck les gradés, fuck la directrice Fuck le 36 et l'OCRTIS Welcome dans la matrice Ce morceau est classé X Tous les jours ça frôle les assises Toujours en cavale, big up à Morris J'soulève les rappeurs par leurs clitoris Si je les fumes, jenrichis le fleuriste C'est pour tout ceux qu'ont voulu assumer Une histoire de fou et qui se sont fait fumés Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou Combien sont morts, combien sont dead ? Combien sont morts ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais, tout le monde est fou J'fais pas tourner mon joint de seum Dans mon linceul j'serai tout seul Dans l'addition j'te rajoute du sel Je t'la rentre dans l'uc' c'est normal que tu saignes J'rappe pour mes 3rabs à Bruxelles A Malaga, Francfort ou à Rotter' Toujours chaud pour baiser toute la terre Putain d'rap de communautaire J'avais des frères sont devenus des schmets Quand c'est la merde j'ai mon 9 millimètres J'compte sur personne il n'y a que Dieu qui m'aide Si t'es millionnaire dis Al-Hamdoulilah J'ai des kheys en promenade qui en ont marre de se taire Ils veulent pas de Ferrari mais des hélicoptères Fuck l'inspecteur Harry, fuck Harry Potter Fuck 3aïneurs, pointeurs et boycotteurs Du shit dans les poumons de l'huile dans l'moteur C'est Paris ma gueule, c'est le bruit et l'odeur Baise les flics en uniforme ou en civil Comment ce fait t'il que les gens changent aussi vite C'est pour mes Soninké et mes Bambara Faut tout niquer on a grandi dans l'khara J'fais peur à l'Europe comme Boko Haram Je suis passionnément en paix, beaucoup arabe Si tu fais le malin bah je t'allume ta race Je te mets des crochets comme Adel Taarabt Yougataga wesh bande de kharay J'vous ramène de la pure, du 24 carats Fuck la juge bent el kahba Coup de pompe dans le derrière et bon débarras C'est toujours pour Halim, Karim et Bara Sans oublier le vieux reuf' Amara C'est pour tout ceux qu'ont voulu assumer Une histoire de fous qui se sont fait fumés Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou Combien sont morts, combien sont dead ? Combien sont morts ouais combien sont dead ? Quand l'ange d'la mort est au rendez-vous Tout le monde est aud-ch ouais tout le monde est fou1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Ouais ma copine, bien ou quoi ? Mister You ! Comment tu vas, la famille ? J'ai un petit service à te demander, alors tu vois Y a une p'tite meuf dans l'19, j'lui ai laissé les clés d'une ture-voi Mais j'sais pas j'lui fais plus confiance, s'te-plait récupère-les pour moi Dès qu'tu les as direct oukhti, tu les passes à Abdel Pour que lui les passe à Souris car lui, seul sait où se trouve l'hôtel où est planquer la sse-cai Ensuite tu m'le passes au tel, lui m'diras si c'est ok, si d'dans y'a tous les bordels Puis, appels Nabil et récupère mon disque dur Ensuite, passe à Belleville et demande le numéro d'que-tur Appelle-le lui comprendra, dis lui qu'moi j'ai des courbatures Mais que le colis a été livré, qu'la c'est Kouli qu'a la voiture Et c'est bon ta tous capter hein? Ok ok je s'occupe de tout, tu s'occupe de rien Ça m'dérange pas, moi j'aime bien rires Woo-ga-ta-ga ! You might also like Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga 21h30, j'me réveille Sbah el kheir Khnouna dans les yeuz, j'métire et j'roule un z'déh J'suis dans le coltar, dahwa j'plane dans les airs Comme d'hab y a rien faire, la misère, la galère J'ai mal aux dents, j'me les brosse et me fais un bain d'bouche Héchek j'vais ié-ch, et j'tape une bonne douche J'savoure la liberté, ha touche eh Y'a qu'l'entraineur qu'a l'droit d'étre fier d'étre sur l'banc d'touche Il est minuit pile, il va falloir quitter la ville À volonté, champagne et sky, soir-ce on vomit d'la bile Dis-leur Lamine, ça m'dérange pas, moi j'aime bien Quand j'vais en Afrique avec du fric, j'pourrais claquer, j'sais pas combien J'veux voir toutes les mains en l'air, soir-ce c'est la guerre Le physio il a plus d'molaire, l'infection est pulmonaire Car j'fume trop dis-leur Abdel, direction Marrakech Les frères, qui m'aime me suive, ceux qui m'aiment pas gardez la pêche Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Tonight ! We are Doing anything we want And I want you ! And I want you, want you I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga J'veux voir toutes les mains en l'air DJ Abdel ! Ce soir c'est la guerre Woo-gataga ! J'veux voir toutes les mains, et même toi ! Euh, sauf toi, sauf toi ! rires Ça m'dérange pas, moi j'aime bien Tonight ! We are Doing anything we want And I want you ! And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Let's go DJ Abdel, come on ! DJ Abdel, à l'ancienne Mister You ! rires Francisco Paris c'est magique, Paris c'est zoo-gataga We takin' over1</t>
+          <t>Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Ouais ma copine, bien ou quoi ? Mister You ! Comment tu vas, la famille ? J'ai un petit service à te demander, alors tu vois Y a une p'tite meuf dans l'19, j'lui ai laissé les clés d'une ture-voi Mais j'sais pas j'lui fais plus confiance, s'te-plait récupère-les pour moi Dès qu'tu les as direct oukhti, tu les passes à Abdel Pour que lui les passe à Souris car lui, seul sait où se trouve l'hôtel où est planquer la sse-cai Ensuite tu m'le passes au tel, lui m'diras si c'est ok, si d'dans y'a tous les bordels Puis, appels Nabil et récupère mon disque dur Ensuite, passe à Belleville et demande le numéro d'que-tur Appelle-le lui comprendra, dis lui qu'moi j'ai des courbatures Mais que le colis a été livré, qu'la c'est Kouli qu'a la voiture Et c'est bon ta tous capter hein? Ok ok je s'occupe de tout, tu s'occupe de rien Ça m'dérange pas, moi j'aime bien rires Woo-ga-ta-ga ! Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga 21h30, j'me réveille Sbah el kheir Khnouna dans les yeuz, j'métire et j'roule un z'déh J'suis dans le coltar, dahwa j'plane dans les airs Comme d'hab y a rien faire, la misère, la galère J'ai mal aux dents, j'me les brosse et me fais un bain d'bouche Héchek j'vais ié-ch, et j'tape une bonne douche J'savoure la liberté, ha touche eh Y'a qu'l'entraineur qu'a l'droit d'étre fier d'étre sur l'banc d'touche Il est minuit pile, il va falloir quitter la ville À volonté, champagne et sky, soir-ce on vomit d'la bile Dis-leur Lamine, ça m'dérange pas, moi j'aime bien Quand j'vais en Afrique avec du fric, j'pourrais claquer, j'sais pas combien J'veux voir toutes les mains en l'air, soir-ce c'est la guerre Le physio il a plus d'molaire, l'infection est pulmonaire Car j'fume trop dis-leur Abdel, direction Marrakech Les frères, qui m'aime me suive, ceux qui m'aiment pas gardez la pêche Tonight ! We are Doing anything we want And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Tonight ! We are Doing anything we want And I want you ! And I want you, want you I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga J'veux voir toutes les mains en l'air DJ Abdel ! Ce soir c'est la guerre Woo-gataga ! J'veux voir toutes les mains, et même toi ! Euh, sauf toi, sauf toi ! rires Ça m'dérange pas, moi j'aime bien Tonight ! We are Doing anything we want And I want you ! And I want you ! I want you to come and take a ride Would you come and take a ride with me tonight With you-gataga Let's go DJ Abdel, come on ! DJ Abdel, à l'ancienne Mister You ! rires Francisco Paris c'est magique, Paris c'est zoo-gataga We takin' over1</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Des litres et des liasses A la compo DJ E-Rise A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Je m'occupe de toi, de ton daron, ta re-mè J'sais que l'amour est mort avant même d'être né Si t'as pas compris rembobine et remets Investissement lourd , bénéfice greu-mé On bosse pas une tonne pour gagner 15 kilos On leur manque de respect demande à Vilon Tu veux qu'j'encule le rap, passe moi juste un stylo Nique sa mère le commissaire on donne pas d'filon Au cachot pour refaire le monde fallait juste un pilon J'ai traversé le désert putain le chemin fût long Y'a que quand y'a les keufs que mes potes et moi filons Les boycotteurs sont en brochette et nous les enfilons A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Ils sont encore plus cons que François Pignon Ne nous regarde pas s'il te plaît reste mignon C'est ton salaire que nous gaspillons En haute couture nous nous habillons C'est Mister You c'est l'effet papillon You might also like Ce soir surveille ta miss, si elle veut me faire la bise, Woogataga Moi, j'ai bu de la tise donc je vais faire des bêtises, Woogataga Toute la tess est khabta sur la piste mon gars, Woogataga Et si tes gavas zieutent mal bah tu sais quoi ? Ratatata Ouais ouais Où sont passés tous mes traficantés ? Y a de la sel3a de quoi vous alimenter Du Portugal je viens de la remonter Wesh les rappeurs, pourquoi vous mentez ? C'est pour mes frères qu'ont fini menottés Mes Parigots, mes Lyonnais, mes Nantais Mes frèros belges et mes frères Hollandais Y a de la frappe de quoi vous inonder Ca vi-ser des mètres et ça parle en ne-to Ca parle en wanaguène, ça parle en bédo La police nous resserre le juge est un étau On va bien te viscère , on sort du ghetto A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Ils sont complètement con comme François Pignon Ne me regarde pas s'il te plaît reste mignon C'est ton salaire que nous gaspillons En haute couture nous nous habillons Hougataga c'est l'effet papillon Ce soir surveille ta miss, si elle veut me faire la bise, Woogataga Moi, j'ai bu de la tise donc je vais faire des bêtises, Woogataga Toute la tess est khabta sur la piste mon gars, Woogataga Et si tes gavas zieutent mal bah tu sais quoi ? Ratatata Ouais ouais</t>
+          <t>Des litres et des liasses A la compo DJ E-Rise A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Je m'occupe de toi, de ton daron, ta re-mè J'sais que l'amour est mort avant même d'être né Si t'as pas compris rembobine et remets Investissement lourd , bénéfice greu-mé On bosse pas une tonne pour gagner 15 kilos On leur manque de respect demande à Vilon Tu veux qu'j'encule le rap, passe moi juste un stylo Nique sa mère le commissaire on donne pas d'filon Au cachot pour refaire le monde fallait juste un pilon J'ai traversé le désert putain le chemin fût long Y'a que quand y'a les keufs que mes potes et moi filons Les boycotteurs sont en brochette et nous les enfilons A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Ils sont encore plus cons que François Pignon Ne nous regarde pas s'il te plaît reste mignon C'est ton salaire que nous gaspillons En haute couture nous nous habillons C'est Mister You c'est l'effet papillon Ce soir surveille ta miss, si elle veut me faire la bise, Woogataga Moi, j'ai bu de la tise donc je vais faire des bêtises, Woogataga Toute la tess est khabta sur la piste mon gars, Woogataga Et si tes gavas zieutent mal bah tu sais quoi ? Ratatata Ouais ouais Où sont passés tous mes traficantés ? Y a de la sel3a de quoi vous alimenter Du Portugal je viens de la remonter Wesh les rappeurs, pourquoi vous mentez ? C'est pour mes frères qu'ont fini menottés Mes Parigots, mes Lyonnais, mes Nantais Mes frèros belges et mes frères Hollandais Y a de la frappe de quoi vous inonder Ca vi-ser des mètres et ça parle en ne-to Ca parle en wanaguène, ça parle en bédo La police nous resserre le juge est un étau On va bien te viscère , on sort du ghetto A 20 ans j'ai fêté le million Khabta sous Dom Pérignon Ils hallucinent ils sont sous champignons Ils sont complètement con comme François Pignon Ne me regarde pas s'il te plaît reste mignon C'est ton salaire que nous gaspillons En haute couture nous nous habillons Hougataga c'est l'effet papillon Ce soir surveille ta miss, si elle veut me faire la bise, Woogataga Moi, j'ai bu de la tise donc je vais faire des bêtises, Woogataga Toute la tess est khabta sur la piste mon gars, Woogataga Et si tes gavas zieutent mal bah tu sais quoi ? Ratatata Ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wesh, wesh, wesh, wesh mon bête de soce, eh vas-y sert moi un verre de sky enfoiré Woogataga, MDR 2, roule un splif, roule un splif Létau se resserre On a de la beuh, du sdèrh, ah ouai on est bien Tas des feuilles, des garette-ci, tu veux quoi di feu ? tu veux quoi ma bouche ? Eh enfoiré vas Quand létau se resserre Tes comme un veau-cèr dans le crâne dun Doberman On veut pas voir le Docteur Leserman Nan, nous on a besoin dun barman Quand on va au parloir et quon voit vois Casper, on deviens tout pâle man Quand ya pas de pilon et bien ya pas de mal à se faire une Pall Mall Pour se rincer lil, on fonce à linfirmerie On va voir les petites infirmières, on prémédite nos fourberies Moi je fais des mimiques, jai mal aux dents Elles me prescrivent des Efferalgans Je croise Halim, on se tape des barres, on se demande on sortira quand A force de me chercher des noises, un jour la chef verra le gland Elle goûtera de ma viennoise, elle criera oh putain cest grand Oh cest bon, oh cest cool Je veux plus que le temps sécoule Je lui répondrais, salope, fuck aller baisse toi, bouffe moi les couilles You might also likeWoogataga, nique sa mère leur justice Je fume le taga mais je ne sniffe pas pour être speed, mois juste je tise Parler pas de ma rue, eh parler pas de mon enfer Parler pas de ma vie, non parler pas de mon affaire Les frères cest pas de ma faute si toutes leurs meufs elle veulent me rèsse Cest parce quelles savent quavec oim à lhôtel ca va pas néhèss Elles connaissent lanimal, dahwa elles connaissent le palmarès Je représente Rebeval et quest ce que je kiffe me faire léhéss Moi il me faut de loseil, cest à peu près tout ce qui mintéresse Je suis faya, je plane dans les airs, je côtoie les extra-terrestres Je représente pas les suceurs, qui veulent débiter les caresses Moi je rap pour les connaisseurs, pour Bazou, Ciabou et Karex Les pieds ancrés sur le pavé, jai limpression de faire du sur place Il marrive que des trucs de taré, jai lair dun mec perdu sur Mars Fait que je me surpasse, là je suis entrain dobserver les terriens Je considérais des mecs comme des frères et jai vu que pour eux, je nétais rien Maintenant que je sais que ça les instruit, je parle plus du tout avec les cons Pour éviter de péter les plombs et bien il vaut mieux couper les ponts Je préfère rester seul avec ma mère, que dêtre guider par dix bondes Et après avoir côtoyé la merde, tinquiètes je sais qui sont les bons Au haps, les frères tenez bon Ya que les matons qui restent là-bas La liberté elle est bandante, tu me crois pas caresse la barre Ah, Woogataga, faut quils se barrent tous ces bâtards Faudra bien, je mempare du rap dahwa, il sera jamais trop tard Gamberge dun mec au mitard, partit pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défaut de six trente cinq Faut pas finir déjanter, écrou 2, 9, 1, 6, 3, 5 42 rue de la foncedée On dit que lamitié elle est sacrée, ah moi elle ma trop déçue Donc maintenant même mon meilleur pote, si ya rhaja, je lui tire dessus Pour bien gagner sa vie, ouai je crois quil faut se mettre au travail Et quand cest oit qui sert de cible, bah cest lEtat qui te rafale Passionné par la zicmu, jy ai consacré tout mon temps Je sais que quand on se pisse dessus, bah on a pas chaud très longtemps Je fais du boucan même au quarpla, bah les concurrents ils ont les boules Je préfère jeûner avec les corbeaux que de picorer avec les poules Un zdarh, fuck Marlboro light Je réponds à Skyrock qui m'appelle, jai déjà rappé toute la night Je peux freestyler toute ma peine Ma belle, non cest pas oit que je traite de pute Maintenant quand ça frappe à la porte, cest plus les keufs, cest quand ya un but Ou ça lève lilleton, ça me dit wesh You alors comment va la famille Et tas besoin de rien, cest bon, je réponds nan cimer Mani Jai du shit, des feuilles, des clopes, ma potion Giorgio Armani Jai tellement les crocs, dahwa quelles sont cariées mes canines Si javais écouté la conseillère, jaurais fait de la mécanique Taffer tout le mois Pour 200 E, je préfère dire à lEtat Nique ta grand-mère la salope et laisse moi dans ma lule-cé Hessess ferme la porte bâtard, toi-même tu sais1</t>
+          <t>Wesh, wesh, wesh, wesh mon bête de soce, eh vas-y sert moi un verre de sky enfoiré Woogataga, MDR 2, roule un splif, roule un splif Létau se resserre On a de la beuh, du sdèrh, ah ouai on est bien Tas des feuilles, des garette-ci, tu veux quoi di feu ? tu veux quoi ma bouche ? Eh enfoiré vas Quand létau se resserre Tes comme un veau-cèr dans le crâne dun Doberman On veut pas voir le Docteur Leserman Nan, nous on a besoin dun barman Quand on va au parloir et quon voit vois Casper, on deviens tout pâle man Quand ya pas de pilon et bien ya pas de mal à se faire une Pall Mall Pour se rincer lil, on fonce à linfirmerie On va voir les petites infirmières, on prémédite nos fourberies Moi je fais des mimiques, jai mal aux dents Elles me prescrivent des Efferalgans Je croise Halim, on se tape des barres, on se demande on sortira quand A force de me chercher des noises, un jour la chef verra le gland Elle goûtera de ma viennoise, elle criera oh putain cest grand Oh cest bon, oh cest cool Je veux plus que le temps sécoule Je lui répondrais, salope, fuck aller baisse toi, bouffe moi les couilles Woogataga, nique sa mère leur justice Je fume le taga mais je ne sniffe pas pour être speed, mois juste je tise Parler pas de ma rue, eh parler pas de mon enfer Parler pas de ma vie, non parler pas de mon affaire Les frères cest pas de ma faute si toutes leurs meufs elle veulent me rèsse Cest parce quelles savent quavec oim à lhôtel ca va pas néhèss Elles connaissent lanimal, dahwa elles connaissent le palmarès Je représente Rebeval et quest ce que je kiffe me faire léhéss Moi il me faut de loseil, cest à peu près tout ce qui mintéresse Je suis faya, je plane dans les airs, je côtoie les extra-terrestres Je représente pas les suceurs, qui veulent débiter les caresses Moi je rap pour les connaisseurs, pour Bazou, Ciabou et Karex Les pieds ancrés sur le pavé, jai limpression de faire du sur place Il marrive que des trucs de taré, jai lair dun mec perdu sur Mars Fait que je me surpasse, là je suis entrain dobserver les terriens Je considérais des mecs comme des frères et jai vu que pour eux, je nétais rien Maintenant que je sais que ça les instruit, je parle plus du tout avec les cons Pour éviter de péter les plombs et bien il vaut mieux couper les ponts Je préfère rester seul avec ma mère, que dêtre guider par dix bondes Et après avoir côtoyé la merde, tinquiètes je sais qui sont les bons Au haps, les frères tenez bon Ya que les matons qui restent là-bas La liberté elle est bandante, tu me crois pas caresse la barre Ah, Woogataga, faut quils se barrent tous ces bâtards Faudra bien, je mempare du rap dahwa, il sera jamais trop tard Gamberge dun mec au mitard, partit pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défaut de six trente cinq Faut pas finir déjanter, écrou 2, 9, 1, 6, 3, 5 42 rue de la foncedée On dit que lamitié elle est sacrée, ah moi elle ma trop déçue Donc maintenant même mon meilleur pote, si ya rhaja, je lui tire dessus Pour bien gagner sa vie, ouai je crois quil faut se mettre au travail Et quand cest oit qui sert de cible, bah cest lEtat qui te rafale Passionné par la zicmu, jy ai consacré tout mon temps Je sais que quand on se pisse dessus, bah on a pas chaud très longtemps Je fais du boucan même au quarpla, bah les concurrents ils ont les boules Je préfère jeûner avec les corbeaux que de picorer avec les poules Un zdarh, fuck Marlboro light Je réponds à Skyrock qui m'appelle, jai déjà rappé toute la night Je peux freestyler toute ma peine Ma belle, non cest pas oit que je traite de pute Maintenant quand ça frappe à la porte, cest plus les keufs, cest quand ya un but Ou ça lève lilleton, ça me dit wesh You alors comment va la famille Et tas besoin de rien, cest bon, je réponds nan cimer Mani Jai du shit, des feuilles, des clopes, ma potion Giorgio Armani Jai tellement les crocs, dahwa quelles sont cariées mes canines Si javais écouté la conseillère, jaurais fait de la mécanique Taffer tout le mois Pour 200 E, je préfère dire à lEtat Nique ta grand-mère la salope et laisse moi dans ma lule-cé Hessess ferme la porte bâtard, toi-même tu sais1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ahouu, Kataga Eh venez par ici, venez par ici C'est le retour, YougataYou Le grand Méchant You x2 Mais qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Toi j'vais te faire l'amour et puis j'vais te baiser Dans tout plein de positions spéciales J'suis tout slougui j'vais te mettre des fessés Avec la ce-for d'un spartiate J'suis obligé de remettre ste-ve Tellement ton regard est glacial Direction le 7e ciel, monte sur ma navette spaciale Toi j'te touche pas tu pues trop la merde T'as joué la belle nique bien ta grand-mère Pense à ma bite et mets toi des doigts N3el zok mok et tais-toi Eh, Guette ma Rolex Il est 23h et elles veulent toutes que j'les baise Mais j'le ferais pas car You might also like x2 Qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Ok c'est de la Hwaa j'vais me fouttre le da3wa Dans toutes vos putains de soirées J'suis avec ma bande d'enfoirés Dame une besito suave Me llama Yougataga Si guapa como tu sabe Quieren beaucoup d' vodka No hoy dame JB Quand j'repense à la galère On dirait que nos en direct de L'Olivia Valere Marbella la putain d'sa mère Chaque soir je gaspille ton salaire Crystal, Veuve, Moët, mon Dom Pérignon C'est vrai que l'argent ça rend mignon Si t'es qu'une keh j'te tire par le chignon Nique ta mère toi et ton opinion J'veux du pognon plus savoir qu'en faire On dirait qu'ici c'est l'enfer Pourtant j'te jure que j'rêvais pas de ça Aux arrivants quand j'avais pas d'sappes Aujourd'hui la vie elle a changé Maintenant c'est l'heure de manger J'représente les étrangers Ouais quand j'prends le micro c'est danger Putain c'est qui elle c'est quoi ce déhanché C'est qui cette bombe qui m'a déclenché C'est dans son regard qu'elle m'a fait plonger Augmente le son fait kiffer le DJ J'ai envie de chanter le plus fort possible Histoire de lui montrer de quoi je suis capable Elle est venue elle a braqué mon cur Ce soir j'la place en garde-à-v' x2 Mais qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Mais qu'est-ce que je m'en bat les couilles de vos vies x2</t>
+          <t>Ahouu, Kataga Eh venez par ici, venez par ici C'est le retour, YougataYou Le grand Méchant You x2 Mais qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Toi j'vais te faire l'amour et puis j'vais te baiser Dans tout plein de positions spéciales J'suis tout slougui j'vais te mettre des fessés Avec la ce-for d'un spartiate J'suis obligé de remettre ste-ve Tellement ton regard est glacial Direction le 7e ciel, monte sur ma navette spaciale Toi j'te touche pas tu pues trop la merde T'as joué la belle nique bien ta grand-mère Pense à ma bite et mets toi des doigts N3el zok mok et tais-toi Eh, Guette ma Rolex Il est 23h et elles veulent toutes que j'les baise Mais j'le ferais pas car x2 Qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Ok c'est de la Hwaa j'vais me fouttre le da3wa Dans toutes vos putains de soirées J'suis avec ma bande d'enfoirés Dame une besito suave Me llama Yougataga Si guapa como tu sabe Quieren beaucoup d' vodka No hoy dame JB Quand j'repense à la galère On dirait que nos en direct de L'Olivia Valere Marbella la putain d'sa mère Chaque soir je gaspille ton salaire Crystal, Veuve, Moët, mon Dom Pérignon C'est vrai que l'argent ça rend mignon Si t'es qu'une keh j'te tire par le chignon Nique ta mère toi et ton opinion J'veux du pognon plus savoir qu'en faire On dirait qu'ici c'est l'enfer Pourtant j'te jure que j'rêvais pas de ça Aux arrivants quand j'avais pas d'sappes Aujourd'hui la vie elle a changé Maintenant c'est l'heure de manger J'représente les étrangers Ouais quand j'prends le micro c'est danger Putain c'est qui elle c'est quoi ce déhanché C'est qui cette bombe qui m'a déclenché C'est dans son regard qu'elle m'a fait plonger Augmente le son fait kiffer le DJ J'ai envie de chanter le plus fort possible Histoire de lui montrer de quoi je suis capable Elle est venue elle a braqué mon cur Ce soir j'la place en garde-à-v' x2 Mais qu'est-ce que je m'en bats les couilles de vos vies Les 3eyneurs et les boycotteurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les hypocrites, les suceurs Mais qu'est-ce que je m'en bats les couilles de vos vies Les salopes et les gamines Mais qu'est-ce que je m'en bats les couilles de vos vies N3el zok mkom kamlin Mais qu'est-ce que je m'en bat les couilles de vos vies x2</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mon Colonel c'est pas Fabien, jécoute pas ce que les gens disent Chinois j'recherche une fille bien, pour faire passer de la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préférerais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dédi ouais j'en place une big à Landry Fais pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Élise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, j'ai pas de Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups ont la haine la crim' a honte 19ème c'est auch là, tout le monde recherche La Clim à Ourcq En ce qui m'concerne à mes concerts tout le quartier a la voix cassée Bebebe-Belleville ahhh obligé de dédicacer Délit de faciès chaque contrôle j'subis l'racisme J'vois que lÉtat, il condamne pas l'arbre à cause de ses feuilles mais de ces racines Ces clichés bah ils nous assassinent, demande à mon frère Yacine On préfère faire 6 piges à Fresnes que 2,3 semaines à l'asile En l'an 2000 les voitures devaient voler qu'est-ce qu'on voulait Comme dit Veu c'est mon p'tit reuf il sest mis à voler D'mande à Bouyé Ojalo à Jeannot ou à Menjao Comment faire pour pas s'mouiller quand nos affaires elles touchent d'jà l'eau Amateur de gros billets j'pourrais m'serrer Néfertiti J'fais que m'branler sur Gros-minet il arrive même pas à sfaire Titi Un Stick Un Stick Un Stick AIE AIE AIE !! T'es trop stoc-ma on t'allume ta mère clic clic paah et bye bye !! À cause des peines-plancher tu peux manger plus de riz qu'un Thaï Plus de pâtes qu'un Rital demande à Shay Muay Thai La rue cest ma femme les voyous m'appellent papa Si j'me fais fumer, j'souhaiterais qu'on m'enterre dans un tabac Ah woogataga moi j'ai les couilles que t'as pas D'abord j'enfile les gants ensuite le micro j'le tabasse Cher Monsieur le Président va niquer ta mère Ton discours est trop amer j'repète va niquer ta mère Trop les crocs gros c'est le remake des Dents d'la Mer Quand y'a les keufs on dit 'pu' parce qu'il veulent nous mettre dans la merde Regarde Pu pu pu !, y'a les condés, ankata Belleville-zoo tu connais j'me vé-sau j'suis en vale-ca J'ai manger la galette des rois mais j'ai pas trouvé la fève J'ai vendu la galette dahwa j'ai fini au Quai des Orfèvres You might also like Blaaaaaaaa bébébélleville dis-leur noi'chi Un rappeur sachant clasher doit savoir shlasser après le clash Ah ah avis aux amateurs et ouais c'est la street En chair et en shit bande d'enculés ah ah ah ça va faire mal !!1</t>
+          <t>Mon Colonel c'est pas Fabien, jécoute pas ce que les gens disent Chinois j'recherche une fille bien, pour faire passer de la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préférerais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dédi ouais j'en place une big à Landry Fais pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Élise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, j'ai pas de Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups ont la haine la crim' a honte 19ème c'est auch là, tout le monde recherche La Clim à Ourcq En ce qui m'concerne à mes concerts tout le quartier a la voix cassée Bebebe-Belleville ahhh obligé de dédicacer Délit de faciès chaque contrôle j'subis l'racisme J'vois que lÉtat, il condamne pas l'arbre à cause de ses feuilles mais de ces racines Ces clichés bah ils nous assassinent, demande à mon frère Yacine On préfère faire 6 piges à Fresnes que 2,3 semaines à l'asile En l'an 2000 les voitures devaient voler qu'est-ce qu'on voulait Comme dit Veu c'est mon p'tit reuf il sest mis à voler D'mande à Bouyé Ojalo à Jeannot ou à Menjao Comment faire pour pas s'mouiller quand nos affaires elles touchent d'jà l'eau Amateur de gros billets j'pourrais m'serrer Néfertiti J'fais que m'branler sur Gros-minet il arrive même pas à sfaire Titi Un Stick Un Stick Un Stick AIE AIE AIE !! T'es trop stoc-ma on t'allume ta mère clic clic paah et bye bye !! À cause des peines-plancher tu peux manger plus de riz qu'un Thaï Plus de pâtes qu'un Rital demande à Shay Muay Thai La rue cest ma femme les voyous m'appellent papa Si j'me fais fumer, j'souhaiterais qu'on m'enterre dans un tabac Ah woogataga moi j'ai les couilles que t'as pas D'abord j'enfile les gants ensuite le micro j'le tabasse Cher Monsieur le Président va niquer ta mère Ton discours est trop amer j'repète va niquer ta mère Trop les crocs gros c'est le remake des Dents d'la Mer Quand y'a les keufs on dit 'pu' parce qu'il veulent nous mettre dans la merde Regarde Pu pu pu !, y'a les condés, ankata Belleville-zoo tu connais j'me vé-sau j'suis en vale-ca J'ai manger la galette des rois mais j'ai pas trouvé la fève J'ai vendu la galette dahwa j'ai fini au Quai des Orfèvres Blaaaaaaaa bébébélleville dis-leur noi'chi Un rappeur sachant clasher doit savoir shlasser après le clash Ah ah avis aux amateurs et ouais c'est la street En chair et en shit bande d'enculés ah ah ah ça va faire mal !!1</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fin homa lmgharba Fin homa wlad casa Wlad Béni Mellal Finha Dar Bouâaza Casa 3oukacha Oujda Meknès Jib jib jouj 9ar3at Zid 3ammer lkass Ch7al men wa7d bda kaybi3 f lghebra Mat f l'b7ar kan ghadi f lgherba Mat ki Fir3awn li kan kayjri 3la Moussa Mat w khella familto men7oussa Dar kollchi bel 7ram 7ta 7ta ma sed9atlo Lbare7 kano s7ab lyouma baghin yeta9atlo Wa fin l2asdi9a ma b9ach fihom ti9a Seftouni l cellule allah y3ttihom di9a Mel7a w kamon chwiyet zit l3oud Ch7al men wa7ed da3 w mat lih l7ot Khwa dar w mcha khella ga3 lkhot B9aw ghi tsawer las9in f l7yott Ya bladi Twa7achtek dima fi galbi w bali Waw Waw You might also like Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Mato rej3ou sekro chett7o Khafo n3essou 3amou derbo Lgaro lgaro che3lou w 7ergo Chdo l'bateau 7ta howa 7ergoh Fehmo dakho sa7bo jabo Hadro hadro 3la hayato W 3la martou li 7em9ato Li heblato w khellato 9albi w 9albi kan kaybghihom Walakin 7ta homa ghadrou Bghito Bghito 3lash ghanttal9o Walo walo khelliwni 3likom Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi</t>
+          <t>Fin homa lmgharba Fin homa wlad casa Wlad Béni Mellal Finha Dar Bouâaza Casa 3oukacha Oujda Meknès Jib jib jouj 9ar3at Zid 3ammer lkass Ch7al men wa7d bda kaybi3 f lghebra Mat f l'b7ar kan ghadi f lgherba Mat ki Fir3awn li kan kayjri 3la Moussa Mat w khella familto men7oussa Dar kollchi bel 7ram 7ta 7ta ma sed9atlo Lbare7 kano s7ab lyouma baghin yeta9atlo Wa fin l2asdi9a ma b9ach fihom ti9a Seftouni l cellule allah y3ttihom di9a Mel7a w kamon chwiyet zit l3oud Ch7al men wa7ed da3 w mat lih l7ot Khwa dar w mcha khella ga3 lkhot B9aw ghi tsawer las9in f l7yott Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Mato rej3ou sekro chett7o Khafo n3essou 3amou derbo Lgaro lgaro che3lou w 7ergo Chdo l'bateau 7ta howa 7ergoh Fehmo dakho sa7bo jabo Hadro hadro 3la hayato W 3la martou li 7em9ato Li heblato w khellato 9albi w 9albi kan kaybghihom Walakin 7ta homa ghadrou Bghito Bghito 3lash ghanttal9o Walo walo khelliwni 3likom Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J'ai fait un bon capture, je pense que c'est le rap français... Attends.. Hans, amène-le au décrassage. Ensuite tu le jetteras dans la cage à mes lions... Les deux lions indomptables... Ouiiiiii Mister Yougataga Ta-Ta-Ta-Taga, Ta-Ta-Ta-Taga Mister Tou-Tounisan Tou-Tou-Tounisan, Tou-Tou-Tounisan La zik est bonne c'est de la frappe pas de la com Deuil et Belleville Dans les halls ça traine sec, tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga Moi taga je suis un peu comme Scofield, moi le taga je le fume jusqu'au filtre Je suis alcoolique, un vrai flemmard mais quand il y a les flics darwa je cours trop vite Y'a pas que l'argent qui est sale, y a aussi la bouche des faux qui profitent yaani Comme dit Tunisan bara nayek je bute 2,3 rum Dans la rue il se passe des trucs horribles, des trucs de malades mentaux Mais saches que si toi t'es stoc-ma nous on a tout c'qui faut sous le manteau Eh poto, si tu joues le cro-ma direct on ouvre le feu Ça sort du zoogata, mouah sortez les illes-feu Et quand on les massav va la un massacre orchestré par des têtes grillés Arbouch est le style voyage entre les hagars et les poukpouk Pas de cette race qui donnerait sa mère pour quelques billets Deuil et Belleville ça ne vend plus du rêve mais de la schnouf Mister Toun-Tounisan et darwa j'suis un sadique Mister Yougataga ja yakhra a la rasek La zik est bonne c'est de la frappe pas de la com Et la merde a de l'avenir elle investit le top album You might also like La zik est bonne c'est de la frappe pas de la co-com Deuil et Belleville Dans les halls ça traîne tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga La zik est bonne c'est de la frappe pas de la co-com! Deuil et Belleville Dans les halls ça traîne tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga On est convoités, épatés, ont été nos darons Nos parents ont été exploité et ont toujours dit pardon Serrer la main à Sarkozy mais comment ça c'est pas mon modèle Sympathiser avec l'ennemi nique sa mère je suis pas Faudel Y'a pas de Faudel pas de Johnny et pas de Docteur Gynéco Le même discours depuis le départ, on nique tous la mère à Nico On pète la Veuve Cliquot, pisté par des toxicos On croque la vie à pleine dents donc bientôt on n'aura plus d'chicots Ici les reufs ont la rage, ne te permets pas d'excès de zèle Niveau partage, ne te feraient pas croquer un bretzel Le monde est infâme devant les halls ça traîne sec Méfies-toi des femmes surtout celles qui courent après le sexe Et tête grillée comme elle est pas stylée sur de la funk Pour faire un billet un peu de verre pilé dans de la skunk Le genre de mec qui au micro se précipite comme quand faut prier Celui qui se reflète plus en Miclo, gros qu'en Popeye Ala rass omi khouya tu veux jouer avec Brulé c'est un grand barjo Et fais pas le voyou, quand tu vois You Lui il emmène pas au décrassage, il sort des béquilles latérales et il te fait crier Mister You-Yougataga !!! Darwa c'est le bordel On n'est plus en 732 nique la mère à Charles Martel Mister Tou-Tou-Tounisan, eh khey c'est l'darwa M'en veux pas méfie toi, mets pas de srall dans Karwa Mister You-Yougataga, Ould bled rhoya Fine houma b'net,hey fine houma hdette Mister Tou-Tou-Tounisan, Li fet met Lel khouet oul bnet ou lokhrine lani n'sit1</t>
+          <t>J'ai fait un bon capture, je pense que c'est le rap français... Attends.. Hans, amène-le au décrassage. Ensuite tu le jetteras dans la cage à mes lions... Les deux lions indomptables... Ouiiiiii Mister Yougataga Ta-Ta-Ta-Taga, Ta-Ta-Ta-Taga Mister Tou-Tounisan Tou-Tou-Tounisan, Tou-Tou-Tounisan La zik est bonne c'est de la frappe pas de la com Deuil et Belleville Dans les halls ça traine sec, tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga Moi taga je suis un peu comme Scofield, moi le taga je le fume jusqu'au filtre Je suis alcoolique, un vrai flemmard mais quand il y a les flics darwa je cours trop vite Y'a pas que l'argent qui est sale, y a aussi la bouche des faux qui profitent yaani Comme dit Tunisan bara nayek je bute 2,3 rum Dans la rue il se passe des trucs horribles, des trucs de malades mentaux Mais saches que si toi t'es stoc-ma nous on a tout c'qui faut sous le manteau Eh poto, si tu joues le cro-ma direct on ouvre le feu Ça sort du zoogata, mouah sortez les illes-feu Et quand on les massav va la un massacre orchestré par des têtes grillés Arbouch est le style voyage entre les hagars et les poukpouk Pas de cette race qui donnerait sa mère pour quelques billets Deuil et Belleville ça ne vend plus du rêve mais de la schnouf Mister Toun-Tounisan et darwa j'suis un sadique Mister Yougataga ja yakhra a la rasek La zik est bonne c'est de la frappe pas de la com Et la merde a de l'avenir elle investit le top album La zik est bonne c'est de la frappe pas de la co-com Deuil et Belleville Dans les halls ça traîne tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga La zik est bonne c'est de la frappe pas de la co-com! Deuil et Belleville Dans les halls ça traîne tu joues le cro-ma, direct on ouvre le feu Ça sort du Zoo-Zou-Zougataga On est convoités, épatés, ont été nos darons Nos parents ont été exploité et ont toujours dit pardon Serrer la main à Sarkozy mais comment ça c'est pas mon modèle Sympathiser avec l'ennemi nique sa mère je suis pas Faudel Y'a pas de Faudel pas de Johnny et pas de Docteur Gynéco Le même discours depuis le départ, on nique tous la mère à Nico On pète la Veuve Cliquot, pisté par des toxicos On croque la vie à pleine dents donc bientôt on n'aura plus d'chicots Ici les reufs ont la rage, ne te permets pas d'excès de zèle Niveau partage, ne te feraient pas croquer un bretzel Le monde est infâme devant les halls ça traîne sec Méfies-toi des femmes surtout celles qui courent après le sexe Et tête grillée comme elle est pas stylée sur de la funk Pour faire un billet un peu de verre pilé dans de la skunk Le genre de mec qui au micro se précipite comme quand faut prier Celui qui se reflète plus en Miclo, gros qu'en Popeye Ala rass omi khouya tu veux jouer avec Brulé c'est un grand barjo Et fais pas le voyou, quand tu vois You Lui il emmène pas au décrassage, il sort des béquilles latérales et il te fait crier Mister You-Yougataga !!! Darwa c'est le bordel On n'est plus en 732 nique la mère à Charles Martel Mister Tou-Tou-Tounisan, eh khey c'est l'darwa M'en veux pas méfie toi, mets pas de srall dans Karwa Mister You-Yougataga, Ould bled rhoya Fine houma b'net,hey fine houma hdette Mister Tou-Tou-Tounisan, Li fet met Lel khouet oul bnet ou lokhrine lani n'sit1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C'est l'histoire d'Abdelkader et Moussa C'est l'histoire de Mokhtar et Mamade C'est l'histoire de Mokhtar et Mamade Tous les jours les deux traînent ensemble Même gamos même liasse, même ensemble Même sourire, regard menaçant Quand ils te la mettent c'est sûr que tu la sens Je parle d'une amitié qui a plus de 20 ans Qui n'a pas de prix qui n'a pas de montant Ils canneraient l'un pour l'autre ils font pas de boucan Même face à trente aucun des deux ne fout le camp Même les anciens reconnaissent qu'ils sont bêtes de gamberge Se sont rencontrés les deux portaient des pampers A la vie à la mort, c'est ce que les deux prêchent Ils ont fait le collège la calèche et la crèche La street et l'art en pire ils ont connu la dèche Le meilleur et le pire la hess et la fraîche Du sous-sol au toit, du tar-mi à Marrakech Celui qui se souciait d'toi, il te dira suicide-toi Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit You might also like C'est l'histoire de Moussa et d'Abdelkader 1944 ils dormaient par terre Ils ont fait la guerre pour avoir les papiers Ils ont plongé dans une merde où il n'avaient pas pied Dans les tranchées, ils servaient de chair à canon Les étrangers, ouais ils en avaient dans le pantalon Quand fallait bouger, crois moi qu'ils disaient pas non Leur descendance finira morte ou au ballon Ils se sont cassé l'dos pour un salaire misérable Ils se sont passé l'mot, les noirs et les arabes Ils les ont pris pour des singes tout droit descendu des arbres Pour les papiers c'est simple, ils leur ont dit prenez les armes Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Moussa est le père de Mamad Abdelkader est le père à Mokhtar La rue, c'est un truc de malade Pour ne pas dire un monde de bâtards Doumam's a lance-ba, il a beau s'excuser Remonter d'Espagne, la porteuse était pucée La rue c'est fatal toi même tu sais Mokhtar a sorti le calibre, puis l'a posé Sur la ble-ta, en le regardant droit dans les yeux Il m'a dit j'te fais quoi, non tu sais quoi Bang Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit1</t>
+          <t>C'est l'histoire d'Abdelkader et Moussa C'est l'histoire de Mokhtar et Mamade C'est l'histoire de Mokhtar et Mamade Tous les jours les deux traînent ensemble Même gamos même liasse, même ensemble Même sourire, regard menaçant Quand ils te la mettent c'est sûr que tu la sens Je parle d'une amitié qui a plus de 20 ans Qui n'a pas de prix qui n'a pas de montant Ils canneraient l'un pour l'autre ils font pas de boucan Même face à trente aucun des deux ne fout le camp Même les anciens reconnaissent qu'ils sont bêtes de gamberge Se sont rencontrés les deux portaient des pampers A la vie à la mort, c'est ce que les deux prêchent Ils ont fait le collège la calèche et la crèche La street et l'art en pire ils ont connu la dèche Le meilleur et le pire la hess et la fraîche Du sous-sol au toit, du tar-mi à Marrakech Celui qui se souciait d'toi, il te dira suicide-toi Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit C'est l'histoire de Moussa et d'Abdelkader 1944 ils dormaient par terre Ils ont fait la guerre pour avoir les papiers Ils ont plongé dans une merde où il n'avaient pas pied Dans les tranchées, ils servaient de chair à canon Les étrangers, ouais ils en avaient dans le pantalon Quand fallait bouger, crois moi qu'ils disaient pas non Leur descendance finira morte ou au ballon Ils se sont cassé l'dos pour un salaire misérable Ils se sont passé l'mot, les noirs et les arabes Ils les ont pris pour des singes tout droit descendu des arbres Pour les papiers c'est simple, ils leur ont dit prenez les armes Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Moussa est le père de Mamad Abdelkader est le père à Mokhtar La rue, c'est un truc de malade Pour ne pas dire un monde de bâtards Doumam's a lance-ba, il a beau s'excuser Remonter d'Espagne, la porteuse était pucée La rue c'est fatal toi même tu sais Mokhtar a sorti le calibre, puis l'a posé Sur la ble-ta, en le regardant droit dans les yeux Il m'a dit j'te fais quoi, non tu sais quoi Bang Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit Tous les quartiers du monde te diront que ça se passe ainsi L'amitié est pire qu'une bombe, mais bon c'est pas un souci On peut marcher sur tout le monde et retomber aussi vite Le destin sévit1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bébébébébébélleville ZOO GA TA BRAAAAAAAAAAA 'tention wallah j'sais pas ce qui s'passe dans ma téte !!!!!!!!!!!!!!! Hommage au père d'Ali Diakité et au frère à Zina Que sur vos tombes les plus belles fleurs prennent racine ahhhh Patrodine Doumam's mort dassassinat Le M.Bassirou Aymen, Yaaaaaaaaaaaaaa Famille Dramé, famille Bellame Le sourire d'un orphelin il vaut plus cher que le salaire de Beckham Le temps c'est de l'argent et la patience c'est de l'or Tant que le daron fera des douh3a moi darwa j'resterai dehors Famille Souaré Bouldi Diamé Yass Diallo A.B.I.S Griau Halim Lacrim petit frère Soufiane Les petits poissons dans le ghetto béton avant de savoir nager Ou ils boivent la tasse dans le sky après sêtre noyé dans le panaché Ils sont obligés dêtre encore plus hardcore que les an-ienc Car la vie elle est traître les premiers qui partent c'est les gens ien-b Cette fois ci j'laisserai mes empreintes sur le mic du crime Je suis là ! Commissaire mais pour que j't'entende va falloir que tu cries J'suis dans le zness-bi j'crave-bi j'fais des escroqueries Y demandent 5 ans y'a rien de marrant mais pourtant l'proc' rit Y veut m'faire tourner autant que le rouleau de viande d'un ke-gré Mandat dépôt veut dire statistique en progrès Hagra psychologique contre notre gré Nique la police ouais ils kiffent trop nous voir entourés de craie J'vais tout niquer avant d'aller manger la gamelle Pour tout Riquet j'dois rendre un bête d'hommage à Djamel J'souhaite que le seigneur guide l'avenir de son petit frère ????? La vie elle est dure khoya j'sais pas comment ça va s'finir C'est au placard qu'ces bâtards voudraient m'entretenir C'est plus moi qui tiens les murs C'est eux qui sont entrain de me tenir J'ai trop la dalle trop d'soucis j'arrive plus à me contenir Et ça va mal y a que ma plume qui est là pour me soutenir C'est au placard que ces bâtards voudraient m'installer Y voudraient que j'taffe pour un salaire de Pakistanais C'est la merde ma mère j'l'ai vu 2-3 fois c't'année Mais j'garde la foi car j'sais que la roue elle fait pas que stagner Ils sont tous au shtar mes amis de jeunesse 6 piges pour une barrette c'est plus Paris c'est Los Angeles Va faire un tour entre Clignancourt et Barbes Y'a plus de coke que dans Blow que même dans Scarface Franchement tu sais zink on est pas fait pour voter Sur 100 mecs plus de 7.5 en dessous du seuil de pauvreté Quand le juge passe la pommade le proc' est la pour t'frotter Hop direction la promenade à Fresnes, Fleury, la Santé Manger les peines plancher à cause de la mère à Zohra Ça fait pas le bonheur des dames donc fuck Émile Zola La seule femme que j'aime est celle qui m'a fait téter l'bezoula Mon seul modèle a3li salem c'est rasoul'oullah La vie elle est dure hommage à Mounir, à Amine La plus grande force c'est de croire en rabi l'3alamine C'est pour akhi Souleymane au frère Ayssam Qui nous font des rappels et qui nous enseignent l'Islam Même si on est sous col-al eux y s'en tape des préjugés Y connaissent la morale dahwa y'a que Dieu qui a l'droit de me juger You might also likeWallah les juges, les procureurs même les baveux qui niquent leurs mères sur la vie de la mienne À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre il est l'heure j'big up Shakir el Mansour C'est pour les frères comme Fred, comme Stidiou, comme Toumi Khaled A ceux que j'aurais oublié mais qui ont su me venir en aide Lik-ma Halim L'Indien big up toute La Scred' La vie elle est dure dahwa donc normal qu'on s'entraide à Adam-Sang yahia tous les mecs du six-bulle Nique la double peine dahwa j'rappe pour les frères qu'ils expulsent Ces fils de putes du gouvernement nique leurs mamans ahhh Eh ouais Palestine ta terre tu finiras par l'avoir Allahu Akbar La vérité ils finiront par la voir Ahhh WOOGATAMOUAAAAAAAAAAH</t>
+          <t>Bébébébébébélleville ZOO GA TA BRAAAAAAAAAAA 'tention wallah j'sais pas ce qui s'passe dans ma téte !!!!!!!!!!!!!!! Hommage au père d'Ali Diakité et au frère à Zina Que sur vos tombes les plus belles fleurs prennent racine ahhhh Patrodine Doumam's mort dassassinat Le M.Bassirou Aymen, Yaaaaaaaaaaaaaa Famille Dramé, famille Bellame Le sourire d'un orphelin il vaut plus cher que le salaire de Beckham Le temps c'est de l'argent et la patience c'est de l'or Tant que le daron fera des douh3a moi darwa j'resterai dehors Famille Souaré Bouldi Diamé Yass Diallo A.B.I.S Griau Halim Lacrim petit frère Soufiane Les petits poissons dans le ghetto béton avant de savoir nager Ou ils boivent la tasse dans le sky après sêtre noyé dans le panaché Ils sont obligés dêtre encore plus hardcore que les an-ienc Car la vie elle est traître les premiers qui partent c'est les gens ien-b Cette fois ci j'laisserai mes empreintes sur le mic du crime Je suis là ! Commissaire mais pour que j't'entende va falloir que tu cries J'suis dans le zness-bi j'crave-bi j'fais des escroqueries Y demandent 5 ans y'a rien de marrant mais pourtant l'proc' rit Y veut m'faire tourner autant que le rouleau de viande d'un ke-gré Mandat dépôt veut dire statistique en progrès Hagra psychologique contre notre gré Nique la police ouais ils kiffent trop nous voir entourés de craie J'vais tout niquer avant d'aller manger la gamelle Pour tout Riquet j'dois rendre un bête d'hommage à Djamel J'souhaite que le seigneur guide l'avenir de son petit frère ????? La vie elle est dure khoya j'sais pas comment ça va s'finir C'est au placard qu'ces bâtards voudraient m'entretenir C'est plus moi qui tiens les murs C'est eux qui sont entrain de me tenir J'ai trop la dalle trop d'soucis j'arrive plus à me contenir Et ça va mal y a que ma plume qui est là pour me soutenir C'est au placard que ces bâtards voudraient m'installer Y voudraient que j'taffe pour un salaire de Pakistanais C'est la merde ma mère j'l'ai vu 2-3 fois c't'année Mais j'garde la foi car j'sais que la roue elle fait pas que stagner Ils sont tous au shtar mes amis de jeunesse 6 piges pour une barrette c'est plus Paris c'est Los Angeles Va faire un tour entre Clignancourt et Barbes Y'a plus de coke que dans Blow que même dans Scarface Franchement tu sais zink on est pas fait pour voter Sur 100 mecs plus de 7.5 en dessous du seuil de pauvreté Quand le juge passe la pommade le proc' est la pour t'frotter Hop direction la promenade à Fresnes, Fleury, la Santé Manger les peines plancher à cause de la mère à Zohra Ça fait pas le bonheur des dames donc fuck Émile Zola La seule femme que j'aime est celle qui m'a fait téter l'bezoula Mon seul modèle a3li salem c'est rasoul'oullah La vie elle est dure hommage à Mounir, à Amine La plus grande force c'est de croire en rabi l'3alamine C'est pour akhi Souleymane au frère Ayssam Qui nous font des rappels et qui nous enseignent l'Islam Même si on est sous col-al eux y s'en tape des préjugés Y connaissent la morale dahwa y'a que Dieu qui a l'droit de me juger Wallah les juges, les procureurs même les baveux qui niquent leurs mères sur la vie de la mienne À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre il est l'heure j'big up Shakir el Mansour C'est pour les frères comme Fred, comme Stidiou, comme Toumi Khaled A ceux que j'aurais oublié mais qui ont su me venir en aide Lik-ma Halim L'Indien big up toute La Scred' La vie elle est dure dahwa donc normal qu'on s'entraide à Adam-Sang yahia tous les mecs du six-bulle Nique la double peine dahwa j'rappe pour les frères qu'ils expulsent Ces fils de putes du gouvernement nique leurs mamans ahhh Eh ouais Palestine ta terre tu finiras par l'avoir Allahu Akbar La vérité ils finiront par la voir Ahhh WOOGATAMOUAAAAAAAAAAH</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé J'ai pris en otage tout l'bizz et j'l'ai toujours pas relâché J'suis tordu sans être de Pise, j'représente Paris.S.G J'ai bien planquer mon biff et j'dis à personne où il est caché Grosse peine pour petit bénef', sa donne pas trop envie d'partager J'ai vite appris que les choses n'avance pas trop quand ils t'mettent en cage J'ai donc pris l'initiative d'm'armer d'patience pour faire du cash Eh oh, ils ont du courage les frères qui dorment au cachot 3 douches par semaine, chaque jour 2 repas chauds Le cauchemar d'un taulard pourrait faire l'bonheur d'un chard-clo D'mande à Clinyo ou bien Nizard, y a pas qu'la coke que nous charclon On sponsorise ton visage, un coup c'est Nike, trois c'est Adidas Une morsure c'est Lacoste et si tu crève c'est Midas A c't'heure-ci j'suis fait, j'vois qu'la vodka m'fait effet J'suis arrivé en car cellulaire, j'suis ressortie du chtar en Féfé Santé, j'lève mon re-ver, j'aime pas me taper j'préfère schlasser J'suis venus pour tous saccager, les p'tites salopes n'ont qu'à se cacher You might also like Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Pose la bouteille, j'fais monter la température En payera tu le prix quand tu sera dans le coffre dans ma voiture ? Oui vois-tu, j'ai du taf avant ce week end Me parler pas de vos pétasses moi j'suis à l'affût d'un lance roquette Pourquoi faire du social, tu parle et j't'handicape En plus l'Etat ce petit bâtard il voit le diable dans un Niqab On a mis la haine, j'ai placé beaucoup d'espoir La devise tu viens à poil, tu repars dans un coupé sport Oui la vie c'est dur, s'agit dêtre fort mentalement J'suis bien dans ma grotte quand j'vois que y'en a qui s'marient en Thaïlande T'es le bienvenue si t'as la force de creuser ma tombe Je prend tout avec le sourire, les plaies ainsi que les hématomes Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, Lacrim, on s'installe pour du long terme Qu'est ce que tu crois, vers chez nous les tits-pe deviennent tous comme à Nanterre ouais Du Champagne, du shit qui rebondit presque Notimes c'est des yous-voi pris en chasse dans une Audi Break Le placard c'est mon bunker, là bas tu craint pas la tempête On a passer le cap, en ce moment j'prend des loyers à ton père Comme dit You Hendèk aux femmes elles t'font des tminik qu'elles sont fidèles Mais la plupart veulent ta bite comme Dominique au Sofitel J'ai pris une bouteille de Vittel, j'l'ai vider et j'l'ai remplis de vodka Puis Lacrim a relancé une teille-teille, dahwa, zoogataga On est venu pour tout saccager, moi tu m'connais j'm'appelle Younes Wesh surveillant, sa ka maché, arrête de m'casser les corones J'vais te faire sniffer la ligne verte un peu comme d'John Coffey Puis j'vais d'voir niqué ta grand-mère même si elle sait faire un bon café Demande à Alain Yami, moi c'est en famille que j'lave mon linge Big up à Alex et Boch et pour finir j'roule un oinj' Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé5</t>
+          <t>Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé J'ai pris en otage tout l'bizz et j'l'ai toujours pas relâché J'suis tordu sans être de Pise, j'représente Paris.S.G J'ai bien planquer mon biff et j'dis à personne où il est caché Grosse peine pour petit bénef', sa donne pas trop envie d'partager J'ai vite appris que les choses n'avance pas trop quand ils t'mettent en cage J'ai donc pris l'initiative d'm'armer d'patience pour faire du cash Eh oh, ils ont du courage les frères qui dorment au cachot 3 douches par semaine, chaque jour 2 repas chauds Le cauchemar d'un taulard pourrait faire l'bonheur d'un chard-clo D'mande à Clinyo ou bien Nizard, y a pas qu'la coke que nous charclon On sponsorise ton visage, un coup c'est Nike, trois c'est Adidas Une morsure c'est Lacoste et si tu crève c'est Midas A c't'heure-ci j'suis fait, j'vois qu'la vodka m'fait effet J'suis arrivé en car cellulaire, j'suis ressortie du chtar en Féfé Santé, j'lève mon re-ver, j'aime pas me taper j'préfère schlasser J'suis venus pour tous saccager, les p'tites salopes n'ont qu'à se cacher Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Pose la bouteille, j'fais monter la température En payera tu le prix quand tu sera dans le coffre dans ma voiture ? Oui vois-tu, j'ai du taf avant ce week end Me parler pas de vos pétasses moi j'suis à l'affût d'un lance roquette Pourquoi faire du social, tu parle et j't'handicape En plus l'Etat ce petit bâtard il voit le diable dans un Niqab On a mis la haine, j'ai placé beaucoup d'espoir La devise tu viens à poil, tu repars dans un coupé sport Oui la vie c'est dur, s'agit dêtre fort mentalement J'suis bien dans ma grotte quand j'vois que y'en a qui s'marient en Thaïlande T'es le bienvenue si t'as la force de creuser ma tombe Je prend tout avec le sourire, les plaies ainsi que les hématomes Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, Lacrim, on s'installe pour du long terme Qu'est ce que tu crois, vers chez nous les tits-pe deviennent tous comme à Nanterre ouais Du Champagne, du shit qui rebondit presque Notimes c'est des yous-voi pris en chasse dans une Audi Break Le placard c'est mon bunker, là bas tu craint pas la tempête On a passer le cap, en ce moment j'prend des loyers à ton père Comme dit You Hendèk aux femmes elles t'font des tminik qu'elles sont fidèles Mais la plupart veulent ta bite comme Dominique au Sofitel J'ai pris une bouteille de Vittel, j'l'ai vider et j'l'ai remplis de vodka Puis Lacrim a relancé une teille-teille, dahwa, zoogataga On est venu pour tout saccager, moi tu m'connais j'm'appelle Younes Wesh surveillant, sa ka maché, arrête de m'casser les corones J'vais te faire sniffer la ligne verte un peu comme d'John Coffey Puis j'vais d'voir niqué ta grand-mère même si elle sait faire un bon café Demande à Alain Yami, moi c'est en famille que j'lave mon linge Big up à Alex et Boch et pour finir j'roule un oinj' Ok, woogataga, moi dahwa j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé Woogataga, comme Lacrim j'ai pas changé J'fume toujours du Cannabis, j'bois toujours du Taittinger J'emmerde toujours la Police, j'rends toujours paro l'ingé La j'marque mon territoire, j'pisse, j'suis venu pour tout saccager, Essé5</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bouffon, woogataga Coup dcalibre dans ta gueule ma gueule, woogataga Nique mhoums ou jéd babahoum l'kalb ! Coup d'calibre dans leur gueule ma gueule On les baise, on s'en bat les couilles Lamour nous a rayés de la liste comme la richesse a rayé lAfrique Comme une poucave quon a rayé de la street khey Plus personne nattend rien de personne, on peut pas se faire seul Pourtant on finit en solo dans un cercueil Gros, époque de bâtards, pas assez de mains pour compter tous mes potes au placard Entre ceux qui vendent l'haschich et ceux qui vendent la came, latmosphère est macabre La mort est partout, lamour a rayé tous mes chiens de la casse J'préfère un ennemi qui me shlass quun poto qui me trahit Quand t'es au top, ça suce, ils te calculent pas quand cest la faillite Mister YouGatazoo, N.I.R.O Belleville Zoo, cest tout lMaghrib qui pose sur MDR Zouje Des fois jenvie les gens qui sont dans le coma Depuis qu'j'suis né j'suis au chômage, ils préfèrent écouter des mythomanes Lamour nous a rayés, la haine a fait de nous ce quon est Le ghetto ma imprégné, ici cest le zoo man, jai saigné Baigné, dans la violence qui a régné grâce à nos aînés Traîné dans les rues khey, jai ves-qui leur ciné Je respecte moins Zé Pequeno, je préfèrais Bené Jai fait mes armes à kened, le rap game mon frère cest khéné Bavure commanditée par le commissaire, pour ceux qui sortent du pays sous contrôle judiciaire Lorsque tes potes deviennent adversaires, quest-ce que tu veux faire, quest-ce que tu peux faire ? You might also like Je me rappelle en primaire lopinel dans le cartable J'rappe pour les frères même primaires qui prennent des peines de bâtards On est tous passés par le chtar, on a tous connu le prétoire Les toilettes turques, le mitard, les allumettes, les grattoirs Le zbar sous cellophane et les, trous de balle nivéatisés En manque de plus belle la vie et du journal télévisé Pour les gradés on est que du crédit ils sont là pour nous épuiser Et aussi pour nous mépriser ils kifferaient quon devienne la risée de tous Faire des boules avec du P.Q viser le trou histoire de samuser Une couverture tellement vieille quelle devrait être dans un musée On passe du banc de la tess, à celui des accusés Et quand cest pour cess' ils tenvoient loin, le procureur a une fusée Nationalité française, ils ne peuvent pas mexpulser Dites à leurs mères que je les baise et après quelles viennent me sucer Faites péter le son, roulez des zdah vous serez bien dans vos lycées Cest Mister You je suis pas pressé mais je compte bientôt vous laisser, éssé ! Dis-leur Niro, faut des lingots dans nos bureaux Ma vie cest un casino et je suis un peu comme Robert De Niro Mais j'espère que ma Ginger ne fera pas la kaha avec mes soces Car ça laisse un goût amer zèh ça laisse un goût meussousse La trahison ça pue le thon dahwa, ça pue la sardine Noureddine ça pue le dispatching et nan ça sent pas le tajine Haha ! Lorsque tes frères deviennent adversaires Quest ce que tu veux faire, quest ce que tu peux faire ?? Lorsque tes potes deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire frère ? Lorsque tes frères deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire ? Dur, dur doublier les profonds chagrins Lorsque ton destin soudain, a changé de chemin Lorsque tes frères deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire, frère ?1</t>
+          <t>Bouffon, woogataga Coup dcalibre dans ta gueule ma gueule, woogataga Nique mhoums ou jéd babahoum l'kalb ! Coup d'calibre dans leur gueule ma gueule On les baise, on s'en bat les couilles Lamour nous a rayés de la liste comme la richesse a rayé lAfrique Comme une poucave quon a rayé de la street khey Plus personne nattend rien de personne, on peut pas se faire seul Pourtant on finit en solo dans un cercueil Gros, époque de bâtards, pas assez de mains pour compter tous mes potes au placard Entre ceux qui vendent l'haschich et ceux qui vendent la came, latmosphère est macabre La mort est partout, lamour a rayé tous mes chiens de la casse J'préfère un ennemi qui me shlass quun poto qui me trahit Quand t'es au top, ça suce, ils te calculent pas quand cest la faillite Mister YouGatazoo, N.I.R.O Belleville Zoo, cest tout lMaghrib qui pose sur MDR Zouje Des fois jenvie les gens qui sont dans le coma Depuis qu'j'suis né j'suis au chômage, ils préfèrent écouter des mythomanes Lamour nous a rayés, la haine a fait de nous ce quon est Le ghetto ma imprégné, ici cest le zoo man, jai saigné Baigné, dans la violence qui a régné grâce à nos aînés Traîné dans les rues khey, jai ves-qui leur ciné Je respecte moins Zé Pequeno, je préfèrais Bené Jai fait mes armes à kened, le rap game mon frère cest khéné Bavure commanditée par le commissaire, pour ceux qui sortent du pays sous contrôle judiciaire Lorsque tes potes deviennent adversaires, quest-ce que tu veux faire, quest-ce que tu peux faire ? Je me rappelle en primaire lopinel dans le cartable J'rappe pour les frères même primaires qui prennent des peines de bâtards On est tous passés par le chtar, on a tous connu le prétoire Les toilettes turques, le mitard, les allumettes, les grattoirs Le zbar sous cellophane et les, trous de balle nivéatisés En manque de plus belle la vie et du journal télévisé Pour les gradés on est que du crédit ils sont là pour nous épuiser Et aussi pour nous mépriser ils kifferaient quon devienne la risée de tous Faire des boules avec du P.Q viser le trou histoire de samuser Une couverture tellement vieille quelle devrait être dans un musée On passe du banc de la tess, à celui des accusés Et quand cest pour cess' ils tenvoient loin, le procureur a une fusée Nationalité française, ils ne peuvent pas mexpulser Dites à leurs mères que je les baise et après quelles viennent me sucer Faites péter le son, roulez des zdah vous serez bien dans vos lycées Cest Mister You je suis pas pressé mais je compte bientôt vous laisser, éssé ! Dis-leur Niro, faut des lingots dans nos bureaux Ma vie cest un casino et je suis un peu comme Robert De Niro Mais j'espère que ma Ginger ne fera pas la kaha avec mes soces Car ça laisse un goût amer zèh ça laisse un goût meussousse La trahison ça pue le thon dahwa, ça pue la sardine Noureddine ça pue le dispatching et nan ça sent pas le tajine Haha ! Lorsque tes frères deviennent adversaires Quest ce que tu veux faire, quest ce que tu peux faire ?? Lorsque tes potes deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire frère ? Lorsque tes frères deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire ? Dur, dur doublier les profonds chagrins Lorsque ton destin soudain, a changé de chemin Lorsque tes frères deviennent adversaires Quest-ce que tu veux faire, quest-ce que tu peux faire, frère ?1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool J'devais des années à l'État, j'ai fuit, j'voulais pas les faire Quand j'voyais les larmes de ma mère crois-moi que je jouais pas les fiers Tout ce qu'on veut c'est faire des liasses sans pour autant ce faire menottés Et comparez pas Las Vegas et l'casino tah Bénodet Avant il m'en fallait qu'un maintenant m'faut 5-6 millions de côté J'm'arrête au feu rouge, j'en profite pour décapoter La jeunesse est en train de se bloquer donc l'État il est en train de comploter L'union fait la force, j'm'adresse à toutes les communautés Bienvenue dans ma principauté, lintérieur la vraie beauté Les vrais reconnaissent les vrais les faux ils savent que boycotter Ok ok, j'suis barjot, j'suis toqué Mister Yougataga, c'est pas à ma porte qu'il faut toquer J'étais pas bête mais j'ai arrêté l'école J'suis glocké, tout c'que j'souhaite , c'est d'arrêter l'alcool Rap tah les professionnels, rap tah les concessionnaires J'finirai pas sexagénaire vu l'oseille que ça génère Ils s'demandent si j'suis millionnaire, ils ont le seum, ils sont vénère Je vais au bled j'me régénère, y'a que le très haut que je vénère Les p'tits veulent plus soulever des coffres Ils veulent soulever des diamantaires Ils finiront pas à Saint-Cyr, à Fresnes, Fleury, ou à Nanterre J'fume du sdeh, nique des keh, j'regarde des documentaires J'graille du 7ut au bord de la mer c'est mieux que chez le maître Kanter You might also like Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent J'réponds pas à leurs critères, laissez passer l'mauvais garçon J'réponds pas à leurs questions j'leur dit point dinterrogation Trop souvent les sursis y finissent en révocation Niquer des mères et faire du son ça reste ma vraie vocation Comme Vin's j'ai vu la vache, darwah, y'a plus de solution Au mitar c'est d'l'esclavage ne m'parlez pas d'abolition Elles sont, disciplinaires ou rogatoire les commissions Fleury, la santé, le bloc, le Q.D, la division Tu trouves tout le monde quand t'es max, mais personne quand tu bé-tom La street c'est comme un T-Max, le shtar c'est comme un python Nique sa mère j'relativise baise les keufs et les matons Younes Latifi bonhomme, ça sera marqué sur ma tombe Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Le savoir est une arme, mais la richesse rachète lintellect J'veux partager ma tristesse, pour ça faut que j'me déconnecte Moi quand j'regarde le ciel, non, j'contemple pas les comètes J'pense à mes potes qui sont partis, au Seigneur j'demande de l'aide Pour accomplir ma mission, sans que personne me compromette J'm'en vais toucher l'horizon faut plus que les keufs me passent les gourmettes On joue pas à la Playstation, gros y'a ni start, ni select C'est précis, c'est clair, c'est net, ça fini sur la sellette J'sais qu'on va tous disparaître, ho ho J'ai du wari maintenant ce qu'il me faut c'est des hassanats Et j'dois remercier mon public, d'm'avoir écrit toute ces lettres V'la un jeu de mot très utopique ça t'fume pour une cigarette Christian Dior, Louis Vuitton, Phillip là où il est il barette J'crois bien que j'suis allergique aux flics j'sais pas c'qui s'passe dans ma tête J'm'en vais bronzer sous les tropiques j'vous laisse au bord de la merde Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool J'devais des années à l'État, j'ai fuit, j'voulais pas les faire Quand j'voyais les larmes de ma mère Crois-moi que je jouais pas les fiers6</t>
+          <t>Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool J'devais des années à l'État, j'ai fuit, j'voulais pas les faire Quand j'voyais les larmes de ma mère crois-moi que je jouais pas les fiers Tout ce qu'on veut c'est faire des liasses sans pour autant ce faire menottés Et comparez pas Las Vegas et l'casino tah Bénodet Avant il m'en fallait qu'un maintenant m'faut 5-6 millions de côté J'm'arrête au feu rouge, j'en profite pour décapoter La jeunesse est en train de se bloquer donc l'État il est en train de comploter L'union fait la force, j'm'adresse à toutes les communautés Bienvenue dans ma principauté, lintérieur la vraie beauté Les vrais reconnaissent les vrais les faux ils savent que boycotter Ok ok, j'suis barjot, j'suis toqué Mister Yougataga, c'est pas à ma porte qu'il faut toquer J'étais pas bête mais j'ai arrêté l'école J'suis glocké, tout c'que j'souhaite , c'est d'arrêter l'alcool Rap tah les professionnels, rap tah les concessionnaires J'finirai pas sexagénaire vu l'oseille que ça génère Ils s'demandent si j'suis millionnaire, ils ont le seum, ils sont vénère Je vais au bled j'me régénère, y'a que le très haut que je vénère Les p'tits veulent plus soulever des coffres Ils veulent soulever des diamantaires Ils finiront pas à Saint-Cyr, à Fresnes, Fleury, ou à Nanterre J'fume du sdeh, nique des keh, j'regarde des documentaires J'graille du 7ut au bord de la mer c'est mieux que chez le maître Kanter Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent J'réponds pas à leurs critères, laissez passer l'mauvais garçon J'réponds pas à leurs questions j'leur dit point dinterrogation Trop souvent les sursis y finissent en révocation Niquer des mères et faire du son ça reste ma vraie vocation Comme Vin's j'ai vu la vache, darwah, y'a plus de solution Au mitar c'est d'l'esclavage ne m'parlez pas d'abolition Elles sont, disciplinaires ou rogatoire les commissions Fleury, la santé, le bloc, le Q.D, la division Tu trouves tout le monde quand t'es max, mais personne quand tu bé-tom La street c'est comme un T-Max, le shtar c'est comme un python Nique sa mère j'relativise baise les keufs et les matons Younes Latifi bonhomme, ça sera marqué sur ma tombe Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Le savoir est une arme, mais la richesse rachète lintellect J'veux partager ma tristesse, pour ça faut que j'me déconnecte Moi quand j'regarde le ciel, non, j'contemple pas les comètes J'pense à mes potes qui sont partis, au Seigneur j'demande de l'aide Pour accomplir ma mission, sans que personne me compromette J'm'en vais toucher l'horizon faut plus que les keufs me passent les gourmettes On joue pas à la Playstation, gros y'a ni start, ni select C'est précis, c'est clair, c'est net, ça fini sur la sellette J'sais qu'on va tous disparaître, ho ho J'ai du wari maintenant ce qu'il me faut c'est des hassanats Et j'dois remercier mon public, d'm'avoir écrit toute ces lettres V'la un jeu de mot très utopique ça t'fume pour une cigarette Christian Dior, Louis Vuitton, Phillip là où il est il barette J'crois bien que j'suis allergique aux flics j'sais pas c'qui s'passe dans ma tête J'm'en vais bronzer sous les tropiques j'vous laisse au bord de la merde Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool Le shtar, les assiettes, les perquis', les maux d'têtes C'qui faut c'est des hebet, sans qu'les condés nous arrêtent Quand j'étais jeune, j'étais pas bête mais j'ai arrêté l'école Aujourd'hui tout c'que j'souhaite, c'est d'arrêter l'alcool J'devais des années à l'État, j'ai fuit, j'voulais pas les faire Quand j'voyais les larmes de ma mère Crois-moi que je jouais pas les fiers6</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rattrape-moi si tu peux, non tu peux pas Car dit toi que même les stups ont eu du mal à me foutre au placard Quand j'croise un clébard qui aboie beh moi j'reste indifférent Car j'sais que les chiens ne font pas des chats mais c'est bien l'enfant de ses parents Rend toi compte qu'il faudra qu'on arrive avant les autres, 1 an plus tôt Armstrong était bien sur la Lune, je sais, j'reviens de Pluton J'pète plus haut que mon uc, mes gaz me font quitter l'air Remballez vos lise-va j'arrive chargé d'un conteneur Combien de 3ineur vendrait leur père pour me voir tomber Prendre la perpète au hebs, 22 ans de sûreté D'ailleurs même s'ils me le mettent, j'en ai rien à foutre Ma musique se vendra aussi vite que des sachets de poudre Combien de 3ineurs vendrait leur père pour me voir tomber Prendre la perpète au hebs, 22 ans de sûreté D'ailleurs même s'ils me le mettent, j'en ai rien à foutre Ma musique se vendra aussi vite que des sachets de poudre Mais où est passé l'autre pute qui avant hier me disait non Beh elle est à genou, elle m'suce la bite mais j'vais pas cramer son prénom Eh bah non quoi, son mec charbonne toute la journée Moi j'suis à lhôtel en train d'la ken j'reprend mon p'tit déjeuner Il est 21H j'regarde un match du PSG En pointe Zlatan, Cavani, toutes les tribunes sont assiégé J'fais que d'doigté la police, j'ai le train d'vie d'un pianiste L'instru j'la brutalise sur l'terrain toute l'année ça glisse Les p'tits de chez moi, ils veulent du keh, ils veulent d'la tise Ils saucissonnerais le président pour la Joconde ou le Bleu de Matisse Il est déjà 23H, Room service montez-moi une bouteille Et pour la demoiselle on s'en bat les couilles, darwah, on s'en fout d'elle Transac' de ouf 2 kil' de shit pour 1 kil' de chnouf You might also like J'en ai charclé des litrons, demande à Rasto demande à Maurice J'me refais péter, j'me refais passer pour une nourrice Ça s'passe, dans tous les tels-hô de Paname La journée ça joue les fous, le soir ça fait les canards J'en ai charclé des litrons, demande à Rasto demande à Maurice J'me refais péter, j'me refais passer pour une nourrice J'ai c'qui faut dans mon te-comp, j'ai de quoi vider un distributeur Il est minuit sur ma tre-mon donc chez eux, j'crois il est 18H Les profiteurs ces schmits j'veux pas leurs trouer les oreilles J'vais leur trouer le XXX au 9mm, espérant pas qu'il s'enraille Khey c'est Paris, si t'es pas content c'est pareil Des mannequins tah la Bulgarie, hors de question que je me marie J'rêve que de caille en baril, j'fuck le Bleu Marine Et NAHTCHOUNE YEMAT MARINE SHAB ELI YBi3o la cocaïne Les concurrents, j'les baise, et j'les re-baise Y después hasta la próxima vez Son las tres de la mañana Yo no he dormido nada Yo miro por la ventana Dame una piña colada Khabta j'm'amuse à rer-ti, le cul dans l'Maserati J'leur ai dit tapis sans m'voir Peuvent pas suivre z'ont pas de crédit C'est fini la comédie, j'fais fantasmer leur ladies Plus longue que celle de XXX, plus grosse que celle du yéti J'les fume de-spi comme une clope, celui qui veut jouer les reur-ti J'lui allume sa mère la salope et j'prend du bon Moretti Ils voudraient que je mange du ferme, veulent que j'chie des spaghettis J'ai la tête sur les épaules, les pieds dans des Zanottis J'peux durer que c't'année-ci ça va racolle d'la biatch Y'aura du shit et de l'alcool en promo dans tout le village XXX J'pense que c'est clair de vendre du beau paysage Ça va se ferge3 le veaucer fuck la chute vive l'atterrissage Ici, beh, j'suis que de passage, j'suis pas Gandhi j'suis pas sage J'ai un p'tit peu mal au dos, j'crois bien que j'ai besoin d'un massage Ouais y'a des hauts, y'a des bats, les soutien-gorge, les porte-jarretelles On va pas faire un débat, pas de pote-ca à lhôtel Ça va partir en sucette, au sens propre du terme Ça va se terminer en levrette, et hop ! Les yeux pleins de bref Hachek XXX ça va se finir dans le jacuzzi Appelle le Room Service, ouais, prend du champagne et des sushis3</t>
+          <t>Rattrape-moi si tu peux, non tu peux pas Car dit toi que même les stups ont eu du mal à me foutre au placard Quand j'croise un clébard qui aboie beh moi j'reste indifférent Car j'sais que les chiens ne font pas des chats mais c'est bien l'enfant de ses parents Rend toi compte qu'il faudra qu'on arrive avant les autres, 1 an plus tôt Armstrong était bien sur la Lune, je sais, j'reviens de Pluton J'pète plus haut que mon uc, mes gaz me font quitter l'air Remballez vos lise-va j'arrive chargé d'un conteneur Combien de 3ineur vendrait leur père pour me voir tomber Prendre la perpète au hebs, 22 ans de sûreté D'ailleurs même s'ils me le mettent, j'en ai rien à foutre Ma musique se vendra aussi vite que des sachets de poudre Combien de 3ineurs vendrait leur père pour me voir tomber Prendre la perpète au hebs, 22 ans de sûreté D'ailleurs même s'ils me le mettent, j'en ai rien à foutre Ma musique se vendra aussi vite que des sachets de poudre Mais où est passé l'autre pute qui avant hier me disait non Beh elle est à genou, elle m'suce la bite mais j'vais pas cramer son prénom Eh bah non quoi, son mec charbonne toute la journée Moi j'suis à lhôtel en train d'la ken j'reprend mon p'tit déjeuner Il est 21H j'regarde un match du PSG En pointe Zlatan, Cavani, toutes les tribunes sont assiégé J'fais que d'doigté la police, j'ai le train d'vie d'un pianiste L'instru j'la brutalise sur l'terrain toute l'année ça glisse Les p'tits de chez moi, ils veulent du keh, ils veulent d'la tise Ils saucissonnerais le président pour la Joconde ou le Bleu de Matisse Il est déjà 23H, Room service montez-moi une bouteille Et pour la demoiselle on s'en bat les couilles, darwah, on s'en fout d'elle Transac' de ouf 2 kil' de shit pour 1 kil' de chnouf J'en ai charclé des litrons, demande à Rasto demande à Maurice J'me refais péter, j'me refais passer pour une nourrice Ça s'passe, dans tous les tels-hô de Paname La journée ça joue les fous, le soir ça fait les canards J'en ai charclé des litrons, demande à Rasto demande à Maurice J'me refais péter, j'me refais passer pour une nourrice J'ai c'qui faut dans mon te-comp, j'ai de quoi vider un distributeur Il est minuit sur ma tre-mon donc chez eux, j'crois il est 18H Les profiteurs ces schmits j'veux pas leurs trouer les oreilles J'vais leur trouer le XXX au 9mm, espérant pas qu'il s'enraille Khey c'est Paris, si t'es pas content c'est pareil Des mannequins tah la Bulgarie, hors de question que je me marie J'rêve que de caille en baril, j'fuck le Bleu Marine Et NAHTCHOUNE YEMAT MARINE SHAB ELI YBi3o la cocaïne Les concurrents, j'les baise, et j'les re-baise Y después hasta la próxima vez Son las tres de la mañana Yo no he dormido nada Yo miro por la ventana Dame una piña colada Khabta j'm'amuse à rer-ti, le cul dans l'Maserati J'leur ai dit tapis sans m'voir Peuvent pas suivre z'ont pas de crédit C'est fini la comédie, j'fais fantasmer leur ladies Plus longue que celle de XXX, plus grosse que celle du yéti J'les fume de-spi comme une clope, celui qui veut jouer les reur-ti J'lui allume sa mère la salope et j'prend du bon Moretti Ils voudraient que je mange du ferme, veulent que j'chie des spaghettis J'ai la tête sur les épaules, les pieds dans des Zanottis J'peux durer que c't'année-ci ça va racolle d'la biatch Y'aura du shit et de l'alcool en promo dans tout le village XXX J'pense que c'est clair de vendre du beau paysage Ça va se ferge3 le veaucer fuck la chute vive l'atterrissage Ici, beh, j'suis que de passage, j'suis pas Gandhi j'suis pas sage J'ai un p'tit peu mal au dos, j'crois bien que j'ai besoin d'un massage Ouais y'a des hauts, y'a des bats, les soutien-gorge, les porte-jarretelles On va pas faire un débat, pas de pote-ca à lhôtel Ça va partir en sucette, au sens propre du terme Ça va se terminer en levrette, et hop ! Les yeux pleins de bref Hachek XXX ça va se finir dans le jacuzzi Appelle le Room Service, ouais, prend du champagne et des sushis3</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Khoya zayed fi Baris, nhabe narja3 lel Casa El Bouliss habou ysaydouni kima chi houta fil marsa Rabtoni, w khdemt barcha Lyoum endawa5 fihoum kima messi fel barça Hougatagaaa, esmi Younès 9a3ed cheye5w mgalla3 m3a balti fi Tounès Li y7èb el flouss, li y7èb el Porshe Cayenne Y3ana9 ou ybouss ou ytzawej bil la7kayet Armé d'une pelle, j'enterre l'histoire Fils d'immigré c'est l'comble I m'interdit d'quitter l'territoire L'Etat c'est des batards mais j'vais pas trop les insulter Parce que ces enfants de shméta vont m'dire que moi j'aime trop les inciter Les jeunes de cité à foutre le feu et à tout niquer Oè Oè Darwa c'est bizarre comment la vie elle est compliquée Regarde Balti veut venir en France, moi j'veux m'barrer au bled C'est vrai qu'de loin ya une belle vie, mais d'près ya trop de barreaux aux fenêtres C'est la merde zèèh et on s'y habitue Ton frère il t'vole et ton shab il t'tue C'est un truc de fou Khoya la vie fi bled legwerra El Maghreb, Dzaïr, Tounès, she3lat w hya 7orra No No No No No No No Ici ou la-bas Balti Yougatagaa C'est d'la Hwaa O Darwa No No No No No No No Ici ou la-bas de Tunis à Casa Brr-Brr-Braaaaah ! No No No No No No No Ici ou la-bas Balti Yougataga Oè Oè Der-Der Oè Oè Daaarwa No No No No No No No Ici ou la bas de Tunis à Casa Brr-Brr-Braaaaah ! You might also like N7èb nemchi el Baris, n3abi el valise Tounès fi crise ti wini el devise C'est la justice, echaab katlou l'bouliss 7komtou 3lina bel é3dem 9bal ma to7kmou el ra2iss Weld bledi soufri echabab wala zoufri El btala wel ham weli sra9 el bled mcouvri Houma 5dhaw el 7assana, wa7na 5dhina banana El Tounsi ba3d el thawra wala kima el bana-bana Ti chay matbadel houni, ti hét a3tini el money El zine w layla 3amlou fil bled ki clayde and Bonnie Houma ser9ou el bounouk, w a7na ma 7assalna walou Ya 7oukouma ba3d el thawra ezzawéli te7chalou Ti hét a3tini el visa wala nahra9 kil bouaazizi Houma mchaw l'Ibiza wa hna mchina ... Ahna n3oumou fi l'ghram houma I 3oumou fi Seychelles Tounès walet chichéne ya houkouma c'est l'échec Tounès fi l'merda 7achèk Il faut briser les chaines Lazem harba mel bled 9bal ma yzid yet7ché Direction l'Bariiis Khali n'gata3 gata3 Men sidi hsine el Belle ville Balti Yougatagaaa Balti Herib mel boulissi Bye Bye la Tunisie Direction Men sidi Hssin, Baris wa l'Tennessee Mister You Darrwa on a trop de souci et s'qu'on veut c'est s'barrer d'ici H24 dans la té-ci Mahleha la piscine Balti Men Tounès el Dar bidha Khoya ennass mrida N7eb n9adem 3aridha El Ra2iss ychem fil Bidha Mister You Fi Fransa shab l'Etat ychedouk, I Quejouk wa m'ba3d I kemlouk bi l'bereta Balti A3tini Whisky glaçon 7okmouna des Francs-maçons Choufoulna kedhba fi avril si aura du poissons Mister You Daarwa ne baissez pas l'son et ne baissez pas vos caleçons On va tous les baiser et c'est laissez passez mauvais garçooon Balti Ya sebsi baisse tes lunettes Ma t'bedel chey fi l'bled Allah Yar7am elli mét bidoun essence allumettes Mister You Bidoun essence allumettes Allah Yarham li mate Khoya Ici ou la-bas partout c'est la merde</t>
+          <t>Khoya zayed fi Baris, nhabe narja3 lel Casa El Bouliss habou ysaydouni kima chi houta fil marsa Rabtoni, w khdemt barcha Lyoum endawa5 fihoum kima messi fel barça Hougatagaaa, esmi Younès 9a3ed cheye5w mgalla3 m3a balti fi Tounès Li y7èb el flouss, li y7èb el Porshe Cayenne Y3ana9 ou ybouss ou ytzawej bil la7kayet Armé d'une pelle, j'enterre l'histoire Fils d'immigré c'est l'comble I m'interdit d'quitter l'territoire L'Etat c'est des batards mais j'vais pas trop les insulter Parce que ces enfants de shméta vont m'dire que moi j'aime trop les inciter Les jeunes de cité à foutre le feu et à tout niquer Oè Oè Darwa c'est bizarre comment la vie elle est compliquée Regarde Balti veut venir en France, moi j'veux m'barrer au bled C'est vrai qu'de loin ya une belle vie, mais d'près ya trop de barreaux aux fenêtres C'est la merde zèèh et on s'y habitue Ton frère il t'vole et ton shab il t'tue C'est un truc de fou Khoya la vie fi bled legwerra El Maghreb, Dzaïr, Tounès, she3lat w hya 7orra No No No No No No No Ici ou la-bas Balti Yougatagaa C'est d'la Hwaa O Darwa No No No No No No No Ici ou la-bas de Tunis à Casa Brr-Brr-Braaaaah ! No No No No No No No Ici ou la-bas Balti Yougataga Oè Oè Der-Der Oè Oè Daaarwa No No No No No No No Ici ou la bas de Tunis à Casa Brr-Brr-Braaaaah ! N7èb nemchi el Baris, n3abi el valise Tounès fi crise ti wini el devise C'est la justice, echaab katlou l'bouliss 7komtou 3lina bel é3dem 9bal ma to7kmou el ra2iss Weld bledi soufri echabab wala zoufri El btala wel ham weli sra9 el bled mcouvri Houma 5dhaw el 7assana, wa7na 5dhina banana El Tounsi ba3d el thawra wala kima el bana-bana Ti chay matbadel houni, ti hét a3tini el money El zine w layla 3amlou fil bled ki clayde and Bonnie Houma ser9ou el bounouk, w a7na ma 7assalna walou Ya 7oukouma ba3d el thawra ezzawéli te7chalou Ti hét a3tini el visa wala nahra9 kil bouaazizi Houma mchaw l'Ibiza wa hna mchina ... Ahna n3oumou fi l'ghram houma I 3oumou fi Seychelles Tounès walet chichéne ya houkouma c'est l'échec Tounès fi l'merda 7achèk Il faut briser les chaines Lazem harba mel bled 9bal ma yzid yet7ché Direction l'Bariiis Khali n'gata3 gata3 Men sidi hsine el Belle ville Balti Yougatagaaa Balti Herib mel boulissi Bye Bye la Tunisie Direction Men sidi Hssin, Baris wa l'Tennessee Mister You Darrwa on a trop de souci et s'qu'on veut c'est s'barrer d'ici H24 dans la té-ci Mahleha la piscine Balti Men Tounès el Dar bidha Khoya ennass mrida N7eb n9adem 3aridha El Ra2iss ychem fil Bidha Mister You Fi Fransa shab l'Etat ychedouk, I Quejouk wa m'ba3d I kemlouk bi l'bereta Balti A3tini Whisky glaçon 7okmouna des Francs-maçons Choufoulna kedhba fi avril si aura du poissons Mister You Daarwa ne baissez pas l'son et ne baissez pas vos caleçons On va tous les baiser et c'est laissez passez mauvais garçooon Balti Ya sebsi baisse tes lunettes Ma t'bedel chey fi l'bled Allah Yar7am elli mét bidoun essence allumettes Mister You Bidoun essence allumettes Allah Yarham li mate Khoya Ici ou la-bas partout c'est la merde</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'ai du feu, j'ai des feuilles, j'ai des clopes, j'ai du Bojo vas-y c'est bon on y va, hein ! ok On est en pleins crack, boursier m'parle pas d'ouvrir un compte J'ai deux oreilles et une bouche pour écouter le double de ce que j'raconte Ougataga tu veux que j'te parle de la galère J'ai pas attendu l'epiphanie dahwa pour vendre la galette P.w.y m.t.c l.r.k ok Woogataga, tu veux que j'te parle d'la lère-ga ? Un jour j'me baladais sur le terrain j'étais serein Un mec stock'ma a voulu s'taper il s'est mangé des coups de surin Un autre jour y'avait plus de taga c'tait la galère Y'avait un loss'bo on a dû l'rott'ca en lui disant repasse d't'à'l'heure Woogataga real man gansta Pour apprendre à conduire bah j'ai volé des ford fiesta big up sambou siabou hibou et chika bou... Une cave-pou ça détaille tout nan nan ça n'a pas de sujet tabou Ah woogataga tu veux que j'te parle de la galère J'ai pas attendu l'epihanie dahwa pour vendre la galette Quente bari nal3ab ma3tawnich la manette Déftoni fih l'cellule kraht ga3 la planète Woogataga j'en veux à toute la terre Si t'as un plan j'suis bouillant autant que le coeur d'un cratère J'récolte des dollars, j'sème que de la merde J'n'adore qu'Allah, j'n'aime que ma mère J'suis en cavale j'vis comme Tom sawyer J'suis marié à mes potes mais les trois quarts n'sont là qu'pour l'meilleur Nique les 3ineurs, ouais, armés d'un infrarouge Ils m'zieutent ils m'observent en attendant qu'ça bouge Ils ouvrent tous leurs bouches donc faut que j'sorte ma bite Représente la street, ouais nique les hypocrites Dédicace à if, à buakaw, à ladji Une Bicyclette en lucarne vaut mieux que 3 penalty Petit, on a la dalle t'as qu'à demander à Lacrim Nous quand on met un gilet pare-balle c'est pas pour pas choper la grippe Many J'suis en cavale, corde au cou mé tekass m'agrippe Inchallah j'aurais ma place comme Lass à Madrid J'patine sur la merde shabe Candéloro J'marche seul, mes vers solitaires ont des pectoraux Quand j'passe au prétoir m'faut des Malboro Des Allumettes, un grattoir et pas mal de bojo Monsieur l'commissaire tiens t'as qu'à sucer A trop squatter dans la fourrière on finit chien d'la cassisé Feinte tah Eto'o, crochet tah Cassius Clay Pour retourner dans le ghetto faudra que les 3assass ils m'passent un clé You might also like Ah woogataga tu veux que j'te parle de la galère J'ai pas attendu l'epiphanie dahwa pour vendre la galette1</t>
+          <t>J'ai du feu, j'ai des feuilles, j'ai des clopes, j'ai du Bojo vas-y c'est bon on y va, hein ! ok On est en pleins crack, boursier m'parle pas d'ouvrir un compte J'ai deux oreilles et une bouche pour écouter le double de ce que j'raconte Ougataga tu veux que j'te parle de la galère J'ai pas attendu l'epiphanie dahwa pour vendre la galette P.w.y m.t.c l.r.k ok Woogataga, tu veux que j'te parle d'la lère-ga ? Un jour j'me baladais sur le terrain j'étais serein Un mec stock'ma a voulu s'taper il s'est mangé des coups de surin Un autre jour y'avait plus de taga c'tait la galère Y'avait un loss'bo on a dû l'rott'ca en lui disant repasse d't'à'l'heure Woogataga real man gansta Pour apprendre à conduire bah j'ai volé des ford fiesta big up sambou siabou hibou et chika bou... Une cave-pou ça détaille tout nan nan ça n'a pas de sujet tabou Ah woogataga tu veux que j'te parle de la galère J'ai pas attendu l'epihanie dahwa pour vendre la galette Quente bari nal3ab ma3tawnich la manette Déftoni fih l'cellule kraht ga3 la planète Woogataga j'en veux à toute la terre Si t'as un plan j'suis bouillant autant que le coeur d'un cratère J'récolte des dollars, j'sème que de la merde J'n'adore qu'Allah, j'n'aime que ma mère J'suis en cavale j'vis comme Tom sawyer J'suis marié à mes potes mais les trois quarts n'sont là qu'pour l'meilleur Nique les 3ineurs, ouais, armés d'un infrarouge Ils m'zieutent ils m'observent en attendant qu'ça bouge Ils ouvrent tous leurs bouches donc faut que j'sorte ma bite Représente la street, ouais nique les hypocrites Dédicace à if, à buakaw, à ladji Une Bicyclette en lucarne vaut mieux que 3 penalty Petit, on a la dalle t'as qu'à demander à Lacrim Nous quand on met un gilet pare-balle c'est pas pour pas choper la grippe Many J'suis en cavale, corde au cou mé tekass m'agrippe Inchallah j'aurais ma place comme Lass à Madrid J'patine sur la merde shabe Candéloro J'marche seul, mes vers solitaires ont des pectoraux Quand j'passe au prétoir m'faut des Malboro Des Allumettes, un grattoir et pas mal de bojo Monsieur l'commissaire tiens t'as qu'à sucer A trop squatter dans la fourrière on finit chien d'la cassisé Feinte tah Eto'o, crochet tah Cassius Clay Pour retourner dans le ghetto faudra que les 3assass ils m'passent un clé Ah woogataga tu veux que j'te parle de la galère J'ai pas attendu l'epiphanie dahwa pour vendre la galette1</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bien sûr tu fonceras dans le mur, daâwa si tu joues les pressés Chez moi les livres on veut pas les lire, non non on veut juste les encaisser Big up Alain le reuf à XXX, Bazou, Pépé, vieux reuf à Diggi Ce n'est qu'une pute si tu portes legging, je te paye en sperme, je te paye en liquide Viens pas me gratter ma belle s'il te plaît, tout mon seille-o est au de-blé Fuck ton rap moi c'est pour de vrai, j'suis comme Chérif et de-Frè Couscous, mafé, tiep ou colombo, trois semaines de show-case je me paye un Lambo Je baise la mère à Colombo, à Derrick et même à Rambo Trop de bouffons jouent les nhommes-bo, avec un oigt-d je leur place un combo Je pé-cho des kilos en Mauritanie, j'nique la mère à l'Italie Fuck la sicile Manny et Tony, si tu sors du hebs fuck les Buitoni C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive J'fais pas que du rap, moi j'fais d'la magie, dans l'crâne, j'ai pas qu'un pois-chiche J'calcule plus vite que un nois-chi, j'suis plus armé qu'un Kouachi Tout à l'heure j'ai croisé Pépé, il m'a dit Putain, c'est quoi ce gâchis ? T'es plus fort que tout ces fils des putes, sodomise-les poto vas-y ! A 13 ans j'rodais en Lacoste, c'etait pas payé par les rents-pa Non, c'étais payé par les chou-a-ra, daawa XXX Puis à force de baiser le pe-ra, j'ai fini par lui faire trop d'gosses Qui respectent plus leur daron, Papa You ouais, on sait qui est l'boss J'ai tout ce qu'il faut sous mes coussins, j'ai moins de cheveux que de cousins J'sors du zoo j'mérite pas l'boussa, j'suis un peu comme l'balle à Moussa Suce ma bite tu vas sentir la fraise, mais crois pas que j'vais sortir de la fraîche Si tu pues la merde je te fonce en Fébreze, chtib chtab chez moi l'amour se fait bref Où es-tu passé petit boycotteur ? Disparu rapide comme un éclair Même pas arrivé déjà parti zeh, daâwa b'sahtek la misère Au pire viens me voir, je t'avance 20 dal', avec ton flow qui pue l'emmental Ta carrière est lamentable, c'est ça d'pas avoir la mentale You might also like C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive1</t>
+          <t>Bien sûr tu fonceras dans le mur, daâwa si tu joues les pressés Chez moi les livres on veut pas les lire, non non on veut juste les encaisser Big up Alain le reuf à XXX, Bazou, Pépé, vieux reuf à Diggi Ce n'est qu'une pute si tu portes legging, je te paye en sperme, je te paye en liquide Viens pas me gratter ma belle s'il te plaît, tout mon seille-o est au de-blé Fuck ton rap moi c'est pour de vrai, j'suis comme Chérif et de-Frè Couscous, mafé, tiep ou colombo, trois semaines de show-case je me paye un Lambo Je baise la mère à Colombo, à Derrick et même à Rambo Trop de bouffons jouent les nhommes-bo, avec un oigt-d je leur place un combo Je pé-cho des kilos en Mauritanie, j'nique la mère à l'Italie Fuck la sicile Manny et Tony, si tu sors du hebs fuck les Buitoni C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive J'fais pas que du rap, moi j'fais d'la magie, dans l'crâne, j'ai pas qu'un pois-chiche J'calcule plus vite que un nois-chi, j'suis plus armé qu'un Kouachi Tout à l'heure j'ai croisé Pépé, il m'a dit Putain, c'est quoi ce gâchis ? T'es plus fort que tout ces fils des putes, sodomise-les poto vas-y ! A 13 ans j'rodais en Lacoste, c'etait pas payé par les rents-pa Non, c'étais payé par les chou-a-ra, daawa XXX Puis à force de baiser le pe-ra, j'ai fini par lui faire trop d'gosses Qui respectent plus leur daron, Papa You ouais, on sait qui est l'boss J'ai tout ce qu'il faut sous mes coussins, j'ai moins de cheveux que de cousins J'sors du zoo j'mérite pas l'boussa, j'suis un peu comme l'balle à Moussa Suce ma bite tu vas sentir la fraise, mais crois pas que j'vais sortir de la fraîche Si tu pues la merde je te fonce en Fébreze, chtib chtab chez moi l'amour se fait bref Où es-tu passé petit boycotteur ? Disparu rapide comme un éclair Même pas arrivé déjà parti zeh, daâwa b'sahtek la misère Au pire viens me voir, je t'avance 20 dal', avec ton flow qui pue l'emmental Ta carrière est lamentable, c'est ça d'pas avoir la mentale C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive C'est la Suisse dans mes ches-po, c'est fini la Yougoslavie Daâwa tu me connais to-po, en une transac' je peux changer ta vie En Martinique ils attendent mon shit, c'est moi qui l'ai fait dans le Rif Ensuite l'oseille on part au Mexique et sous 4 mois la coke arrive1</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>x2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger Nous pour être les meilleurs, on a pas eu besoin de rapper chelou Nique la mère aux 3ineur même sans Alain 'fflelou Dans le menton, coup de genou Tu sais comment ça s'passe chez nous On a grandi à Fleury avec les loups Woogataga, ouais, tu sais comment ça s'passe Des coups d'calibre, des coups d'crosse Des coups d'bâtard, des coups d'crasse J'ai trop de frérots c'est des siste-gro Ils pèsent plus que des monégasques Ils t'rendent millionnaire fissabilillah J'leur fait une grosse dédicace Ils t'font des boss sur le rain-té Ils t'avancent des tonnes de pavés Quatre tonnes dans la G.A.V Ne me dites pas qu'c'est pas vrai Ma gueule fais pas l'mec navré Vingt ans, l'addition elle est poivrée Laisse, laisse, laisse les gens parler You might also likex2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger On repense tous au passé J'leur ai appris à conduire Ils ont voulu m'écraser Akram m'a dit poto You vas-y doucement, t'fais pas flasher Meknasi Style yougataga, big up à Zak l'ingé Nique la mère à toute la terre d'puis l'école élémentaire Nique ta mère toi et tes commentaires Si j'suis pas vrai qu'on m'enterre Six pieds sous terre ou même nique sa grand mère Vingt-quatre pieds sous l'sol Qu'on soit plein ou que j'sois tout seul J'perds pas le nord sans boussole Fuck les plans A, fuck même les plans B Fuck tous ceux qu'on isole C'est pour tous mes frères chtarbés qu'ont fini sous la camisole Qui s'en battent les yeu-cou, gros majeur à l'état Index sur la gâchette tah le Beretta x2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger4</t>
+          <t>x2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger Nous pour être les meilleurs, on a pas eu besoin de rapper chelou Nique la mère aux 3ineur même sans Alain 'fflelou Dans le menton, coup de genou Tu sais comment ça s'passe chez nous On a grandi à Fleury avec les loups Woogataga, ouais, tu sais comment ça s'passe Des coups d'calibre, des coups d'crosse Des coups d'bâtard, des coups d'crasse J'ai trop de frérots c'est des siste-gro Ils pèsent plus que des monégasques Ils t'rendent millionnaire fissabilillah J'leur fait une grosse dédicace Ils t'font des boss sur le rain-té Ils t'avancent des tonnes de pavés Quatre tonnes dans la G.A.V Ne me dites pas qu'c'est pas vrai Ma gueule fais pas l'mec navré Vingt ans, l'addition elle est poivrée Laisse, laisse, laisse les gens parler x2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger On repense tous au passé J'leur ai appris à conduire Ils ont voulu m'écraser Akram m'a dit poto You vas-y doucement, t'fais pas flasher Meknasi Style yougataga, big up à Zak l'ingé Nique la mère à toute la terre d'puis l'école élémentaire Nique ta mère toi et tes commentaires Si j'suis pas vrai qu'on m'enterre Six pieds sous terre ou même nique sa grand mère Vingt-quatre pieds sous l'sol Qu'on soit plein ou que j'sois tout seul J'perds pas le nord sans boussole Fuck les plans A, fuck même les plans B Fuck tous ceux qu'on isole C'est pour tous mes frères chtarbés qu'ont fini sous la camisole Qui s'en battent les yeu-cou, gros majeur à l'état Index sur la gâchette tah le Beretta x2 Casque Arai, chien enclenché Pour quiconque voudrait m'clasher Dans l'parking, gamos bâché Merco, BM, Rolls Royce cachés Prochain showcase j'augmente mon cachet J'ai vendu la mort en sachet J'suis meilleur que personne, sachez Mec, les concurrents sont en danger4</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Apprendre a être libre Cur et poing serrés Se sentir considéré Pour réapprendre a vivre Manifestations tempérées C'est loin d'être possible Quand le peuple est pris pour cible Y'a pas d'révolutions modérées Oui ils marchent pour leurs intérêts L'Etat compte les sinistres Oui, ils font couler le sang Et Ont la mort pour ministre Arabia triste bilan Va du Maroc a l'Iran L'espoir remplit des cercueils Et porte le deuil des tyrans Le drapeau blanc est taché Ce n'était qu'une histoire d'oseille Le peuple lutte jour et nuit Crédit dans le sommeil L'échec n'était pas palpable Révolution morale L.E.C.K rend hommage Pour les disparus j'fais une doha Arabia You might also like Un nuage d'innocence plane sur le peuple Bombarder son histoire c'est tuer ses propres fleurs La réflexion heurte la raison Regarde il pleut des pierres Au final il ne restera que la prière Yeah x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia On achète pas notre liberté On donnera notre vie pour l'acquérir Que Dieu bénisse les frères qui sont morts en martyrs Tu peux tirer sur le peuple mais le peuple se relèvera Tahia edawla el arabia ! Imagine ton immeuble soufflé par une roquette On traîne nos vies d'thug On marche avec le peuple On crève avec le peuple Qui veut la paix prépare la guerre On est courageux et fiers On fait reculer les tanks avec des pierres Ici le peuple est sur la paillasse Le père se tient la tête Quand tu n'as rien t'as rien à perdre C'est les kalashs contre les caillasses J'espère que ça va suffire Encore combien de frères vont nous laisser Parce que l'histoire plutôt l'écrire que de la subir Le Printemps Beur est dans les charts Comme les soldats dans les chars Je t'ai dans la chair, Monde arabe Ta démocratie se télécharge oh ! Rien ne sert d'agiter l'épouvantail La crise est inévitable On n'chasse pas l'brouillard à l'éventail x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Une poudrière finit forcément par s'embraser Il suffit d'une étincelle Le feu s'propage et rien n'pourra l'entraver La vraie question à se poser c'est quelle issue ? Quel futur ? Reconstruire, envisager l'avenir après cette rupture Depuis le temps que je patiente Dans cette chambre noire J'entends les surveillants qui chantent Au fond du couloir J'repense à toutes ces bombes qui tombent Un peu partout sur nos terres Darwah pour venger mes frères J'fumerais bien Bush comme un zdeh Frère faut pas être expert en finances Pour se douter qu'ils mentent La supercherie est immense Ils ont su nous faire faire taire taire Vaillant soit le monde arabe Quand le peuple gronde Bombe le torse les têtes tombent tombent Pensée pour ceux qui ont laissé un vide Enfin, à tous ceux qui seront mort pour que nous on vive Rebeus, fiers et révolutionnaires Représentent comme les frères de S.N.I.P.E.R En hommage à tous les civils qui sont tombés sous les balles Qui se sont battus pour être libres Qui se sont battus contre un système totalitaire Et qui pour changer leur histoire y ont laissé des êtres chers x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia2</t>
+          <t>Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Apprendre a être libre Cur et poing serrés Se sentir considéré Pour réapprendre a vivre Manifestations tempérées C'est loin d'être possible Quand le peuple est pris pour cible Y'a pas d'révolutions modérées Oui ils marchent pour leurs intérêts L'Etat compte les sinistres Oui, ils font couler le sang Et Ont la mort pour ministre Arabia triste bilan Va du Maroc a l'Iran L'espoir remplit des cercueils Et porte le deuil des tyrans Le drapeau blanc est taché Ce n'était qu'une histoire d'oseille Le peuple lutte jour et nuit Crédit dans le sommeil L'échec n'était pas palpable Révolution morale L.E.C.K rend hommage Pour les disparus j'fais une doha Arabia Un nuage d'innocence plane sur le peuple Bombarder son histoire c'est tuer ses propres fleurs La réflexion heurte la raison Regarde il pleut des pierres Au final il ne restera que la prière Yeah x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia On achète pas notre liberté On donnera notre vie pour l'acquérir Que Dieu bénisse les frères qui sont morts en martyrs Tu peux tirer sur le peuple mais le peuple se relèvera Tahia edawla el arabia ! Imagine ton immeuble soufflé par une roquette On traîne nos vies d'thug On marche avec le peuple On crève avec le peuple Qui veut la paix prépare la guerre On est courageux et fiers On fait reculer les tanks avec des pierres Ici le peuple est sur la paillasse Le père se tient la tête Quand tu n'as rien t'as rien à perdre C'est les kalashs contre les caillasses J'espère que ça va suffire Encore combien de frères vont nous laisser Parce que l'histoire plutôt l'écrire que de la subir Le Printemps Beur est dans les charts Comme les soldats dans les chars Je t'ai dans la chair, Monde arabe Ta démocratie se télécharge oh ! Rien ne sert d'agiter l'épouvantail La crise est inévitable On n'chasse pas l'brouillard à l'éventail x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia Une poudrière finit forcément par s'embraser Il suffit d'une étincelle Le feu s'propage et rien n'pourra l'entraver La vraie question à se poser c'est quelle issue ? Quel futur ? Reconstruire, envisager l'avenir après cette rupture Depuis le temps que je patiente Dans cette chambre noire J'entends les surveillants qui chantent Au fond du couloir J'repense à toutes ces bombes qui tombent Un peu partout sur nos terres Darwah pour venger mes frères J'fumerais bien Bush comme un zdeh Frère faut pas être expert en finances Pour se douter qu'ils mentent La supercherie est immense Ils ont su nous faire faire taire taire Vaillant soit le monde arabe Quand le peuple gronde Bombe le torse les têtes tombent tombent Pensée pour ceux qui ont laissé un vide Enfin, à tous ceux qui seront mort pour que nous on vive Rebeus, fiers et révolutionnaires Représentent comme les frères de S.N.I.P.E.R En hommage à tous les civils qui sont tombés sous les balles Qui se sont battus pour être libres Qui se sont battus contre un système totalitaire Et qui pour changer leur histoire y ont laissé des êtres chers x2 Arabia, arabia Rahi jaya w machi nassia Loughti hia min walidiya girha hia arabia2</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chez moi, le ciel n'est pas bleu, nan, Dahwa, il est gris Y a d'la sehla, c'est plutôt nuageux Mister You - Lameucri De nos amis, est-c'que t'es l'faux ? Ils ont de l'ego, est-c'qu'ils ont l'flow ? 500 chevaux, est-c'qu'ils ont l'pot ? Mandat d'dépôt pour le magot Laissez faire les pros 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara Ce soir, c'est quoi les bails ? Là, j'suis pas là pour balnave D'mande à Bakaw et Abdoulaye, j'suis toujours dans des bails graves Feinte de crochets tah Lass' Diarra, p'tite pichenette tah Anelka J'ai vendu shit, coke et lettes-ga, j'ai goûté l'fric et la melle-ga À treize ans, j'étais pas gourmand, moi, j'voulais juste un CLK J'voulais pas faire pleurer maman, j'ai vu la street et ses lères-ga Dahwa Zoogataga, comme dit mon poto Ledkha, au pied du mur, aide-toi et puis le Seigneur, il t'aidera On doigte les porcs sans faire d'effort, on les baise tous car on est fort Là, c'est Lacrim et Mister Yankee Oscar Uniform Chez moi, ça pète les portes à coup d'FACOM et d'cruciforme Tu fumes la came, on fume la frappe des aquariums à n'plus s'y voir You might also like 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara Ramer, ramer, ramer, j'avais autre chose à faire Putain, en plus, j'ai dû mouiller toutes mes affaires Le salaire d'la mort, ses pêchés, m'empêchaient d'être fiché Mobligeaient à tricher pour avoir plus à perdre Non mais, refré, moi, j'voulais son bonheur Dans une mer de diamants, j'ai vu se noyer son honneur Mon casier a fait fantasmer l'avocate J'ai de la frappe qu'on rebicrave à 2-4 Sale fils de pute, j'ai donné de l'amour et du temps J'ai reçu la déception, des problèmes et du sang J'enterre mes secrets mais sur mon papa RS3 teinté pour ratatata 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara</t>
+          <t>Chez moi, le ciel n'est pas bleu, nan, Dahwa, il est gris Y a d'la sehla, c'est plutôt nuageux Mister You - Lameucri De nos amis, est-c'que t'es l'faux ? Ils ont de l'ego, est-c'qu'ils ont l'flow ? 500 chevaux, est-c'qu'ils ont l'pot ? Mandat d'dépôt pour le magot Laissez faire les pros 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara Ce soir, c'est quoi les bails ? Là, j'suis pas là pour balnave D'mande à Bakaw et Abdoulaye, j'suis toujours dans des bails graves Feinte de crochets tah Lass' Diarra, p'tite pichenette tah Anelka J'ai vendu shit, coke et lettes-ga, j'ai goûté l'fric et la melle-ga À treize ans, j'étais pas gourmand, moi, j'voulais juste un CLK J'voulais pas faire pleurer maman, j'ai vu la street et ses lères-ga Dahwa Zoogataga, comme dit mon poto Ledkha, au pied du mur, aide-toi et puis le Seigneur, il t'aidera On doigte les porcs sans faire d'effort, on les baise tous car on est fort Là, c'est Lacrim et Mister Yankee Oscar Uniform Chez moi, ça pète les portes à coup d'FACOM et d'cruciforme Tu fumes la came, on fume la frappe des aquariums à n'plus s'y voir 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara Ramer, ramer, ramer, j'avais autre chose à faire Putain, en plus, j'ai dû mouiller toutes mes affaires Le salaire d'la mort, ses pêchés, m'empêchaient d'être fiché Mobligeaient à tricher pour avoir plus à perdre Non mais, refré, moi, j'voulais son bonheur Dans une mer de diamants, j'ai vu se noyer son honneur Mon casier a fait fantasmer l'avocate J'ai de la frappe qu'on rebicrave à 2-4 Sale fils de pute, j'ai donné de l'amour et du temps J'ai reçu la déception, des problèmes et du sang J'enterre mes secrets mais sur mon papa RS3 teinté pour ratatata 200 dans le Merco, tu descends dans le Sud de tes morts Tu n'as pas de biff Une p'tite boîte à Monaco, pour une table, au minimum, il faut 6000 Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes Chez nous, on écoute l'imam, pas le Boumara Refré, on est refait d'chez refait 11.43, allez, bon débarras C'est pour les vrais blacks et pour les vrais arabes S'il faut des pes-sa, on va pas chez Zara</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Je rappe pour les voyous C'est le grand méchant You Je baise des putes, des keh, des salopes Je les fumes comme un zdeh ou comme une clopes Bâtard j'te graille comme une escalope Poto Noureddine du 94 est la On a tous connu la son-pri Un peu tous comme Mandela Me gusta fumar porros Hashish et Marlboro Comme Porto dans le moro Que quiere nuevo de euro Khasna drahem khasna l'euro F Hbasat 3ina men douro J'suis de lâ ou ca tize au goulot J'suis d'ceux qui ont toujours du boulot F xxFel l'ghaba , chouf denya fen ghada Kedbou 3lina f telfaza , 9atlou khwatna f ghaza Ma 3reft malou bnadm Chouf, chouf 3a f dar bouazza Chouf sare7 ch7al m3adem Chouf bagra ch7al hazza Même si t'as tout l'or d'un émir Vrai tu l'es ou tu l'es pas J'en ai plein dans ma ligne de mire L'ange de droite me dit tues-les pas Celui d'gauche me repète que c'est tous des tapettes J'dois les ken, les gifler, leur cracher dessus et les ouet C'est des schmets ces batards j'dois les exterminer Je m'arrête pas je continue, determiné Wesh XXX t'es khapta, tu fumes pas tu crapotes Ramènes 34 meufs, j'suis avec 3, 4 potes Rira bien qui rira quand tu s'ras à quatres pattes En pleurant et en m'suçant pour ne pas que j't'abattes Les p'tits d'aujourd'hui roule des gros zdehs en cours Rêvent de s'faire le franc compte tah mami Bétancourt Veulent pas s'arréter là, veulent pas couper court Ils veulent couper très large, ils veulent voir qu'il y a des couilles J'pourrais rapper des heures et des heures et des jours A vous parler de la hess, j'ai trop connu l'jou3 Rumeurs, runner, 3ayneurs qui courrent Chien enclenché, bastos, bécane qui roule Nique ta mère, tranquille pépère Et même ta grand-mère, tranquille pépère Tranquille pépère comme s'il s'était rien passé x2You might also like2</t>
+          <t>Je rappe pour les voyous C'est le grand méchant You Je baise des putes, des keh, des salopes Je les fumes comme un zdeh ou comme une clopes Bâtard j'te graille comme une escalope Poto Noureddine du 94 est la On a tous connu la son-pri Un peu tous comme Mandela Me gusta fumar porros Hashish et Marlboro Comme Porto dans le moro Que quiere nuevo de euro Khasna drahem khasna l'euro F Hbasat 3ina men douro J'suis de lâ ou ca tize au goulot J'suis d'ceux qui ont toujours du boulot F xxFel l'ghaba , chouf denya fen ghada Kedbou 3lina f telfaza , 9atlou khwatna f ghaza Ma 3reft malou bnadm Chouf, chouf 3a f dar bouazza Chouf sare7 ch7al m3adem Chouf bagra ch7al hazza Même si t'as tout l'or d'un émir Vrai tu l'es ou tu l'es pas J'en ai plein dans ma ligne de mire L'ange de droite me dit tues-les pas Celui d'gauche me repète que c'est tous des tapettes J'dois les ken, les gifler, leur cracher dessus et les ouet C'est des schmets ces batards j'dois les exterminer Je m'arrête pas je continue, determiné Wesh XXX t'es khapta, tu fumes pas tu crapotes Ramènes 34 meufs, j'suis avec 3, 4 potes Rira bien qui rira quand tu s'ras à quatres pattes En pleurant et en m'suçant pour ne pas que j't'abattes Les p'tits d'aujourd'hui roule des gros zdehs en cours Rêvent de s'faire le franc compte tah mami Bétancourt Veulent pas s'arréter là, veulent pas couper court Ils veulent couper très large, ils veulent voir qu'il y a des couilles J'pourrais rapper des heures et des heures et des jours A vous parler de la hess, j'ai trop connu l'jou3 Rumeurs, runner, 3ayneurs qui courrent Chien enclenché, bastos, bécane qui roule Nique ta mère, tranquille pépère Et même ta grand-mère, tranquille pépère Tranquille pépère comme s'il s'était rien passé x22</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Des fois j'aimerais être une mouche pour voler à travers les barreaux Et chercher la merde partout , j'sais qu'les gens j'les rendrais paro Quand t'as besoin d'l'eau Tèh Zam Zam.. Iblis te tend un verre de Jack !! Saches que le pain de Dieu est plus savoureux que le caviar du Diable !!! Regarde moi j'me noie dans l'alcool et à m'écouter on dirait que tout baigne J'vends d'la drogue dure j'suis qu'une ordure , lÉtat il m'a mis a la poubelle Au placard j'vis comme la Bête , moi j'rêve que d'me faire la Belle 2 ans pour stups hé merde j'ai eu raison d'faire appel Au parloir ça coffre brut en cellule ça bédave net La liberté c'qu'une statue postée d'lautre coté d'la fenêtre Certes j'ai trop couru à ma perte mais j'vais pas faire le mec 3eyen J'sais qu'les murs ont des oreilles et aussi des yeux pour me 3iyen J'veux pas être l'esclave de mon réveil mais l'taulier d'mon employeur Ce gouvernement il m'fait tellement chier que j'vais investir dans un broyeur Pendant qu'l'État m'torpille moi, j'résiste j'suis qu'un tirailleur Dites bien à ce qui veulent pas d'oi-m , j'sors j'lai pille et j'me tire ailleurs J'suis dangereux comme un cutter dans les mains d'Christophe Khider J'sais qu'y'a pas qu'a Pâques que les curés camoufle des Kinder J'vois la vie en rose un peu comme les Pinks Panthers Ça va chier ouais j'crois qu'la police aura besoin d'Pampers Lorsque que l'extrême droite passera dahwa j'sais pas c'qui s'passera Mais un seul truc qui changera pas c'est leurs gueules de pace-ra Il préfère faire croire que les vendeurs de barrette ils possèdent des mines d'or Au lieu d'parler des prêtres qui s'masturbe quand des gamines dorment C'est Jean-Marie l'borgne s'prend pour Charles Martel Il dépasse les bornes et quand on nous provoque beh nous on fout l'bordel Ouais on boit beaucoup d'Whisky nan nous n'sommes pas des Harkis On roule un z'déh de paki puis on la met à n'importe qui Quand on a besoin d'un avocat c'est pas pour faire des maki Au Vatican ça r'garde les Simpsons en débattant sur Maggie J'ai jamais graillé d'Knacki , c'est à Belleville que j'naquis Là où ça vend d'la drogue pour mener l'même train de vie que Nagui Là où les plus crétins finissent camé le zen dans l'paquet là Où les plus malins ils finissent quand même par se faire épingler Pas là pour blaguer , mélangé pas l'24 et l'plaqué Qui vivra crèvera dahwa on est tous conçus pour claquer Ahh woogataga j'suis khapta j'suis en train de zigzagué J'vois que les peu-stu m'pistent et que les hineurs sont au aguets Ils boycottent mais ils veulent m'ressembler , 2 piges pour m'épingler Pareil avec ou sans blé ouuuhh rap de cinglé Yougataga j'étais pas l'bienvenue parmi eux Beh Hamdoullah rien qu'en cellule j'me suis fait plus de 200 000 Armé d'un lance-pierre j'ai combattu des lances-roquettes J'sais que dans un monde de clebs vaut mieux être le maître que la croquetteYou might also like</t>
+          <t>Des fois j'aimerais être une mouche pour voler à travers les barreaux Et chercher la merde partout , j'sais qu'les gens j'les rendrais paro Quand t'as besoin d'l'eau Tèh Zam Zam.. Iblis te tend un verre de Jack !! Saches que le pain de Dieu est plus savoureux que le caviar du Diable !!! Regarde moi j'me noie dans l'alcool et à m'écouter on dirait que tout baigne J'vends d'la drogue dure j'suis qu'une ordure , lÉtat il m'a mis a la poubelle Au placard j'vis comme la Bête , moi j'rêve que d'me faire la Belle 2 ans pour stups hé merde j'ai eu raison d'faire appel Au parloir ça coffre brut en cellule ça bédave net La liberté c'qu'une statue postée d'lautre coté d'la fenêtre Certes j'ai trop couru à ma perte mais j'vais pas faire le mec 3eyen J'sais qu'les murs ont des oreilles et aussi des yeux pour me 3iyen J'veux pas être l'esclave de mon réveil mais l'taulier d'mon employeur Ce gouvernement il m'fait tellement chier que j'vais investir dans un broyeur Pendant qu'l'État m'torpille moi, j'résiste j'suis qu'un tirailleur Dites bien à ce qui veulent pas d'oi-m , j'sors j'lai pille et j'me tire ailleurs J'suis dangereux comme un cutter dans les mains d'Christophe Khider J'sais qu'y'a pas qu'a Pâques que les curés camoufle des Kinder J'vois la vie en rose un peu comme les Pinks Panthers Ça va chier ouais j'crois qu'la police aura besoin d'Pampers Lorsque que l'extrême droite passera dahwa j'sais pas c'qui s'passera Mais un seul truc qui changera pas c'est leurs gueules de pace-ra Il préfère faire croire que les vendeurs de barrette ils possèdent des mines d'or Au lieu d'parler des prêtres qui s'masturbe quand des gamines dorment C'est Jean-Marie l'borgne s'prend pour Charles Martel Il dépasse les bornes et quand on nous provoque beh nous on fout l'bordel Ouais on boit beaucoup d'Whisky nan nous n'sommes pas des Harkis On roule un z'déh de paki puis on la met à n'importe qui Quand on a besoin d'un avocat c'est pas pour faire des maki Au Vatican ça r'garde les Simpsons en débattant sur Maggie J'ai jamais graillé d'Knacki , c'est à Belleville que j'naquis Là où ça vend d'la drogue pour mener l'même train de vie que Nagui Là où les plus crétins finissent camé le zen dans l'paquet là Où les plus malins ils finissent quand même par se faire épingler Pas là pour blaguer , mélangé pas l'24 et l'plaqué Qui vivra crèvera dahwa on est tous conçus pour claquer Ahh woogataga j'suis khapta j'suis en train de zigzagué J'vois que les peu-stu m'pistent et que les hineurs sont au aguets Ils boycottent mais ils veulent m'ressembler , 2 piges pour m'épingler Pareil avec ou sans blé ouuuhh rap de cinglé Yougataga j'étais pas l'bienvenue parmi eux Beh Hamdoullah rien qu'en cellule j'me suis fait plus de 200 000 Armé d'un lance-pierre j'ai combattu des lances-roquettes J'sais que dans un monde de clebs vaut mieux être le maître que la croquette</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Des fois j'aimerai m'envoler Juste pour pouvoir les feinter J'ai toujours de la conso calé J'roule un zdeh pour m'évader J'suis comme la chèvre de M'sieur Seguin Dahwa j'kifferai gambader Me barrer loin de cette merde et de péter toutes ces portes blindées Des fois j'aimerais m'envoler pouvoir passer par la fenêtre Plus voir ses Hasses de merde, J'sais pas ce qui se passe dans ma tête Les p'tits ils ont grandi poto, tu fais le malin, tu te fais descendre La rue elle te fais pas de cadeau, elle fête pas le 25 Décembre Elle t'attends en bas de chez ta mère pour venir t'allumer ta race Elle bicrave d'la caille du comère et aussi du bête de Sharass De lamnésia, de la caille, du Re-mu, de la Re-pu Elle travaille dans un champs de bataille très ardent où il pleut plus J't'ai dit laisse parler les gens, c'est tous des enfants de Te-pu Moi mon meilleur pote s'appelle Jean, son nom de famille c'est Peux-plus J'sirote un p'tit verre d'vodka avec Yass, Cherif et Marwan Moi c'est Yougataga alias le Number One x2 Des fois j'aimerais m'envoler, pouvoir quitter la planète Allez voir les extra-terrestres leurs dire que la Terre n'est pas net Limite qu'elle comète l'inceste, en crachant le pétrole dans sa mère Que l'équateur lui sert de string, qu'elle bronze les fesses à l'air Ils s'en battent les couilles de nous, on est les chèvres eux les loups, ils veulent qu'on crève ses vermines Même chauve ils nous cherchent des poux Chut ! La où sa fouette la corruption les keufs c'est des tripoux LIs préfèrent nous mettre en prison comme disent XXX Nous dans nos têtes c'est Kaboul, demande à la famille Benham Pour courser tout le tribunal mais sinon c'est notre plus belle arme Quand la juge te regarde avec haine à croire que t'as pointer ces gosses Mal XXX tout cur avec haine et retire une peine assez grosse You might also like x2 Des fois j'aimerais m'envoler grimper dans un hélico Et péter une bouteille de Veuve Clicquot avec mon poto Frederico Récupérer mon phone tel Laisser un message à Shakir lui dire qu'ici c'est mortel Lahkayette bla machakil Zid esskili ya saki T'sais comment sa ce passe zid zid w3amarli l'kèss La juge qui ma fais tomber, j'lai pas trouver si fragile Crois-moi être un mec libéré, dahwa c'est pas si facile C'est pour sa que j'aimerais m'envoler Ouai, juste histoire de les feinter parce qu'il peuvent me rendre gue-din Il veulent que j'finisse chtarbé J'suis comme la chèvre de m'sieur Seguin J'tes dis j'kifferais gambader Mais ici les portes sont closes et les fenêtres sont barricadées x23</t>
+          <t>Des fois j'aimerai m'envoler Juste pour pouvoir les feinter J'ai toujours de la conso calé J'roule un zdeh pour m'évader J'suis comme la chèvre de M'sieur Seguin Dahwa j'kifferai gambader Me barrer loin de cette merde et de péter toutes ces portes blindées Des fois j'aimerais m'envoler pouvoir passer par la fenêtre Plus voir ses Hasses de merde, J'sais pas ce qui se passe dans ma tête Les p'tits ils ont grandi poto, tu fais le malin, tu te fais descendre La rue elle te fais pas de cadeau, elle fête pas le 25 Décembre Elle t'attends en bas de chez ta mère pour venir t'allumer ta race Elle bicrave d'la caille du comère et aussi du bête de Sharass De lamnésia, de la caille, du Re-mu, de la Re-pu Elle travaille dans un champs de bataille très ardent où il pleut plus J't'ai dit laisse parler les gens, c'est tous des enfants de Te-pu Moi mon meilleur pote s'appelle Jean, son nom de famille c'est Peux-plus J'sirote un p'tit verre d'vodka avec Yass, Cherif et Marwan Moi c'est Yougataga alias le Number One x2 Des fois j'aimerais m'envoler, pouvoir quitter la planète Allez voir les extra-terrestres leurs dire que la Terre n'est pas net Limite qu'elle comète l'inceste, en crachant le pétrole dans sa mère Que l'équateur lui sert de string, qu'elle bronze les fesses à l'air Ils s'en battent les couilles de nous, on est les chèvres eux les loups, ils veulent qu'on crève ses vermines Même chauve ils nous cherchent des poux Chut ! La où sa fouette la corruption les keufs c'est des tripoux LIs préfèrent nous mettre en prison comme disent XXX Nous dans nos têtes c'est Kaboul, demande à la famille Benham Pour courser tout le tribunal mais sinon c'est notre plus belle arme Quand la juge te regarde avec haine à croire que t'as pointer ces gosses Mal XXX tout cur avec haine et retire une peine assez grosse x2 Des fois j'aimerais m'envoler grimper dans un hélico Et péter une bouteille de Veuve Clicquot avec mon poto Frederico Récupérer mon phone tel Laisser un message à Shakir lui dire qu'ici c'est mortel Lahkayette bla machakil Zid esskili ya saki T'sais comment sa ce passe zid zid w3amarli l'kèss La juge qui ma fais tomber, j'lai pas trouver si fragile Crois-moi être un mec libéré, dahwa c'est pas si facile C'est pour sa que j'aimerais m'envoler Ouai, juste histoire de les feinter parce qu'il peuvent me rendre gue-din Il veulent que j'finisse chtarbé J'suis comme la chèvre de m'sieur Seguin J'tes dis j'kifferais gambader Mais ici les portes sont closes et les fenêtres sont barricadées x23</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jtrouve pas lsommeil dans les bacs Jbois dla vodka avec du gin La mort gha tji, ou gha tédini Les frères jsais plus quoi dire A part Allah yahdikoum ou Allah yahdini Trop prennent le seum car jsuis coté comme une putain dLambo Savent très bien que jpartirai comme un putain dnhomme-bo Jme rappelle dune époque jvendais du crack, des cachetons Ça mitraillait sur lautoroute, big up Nino, rice-Mau, Rashton Woogataga non cest pas du rap de khamej Des coups dgenou, des kilos dcoke ma gueule Pour aller taille dans cent meuges Pas dmoulin mais on veut sfaire du blé Dans lécole de la rue on à pas redoublé On a sauté des classes bande de teubés Pas qule grenier quon a meublé Plus besoin dmécrire sil vous plait Jsais qule mandat ddépôt il est déjà renouvelé Jsais qucette salope de juge, ça fait longtemps quelle mvoulait Jmange même plus dKFC tellement jboycotte les poulets Lrap français jlui ai mis la fessée, puis jai percé dans la foulée Jvoulais vivre ma vie dtous les jours, sans qupersonne me reconnaisse Jmen bats les kleoui du succès, wAllah men bats les cojones Quai des Orfèvres, boulevard Bessières, ils rêvent de mlever pour ldessert Parle dmoi entre la poire et lfromage Jme demande quand est-cque jvais mles faire Aujourdhui jleur allume leur mère, et demain jmangerai du ferme Jroulerai des zdeh dans la souricière, jpérirai par le fer Tu veux que jte parle dma street life ? Tu risques davoir un malaise Dans cputain dmonde hypocrite, jai déjà vu Jack parler sur Daniels Pietro sur Beretta, Smith sur Weston Nique leur mère à tous ces shmettas cest ma khadra la qui mraisonne Big up frère Soulayman, pour lSeigneur, front sur le sol Pendant quils seront pas contents on brassera des liasses en chantant Cest pas du rap dindépendant ouais jrappe lindépendance XXX lle-da, on prendra du bon temps Jveux mtailler au roc-Ma, un teh, rapta, tranquille on sdétend Drah, en attendant quyai drah, crick brah, yougataga brah You might also like Sur lterrain ya les grands qui gueulent, devant ya les petits qui cabrent Ya ceux qui sortent le Desert Eagle, ceux qui frappent comme Steven Seagal Ils font les fous quand ya du people, quand ils finissent seuls ils sont tout pâles Quand tavances ils tmettent tous lil, ils tfont la bise, derrière ils parlent Ya ceux qui font, ceux qui veulent, mais trahis pas, cest lprincipal Et en classe on foutait lzbeul, des grosses insultes au principal Combien dfois tas fini seul à tpéter la tête sous critical ? Ils parlent de moi mais quest-cquils veulent ? Ils vont finir à lhôpital Toi tas lvice on a lgarage, mon tieks cest un 1-3-5 City Dis pas qutes dlà tes pas dici, on va tcrosser comme dans Vice City Ya ceux qui sucent, ya les bandeurs dhomme Ceux qui blablatent, ya ceux qui sdonnent Ya les mecs à jeun, les mecs stone Ya ceux qui parlent pas ya ceux qui te donnent Ya ceux qui lèvent sur une roue, ouais poto cest comme ça chez nous Pétard à la main, Porsche Loeb, ça prend lautoroute avec les genoux Cest quoi cquartier ? Jpète un plomb, même les gadjis elles ont des jnouns Jai envie de fouetter des gens, ils font les crasseux pour des shtouns Au début cest copaine-copine, après c'est ta femme elle veut ton code PIN Quatre mois après elle tfait un môme, faut qutu lassumes, cest ta copine Fais pas lmec qui sait cabrer, tu fais même pas ltour du bâtiment Tu dis quelle tu las baisée, dis-moi poto pourquoi tu mens ? Et au tieks, si tas faim, sur pépé quya des mecs en manque Qui te diront cest lacrizeomicmek ya pas un dans le compte en banque Ça spète la tête avec des bangés, plan folle, plan B Ça va voler, ça prend des risques, ça fait des sous, ça veut les flamber Jai fait un rêve de fou, gros, ouais de fou gros Jai rêvé dShakira putain que jlui mettais un coup gros Tu fais ldur genre moi jai peur ddégun Jtai jamais vu quand yavait embrouille, jai juré qutes quun dégun Tu mas pas reconnu ? Cest lacrizeomic, moi cest Jul jfuck les salopes Il mdit qucest mon frère après quand on sparle plus il fait confiance à lautre Ya trop de folles, trop de traîtres, trop de shmitts qui enquêtent Qui te suivent, qui te pètent, et oui tous les jours, cest comme ça mon pote Ça veut ton plan cul, ta recette, les petits den bas, rien quça recèle Des fois jfume un pétard seul et jpense à mon frérot au ciel Jusquà maintenant jai fait mon taf, frère chez moi on poukave pas Entre amis on stape pas mais bon des fois cest pas ça Massa, shit et blonde, jette pas même si ya les condés Dure est la vie quje fonde, jpourrais même pas traconter Jvois les petits monter, sur des plans, des coups montés Jles vois avec les habits dla gratte armés sur des scooters remontés Ya un coup à faire jsuis sapé, des petites folles veulent mencaper Cest chaud ça tire ouais pour un bleu ouais tas quà venir constater Ouais tas quà venir constater2</t>
+          <t>Jtrouve pas lsommeil dans les bacs Jbois dla vodka avec du gin La mort gha tji, ou gha tédini Les frères jsais plus quoi dire A part Allah yahdikoum ou Allah yahdini Trop prennent le seum car jsuis coté comme une putain dLambo Savent très bien que jpartirai comme un putain dnhomme-bo Jme rappelle dune époque jvendais du crack, des cachetons Ça mitraillait sur lautoroute, big up Nino, rice-Mau, Rashton Woogataga non cest pas du rap de khamej Des coups dgenou, des kilos dcoke ma gueule Pour aller taille dans cent meuges Pas dmoulin mais on veut sfaire du blé Dans lécole de la rue on à pas redoublé On a sauté des classes bande de teubés Pas qule grenier quon a meublé Plus besoin dmécrire sil vous plait Jsais qule mandat ddépôt il est déjà renouvelé Jsais qucette salope de juge, ça fait longtemps quelle mvoulait Jmange même plus dKFC tellement jboycotte les poulets Lrap français jlui ai mis la fessée, puis jai percé dans la foulée Jvoulais vivre ma vie dtous les jours, sans qupersonne me reconnaisse Jmen bats les kleoui du succès, wAllah men bats les cojones Quai des Orfèvres, boulevard Bessières, ils rêvent de mlever pour ldessert Parle dmoi entre la poire et lfromage Jme demande quand est-cque jvais mles faire Aujourdhui jleur allume leur mère, et demain jmangerai du ferme Jroulerai des zdeh dans la souricière, jpérirai par le fer Tu veux que jte parle dma street life ? Tu risques davoir un malaise Dans cputain dmonde hypocrite, jai déjà vu Jack parler sur Daniels Pietro sur Beretta, Smith sur Weston Nique leur mère à tous ces shmettas cest ma khadra la qui mraisonne Big up frère Soulayman, pour lSeigneur, front sur le sol Pendant quils seront pas contents on brassera des liasses en chantant Cest pas du rap dindépendant ouais jrappe lindépendance XXX lle-da, on prendra du bon temps Jveux mtailler au roc-Ma, un teh, rapta, tranquille on sdétend Drah, en attendant quyai drah, crick brah, yougataga brah Sur lterrain ya les grands qui gueulent, devant ya les petits qui cabrent Ya ceux qui sortent le Desert Eagle, ceux qui frappent comme Steven Seagal Ils font les fous quand ya du people, quand ils finissent seuls ils sont tout pâles Quand tavances ils tmettent tous lil, ils tfont la bise, derrière ils parlent Ya ceux qui font, ceux qui veulent, mais trahis pas, cest lprincipal Et en classe on foutait lzbeul, des grosses insultes au principal Combien dfois tas fini seul à tpéter la tête sous critical ? Ils parlent de moi mais quest-cquils veulent ? Ils vont finir à lhôpital Toi tas lvice on a lgarage, mon tieks cest un 1-3-5 City Dis pas qutes dlà tes pas dici, on va tcrosser comme dans Vice City Ya ceux qui sucent, ya les bandeurs dhomme Ceux qui blablatent, ya ceux qui sdonnent Ya les mecs à jeun, les mecs stone Ya ceux qui parlent pas ya ceux qui te donnent Ya ceux qui lèvent sur une roue, ouais poto cest comme ça chez nous Pétard à la main, Porsche Loeb, ça prend lautoroute avec les genoux Cest quoi cquartier ? Jpète un plomb, même les gadjis elles ont des jnouns Jai envie de fouetter des gens, ils font les crasseux pour des shtouns Au début cest copaine-copine, après c'est ta femme elle veut ton code PIN Quatre mois après elle tfait un môme, faut qutu lassumes, cest ta copine Fais pas lmec qui sait cabrer, tu fais même pas ltour du bâtiment Tu dis quelle tu las baisée, dis-moi poto pourquoi tu mens ? Et au tieks, si tas faim, sur pépé quya des mecs en manque Qui te diront cest lacrizeomicmek ya pas un dans le compte en banque Ça spète la tête avec des bangés, plan folle, plan B Ça va voler, ça prend des risques, ça fait des sous, ça veut les flamber Jai fait un rêve de fou, gros, ouais de fou gros Jai rêvé dShakira putain que jlui mettais un coup gros Tu fais ldur genre moi jai peur ddégun Jtai jamais vu quand yavait embrouille, jai juré qutes quun dégun Tu mas pas reconnu ? Cest lacrizeomic, moi cest Jul jfuck les salopes Il mdit qucest mon frère après quand on sparle plus il fait confiance à lautre Ya trop de folles, trop de traîtres, trop de shmitts qui enquêtent Qui te suivent, qui te pètent, et oui tous les jours, cest comme ça mon pote Ça veut ton plan cul, ta recette, les petits den bas, rien quça recèle Des fois jfume un pétard seul et jpense à mon frérot au ciel Jusquà maintenant jai fait mon taf, frère chez moi on poukave pas Entre amis on stape pas mais bon des fois cest pas ça Massa, shit et blonde, jette pas même si ya les condés Dure est la vie quje fonde, jpourrais même pas traconter Jvois les petits monter, sur des plans, des coups montés Jles vois avec les habits dla gratte armés sur des scooters remontés Ya un coup à faire jsuis sapé, des petites folles veulent mencaper Cest chaud ça tire ouais pour un bleu ouais tas quà venir constater Ouais tas quà venir constater2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Qui zer 3el lisser, 3ayta daoudia Settat, Berrechid, Casa, Mohammédia Garage 3ellal, Sebata, ola Salmia Wled ben homan 3aychin b'nia Al Bandit Mister You, Dj 7mida La chferti l'motor i3tik ksida Wled Casa s7ab dar baida Hezo yedikom lyouma nayda Oujda Kenitra, Meknes o Fes Ntle3 l'ktama bach na tnefesse Walabouda f khater Bin'bin Nadjib Mehdi oula Yassine Ana liouma m3a dj hmida Ana liouma m3a Al Bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a dj hmida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Yal babor ya mon amour Wafina fina khwati 3atini l'Visa ou l'Passport Wafina fina khwati You might also like J'débarque l'arabe sur un son Daoudia Mon zinc' m'as dit mat khememch j'ai de la belgia Piscine ou Villa, rebeu dans un Riad Vodka Whisky 3kg de Grillades Hmida au platines avec You on fait la diff' Des bombes latines, des bombes du rhytmes C'est la fête jet set , bouteille d'rosé 7abed étalé et nud nécrosé On est heureux on tire en l'air s7ab fantasia Fait moi une danse du ventre bouge ta che7ma Ouai c'est 7ala, soir-ce c'est 7amid Mama n'aime pas ce que vend 3ami Bladi Diwna l'mellah Fuck les khda3rh J'achètes la côte si je gère une Rock-Feller Sur du chaa3bi, j'danse la Roumba Parles aux ennemis et t'es viré de la Rounda Hamdullah on est tres loin de la dech' Garde la peche et viens pas nous faire ier'ch On pète des bouches et des bouchons de lièges Y a que des beaux mecs, faut que les meufs soient fraiches Marrakech convertie les dirhams en pêchers Rosny-sous-Bois, toujours plaqué en DG Kherjou l'ma7ia Fait pêter les Tetingers Ce soir c'est dans la piscine pas au 7ebs qu'on va plonger Ana liouma m3a dj 7mida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a Dj hmida Ana liouma m3a Al bandit Ana smiti Yougataga Wafina fina khwati1</t>
+          <t>Qui zer 3el lisser, 3ayta daoudia Settat, Berrechid, Casa, Mohammédia Garage 3ellal, Sebata, ola Salmia Wled ben homan 3aychin b'nia Al Bandit Mister You, Dj 7mida La chferti l'motor i3tik ksida Wled Casa s7ab dar baida Hezo yedikom lyouma nayda Oujda Kenitra, Meknes o Fes Ntle3 l'ktama bach na tnefesse Walabouda f khater Bin'bin Nadjib Mehdi oula Yassine Ana liouma m3a dj hmida Ana liouma m3a Al Bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a dj hmida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Yal babor ya mon amour Wafina fina khwati 3atini l'Visa ou l'Passport Wafina fina khwati J'débarque l'arabe sur un son Daoudia Mon zinc' m'as dit mat khememch j'ai de la belgia Piscine ou Villa, rebeu dans un Riad Vodka Whisky 3kg de Grillades Hmida au platines avec You on fait la diff' Des bombes latines, des bombes du rhytmes C'est la fête jet set , bouteille d'rosé 7abed étalé et nud nécrosé On est heureux on tire en l'air s7ab fantasia Fait moi une danse du ventre bouge ta che7ma Ouai c'est 7ala, soir-ce c'est 7amid Mama n'aime pas ce que vend 3ami Bladi Diwna l'mellah Fuck les khda3rh J'achètes la côte si je gère une Rock-Feller Sur du chaa3bi, j'danse la Roumba Parles aux ennemis et t'es viré de la Rounda Hamdullah on est tres loin de la dech' Garde la peche et viens pas nous faire ier'ch On pète des bouches et des bouchons de lièges Y a que des beaux mecs, faut que les meufs soient fraiches Marrakech convertie les dirhams en pêchers Rosny-sous-Bois, toujours plaqué en DG Kherjou l'ma7ia Fait pêter les Tetingers Ce soir c'est dans la piscine pas au 7ebs qu'on va plonger Ana liouma m3a dj 7mida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a Dj hmida Ana liouma m3a Al bandit Ana smiti Yougataga Wafina fina khwati1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor J'suis en l'air comme la NASA et ouais, regardez-moi ça Un zdah, une clope, une massa, je n'suis pas un hazza Après avoir fumé tout l'rap, c'est le hip-hop qu'on écrasa Originaire de Casa, représente Gaza On sait tous que l'Europe s'est enrichie grâce à l'Afrique On vit dans une triste époque où l'être humain se trafique Ça repêche des corps dans les ports, on s'demande c'que font les flics On connaît ceux qui flippent pas et on connaît ceux qui flippent Yougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, j'rappe pour tous mes carnales Yougayougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, yeah, yeah You might also like Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Goulou l bladi ra hna soufrina Chbabek ya mma daye3 f sfina Houma bin Bariz w Torino Habbou ywelliw ki Totò Riina Denya gheddara w ki ssekkina Wa3ra, khouya, hawesna lqina Allah yahdina qbel ma yeddina Telqa bab eljenna f rejlin d lemmima Yougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, j'rappe pour tous mes carnales Yougayougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, yeah, yeah Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Yougataga, Hamouda De Tunis à Casa 2019, khouya Ti amo, mi amor</t>
+          <t>Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor J'suis en l'air comme la NASA et ouais, regardez-moi ça Un zdah, une clope, une massa, je n'suis pas un hazza Après avoir fumé tout l'rap, c'est le hip-hop qu'on écrasa Originaire de Casa, représente Gaza On sait tous que l'Europe s'est enrichie grâce à l'Afrique On vit dans une triste époque où l'être humain se trafique Ça repêche des corps dans les ports, on s'demande c'que font les flics On connaît ceux qui flippent pas et on connaît ceux qui flippent Yougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, j'rappe pour tous mes carnales Yougayougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, yeah, yeah Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Goulou l bladi ra hna soufrina Chbabek ya mma daye3 f sfina Houma bin Bariz w Torino Habbou ywelliw ki Totò Riina Denya gheddara w ki ssekkina Wa3ra, khouya, hawesna lqina Allah yahdina qbel ma yeddina Telqa bab eljenna f rejlin d lemmima Yougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, j'rappe pour tous mes carnales Yougayougayougataga, j'suis à Malaga avec les harragas Ça n'parle que de s'en aller, yeah, yeah Mchaw w ma khallaw jwab Mchaw w bakkaw lahbab W galoulhom ti amo, ti amo, mi amor Machi w ndaya3 l'adresse Goulelhom rani labas W goulelhom ti amo, ti amo, mi amor Nana nana nananana nana nananana nana nananana nana Nana nana nananana nana nananana nana nananana nana Yougataga, Hamouda De Tunis à Casa 2019, khouya Ti amo, mi amor</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jeudi 30 juin 2011, 14h11 T'écoutes mon on-s, nan nan j'suis plus en zonz' J'suis au bord d'la mer frère et j'graille des gambas Du 12 ans d'âge dans l'verre, j'vous embrasse Wougata mouah, rentrez bien ça dans vos mémoires J'répète Wougata mouah, comme promis le rap est à moi Après avoir traversé le désert, j'compte faire mu-muse dans la baignoire Avec une jolie masseuse, foufoune à l'air sous son peignoir Pa pa pa pa pa pa pa pa pa pa bande de bâtards Autour des poignets, fuck les menottes, j'veux une Audemars Quand on roule un zdèh et on redémarre Avec Brulé et avec bil-Na, hop direction Lloret Del Mar Je fais ce qu'il me plait, feu rouge ou feu vert j'accélère J'appelle Fredo ou rif-Shé, j'commande Féfé, Bentley ou SLR Cette année rime avec très très très gros salaire Mister you est dans la place donc toutes les go s'alertent J'ai pas attendu lÉpiphanie darwah pour vendre la galette J'ai pas attendu que tu baisses la garde mon gars pour t'niquer ta mère Ça m'fait plaisir d'boire du Crystal après ces années de galère Après tous ces freestyles zèh Big Up à Saber Hé on vend d'la came et on s'barre à Cannes sur la Croisette Trop nerveux darwah pour m'pister il te faut un YZ Passe tah Chamakh suivi d'un crochet tah Taarabt Ok Zoogataga si t'es trop stoc-ma on t'allume ta race La rue c'est ma femme donc légalement j'suis son conjoint Là on est le 30 juin aujourd'hui j'vais me rouler 30 joints Puis pour me mettre bien j'vais péter 4 bouteilles de sky I believe I can fly, I believe I can touch the sky, aïe !You might also like1</t>
+          <t>Jeudi 30 juin 2011, 14h11 T'écoutes mon on-s, nan nan j'suis plus en zonz' J'suis au bord d'la mer frère et j'graille des gambas Du 12 ans d'âge dans l'verre, j'vous embrasse Wougata mouah, rentrez bien ça dans vos mémoires J'répète Wougata mouah, comme promis le rap est à moi Après avoir traversé le désert, j'compte faire mu-muse dans la baignoire Avec une jolie masseuse, foufoune à l'air sous son peignoir Pa pa pa pa pa pa pa pa pa pa bande de bâtards Autour des poignets, fuck les menottes, j'veux une Audemars Quand on roule un zdèh et on redémarre Avec Brulé et avec bil-Na, hop direction Lloret Del Mar Je fais ce qu'il me plait, feu rouge ou feu vert j'accélère J'appelle Fredo ou rif-Shé, j'commande Féfé, Bentley ou SLR Cette année rime avec très très très gros salaire Mister you est dans la place donc toutes les go s'alertent J'ai pas attendu lÉpiphanie darwah pour vendre la galette J'ai pas attendu que tu baisses la garde mon gars pour t'niquer ta mère Ça m'fait plaisir d'boire du Crystal après ces années de galère Après tous ces freestyles zèh Big Up à Saber Hé on vend d'la came et on s'barre à Cannes sur la Croisette Trop nerveux darwah pour m'pister il te faut un YZ Passe tah Chamakh suivi d'un crochet tah Taarabt Ok Zoogataga si t'es trop stoc-ma on t'allume ta race La rue c'est ma femme donc légalement j'suis son conjoint Là on est le 30 juin aujourd'hui j'vais me rouler 30 joints Puis pour me mettre bien j'vais péter 4 bouteilles de sky I believe I can fly, I believe I can touch the sky, aïe !1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes You might also like Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
+          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ne2s Younes handek jayyine lboulisse Ohh darbida qui passe lebess MDR 2 Ohh 19e Hautes-Noues Peace Woogatagaaa, eh, appelles la police Nessbeal C'est pas l'buzz qui fait rentrer l'bif mais la beuh C'est Verbal Bro, négro on est deux Mon vieux, c'est haschich money on fout l'feu Flows monstrueux Hautes-Noues Peace mesdames messieurs 94 mon baveux, personne passe aux aveux J'suis le plus maigre, le plus nerveux Gangster le son est crasseux Pour les poisseux j'suis furieux comme la banlieue Mister You J'suis rapta j'roule un ptit sbahh eh Scred il faut qu'il s'barre Il part en tournée demain moi rien qu'j'le r'tiens j'ai tout plein d'histoires V'la l'fantasme des gonzesses, Mister You, Ne2s L'argent on en veut bezef, nique l'État on l'répète sans cesse Woooogataga da3wa demande à Demba Esse c'est caramba, y a trop d'rappeurs que j'aime pas Mais j'm'en bats les klaouis, et j'les cite même pas Mesdames et messieurs, bailamos la bamba On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police You might also like Génération découragée, qui va tomber pour outrage T'en sors détruit, y a de la rage dans ton paquetage Si t'es pas armé, monte pas sur un braquage Combien de mes frères vont caner d'une bastos à un barrage La dounia, pas de hassanetes dans mes bagages Banlieusard dans les sondages mon putain de langage J'ai r'tiré l'bandage qu'y avait sur mes yeux Ciao pantin, il fait mal latterrissage mesdames messieurs Galick rchi fel reunz bech ma trelmo lregeuz, hed Denia 3aycha ble3kess Jétais tellement bourré que même pour baiser javais l3guez Haschisch money Niggas Enterré sous une montagne de commentaires Ne2s j'suis sanguinaire comme Dexter Rap de tess j'suis expert, lyrics de gangster khey J'fais pas dans l'humanitaire On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police Woogataga, gros sder sur les poster J'ai pas b'soin d'bodyguard nan J'ai pas b'soin d'Kevin Costner Après l'car cellulaire bah j'fonce chez l'concessionnaire Co-mer Les surveillants j'leur roule dessus Comme de vulgaires grosse merdes J'ai trop couru à ma perte mais j'vais pas faire le mec 3yene Li lèbeuss hhouij eul nass bhal la y tmeucha heuriène Li y skeur y thadeum li y djreuh y thadeub Li y breum y tzateul li y tzreub y thateul J'suis bloqué entre l'mot être et l'verbe avoir On a tous du savoir-faire Faut juste apprendre à l'faire savoir Les mecs comme oi-m en gardav' Sont encore moins bavards qu'une girafe Pour les charclos j'm'en fais pas nan C'est pour les avares que j'ai khaf Lorsque l'mollet est plus gros qu'la cuisse Courir devient difficile Quand y a l'36 sur l'rrain-té On s'retrouve tous en déficit Notre objectif faire du biff Et rassasier vos oreilles, ok C'est partout pareil Et comme dit Ness bah Ça bouge pas khey x2 On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police1</t>
+          <t>Ne2s Younes handek jayyine lboulisse Ohh darbida qui passe lebess MDR 2 Ohh 19e Hautes-Noues Peace Woogatagaaa, eh, appelles la police Nessbeal C'est pas l'buzz qui fait rentrer l'bif mais la beuh C'est Verbal Bro, négro on est deux Mon vieux, c'est haschich money on fout l'feu Flows monstrueux Hautes-Noues Peace mesdames messieurs 94 mon baveux, personne passe aux aveux J'suis le plus maigre, le plus nerveux Gangster le son est crasseux Pour les poisseux j'suis furieux comme la banlieue Mister You J'suis rapta j'roule un ptit sbahh eh Scred il faut qu'il s'barre Il part en tournée demain moi rien qu'j'le r'tiens j'ai tout plein d'histoires V'la l'fantasme des gonzesses, Mister You, Ne2s L'argent on en veut bezef, nique l'État on l'répète sans cesse Woooogataga da3wa demande à Demba Esse c'est caramba, y a trop d'rappeurs que j'aime pas Mais j'm'en bats les klaouis, et j'les cite même pas Mesdames et messieurs, bailamos la bamba On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police Génération découragée, qui va tomber pour outrage T'en sors détruit, y a de la rage dans ton paquetage Si t'es pas armé, monte pas sur un braquage Combien de mes frères vont caner d'une bastos à un barrage La dounia, pas de hassanetes dans mes bagages Banlieusard dans les sondages mon putain de langage J'ai r'tiré l'bandage qu'y avait sur mes yeux Ciao pantin, il fait mal latterrissage mesdames messieurs Galick rchi fel reunz bech ma trelmo lregeuz, hed Denia 3aycha ble3kess Jétais tellement bourré que même pour baiser javais l3guez Haschisch money Niggas Enterré sous une montagne de commentaires Ne2s j'suis sanguinaire comme Dexter Rap de tess j'suis expert, lyrics de gangster khey J'fais pas dans l'humanitaire On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police Woogataga, gros sder sur les poster J'ai pas b'soin d'bodyguard nan J'ai pas b'soin d'Kevin Costner Après l'car cellulaire bah j'fonce chez l'concessionnaire Co-mer Les surveillants j'leur roule dessus Comme de vulgaires grosse merdes J'ai trop couru à ma perte mais j'vais pas faire le mec 3yene Li lèbeuss hhouij eul nass bhal la y tmeucha heuriène Li y skeur y thadeum li y djreuh y thadeub Li y breum y tzateul li y tzreub y thateul J'suis bloqué entre l'mot être et l'verbe avoir On a tous du savoir-faire Faut juste apprendre à l'faire savoir Les mecs comme oi-m en gardav' Sont encore moins bavards qu'une girafe Pour les charclos j'm'en fais pas nan C'est pour les avares que j'ai khaf Lorsque l'mollet est plus gros qu'la cuisse Courir devient difficile Quand y a l'36 sur l'rrain-té On s'retrouve tous en déficit Notre objectif faire du biff Et rassasier vos oreilles, ok C'est partout pareil Et comme dit Ness bah Ça bouge pas khey x2 On rêve d'être millionnaire, M.D.R fuck les commères Les mains en l'air Tout d'abord mesdames messieurs niquez vos mères Si vous souhaitez nous boycotter, nous faire passer pour de la merde On s'en bat les cojones, Mister You, Ne2s esse Tu sais que l'État rêve d'nous baiser, on n'est pas issus de familles aisées Toi-même tu sais Belleville Hautes-Noues Peace t'es mort dans l'film si t'es pas complice On est rapta nos yeux s'plissent, t'sais quoi appelle la police1</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mets pas nos ufs dans le même panier Trop souvent mal accompagné Parle moi de vivre, j'te parle de canner Parle moi de jouer, j'te parle de gagner Parle moi de bleu, j'te parle de violet Passe d'la beuh, j'te passe du doré Crissement de pneus, cabriolet Parle moi peu, j'vais t'cambrioler J'vois des menottes, j'regarde mes poignets Fuck les portes qu'ont pas de poignées À Ketama j'te parle de m'installer Faut tout ken j'te parle de c't'année Et faut, et faut bien dire à tous ceux qui sucent J'leur laisserai peut-être quelques noisettes Comme ça ils auront de quoi ce faire des Nuts Oh Marie si tu savais Qu'est-ce que je ferais à la fille de Jean-Marie Regarde ma cheville dis toi que C'est là où beaucoup de gens m'arrivent Représente Paris, arkhi laissez passer l'Ferrari Nique sa mère l'inspecteur Harry J'fume la frappe ntah Badr Hari Woogataga, darwah, pas là pour faire crari Ça fait, Click brah ! sur tous ceux qui me contrarient J'me barre à Rome et j'les laisse à Porte d'Italie J'pète le cristal bsahthoum la cristalline You might also like Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés En 5ème j'commence à tiser avec Khaled et Bersa La street nous a hypnotisé 3el sbah on se roule des perso C'est pour bicrave que j'suis allé au lycée T'as qu'a demander à tout Bergson L'micro j'l'ai traumatisé Le rap game j'l'ai ken comme personne J-j-j'savais qu'on était grillé J'savais pas qu'on était déjà cuit Quand j'étais seul ma gueule, j'parlé avec ma 'teille de Jacky On s'est tous mangé des coups Ouais et j'peux t'en citer plus d'un Les coups d'ceinture, les coups d'bottin Les coups d'vieux, les coups d'putain Sur le terrain Cut Killer T'sais comment ils fonctionnent ces bâtards ? Ils t'laisse bicrave et prendre de lampleur Pour mieux te péter plus tard Ils arrivent de tout les cotés Ils te balaye comme des schmetats Garde à vue, pôt-dé placard Bienvenue dans le trou d'balle de l'Etat Eh surveillant ! Eh attendez la, attendez la monsieur la Vas-y, vas-y dépêche toi la ! Eh j'm'en bat les couilles Mais c'est pas le problème Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés J'sais comment esquiver les 3ineurs J'sais comment devenir invisible C'est Casper qui me l'a appris Quand il me rendait visite Ma gueule j'ai mes armes de poing Ma rafleuse et mon fusil J'suis armé comme en Corsica Ce ci-coup, j'le bousille J'oublie pas de remercier le ciel On récolte que ce que l'on sème On a trop fait pleurer nos mères Donc c'est normal que l'on saigne On s'offre des cadeaux à tour de rôle En se faisant croire que l'on s'aime Allons de l'avant Et voyons plus loin que le bout de nos zens Ce qui les gêne est dans nos gènes C'est le gout de l'oseille Désolé si on roule des joints C'est pour déployer nos ailes Eh non, pas besoin d'un Redbull Il me faut qu'un sdeh pour être au zen J'sais que l'Amérique c'est la flamme Et que l'Iran c'est le kérosène Moi j'baise le boulevard Bessières J'suis pas de ceux qui les renseigne Big up à ceux qui bicravent Ceux qui braquent, ceux qui recellent Pietro Beretta, j'rajoute mon petit grain de sel Nique sa grand mère à l'Etat J'leur laisserai même pas un bretzel Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés1</t>
+          <t>Mets pas nos ufs dans le même panier Trop souvent mal accompagné Parle moi de vivre, j'te parle de canner Parle moi de jouer, j'te parle de gagner Parle moi de bleu, j'te parle de violet Passe d'la beuh, j'te passe du doré Crissement de pneus, cabriolet Parle moi peu, j'vais t'cambrioler J'vois des menottes, j'regarde mes poignets Fuck les portes qu'ont pas de poignées À Ketama j'te parle de m'installer Faut tout ken j'te parle de c't'année Et faut, et faut bien dire à tous ceux qui sucent J'leur laisserai peut-être quelques noisettes Comme ça ils auront de quoi ce faire des Nuts Oh Marie si tu savais Qu'est-ce que je ferais à la fille de Jean-Marie Regarde ma cheville dis toi que C'est là où beaucoup de gens m'arrivent Représente Paris, arkhi laissez passer l'Ferrari Nique sa mère l'inspecteur Harry J'fume la frappe ntah Badr Hari Woogataga, darwah, pas là pour faire crari Ça fait, Click brah ! sur tous ceux qui me contrarient J'me barre à Rome et j'les laisse à Porte d'Italie J'pète le cristal bsahthoum la cristalline Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés En 5ème j'commence à tiser avec Khaled et Bersa La street nous a hypnotisé 3el sbah on se roule des perso C'est pour bicrave que j'suis allé au lycée T'as qu'a demander à tout Bergson L'micro j'l'ai traumatisé Le rap game j'l'ai ken comme personne J-j-j'savais qu'on était grillé J'savais pas qu'on était déjà cuit Quand j'étais seul ma gueule, j'parlé avec ma 'teille de Jacky On s'est tous mangé des coups Ouais et j'peux t'en citer plus d'un Les coups d'ceinture, les coups d'bottin Les coups d'vieux, les coups d'putain Sur le terrain Cut Killer T'sais comment ils fonctionnent ces bâtards ? Ils t'laisse bicrave et prendre de lampleur Pour mieux te péter plus tard Ils arrivent de tout les cotés Ils te balaye comme des schmetats Garde à vue, pôt-dé placard Bienvenue dans le trou d'balle de l'Etat Eh surveillant ! Eh attendez la, attendez la monsieur la Vas-y, vas-y dépêche toi la ! Eh j'm'en bat les couilles Mais c'est pas le problème Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés J'sais comment esquiver les 3ineurs J'sais comment devenir invisible C'est Casper qui me l'a appris Quand il me rendait visite Ma gueule j'ai mes armes de poing Ma rafleuse et mon fusil J'suis armé comme en Corsica Ce ci-coup, j'le bousille J'oublie pas de remercier le ciel On récolte que ce que l'on sème On a trop fait pleurer nos mères Donc c'est normal que l'on saigne On s'offre des cadeaux à tour de rôle En se faisant croire que l'on s'aime Allons de l'avant Et voyons plus loin que le bout de nos zens Ce qui les gêne est dans nos gènes C'est le gout de l'oseille Désolé si on roule des joints C'est pour déployer nos ailes Eh non, pas besoin d'un Redbull Il me faut qu'un sdeh pour être au zen J'sais que l'Amérique c'est la flamme Et que l'Iran c'est le kérosène Moi j'baise le boulevard Bessières J'suis pas de ceux qui les renseigne Big up à ceux qui bicravent Ceux qui braquent, ceux qui recellent Pietro Beretta, j'rajoute mon petit grain de sel Nique sa grand mère à l'Etat J'leur laisserai même pas un bretzel Le rap français Zoogataga Mister You Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandi dans la street, wesh bande d'enfoiré Le rap français Zoogataga Mister Yougataga Pietro Beretta si j'prend le micro c'est que pour le blesser J'ai grandis dans la street qu'avec des mecs tarés1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Oh Laouni Ne2s Mister Younes Haschich Money qui te passe labess Oh Hautes Noues Peace 19ème Trappes Ah Personne n'est à l'abri du désespoir Chacun son chemin d'croix du berceau au mitard Chaque défaite chaque victoire Instant d'vie chacun son histoire À chaque situation sa solution son cauchemar Paria veut devenir parrain pour ceux qui vivent sous la lune noire La poisse étouffe mes rêves de gloire Sélection naturelle des fois l'bonheur est illusoire On peut tout perdre sur un coup d'tête un peu comme Super Nanny On peut s'faire fumer comme une barrette ouais mec haynani Demande à Laouni ou bien à Nabil même ta meuf s'en lèche les babines Appelle l'ingé j'suis chaud j'vais foutre le feu dans la cabine 19eme on revient à l'ancienne en Runner 180 Mesdames et mesdemoiselles j'me présente j'suis c'lui qu'a très faim C'est pas la fin du film les frères au contraire c'est que l'début On va tout niquer, sa mère y'a zeh notre son c'est d'la re-pu You might also like Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent À trop nager dans la merde je vais finir par couler J'me laisse porter par la vague celui qu'a survécu un miraculé Matriculé, matrixé Dans mon dernier cauchemar j'ai vu ma vie basculer J'assume les gosses chéries, j'peux plus reculer T'es partie depuis ma vie a coulé Quand le rêve est brisé, matières grises Brulées par la crise, les reportages dans l'journal télévisé Han, on r'venait d'où les vents t'ont mené Sous les feux des projecteurs trop de refrés oublient d'où ils venaient C'est une histoire de pétrole, vous l'direz à ma fille Bush voulait c'lui de Saddam, Nico celui de Khadafi Et sur la route au compte goutte j'ai perdu quelques frérots Te demande plus pourquoi on a rien, on a inventé l'zéro Fouiny Baby Nessbeal et le frérot Mister You Même en garde à vue, toujours au garde à vous Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Fouiny Baby Mister You Ne2s Yeah On ira là où les vents nous mènent On ira là où les vents nous mènent, oh1</t>
+          <t>Oh Laouni Ne2s Mister Younes Haschich Money qui te passe labess Oh Hautes Noues Peace 19ème Trappes Ah Personne n'est à l'abri du désespoir Chacun son chemin d'croix du berceau au mitard Chaque défaite chaque victoire Instant d'vie chacun son histoire À chaque situation sa solution son cauchemar Paria veut devenir parrain pour ceux qui vivent sous la lune noire La poisse étouffe mes rêves de gloire Sélection naturelle des fois l'bonheur est illusoire On peut tout perdre sur un coup d'tête un peu comme Super Nanny On peut s'faire fumer comme une barrette ouais mec haynani Demande à Laouni ou bien à Nabil même ta meuf s'en lèche les babines Appelle l'ingé j'suis chaud j'vais foutre le feu dans la cabine 19eme on revient à l'ancienne en Runner 180 Mesdames et mesdemoiselles j'me présente j'suis c'lui qu'a très faim C'est pas la fin du film les frères au contraire c'est que l'début On va tout niquer, sa mère y'a zeh notre son c'est d'la re-pu Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent À trop nager dans la merde je vais finir par couler J'me laisse porter par la vague celui qu'a survécu un miraculé Matriculé, matrixé Dans mon dernier cauchemar j'ai vu ma vie basculer J'assume les gosses chéries, j'peux plus reculer T'es partie depuis ma vie a coulé Quand le rêve est brisé, matières grises Brulées par la crise, les reportages dans l'journal télévisé Han, on r'venait d'où les vents t'ont mené Sous les feux des projecteurs trop de refrés oublient d'où ils venaient C'est une histoire de pétrole, vous l'direz à ma fille Bush voulait c'lui de Saddam, Nico celui de Khadafi Et sur la route au compte goutte j'ai perdu quelques frérots Te demande plus pourquoi on a rien, on a inventé l'zéro Fouiny Baby Nessbeal et le frérot Mister You Même en garde à vue, toujours au garde à vous Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Fouiny Baby Mister You Ne2s Yeah On ira là où les vents nous mènent On ira là où les vents nous mènent, oh1</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Le rap français j'l'effrite et l'fous dans une Philip Morris Ensuite j'le glisse dans une feuille, et l'fume avec mon pote Maurice Les faux j'les terrorise, ils m'font golri d'ces humoristes Moi, passe-moi moi un 11-43 et j'te fais danser même Chuck Norris On triomphe sans gloire à vaincre sans risques Sers-moi à boire, j'ai soif j'veux un sky-coca cerise Y'a pas d's'te-plaît, y'a pas d'merci mais plutôt dépêche-toi vite Car c'est moi qui paye l'addition, ouais non moi personne il m'invite C'est fini Prison Break, c'est fini Scofield Maintenant c'est Springbreak, mec dix doigts et deux-cent-dix copines Mon pote Rise-E même lui il a un répertoire de coquines Qui qui s'tapent des lignes 110 fois plus qu'elles n'en bouquinent J'suis l'prince, très bientôt le king, Jean pince, p'tit relooking P'tite coupe tah les beaux-gosses, chemise bête de holiday Si ta meuf me trouve en Lacoste comme René J'sais pas pourquoi dans l'noir, mais la plupart croit qu'je suis camerounais You might also like Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Bonsoir madame, voudriez-vous ne pas danser Venir vous assoir à ma table, histoire qu'on puisse se défoncer On va arrêter de se vouvoyer hein, on va recommencer Moi c'est Yougataga, le meurtrier du rap français T'as un regard revolver, tu me braques je lève mon verre On va pas attendre 9 heures, non c'est maintenant ou never Pour atteindre le Mont Everest, faut se mettre à l'aise Allez viens on y go là, y'a ta pineco je crois qu'elle veut braisse Reyel et Yougataga, gare à ta go On caracole en tête, toute l'année t'es accro Oh y a du style et du swap à la pelle Mister You me textote, je réponds à l'appel C'est du lourd sans les kilogrammes, stop tous les mythomanes Un pur style raggaman, yeah man Le son glisse, pourtant t'accroches grave Le genre de mecs opé sur tchi, ta meuf bave Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Laissez passer dahwa c'est le Yougataga Soir-ce on va foutre le feu, soir-ce on va foutre le zga Y aura du sky de la vodka, mais pas de Pina Colada Par contre y aura du champagne et plein plein de mecs qui ont la dalle On pète le champagne ou le rhum E-Rise passe à la session reggaeton Sarah et sa copine me donnent leur téléphone J'ai une meuf pour chaque pote, jackpot ça fonctionne Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mamamama je suis au garde à vous Colonel, mais regarde-moi ça... Yeah y a du level, y a du level ça me fait plaisir Et les filles vous êtes prêtes ou quoi ? Mister You, Colonel, y a du level</t>
+          <t>Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Le rap français j'l'effrite et l'fous dans une Philip Morris Ensuite j'le glisse dans une feuille, et l'fume avec mon pote Maurice Les faux j'les terrorise, ils m'font golri d'ces humoristes Moi, passe-moi moi un 11-43 et j'te fais danser même Chuck Norris On triomphe sans gloire à vaincre sans risques Sers-moi à boire, j'ai soif j'veux un sky-coca cerise Y'a pas d's'te-plaît, y'a pas d'merci mais plutôt dépêche-toi vite Car c'est moi qui paye l'addition, ouais non moi personne il m'invite C'est fini Prison Break, c'est fini Scofield Maintenant c'est Springbreak, mec dix doigts et deux-cent-dix copines Mon pote Rise-E même lui il a un répertoire de coquines Qui qui s'tapent des lignes 110 fois plus qu'elles n'en bouquinent J'suis l'prince, très bientôt le king, Jean pince, p'tit relooking P'tite coupe tah les beaux-gosses, chemise bête de holiday Si ta meuf me trouve en Lacoste comme René J'sais pas pourquoi dans l'noir, mais la plupart croit qu'je suis camerounais Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Bonsoir madame, voudriez-vous ne pas danser Venir vous assoir à ma table, histoire qu'on puisse se défoncer On va arrêter de se vouvoyer hein, on va recommencer Moi c'est Yougataga, le meurtrier du rap français T'as un regard revolver, tu me braques je lève mon verre On va pas attendre 9 heures, non c'est maintenant ou never Pour atteindre le Mont Everest, faut se mettre à l'aise Allez viens on y go là, y'a ta pineco je crois qu'elle veut braisse Reyel et Yougataga, gare à ta go On caracole en tête, toute l'année t'es accro Oh y a du style et du swap à la pelle Mister You me textote, je réponds à l'appel C'est du lourd sans les kilogrammes, stop tous les mythomanes Un pur style raggaman, yeah man Le son glisse, pourtant t'accroches grave Le genre de mecs opé sur tchi, ta meuf bave Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Laissez passer dahwa c'est le Yougataga Soir-ce on va foutre le feu, soir-ce on va foutre le zga Y aura du sky de la vodka, mais pas de Pina Colada Par contre y aura du champagne et plein plein de mecs qui ont la dalle On pète le champagne ou le rhum E-Rise passe à la session reggaeton Sarah et sa copine me donnent leur téléphone J'ai une meuf pour chaque pote, jackpot ça fonctionne Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mets-toi bien ce soir c'est moi qui t'mets à l'aise T'inquiète on a le son qui pèse Et tout le monde est chaud comme la braise Mets-toi à l'aise Mamamama je suis au garde à vous Colonel, mais regarde-moi ça... Yeah y a du level, y a du level ça me fait plaisir Et les filles vous êtes prêtes ou quoi ? Mister You, Colonel, y a du level</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OK, eh Rim'K Mister You Lacrim T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh J'suis de la ville des tannés, d'la rue des condamnés Que les darons blâmaient, élu braqueur de l'année J'suis dans la jungle des abribus Le cash divise le peuple et si on vidait les comptes de Ted lapidus Mes espoirs ont pris feu J'ai des amis qui me manquent comme un billet de 500 eus Pour un mec qui fait la manche au moins convoi militaire Mais pas des casques bleus, dans ton boule on passe la carte bleue C'est les années folles, j'te braque avec une clé de sol J'fais un raffle et j'fais le tour du globe J'apprends et j'donne, comme la foudre j'tape le sol J'quitte le bloc, j'prends le large comme un missile sol-sol On arrache le sol, t'y peux rien, mon peura C'est un fusil mitrailleur russe au Libéria On démarre de rien, ça c'est le son d'nos poches J'avais déjà rien pour René Lacoste, j'ai encore moins pour l'hôtel Costes You might also like T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh Comme dit le refré You, peine plancher pour un 10 grammes Alors les fins de mois difficiles, St Louis les Mardis Gras ouais Le 9.4 et l'oseille, c'est le miel et les abeilles Pour que sa paye, faut les mêmes modes opératoires que François Besse Nous sommes discrets mais l'oeil finit par nous éclater Il suffit d'une semaine dans les îles, pour qu'ils croient tous que t'es blindé Taffer pour mille euros, l'Etat qu'il aille niquer sa race On préfère tous aller en Rep Dom et charger Céline et Sarah Sérieux, dis moi la date des sous, à qui l'enlèveras-tu Avec 50 transacts t'as une baraque et puis ta belle voiture Certains font des erreurs, y'a la pression qui les perturbe Comme les cons qui crament leurs gueules dans une banque en faisant l'ouverture Demande à Nassim, on ne peut pas faire une journée sans shit, ouais C'est comme passer la bague au doigt dans un club échangiste Cousin renseigne toi bien sur le tarif de la carotte Eh ouais y a des corps inertes qui surfent sur les rives de la Garonne T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh T'es reçu comme un chien aux arrivants, les bâtards t'examinent Sans être chrétien tu mets une croix sur la plupart d'tes amis Au bout de quelques jours tu réalises que la galère s'banalise Y a plus pérave rebelote nique sa mère la police Rim'k Lacrim, l'instru faut qu'on l'agrippe Faut qu'on lui cross sa mère et plus d'bastos faut qu'on la crible Représente la street, les mecs bloqués par la matrix Donne-leur 6 heures de perm, ils te font l'aller-retour Paris-Maastricht Big up Ap postiché sur un canapé Là j'ai besoin de Rome darwah et moi j'vous parle pas des sans-papiers Mon rap c'est la guerre en featuring avec la paix Calibré sur le ring, histoire de fermer tout les clapets Où sont passés les grossistes qui avant hier jouaient les chromas Bah ils sont béton ils ont prit dix piges miskine la juge les a tromat' Ils sont dans la merde, 700 fois plus que de l'escado Passe leur une grenade, ils t'ouvrent la promenade comme un cadeau Ils ont besoin d'espace, autant qu'ils ont besoins d'espèces De Classe S et d'grosses liasses, souvent traités de sale espèce Mais ils s'en battent les couilles, darwah ils s'en battent les corrones Ils conservent toute leur haine, ils font pas de menaces que des promesses T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh1</t>
+          <t>OK, eh Rim'K Mister You Lacrim T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh J'suis de la ville des tannés, d'la rue des condamnés Que les darons blâmaient, élu braqueur de l'année J'suis dans la jungle des abribus Le cash divise le peuple et si on vidait les comptes de Ted lapidus Mes espoirs ont pris feu J'ai des amis qui me manquent comme un billet de 500 eus Pour un mec qui fait la manche au moins convoi militaire Mais pas des casques bleus, dans ton boule on passe la carte bleue C'est les années folles, j'te braque avec une clé de sol J'fais un raffle et j'fais le tour du globe J'apprends et j'donne, comme la foudre j'tape le sol J'quitte le bloc, j'prends le large comme un missile sol-sol On arrache le sol, t'y peux rien, mon peura C'est un fusil mitrailleur russe au Libéria On démarre de rien, ça c'est le son d'nos poches J'avais déjà rien pour René Lacoste, j'ai encore moins pour l'hôtel Costes T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh Comme dit le refré You, peine plancher pour un 10 grammes Alors les fins de mois difficiles, St Louis les Mardis Gras ouais Le 9.4 et l'oseille, c'est le miel et les abeilles Pour que sa paye, faut les mêmes modes opératoires que François Besse Nous sommes discrets mais l'oeil finit par nous éclater Il suffit d'une semaine dans les îles, pour qu'ils croient tous que t'es blindé Taffer pour mille euros, l'Etat qu'il aille niquer sa race On préfère tous aller en Rep Dom et charger Céline et Sarah Sérieux, dis moi la date des sous, à qui l'enlèveras-tu Avec 50 transacts t'as une baraque et puis ta belle voiture Certains font des erreurs, y'a la pression qui les perturbe Comme les cons qui crament leurs gueules dans une banque en faisant l'ouverture Demande à Nassim, on ne peut pas faire une journée sans shit, ouais C'est comme passer la bague au doigt dans un club échangiste Cousin renseigne toi bien sur le tarif de la carotte Eh ouais y a des corps inertes qui surfent sur les rives de la Garonne T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh T'es reçu comme un chien aux arrivants, les bâtards t'examinent Sans être chrétien tu mets une croix sur la plupart d'tes amis Au bout de quelques jours tu réalises que la galère s'banalise Y a plus pérave rebelote nique sa mère la police Rim'k Lacrim, l'instru faut qu'on l'agrippe Faut qu'on lui cross sa mère et plus d'bastos faut qu'on la crible Représente la street, les mecs bloqués par la matrix Donne-leur 6 heures de perm, ils te font l'aller-retour Paris-Maastricht Big up Ap postiché sur un canapé Là j'ai besoin de Rome darwah et moi j'vous parle pas des sans-papiers Mon rap c'est la guerre en featuring avec la paix Calibré sur le ring, histoire de fermer tout les clapets Où sont passés les grossistes qui avant hier jouaient les chromas Bah ils sont béton ils ont prit dix piges miskine la juge les a tromat' Ils sont dans la merde, 700 fois plus que de l'escado Passe leur une grenade, ils t'ouvrent la promenade comme un cadeau Ils ont besoin d'espace, autant qu'ils ont besoins d'espèces De Classe S et d'grosses liasses, souvent traités de sale espèce Mais ils s'en battent les couilles, darwah ils s'en battent les corrones Ils conservent toute leur haine, ils font pas de menaces que des promesses T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh T'es en chien devant les banquiers, t'appelles Yes we can, mais ferme ta gueule Une fois qu'on ramasse, on prend ta part on garde tout Chez nous y a des calibres et des Mesrines un peu partout T'es en chien devant les banquets, t'appelles Yes we can, mais ferme ta gueule On parle tous de choses qui nous concernent Si on est propre darwah, c'est grâce à l'argent moserh1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wesh Rise-E ! Big up le roc-Ma M'amadouer pour niquer des mères, daâwa j'suis doué J'ai beaucoup d'argent ils peuvent pas m'amadouer El Hamdoulilah ! Que Dieu soit loué Ils commencent vraiment tous à me casser les couilles T'as sorti le 15 coups on va compter les douilles On verra qui sont les rappeurs et qui sont les voyous Qui sont les crackers et qui vendent les cailloux Hé gros ton siste-gros c'est le boloss à mon ient-cli Ce que moi je pousse à 19 lui il te le tape à 28 Gyrophares délit de fuite je suis plus lourd que la lutte La queue entre les mains oui y'a du shit et de la weed Les forces de l'ordre se sont déployées Ça va défourailler Nique sa mère le poulailler Chez moi ça vend de la mort pour payer le loyer Chez moi il y a ceux qui mordent et ceux qui font qu'aboyer x2 Chez moi ça fait des trucs de malades mentaux Y'a de la me-ar cachée sous le manteau Ça te fait la bise et ça t'allume dans le dos Daâwa c'est le biz, daâwa c'est le bendo You might also like En bas de là ou je réside y'a de la beuh de la résine de la frappe Comme au Brésil c'est la folie c'est l'asile J'sais pas si t'imagines si tous on te rentrer dedans Tu veux refaire le monde faudrait remonter le temps Chez moi ça fait des trucs de malades menteaux Y'a de la me-ar cachée sous le manteau J'sais pas si t'imagines si tous on te rentrer dedans Tu veux refaire le monde faudrait remonter le temps Qu'est-ce que tu parles de respect, toi ? Hein ? Qu'est-ce que tu parles de respect ? Les jeunes vous avez que ça à la bouche le respect Écoute-moi bien petite tête Le respect, l'honneur, le code de voyous, tout ça c'est de la merde ça existe pas Tous les connards qui sont en prison, tu sais pourquoi ils y sont ? C'est parce que leurs soit-disant potes ils les ont balancé, voilà pourquoi La vérité c'est que les gens ils te respectent quand t'as des couilles, quand t'es le plus fort À la moindre faiblesse tu tombes par terre ils te marchent dessus comme si t'étais une merde Tu veux être un gros voyou, un vrai ? Ah ben t'aurais pas de potes tu vivras seul, tu crèveras seul Tu pourras même pas protéger ta famille2</t>
+          <t>Wesh Rise-E ! Big up le roc-Ma M'amadouer pour niquer des mères, daâwa j'suis doué J'ai beaucoup d'argent ils peuvent pas m'amadouer El Hamdoulilah ! Que Dieu soit loué Ils commencent vraiment tous à me casser les couilles T'as sorti le 15 coups on va compter les douilles On verra qui sont les rappeurs et qui sont les voyous Qui sont les crackers et qui vendent les cailloux Hé gros ton siste-gros c'est le boloss à mon ient-cli Ce que moi je pousse à 19 lui il te le tape à 28 Gyrophares délit de fuite je suis plus lourd que la lutte La queue entre les mains oui y'a du shit et de la weed Les forces de l'ordre se sont déployées Ça va défourailler Nique sa mère le poulailler Chez moi ça vend de la mort pour payer le loyer Chez moi il y a ceux qui mordent et ceux qui font qu'aboyer x2 Chez moi ça fait des trucs de malades mentaux Y'a de la me-ar cachée sous le manteau Ça te fait la bise et ça t'allume dans le dos Daâwa c'est le biz, daâwa c'est le bendo En bas de là ou je réside y'a de la beuh de la résine de la frappe Comme au Brésil c'est la folie c'est l'asile J'sais pas si t'imagines si tous on te rentrer dedans Tu veux refaire le monde faudrait remonter le temps Chez moi ça fait des trucs de malades menteaux Y'a de la me-ar cachée sous le manteau J'sais pas si t'imagines si tous on te rentrer dedans Tu veux refaire le monde faudrait remonter le temps Qu'est-ce que tu parles de respect, toi ? Hein ? Qu'est-ce que tu parles de respect ? Les jeunes vous avez que ça à la bouche le respect Écoute-moi bien petite tête Le respect, l'honneur, le code de voyous, tout ça c'est de la merde ça existe pas Tous les connards qui sont en prison, tu sais pourquoi ils y sont ? C'est parce que leurs soit-disant potes ils les ont balancé, voilà pourquoi La vérité c'est que les gens ils te respectent quand t'as des couilles, quand t'es le plus fort À la moindre faiblesse tu tombes par terre ils te marchent dessus comme si t'étais une merde Tu veux être un gros voyou, un vrai ? Ah ben t'aurais pas de potes tu vivras seul, tu crèveras seul Tu pourras même pas protéger ta famille2</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Représente Paris 19 jen suis fier Qui ose traverser les grands fleuves ne craint pas les petites rivières Dans la baraque du trafiquant tous les enfants savent compter Ils connaissent la gueule du procureur et tous les keufs dà coté Rendre service aux autres, cest se rendre service à soi-même On sait qu'en faisant une faute bah on peut grailler la gamelle Des années de prisons, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres quon va chier du Cardin Jsuis dans ma grotte frère mais je te mets au parfum Non ne franchis pas la frontière du 19 par le 20 Yougataga laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, darwah toujours la mentale Même la plus forte des clim négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les iles Canaries Mais bon lEtat il ma mis en cage un peu comme un canari Au chtar jfais pas de sport, jai toujours le même gabarit Jpense au bled où cest la merde 5 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroitre lintelligence, éradiquons la bêtise Ce quils veulent cest nous détruire malgré tous nos efforts Donc pensons à nous unir histoire dêtre plus fort You might also like Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Le square brule, les sirènes, les boulettes sur mon pull Les seringues trainent, lEtat me freine longue peine Les corbeaux de Bois DArcy, les rats de Fresnes Tu conduis sans permis tu fini à Nanterre Pendant que les keufs écrasent les petits frères Avec une daronne affolée, moi jpicolais, volais Fallait bien remplir le frigo, le procureur na pas rigolé Chez moi les litrons faut en vendre plus Pour passer de larrêt de bus au Brabus Méfie-toi des poucaves obligé, tu peux vite passer du AMG aux TIG Encore un gros son de voyou et si tu fuck You, fuck You Cest pour les frères de Dakar, Tizi Ouzou Et quand tas des grosses galères les gens ils sont où ? Yeah, tête relevée, casquette baissée Faut les laisser devant leur PC, Mister You, Fouiny on vient les blesser Alors on rap comme à lancienne Parce quon a trop jeté des frères à nous dans la Seine Parce que mon nom est sur leurs listes, jrêve décraser un raciste en RS6 Disque de platine mais jen ai pas lair Parle mal jte nique ta mère Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Refais-toi en nous rejoignant Rap Genius !</t>
+          <t>Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Représente Paris 19 jen suis fier Qui ose traverser les grands fleuves ne craint pas les petites rivières Dans la baraque du trafiquant tous les enfants savent compter Ils connaissent la gueule du procureur et tous les keufs dà coté Rendre service aux autres, cest se rendre service à soi-même On sait qu'en faisant une faute bah on peut grailler la gamelle Des années de prisons, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres quon va chier du Cardin Jsuis dans ma grotte frère mais je te mets au parfum Non ne franchis pas la frontière du 19 par le 20 Yougataga laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, darwah toujours la mentale Même la plus forte des clim négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les iles Canaries Mais bon lEtat il ma mis en cage un peu comme un canari Au chtar jfais pas de sport, jai toujours le même gabarit Jpense au bled où cest la merde 5 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroitre lintelligence, éradiquons la bêtise Ce quils veulent cest nous détruire malgré tous nos efforts Donc pensons à nous unir histoire dêtre plus fort Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Le square brule, les sirènes, les boulettes sur mon pull Les seringues trainent, lEtat me freine longue peine Les corbeaux de Bois DArcy, les rats de Fresnes Tu conduis sans permis tu fini à Nanterre Pendant que les keufs écrasent les petits frères Avec une daronne affolée, moi jpicolais, volais Fallait bien remplir le frigo, le procureur na pas rigolé Chez moi les litrons faut en vendre plus Pour passer de larrêt de bus au Brabus Méfie-toi des poucaves obligé, tu peux vite passer du AMG aux TIG Encore un gros son de voyou et si tu fuck You, fuck You Cest pour les frères de Dakar, Tizi Ouzou Et quand tas des grosses galères les gens ils sont où ? Yeah, tête relevée, casquette baissée Faut les laisser devant leur PC, Mister You, Fouiny on vient les blesser Alors on rap comme à lancienne Parce quon a trop jeté des frères à nous dans la Seine Parce que mon nom est sur leurs listes, jrêve décraser un raciste en RS6 Disque de platine mais jen ai pas lair Parle mal jte nique ta mère Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Refais-toi en nous rejoignant Rap Genius !</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-You Hoho princesse bien ou quoi ? -Fille Bien et toi ça va ? -You La pêche tranquille -You Wesh ça fait quoi la ? -Fille Rien de spécial ta vu -You Vas y viens viens viens avec oim la Wallah j'viens d'acheté un p'tit bolide Wallah j'ai pas le permis, sur le Coran Viens tu va être ma pilote sur la vie de ma mère Après t'inquiète on va passé une rée-soi Wallah tu va péter les plombs Wallah -Fille Eh ouais -You Sinon ça va toi ou quoi? -Fille Ouais ça va -You Ouais tranquille Vas y viens avec oim viens -Fille Ok, mais on va ou ? -You Vas y t'inquiète J'suis passager dans mon bolide, avec une meuf au volant Dans le 19, tranquille, d'un coup les keufs au tournant Oh non il nous mettent sur le côté, t'inquiète création Vous connaissez la rue ? Hey bouge pas toi t'es papiers Accélération Attention, dahwa wallah j'ai déjà un mandat d'arrêt Ca veut dire qu'sur un contrôle, j'peux finir en maison d'arrêt Girophare, les batards, et dire que j'allais m'ambiancer Plus de plan A, plus de plan B, direct j'passe au plan C Ils ont lancé l'appel radio, dans ma caisse y'a un scanner Ils ont pris mes plaques gros, j'suis vener mais nique sa mère C'est la merde, vite vite , t'inquiète la miss accélère Ils sont en 306, moi hamdoulilah un SLR Première, deuxième, troisième, on est dans le 13 ème Ah Woogataga, on est pas Zazie, on est pas très zen A la guinste, ma biche, roule un sder, tu les a gués-lar Allons s'potiche dans un bar, et arroser ça pénard You might also like -You Ah la croma Hey wallah t'es une pilote -Fille T'inquiète -You Wesh euh JR enfoiré bien ou quoi ? -JR Wesh You bien ou quoi enfoiré ? -You Hey t'sé quoi dahwa j'viens d'me faire XXX Hey qu'est ce t'a a la jambe ? -JR Ah j'me suis sauvé de l'hopital là Woo gataga Ce soir là, j'étais sous pression comme un tireur d'élite Mon sos m'a dit -là si t'as l'trac bah vas-y tire 2 lignes J'suis opé, prends les clefs de la caisse, direction le parking Ne blesser, ni femmes ni enfant en majeure partie C'est parti, gros la banque on va lui prendre toutes ses thunes Y'a pas le choix, faudra s'occuper des agents de sécu Une fois dedans, j'fais pas de tminik j'veux tout le monde par terre Sans tièp, chopé le directeur, retour au cartel J'ai fait le taf, j'sors avec mon sos, mais là y'a trop de keufs Des coups de feu, dans tout le périmètre j'suis touché d'une beuj' Finalement, j'trouve un trou de souris j'arrive a m'ves-qui Course poursuite, faut que j'me fasse discret j'suis déjà descrit Faut que j'passe un coup de fil tranquille j'vais le faire à l'hosto Le braquage de ce coffre franchement c'était du costaud -You Woo gataga Paro dahwa Truc de ouf -JR T'as vu ou pas On va se prendre un verre A peine assis le serveur, il arrive comme un Clebs JR commande un Whisky sec, et la demoiselle un Vodka Schweppes Soif d'oseille, j'prends un cognac garçon, hey pss mets des glaçons J'ai eu chaud là j'ai failli finir au heb's Y'a zarbi, c'est zarbi, Quoi ? regarde le mec en face Qui ? Wallah c'est l'autre keuf du 19, celui qui à pété mon re-fré Yass Aie aie aie, c'est parti, Woo gataga, j'crois que c'est l'os A trois on s'lève 1,2,3, mais nique sa mère on accélère Ah putain de merde, elle est trop loin la caisse, et les renforts arrive T'inquiète pas, panique pas Younes, j'ai mon Ferrari Akhi, j'dis au revoir à la miss, vas-y dawha jette la clé Tiens gros Au tier-quar j'encule les ch'tars, à croire que j'ai de l'acnée Hey vieux, finir comdamné, c'est hors de question J'allume le son j'fais crissé les pneus, j'fais gueuler le caisson Attention, mauvais garçon laissez passer Les keufs sur la route sont placés, ah j'ai du les écraser -JR Hey wallah You t'es une galère gros -You Nique sa mère gros C'est les condés wallah on les baise Nique leurs mères Wallah enfoiré Vas y hey roule un zderh Wallah vas y roule un zderh -JR Hey t'as des yeufs sur oit ? -You Euh wallah gros moi j'sais ap Dans ta voiture y'a pas ? -JR J'vais regardé dans la boite à gants Voila fouille sur le Coran, attends, faut arroser ça -JR Ah y'en a ap gros -You Wallah vas-y nique sa mère Viens on va en balieue On va en trouver Vas-y t'inquiète -JR Vas-y J'ai la famille t'inquiète Hahahaha1</t>
+          <t>-You Hoho princesse bien ou quoi ? -Fille Bien et toi ça va ? -You La pêche tranquille -You Wesh ça fait quoi la ? -Fille Rien de spécial ta vu -You Vas y viens viens viens avec oim la Wallah j'viens d'acheté un p'tit bolide Wallah j'ai pas le permis, sur le Coran Viens tu va être ma pilote sur la vie de ma mère Après t'inquiète on va passé une rée-soi Wallah tu va péter les plombs Wallah -Fille Eh ouais -You Sinon ça va toi ou quoi? -Fille Ouais ça va -You Ouais tranquille Vas y viens avec oim viens -Fille Ok, mais on va ou ? -You Vas y t'inquiète J'suis passager dans mon bolide, avec une meuf au volant Dans le 19, tranquille, d'un coup les keufs au tournant Oh non il nous mettent sur le côté, t'inquiète création Vous connaissez la rue ? Hey bouge pas toi t'es papiers Accélération Attention, dahwa wallah j'ai déjà un mandat d'arrêt Ca veut dire qu'sur un contrôle, j'peux finir en maison d'arrêt Girophare, les batards, et dire que j'allais m'ambiancer Plus de plan A, plus de plan B, direct j'passe au plan C Ils ont lancé l'appel radio, dans ma caisse y'a un scanner Ils ont pris mes plaques gros, j'suis vener mais nique sa mère C'est la merde, vite vite , t'inquiète la miss accélère Ils sont en 306, moi hamdoulilah un SLR Première, deuxième, troisième, on est dans le 13 ème Ah Woogataga, on est pas Zazie, on est pas très zen A la guinste, ma biche, roule un sder, tu les a gués-lar Allons s'potiche dans un bar, et arroser ça pénard -You Ah la croma Hey wallah t'es une pilote -Fille T'inquiète -You Wesh euh JR enfoiré bien ou quoi ? -JR Wesh You bien ou quoi enfoiré ? -You Hey t'sé quoi dahwa j'viens d'me faire XXX Hey qu'est ce t'a a la jambe ? -JR Ah j'me suis sauvé de l'hopital là Woo gataga Ce soir là, j'étais sous pression comme un tireur d'élite Mon sos m'a dit -là si t'as l'trac bah vas-y tire 2 lignes J'suis opé, prends les clefs de la caisse, direction le parking Ne blesser, ni femmes ni enfant en majeure partie C'est parti, gros la banque on va lui prendre toutes ses thunes Y'a pas le choix, faudra s'occuper des agents de sécu Une fois dedans, j'fais pas de tminik j'veux tout le monde par terre Sans tièp, chopé le directeur, retour au cartel J'ai fait le taf, j'sors avec mon sos, mais là y'a trop de keufs Des coups de feu, dans tout le périmètre j'suis touché d'une beuj' Finalement, j'trouve un trou de souris j'arrive a m'ves-qui Course poursuite, faut que j'me fasse discret j'suis déjà descrit Faut que j'passe un coup de fil tranquille j'vais le faire à l'hosto Le braquage de ce coffre franchement c'était du costaud -You Woo gataga Paro dahwa Truc de ouf -JR T'as vu ou pas On va se prendre un verre A peine assis le serveur, il arrive comme un Clebs JR commande un Whisky sec, et la demoiselle un Vodka Schweppes Soif d'oseille, j'prends un cognac garçon, hey pss mets des glaçons J'ai eu chaud là j'ai failli finir au heb's Y'a zarbi, c'est zarbi, Quoi ? regarde le mec en face Qui ? Wallah c'est l'autre keuf du 19, celui qui à pété mon re-fré Yass Aie aie aie, c'est parti, Woo gataga, j'crois que c'est l'os A trois on s'lève 1,2,3, mais nique sa mère on accélère Ah putain de merde, elle est trop loin la caisse, et les renforts arrive T'inquiète pas, panique pas Younes, j'ai mon Ferrari Akhi, j'dis au revoir à la miss, vas-y dawha jette la clé Tiens gros Au tier-quar j'encule les ch'tars, à croire que j'ai de l'acnée Hey vieux, finir comdamné, c'est hors de question J'allume le son j'fais crissé les pneus, j'fais gueuler le caisson Attention, mauvais garçon laissez passer Les keufs sur la route sont placés, ah j'ai du les écraser -JR Hey wallah You t'es une galère gros -You Nique sa mère gros C'est les condés wallah on les baise Nique leurs mères Wallah enfoiré Vas y hey roule un zderh Wallah vas y roule un zderh -JR Hey t'as des yeufs sur oit ? -You Euh wallah gros moi j'sais ap Dans ta voiture y'a pas ? -JR J'vais regardé dans la boite à gants Voila fouille sur le Coran, attends, faut arroser ça -JR Ah y'en a ap gros -You Wallah vas-y nique sa mère Viens on va en balieue On va en trouver Vas-y t'inquiète -JR Vas-y J'ai la famille t'inquiète Hahahaha1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Depuis que je rappe jai pas changé, jhabite toujours le même quartier Quand jécoute certains rappeurs franchement ça me fait pitié Ton rap transpire la fin et va chuter comme Laurent Gbagbo Jarrive en mode, Tunisien à mille sur un paquebot Ton son tourne à la radio cest normal car cest de la merde Je regarde jamais des films çais-fran, ils appellent toujours les mêmes Lui cest qui ? Yo cest Demon celui qui aime quand cest le bordel Je suis à la tess avec la petite bouteille de Jack Daniel Mademoiselle, mon Parisien ma pochette je suis le plus heureux Poto je me contente de peu, le mental est même en eau de feu Je joue au poker pas sur le câble mais dans la cave à côté des rats Je tape sur le bois, je suis pas une star mais de ceux qui traînent en bas Mes ennemis se nomme lÉtat, nous soumets pas Jean Claude Gaulois Quand nous étions colonisés, les gars comme moi navaient pas de droits Je suis avec mon soces D.R.Y., Demon Yougataga Pour ceux quattendent le 6 du mois devant la poste le RSA Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR You might also like On sort des logements sociaux où les proprios perdent des molaires Vaut mieux un foyer vide quun locataire en colère On sort du zoo, on sait ce que cest que la galère On rêve que de finir millionnaire malgré nos échecs scolaires Pendant que lEtat remplit ses caisses les petits bicravent et séquestrent Hier cétait chef dinculpation aujourdhui cest chef dorchestre Mister YOU Intouchable dahwa tu peux pas test Mec tarrêteras pas nos balles même si tengages Barthez Je balance la sauce pour mes soces, pour les gars de ma tess Je fume du shit je bois de lalcool mais je prends pas de la cesse Je nique lÉtat tu le sais déjà vu que je le répète sans cesse Jai un 15 coups je suis toujours chaud même si tes mecs sont 16 !! Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Jai vu des allers-retours, des tours à la taule comme nos ient-cli Des abattages de junkies, au braquage de lear-dea LÉtat faire de nos fours, des parcs à thème pour les neur-mis Je nai plus le temps de rêver puisque je suis jamais endormi On sest coupés les ailes à force de planer Sous stupéfiants isolés des zones à JC, ma zone est à zoomer Des boules dans nos bolides et user du brolic Défrayer la chronique, anthologique quand vient ma clique Cest inutile dis leur You quils fassent de la place Pour nous déplacer, esquive déjà les balles du famas On pé-fra comme des maçons, sourire aux lèvres mais menaçants Tue ça à notre façon, boules de pétanque dans nos caleçons Viens juste calciner le RAP, les faire déraper Comme Senna car la violence est notre vérité Trouve ça che-lou comme voir des voir des putains qui ont des parcmètres Avoir des fiottes qui ont des chattes aux sommets des charts mec Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Ok je vais rapper sans thème, je vais faire un peu ce que tout le monde aime Ramenez-moi de la beuh du zdèh du sky des tops models Come on bébé tinquiètes je suis un bête de keu-mé Si tu kiff mon son tu le remets si taimes pas tu niques ta re-mé Je vais tout baiser je te le promets, je vais tous les détrôner Je suis cramé comme un Dramé ou un bolide aux rétros chromés Younès Latifi tu connais, je te laisserais pas la monnaie Si je tallumes ta mère dahwa je viserai pas les mollets Jai les mots les plus hardcore de tout ce putain de rap game Les concurrents je les graille comme des frites Mc Cain ! Y'a trop de meufs qui mouillent sur moi je sais pas je vais prendre laquelle Si elles te kiffent pas et bah je sais pas peut-être tu pues de la gueule Je suis avec Démon sur Paris on attend le poto D.R Ya trop de rappeurs qui me font gole-ri qui me font PTDR MDR vol 2 avec tout le quartier derrière De la cavale au disque dor quelle putain de carrière !!! Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR1</t>
+          <t>Depuis que je rappe jai pas changé, jhabite toujours le même quartier Quand jécoute certains rappeurs franchement ça me fait pitié Ton rap transpire la fin et va chuter comme Laurent Gbagbo Jarrive en mode, Tunisien à mille sur un paquebot Ton son tourne à la radio cest normal car cest de la merde Je regarde jamais des films çais-fran, ils appellent toujours les mêmes Lui cest qui ? Yo cest Demon celui qui aime quand cest le bordel Je suis à la tess avec la petite bouteille de Jack Daniel Mademoiselle, mon Parisien ma pochette je suis le plus heureux Poto je me contente de peu, le mental est même en eau de feu Je joue au poker pas sur le câble mais dans la cave à côté des rats Je tape sur le bois, je suis pas une star mais de ceux qui traînent en bas Mes ennemis se nomme lÉtat, nous soumets pas Jean Claude Gaulois Quand nous étions colonisés, les gars comme moi navaient pas de droits Je suis avec mon soces D.R.Y., Demon Yougataga Pour ceux quattendent le 6 du mois devant la poste le RSA Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR On sort des logements sociaux où les proprios perdent des molaires Vaut mieux un foyer vide quun locataire en colère On sort du zoo, on sait ce que cest que la galère On rêve que de finir millionnaire malgré nos échecs scolaires Pendant que lEtat remplit ses caisses les petits bicravent et séquestrent Hier cétait chef dinculpation aujourdhui cest chef dorchestre Mister YOU Intouchable dahwa tu peux pas test Mec tarrêteras pas nos balles même si tengages Barthez Je balance la sauce pour mes soces, pour les gars de ma tess Je fume du shit je bois de lalcool mais je prends pas de la cesse Je nique lÉtat tu le sais déjà vu que je le répète sans cesse Jai un 15 coups je suis toujours chaud même si tes mecs sont 16 !! Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Jai vu des allers-retours, des tours à la taule comme nos ient-cli Des abattages de junkies, au braquage de lear-dea LÉtat faire de nos fours, des parcs à thème pour les neur-mis Je nai plus le temps de rêver puisque je suis jamais endormi On sest coupés les ailes à force de planer Sous stupéfiants isolés des zones à JC, ma zone est à zoomer Des boules dans nos bolides et user du brolic Défrayer la chronique, anthologique quand vient ma clique Cest inutile dis leur You quils fassent de la place Pour nous déplacer, esquive déjà les balles du famas On pé-fra comme des maçons, sourire aux lèvres mais menaçants Tue ça à notre façon, boules de pétanque dans nos caleçons Viens juste calciner le RAP, les faire déraper Comme Senna car la violence est notre vérité Trouve ça che-lou comme voir des voir des putains qui ont des parcmètres Avoir des fiottes qui ont des chattes aux sommets des charts mec Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Ok je vais rapper sans thème, je vais faire un peu ce que tout le monde aime Ramenez-moi de la beuh du zdèh du sky des tops models Come on bébé tinquiètes je suis un bête de keu-mé Si tu kiff mon son tu le remets si taimes pas tu niques ta re-mé Je vais tout baiser je te le promets, je vais tous les détrôner Je suis cramé comme un Dramé ou un bolide aux rétros chromés Younès Latifi tu connais, je te laisserais pas la monnaie Si je tallumes ta mère dahwa je viserai pas les mollets Jai les mots les plus hardcore de tout ce putain de rap game Les concurrents je les graille comme des frites Mc Cain ! Y'a trop de meufs qui mouillent sur moi je sais pas je vais prendre laquelle Si elles te kiffent pas et bah je sais pas peut-être tu pues de la gueule Je suis avec Démon sur Paris on attend le poto D.R Ya trop de rappeurs qui me font gole-ri qui me font PTDR MDR vol 2 avec tout le quartier derrière De la cavale au disque dor quelle putain de carrière !!! Tu crois que tu pourras nous la mettre MDR Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR Tu crois que tu pourras nous la mettre HAAA Ya du de-mon derrière YOU Démon D.R Si tapprécies pas Fuck you cest MDR Monnaie drogue et respect MDR1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hadès Eh, les fumer, tout prendre, pour moi, c'est un loisir Jsuis perdu entre le bien et l'mal, j'sais pas cque j'vais choisir Plus d'une fois frôlé la perpét', je suis fort mais tout dans l'crâne même si j'ai l'air bête Sahbi, me regarde pas zarre-bi, jamais chez les condés, je n'parlerai Woh, mamacita, tas ldon de rendre tous mes scars-la locos Trafiquants de coca' redeviennent des mins-ga Après un ptit massage à l'huile de coco, ouais Papa est d'retour, venez tous par ici J'suis lnumber one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais You might also like On surmonte nos peines tout seuls au parloir Aujourd'hui, petit, personne viendra t'voir Toi, par la fenêtre, tu vas foutre le da3wa Ghedwa, peut-être qu'on s'rappellera d'oi-t T'es dans la merde, j'suis vers Marrakech, moi J'nique toutes vos tantes, j'suis l'cauchemar à Quechua S'tu veux, j't'arrange, minimum dix mille, gros Passe ça à Simo et ramène-moi le micro On va faire la fête, j'suis un putain de phénomène, ouais Ce soir, c'est la guerre, on verra qui gère le bendo Frérot, qu'est-ce t'as ? On dirait qu't'es stone, moi, j'suis infréquentable, ouais Papa est d'retour, venez tous par ici J'suis l'number one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ouais, ouais J'suis vers Tarifa, la porteuse est arrivée, ouais Nouvel arrivage, on va tous les tarifer J'suis frais, j'suis refait, en direct d'un conte de fées 2.40 dans l'FeFe et c'est moi, l'jefe de jefes Comparution immédiate, flagrant délit J'ai rêvé d'un contact vers Medellín Khapta sous Jack, j'te fume une prairie Repensant à mes potes qu'ont d'jà péri Papa est d'retour, venez tous par ici J'suis l'number one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ouais, ouais, ouais, ouais Hadès</t>
+          <t>Hadès Eh, les fumer, tout prendre, pour moi, c'est un loisir Jsuis perdu entre le bien et l'mal, j'sais pas cque j'vais choisir Plus d'une fois frôlé la perpét', je suis fort mais tout dans l'crâne même si j'ai l'air bête Sahbi, me regarde pas zarre-bi, jamais chez les condés, je n'parlerai Woh, mamacita, tas ldon de rendre tous mes scars-la locos Trafiquants de coca' redeviennent des mins-ga Après un ptit massage à l'huile de coco, ouais Papa est d'retour, venez tous par ici J'suis lnumber one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais On surmonte nos peines tout seuls au parloir Aujourd'hui, petit, personne viendra t'voir Toi, par la fenêtre, tu vas foutre le da3wa Ghedwa, peut-être qu'on s'rappellera d'oi-t T'es dans la merde, j'suis vers Marrakech, moi J'nique toutes vos tantes, j'suis l'cauchemar à Quechua S'tu veux, j't'arrange, minimum dix mille, gros Passe ça à Simo et ramène-moi le micro On va faire la fête, j'suis un putain de phénomène, ouais Ce soir, c'est la guerre, on verra qui gère le bendo Frérot, qu'est-ce t'as ? On dirait qu't'es stone, moi, j'suis infréquentable, ouais Papa est d'retour, venez tous par ici J'suis l'number one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ouais, ouais J'suis vers Tarifa, la porteuse est arrivée, ouais Nouvel arrivage, on va tous les tarifer J'suis frais, j'suis refait, en direct d'un conte de fées 2.40 dans l'FeFe et c'est moi, l'jefe de jefes Comparution immédiate, flagrant délit J'ai rêvé d'un contact vers Medellín Khapta sous Jack, j'te fume une prairie Repensant à mes potes qu'ont d'jà péri Papa est d'retour, venez tous par ici J'suis l'number one dans toutes les tés-ci La concu', j'la graille, pour moi, elle est comestible J'ai la frappe du Brésil, c'pour ça qu'on m'estime Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ma vie, j'fais partie des bandoleros Bah oui, j'suis venu pour prendre de l'euro Oh oui, pas besoin de m'la raconter Mon oseille, mes ennemis, j'peux même plus les compter 9, 9 millimètres, j'veux voir aucun keuf dans l'périmètre Moi, j'fais que des bombes, bombes lyricales Là, y a de quoi faire dans les jerrycans, ouais, ouais Ouais, ouais, ouais, ouais Hadès</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ouais ouais ouais ! DJ Abdel, Mister You Francisco, Big Ali Ça m'dérange toujours pas, moi j'aime bien All ladies in the place, just get on down All the fellas in the place just get on down If you came to have a party just get on down Move it real, put your hands up, yeah Everybody movin' to the music Everybody, won't you to get on down? There's a party tonight and I wanna see you have a good time Everybody, c'est You-ga-ta-mouah Ok, j'commence tout doux, big up le roc-Ma madou Comme il dit Yougata Mister You do what you got to do Demande à Bazoo, c'est qui les best des best ? DJ Abdel, Belleville, zougatagangz to gangz J'veux pas qu'tu r'tournes ta veste par contre j'veux que tu l'enlèves J'veux tout d'un coup, j'vise le cou, pas de bisous sur les lèvres La roue elle tourne professeur, faut pas crier sur l'élève Certe j'ai pas fait l'ENA mais en tout cas j'suis célèbre Depuis que l'amour m'a rayé, j'galope sur le dos d'un zèbre J'sais qu'un coup de foudre ça fait mal, j'veux juste une étincelle J'suis pas aussi zen que Zazie et pourtant c'est ma voisine J'suis sur la piste reste assis que le pe-ra j'l'assassine Faut le salaire à Pastore ou celui de mami Bettencourt Avec Pascal Nègre, pépère, j'ai plusieurs licences en cours Ma présence à la télé justifie mes absences en cours Appelle la police, là, y'a un fusil dans la basse-cour You might also like J'suis pas le frère hein, on sait bien que tu n'en ai pas un Toujours prêt cousin, représente 20 - 1 J'suis l'champion de la disquette et Bill Gates c'est mon voisin Lunettes de soleil, prend pas la tête tu laisses XXX J'ai bu 4 verres, j'ai fumé 10 clopes au Comedy Club Juste après j'ai serré une p'tite meuf dans un petit pub Direction la Thaïlande, Pattaya à XXX La j'suis à la playa, ouais, un p'tit massage XXX Réflexion, garçon Abdel c'est la psychiatrie Tu connais le dicton plus on est d'fous, moins y a de riches J'veux des fraises, des crevettes, un câlin, une p'tite gâterie J'suis jovial, j'suis pas triste, laissez-moi dans ma matrix Armé d'une calculatrice man, j'ai combattu la crise J'veux une fusée comme Ariane, jolie présentatrice T'es mignonne, tu sens bons, t'es fraîche et ta la peau lisse Tu veux mon phone, fais le 17, bébé, appelle la police Everybody Hands up, hands up x2 To the left, to the right x2 C'est Yougataga Yougataga ! x2 DJ Abdel ! Fredo Cheriff, you know what's goin' down baby Yougataga, Funk You part two DJ Abdel, Francisco, Mister You Big Ali, New York City, Marakech, Miami Casa', St-Tropez, Ibiza, ouais ouais Paris c'est Magique Paris c'est Zoogataga</t>
+          <t>Ouais ouais ouais ! DJ Abdel, Mister You Francisco, Big Ali Ça m'dérange toujours pas, moi j'aime bien All ladies in the place, just get on down All the fellas in the place just get on down If you came to have a party just get on down Move it real, put your hands up, yeah Everybody movin' to the music Everybody, won't you to get on down? There's a party tonight and I wanna see you have a good time Everybody, c'est You-ga-ta-mouah Ok, j'commence tout doux, big up le roc-Ma madou Comme il dit Yougata Mister You do what you got to do Demande à Bazoo, c'est qui les best des best ? DJ Abdel, Belleville, zougatagangz to gangz J'veux pas qu'tu r'tournes ta veste par contre j'veux que tu l'enlèves J'veux tout d'un coup, j'vise le cou, pas de bisous sur les lèvres La roue elle tourne professeur, faut pas crier sur l'élève Certe j'ai pas fait l'ENA mais en tout cas j'suis célèbre Depuis que l'amour m'a rayé, j'galope sur le dos d'un zèbre J'sais qu'un coup de foudre ça fait mal, j'veux juste une étincelle J'suis pas aussi zen que Zazie et pourtant c'est ma voisine J'suis sur la piste reste assis que le pe-ra j'l'assassine Faut le salaire à Pastore ou celui de mami Bettencourt Avec Pascal Nègre, pépère, j'ai plusieurs licences en cours Ma présence à la télé justifie mes absences en cours Appelle la police, là, y'a un fusil dans la basse-cour J'suis pas le frère hein, on sait bien que tu n'en ai pas un Toujours prêt cousin, représente 20 - 1 J'suis l'champion de la disquette et Bill Gates c'est mon voisin Lunettes de soleil, prend pas la tête tu laisses XXX J'ai bu 4 verres, j'ai fumé 10 clopes au Comedy Club Juste après j'ai serré une p'tite meuf dans un petit pub Direction la Thaïlande, Pattaya à XXX La j'suis à la playa, ouais, un p'tit massage XXX Réflexion, garçon Abdel c'est la psychiatrie Tu connais le dicton plus on est d'fous, moins y a de riches J'veux des fraises, des crevettes, un câlin, une p'tite gâterie J'suis jovial, j'suis pas triste, laissez-moi dans ma matrix Armé d'une calculatrice man, j'ai combattu la crise J'veux une fusée comme Ariane, jolie présentatrice T'es mignonne, tu sens bons, t'es fraîche et ta la peau lisse Tu veux mon phone, fais le 17, bébé, appelle la police Everybody Hands up, hands up x2 To the left, to the right x2 C'est Yougataga Yougataga ! x2 DJ Abdel ! Fredo Cheriff, you know what's goin' down baby Yougataga, Funk You part two DJ Abdel, Francisco, Mister You Big Ali, New York City, Marakech, Miami Casa', St-Tropez, Ibiza, ouais ouais Paris c'est Magique Paris c'est Zoogataga</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mercredi 30 juin 2010, 21h27 Ça fait près d'un semaine qui font lère-ga aux arrivants Seth Tu demanderas même pas quand c'est la merde bah moi m'en bats les coucougnettes Il m'reste qu'un zdéh alors j'le roule sans faire tomber aucune boulette J'appelle Foued, pas au phone-télé non par la fenêtre Y'a eu la fouille ministérielle j'ai dû le planquer darwah t'inquiète pas Dans la maine-se j'reprends une ce-pu et j'me rebranche Nan il m'en faut deux ouais , il me faut une puce Bouygues et une puce Orange À cette heure-ci j'me verrais bien en train d'me rabta dans un ranch Woogataga un p'tit verre d'vodka avec un zeste d'orange J'ai envie d'faire du rodéo. Une p'tite lahssa et que des coups d'hanche Trop souvent on m'a boycotté j'suis rancunier en vers beaucoup d'ens-g Qu'ils aillent bien s'faire enculer, la roue elle fait pas que du sur place On m'a dit aide-toi et le ciel t'aidera Darwah c'est pour sa que j'me surpasse J'sais pas c'qui se passe dans ma tête, je sais ce qu'il ce passe ma cité Les p'tit ils ont repris le rrain-té donc les grands ils sont surexcités Quand la tension devient trop forte les plombs sont obligés d'sauter Armé d'mes cordes vocales l'instru j'suis entrain d'la ligoter Si t'as pas d'parloir , soit débrouillard obligé d'traficoté Quand t'es en plein cur d'la chose faut juste voir le bon coté Quand on pose la question Wech You alors comment vont les amours ? J'réponds Ils vont bien, sont sur la 2 ils se marrent presque tous les jours Dites à zemmour qu'il s'étonne pas que j'contienne autant de haine en moi J'constate que plus les années passent, plus elles sont rares les peines en mois J'ai envie d'faire beaucoup d'habète, investir dans mon bled J'kifferais rendre à Ben Mohamed ce qui jadis était a Mohamed La charité, faut que je l'ordonne bien, donc j'la commence par moi-même Les faux j'leur donne rien si ce n'est un savon quand j'suis au hammam J'ai fusil j'fais pas de K-1, j'suis l'genre de mec qui vend d'la one Darwaah Non j'viens pas de Lucie crois-moi elle a pas l'profil d'Hawa Bon j'vais me faire un p'tit kahwa vu que là il est déjà 7h du mat' Ensuite faut que je dorme et 'chAllah dès que je sors j'pète l'audimatYou might also like</t>
+          <t>Mercredi 30 juin 2010, 21h27 Ça fait près d'un semaine qui font lère-ga aux arrivants Seth Tu demanderas même pas quand c'est la merde bah moi m'en bats les coucougnettes Il m'reste qu'un zdéh alors j'le roule sans faire tomber aucune boulette J'appelle Foued, pas au phone-télé non par la fenêtre Y'a eu la fouille ministérielle j'ai dû le planquer darwah t'inquiète pas Dans la maine-se j'reprends une ce-pu et j'me rebranche Nan il m'en faut deux ouais , il me faut une puce Bouygues et une puce Orange À cette heure-ci j'me verrais bien en train d'me rabta dans un ranch Woogataga un p'tit verre d'vodka avec un zeste d'orange J'ai envie d'faire du rodéo. Une p'tite lahssa et que des coups d'hanche Trop souvent on m'a boycotté j'suis rancunier en vers beaucoup d'ens-g Qu'ils aillent bien s'faire enculer, la roue elle fait pas que du sur place On m'a dit aide-toi et le ciel t'aidera Darwah c'est pour sa que j'me surpasse J'sais pas c'qui se passe dans ma tête, je sais ce qu'il ce passe ma cité Les p'tit ils ont repris le rrain-té donc les grands ils sont surexcités Quand la tension devient trop forte les plombs sont obligés d'sauter Armé d'mes cordes vocales l'instru j'suis entrain d'la ligoter Si t'as pas d'parloir , soit débrouillard obligé d'traficoté Quand t'es en plein cur d'la chose faut juste voir le bon coté Quand on pose la question Wech You alors comment vont les amours ? J'réponds Ils vont bien, sont sur la 2 ils se marrent presque tous les jours Dites à zemmour qu'il s'étonne pas que j'contienne autant de haine en moi J'constate que plus les années passent, plus elles sont rares les peines en mois J'ai envie d'faire beaucoup d'habète, investir dans mon bled J'kifferais rendre à Ben Mohamed ce qui jadis était a Mohamed La charité, faut que je l'ordonne bien, donc j'la commence par moi-même Les faux j'leur donne rien si ce n'est un savon quand j'suis au hammam J'ai fusil j'fais pas de K-1, j'suis l'genre de mec qui vend d'la one Darwaah Non j'viens pas de Lucie crois-moi elle a pas l'profil d'Hawa Bon j'vais me faire un p'tit kahwa vu que là il est déjà 7h du mat' Ensuite faut que je dorme et 'chAllah dès que je sors j'pète l'audimat</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eh T'as changé l'fusil d'épaule, dis-moi c'est quoi cette phrase Gros, t'as toujours le fusil, bref j'ai dû cracher ma haine De l'amour dans les draps, j'défends ma cause, celle de la Cosa Nostra La finalité pour moi c'est pas d'rouler en caisse Il faut des rentes et tous les mois j'encaisse Faire du gros papier sans crier sur tous les toits J'mettrai jamais de l'or dans mes lettes-toi J'suis sur la route avec elle, on écoute la Bohème Même Lacrim bâtard, il sait faire des poèmes J'ai le .45 dans la veste, les oiseaux sont dans le nid Tu rêvais de grimper l'Everest, on l'a fait dans le lit Les fantômes du passé m'attendent dans mon avenir Aussi vrai que Jésus va revenir J'connais ma vie, y'a 2000 choses qui t'attirent Tu m'aimes tellement que tu veux être là quand ça tire J'suis sur Paname avec Omar On écoute Pop Smoke Envie de faire couler le sang, très calibrés sont mes Apaches Dans le garage y'a la Kalash, aux épaules j'ai poussé 200 Depuis petit, j'ai vu des choses c'est digne d'un cinéma Que Dieu m'en soit témoin, j'ai pas besoin de mentir J'suis pas Teddy Riner mais j'ai toujours été un tigre Dans la prison pour mineurs, j'étais pas du côté victime You might also like Il fallait manger à la baraque sur qui avait pas de thune En fait, se venger car l'état fait preuve d'ingratitude Jamais se ranger, être marginal c'est dans nos habitudes On rêve de nager dans le bonheur et dans la solitude Des fils de pute, viens pas froisser nos relations On parle en crypté sur des applications On a toujours des solutions mais encore plus de problèmes On se monte dessus c'est nos résolutions Faut des diamants sur la couronne qu'est sur la tête de ma daronne Ouais nous quand on prend la parole, bah on demande pas la permission Ouvre la session, j'pars en mission, sors le whisky, sors la potion Toi plus moi la solution, hormis devant Dieu pas de soumission Suffit d'un regard pour les refroidir, on va s'les faire avant d'partir Crois mon veau-cer écrit des trucs que mes vres-lè ne peuvent pas dire C'est un empire qu'on a bâti, c'est tous les faux qu'on a battus Plus l'temps pour la sympathie, le regard noir quand y a pas d'shit Mon colonel c'est pas Fabian, mon capitaine c'est pas Magic Certains me disent C'est pas logique, moi j'leur réponds C'est d'la magie Décapoté j'suis dans la Jeep, j'écoute le son, j'suis avec Ça m'fait plaisir d'aller aux Maldives, ça m'fait kiffer d'croiser ma team C'est le 9-4 et Rebeval, tu nous connais on fait les gros titres On préfère canner d'une rafale que de crever d'une hépatite Bats les couilles de ton réseau, nous c'est la fibre optique Nous ne sommes pas de ces rappeurs qui montrent leurs chibres aux p'tites Les poulets sont déjà rôtis, on braque l'oseille à Rothschild Le show il est garanti, t'arrives en caisse, tu repars en jeans Disque d'or et l'platine, putain quelle bête de routine J'ai la rime qui touche tout le monde, le micro c'est d'la chevrotine On t'nique ta mère pour des broutilles, pour un regard on peut t' Faut une guitare pour s'dire au revoir et des bougies pour le jour J On a grandi dans l'banditisme, on n'en fait pas l'apologie Ils veulent fumer nos racines, c'est pas bon pour l'écologie</t>
+          <t>Eh T'as changé l'fusil d'épaule, dis-moi c'est quoi cette phrase Gros, t'as toujours le fusil, bref j'ai dû cracher ma haine De l'amour dans les draps, j'défends ma cause, celle de la Cosa Nostra La finalité pour moi c'est pas d'rouler en caisse Il faut des rentes et tous les mois j'encaisse Faire du gros papier sans crier sur tous les toits J'mettrai jamais de l'or dans mes lettes-toi J'suis sur la route avec elle, on écoute la Bohème Même Lacrim bâtard, il sait faire des poèmes J'ai le .45 dans la veste, les oiseaux sont dans le nid Tu rêvais de grimper l'Everest, on l'a fait dans le lit Les fantômes du passé m'attendent dans mon avenir Aussi vrai que Jésus va revenir J'connais ma vie, y'a 2000 choses qui t'attirent Tu m'aimes tellement que tu veux être là quand ça tire J'suis sur Paname avec Omar On écoute Pop Smoke Envie de faire couler le sang, très calibrés sont mes Apaches Dans le garage y'a la Kalash, aux épaules j'ai poussé 200 Depuis petit, j'ai vu des choses c'est digne d'un cinéma Que Dieu m'en soit témoin, j'ai pas besoin de mentir J'suis pas Teddy Riner mais j'ai toujours été un tigre Dans la prison pour mineurs, j'étais pas du côté victime Il fallait manger à la baraque sur qui avait pas de thune En fait, se venger car l'état fait preuve d'ingratitude Jamais se ranger, être marginal c'est dans nos habitudes On rêve de nager dans le bonheur et dans la solitude Des fils de pute, viens pas froisser nos relations On parle en crypté sur des applications On a toujours des solutions mais encore plus de problèmes On se monte dessus c'est nos résolutions Faut des diamants sur la couronne qu'est sur la tête de ma daronne Ouais nous quand on prend la parole, bah on demande pas la permission Ouvre la session, j'pars en mission, sors le whisky, sors la potion Toi plus moi la solution, hormis devant Dieu pas de soumission Suffit d'un regard pour les refroidir, on va s'les faire avant d'partir Crois mon veau-cer écrit des trucs que mes vres-lè ne peuvent pas dire C'est un empire qu'on a bâti, c'est tous les faux qu'on a battus Plus l'temps pour la sympathie, le regard noir quand y a pas d'shit Mon colonel c'est pas Fabian, mon capitaine c'est pas Magic Certains me disent C'est pas logique, moi j'leur réponds C'est d'la magie Décapoté j'suis dans la Jeep, j'écoute le son, j'suis avec Ça m'fait plaisir d'aller aux Maldives, ça m'fait kiffer d'croiser ma team C'est le 9-4 et Rebeval, tu nous connais on fait les gros titres On préfère canner d'une rafale que de crever d'une hépatite Bats les couilles de ton réseau, nous c'est la fibre optique Nous ne sommes pas de ces rappeurs qui montrent leurs chibres aux p'tites Les poulets sont déjà rôtis, on braque l'oseille à Rothschild Le show il est garanti, t'arrives en caisse, tu repars en jeans Disque d'or et l'platine, putain quelle bête de routine J'ai la rime qui touche tout le monde, le micro c'est d'la chevrotine On t'nique ta mère pour des broutilles, pour un regard on peut t' Faut une guitare pour s'dire au revoir et des bougies pour le jour J On a grandi dans l'banditisme, on n'en fait pas l'apologie Ils veulent fumer nos racines, c'est pas bon pour l'écologie</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J'tourne au Mali, en Algérie, au Maroc, en Tunisie J'roule sans permis décapoter j'graisse la patte aux policiers Moi, mon rap c'est d'la pure donc vos oreilles s'anesthésient Y'a plus de schmet' dans c'game que d'muslims en Indonésie Si t'es un brave j'suis ton ami, si tu veux jouer j'suis Konami J'ai fait connaître Belleville de Marrakech à Miami Traces ta route, ne t'arrêtes pas j'te conseilles d'aller tout droit Un mec avertit il en vaux deux, un mec affranchis il en vaux trois Ah ! Ah ! Woogataga, y'a qu'la maille qui m'aille J'suis déréglé comme le calendrier Maya Quand tu dors moi j'suis réveillé Mon cerveau il aime trop travailler J'suis miclo, j'suis pas popeye-yé j'mésquive pas quand faut payer Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best You might also like J'arrive l'sourire en coin avec un regard de vénère J'attire toutes les femelles donc tout les mâles ont les nerfs Moi mes souvenirs au château c'est des promenades en plein air J'suis devenu l'prince de machiavel, de ma ville pas de Bel-Air V'là la jet-set avenue des Peupliers Ouuaaaii ! J'suis venu foutre le feu donc appeler les pompiers Dans l'rap j'ai pris un bon billet Bénef les plus éparpillés La SACEM je l'ai plié Ca à fini par payer J'suis en règle j'ai mes papiers et mon pochka dans la saccoche J'ai deux bras droit j'ai pas d'bras gauche Et j'sais bien que l'droit chemin y vire à che-gau Eux se qui ont éco darwa j'ai dans la che-fo Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Du nord au sud, à l'est, à l'ouest Y'a qu'un Younès que j'connaisse I am the best of the best tah le best des best T'as pas senti la patate ça vient direct de Paris Passe moi les clés d'la baraque j'te laisse celle du Ferrari La patience est une vertu récompensant l'escargot Ils s'la racontent avec leur barque fallait que j'leur laisse un cargo Vas dire aux 3ineurs d'aller faire un tour chez l'ophtalmo Gros j'suis parano j'regarde même plus les panneaux Moi je n'étais rien, mais voila qu'aujourd'hui J'suis devenu l'prince du gardien du sommeil de ses nuits J'ai l'train vie d'Usain Bolt impossible que je m'ennuie J'suis en train d'danser la samba va voir le roi et demande lui qui est le best Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Toujours frais ! Ouai, ouai, ouai ! I'm the best of the best tah le best des best2</t>
+          <t>J'tourne au Mali, en Algérie, au Maroc, en Tunisie J'roule sans permis décapoter j'graisse la patte aux policiers Moi, mon rap c'est d'la pure donc vos oreilles s'anesthésient Y'a plus de schmet' dans c'game que d'muslims en Indonésie Si t'es un brave j'suis ton ami, si tu veux jouer j'suis Konami J'ai fait connaître Belleville de Marrakech à Miami Traces ta route, ne t'arrêtes pas j'te conseilles d'aller tout droit Un mec avertit il en vaux deux, un mec affranchis il en vaux trois Ah ! Ah ! Woogataga, y'a qu'la maille qui m'aille J'suis déréglé comme le calendrier Maya Quand tu dors moi j'suis réveillé Mon cerveau il aime trop travailler J'suis miclo, j'suis pas popeye-yé j'mésquive pas quand faut payer Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best J'arrive l'sourire en coin avec un regard de vénère J'attire toutes les femelles donc tout les mâles ont les nerfs Moi mes souvenirs au château c'est des promenades en plein air J'suis devenu l'prince de machiavel, de ma ville pas de Bel-Air V'là la jet-set avenue des Peupliers Ouuaaaii ! J'suis venu foutre le feu donc appeler les pompiers Dans l'rap j'ai pris un bon billet Bénef les plus éparpillés La SACEM je l'ai plié Ca à fini par payer J'suis en règle j'ai mes papiers et mon pochka dans la saccoche J'ai deux bras droit j'ai pas d'bras gauche Et j'sais bien que l'droit chemin y vire à che-gau Eux se qui ont éco darwa j'ai dans la che-fo Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Du nord au sud, à l'est, à l'ouest Y'a qu'un Younès que j'connaisse I am the best of the best tah le best des best T'as pas senti la patate ça vient direct de Paris Passe moi les clés d'la baraque j'te laisse celle du Ferrari La patience est une vertu récompensant l'escargot Ils s'la racontent avec leur barque fallait que j'leur laisse un cargo Vas dire aux 3ineurs d'aller faire un tour chez l'ophtalmo Gros j'suis parano j'regarde même plus les panneaux Moi je n'étais rien, mais voila qu'aujourd'hui J'suis devenu l'prince du gardien du sommeil de ses nuits J'ai l'train vie d'Usain Bolt impossible que je m'ennuie J'suis en train d'danser la samba va voir le roi et demande lui qui est le best Mister-Mister Yougataga Toujours frais ! Mister-Mister Yougataga Ouais tu connais ! Mister-Mister Yougataga Rap the best of the best tah le best des best ! Aiiiee ! Mister-Mister Yougataga Pour les res-frè Mister-Mister Yougataga Ouai, ouai, ouai ! Mister-Mister Yougataga I'm the best of the best tah le best des best Toujours frais ! Ouai, ouai, ouai ! I'm the best of the best tah le best des best2</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>19ème, 20ème Belleville, ouais bazoo On est al, 19ème, 20ème, représente Tu peux pas test Y a les pe-stu sur les toits J'suis solo tu crois qu'on est trois Si tu fais le malin je vais m'occuper de toi Avec ma rafleuse je te nettoie C'est plus sale que des lettes-toi Je veux aller plus loin que les étoiles Comme l'araignée j'ai tissé ma toile Yves, Tramé mon frère Abdulaye Bazou Shakazoo sa mère la volaille Toujours vrai n'importe où qu'on aille Big up à Ades alias XXX Présents quand d'autres n'étaient pas là Quand ça débitait ou quand ça défouraillait Non non chez nous on fait pas de mala Moi étant petit j'portais du Moultchi XXX a chauffé la bougie Nique qu'les gens gros y'avait Bachir 17ans pisté par le G.I.R Big up Scander Lepsou et Vieura Baise sa mère le pera Nique ton père, ta mère, et cetera Y'a qu'chez les keufs que l'on se taiera C'est pour Bimbim et les frères au Mombo Les couilles valaient mieux qu'un Lambo' Ca bé-tom même au Congo D5, D4 c'est d'la rigolade Le whisky c'est d'la limonade Toujours, la tête haute en promenade Ça parle, entend la grenade, XXX A Malaga ou à Fuengirola La frappe tah Ginola Minuit sur la Daytona Nique la mère à Nicolas Si t'es une poucave nique bien ta grand-mère Batard ne m'serre pas la main Moi à c't'heure-ci j'essuie le par-terre Avec du Pierre Balmain Pierre Richard je lui pissais dessus J'ai grandi dans le pe-stu Si t'as misé sur les faux Ben tu sera déçu Les vrais reprennent le dessus Les salopes reviennent nous cé-su On a mit de l'alcool sur nos blessures On restera vrai ça c'est sur Fuck le cheese moi j'suis le Big Bang J'ai grandi dans le mic mac Big up le poto likma J'te dirais jamais nique moi Batard chez nous pas de dep Que les fes-keu qui viennent qui nous pètent Chez nous y'a aucun enfant de salope Qui suce pour poser sur une mixtape Le rap j'l'encule c'est qu'une maquette Suceur regarde bien ma tête Tu m'arrives même pas au doigt d'iep Trop d'carrières sorties d'ma braguette Hachek, j'suis entrain d'faire pipi J'suis entre Phuket et Cobibi Y'a plus de 3omri plus de habibi J'suis le coyotte qu'a fumé Bip bip Moi, c'est Younes Latifi Big up Gillou big up XXX D'la street on est tous natifs Bien sur qu'il faut faire la diff' Belleville C'est la haine qui nous motive Ça fume plus qu'une locomotive J'suis une Bentley toi t'es qu'une Kia On t'fume ta mère pour la familia On encule la hass on veut du houari Maroc, Sénégal ou Mali Algérie, Mauritanie XXX Big up Cyclope et Khalitoo On a perverti Cupidon On a mit de l'essence dans les bidons On est pas bé-tom pour des trucs bidons On est passé d'chez Tati à Louis Vuitton Ne sortons pas les ssiers-do évitons Ne joue pas le ssiste-gro t'es qu'un crypton Chez moi nous effritons sur des litrons Moi, c'est Younes LatifiYou might also like</t>
+          <t>19ème, 20ème Belleville, ouais bazoo On est al, 19ème, 20ème, représente Tu peux pas test Y a les pe-stu sur les toits J'suis solo tu crois qu'on est trois Si tu fais le malin je vais m'occuper de toi Avec ma rafleuse je te nettoie C'est plus sale que des lettes-toi Je veux aller plus loin que les étoiles Comme l'araignée j'ai tissé ma toile Yves, Tramé mon frère Abdulaye Bazou Shakazoo sa mère la volaille Toujours vrai n'importe où qu'on aille Big up à Ades alias XXX Présents quand d'autres n'étaient pas là Quand ça débitait ou quand ça défouraillait Non non chez nous on fait pas de mala Moi étant petit j'portais du Moultchi XXX a chauffé la bougie Nique qu'les gens gros y'avait Bachir 17ans pisté par le G.I.R Big up Scander Lepsou et Vieura Baise sa mère le pera Nique ton père, ta mère, et cetera Y'a qu'chez les keufs que l'on se taiera C'est pour Bimbim et les frères au Mombo Les couilles valaient mieux qu'un Lambo' Ca bé-tom même au Congo D5, D4 c'est d'la rigolade Le whisky c'est d'la limonade Toujours, la tête haute en promenade Ça parle, entend la grenade, XXX A Malaga ou à Fuengirola La frappe tah Ginola Minuit sur la Daytona Nique la mère à Nicolas Si t'es une poucave nique bien ta grand-mère Batard ne m'serre pas la main Moi à c't'heure-ci j'essuie le par-terre Avec du Pierre Balmain Pierre Richard je lui pissais dessus J'ai grandi dans le pe-stu Si t'as misé sur les faux Ben tu sera déçu Les vrais reprennent le dessus Les salopes reviennent nous cé-su On a mit de l'alcool sur nos blessures On restera vrai ça c'est sur Fuck le cheese moi j'suis le Big Bang J'ai grandi dans le mic mac Big up le poto likma J'te dirais jamais nique moi Batard chez nous pas de dep Que les fes-keu qui viennent qui nous pètent Chez nous y'a aucun enfant de salope Qui suce pour poser sur une mixtape Le rap j'l'encule c'est qu'une maquette Suceur regarde bien ma tête Tu m'arrives même pas au doigt d'iep Trop d'carrières sorties d'ma braguette Hachek, j'suis entrain d'faire pipi J'suis entre Phuket et Cobibi Y'a plus de 3omri plus de habibi J'suis le coyotte qu'a fumé Bip bip Moi, c'est Younes Latifi Big up Gillou big up XXX D'la street on est tous natifs Bien sur qu'il faut faire la diff' Belleville C'est la haine qui nous motive Ça fume plus qu'une locomotive J'suis une Bentley toi t'es qu'une Kia On t'fume ta mère pour la familia On encule la hass on veut du houari Maroc, Sénégal ou Mali Algérie, Mauritanie XXX Big up Cyclope et Khalitoo On a perverti Cupidon On a mit de l'essence dans les bidons On est pas bé-tom pour des trucs bidons On est passé d'chez Tati à Louis Vuitton Ne sortons pas les ssiers-do évitons Ne joue pas le ssiste-gro t'es qu'un crypton Chez moi nous effritons sur des litrons Moi, c'est Younes Latifi</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Pour l'bétisier, j'me suis khabta j'ai un peu tisé J'regrette Tony et Petit Zé, j'frappe mieux que Cissé, applaudissez Moi J'suis traumatisé la liberté j'm'en vais attiser En allant au parloir avec le trou d'balle Nivéatisé, stressé En cabine j'coffre puis j'décoffre quand j'suis en lulle-cé J'ai frolé l'ulcère fuck le commissaire j'rappe la misère Un ient-cli tu veux qu'il revienne ? Ben ça dépend que de comment tu l'serres Ah ya sah ! Dans l'secteur y'a que des hyènes Sors moi un pilon et une dorhane nan j'rappe pas pour les tahanes En pleine période de hess celui qui veut m'teste j'pourrais l'dahass Younes teh Belleville, j'suis né sous l'parvis j'représente Paris Elle est stressante ma vie, attendez qu'j'vous présente Marvin La mort m'suit depuis que j'ai fait mes premiers pas On est jamais mieux servi que par sa mère ne vous méprenez pas Mon seul pote c'est mon porte feuille, j'ai appris ça à ma première paye J'roulais déjà des gros 2 feuilles avant de rouler ma première pelle Fidèle au fric je me réveille, devant les flics je me rebelle La vie est moche la mort est belle mais le suicide est péché J'me suis dépêché j'ai fini en r'tard comme tout mec pressé Ils ont bloqué ma braguette faudrait une plaquette pour me déstressé Ese à la mairie on leur a d'mandé un terrain d'foot Ils ont refusé on s'est mit à bicrave puis on a ouvert un terrain d'schnouf Demande à Youssouf, au niouf la liberté On s'en va attiser en allant au parloir, avec le trou d'balle Niveatisé Ese, dans les constructions élevées Le juge d'instruction il t'fait ber-tom l'maton ben il est pas là pour t'rel'ver Frisson, incitation à la revendication civile Voyous victime qui se dit à Lagaf' d'avoir fait l'Bigdil Haschisch en nne-to siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kiyif, on s'la kiff dès qu'y a les flics on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics, m'annoncent de l'argent J'rêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chèque, hormis c'putain d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre vers 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'à Biff Tannen J'irai voir l'orphelin j'lui dirai c'est pas ta mère ces tanneurs Malheur ! Faut juste une balle car nan on est pas des mecs qui tractent ! Golf R32, pneus qui bloquent, vitesse brisée par la lenteur des mecs qui trottent Les mecs ils tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les comptes ronds les millions nous les compterons Ne m'écouteront que les siste-gro pas trop formés sur le goudron On invite les loups-garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sais-tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connu canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte j'pourrais être ton père rien à perdre Quand je braque faut qu'sa raque shab le tabac tah Auber Quand pour être franc j'suis çais-fran mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon qu'à fermer la porte de ma cellule Demain c'est loin demain c'est nul sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune d'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Chirac bah comptez pas sur lui Demain dès l'aube à l'heure où blanchie la campagne on partira Où ça ? Oh pas très loin car pour l'instant y'a pas d'dirhams Si t'as pas tu mendieras si t'aimes pas tu mentiras Des nouvelles tu m'en diras j'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a volé tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, notre profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécir Dans ma grotte il reste un peu d'rhum pour faire du foin Bye Bye j'le fais à une main parce que demain c'est loin Mon colonel c'est pas Fabien j'écoute pas c'que les gens disent Là j'recherche une fille bien pour faire passer d'la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préférerais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dédi ouais j'en place une big à Landry Fais pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Élise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, j'ai pas de Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups ont la haine la crim' a honte 19ème c'est auch là, tout le monde recherche La Clim à Ourcq Quand les keufs vont à la chasse nous comme des bêtes on court Les médias salissent l'islam on encule la race à Bettancourt Ils ont comparé le foulard 7echek avec une serpillière Faudrait qu'on apprenne l'escrime avec un citron et une petite cuillère ...You might also like</t>
+          <t>Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Be-be-be-be-be-be-be-be-Belleville Pour l'bétisier, j'me suis khabta j'ai un peu tisé J'regrette Tony et Petit Zé, j'frappe mieux que Cissé, applaudissez Moi J'suis traumatisé la liberté j'm'en vais attiser En allant au parloir avec le trou d'balle Nivéatisé, stressé En cabine j'coffre puis j'décoffre quand j'suis en lulle-cé J'ai frolé l'ulcère fuck le commissaire j'rappe la misère Un ient-cli tu veux qu'il revienne ? Ben ça dépend que de comment tu l'serres Ah ya sah ! Dans l'secteur y'a que des hyènes Sors moi un pilon et une dorhane nan j'rappe pas pour les tahanes En pleine période de hess celui qui veut m'teste j'pourrais l'dahass Younes teh Belleville, j'suis né sous l'parvis j'représente Paris Elle est stressante ma vie, attendez qu'j'vous présente Marvin La mort m'suit depuis que j'ai fait mes premiers pas On est jamais mieux servi que par sa mère ne vous méprenez pas Mon seul pote c'est mon porte feuille, j'ai appris ça à ma première paye J'roulais déjà des gros 2 feuilles avant de rouler ma première pelle Fidèle au fric je me réveille, devant les flics je me rebelle La vie est moche la mort est belle mais le suicide est péché J'me suis dépêché j'ai fini en r'tard comme tout mec pressé Ils ont bloqué ma braguette faudrait une plaquette pour me déstressé Ese à la mairie on leur a d'mandé un terrain d'foot Ils ont refusé on s'est mit à bicrave puis on a ouvert un terrain d'schnouf Demande à Youssouf, au niouf la liberté On s'en va attiser en allant au parloir, avec le trou d'balle Niveatisé Ese, dans les constructions élevées Le juge d'instruction il t'fait ber-tom l'maton ben il est pas là pour t'rel'ver Frisson, incitation à la revendication civile Voyous victime qui se dit à Lagaf' d'avoir fait l'Bigdil Haschisch en nne-to siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kiyif, on s'la kiff dès qu'y a les flics on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics, m'annoncent de l'argent J'rêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chèque, hormis c'putain d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre vers 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'à Biff Tannen J'irai voir l'orphelin j'lui dirai c'est pas ta mère ces tanneurs Malheur ! Faut juste une balle car nan on est pas des mecs qui tractent ! Golf R32, pneus qui bloquent, vitesse brisée par la lenteur des mecs qui trottent Les mecs ils tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les comptes ronds les millions nous les compterons Ne m'écouteront que les siste-gro pas trop formés sur le goudron On invite les loups-garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sais-tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connu canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte j'pourrais être ton père rien à perdre Quand je braque faut qu'sa raque shab le tabac tah Auber Quand pour être franc j'suis çais-fran mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon qu'à fermer la porte de ma cellule Demain c'est loin demain c'est nul sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune d'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Chirac bah comptez pas sur lui Demain dès l'aube à l'heure où blanchie la campagne on partira Où ça ? Oh pas très loin car pour l'instant y'a pas d'dirhams Si t'as pas tu mendieras si t'aimes pas tu mentiras Des nouvelles tu m'en diras j'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a volé tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, notre profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécir Dans ma grotte il reste un peu d'rhum pour faire du foin Bye Bye j'le fais à une main parce que demain c'est loin Mon colonel c'est pas Fabien j'écoute pas c'que les gens disent Là j'recherche une fille bien pour faire passer d'la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préférerais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dédi ouais j'en place une big à Landry Fais pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Élise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, j'ai pas de Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups ont la haine la crim' a honte 19ème c'est auch là, tout le monde recherche La Clim à Ourcq Quand les keufs vont à la chasse nous comme des bêtes on court Les médias salissent l'islam on encule la race à Bettancourt Ils ont comparé le foulard 7echek avec une serpillière Faudrait qu'on apprenne l'escrime avec un citron et une petite cuillère ...</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Demande à mon pote Souris on rêve tous dun monde meilleur Je me sens comme une fourmi quand je vois la grandeur du Seigneur Je suis comme la chèvre de Monsieur Seguin dahwa je kifferai gambader Jaimerais toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que le chameau il critique le dromadaire Jai lil du tigre et autour du cou jai ma panthère Cest Mister Y.O. tu connais la suite Là je suis au Sofitel, tigresse tu connais ma suite Toi pourquoi tu fais lours, pourquoi thibernes, pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Je suis Dans Ma Grotte et comme Sopra je suis La Colombe et Le Corbeau Je leur ai dit ce que je voulais que du platine et que de lor gros Dans le pe-ra, jai létiquette du traficante Mais je me sens chez moi comme un serpent à que mala Grande Tout ce que je sais cest quil faut briser les chaînes Et que vaut mieux rester en chien que de se comporter comme une chienne Face aux hyènes faut être un loup, on nest pas nés dans un chou Face aux renards faut être lun de nous, Woo GATA-ZOO A lécole je marchais tordu, mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story You might also like Tu sais jai le pédigrée des Comores mais cest un coq qui me tient la laisse Jai fait du rap pour mieux aboyer mes S.O.S Lécole na jamais su me domestiquer Javais la rage et seule ma fille a su me piquer Pour les maths javais une mémoire de poisson Je pêchais car lappât du gain a les plus beaux hameçons Je suis un rat des villes pas dun laboratoire Un lapin qui dit quaucune louve me changera en canard Le daron a quitté le bled pour une souricière Cest pour ça que dans mon cur y'a des ours polaires Dans le rap je suis un caméléon Je madapte à tout, un renard des surfaces, un Campéon Un éléphant dans une fourmilière Tu verras un cheval cabré sur le capot de ma carrière Ici cest croco ou Louis Vuitton Ça fait pas le mouton pour ne pas filer du mauvais coton Nan laisse moi dans ma jungle je veux pas de ton Zoo Nan je veux pas de ton liquide pour faire l'odo Nan jai la même savane que Noah Pour me connaitre viens dans mon arche de Noé Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story Tous en chien dans nos têtes cest la hass P.A On est tous en chien dans nos têtes cest la hass P.A Toujours en chien dans nos têtes cest la hass P.A Animal Story on vous parle de respect Haaa ! Tous en chien dans nos têtes cest la hass P.A On est tous en chien dans nos têtes cest la hass P.A Toujours en chien dans nos têtes cest la hass P.A Animal Story on vous parle de respect HHAAAA !!!!!!!!!! Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story2</t>
+          <t>Demande à mon pote Souris on rêve tous dun monde meilleur Je me sens comme une fourmi quand je vois la grandeur du Seigneur Je suis comme la chèvre de Monsieur Seguin dahwa je kifferai gambader Jaimerais toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que le chameau il critique le dromadaire Jai lil du tigre et autour du cou jai ma panthère Cest Mister Y.O. tu connais la suite Là je suis au Sofitel, tigresse tu connais ma suite Toi pourquoi tu fais lours, pourquoi thibernes, pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Je suis Dans Ma Grotte et comme Sopra je suis La Colombe et Le Corbeau Je leur ai dit ce que je voulais que du platine et que de lor gros Dans le pe-ra, jai létiquette du traficante Mais je me sens chez moi comme un serpent à que mala Grande Tout ce que je sais cest quil faut briser les chaînes Et que vaut mieux rester en chien que de se comporter comme une chienne Face aux hyènes faut être un loup, on nest pas nés dans un chou Face aux renards faut être lun de nous, Woo GATA-ZOO A lécole je marchais tordu, mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story Tu sais jai le pédigrée des Comores mais cest un coq qui me tient la laisse Jai fait du rap pour mieux aboyer mes S.O.S Lécole na jamais su me domestiquer Javais la rage et seule ma fille a su me piquer Pour les maths javais une mémoire de poisson Je pêchais car lappât du gain a les plus beaux hameçons Je suis un rat des villes pas dun laboratoire Un lapin qui dit quaucune louve me changera en canard Le daron a quitté le bled pour une souricière Cest pour ça que dans mon cur y'a des ours polaires Dans le rap je suis un caméléon Je madapte à tout, un renard des surfaces, un Campéon Un éléphant dans une fourmilière Tu verras un cheval cabré sur le capot de ma carrière Ici cest croco ou Louis Vuitton Ça fait pas le mouton pour ne pas filer du mauvais coton Nan laisse moi dans ma jungle je veux pas de ton Zoo Nan je veux pas de ton liquide pour faire l'odo Nan jai la même savane que Noah Pour me connaitre viens dans mon arche de Noé Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story Tous en chien dans nos têtes cest la hass P.A On est tous en chien dans nos têtes cest la hass P.A Toujours en chien dans nos têtes cest la hass P.A Animal Story on vous parle de respect Haaa ! Tous en chien dans nos têtes cest la hass P.A On est tous en chien dans nos têtes cest la hass P.A Toujours en chien dans nos têtes cest la hass P.A Animal Story on vous parle de respect HHAAAA !!!!!!!!!! Lhomme est le plus grand des prédateurs viens vite écouter notre Animal Story Y'a trop de charognes qui tournent autour des nôtres ma parole cest Animal Story Bienvenu là où cohabitent les hyènes, les loups et les lions Animal Story Story, Story Animal Story2</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C'est toute l'Afrique qui va te faire mal x3 Fuck le rap fini de s'amuser Votre public j'vais le sodomiser Qui plus est j'vais lui niquer sa mère Juste pour tous mes frères en lule-cé J'suis toujours sur l'banc des accusés Vaut mieux être ancien qu'usé Le cognac se boit cul sec Le monde il part en sucette Ça passe d'la coke à l'héro Tes fréros t'fument après l'apéro Le terrain génère trop d'zéro T'es mort dans l'film t'as cru t'étais le héros Clervo va pt'être bientôt fermer Toi t'as cru que tu ne tournerais pas T'as cru que la rue allait te nourrir Mais c'est toi qui lui sert de repas J'ai grandi en bas grillé j'me rends pas vrai comme les rent-pa Elle est pire que khatar la bomba Chez nous ça suce pas non non ça pompe pas J'suis pas pumba j'suis timon Batard j'te crache dessus wesh tino En gardav' j'ai pas dit d'noms J'ai pas dit oui, j'ai pas dit non, j'ai pas dit peut être J'ai dit juste j'te baise petit fils de putain de procureur J'retournerai jamais ma veste, quitte à vivre l'horreur Demande à Renaud qui est Manu Demande à Renaud qui est Manu Treize, quatorze, quinze ans sans parlu Wesh l'histoire est-ce que tu l'a relue C'est la Palestine c'est la guerre à manu Fuck Tony, fuck Manny Versace, Dior, Louis Vuitton, Armani Maroc, Algérie, Sénégal, Mali L'amour m'affaiblit mais la haine m'anime You might also like C'est toute l'Afrique qui va te faire mal x9 Maroc, Algérie, Gambie, Sénégal C'est toute l'Afrique qui va te faire mal Ça bicrave la drogue comme si c'était légal C'est toute l'Afrique qui va te faire mal J'rap pour mes frères au placard C'est toute l'Afrique qui va te faire mal Palestine et fuck les hagar3</t>
+          <t>C'est toute l'Afrique qui va te faire mal x3 Fuck le rap fini de s'amuser Votre public j'vais le sodomiser Qui plus est j'vais lui niquer sa mère Juste pour tous mes frères en lule-cé J'suis toujours sur l'banc des accusés Vaut mieux être ancien qu'usé Le cognac se boit cul sec Le monde il part en sucette Ça passe d'la coke à l'héro Tes fréros t'fument après l'apéro Le terrain génère trop d'zéro T'es mort dans l'film t'as cru t'étais le héros Clervo va pt'être bientôt fermer Toi t'as cru que tu ne tournerais pas T'as cru que la rue allait te nourrir Mais c'est toi qui lui sert de repas J'ai grandi en bas grillé j'me rends pas vrai comme les rent-pa Elle est pire que khatar la bomba Chez nous ça suce pas non non ça pompe pas J'suis pas pumba j'suis timon Batard j'te crache dessus wesh tino En gardav' j'ai pas dit d'noms J'ai pas dit oui, j'ai pas dit non, j'ai pas dit peut être J'ai dit juste j'te baise petit fils de putain de procureur J'retournerai jamais ma veste, quitte à vivre l'horreur Demande à Renaud qui est Manu Demande à Renaud qui est Manu Treize, quatorze, quinze ans sans parlu Wesh l'histoire est-ce que tu l'a relue C'est la Palestine c'est la guerre à manu Fuck Tony, fuck Manny Versace, Dior, Louis Vuitton, Armani Maroc, Algérie, Sénégal, Mali L'amour m'affaiblit mais la haine m'anime C'est toute l'Afrique qui va te faire mal x9 Maroc, Algérie, Gambie, Sénégal C'est toute l'Afrique qui va te faire mal Ça bicrave la drogue comme si c'était légal C'est toute l'Afrique qui va te faire mal J'rap pour mes frères au placard C'est toute l'Afrique qui va te faire mal Palestine et fuck les hagar3</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ils s'demandent tous pour marrêter x2 Ils s'demandent tous pour marrêter ils vont faire comment J'pars en tournée j'gagne de quoi acheter un appartement Ceux qui m'boycottent, laisses-les parler J'connais plus personne, et même sans Harley Je fume un peu plus que Bob Marley Si t'as fait le million tbarek lah 3lik Quand j'suis dans le périph, pépère j'accélère Quand j'suis dans l'Rif j'négocie l'fellah Sur le rap français j'suis toujours défoncé Dans la chambre de ses rents-pa en train de lui niquer sa mère Des chèques et des chèques, putain d'salaire Lahsa levrettes, que des fesses en l'air Lil du tigre comme le p'tit Salah Elle me capte au bled mieux qu'Itisalat Fais pas shab tu baises, arrêtes tes salades J'ai mon sept ma sacoche en solo j'me balade Armé d'un ck-glo j'croise Barracuda Quand y'a plus d'conso, c'est l'Maroc ou 'dam Ougatagaa ougatagaa Rolls Royce, Jaguar, Mercedes, BM En bas d'la pente on remonte la gège J'rêve que d'liasses, de palace, de tigresses et de chiennes Être ce putain de billet de 500 Tous lookés, regard menaçant Tourner en promenade J'aimerais ne plus avoir à faire ça J'aimerais que la juge me tape une lehsa Si tu veux la paix n'oublie jamais qu'il faut faire le guerre Sors ton schlass, ton automatique ou ton révolver Et n'hésite pas, n'hésite n'hésite pas N'hésite n'hésite pas non n'hésite pas N'hésite n'hésite pas x2 You might also like Là il se fait tard , et j'suis dans ma chambre Y'a marqué Ruinart, sur la bouteille de Champ' Fuck tous ces bâtards, qui s'demandent pourquoi je chante Pourquoi j'fais du gent-ar, ou pourquoi j'leur écarte les jambes Le micro j'lui encule sa mère J'lui rentre un grand pied dans l'zemer Ensuite pépère j'encaisse des gros chèques Et vrrra j'me barre au bord de la mer Des fois j'ai envie de m'envoler dans un putain de jet privé C'est vrai que quand t'as plus de lovés Les gens ont tendance à s'esquiver 7.5 ma gueule tu m'connais bien ouais ouais Une grosse rafale dans ta mère si tu fais le malin 7.5 ma gueule tu m'connais bien ouais ouais Une grosse rafale dans ta grand-mère la putain Être ce putain de billet de 500 Tous lookés, regard menaçant Tournes en promenade J'aimerais ne plus avoir à faire ça J'aimerais que la juge me tape une lehsa Si tu veux la paix n'oublie jamais qu'il faut faire le guerre Sors ton schlass, ton automatique ou ton révolver Et n'hésite pas, n'hésite n'hésite pas N'hésite n'hésite pas non n'hésite pas N'hésite n'hésite pas x22</t>
+          <t>Ils s'demandent tous pour marrêter x2 Ils s'demandent tous pour marrêter ils vont faire comment J'pars en tournée j'gagne de quoi acheter un appartement Ceux qui m'boycottent, laisses-les parler J'connais plus personne, et même sans Harley Je fume un peu plus que Bob Marley Si t'as fait le million tbarek lah 3lik Quand j'suis dans le périph, pépère j'accélère Quand j'suis dans l'Rif j'négocie l'fellah Sur le rap français j'suis toujours défoncé Dans la chambre de ses rents-pa en train de lui niquer sa mère Des chèques et des chèques, putain d'salaire Lahsa levrettes, que des fesses en l'air Lil du tigre comme le p'tit Salah Elle me capte au bled mieux qu'Itisalat Fais pas shab tu baises, arrêtes tes salades J'ai mon sept ma sacoche en solo j'me balade Armé d'un ck-glo j'croise Barracuda Quand y'a plus d'conso, c'est l'Maroc ou 'dam Ougatagaa ougatagaa Rolls Royce, Jaguar, Mercedes, BM En bas d'la pente on remonte la gège J'rêve que d'liasses, de palace, de tigresses et de chiennes Être ce putain de billet de 500 Tous lookés, regard menaçant Tourner en promenade J'aimerais ne plus avoir à faire ça J'aimerais que la juge me tape une lehsa Si tu veux la paix n'oublie jamais qu'il faut faire le guerre Sors ton schlass, ton automatique ou ton révolver Et n'hésite pas, n'hésite n'hésite pas N'hésite n'hésite pas non n'hésite pas N'hésite n'hésite pas x2 Là il se fait tard , et j'suis dans ma chambre Y'a marqué Ruinart, sur la bouteille de Champ' Fuck tous ces bâtards, qui s'demandent pourquoi je chante Pourquoi j'fais du gent-ar, ou pourquoi j'leur écarte les jambes Le micro j'lui encule sa mère J'lui rentre un grand pied dans l'zemer Ensuite pépère j'encaisse des gros chèques Et vrrra j'me barre au bord de la mer Des fois j'ai envie de m'envoler dans un putain de jet privé C'est vrai que quand t'as plus de lovés Les gens ont tendance à s'esquiver 7.5 ma gueule tu m'connais bien ouais ouais Une grosse rafale dans ta mère si tu fais le malin 7.5 ma gueule tu m'connais bien ouais ouais Une grosse rafale dans ta grand-mère la putain Être ce putain de billet de 500 Tous lookés, regard menaçant Tournes en promenade J'aimerais ne plus avoir à faire ça J'aimerais que la juge me tape une lehsa Si tu veux la paix n'oublie jamais qu'il faut faire le guerre Sors ton schlass, ton automatique ou ton révolver Et n'hésite pas, n'hésite n'hésite pas N'hésite n'hésite pas non n'hésite pas N'hésite n'hésite pas x22</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mali ya mali, ma-ma-ma-mali ya mali Ma-ma-ma-mali ya mali, mali ya mali Mali w mali w mali O'jibo jawi Cha'alo Lmejmar, Baghi Ntbekher A'samawi A'lah ydawi, wa'ws'hab l'haal Wamali ya mali w mali w mali O'jibo jawi Cha'alou lmejmar baghi ntbekher A'samawi wa lah ydawi, A'ws'hab l'haal O'Awdo Lmkoom,O'baraka men tberguig F'Fransa tl'ka lghebra khouya Kima tel'ka dguig Hahowa lik albniya lay hdik Bghiti lmotor manjiboch lik Ra ratmchi a'la rejlik Wa l'hamka khas tchri dwa bach ybra lmarmd li fik Sbah dezt f derb kan M'amer ghi B les flics Wlad l'hrem mabrawch ykhliwna n'ichoo Kima ngolo h'naya zmagriya khooya c'est chaud La nadet fik lfara ankhli dar bo mok Ana weld Casa' Kho hadchi a'lach dima mbowek Sa'ha Thug Life, S'hab joj Pakiyat Ana nakhod lfrada, nta b9a tl'ab bel popiyate Nmoot A'la H'kayat bari nt'kada men Columbia Li khrej men L'Aroubiya a'mro maychbe'a b'lobiya Kolshi belmektob kolchi me'htot felktoob Baraka blekdoob galsin ghi blekdoob f drooba You might also like Ha, haBaraka men tberguig o baraka men lkdob ya wlad LH'ram1</t>
+          <t>Mali ya mali, ma-ma-ma-mali ya mali Ma-ma-ma-mali ya mali, mali ya mali Mali w mali w mali O'jibo jawi Cha'alo Lmejmar, Baghi Ntbekher A'samawi A'lah ydawi, wa'ws'hab l'haal Wamali ya mali w mali w mali O'jibo jawi Cha'alou lmejmar baghi ntbekher A'samawi wa lah ydawi, A'ws'hab l'haal O'Awdo Lmkoom,O'baraka men tberguig F'Fransa tl'ka lghebra khouya Kima tel'ka dguig Hahowa lik albniya lay hdik Bghiti lmotor manjiboch lik Ra ratmchi a'la rejlik Wa l'hamka khas tchri dwa bach ybra lmarmd li fik Sbah dezt f derb kan M'amer ghi B les flics Wlad l'hrem mabrawch ykhliwna n'ichoo Kima ngolo h'naya zmagriya khooya c'est chaud La nadet fik lfara ankhli dar bo mok Ana weld Casa' Kho hadchi a'lach dima mbowek Sa'ha Thug Life, S'hab joj Pakiyat Ana nakhod lfrada, nta b9a tl'ab bel popiyate Nmoot A'la H'kayat bari nt'kada men Columbia Li khrej men L'Aroubiya a'mro maychbe'a b'lobiya Kolshi belmektob kolchi me'htot felktoob Baraka blekdoob galsin ghi blekdoob f drooba Ha, haBaraka men tberguig o baraka men lkdob ya wlad LH'ram1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ouais ouais ouais ouais ouais Misteryougataga ! Pré-pré-présumé coupable dahwa ! Eh dites bien à la police que moi j'aime pas trop c'qui est lisse et que j'préfere la peau rigide J'sais pas c'est pas de ma faute c'est p'têtre dù à mes origines J'ai des soucis j'maigris on m'dit you bsahtek le régime Allez viens j'te paye un verre tu m'rendras une bouteille chez Regine C'est pour ça que j'refuse tout aide, qu'a cette heure ci j'ai envie de tout dead Ouais 10 Paris-Marseille nan nan il valent pas Raja-Widad ! Le crâne contre l'appui tête ou le pied collé au plancher Les mecs comme moi, 340 s'en battent les couille de s'faire flasher Bah ouais ils ont même plus l'permis ils ont même plus d'pièce d'identité Train de vie d'un hermite le wagon de mort d'un acquitté Yougataga mes concurrents sentent la patate J'suis présumé coupable, darwa j'suis un peu comme Omar Addad Raie aie aie j'lui baise sa mère le rap francais J'vous l'ai deja dit m'en bats les couilles d'savoir c'que vous pensez Niquez vos mères les traitres j'vous becte comme des fricassés Représente Belleville obligé de dédicacer Eh c'est carnage jcompte arriver comme Marlo Sur le rain-té sans sucer nique leur mères ces narvalos Yougataga la famille on crie toujours famine Rap de vermine sans voir le film ouais t'sais comment ça se termine Aux assiettes, mandat de depot 45 jours au tar-mi Quand ta trop le djou3r faim les fils de putes ils t'offrent pas d'marmitte Non ils te laissent crever la dalle comme un somalien TION et sans protocole téma comment ils sont malins Quand on roule des sdah bah les bâtards esquissent des frontières On voulais bâtir l'avenir mais eux ils l'avaient déjà fait avant hier Ye sah jsui peut-être pas très intelligent Mais j'préfère courir à ma perte que de galoper derrière les gens Nique les gendarmes les traîtres et boycotteurs Pour faire swinger leur daronnes bah pas besoin d'un vocodeur Il m'faut une feuille, du feu, une clope, un verre, une prod tah Wisla Du shit la viens goutte lahuiss là, un p'tit bloc de tipisla Zoogatammmmouaaaaaaah la familia Moi quand j'rentre dans la porcherie ben j'tire sur tous les porcs qu'il y a ! You might also like Wallah N'importe qui ! N'importe quand ! N'importe où !1</t>
+          <t>Ouais ouais ouais ouais ouais Misteryougataga ! Pré-pré-présumé coupable dahwa ! Eh dites bien à la police que moi j'aime pas trop c'qui est lisse et que j'préfere la peau rigide J'sais pas c'est pas de ma faute c'est p'têtre dù à mes origines J'ai des soucis j'maigris on m'dit you bsahtek le régime Allez viens j'te paye un verre tu m'rendras une bouteille chez Regine C'est pour ça que j'refuse tout aide, qu'a cette heure ci j'ai envie de tout dead Ouais 10 Paris-Marseille nan nan il valent pas Raja-Widad ! Le crâne contre l'appui tête ou le pied collé au plancher Les mecs comme moi, 340 s'en battent les couille de s'faire flasher Bah ouais ils ont même plus l'permis ils ont même plus d'pièce d'identité Train de vie d'un hermite le wagon de mort d'un acquitté Yougataga mes concurrents sentent la patate J'suis présumé coupable, darwa j'suis un peu comme Omar Addad Raie aie aie j'lui baise sa mère le rap francais J'vous l'ai deja dit m'en bats les couilles d'savoir c'que vous pensez Niquez vos mères les traitres j'vous becte comme des fricassés Représente Belleville obligé de dédicacer Eh c'est carnage jcompte arriver comme Marlo Sur le rain-té sans sucer nique leur mères ces narvalos Yougataga la famille on crie toujours famine Rap de vermine sans voir le film ouais t'sais comment ça se termine Aux assiettes, mandat de depot 45 jours au tar-mi Quand ta trop le djou3r faim les fils de putes ils t'offrent pas d'marmitte Non ils te laissent crever la dalle comme un somalien TION et sans protocole téma comment ils sont malins Quand on roule des sdah bah les bâtards esquissent des frontières On voulais bâtir l'avenir mais eux ils l'avaient déjà fait avant hier Ye sah jsui peut-être pas très intelligent Mais j'préfère courir à ma perte que de galoper derrière les gens Nique les gendarmes les traîtres et boycotteurs Pour faire swinger leur daronnes bah pas besoin d'un vocodeur Il m'faut une feuille, du feu, une clope, un verre, une prod tah Wisla Du shit la viens goutte lahuiss là, un p'tit bloc de tipisla Zoogatammmmouaaaaaaah la familia Moi quand j'rentre dans la porcherie ben j'tire sur tous les porcs qu'il y a ! Wallah N'importe qui ! N'importe quand ! N'importe où !1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Quand on était petit, on en a fait des conneries... J'en ai tiré des sacs, des portefeuilles... Mais j'ai jamais volé dans celui de mes rents-pa Trop de principes da3wa, wougataga mon 'soss ! En voulant acheter c'qu'est superflu, on finit par vendre c'qu'est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le désert Je paranoïe, mais pour qui der la liberté vaut l'or du monde Comme on dit perd un il, là tu verras la valeur de l'autre Avant de lui dire je t'aime, faut vérifier que c'est pas un v'lo-tr' Même certains prophètes furent trahis par leurs propres apôtres Quand on était petit en direction du casse-pipe On s'était dit rendez-vous dans 10 ans dans le bureau de la SPIP On était tout petit mais on avait déjà des principes Pour trouver l'appétit on fumait en écoutant de la 'sique Sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa, ici-bas personne te donne à manger Chaque chose en son temps avant de brasser, faut savoir nager A part ça à l'école, hé bah on n'était pas si te-bê qu'ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa Quand t'es petit khey la vie c'est meilleur Quand on était petit avec mes 'soss, 's'en est passé des choses ma3 Les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils t'disent pas pardon, demain ils t'diront nique ta mère monsieur You might also like Quand t'es petit, pas besoin de fumer la nuit pour dormir Amnésia, VodkaRedbull aujourd'hui, c'est l'yop qui m'fait vomir Au bac à sable, y'avait des alligators 20 piges plus tard, dans la jungle, la même cicatrice qu'Albator Quand t'es petit khey la vie c'est meilleur Je mattais Tom Sayer, j'avais peur d'Joe l'Indien, j'étais pas un voleur Quand j'étais petit c'était taboulameumeu Ligne blanche dans le boule, rien qu'elle s'poudre le nez ta feu-meu En coste-la, on danse la funk sur du Shalamar Avant Nessbeal, y'avait Nabil banlieusard avec son 34 Au shtar, comme les 34 de mes potes, on a grandi Ça prépare les plans au square, khey, un destin d'bandit Quand j'étais petit, le goûter c'était du msemmen Aujourd'hui c'est la crise, j'ai l'seum, parano, rien qu'ça 5emem, khey Aujourd'hui je suis grand, je rigole moins qu'avant Présumé coupable dans le cartable, génération Ken le survivant x2 Quand t'es petit khey la vie c'est meilleur Quand on était petit avec mes 'soce, 's'en est passé des choses ma3 Les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils te disent pas pardon, demain ils t'diront nique ta mère monsieur On fait que lutter depuis le début ta3 notre existence Le vice commence par une morale, donc garde tes distances A peine 13 ans, tu te mets à bicrave tout genre de substance 10 piges après, quand y t'ont pété, c'est là que les stup dansent</t>
+          <t>Quand on était petit, on en a fait des conneries... J'en ai tiré des sacs, des portefeuilles... Mais j'ai jamais volé dans celui de mes rents-pa Trop de principes da3wa, wougataga mon 'soss ! En voulant acheter c'qu'est superflu, on finit par vendre c'qu'est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le désert Je paranoïe, mais pour qui der la liberté vaut l'or du monde Comme on dit perd un il, là tu verras la valeur de l'autre Avant de lui dire je t'aime, faut vérifier que c'est pas un v'lo-tr' Même certains prophètes furent trahis par leurs propres apôtres Quand on était petit en direction du casse-pipe On s'était dit rendez-vous dans 10 ans dans le bureau de la SPIP On était tout petit mais on avait déjà des principes Pour trouver l'appétit on fumait en écoutant de la 'sique Sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa, ici-bas personne te donne à manger Chaque chose en son temps avant de brasser, faut savoir nager A part ça à l'école, hé bah on n'était pas si te-bê qu'ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa Quand t'es petit khey la vie c'est meilleur Quand on était petit avec mes 'soss, 's'en est passé des choses ma3 Les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils t'disent pas pardon, demain ils t'diront nique ta mère monsieur Quand t'es petit, pas besoin de fumer la nuit pour dormir Amnésia, VodkaRedbull aujourd'hui, c'est l'yop qui m'fait vomir Au bac à sable, y'avait des alligators 20 piges plus tard, dans la jungle, la même cicatrice qu'Albator Quand t'es petit khey la vie c'est meilleur Je mattais Tom Sayer, j'avais peur d'Joe l'Indien, j'étais pas un voleur Quand j'étais petit c'était taboulameumeu Ligne blanche dans le boule, rien qu'elle s'poudre le nez ta feu-meu En coste-la, on danse la funk sur du Shalamar Avant Nessbeal, y'avait Nabil banlieusard avec son 34 Au shtar, comme les 34 de mes potes, on a grandi Ça prépare les plans au square, khey, un destin d'bandit Quand j'étais petit, le goûter c'était du msemmen Aujourd'hui c'est la crise, j'ai l'seum, parano, rien qu'ça 5emem, khey Aujourd'hui je suis grand, je rigole moins qu'avant Présumé coupable dans le cartable, génération Ken le survivant x2 Quand t'es petit khey la vie c'est meilleur Quand on était petit avec mes 'soce, 's'en est passé des choses ma3 Les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils te disent pas pardon, demain ils t'diront nique ta mère monsieur On fait que lutter depuis le début ta3 notre existence Le vice commence par une morale, donc garde tes distances A peine 13 ans, tu te mets à bicrave tout genre de substance 10 piges après, quand y t'ont pété, c'est là que les stup dansent</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ouais, mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie Ouais, mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie J'ai trop fait d'passe dé', maintenant, c'est l'heure de marquer Nabz, nigga, what's up ? Eh J'fume que la frappe de la frappe, mes chicots étaient jaunis J'ai vu qu'la mort était sale et qu'la haine était jolie ah Au comico, j'suis cramé, j'ai toujours la rage, je nie Marche à l'envers dans ma tête mais je n'ai pas rajeuni brah On va t'la mettre dans l'crâne, on va pas viser le péroné Les daronnes cherchent du taff, les enfants sont partis voler J'vais tous leur chier dessus après l'café du p'tit déjeuner J'arrêterai l'rap, promis, quand les 3amis iront jeuner M'en bats les cojones, minuit sur la Rolex Vous connaissez Youness en shit, en chair, en espèce Crois pas qu'on en fait trop, l'dahwa, c'est que du gras On connaît plus l'métro, c'est le rap du 6 litres 3 vroum, vroum Les souvenirs d'enfance, shit, beuh, coke, crack Belleville, Place D, Barbès, Stalingrad ouais, ouais Perquisition, les condés qui t'braquent Déposition, on n'se connaît as-p Aux arrivants des ges-sh', j'ai des frères qui craquent Intervention les hesses qui t'plaquent Le mitard, la hess, même pas un Kit Kat Arriver au cachot, c'est tous les plans qui s'gâtent You might also like Faut faire belek, aux mossos, chez nous, on rate pas les occas' On joue comme des cas soc', on laisse des baraques occas' Ça vend résine et coca', du whisky et du Coca Quand ça sort le 11K, c'est pas pour faire un cocard Tapis dans l'noir, t'as tout mis sur un Tokar' Ta femme t'attend, c'est parti pour les bobards Les enfants témoins pourront pas faire leurs devoirs C'est l'histoire de la vie, j'vous raconte c'que j'ai pu voir Je rêve, je désire voir le monde entier C'est Jean-Michel Bazire qui a ruiné l'quartier Des saphirs de diams, des parures Cartier Dans la rue quand tu tombes, y a pas d'brancardier J'ai envie d'tirer une taffe avant qu'vous n'partiez C'est pour le CJD, la MAF et le Grand Quartier Chez moi, quand tu dors, tu peux t'faire smatcher J'veux du Louis Vuitton, du Dior et du Versace brah Les souvenirs d'enfance, shit, beuh, coke, crack Belleville, Place D, Barbès, Stalingrad ouais, ouais Perquisition, les condés qui t'braquent Déposition, on n'se connaît as-p Aux arrivants des ges-sh', j'ai des frères qui craquent Intervention les hesses qui t'plaquent Le mitard, la hess, même pas un Kit Kat Arriver au cachot, c'est tous les plans qui s'gâtent On veut d'la maille, on veut d'la maille On veut d'la maille, on veut d'la maille Bien sûr que non, j'ai pas changé Bien sûr que oui, j'aime le danger Aujourd'hui, tu les fais manger Demain, personne viendra t'venger Ouh, yeah, yeah T'es pas d'la famille Ouais mon ami, t'es pas d'la famille Ouais mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie</t>
+          <t>Ouais, mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie Ouais, mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie J'ai trop fait d'passe dé', maintenant, c'est l'heure de marquer Nabz, nigga, what's up ? Eh J'fume que la frappe de la frappe, mes chicots étaient jaunis J'ai vu qu'la mort était sale et qu'la haine était jolie ah Au comico, j'suis cramé, j'ai toujours la rage, je nie Marche à l'envers dans ma tête mais je n'ai pas rajeuni brah On va t'la mettre dans l'crâne, on va pas viser le péroné Les daronnes cherchent du taff, les enfants sont partis voler J'vais tous leur chier dessus après l'café du p'tit déjeuner J'arrêterai l'rap, promis, quand les 3amis iront jeuner M'en bats les cojones, minuit sur la Rolex Vous connaissez Youness en shit, en chair, en espèce Crois pas qu'on en fait trop, l'dahwa, c'est que du gras On connaît plus l'métro, c'est le rap du 6 litres 3 vroum, vroum Les souvenirs d'enfance, shit, beuh, coke, crack Belleville, Place D, Barbès, Stalingrad ouais, ouais Perquisition, les condés qui t'braquent Déposition, on n'se connaît as-p Aux arrivants des ges-sh', j'ai des frères qui craquent Intervention les hesses qui t'plaquent Le mitard, la hess, même pas un Kit Kat Arriver au cachot, c'est tous les plans qui s'gâtent Faut faire belek, aux mossos, chez nous, on rate pas les occas' On joue comme des cas soc', on laisse des baraques occas' Ça vend résine et coca', du whisky et du Coca Quand ça sort le 11K, c'est pas pour faire un cocard Tapis dans l'noir, t'as tout mis sur un Tokar' Ta femme t'attend, c'est parti pour les bobards Les enfants témoins pourront pas faire leurs devoirs C'est l'histoire de la vie, j'vous raconte c'que j'ai pu voir Je rêve, je désire voir le monde entier C'est Jean-Michel Bazire qui a ruiné l'quartier Des saphirs de diams, des parures Cartier Dans la rue quand tu tombes, y a pas d'brancardier J'ai envie d'tirer une taffe avant qu'vous n'partiez C'est pour le CJD, la MAF et le Grand Quartier Chez moi, quand tu dors, tu peux t'faire smatcher J'veux du Louis Vuitton, du Dior et du Versace brah Les souvenirs d'enfance, shit, beuh, coke, crack Belleville, Place D, Barbès, Stalingrad ouais, ouais Perquisition, les condés qui t'braquent Déposition, on n'se connaît as-p Aux arrivants des ges-sh', j'ai des frères qui craquent Intervention les hesses qui t'plaquent Le mitard, la hess, même pas un Kit Kat Arriver au cachot, c'est tous les plans qui s'gâtent On veut d'la maille, on veut d'la maille On veut d'la maille, on veut d'la maille Bien sûr que non, j'ai pas changé Bien sûr que oui, j'aime le danger Aujourd'hui, tu les fais manger Demain, personne viendra t'venger Ouh, yeah, yeah T'es pas d'la famille Ouais mon ami, t'es pas d'la famille Ouais mon ami, t'es pas d'la famille Mec du ghetto balafré par la vie</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Razzy, shit man! Yougataga, 7liwa Qerreb w 7eqq rreb Yougataga, 7liwa Ghanwedder dinmok Yougataga, 7liwa Ma kanddihach f kerri, talga kiloti khanez Je t'aime pas bébé, kanbghi l'euro f bwalez M lb3id katban Superman, tle3ti Catwoman Nta machi roujoula cheftek katlowwen Cheftek lekher cheftek lowel Li kaytnowwa howa li kayt7owwa Wa bouzebal wa bou9elwa Ghenni Mister You wella ghenni L3alwa Ga3 li 3acho m3aya, khoya wellah ma nassi Ga3 li kerhouni, 7ta ana wellah ma nassi Ch7al 7egrouni w maradich Malaga wella Marrakech 7ta ghadi n9otlek 3ad an3ich Viens pas test, garde la pêche You might also like Allo allo, allo allo 3robi fi Bariz, zmagri fi Casa Allo allo, 3robi fi Bariz, zmagri fi Casa 7liwa, Yougataga Appelle la police, appelle la police Allo allo, appelle la police Appelle la police, appelle la 7encha, ah ah Khawa dyali fi Tanja, klahom l7out, ta7o m lflouka 3echrani fi Casa, wellaw beznassa, ta7o f lcoca On a fini f cellule ma bdinah f madaris Kho kandealiw f shit, fuck sa3adet dabit La maradich ana w Yougataga, 3endna skhoun madafich Drahem drahem 7achich Fin howa l7chich? Tba3 m3a lghobra Fin howa l3chir? Mat f lghorba Mat b ssekra, khoya, mat b lghomma Kun gha mat 7dana, kun dfennah f l7ouma Jraw m3ana l'Interpol, 7regna l'visa w passeport S7abi kabrin f Nador, y a qu'Allah qu'on adore Y a qu'Allah qu'on adore, y a qu'Allah qu'on adore Y a qu'Allah qu'on adore, y a qu'Allah qu'on adore Allo allo, allo allo 3robi fi Bariz, zmagri fi Casa Allo allo, 3robi fi Bariz, zmagri fi Casa 7liwa, Yougataga Appelle la police, appelle la police Allo allo, appelle la police Appelle la police, appelle la 7encha, ah ah Chte7na m3akom bla kamanja Cheddina lmektoub kima ja Kherrejna l9ra3i men tellaja Thellina f l7aj w l7ajja Kabrin f lbrouda bla kacha Men Bariz l Oukacha Bo7edna ghadin kantmachaw Lmachakil khednahom kifma jaw Chte7na m3akom bla kamanja Cheddina lmektoub kima ja Kherrejna l9ra3i men tellaja Thellina f l7aj w l7ajja Kabrin f lbrouda bla kacha Men Bariz l Oukacha Bo7edna ghadin kantmachaw Lmachakil khednahom kifma jaw</t>
+          <t>Razzy, shit man! Yougataga, 7liwa Qerreb w 7eqq rreb Yougataga, 7liwa Ghanwedder dinmok Yougataga, 7liwa Ma kanddihach f kerri, talga kiloti khanez Je t'aime pas bébé, kanbghi l'euro f bwalez M lb3id katban Superman, tle3ti Catwoman Nta machi roujoula cheftek katlowwen Cheftek lekher cheftek lowel Li kaytnowwa howa li kayt7owwa Wa bouzebal wa bou9elwa Ghenni Mister You wella ghenni L3alwa Ga3 li 3acho m3aya, khoya wellah ma nassi Ga3 li kerhouni, 7ta ana wellah ma nassi Ch7al 7egrouni w maradich Malaga wella Marrakech 7ta ghadi n9otlek 3ad an3ich Viens pas test, garde la pêche Allo allo, allo allo 3robi fi Bariz, zmagri fi Casa Allo allo, 3robi fi Bariz, zmagri fi Casa 7liwa, Yougataga Appelle la police, appelle la police Allo allo, appelle la police Appelle la police, appelle la 7encha, ah ah Khawa dyali fi Tanja, klahom l7out, ta7o m lflouka 3echrani fi Casa, wellaw beznassa, ta7o f lcoca On a fini f cellule ma bdinah f madaris Kho kandealiw f shit, fuck sa3adet dabit La maradich ana w Yougataga, 3endna skhoun madafich Drahem drahem 7achich Fin howa l7chich? Tba3 m3a lghobra Fin howa l3chir? Mat f lghorba Mat b ssekra, khoya, mat b lghomma Kun gha mat 7dana, kun dfennah f l7ouma Jraw m3ana l'Interpol, 7regna l'visa w passeport S7abi kabrin f Nador, y a qu'Allah qu'on adore Y a qu'Allah qu'on adore, y a qu'Allah qu'on adore Y a qu'Allah qu'on adore, y a qu'Allah qu'on adore Allo allo, allo allo 3robi fi Bariz, zmagri fi Casa Allo allo, 3robi fi Bariz, zmagri fi Casa 7liwa, Yougataga Appelle la police, appelle la police Allo allo, appelle la police Appelle la police, appelle la 7encha, ah ah Chte7na m3akom bla kamanja Cheddina lmektoub kima ja Kherrejna l9ra3i men tellaja Thellina f l7aj w l7ajja Kabrin f lbrouda bla kacha Men Bariz l Oukacha Bo7edna ghadin kantmachaw Lmachakil khednahom kifma jaw Chte7na m3akom bla kamanja Cheddina lmektoub kima ja Kherrejna l9ra3i men tellaja Thellina f l7aj w l7ajja Kabrin f lbrouda bla kacha Men Bariz l Oukacha Bo7edna ghadin kantmachaw Lmachakil khednahom kifma jaw</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Y'a qu'à r'garder mes yeux, pas b'soin d'faire de récit La frappe vient de Oued Laou, d'temps en temps du Brésil Tu leur as rendu service, ils finissent amnésiques Boîte de 30 comme Messi, j'aime écouter mes idées Y'a des hauts y'a des bas ils ont kiffé Baresi Tu veux faire des oiseaux bah ouais c'est par ici Le rap d'aujourd'hui c'est une putain d'parodie J'fais un tour chez Porsche en passant par Audi Bat les couills d'la routine, on vise la carotide On convoqu pas les teams mais on veut l'biff' à Rothschild Les poulets on va les rôtir pour Zyed et Bouna Ensuite on va fêter ça à la Mamounia Ben on t'la déjà dit belek à la dounia Le vaccin, la maladie y'a trop d'problème ah khouya M'n jongens op zee met drugs met drugs Doekoe illegaal, fuck cops spow Veel gannoes in de box Amsterdam mattie, dit is geen Bronx Narco, doe 't smart, cargo pow Soms gedachtes van Rambo Rambo Soms die gedachtes van Kelma Ben bekend rond de street, niet op Talpa Oeh, yeah, heb die gun yo Mattie, ga je eten net gamba net gamba Kberna fi zen9a mathafack Fly net een Boeing, ik kom fully Louis, w jwana kan louwi Ik word snel boos, mattie, temperament pow We zetten ook braquage in je appartement Ik ben met m'n jongens in 't veld in 't veld Fuck shine motherfucker, ben op geld pow Sel3a li kan bi3o Veel dingen aan m'n hoofd nu Hoofd heet net Goku Mannen in je osso voor je gowtu Motherfucking skowtu Motherfucking skowtu Khdamin khdamin Flouss a mattie, floss homa lvitamine Droga, die sel3a, we pushen, we pushen Rook je van m'n jonko, weet je moet hoesten Neppe mensen, mattie, maken me woeste Van die haters, bro, ik krijg die boes Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng You might also like La costa del mal Lanchas entran Si vienen enfrentar Dit moi q'uest ce qui passe Duro for Baf La J'suis, j'suis, j'suis dans l'opium avec une zlatana d'Estepona Cette pétasse consomme la cocaïna comme du Coca-Cola Elle va t'rencarder dans un hôtel de Benalmádena Ça va t'faire un trou dans la tête comme le poinçonneur des Lilas La vie est dure pour un maghrébin d'confession monothéiste Et la pauvreté parisienne, pousse à arracher des touristes 24 carats sur les pecs, j'suis plus Tony que Zepek Mon petit si tu veux peser, viens voir le boson de Higgs J'te rentre dedans même si t'es trapu comme bison dAmérique Toute cette célébrité m'est destinée, rebeu, j'la mérite Défrayer la chronique, dérégler les algorithmes Et je dripp dans un blouson Amiri Lebara, Lycamobile 4 morros fi l'automobile 17ème on sait pas jouer sauf avec le feu du crime Y'a ta gadji qu'est sous scopolamine Fais belek ça pourrait t'kidnapper comme à Medellín Grr pah j'tartine dans le Macan S 3.5.7, ça fait un, dos, tres Le dicton dit jamais deux sans trois Mais moi j'suis Algérois c'est jamais 2 sans 13 ...</t>
+          <t>Y'a qu'à r'garder mes yeux, pas b'soin d'faire de récit La frappe vient de Oued Laou, d'temps en temps du Brésil Tu leur as rendu service, ils finissent amnésiques Boîte de 30 comme Messi, j'aime écouter mes idées Y'a des hauts y'a des bas ils ont kiffé Baresi Tu veux faire des oiseaux bah ouais c'est par ici Le rap d'aujourd'hui c'est une putain d'parodie J'fais un tour chez Porsche en passant par Audi Bat les couills d'la routine, on vise la carotide On convoqu pas les teams mais on veut l'biff' à Rothschild Les poulets on va les rôtir pour Zyed et Bouna Ensuite on va fêter ça à la Mamounia Ben on t'la déjà dit belek à la dounia Le vaccin, la maladie y'a trop d'problème ah khouya M'n jongens op zee met drugs met drugs Doekoe illegaal, fuck cops spow Veel gannoes in de box Amsterdam mattie, dit is geen Bronx Narco, doe 't smart, cargo pow Soms gedachtes van Rambo Rambo Soms die gedachtes van Kelma Ben bekend rond de street, niet op Talpa Oeh, yeah, heb die gun yo Mattie, ga je eten net gamba net gamba Kberna fi zen9a mathafack Fly net een Boeing, ik kom fully Louis, w jwana kan louwi Ik word snel boos, mattie, temperament pow We zetten ook braquage in je appartement Ik ben met m'n jongens in 't veld in 't veld Fuck shine motherfucker, ben op geld pow Sel3a li kan bi3o Veel dingen aan m'n hoofd nu Hoofd heet net Goku Mannen in je osso voor je gowtu Motherfucking skowtu Motherfucking skowtu Khdamin khdamin Flouss a mattie, floss homa lvitamine Droga, die sel3a, we pushen, we pushen Rook je van m'n jonko, weet je moet hoesten Neppe mensen, mattie, maken me woeste Van die haters, bro, ik krijg die boes Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng La costa del mal Lanchas entran Si vienen enfrentar Dit moi q'uest ce qui passe Duro for Baf La J'suis, j'suis, j'suis dans l'opium avec une zlatana d'Estepona Cette pétasse consomme la cocaïna comme du Coca-Cola Elle va t'rencarder dans un hôtel de Benalmádena Ça va t'faire un trou dans la tête comme le poinçonneur des Lilas La vie est dure pour un maghrébin d'confession monothéiste Et la pauvreté parisienne, pousse à arracher des touristes 24 carats sur les pecs, j'suis plus Tony que Zepek Mon petit si tu veux peser, viens voir le boson de Higgs J'te rentre dedans même si t'es trapu comme bison dAmérique Toute cette célébrité m'est destinée, rebeu, j'la mérite Défrayer la chronique, dérégler les algorithmes Et je dripp dans un blouson Amiri Lebara, Lycamobile 4 morros fi l'automobile 17ème on sait pas jouer sauf avec le feu du crime Y'a ta gadji qu'est sous scopolamine Fais belek ça pourrait t'kidnapper comme à Medellín Grr pah j'tartine dans le Macan S 3.5.7, ça fait un, dos, tres Le dicton dit jamais deux sans trois Mais moi j'suis Algérois c'est jamais 2 sans 13 ...</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Akhi j'déboule sur Paname, j'suis remonté comme un taureau C'soir ce c'est moi qui rince gros les Chroniques c'était l'apéro Y'a des reprises de volées dans les molaires, 120 kilos Mouiller l'maillot c'est la devise, sur le terrain j'suis libéro Alors qu'on prend du terrain, du terrain nos rivaux barodent S'gaspillent dans les battles alors qu'il manque Takeshi Kitano Dans la street on en a vu des bonhommes, tous seuls, en binôme On a du briser des colonnes et des colonnes Tout dans l'attitude, t'as grillé l'swag et même si c'est l'zoo J'manie l'rap comme des nunchaku tah les choines de Wenzhou T'as du taf, on a fait le double, on t'la met comme des guendous Nous invite pas sur ton jet-pro ça va partir en kung-fu J'fais parti des ces monsters déter et véner comme dans les BD, fêlé Trop de seum, fallait qu'on l'emprisonne dans un CD Que des combos d'affilé, planter, percer les filets Droit au but, j'vise le chaos j'met des frappes de madrilènes V'là l'équipe toquée direct c'est l'essence troquée J'tré-ren, pas le temps de toquer, j'te conseil de tout stocker L.I.O sur l'côté, Wati-B sur le torse, floqué Loin d'être un coup de poker, cette année je vais tout parchoquer Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux You might also like J'rappe cru bon appétit, j'te mets une balle si t'es athlétique J'aime les femmes de la côte, j'vais mettre une frappe j'te la dédie Y'a du rhum sur la tétine, des soldes sur la bétise Y'a trop de reufs qui ont péris, j'ai des rimes thérapeutiques J'aime le noir pas les gothiques, dégage ou j'te botille C'est l'oseille qui nous motive, le crack qui est fautif Trop de sky on est maudit, devant Dieu on est petits C'est de l'or qu'on me prodigue, j'veux de l'or sur ma copie C'est Airbus contre Boeing, Bouddha contre Moïse Faut la classe à la Totti, tu marches nous on trottine On a soif donc on cottise, attends pour un gros deal C'est des rats et des taudits, des fossilles et des brolics Belleville, Wa, c'est la Chronique, le Diable qui l'a promi Comme Pepe, j'suis impoli, matte le boule de la petite On a le gène de la folie, la gêne de la police C'est la taff qui fait vomir, le cheval sur le bolide Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux On met pas nos oeufs dans le même panier, trop souvent mal accompagné Parle moi de vivre, j'te parle de canner, parle moi de jouer, j'te parle de gagner Parle moi de bleu, j'te parle de violet, passe le la beuh, j'te passe du doré Cache moi XXX cabriolet, parle moi peu j'vais t'embrioler J'vois des mioches, j'regarde mes poignets, fuck les portes qu'on pas de poignées XXX j'te parle de m'installer, faut tout ken, j'te parle de cette année Faut bien dire, à tout ceux qui suce J'leur laisserai p'têtre quelques noisettes comme ça ils auront de quoi se faire des muscles Oh Marie si tu savais ce que je ferai à la fille de Jean Marie Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive XXX Paris, akhi, laisse passer le Ferrari Nique sa mere l'inspecteur Harry, on fume la frappe tah Badr Hari Woogataga, dah ouais pas là pour faire crari Ca fait clic sur tout ceux qui nous contrarie J'me barre à Rome, vous j'vous laisse Porte d'Italie J'pète le cristal, psahtkoum la Cristaline Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux</t>
+          <t>Akhi j'déboule sur Paname, j'suis remonté comme un taureau C'soir ce c'est moi qui rince gros les Chroniques c'était l'apéro Y'a des reprises de volées dans les molaires, 120 kilos Mouiller l'maillot c'est la devise, sur le terrain j'suis libéro Alors qu'on prend du terrain, du terrain nos rivaux barodent S'gaspillent dans les battles alors qu'il manque Takeshi Kitano Dans la street on en a vu des bonhommes, tous seuls, en binôme On a du briser des colonnes et des colonnes Tout dans l'attitude, t'as grillé l'swag et même si c'est l'zoo J'manie l'rap comme des nunchaku tah les choines de Wenzhou T'as du taf, on a fait le double, on t'la met comme des guendous Nous invite pas sur ton jet-pro ça va partir en kung-fu J'fais parti des ces monsters déter et véner comme dans les BD, fêlé Trop de seum, fallait qu'on l'emprisonne dans un CD Que des combos d'affilé, planter, percer les filets Droit au but, j'vise le chaos j'met des frappes de madrilènes V'là l'équipe toquée direct c'est l'essence troquée J'tré-ren, pas le temps de toquer, j'te conseil de tout stocker L.I.O sur l'côté, Wati-B sur le torse, floqué Loin d'être un coup de poker, cette année je vais tout parchoquer Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux J'rappe cru bon appétit, j'te mets une balle si t'es athlétique J'aime les femmes de la côte, j'vais mettre une frappe j'te la dédie Y'a du rhum sur la tétine, des soldes sur la bétise Y'a trop de reufs qui ont péris, j'ai des rimes thérapeutiques J'aime le noir pas les gothiques, dégage ou j'te botille C'est l'oseille qui nous motive, le crack qui est fautif Trop de sky on est maudit, devant Dieu on est petits C'est de l'or qu'on me prodigue, j'veux de l'or sur ma copie C'est Airbus contre Boeing, Bouddha contre Moïse Faut la classe à la Totti, tu marches nous on trottine On a soif donc on cottise, attends pour un gros deal C'est des rats et des taudits, des fossilles et des brolics Belleville, Wa, c'est la Chronique, le Diable qui l'a promi Comme Pepe, j'suis impoli, matte le boule de la petite On a le gène de la folie, la gêne de la police C'est la taff qui fait vomir, le cheval sur le bolide Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux On met pas nos oeufs dans le même panier, trop souvent mal accompagné Parle moi de vivre, j'te parle de canner, parle moi de jouer, j'te parle de gagner Parle moi de bleu, j'te parle de violet, passe le la beuh, j'te passe du doré Cache moi XXX cabriolet, parle moi peu j'vais t'embrioler J'vois des mioches, j'regarde mes poignets, fuck les portes qu'on pas de poignées XXX j'te parle de m'installer, faut tout ken, j'te parle de cette année Faut bien dire, à tout ceux qui suce J'leur laisserai p'têtre quelques noisettes comme ça ils auront de quoi se faire des muscles Oh Marie si tu savais ce que je ferai à la fille de Jean Marie Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive XXX Paris, akhi, laisse passer le Ferrari Nique sa mere l'inspecteur Harry, on fume la frappe tah Badr Hari Woogataga, dah ouais pas là pour faire crari Ca fait clic sur tout ceux qui nous contrarie J'me barre à Rome, vous j'vous laisse Porte d'Italie J'pète le cristal, psahtkoum la Cristaline Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Mister Yougataga Tu marches nous on trottine, on a soif donc on cottise Dans la street on en a vu des bonhommes No Time Records Regarde ma cheville et dis toi que c'est là ou beaucoup de gens m'arrive Wati B gros, Brulux on the flux</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ouais Ouais Ouais Mon Suisse Zoogataganst to gangst TD Synkronik à la prod Mister You Bicrave la drogue puissance rap 2010 mon soces Quiconque veut jouer sur notre terrain ne sentira que l'odeur d'la pisse La chute fait mal selon la hauteur de la piste Big up Abis ok zoogataga En 4mesures de You de peut bien jeter le CD teh beaucoup d'batard La mort d'un seul loup fait l'bonheur de plein de renards C'est Lahess Coast chez nous donc arrête de t'plaindre gros lard Le juge c'est l'physio quempêche mes dollars d'sortir Mais ou va la jeunesse si c'n'est à la recherche d'vos dollars sordides Carla Bruni c'est la nouvelle Marie Antoinette Passe le platine que toute ma peine j'la tape sur une beuj au toilette Khaled un vrai casse tête obliger de lui casse-déd Souri m'a dit même si ta des poux je te prêterais ma casquette Surveillant saka maché fait passé ça a la 37 Arrivant j'suis Bob Marley m'faut pas un baveux mais un litron zeb Hey C Woogataga même sans le taga fuck le Tranxen Moi c'est pour marquer mon territoire, toi c'est sur toi que t'es en train de sepp Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police You might also like Là j'fait l'bilan calmement j'arrive j'vous la mets tranquillement Pas d'hurlements pas d'saignements je ne rentre qu'un oigt-d à vos mamans Bande de bâtards de merde nous on nage 36 dans la de-mer En promenade il nous faut une grenade un Glock un bloc un scooter des mers Donc aller donc niquer vos mères et vos papa les boycotteurs A défaut d'click paah paah ça défouraille a coup d'cutter Pour tout le Ris-Pa pour tout le six bull pour tout Nogent pour tout nos javons Moi nan j'ferai pas 6 ans car j'ai la eu-que et l'brave à l'avant Hess laisse parler les javons en direct d'la gardavon Commence a faire des pompes car on sais qu'on va pas sortir onnn Gardent la pêche la poire le poireau et l'potiron Pour en faire une bonne soupe et pt'être qu'à la fin nous grandirons Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Sur les doigts des 2 mains les bonhommes on en compte pas 10 Les mecs comme Phane-Sté comme Moh comme Nouach ou bien comme Baptiste Quand t'es dans la merde bah y'a qu' les braves qui compatissent C'est pas des châteaux de sables c'est des villa que faut qu'on bâtissent On est bouillant jusqu'au bout y'a qu'les salopes qui s'refroidissent Quand t'es petit mon pote n'aurais pu te ouette pour un 33.10 En 2 jours j'te fume un 12 donc je vais pas te faire le moraliste Il nous faut du flouze ouais on est tous a la recherche du raliss Yougataga sa veut dire nique sa mère la Police Ramener moi de la vodka ou du sky les gars faut que j'm'alcoolise Quand ta vraiment connu la crise c'est sur toi même que tu mise 4 ans pour une barrette mec c'est plus Paname c'est Tunis Je suis plutôt dans le social mais lEtat voudrait que j'finisse communiste Aujourd'hui ceux qui me haïssent demain ils voudront que je revienne comme Ulysse Je suis un peu comme Mesrine tu vas le payé si t'es sur ma liste Là manquerait plus que je bouge vers Creil et qu' j'sodomise une journaliste Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police</t>
+          <t>Ouais Ouais Ouais Mon Suisse Zoogataganst to gangst TD Synkronik à la prod Mister You Bicrave la drogue puissance rap 2010 mon soces Quiconque veut jouer sur notre terrain ne sentira que l'odeur d'la pisse La chute fait mal selon la hauteur de la piste Big up Abis ok zoogataga En 4mesures de You de peut bien jeter le CD teh beaucoup d'batard La mort d'un seul loup fait l'bonheur de plein de renards C'est Lahess Coast chez nous donc arrête de t'plaindre gros lard Le juge c'est l'physio quempêche mes dollars d'sortir Mais ou va la jeunesse si c'n'est à la recherche d'vos dollars sordides Carla Bruni c'est la nouvelle Marie Antoinette Passe le platine que toute ma peine j'la tape sur une beuj au toilette Khaled un vrai casse tête obliger de lui casse-déd Souri m'a dit même si ta des poux je te prêterais ma casquette Surveillant saka maché fait passé ça a la 37 Arrivant j'suis Bob Marley m'faut pas un baveux mais un litron zeb Hey C Woogataga même sans le taga fuck le Tranxen Moi c'est pour marquer mon territoire, toi c'est sur toi que t'es en train de sepp Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Là j'fait l'bilan calmement j'arrive j'vous la mets tranquillement Pas d'hurlements pas d'saignements je ne rentre qu'un oigt-d à vos mamans Bande de bâtards de merde nous on nage 36 dans la de-mer En promenade il nous faut une grenade un Glock un bloc un scooter des mers Donc aller donc niquer vos mères et vos papa les boycotteurs A défaut d'click paah paah ça défouraille a coup d'cutter Pour tout le Ris-Pa pour tout le six bull pour tout Nogent pour tout nos javons Moi nan j'ferai pas 6 ans car j'ai la eu-que et l'brave à l'avant Hess laisse parler les javons en direct d'la gardavon Commence a faire des pompes car on sais qu'on va pas sortir onnn Gardent la pêche la poire le poireau et l'potiron Pour en faire une bonne soupe et pt'être qu'à la fin nous grandirons Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Sur les doigts des 2 mains les bonhommes on en compte pas 10 Les mecs comme Phane-Sté comme Moh comme Nouach ou bien comme Baptiste Quand t'es dans la merde bah y'a qu' les braves qui compatissent C'est pas des châteaux de sables c'est des villa que faut qu'on bâtissent On est bouillant jusqu'au bout y'a qu'les salopes qui s'refroidissent Quand t'es petit mon pote n'aurais pu te ouette pour un 33.10 En 2 jours j'te fume un 12 donc je vais pas te faire le moraliste Il nous faut du flouze ouais on est tous a la recherche du raliss Yougataga sa veut dire nique sa mère la Police Ramener moi de la vodka ou du sky les gars faut que j'm'alcoolise Quand ta vraiment connu la crise c'est sur toi même que tu mise 4 ans pour une barrette mec c'est plus Paname c'est Tunis Je suis plutôt dans le social mais lEtat voudrait que j'finisse communiste Aujourd'hui ceux qui me haïssent demain ils voudront que je revienne comme Ulysse Je suis un peu comme Mesrine tu vas le payé si t'es sur ma liste Là manquerait plus que je bouge vers Creil et qu' j'sodomise une journaliste Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police Perdu dans un désert ou y'a trop de vodka dans l'Oasis On galère pendant des heures train de cogiter sous le cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans le bâtiment sans être maçon nique la Police</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Y'a beaucoup de me-ar et un peu d'shit dans ma cave Big up ceux qui font du gent-ar mais grattent toujours la CAF Comme l'ancien Charaf, qui m'a dit hamdoulah qu'je prie J'suis bé-tom j'avais 22 ans, j'suis resorti j'avais 40 ge-pi J'suis toujours resté vrai C'que mon public attend C'est que j'représente Palestine Pas que j'tombe dans les bras d'satan J'suis connu depuis il y a à peu près 7 ans Grâce à Dieu mon public s'étend Mais des fils de putes vers chez oim Rêveraient que j'finisse dans un étang Criblé d'balles comme une putain d'merde Victime de leur jalousie Donc j'sodomise leur putain d'mère En direct de mon jacuzzi x2 J'm'habille chez Dior ou Gucci Pour écrire il m'faut mon bout d'shit Du Cristal, du Dom Pérignon, de l'Absolut, du Jack, ou du Gin De la putain d'conso d'bâtard de la beldia, de la kherdala Bip up tous mes frères au placard Toujours chaud pour foutre le halla Toujours chaud pour niquer les hesses Quitte à prendre deux fois 30 jours Toute leur vie ils ont connu la hess Deux mois d'plus, qu'est-ce que ça change ? You might also like x2 Toujours chaud même dans la de-mer Au prétoir, tranquille, pépère 45 grammes dans l'zemeh J'ai pris aucune résolution J'ai pas arrêté le chardonné Dans ma tête c'est la révolution J'espère juste que Dieu vas me pardonner J'vous conseille de faire très attention J'ai un calibre qui est tout chromé Les traîtres non j'vois aucune autre solution Que d'venir pour vous ken vos re-mè A 17 ans moi j'décapotais Ça tout le tier-quar en est témoin Quand on sortait pour s'éclater on était plein Quand on s'embrouillait on était moins J'suis fier quand j'me regarde dans la glace En gardav' j'ai jamais donné de blaz Au placard je dormais comme dans un palace Pas grave j'exécutais ma peine et khlass Des fois faut savoir couper court Quand le regard en dit long Hier quand je coffrais re-fré je n'parlais que de pilon Maintenant j'suis à deux doigts d'serrer la banquière D'ailleurs j'dois lui filer un minot M'attend à Time Square XXX on a commandé un filet mignon x2 J'm'habille chez Dior ou Gucci Pour écrire il m'faut mon bout d'shit Du Cristal, du Dom Pérignon, de l'Absolut, du Jack, ou du Gin De la putain d'conso d'bâtard de la beldia, de la kherdala Bip up tous mes frères au placard Toujours chaud pour foutre le halla Toujours chaud pour niquer les hesses Quitte à prendre deux fois 30 jours Toute leur vie ils ont connu la hess Deux mois d'plus, qu'est-ce que ça change ? x2 Toujours chaud même dans la de-mer Au prétoir, tranquille, pépère 45 grammes dans l'zemeh</t>
+          <t>Y'a beaucoup de me-ar et un peu d'shit dans ma cave Big up ceux qui font du gent-ar mais grattent toujours la CAF Comme l'ancien Charaf, qui m'a dit hamdoulah qu'je prie J'suis bé-tom j'avais 22 ans, j'suis resorti j'avais 40 ge-pi J'suis toujours resté vrai C'que mon public attend C'est que j'représente Palestine Pas que j'tombe dans les bras d'satan J'suis connu depuis il y a à peu près 7 ans Grâce à Dieu mon public s'étend Mais des fils de putes vers chez oim Rêveraient que j'finisse dans un étang Criblé d'balles comme une putain d'merde Victime de leur jalousie Donc j'sodomise leur putain d'mère En direct de mon jacuzzi x2 J'm'habille chez Dior ou Gucci Pour écrire il m'faut mon bout d'shit Du Cristal, du Dom Pérignon, de l'Absolut, du Jack, ou du Gin De la putain d'conso d'bâtard de la beldia, de la kherdala Bip up tous mes frères au placard Toujours chaud pour foutre le halla Toujours chaud pour niquer les hesses Quitte à prendre deux fois 30 jours Toute leur vie ils ont connu la hess Deux mois d'plus, qu'est-ce que ça change ? x2 Toujours chaud même dans la de-mer Au prétoir, tranquille, pépère 45 grammes dans l'zemeh J'ai pris aucune résolution J'ai pas arrêté le chardonné Dans ma tête c'est la révolution J'espère juste que Dieu vas me pardonner J'vous conseille de faire très attention J'ai un calibre qui est tout chromé Les traîtres non j'vois aucune autre solution Que d'venir pour vous ken vos re-mè A 17 ans moi j'décapotais Ça tout le tier-quar en est témoin Quand on sortait pour s'éclater on était plein Quand on s'embrouillait on était moins J'suis fier quand j'me regarde dans la glace En gardav' j'ai jamais donné de blaz Au placard je dormais comme dans un palace Pas grave j'exécutais ma peine et khlass Des fois faut savoir couper court Quand le regard en dit long Hier quand je coffrais re-fré je n'parlais que de pilon Maintenant j'suis à deux doigts d'serrer la banquière D'ailleurs j'dois lui filer un minot M'attend à Time Square XXX on a commandé un filet mignon x2 J'm'habille chez Dior ou Gucci Pour écrire il m'faut mon bout d'shit Du Cristal, du Dom Pérignon, de l'Absolut, du Jack, ou du Gin De la putain d'conso d'bâtard de la beldia, de la kherdala Bip up tous mes frères au placard Toujours chaud pour foutre le halla Toujours chaud pour niquer les hesses Quitte à prendre deux fois 30 jours Toute leur vie ils ont connu la hess Deux mois d'plus, qu'est-ce que ça change ? x2 Toujours chaud même dans la de-mer Au prétoir, tranquille, pépère 45 grammes dans l'zemeh</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>En promenade il pleut de l'alcool, des grecs et des I phone À la santé on à la santé on pète ta folle autant que la forme Bon a trop squatter dans leur cachot, tu peut finir claustrophobe Monte le son muchacho faut que les voisins crient 'oh c'est trop fort' Les ieu-viés je leurs arrache plus leurs keuss, je les aide à porter J'suis trop souvent caricaturé alors que, j'essaye d'apporter Un minimum de clarté dans une putain d'obscurité Où il mediatisent des querelles et ils nous font croire que règne l'insécurité Moi j'suis la voix des cas-soss des quartiers och tah ris-pa C'est quand on s'y attend le plus, que les choses n'arrivent pas T'as beau crever devant un ton-ma, pour venir il se fatiguera pas Et t'as beau te lever tout les tin-ma, l'avenir t'apartiendra pas... Une seule défaite suffit à détruire ce que mille victoires on bâtis Quand c'est parti pour reconstruire y'a qu'la famille qui compatis Dramé diamé diakaté latifi ou belmadi... Tous armés tous cramés tous motivés mais tous maudits Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... You might also like Ils veulent qu'on tourne autant que le rouleau de viande d'un que-gré Mandat de depôt veut dire statistiques en progrès Hagra psychologique contre notre gré Nique la police ouais ils kiffent trop nous voir entourés de craie Ils veulent qu'on pète un cable ils veulent qu'on pète un boulon Ils veulent qu'on tourne des fréres zèh ils nous prennent pour zebulon Ils veulent incarner les étoiles et nous laisser le rôle des planètes Mais à force de chercher la merde ça va s'finir au toilettes Et ca va chier mec sans même tirer la chasse Quitte à tous perdre notre place on partira tous à la chasse En criant woogataga avec une déguaine bizarre On va tous prendre les armes et comme ca y'aura pas de lézard Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Tout cela me sidère ouais mais bon j'sais bien que rien ne m'appartient J'ai envie de quitter cette terre mais le sourire de mes rents-pa me retient Mon regard est une citerne qui contient toutes ses larmes que je n'est pas pleuré Donc la j'tire l'alarme, j'balance la sauce, j'crache la purée... Tous présumés coupable on graille des pattes à en être écoeurés Ils salissent nos imams mais y'a rien de plus malhonnête que leurs curés Rien de plus malsain et rien de plus sale que ce qui leur sert de conscience Nous on a beau marcher de travers, on s'dirige toujours vers le bon sens Ils vont connaitre l'enfer les hraïmis vont périr... Ils préfére voir zizou grailler du porc que de voir chéhed ribéry Les seule barbus qu'ils tolérent c'est le père nöel et robert Hue Tant que des fachos nous feront la guerre la haine inondera les rues... Donc pour finir qui m'aime me suit et qui m'hait me suit quand même Car la cause est juste ouais et la conséquence immortelle Woo gataga bon bref aprés la b.n.r.f Réaliserais-je mon rêve ça rhére rabi li héreuf... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant p'tit j'suis allé a verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, leurs mère ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller a verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère...1</t>
+          <t>En promenade il pleut de l'alcool, des grecs et des I phone À la santé on à la santé on pète ta folle autant que la forme Bon a trop squatter dans leur cachot, tu peut finir claustrophobe Monte le son muchacho faut que les voisins crient 'oh c'est trop fort' Les ieu-viés je leurs arrache plus leurs keuss, je les aide à porter J'suis trop souvent caricaturé alors que, j'essaye d'apporter Un minimum de clarté dans une putain d'obscurité Où il mediatisent des querelles et ils nous font croire que règne l'insécurité Moi j'suis la voix des cas-soss des quartiers och tah ris-pa C'est quand on s'y attend le plus, que les choses n'arrivent pas T'as beau crever devant un ton-ma, pour venir il se fatiguera pas Et t'as beau te lever tout les tin-ma, l'avenir t'apartiendra pas... Une seule défaite suffit à détruire ce que mille victoires on bâtis Quand c'est parti pour reconstruire y'a qu'la famille qui compatis Dramé diamé diakaté latifi ou belmadi... Tous armés tous cramés tous motivés mais tous maudits Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne autant que le rouleau de viande d'un que-gré Mandat de depôt veut dire statistiques en progrès Hagra psychologique contre notre gré Nique la police ouais ils kiffent trop nous voir entourés de craie Ils veulent qu'on pète un cable ils veulent qu'on pète un boulon Ils veulent qu'on tourne des fréres zèh ils nous prennent pour zebulon Ils veulent incarner les étoiles et nous laisser le rôle des planètes Mais à force de chercher la merde ça va s'finir au toilettes Et ca va chier mec sans même tirer la chasse Quitte à tous perdre notre place on partira tous à la chasse En criant woogataga avec une déguaine bizarre On va tous prendre les armes et comme ca y'aura pas de lézard Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller à verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Tout cela me sidère ouais mais bon j'sais bien que rien ne m'appartient J'ai envie de quitter cette terre mais le sourire de mes rents-pa me retient Mon regard est une citerne qui contient toutes ses larmes que je n'est pas pleuré Donc la j'tire l'alarme, j'balance la sauce, j'crache la purée... Tous présumés coupable on graille des pattes à en être écoeurés Ils salissent nos imams mais y'a rien de plus malhonnête que leurs curés Rien de plus malsain et rien de plus sale que ce qui leur sert de conscience Nous on a beau marcher de travers, on s'dirige toujours vers le bon sens Ils vont connaitre l'enfer les hraïmis vont périr... Ils préfére voir zizou grailler du porc que de voir chéhed ribéry Les seule barbus qu'ils tolérent c'est le père nöel et robert Hue Tant que des fachos nous feront la guerre la haine inondera les rues... Donc pour finir qui m'aime me suit et qui m'hait me suit quand même Car la cause est juste ouais et la conséquence immortelle Woo gataga bon bref aprés la b.n.r.f Réaliserais-je mon rêve ça rhére rabi li héreuf... Ils veulent qu'on tourne, les frères ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant p'tit j'suis allé a verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère... Ils veulent qu'on tourne, leurs mère ils nous prennent pour des toupies La fin de la faim dans ce monde n'est qu'une vulgaire utopie Etant ptit j'suis aller a verdun dans le cimetière des musulmans de guerre Et me suis dit putain ils sont morts pour rien on ne nous respecte guère...1</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bénévole ne sert à rien, mon but est lucratif Niquer ne sert à rien si tes pas fort dans la pratique Nous barrer la route ? Ok mais tu feras pas long terme Quest ce que tu crois vers chez nous les tits-pe deviennent tous comme à Nanterre Mais à long terme un neuf une pute qui msuce sur un bateau Ouais cest ça ma vie tu prendras pas dimpôt sur le bâton Écoute bien, tes mort si tu treposes sur tes acquis Pensée à toi si de ta grotte tu rêves du boule dAlicia Keys À fond sur mes ennemis comme quand jaimais trop lherbe Ma foi il ny a que les vivants qui te font des problèmes Alors faut régler ça, dis pas que tu sais pas comment faire Au pire je sais pas emprunte les couilles à ton grand frère Rien ne sert de ler-par on a ce quil faut pour remballer tes types Dis leur You' pour quon ait peur faudrait nous envoyer des tigres Jai un doctorat sur les recettes et les diamants Une question comment faire pour vivre on est tous déjà morts ? On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups Tête de hafrite, jai pas retourné ma veste Jai mis du shit dans le Nesquik et de la vodka dans les Cornflakes Woo Gata Zblèx Si y'a un rappeur qui fait le cro-ma on va le faire passer à travers le pareflex Je veux rester seul avec mon zdeh merde Je suis un égoïste qui réfléchit et qui se dit que la mort viendra le faire taire certes Donc ne men voulez pas de penser à ma gueule zèh Neuf mois avant de naître pour men sortir jy ai déjà laissé des millions de frères Je marche à lenvers, comme les tits-pe dans le clip de Kriss Kross Nique la mère aux hessess donc nique même la mère à Rick Ross Salam ahlikoum ahlikoum salam Faut pas acheter son CD il était de lautre côté de la gamelle You might also like On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups On nous reconnait de loin, à nos silhouettes disproportionnées On mâchouille des siwak on roule dans des caisses toutes optionnées Lalbum sécoute fonce-dé, alors tise et mets play Je mets pas de Bandana juste pour cautériser mes plaies Tout ce que tas en falche je lai en vrai Javais un bout de peau en trop mash'Allah je lai enlevé Cest tout le monde qui veut des lovés Même les manchots sont prêts à faire la manche avec leurs pieds Le passé, balafré comme un corps de trav' Jaime le fromage qui coince comme une porte de cave Je ressors de GAV beaucoup plus léger Ma femme est lourde elle porte du Hervé Leger Je suis un client privilégié Belzébuth mieux vaut être le roi de la benne que la reine des putes Je veux du Black Label, de lAbsinthe, ou de lAbsolut Je crois que je suis au bout du rouleau de P.ul-c On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups1</t>
+          <t>Bénévole ne sert à rien, mon but est lucratif Niquer ne sert à rien si tes pas fort dans la pratique Nous barrer la route ? Ok mais tu feras pas long terme Quest ce que tu crois vers chez nous les tits-pe deviennent tous comme à Nanterre Mais à long terme un neuf une pute qui msuce sur un bateau Ouais cest ça ma vie tu prendras pas dimpôt sur le bâton Écoute bien, tes mort si tu treposes sur tes acquis Pensée à toi si de ta grotte tu rêves du boule dAlicia Keys À fond sur mes ennemis comme quand jaimais trop lherbe Ma foi il ny a que les vivants qui te font des problèmes Alors faut régler ça, dis pas que tu sais pas comment faire Au pire je sais pas emprunte les couilles à ton grand frère Rien ne sert de ler-par on a ce quil faut pour remballer tes types Dis leur You' pour quon ait peur faudrait nous envoyer des tigres Jai un doctorat sur les recettes et les diamants Une question comment faire pour vivre on est tous déjà morts ? On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups Tête de hafrite, jai pas retourné ma veste Jai mis du shit dans le Nesquik et de la vodka dans les Cornflakes Woo Gata Zblèx Si y'a un rappeur qui fait le cro-ma on va le faire passer à travers le pareflex Je veux rester seul avec mon zdeh merde Je suis un égoïste qui réfléchit et qui se dit que la mort viendra le faire taire certes Donc ne men voulez pas de penser à ma gueule zèh Neuf mois avant de naître pour men sortir jy ai déjà laissé des millions de frères Je marche à lenvers, comme les tits-pe dans le clip de Kriss Kross Nique la mère aux hessess donc nique même la mère à Rick Ross Salam ahlikoum ahlikoum salam Faut pas acheter son CD il était de lautre côté de la gamelle On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups On nous reconnait de loin, à nos silhouettes disproportionnées On mâchouille des siwak on roule dans des caisses toutes optionnées Lalbum sécoute fonce-dé, alors tise et mets play Je mets pas de Bandana juste pour cautériser mes plaies Tout ce que tas en falche je lai en vrai Javais un bout de peau en trop mash'Allah je lai enlevé Cest tout le monde qui veut des lovés Même les manchots sont prêts à faire la manche avec leurs pieds Le passé, balafré comme un corps de trav' Jaime le fromage qui coince comme une porte de cave Je ressors de GAV beaucoup plus léger Ma femme est lourde elle porte du Hervé Leger Je suis un client privilégié Belzébuth mieux vaut être le roi de la benne que la reine des putes Je veux du Black Label, de lAbsinthe, ou de lAbsolut Je crois que je suis au bout du rouleau de P.ul-c On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups1</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mister Yougataga 'gataga Hades Hasta la muerte J'rappe pour mes frères à Belleville, j'rappe pour mes frères à Nogent En pleine pénurie, ça fait la queue comme à Auchan 6.35, rouge à lèvres dans le sac Longchamp La tortue face au lièvre, j'suis l'voyou devant l'agent Pour commencer ouais, j'suis faya, j'ai vendu plus de C qu'y a d'neige dans l'Himalaya Himalaya Vous m'connaissez ouais, ouais, le poto You le poto You Le mec de rue, le cas soc', le ghetto youth brah La poisse colle à la peau, elle est rattrapée par le passé yes Sortie d'garde à v', t'as à peine refait tes lacets Les stup' te refilochent, viennent te stopper dans ta lancée C'est pas fini nan, nan, ça vient d'commencer wow C'est vrai que quand t'es seul aux arrivants, tu vois l'drap blanc comme un linceul Le temps qu't'assommes à l'isolement, tu vois personne brah On accélère, on sait pas freiner, nan, c'est pas du rap de khéné Étant gamins, nous on a trop traîné devant le lycée Bergson C'est l'vingt moins un, y a des mes-ar sous les Teddy On restera des braves, depuis petits, on se l'était dit ah J'rappe pour mes frères, obligé de leur cace-dédi Ça paye en cash, chez moi, on ne fait pas de crédit ah You might also like Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi J'ai la frappe du Panama, j'suis en Dolce Gabana L'Absolut et l'Grey Goose aiment beaucoup les ananas ananas Les mecs du hood veulent per-cho à la Havana S'faire doubler par son poto, c'est comme se faire donner par sa nana han C'est un truc de ouf, oulalala brah C'est Mister You, Yougataga, ça tombe au gnouf pour de la chnouf et du taga Vers Lyon ça prend des peines de ouf juste pour du tamien Pourquoi Abdelhak et Youssouf, ils tournent plus longtemps que Damien ? Non, chez nous, on fait pas la manche, on préfère rester en chien On préfère canner que de trahir son prochain Non, chez nous, on fait pas la manche, on préfère rester en chien On préfère canner que de trahir son prochain C'est l'vingt moins un, y a des mes-ar sous les Teddy On restera des braves, depuis petits, on se l'était dit ah J'rappe pour mes frères, obligé de leur cace-dédi Ça paye en cash, chez moi, on ne fait pas de crédit ah Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi J'ai la frappe du Panama, j'suis en Dolce Gabana Tu peux la faire à tout le monde, tu peux pas m'la faire à oi-m On veut des truffes, du saumon, on veut de la whey du Suriname</t>
+          <t>Mister Yougataga 'gataga Hades Hasta la muerte J'rappe pour mes frères à Belleville, j'rappe pour mes frères à Nogent En pleine pénurie, ça fait la queue comme à Auchan 6.35, rouge à lèvres dans le sac Longchamp La tortue face au lièvre, j'suis l'voyou devant l'agent Pour commencer ouais, j'suis faya, j'ai vendu plus de C qu'y a d'neige dans l'Himalaya Himalaya Vous m'connaissez ouais, ouais, le poto You le poto You Le mec de rue, le cas soc', le ghetto youth brah La poisse colle à la peau, elle est rattrapée par le passé yes Sortie d'garde à v', t'as à peine refait tes lacets Les stup' te refilochent, viennent te stopper dans ta lancée C'est pas fini nan, nan, ça vient d'commencer wow C'est vrai que quand t'es seul aux arrivants, tu vois l'drap blanc comme un linceul Le temps qu't'assommes à l'isolement, tu vois personne brah On accélère, on sait pas freiner, nan, c'est pas du rap de khéné Étant gamins, nous on a trop traîné devant le lycée Bergson C'est l'vingt moins un, y a des mes-ar sous les Teddy On restera des braves, depuis petits, on se l'était dit ah J'rappe pour mes frères, obligé de leur cace-dédi Ça paye en cash, chez moi, on ne fait pas de crédit ah Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi J'ai la frappe du Panama, j'suis en Dolce Gabana L'Absolut et l'Grey Goose aiment beaucoup les ananas ananas Les mecs du hood veulent per-cho à la Havana S'faire doubler par son poto, c'est comme se faire donner par sa nana han C'est un truc de ouf, oulalala brah C'est Mister You, Yougataga, ça tombe au gnouf pour de la chnouf et du taga Vers Lyon ça prend des peines de ouf juste pour du tamien Pourquoi Abdelhak et Youssouf, ils tournent plus longtemps que Damien ? Non, chez nous, on fait pas la manche, on préfère rester en chien On préfère canner que de trahir son prochain Non, chez nous, on fait pas la manche, on préfère rester en chien On préfère canner que de trahir son prochain C'est l'vingt moins un, y a des mes-ar sous les Teddy On restera des braves, depuis petits, on se l'était dit ah J'rappe pour mes frères, obligé de leur cace-dédi Ça paye en cash, chez moi, on ne fait pas de crédit ah Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu peux pas m'la faire à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi Chez moi, ça vend la pure, la ppe-fra du Panama Tu peux la faire à tout le monde, tu la feras pas à moi J'ai la frappe du Panama, j'suis en Dolce Gabana Tu peux la faire à tout le monde, tu peux pas m'la faire à oi-m On veut des truffes, du saumon, on veut de la whey du Suriname</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>- Y a une fuite chez l'voisin là-haut, wAllah - Entre moi et Kais - Il a pas capté, c'est sûr et certain, il a fait l'remplissage Hahahaha Ouais, la rue, ouais, la rue, ouais la rue J'ai vécu l'pire, j'ai vu des trucs de fêlé, mon ami m'trahir, mon ennemi venir m'aider La fiction, la réalité, le salaire tah Hallyday, la lle-ca', la qualité, j'ai vu l'illégalité J'ai vécu l'inégalité, des trucs qu't'as pas idée, Abdelkrim contre l'humanité Le Diable et sa vanité, la fortune se faire discrète, la misère, se la péter J'ai vu qu'la rue était traître et qu'l'histoire se répétait J'ai vu l'OCTRIS enquêter, vouloir m'casser les reins ouais J'ai vu les tits-pe grandir ouais, récupérer l'terrain C'Mister You, DA Uzi, on a rangé les fusils, ça s'réveille au Brésil, ça s'endort en Malaisie On vend la coca', la résine, l'Afrique, nos origines, à force d'engraisser toute l'Europe, elle a fini au régime On fuck l'État et tous leurs plans, on va pas coopérer On r'tourne au bled que pour ber-flam ou pour s'faire enterrer Faut qu'on s'barre de là, des Louboutin dans l'hall Hier soir, j'ai ré-ti, si t'as vu, le dis pas C'est Sevran, Paname, des Rolex chez les pauvres On vient du même coin, si moi j'brille, m'en veux pas You might also like DA Uzi, l'architecte DA Uzi, l'architecte Mister You, c'est danger Mister You, c'est danger Lequel a le doigté ? Lequel a le doigté ? Ça dépend du temps qu'j'ai ça dépend du temps qu'j'ai Et ça dépend du temps qu'j'ai, j'fais les trucs en bas Faut v'-esqui les balles, faut rentrer les balles Même le soir, sous Cîroc, on danse avec les dames J'danse avec les drames, habillé en Balmain J'suis fou d'prime à bord, lequel a pris ma part eyah ? Ça remonte d'en bas là-bas, ça va au Bas Chenay sûr Le mec, il parle fort, il l'ouvre, nous, on plie la porte J'me suis dit Peu importe, Sevran c'est comme Culiacán C'qui qui veut la came ? J'espère qu'il l'écoule à temps Dans l'mille, j'ai visé, en vrai, ils connaissent pas ma vie Là, j'vole plus les mallettes Hilti Hilti mais j'ai gardé mon mal-être pourtant bah oui Les filets, oh, j'vais les trouer direct, et y aura BK eyah C'est pas une meuf, on l'fera sans parler d'trop, j'suis pas bête J'fais semblant, ça m'évite de t'raconter Faut qu'on s'barre de là, des Louboutin dans l'hall Hier soir, j'ai ré-ti, si t'as vu, le dis pas C'est Sevran, Paname, des Rolex chez les pauvres On vient du même camp, si moi j'brille, m'en veux pas DA Uzi, l'architecte DA Uzi, l'architecte Mister You, c'est danger Mister You, c'est danger Lequel a le doigté ? Lequel a le doigté ? Ça dépend du temps qu'j'ai ça dépend du temps qu'j'ai Et ça dépend du temps qu'j'ai, j'fais les trucs en bas Faut v'-esqui les balles, faut rentrer les balles Même le soir, sous Cîroc, on danse avec les dames J'danse avec les drames, habillé en Balmain Habillé en Balmain, habillé en Balmain J'fais les trucs en bas, j'danse avec les drames Habillé en Balmain, habillé en Balmain tout c'que tu veux J'danse avec les drames La D, la D, la D, j'fais des trucs en balle Mister You, Sevran, Paname, Culiacán</t>
+          <t>- Y a une fuite chez l'voisin là-haut, wAllah - Entre moi et Kais - Il a pas capté, c'est sûr et certain, il a fait l'remplissage Hahahaha Ouais, la rue, ouais, la rue, ouais la rue J'ai vécu l'pire, j'ai vu des trucs de fêlé, mon ami m'trahir, mon ennemi venir m'aider La fiction, la réalité, le salaire tah Hallyday, la lle-ca', la qualité, j'ai vu l'illégalité J'ai vécu l'inégalité, des trucs qu't'as pas idée, Abdelkrim contre l'humanité Le Diable et sa vanité, la fortune se faire discrète, la misère, se la péter J'ai vu qu'la rue était traître et qu'l'histoire se répétait J'ai vu l'OCTRIS enquêter, vouloir m'casser les reins ouais J'ai vu les tits-pe grandir ouais, récupérer l'terrain C'Mister You, DA Uzi, on a rangé les fusils, ça s'réveille au Brésil, ça s'endort en Malaisie On vend la coca', la résine, l'Afrique, nos origines, à force d'engraisser toute l'Europe, elle a fini au régime On fuck l'État et tous leurs plans, on va pas coopérer On r'tourne au bled que pour ber-flam ou pour s'faire enterrer Faut qu'on s'barre de là, des Louboutin dans l'hall Hier soir, j'ai ré-ti, si t'as vu, le dis pas C'est Sevran, Paname, des Rolex chez les pauvres On vient du même coin, si moi j'brille, m'en veux pas DA Uzi, l'architecte DA Uzi, l'architecte Mister You, c'est danger Mister You, c'est danger Lequel a le doigté ? Lequel a le doigté ? Ça dépend du temps qu'j'ai ça dépend du temps qu'j'ai Et ça dépend du temps qu'j'ai, j'fais les trucs en bas Faut v'-esqui les balles, faut rentrer les balles Même le soir, sous Cîroc, on danse avec les dames J'danse avec les drames, habillé en Balmain J'suis fou d'prime à bord, lequel a pris ma part eyah ? Ça remonte d'en bas là-bas, ça va au Bas Chenay sûr Le mec, il parle fort, il l'ouvre, nous, on plie la porte J'me suis dit Peu importe, Sevran c'est comme Culiacán C'qui qui veut la came ? J'espère qu'il l'écoule à temps Dans l'mille, j'ai visé, en vrai, ils connaissent pas ma vie Là, j'vole plus les mallettes Hilti Hilti mais j'ai gardé mon mal-être pourtant bah oui Les filets, oh, j'vais les trouer direct, et y aura BK eyah C'est pas une meuf, on l'fera sans parler d'trop, j'suis pas bête J'fais semblant, ça m'évite de t'raconter Faut qu'on s'barre de là, des Louboutin dans l'hall Hier soir, j'ai ré-ti, si t'as vu, le dis pas C'est Sevran, Paname, des Rolex chez les pauvres On vient du même camp, si moi j'brille, m'en veux pas DA Uzi, l'architecte DA Uzi, l'architecte Mister You, c'est danger Mister You, c'est danger Lequel a le doigté ? Lequel a le doigté ? Ça dépend du temps qu'j'ai ça dépend du temps qu'j'ai Et ça dépend du temps qu'j'ai, j'fais les trucs en bas Faut v'-esqui les balles, faut rentrer les balles Même le soir, sous Cîroc, on danse avec les dames J'danse avec les drames, habillé en Balmain Habillé en Balmain, habillé en Balmain J'fais les trucs en bas, j'danse avec les drames Habillé en Balmain, habillé en Balmain tout c'que tu veux J'danse avec les drames La D, la D, la D, j'fais des trucs en balle Mister You, Sevran, Paname, Culiacán</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ? Belle demoiselle, qui se presse dans l'allée Ta démarche te donne des ailes, moi j'aimerais m'envoler Belle demoiselle, faut pas courir après l'oseille Roule avec oi-m, moi j'suis un loup et à cette heure-ci je cherche une gazelle J'aimerais m'poser sur un bête de fauteuil Faire le tour du périph', sortir à Porte d'Auteuil Exploser tous les barrages, mais faut que tu roules avec moi Faut que tu m'fasses des massages, faut que tu sois cool avec moi Il faut qu'on s'fasse kiffer, faut que tout s'passe naturellement Donc vas-y grimpe dans ma bagnole, on démarre calmement Yo hablo español - Quoi, tu parles allemand? Ja, ich liebe dich ma biche, très très cordialement Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ? You might also like Laisse-toi aller si t'es chaud aïe aïe aïe Ça sent l'insomnie éh-oh, éh-oh aïe Djany, Mister You au micro yeah Alors suis nous, fais éh-oh, éh-oh Est-ce que tu bouges avec ? ouais, ouais, ouais Est-ce que tu roules avec ? ouais, ouais, ouais Est-ce que tu han, est-ce que tu ?han Est-ce que tu bouges avec Mister Yougataga ? J'ai toujours préféré aux voisins mes voisines J'suis un peu comme Renan Luce, eh t'inquiète cousine Un jour Olivier Muce m'a dit faut faire des hits Moi j'comprends qu'il faut que tu t'amuses, mais You t'as trop regardé Hit J'suis posé, j'suis avec Perrine - tranquille, j'bois du champagne Faut que mon son tourne en promenade à Paname et à la campagne J'suis partout dans les radios, Mister You Number One Ok, Zoogataga, est-ce que tu roules avec oi-m ? Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ?</t>
+          <t>Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ? Belle demoiselle, qui se presse dans l'allée Ta démarche te donne des ailes, moi j'aimerais m'envoler Belle demoiselle, faut pas courir après l'oseille Roule avec oi-m, moi j'suis un loup et à cette heure-ci je cherche une gazelle J'aimerais m'poser sur un bête de fauteuil Faire le tour du périph', sortir à Porte d'Auteuil Exploser tous les barrages, mais faut que tu roules avec moi Faut que tu m'fasses des massages, faut que tu sois cool avec moi Il faut qu'on s'fasse kiffer, faut que tout s'passe naturellement Donc vas-y grimpe dans ma bagnole, on démarre calmement Yo hablo español - Quoi, tu parles allemand? Ja, ich liebe dich ma biche, très très cordialement Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ? Laisse-toi aller si t'es chaud aïe aïe aïe Ça sent l'insomnie éh-oh, éh-oh aïe Djany, Mister You au micro yeah Alors suis nous, fais éh-oh, éh-oh Est-ce que tu bouges avec ? ouais, ouais, ouais Est-ce que tu roules avec ? ouais, ouais, ouais Est-ce que tu han, est-ce que tu ?han Est-ce que tu bouges avec Mister Yougataga ? J'ai toujours préféré aux voisins mes voisines J'suis un peu comme Renan Luce, eh t'inquiète cousine Un jour Olivier Muce m'a dit faut faire des hits Moi j'comprends qu'il faut que tu t'amuses, mais You t'as trop regardé Hit J'suis posé, j'suis avec Perrine - tranquille, j'bois du champagne Faut que mon son tourne en promenade à Paname et à la campagne J'suis partout dans les radios, Mister You Number One Ok, Zoogataga, est-ce que tu roules avec oi-m ? Ok, ok, ok, faut tout niquer da3wa Mais vas-y, viens on bouge, dis-moi ce soir on dit quoi? Même si j'ai plus l'permis, toujours une meuf avec moi Ok ça c'est ta iv, est-ce que tu roules avec moi? Est-ce que tu bouges avec, est-ce que tu bouges avec moi? Est-ce que tu roules avec, est-ce que tu roules avec moi? Est-ce que tu zda7 avec, est-ce que tu zda7 avec moi? Est-ce que tu bouges avec Mister Yougataga ?</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Hades Frérot, j'avais treize ans, j'allais voir mon frère en prison Lui, il en avait seize et il vendait déjà la cess Dans la rue, y a peu d'amis, bah ouais papa, il avait raison On veut changer d'horizon, vaut mieux perdre la vue qu'la raison j'faisais les quatre-cents coups depuis tout p'tit, marmot J'allais voir le poto et l'sin-cou Driss, Allah y rahmo C'est vrai qu'j'étais beau gosse mais j'étais pas fait pour l'mannequinat J'préférais vendre du matos, demande au poto Kima Hamdoullah toujours la foi, on a fait l'école en rab On traînait toujours à trois, on était plus que des shabs Y avait Khaled, Saber et oi-m vu qu'Souleymane s'était calmé Il s'était mis à fond dans l'Islam, comme monsieur Tous les anciens étaient cramés, les trois quarts étaient camés Ils ont tous fini condamnés, dizaine, vingtaine, trentaine d'années J'ai acheté mon premier Gomm Cogne, ouais darwa, fallait s'armer J'bicravais du shit à l'école et j'avais trois carnets Pour les absences, pour les renvois et pour les heures de colle J'roulais des joints d'vant mes voisins au bled qui s'shootent à la colle J'ai commencé mes premiers flirts, puis j'ai goûté à l'alcool Aux meufs j'offrais pas des fleurs mais de l'herbe pour qu'on décolle Arrivé à seize ans, j'ai connu l'monde de la night Les biatchs, les tes-boî, darwa, j'sentais l'Fahrenheit Dix-sept ans, ça y est, j'bi'-bi' la cécé J'ai même pas l'permis, j'achète un 206 CC Et puis là, ça commence les vrais problèmes Dans ma tête c'est Los Angeles Le stress, les descentes même s'ils sont trente, je reste Première bastos, j'tire sur un gars d'Jaurès Dans ma tête c'est le Far West, moi j'cours pas, j'suis pas Forrest Bien sûr qu'j'ai les cojones, y a qu'l'oseille qui m'intéresse La majorité, les grands d'la cité m'avancent des kil' J'me débrouille, j'magouille des armes et j'ai du liquide J'suis toujours là quand y a heja, quitte à finir chez la GAV J'te commence par une tarcha, j'te termine par un crachat J'vis ma vie comme un pacha, j'ai un putain d'pouvoir d'achat Liasse de verts comme Raja, j'sors avec Samia et Natacha Dix-neuf balais, mandat d'dépôt, bâtiment D4 En promenade, j'rêve que d'grenade, d'hélico' et de C-4 J'vais pas voir l'psychiatre, j'veux pas finir à SMPR J'compte pas sur l'avocat, j'mise sur l'Seigneur et mes prières J'sors libérable immédiat après six jours de cachot J'en avais pris dix, tranquille, j'les ai niqué ces fachos J'ai fait qu'deux mois, pépère, j'ressors dix fois plus déter' La seule vraie chose que j'regrette, c'est d'avoir fait pleurer ma mère J'ai vingt printemps, j'ai plus l'temps pour les histoires de merde J'ai l'180 2 temps, j'fume la frappe tah vé-Her J'passais d'chez Nike à chez Dior, d'Adidas à Dolce Gabbana Avec Alain, Fredo, , j'pars en vacances à Punta Cana Fais pas l'fou, fais pas ton malin, j'traîne entre De Belleville, j'suis la mascotte, on m'a mis sur un piédestal J'veux lalmanach tah Biff Tannen, j'fais du biff et j'me la ramène J'pars au shtar pour la deuxième fois, plus l'âge J'vais pas t'faire un dessin, on est loin d'être des saints Tout l'monde nous prend pour des zinc, on a r'tourné l'D5 Des coups d'casserole par la fenêtre, pour finir 2005 Des abattages de dingue, t'as beau faire trois mètres cinq Ceux qu'on voulu jouer les cros-ma, ils ont fini chez l'médecin Pourtant on n'était pas des casses-couilles, nan, on était des mecs simples Comme une étoile, j'suis fait pour briller, à ma sortie, j'dois faire des billets Juin 2006, j'quitte enfin cette putain cette avenue des Peupliers You might also like Frérot, j'avais treize ans, j'allais voir mon frère en prison Lui, il en avait seize et il vendait déjà la cess Dans la rue, y a peu d'amis, bah ouais papa, il avait raison On veut changer d'horizon, vaut mieux perdre la vue qu'la raison</t>
+          <t>Hades Frérot, j'avais treize ans, j'allais voir mon frère en prison Lui, il en avait seize et il vendait déjà la cess Dans la rue, y a peu d'amis, bah ouais papa, il avait raison On veut changer d'horizon, vaut mieux perdre la vue qu'la raison j'faisais les quatre-cents coups depuis tout p'tit, marmot J'allais voir le poto et l'sin-cou Driss, Allah y rahmo C'est vrai qu'j'étais beau gosse mais j'étais pas fait pour l'mannequinat J'préférais vendre du matos, demande au poto Kima Hamdoullah toujours la foi, on a fait l'école en rab On traînait toujours à trois, on était plus que des shabs Y avait Khaled, Saber et oi-m vu qu'Souleymane s'était calmé Il s'était mis à fond dans l'Islam, comme monsieur Tous les anciens étaient cramés, les trois quarts étaient camés Ils ont tous fini condamnés, dizaine, vingtaine, trentaine d'années J'ai acheté mon premier Gomm Cogne, ouais darwa, fallait s'armer J'bicravais du shit à l'école et j'avais trois carnets Pour les absences, pour les renvois et pour les heures de colle J'roulais des joints d'vant mes voisins au bled qui s'shootent à la colle J'ai commencé mes premiers flirts, puis j'ai goûté à l'alcool Aux meufs j'offrais pas des fleurs mais de l'herbe pour qu'on décolle Arrivé à seize ans, j'ai connu l'monde de la night Les biatchs, les tes-boî, darwa, j'sentais l'Fahrenheit Dix-sept ans, ça y est, j'bi'-bi' la cécé J'ai même pas l'permis, j'achète un 206 CC Et puis là, ça commence les vrais problèmes Dans ma tête c'est Los Angeles Le stress, les descentes même s'ils sont trente, je reste Première bastos, j'tire sur un gars d'Jaurès Dans ma tête c'est le Far West, moi j'cours pas, j'suis pas Forrest Bien sûr qu'j'ai les cojones, y a qu'l'oseille qui m'intéresse La majorité, les grands d'la cité m'avancent des kil' J'me débrouille, j'magouille des armes et j'ai du liquide J'suis toujours là quand y a heja, quitte à finir chez la GAV J'te commence par une tarcha, j'te termine par un crachat J'vis ma vie comme un pacha, j'ai un putain d'pouvoir d'achat Liasse de verts comme Raja, j'sors avec Samia et Natacha Dix-neuf balais, mandat d'dépôt, bâtiment D4 En promenade, j'rêve que d'grenade, d'hélico' et de C-4 J'vais pas voir l'psychiatre, j'veux pas finir à SMPR J'compte pas sur l'avocat, j'mise sur l'Seigneur et mes prières J'sors libérable immédiat après six jours de cachot J'en avais pris dix, tranquille, j'les ai niqué ces fachos J'ai fait qu'deux mois, pépère, j'ressors dix fois plus déter' La seule vraie chose que j'regrette, c'est d'avoir fait pleurer ma mère J'ai vingt printemps, j'ai plus l'temps pour les histoires de merde J'ai l'180 2 temps, j'fume la frappe tah vé-Her J'passais d'chez Nike à chez Dior, d'Adidas à Dolce Gabbana Avec Alain, Fredo, , j'pars en vacances à Punta Cana Fais pas l'fou, fais pas ton malin, j'traîne entre De Belleville, j'suis la mascotte, on m'a mis sur un piédestal J'veux lalmanach tah Biff Tannen, j'fais du biff et j'me la ramène J'pars au shtar pour la deuxième fois, plus l'âge J'vais pas t'faire un dessin, on est loin d'être des saints Tout l'monde nous prend pour des zinc, on a r'tourné l'D5 Des coups d'casserole par la fenêtre, pour finir 2005 Des abattages de dingue, t'as beau faire trois mètres cinq Ceux qu'on voulu jouer les cros-ma, ils ont fini chez l'médecin Pourtant on n'était pas des casses-couilles, nan, on était des mecs simples Comme une étoile, j'suis fait pour briller, à ma sortie, j'dois faire des billets Juin 2006, j'quitte enfin cette putain cette avenue des Peupliers Frérot, j'avais treize ans, j'allais voir mon frère en prison Lui, il en avait seize et il vendait déjà la cess Dans la rue, y a peu d'amis, bah ouais papa, il avait raison On veut changer d'horizon, vaut mieux perdre la vue qu'la raison</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sur l'terrain, aujourd'hui on est entrain d'faire des pesos Quand on était petit, avec mes soces, Il s'en est passé des choses ! Quand c'était Laisse moi la monnaie ou demain j'crache dans la sauce Ou encore Wech bien les éducateurs ? Y a moyen qu'j'crèche dans l'assoce' ? Avec mes soces poto, j'étais au tier-quar la semaine dernière J'ai cru qu'les keufs étaient scato quand les pe-stu m'collaient au derrière Avec mes soces, l'ami, on en a mis des coups d'couteaux Quand le vase était remplis on avait tous le rôle d'la petite goutte d'eau Ouai Mokless ! Avec mes soces ! Mister YougataBrrrahh ! Avec mes soces ! Ougataga, avec mes soces avec mes gars On s'est fait tourner les keh comme des sdeh de taga ! Avec mes soces ! Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a mangé des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! Avec mes soces on parle de tout, des faux et des vrais Du son frais, du dernier épisode de Prison Break On parle films, foot, poker alors faites vos jeux Du but à Messi , du missile à Klose On parlera si t'as l'temps, des femmes évidemment Notre contraire nous est vital, nan ? On fera connaissance, on ira boire un verre J'te présenterais mes frères que j'connais depuis ma naissance On a partagé les souffrances, les miettes du gâteau Les copains d'abord, l'expression, pas le nom du bateau On a les mêmes vices, on a les mêmes vies On a tous été entrainé par Jacques Mendy On a tous porté les couleurs de la goutte d'or Tonton pense à Daddy Cool sur la joue comme une goutte d'eau J'espère que mes soces là-haut nous écoute fort On est encore en vie jusqu'ici on a beaucoup d'pot Dans mes potos y a des vénères et des mecs posés Débrouillards zarbi à la Kayzer Sozé Des loups, des anciens qu'ont connus la Mixtape Qui sont capables de mettre une disquette à Bill Gates You might also like Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a manger des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! Procureur espèce d'ordure nique ta mère ohh mec On baisse pas la température en faisant péter le thermomètre oh les bâtards Pour une barrette ils nous mettent des peines de meurtriers Avec mes soces pour s'griller on pas mis que l'pied a l'étrier beh nan On a aussi mis le doigt dans le trou du cul d'la ce-fran Pour qu'il invente 36000 lois qui vole un uf viole un enfant Allez donc niquez vos mamans et ramenez moi de la sinsemilia Avant que j'sorte un 11-43 que j'vous fasse danser le mia Ah Woogatagaaa grosse dédicasse a nass yass J'suis là ou t'arrête pas les balles même si t'engages Cassillas Là c'qui m'ferait kiffer une biatch ou une cadillac Mais bon a st'heure ci j'dois m'esquiver vu que y'a l'36 le fbi aie aie aie Nique les juges ces bâtards kiffent nous voir souffrir a croire que y'a que direction l'placard Dahwa qu'on verra les portes s'ouvrir Ils m'ont revoqué plusieurs mois et puis ils m'ont rajouté 5ans Mon rêve ok c'est le million moi j'sais pas j'vais fêter ça quand ! Qu'est ce que j'men bas les couilles de savoir c'est qui Montesquieu Il m'a pas appris a écrire des xte-te ni a bicrave des kseu A paris les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils t'disent pas pardon demain il t'diront nique ta mère monsieur avec mes soces Belle ville avec mes soces Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a manger des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! J'ai fait des trucs de mnéhiék Hachek dahwa on s'en bat les yéyéks J'ai connu tous les excès Moi quand j'sors de discothèque c'est On aurait pu croire que j'suis pacsé Toujours là en train de se taxer J'en ai fait des kilométrés J'ai toujours été honnête On a passé des bons moments Ca s'finira j'sais pas comment ... En scréd en scréd chuuuuuuuuuuut</t>
+          <t>Sur l'terrain, aujourd'hui on est entrain d'faire des pesos Quand on était petit, avec mes soces, Il s'en est passé des choses ! Quand c'était Laisse moi la monnaie ou demain j'crache dans la sauce Ou encore Wech bien les éducateurs ? Y a moyen qu'j'crèche dans l'assoce' ? Avec mes soces poto, j'étais au tier-quar la semaine dernière J'ai cru qu'les keufs étaient scato quand les pe-stu m'collaient au derrière Avec mes soces, l'ami, on en a mis des coups d'couteaux Quand le vase était remplis on avait tous le rôle d'la petite goutte d'eau Ouai Mokless ! Avec mes soces ! Mister YougataBrrrahh ! Avec mes soces ! Ougataga, avec mes soces avec mes gars On s'est fait tourner les keh comme des sdeh de taga ! Avec mes soces ! Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a mangé des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! Avec mes soces on parle de tout, des faux et des vrais Du son frais, du dernier épisode de Prison Break On parle films, foot, poker alors faites vos jeux Du but à Messi , du missile à Klose On parlera si t'as l'temps, des femmes évidemment Notre contraire nous est vital, nan ? On fera connaissance, on ira boire un verre J'te présenterais mes frères que j'connais depuis ma naissance On a partagé les souffrances, les miettes du gâteau Les copains d'abord, l'expression, pas le nom du bateau On a les mêmes vices, on a les mêmes vies On a tous été entrainé par Jacques Mendy On a tous porté les couleurs de la goutte d'or Tonton pense à Daddy Cool sur la joue comme une goutte d'eau J'espère que mes soces là-haut nous écoute fort On est encore en vie jusqu'ici on a beaucoup d'pot Dans mes potos y a des vénères et des mecs posés Débrouillards zarbi à la Kayzer Sozé Des loups, des anciens qu'ont connus la Mixtape Qui sont capables de mettre une disquette à Bill Gates Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a manger des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! Procureur espèce d'ordure nique ta mère ohh mec On baisse pas la température en faisant péter le thermomètre oh les bâtards Pour une barrette ils nous mettent des peines de meurtriers Avec mes soces pour s'griller on pas mis que l'pied a l'étrier beh nan On a aussi mis le doigt dans le trou du cul d'la ce-fran Pour qu'il invente 36000 lois qui vole un uf viole un enfant Allez donc niquez vos mamans et ramenez moi de la sinsemilia Avant que j'sorte un 11-43 que j'vous fasse danser le mia Ah Woogatagaaa grosse dédicasse a nass yass J'suis là ou t'arrête pas les balles même si t'engages Cassillas Là c'qui m'ferait kiffer une biatch ou une cadillac Mais bon a st'heure ci j'dois m'esquiver vu que y'a l'36 le fbi aie aie aie Nique les juges ces bâtards kiffent nous voir souffrir a croire que y'a que direction l'placard Dahwa qu'on verra les portes s'ouvrir Ils m'ont revoqué plusieurs mois et puis ils m'ont rajouté 5ans Mon rêve ok c'est le million moi j'sais pas j'vais fêter ça quand ! Qu'est ce que j'men bas les couilles de savoir c'est qui Montesquieu Il m'a pas appris a écrire des xte-te ni a bicrave des kseu A paris les petits poissons ils deviennent vite des requins vicieux Si aujourd'hui ils t'disent pas pardon demain il t'diront nique ta mère monsieur avec mes soces Belle ville avec mes soces Pour le tiers-quart on a bataillé ! Avec mes soces ! On a bicrave, on a détaillé ! Avec mes soces ! On a fait les 400 coups ! Avec mes soces ! On a manger des pâtes sans goût ! Avec mes soces ! On s'appelle par des blazz chelou ! Avec mes soces ! Un truc qui pique tah les gars d'chez nous ! Avec mes soces ! On a passé des bons moments ! Avec mes soces ! Ca s'finira j'sais pas comment ! Avec mes soces ! J'ai fait des trucs de mnéhiék Hachek dahwa on s'en bat les yéyéks J'ai connu tous les excès Moi quand j'sors de discothèque c'est On aurait pu croire que j'suis pacsé Toujours là en train de se taxer J'en ai fait des kilométrés J'ai toujours été honnête On a passé des bons moments Ca s'finira j'sais pas comment ... En scréd en scréd chuuuuuuuuuuut</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J'tourne en rond, j'balise, mais ya lkèbouss dans la valise C'est c'qui s'passe dans ma tête qui fait que je culpabilise De Paname à BX, pote, j'ai trop d'anecdotes, fuck Le serment du proc', troque la loc', quoi ? Ah Billy, la dictature comme Ben Ali, ils ont relaché Benala, ils ont pété 200 trons-li Évidemment qu'ça bic' coke, shit, zep', c'est trop logique Dans l'19 comme roue arrière ou en Y, Z Passe à Belleville, y a tout c'qu'il faut, y a plus de vrais que de faux L'chef d'inculpation, il est lourd, le jugement sera par défaut Y a des bâtards, ils t'serrent la main en espérantque tu t'fasses lever Pour récupérer l'terrain, histoire de s'faire un peu d'lové On a tous le cul sur la sellette, c'qui faut c'est des hassanates J'te l'ai déjà dit, moi, mon oseille, j'vais l'laisser à mon fils Ahmed Quand Mister You, il est dans la zone, y a tous les condés qui s'ramènent J'suis un brûlé, on va les brûler comme les potos Karim Sraven J'ai des euros, fuck tes centimes j'ai des euros, fuck tes centimes J'ramène des paires de Palestine j'ramène des paires de Palestine Fais pas l'malin avec ma team fais pas l'malin avec ma team Disque d'or et de platine disque d'or et de platine Après avoir taper trois péages, on fait du sale du sale T'as vu mon vrai visage, t'es tout pâle tout pâle C'est pour les k7al, les 3arbis, les tous-bab les tous-bab Tous présumés coupables tous présumés coupables Celui qui fait un faux pas, on l'handicape, l'ange de la mort ne porte pas un nud pap' T'as vu, j'fais pas d'effort, pourtant, j'suis soutenu comme le pape On arrive à la plage avec un gun, pas avec des shlap J'ai mis 30 balles dans des sacs, mais j'ai Fauvin dans mon compte J'ai fait la loi dans l'secteur avec une cagoule et un pompe C'est pas ça qui va m'nourrir de Belouss à rue d'la pompe L'arabe est sale, l'arabe est 7ar, ressaisis-toi, tu fous la honte Ils nous prennent pour des jnouns, nous prennent pour des reptiliens On vend du shit et d'la shnoun, c'darwa c'est notre quotidien Le marabout, il ira en enfer, ma gueule, nike sa mère les putains Faire des zéros sur les chèques, mais nique sa mère les bulletins Ce soir, en boîte, toi tu comptes rayonner, ça ferme la SAS devant oi-t, la sécu' te rie au nez Les pe'-stu, ces bâtards, rêvent de te cambrioler, moi j'rêve de jet, fil matar, de cabriolet On t'lâchait ta pito, on rentre la hella sans pitié Au shtar, on a tourné tôt, Yougataga dans la te-tê Tempête sur mon rrain-te, en plus, t'es pas d'chez oi-m Zone interdite, la Cité Blanche, té-ma les Abdel-wam Après s'être chargé l'cerveau, on veut charger les zodiaques Charles Péguy et Claude Chappe on n'a pas eu trop d'chatte L'oseille on fait shtip-shtap, pas les cojones, gros Hier, c'était flic-flac, aujourd'hui, c'est lex-ro Maintenant, on a la bourse, gros, tu bouges, on t'rafale ton père On cherche plus la Grande Ours, khapta dans le RR Bienvenue à la source, départ après le topzer On n'est plus dans la course, c'est nous l'hélicoptère Coqué dans le cockpit, tout l'monde a fini par terre Le temps d'démarrer ton p'tit, il s'est fait fumé par l'zdeh On a tourné dans la mnat gros, le train d'vie d'un hamster Demande à Vadudjolo, la frappe arrive de Amsterdam La be-her arrive de Rotter', l'Opinel est dans les artères Le puche-ca est sur la ble-ta, pour les fumer, faudra peu dtemps Rah les bâtards, ils s'demandent si vraiment on fait du cinéma On s'demande si à Paname, on aurait dû investir sur des gommes ou sur l'cul à Neymar On a trop squatté les bancs, les vannes ça part en bain d'sang Et t'as voulu nous ken, on a dû modifier le plan On a dû frôler le fer mais on a dû mouiller les gants On a dû cramer le fer, on a dû crever l'écran Un café crame un croissant, les cojones de 300 Les 20 euros d'un passant, les faux-culs sont pas à 100 Un café crame un croissant, les cojones de 300 Les 20 euros d'un passant, les faux-culs sont pas à 10You might also like</t>
+          <t>J'tourne en rond, j'balise, mais ya lkèbouss dans la valise C'est c'qui s'passe dans ma tête qui fait que je culpabilise De Paname à BX, pote, j'ai trop d'anecdotes, fuck Le serment du proc', troque la loc', quoi ? Ah Billy, la dictature comme Ben Ali, ils ont relaché Benala, ils ont pété 200 trons-li Évidemment qu'ça bic' coke, shit, zep', c'est trop logique Dans l'19 comme roue arrière ou en Y, Z Passe à Belleville, y a tout c'qu'il faut, y a plus de vrais que de faux L'chef d'inculpation, il est lourd, le jugement sera par défaut Y a des bâtards, ils t'serrent la main en espérantque tu t'fasses lever Pour récupérer l'terrain, histoire de s'faire un peu d'lové On a tous le cul sur la sellette, c'qui faut c'est des hassanates J'te l'ai déjà dit, moi, mon oseille, j'vais l'laisser à mon fils Ahmed Quand Mister You, il est dans la zone, y a tous les condés qui s'ramènent J'suis un brûlé, on va les brûler comme les potos Karim Sraven J'ai des euros, fuck tes centimes j'ai des euros, fuck tes centimes J'ramène des paires de Palestine j'ramène des paires de Palestine Fais pas l'malin avec ma team fais pas l'malin avec ma team Disque d'or et de platine disque d'or et de platine Après avoir taper trois péages, on fait du sale du sale T'as vu mon vrai visage, t'es tout pâle tout pâle C'est pour les k7al, les 3arbis, les tous-bab les tous-bab Tous présumés coupables tous présumés coupables Celui qui fait un faux pas, on l'handicape, l'ange de la mort ne porte pas un nud pap' T'as vu, j'fais pas d'effort, pourtant, j'suis soutenu comme le pape On arrive à la plage avec un gun, pas avec des shlap J'ai mis 30 balles dans des sacs, mais j'ai Fauvin dans mon compte J'ai fait la loi dans l'secteur avec une cagoule et un pompe C'est pas ça qui va m'nourrir de Belouss à rue d'la pompe L'arabe est sale, l'arabe est 7ar, ressaisis-toi, tu fous la honte Ils nous prennent pour des jnouns, nous prennent pour des reptiliens On vend du shit et d'la shnoun, c'darwa c'est notre quotidien Le marabout, il ira en enfer, ma gueule, nike sa mère les putains Faire des zéros sur les chèques, mais nique sa mère les bulletins Ce soir, en boîte, toi tu comptes rayonner, ça ferme la SAS devant oi-t, la sécu' te rie au nez Les pe'-stu, ces bâtards, rêvent de te cambrioler, moi j'rêve de jet, fil matar, de cabriolet On t'lâchait ta pito, on rentre la hella sans pitié Au shtar, on a tourné tôt, Yougataga dans la te-tê Tempête sur mon rrain-te, en plus, t'es pas d'chez oi-m Zone interdite, la Cité Blanche, té-ma les Abdel-wam Après s'être chargé l'cerveau, on veut charger les zodiaques Charles Péguy et Claude Chappe on n'a pas eu trop d'chatte L'oseille on fait shtip-shtap, pas les cojones, gros Hier, c'était flic-flac, aujourd'hui, c'est lex-ro Maintenant, on a la bourse, gros, tu bouges, on t'rafale ton père On cherche plus la Grande Ours, khapta dans le RR Bienvenue à la source, départ après le topzer On n'est plus dans la course, c'est nous l'hélicoptère Coqué dans le cockpit, tout l'monde a fini par terre Le temps d'démarrer ton p'tit, il s'est fait fumé par l'zdeh On a tourné dans la mnat gros, le train d'vie d'un hamster Demande à Vadudjolo, la frappe arrive de Amsterdam La be-her arrive de Rotter', l'Opinel est dans les artères Le puche-ca est sur la ble-ta, pour les fumer, faudra peu dtemps Rah les bâtards, ils s'demandent si vraiment on fait du cinéma On s'demande si à Paname, on aurait dû investir sur des gommes ou sur l'cul à Neymar On a trop squatté les bancs, les vannes ça part en bain d'sang Et t'as voulu nous ken, on a dû modifier le plan On a dû frôler le fer mais on a dû mouiller les gants On a dû cramer le fer, on a dû crever l'écran Un café crame un croissant, les cojones de 300 Les 20 euros d'un passant, les faux-culs sont pas à 100 Un café crame un croissant, les cojones de 300 Les 20 euros d'un passant, les faux-culs sont pas à 10</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Le torse est bombé Fuck le A et le plan B J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP Je m'adresse à toute l'Afrique du Tachel'hit au Wolofs Dans la street c'est la guerre c'est 100 fois pire que Call Of' Ca traîne qu'entre galériens ça rêve de se faire les haggars Ca se tire dessus pour un rien, plus le temps pour la bagarre J'suis galbé comme un balai l'état veut me foutre au placard C'est l'histoire d'un sénégalais qui rêve de Paris à Dakar Qui voit les jeunes venir de ce-fran tout l'été et bé-flam Maintenant même lui il veut tout péter dans le trafic de stupéfiants Il veut être la source comme Evian petit veut doubler les grands Il a des couilles il a du cran personne le fera blé-trem J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP You might also like Omnibulé par la haine les 3ayneurs n'ont aucun rêve Y m'faut une mitraillette ou un tokarev rêve Hôtel palace restaurant luxueux Hélicoptère jet privé de quoi en mettre plein les yeux Mesdames et messieurs écoutez bien cette histoire Celle d'un prince plein aux as plus riche que n'importe quelle star Des féfés, des bentleys escortés par des vitos Des djellabas d'chez Louis Vuitton Des puits d'pétrole des équipes de footballers Bien sûr qu'l'oseille il en rentre à toute heure Le pétrodollar il en connait la valeur Tout c'qui connait pas c'est le bonheur J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP Si j'suis en concert c'est ce que ca leur plait sous Kherdala J'suis dopé j'fous le darwa j'suis à saint tropez J'lève mon zdeh et mon re-vè J'suis au dessus j'les ai lobé Les concurrents c'est des tebè Mseken ils font d'la ne-pei Les pauvres ils font de la peine Jveux des diams des lovés donc j'suis obligé d'innover Au ??? tout le monde bah ya du bon du mauvais Histoire de rester vrai mon miroir me l'a prouvé Souvent j'parle à moi même Meilleur exemple s'appelle Mohamed Big up à mon sos Khaled J'la ferme qu'au poste ou aux toilettes J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP2</t>
+          <t>Le torse est bombé Fuck le A et le plan B J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP Je m'adresse à toute l'Afrique du Tachel'hit au Wolofs Dans la street c'est la guerre c'est 100 fois pire que Call Of' Ca traîne qu'entre galériens ça rêve de se faire les haggars Ca se tire dessus pour un rien, plus le temps pour la bagarre J'suis galbé comme un balai l'état veut me foutre au placard C'est l'histoire d'un sénégalais qui rêve de Paris à Dakar Qui voit les jeunes venir de ce-fran tout l'été et bé-flam Maintenant même lui il veut tout péter dans le trafic de stupéfiants Il veut être la source comme Evian petit veut doubler les grands Il a des couilles il a du cran personne le fera blé-trem J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP Omnibulé par la haine les 3ayneurs n'ont aucun rêve Y m'faut une mitraillette ou un tokarev rêve Hôtel palace restaurant luxueux Hélicoptère jet privé de quoi en mettre plein les yeux Mesdames et messieurs écoutez bien cette histoire Celle d'un prince plein aux as plus riche que n'importe quelle star Des féfés, des bentleys escortés par des vitos Des djellabas d'chez Louis Vuitton Des puits d'pétrole des équipes de footballers Bien sûr qu'l'oseille il en rentre à toute heure Le pétrodollar il en connait la valeur Tout c'qui connait pas c'est le bonheur J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP Si j'suis en concert c'est ce que ca leur plait sous Kherdala J'suis dopé j'fous le darwa j'suis à saint tropez J'lève mon zdeh et mon re-vè J'suis au dessus j'les ai lobé Les concurrents c'est des tebè Mseken ils font d'la ne-pei Les pauvres ils font de la peine Jveux des diams des lovés donc j'suis obligé d'innover Au ??? tout le monde bah ya du bon du mauvais Histoire de rester vrai mon miroir me l'a prouvé Souvent j'parle à moi même Meilleur exemple s'appelle Mohamed Big up à mon sos Khaled J'la ferme qu'au poste ou aux toilettes J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP2</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yeah, tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Yeah, mon rap tue lève le doigt en l'air J'attire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard J'aime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Comme dirait Rozay alléluia Comme dirait Fouiny Baby hamdoulilah Toute l'équipe est là Banlieue Sale, Porkela Quoi de neuf Fouiny Baby ? Yeah, Porkela Yeah hein hein on est sur Skyrock Haschich draham, Nessbeal, Mister You hein hein ! Haschich money Yeah, yeah Frère t'as commencé en bas, affronter les hauts les bas Ne marche pas sur mes pas ne devient pas ce que tu n'es pas Vis sur ton I-phone, mate comment on charbonne J'ai goûté la vie wAllah elle est trop bonne J'rêvais d'être au top, au square j'grattais des clopes J'ai vu des schlags faire leur pélérinage au coffee shop Frère que Dieu me pardonne, ouais que Dieu les pardonne Avec un flow en carton, j'me demande comment tu cartonnes Yeah, j'ai mal au ventre, j'ai même pas déjeuné En cours j'aimerais faire mes devoirs mais mon stylo a jeuné Je n'ai, je n'ai jamais donné aucun blaz' En garde à vue j'décorais les murs de mes petites phrases Yeah, frère ici ça sent l'poulet Prends tes jambes à ton cou n'oublie pas ton col roulé Yeah, quoi de neuf Fouiny Baby ? Haschich draham, Mister You, Nessbeal You might also like C'est l'âge de glace un dos argenté dans un igloo Une paire de sunglasses j'porte mes cicatrices comme des bijoux Un string Gucci khey c'est le zbeul comme dans les saloons Le périph c'est Mad Max, khey Paris a trop une grosse choune Khey, si ça saigne, c'est que t'es sur le devant d'la scène J'ai les dents qui raclent le sol khey, ça fait des étincelles Fais des du'as si j'm'éteins et qu'j'pars dans l'ciel Ça bouge pas, si c'est toi, j'serai vengé par un de mes khey Vodka Bison, ce soir on s'explose la vessie Des lamelles, un terrain, j'fracasse tes reins comme Lionel Messi Trop speed un V6, du rap de té-ci Ça bouge pas j'suis la version rap Léonard de Vinci Flow Sergio Tacchini kheye j'suis certifié classique Sur écoute Chris Snoop a.k.a. Verbal Brolik J'descendrai dans la street en costard j'ai classe à Marlo Ça bouge pas j'défonce tout depuis le premier solo Et c'est Laisse couler l'instru Pour tous les mecs au hebs Qu'ont pas encore tapé dans la porte les gars Eh cassez la porte les gars Quand on était petit En voulant acheter ce qui est superflu, on finit par vendre ce qui est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le dessert J'paranoïe mais pour Khider la liberté vaut l'or du monde Comme on dit perd un oeil là tu verras la valeur de l'autre Avant de lui dire je t'aime vérifie bien que c'est pas un vlo-tr' Même certains prophètes furent trahis par leurs propres apôtres mec Quand on était petit, en direction du casse pipe On s'était dit rendez vous dans 10 ans devant le bureau de la SPIP On était tout petit, mais on avait déjà des principes Pour trouver l'appétit on fumait des ptits en écoutant de la zik Eh, sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa ici bas personne te donne à manger Chaque chose en son temps, avant de brasser faut savoir nager A part ça, à l'école eh beh on n'était pas si te-bê que ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa khey ! Khey haschich money, ça bouge pas ma p'tite gueule! A coup de calibre dans leur gueule ma gueule Yeah hein hein, quoi de neuf Fouiny Babe ? Yeah hein hein, on est sur Skyrock On a fumé un keuf c'est l'Aïd Les rappeurs sont des mythos, je te le jure sur ma ie-v Tu veux un tube appelle-appelle l'ingé Confonds pas ceux qui touchent du bois, ceux qui touchent des points G Trop de haineux trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistante d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail Vaniquertamère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs seuls les micros les chiennes connaissent mon haleine On m'aime on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'arrive du 7.8., compète et verdure Élevé à la dure, loubia, coups de ceinture Quoi de neuf Fouiny Baby ? On est sur Sky, hein hein Nessbeal, You on est sur Sky Débuter en bas, toi-même tu sais que c'est ça Yeah hein hein yeah, débuter en bas Quoi de neuf Fouiny Baby ? On est sur Sky Nessbeal, Mister You débuter en bas Nessbeal Mister You, yeah Débuter en bas, l'important c'est d'y croire yeah Débuter en bas, même dans le fond fait briller ton étoile Yeah, hein hein Fouiny yeah, Ne2s rap de tess' Yeah, Mister You rap de tess' Quoi de neuf Fouiny Babe ? L'album sort lundi prochain 14 février ma gueule à noter dans les annales L'instru laisse ça continue ma gueule Dédicace à tous les frères enfermés Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sûr que nos mères elle pleurent, quand, les magistrats ils sont contents A défaut de clé faut du stic-pla pour les portes de la Santé Ca part d'une ptite barette de merde, ça s'termine par de la sûreté Si tu fumes du foin toute ta peine, on croira pas que t'es une te-tê Pour être millionnaire, suffit d'une flûte, tu m'niques ça par l'entrée J'sors du Zoogata-zoo quartier mal fréquenté Rempli de boloss, rempli de condés, rempli de trafiquantés Quand t'es seul au bord du gouffre, rappelle-toi que beaucoup de gens souffrent Ouais dahwa tout est mektoub, faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan, c'est l'bonhomme qui fait sa paye Grosse dédicace à Lass', même sur téléfoot ça fait l'rappel Ca passe de la place au Real, du dispatching au disque platine C'est la frontière de l'irréel, dans nos tiers-quar c'est Trainspotting Quand on était petit avec Bazoo, dans l'zoo c'était Resident Evil On voulait gué-lar des tonnes pour être les présidents de Belleville Mais bon l'État il nous a eu, il nous a fait mal au moral Bon on a pas poucave en gard'av on a tous eu zéro a l'oral Toujours présumé coupable jamais acquitté Clin d'oeil à Slimane Belmadi ainsi qu'à Ali Diakité J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient, on se suicide pas comme Dalida Inch'allah on fait une bête de villa pour Walida Au fond de moi c'est comme une dette, un bered d'athay sous la véranda L'échec m'est inadmissible, le chèque pour calmer nos dames C'est pour nos gosses, j'flippe que la haine soit transmissible Besoin d'espace, la place d'un loup n'est pas en cage Aiguisant de cash mon talent y'a du talion dans le langage Elles sont utopistes, mais ont leur cause à défendre On s'lève au bord du précipice, c'est pour ne pas voir nos chances fondre En deuil j'ai vu ma nation se pendre Par le billet, ma narration une vérité pourtant facile à comprendre J'ai rien j'veux entreprendre, j'passe mon temps à prétendre de l'âme et de sang Paraît que le monde a changé depuis le 11 septembre J'vais pas m'étendre ma souffrance en France J'ai vu la flamme s'étendre, l'ignorance se répandre Sans cesse on ressasse ce passé qui nous fait plonger Quand il est chargé peine impurgeable, à peine sorti que tu deviens insurgé Et ça resurgit, rime interne comme l'hémorragie Ne2s Hautes Noues Peace, Dar-al-Baidaa les origines Ah y'a 3 casaouis ! Dar-al-Baidaa Ca bouge pas ! Quoi de neuf Fouiny Fouiny Babe ? Yeah ma gueule DJ Battle aux platines ! Fred est là ma p'tite gueule Yeah yeah Quoi de neuf Fouiny Babe ? Lundi, La Fouine vs Laouni dans les bacs Quoi de neuf fouiny baby ? Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta fe-meu kiffe mon coupé Paraît que t'es partout que tu pe-ra moi je vois pas où t'es A l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, V.I.P. dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3. ML Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamel, zamel Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les biatchs, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as cru me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X., les R.M., la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'orange Fouiny Babe ! J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient on se suicide pas comme Dalida Inchallah on fait une bête de villa pour walida Au fond de moi merde.. Woogataga ! Ok, laisse parler les gens les commissaires etles agents On les baise tout en sachant que le temps c'est de l'argent Mais que la patience c'est de l'or, là j'vais sortir ma troisième jambe Pour bien niquer ce pays, et fuir la vingt-troisième chambre ! Kiffante la liberté, hachek j'bande, touche ! Y'a que l'entraineur qu'a le droit d'ètre fier d'ètre sur le banc de touche Représente la street, live in direct de Bélize Quand on entend pas marhbabik et ouais c'est tout seul qu'on s'invite Eh c'est, demande à La Fouine parce que c'est son album qu'on présente Dahwa toi même tu sais c'est qui, c'est qui, c'est qui qu'on représente ! C'est l'roc-Ma ma gueule, c'est Casablanca Eh c'est, nique la mère à tout le monde, ça vend de la khokha On est tous assis là à attendre le bon dièze Marre de vanter mes péchés, d'baiser des chattes qui puent la fournaise Représente 94 Hautes Noues Peace cité close Pas le droit à l'erreur j'ai trop la dalle pour moi le SMIC c'est trop guez' La haine est une cage qui nous empêche de voler C'est très tôt le matin que la BAC ils viennent nous interpeller J'peux pas extrapoler moi j'te parle de ce que j'connais La zenka, la vie d'une cellule sans la télé Et la frustration conditionnelle refusée Commission rogatoire, tomber pour un délit supposé Le, le phrasé, le bitume froid, de la taule froissée Un flash pour les flashbacks la nostalgie du passé Loin du rivage, les flashballs, un coeur sous gilet pare-balle C'est le rap le foot ou le fight du bitume la pierre tombale A la base un dissident court plus que les balles A la barre les peines sont maximales oublie que t'es un homme khey Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah, tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Yeah, mon rap tue lève le doigt en l'air J'attire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard J'aime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Comme dirait Rozay alléluia Comme dirait Fouiny Baby hamdoulilah Toute l'équipe est là Banlieue Sale, Porkela Quoi de neuf Fouiny Baby ? Yeah, Porkela Yeah hein hein on est sur Skyrock Haschich draham, Nessbeal, Mister You hein hein ! Haschich money Yeah, yeah Frère t'as commencé en bas, affronter les hauts les bas Ne marche pas sur mes pas ne devient pas ce que tu n'es pas Vis sur ton I-phone, mate comment on charbonne J'ai goûté la vie wAllah elle est trop bonne J'rêvais d'être au top, au square j'grattais des clopes J'ai vu des schlags faire leur pélérinage au coffee shop Frère que Dieu me pardonne, ouais que Dieu les pardonne Avec un flow en carton, j'me demande comment tu cartonnes Yeah, j'ai mal au ventre, j'ai même pas déjeuné En cours j'aimerais faire mes devoirs mais mon stylo a jeuné Je n'ai, je n'ai jamais donné aucun blaz' En garde à vue j'décorais les murs de mes petites phrases Yeah, frère ici ça sent l'poulet Prends tes jambes à ton cou n'oublie pas ton col roulé Yeah, quoi de neuf Fouiny Baby ? Haschich draham, Mister You, Nessbeal C'est l'âge de glace un dos argenté dans un igloo Une paire de sunglasses j'porte mes cicatrices comme des bijoux Un string Gucci khey c'est le zbeul comme dans les saloons Le périph c'est Mad Max, khey Paris a trop une grosse choune Khey, si ça saigne, c'est que t'es sur le devant d'la scène J'ai les dents qui raclent le sol khey, ça fait des étincelles Fais des du'as si j'm'éteins et qu'j'pars dans l'ciel Ça bouge pas, si c'est toi, j'serai vengé par un de mes khey Vodka Bison, ce soir on s'explose la vessie Des lamelles, un terrain, j'fracasse tes reins comme Lionel Messi Trop speed un V6, du rap de té-ci Ça bouge pas j'suis la version rap Léonard de Vinci Flow Sergio Tacchini kheye j'suis certifié classique Sur écoute Chris Snoop a.k.a. Verbal Brolik J'descendrai dans la street en costard j'ai classe à Marlo Ça bouge pas j'défonce tout depuis le premier solo Et c'est Laisse couler l'instru Pour tous les mecs au hebs Qu'ont pas encore tapé dans la porte les gars Eh cassez la porte les gars Quand on était petit En voulant acheter ce qui est superflu, on finit par vendre ce qui est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le dessert J'paranoïe mais pour Khider la liberté vaut l'or du monde Comme on dit perd un oeil là tu verras la valeur de l'autre Avant de lui dire je t'aime vérifie bien que c'est pas un vlo-tr' Même certains prophètes furent trahis par leurs propres apôtres mec Quand on était petit, en direction du casse pipe On s'était dit rendez vous dans 10 ans devant le bureau de la SPIP On était tout petit, mais on avait déjà des principes Pour trouver l'appétit on fumait des ptits en écoutant de la zik Eh, sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa ici bas personne te donne à manger Chaque chose en son temps, avant de brasser faut savoir nager A part ça, à l'école eh beh on n'était pas si te-bê que ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa khey ! Khey haschich money, ça bouge pas ma p'tite gueule! A coup de calibre dans leur gueule ma gueule Yeah hein hein, quoi de neuf Fouiny Babe ? Yeah hein hein, on est sur Skyrock On a fumé un keuf c'est l'Aïd Les rappeurs sont des mythos, je te le jure sur ma ie-v Tu veux un tube appelle-appelle l'ingé Confonds pas ceux qui touchent du bois, ceux qui touchent des points G Trop de haineux trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistante d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail Vaniquertamère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs seuls les micros les chiennes connaissent mon haleine On m'aime on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'arrive du 7.8., compète et verdure Élevé à la dure, loubia, coups de ceinture Quoi de neuf Fouiny Baby ? On est sur Sky, hein hein Nessbeal, You on est sur Sky Débuter en bas, toi-même tu sais que c'est ça Yeah hein hein yeah, débuter en bas Quoi de neuf Fouiny Baby ? On est sur Sky Nessbeal, Mister You débuter en bas Nessbeal Mister You, yeah Débuter en bas, l'important c'est d'y croire yeah Débuter en bas, même dans le fond fait briller ton étoile Yeah, hein hein Fouiny yeah, Ne2s rap de tess' Yeah, Mister You rap de tess' Quoi de neuf Fouiny Babe ? L'album sort lundi prochain 14 février ma gueule à noter dans les annales L'instru laisse ça continue ma gueule Dédicace à tous les frères enfermés Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sûr que nos mères elle pleurent, quand, les magistrats ils sont contents A défaut de clé faut du stic-pla pour les portes de la Santé Ca part d'une ptite barette de merde, ça s'termine par de la sûreté Si tu fumes du foin toute ta peine, on croira pas que t'es une te-tê Pour être millionnaire, suffit d'une flûte, tu m'niques ça par l'entrée J'sors du Zoogata-zoo quartier mal fréquenté Rempli de boloss, rempli de condés, rempli de trafiquantés Quand t'es seul au bord du gouffre, rappelle-toi que beaucoup de gens souffrent Ouais dahwa tout est mektoub, faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan, c'est l'bonhomme qui fait sa paye Grosse dédicace à Lass', même sur téléfoot ça fait l'rappel Ca passe de la place au Real, du dispatching au disque platine C'est la frontière de l'irréel, dans nos tiers-quar c'est Trainspotting Quand on était petit avec Bazoo, dans l'zoo c'était Resident Evil On voulait gué-lar des tonnes pour être les présidents de Belleville Mais bon l'État il nous a eu, il nous a fait mal au moral Bon on a pas poucave en gard'av on a tous eu zéro a l'oral Toujours présumé coupable jamais acquitté Clin d'oeil à Slimane Belmadi ainsi qu'à Ali Diakité J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient, on se suicide pas comme Dalida Inch'allah on fait une bête de villa pour Walida Au fond de moi c'est comme une dette, un bered d'athay sous la véranda L'échec m'est inadmissible, le chèque pour calmer nos dames C'est pour nos gosses, j'flippe que la haine soit transmissible Besoin d'espace, la place d'un loup n'est pas en cage Aiguisant de cash mon talent y'a du talion dans le langage Elles sont utopistes, mais ont leur cause à défendre On s'lève au bord du précipice, c'est pour ne pas voir nos chances fondre En deuil j'ai vu ma nation se pendre Par le billet, ma narration une vérité pourtant facile à comprendre J'ai rien j'veux entreprendre, j'passe mon temps à prétendre de l'âme et de sang Paraît que le monde a changé depuis le 11 septembre J'vais pas m'étendre ma souffrance en France J'ai vu la flamme s'étendre, l'ignorance se répandre Sans cesse on ressasse ce passé qui nous fait plonger Quand il est chargé peine impurgeable, à peine sorti que tu deviens insurgé Et ça resurgit, rime interne comme l'hémorragie Ne2s Hautes Noues Peace, Dar-al-Baidaa les origines Ah y'a 3 casaouis ! Dar-al-Baidaa Ca bouge pas ! Quoi de neuf Fouiny Fouiny Babe ? Yeah ma gueule DJ Battle aux platines ! Fred est là ma p'tite gueule Yeah yeah Quoi de neuf Fouiny Babe ? Lundi, La Fouine vs Laouni dans les bacs Quoi de neuf fouiny baby ? Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta fe-meu kiffe mon coupé Paraît que t'es partout que tu pe-ra moi je vois pas où t'es A l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, V.I.P. dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3. ML Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamel, zamel Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les biatchs, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as cru me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X., les R.M., la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'orange Fouiny Babe ! J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient on se suicide pas comme Dalida Inchallah on fait une bête de villa pour walida Au fond de moi merde.. Woogataga ! Ok, laisse parler les gens les commissaires etles agents On les baise tout en sachant que le temps c'est de l'argent Mais que la patience c'est de l'or, là j'vais sortir ma troisième jambe Pour bien niquer ce pays, et fuir la vingt-troisième chambre ! Kiffante la liberté, hachek j'bande, touche ! Y'a que l'entraineur qu'a le droit d'ètre fier d'ètre sur le banc de touche Représente la street, live in direct de Bélize Quand on entend pas marhbabik et ouais c'est tout seul qu'on s'invite Eh c'est, demande à La Fouine parce que c'est son album qu'on présente Dahwa toi même tu sais c'est qui, c'est qui, c'est qui qu'on représente ! C'est l'roc-Ma ma gueule, c'est Casablanca Eh c'est, nique la mère à tout le monde, ça vend de la khokha On est tous assis là à attendre le bon dièze Marre de vanter mes péchés, d'baiser des chattes qui puent la fournaise Représente 94 Hautes Noues Peace cité close Pas le droit à l'erreur j'ai trop la dalle pour moi le SMIC c'est trop guez' La haine est une cage qui nous empêche de voler C'est très tôt le matin que la BAC ils viennent nous interpeller J'peux pas extrapoler moi j'te parle de ce que j'connais La zenka, la vie d'une cellule sans la télé Et la frustration conditionnelle refusée Commission rogatoire, tomber pour un délit supposé Le, le phrasé, le bitume froid, de la taule froissée Un flash pour les flashbacks la nostalgie du passé Loin du rivage, les flashballs, un coeur sous gilet pare-balle C'est le rap le foot ou le fight du bitume la pierre tombale A la base un dissident court plus que les balles A la barre les peines sont maximales oublie que t'es un homme khey Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J'arrive en grande pompe, hey Koston J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui', hey J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui' J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui' J'laisse un billet quelconque, avant qu'le fisc me saisisse Ici, c'est dur même quand tu fais des loves Alors qu'le bled est pur, là-bas, un rien, ça vaut de l'or Darou fiya tiqa temma, prennent soin d'moi comme des champs à Ketama Alors qu'ici rien que ça me té-ma, j'pète les plombs, j'veux personne à côté d'moi J'vois trop d'langues de vipère depuis qu'ma veste est en python La roue tourne à l'envers, papa enterre son fiston C'est Marwa, Yougataga, on a réussi sans piston Garant d'la tonne en taga, t'inquiète pas, y a du bifton J'suis passé par la Santé, en commençant par Fleury C'matin, j'ai cramé trente feuilles en passant chez Burberry Suffit qu'une fleur fane pour que le bouquet pourrisse Suffit qu'une femme parle pour qu'l'un d'mes reufrés périsse Suffit qu'une femme parle pour qu'un d'mes potos périssent Et j'parle pas d'enfant quand je dis qu'j'vais chez la nourrice Un grain d'folie, un grain d'mélancolie J'crois qu'y a trop d'biff, ouais, ma vie, c'est l'Monopoly You might also like Et ouais, la musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes La musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes Mais j'veux le million d'eu', le million d'eu' J'ai pris ton rêve et je l'ai cassé en deux Le millions d'eu', le millions d'eu' J'ai pris tous tes rêves et j'les ai cassé en deux C'est pour ceux qu'ont pas d'mandat et qui vont pas demander J'croise kim-Ha à porte de Pantin, j'vais voir Hicham à Saint-Mandé Là, j'suis rue des Alouettes, hamdoulah, qu'Dieu soit loué J'suis avec rif-Ché dans un bolide, wallay billay, c'est pas loué D'la garde à v' aux arrivants, sur les murs, j'étais graffeur Baby Driver et bim bim, le rap des bicraveurs Les traîtres et les boycotteurs, veuillez calmer vos ardeurs Y a qu'du bruit, y a plus d'odeur, t'as pas vu les droits d'auteur Lundi matin, j'croise le poto qui visser Il m'dit qu'il a la haine, qu'il veut se faire le commissaire J'lui dis Faut qu'tu t'débrouilles même si j't'aime bien et t'es cool Mais là, j'suis désolée, y a qu'pour la mif' qu'je lâche les douilles Et là, j'suis près du four donc j'v-esqui quand y a la fouille À force de pas tirer, tu sais que le calibre, il rouille Ça m'rend dingue, dingue, dingue qu'ils veulent se venger J'ai que l'plan A, moi, j'ai pas d'plan B Suffit qu'une femme parle pour qu'un d'mes potos périssent Et j'parle pas d'enfant quand je dis qu'j'vais chez la nourrice Un grain d'folie, un grain d'mélancolie J'crois qu'y a trop d'biff, ouais, ma vie, c'est l'Monopoly Et ouais, la musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes La musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes Mais j'veux le million d'eu', le million d'eu' J'ai pris ton rêve et je l'ai cassé en deux Le millions d'eu', le millions d'eu' J'ai pris tous tes rêves et j'les ai cassé en deux</t>
+          <t>J'arrive en grande pompe, hey Koston J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui', hey J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui' J'arrive en grande pompe, j'viens d'sortir d'chez Louis Vui' J'laisse un billet quelconque, avant qu'le fisc me saisisse Ici, c'est dur même quand tu fais des loves Alors qu'le bled est pur, là-bas, un rien, ça vaut de l'or Darou fiya tiqa temma, prennent soin d'moi comme des champs à Ketama Alors qu'ici rien que ça me té-ma, j'pète les plombs, j'veux personne à côté d'moi J'vois trop d'langues de vipère depuis qu'ma veste est en python La roue tourne à l'envers, papa enterre son fiston C'est Marwa, Yougataga, on a réussi sans piston Garant d'la tonne en taga, t'inquiète pas, y a du bifton J'suis passé par la Santé, en commençant par Fleury C'matin, j'ai cramé trente feuilles en passant chez Burberry Suffit qu'une fleur fane pour que le bouquet pourrisse Suffit qu'une femme parle pour qu'l'un d'mes reufrés périsse Suffit qu'une femme parle pour qu'un d'mes potos périssent Et j'parle pas d'enfant quand je dis qu'j'vais chez la nourrice Un grain d'folie, un grain d'mélancolie J'crois qu'y a trop d'biff, ouais, ma vie, c'est l'Monopoly Et ouais, la musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes La musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes Mais j'veux le million d'eu', le million d'eu' J'ai pris ton rêve et je l'ai cassé en deux Le millions d'eu', le millions d'eu' J'ai pris tous tes rêves et j'les ai cassé en deux C'est pour ceux qu'ont pas d'mandat et qui vont pas demander J'croise kim-Ha à porte de Pantin, j'vais voir Hicham à Saint-Mandé Là, j'suis rue des Alouettes, hamdoulah, qu'Dieu soit loué J'suis avec rif-Ché dans un bolide, wallay billay, c'est pas loué D'la garde à v' aux arrivants, sur les murs, j'étais graffeur Baby Driver et bim bim, le rap des bicraveurs Les traîtres et les boycotteurs, veuillez calmer vos ardeurs Y a qu'du bruit, y a plus d'odeur, t'as pas vu les droits d'auteur Lundi matin, j'croise le poto qui visser Il m'dit qu'il a la haine, qu'il veut se faire le commissaire J'lui dis Faut qu'tu t'débrouilles même si j't'aime bien et t'es cool Mais là, j'suis désolée, y a qu'pour la mif' qu'je lâche les douilles Et là, j'suis près du four donc j'v-esqui quand y a la fouille À force de pas tirer, tu sais que le calibre, il rouille Ça m'rend dingue, dingue, dingue qu'ils veulent se venger J'ai que l'plan A, moi, j'ai pas d'plan B Suffit qu'une femme parle pour qu'un d'mes potos périssent Et j'parle pas d'enfant quand je dis qu'j'vais chez la nourrice Un grain d'folie, un grain d'mélancolie J'crois qu'y a trop d'biff, ouais, ma vie, c'est l'Monopoly Et ouais, la musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes La musique me porte, la musique est forte La musique est belle, elle m'a ouvert ses portes Mais j'veux le million d'eu', le million d'eu' J'ai pris ton rêve et je l'ai cassé en deux Le millions d'eu', le millions d'eu' J'ai pris tous tes rêves et j'les ai cassé en deux</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wesh Rise dit moi comment c'est C'est Mister You, Bomayé J'ai visé dans l'mille La musique a des projets pour moi là bas J'connais les vices, les filles qui font que de me lambda J'connais la zik, tout ces potes qui ont la dalle Qui te diront merci mais sont là que pour faire la bas Pour ma famille, il faut que j'aille l'plus loin Pour mes amis, il faut qu'fasse mon chemin Laisse, certain te suive, laisse Laisse, si tu deviens populaire x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis J'connais les gens qui te veulent du mal Ah mais j'laisse tomber Je sais que pour eux c'est terminé Ah mais j'laisse tomber Des fois je doute, parfois dégoutté D'un don j'suis doté Donc la jalousie ne fait qu'augmenter Ah, ah, ah, je n'sais plus quoi faire Ah, ah, ah, les traites vont m'décoiffer Ah, ah, ah, j'ai le seum mais je reste serein Ah, ah, ah, du haram je suis desserrer You might also like x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis On a grandi dans la street, on a connu la vie dure C'est dans les vieilles marmites qu'on fait les meilleures confitures On revient de tellement loin, bienvenue dans le futur Quand la street fait sa rentrée, elle demande l'album en fourniture Mister You, Naza, KeBlack Dans l'pe-ra ça met des claques Mec crois pas qu'chez nous ça blague Nos concerts se payent au black Ils t'écoutent, Féfé Maybach C'est l'retour du Grand Méchant You, c'est le come-back J'suis calibré comme BaK Bak XX J'ai rencard avec la morgue et Laurent Bouneau J'ai d'la one et des hits j'ai repris le boulot Sur les ondes et dans la street Rise, pull-up x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis</t>
+          <t>Wesh Rise dit moi comment c'est C'est Mister You, Bomayé J'ai visé dans l'mille La musique a des projets pour moi là bas J'connais les vices, les filles qui font que de me lambda J'connais la zik, tout ces potes qui ont la dalle Qui te diront merci mais sont là que pour faire la bas Pour ma famille, il faut que j'aille l'plus loin Pour mes amis, il faut qu'fasse mon chemin Laisse, certain te suive, laisse Laisse, si tu deviens populaire x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis J'connais les gens qui te veulent du mal Ah mais j'laisse tomber Je sais que pour eux c'est terminé Ah mais j'laisse tomber Des fois je doute, parfois dégoutté D'un don j'suis doté Donc la jalousie ne fait qu'augmenter Ah, ah, ah, je n'sais plus quoi faire Ah, ah, ah, les traites vont m'décoiffer Ah, ah, ah, j'ai le seum mais je reste serein Ah, ah, ah, du haram je suis desserrer x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis On a grandi dans la street, on a connu la vie dure C'est dans les vieilles marmites qu'on fait les meilleures confitures On revient de tellement loin, bienvenue dans le futur Quand la street fait sa rentrée, elle demande l'album en fourniture Mister You, Naza, KeBlack Dans l'pe-ra ça met des claques Mec crois pas qu'chez nous ça blague Nos concerts se payent au black Ils t'écoutent, Féfé Maybach C'est l'retour du Grand Méchant You, c'est le come-back J'suis calibré comme BaK Bak XX J'ai rencard avec la morgue et Laurent Bouneau J'ai d'la one et des hits j'ai repris le boulot Sur les ondes et dans la street Rise, pull-up x2 Excuse moi, eh, maman j't'avais promis Excuse moi, eh, papa j't'avais promis</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? Mister Yougataga et Deksaga dans les riages-ma Poto, tiens bien ta go ou elle finit sur C LE ZGA Demande à Sadek ouais, on lâchera pas l'steak Le salaire d'la juge vaut même pas l'prix d'mes baskets Fin d'crochet, passement d'jambe, le tout suivi d'une passe dé' J'ai grandi dans l'impasse, Belleville, Barbès et Place D C'est tous les jours mon birthday, ils m'veulent comme ils veulent Barksdale argh J'vends plus de choco qu'Nestlé ouais, ils veulent me mettre les bracelets J'ai grandi dans la galère, j'rappe pendant qu'tu dors rah J'suis la galette de crack qui a fait déborder la goutte d'Or brah Moi, tu m'connais, Yougataga, j'suis toujours là quand faut y aller ouais ouais Dans l'four enfouraillé, on veut défourailler l'poulailler J'suis cet enfant qui pleure de rage dans les bras d'sa maman voilée C'trafiquant dans l'engrenage qui va investir dans un voilier Han, j'veux niquer les racistes, faire claquer leurs molaires yeah Et s'il était si lucide, il s'rait musulman Molière yeah Ils préfèrent s'tuer au pinard et prôner l'adultère, bizarre Ils voient tout en noir les enfants des Lumières Lumières Tout terrain, un neuf et un Gilera skish Éclate un ennemi et on s'envole pour l'Nigéria ski skish Mister Yougataga et Deksaga dans les riages-ma Poto, tiens bien ta go ou elle finit sur C LE ZGA J'suis là à plein temps, t'es qu'un saisonnier hein À part les gens qu'j'te présente, hein qui tu connais ? Personne Les contrats, moi, j'les lis comme des BD Se venger, dépassé comme DVD Dans la vie, on a que c'qu'on mérite, les yous-voy, ils étudient mes rimes Les escrocs sont à la mairie, c'est les mêmes qui ont fumé Mesrine Chez moi, Momo il est mal vu, c'est pas Charles dans la prairie Les tits-pe sont en garde à vue et les gravands ont presque tous péri Seconde guerre mondiale, qui est-c'qui pleurait ? C'est pas les Arabes et les Noirs qui ont coopéré C'est les toubabous qui ont trahi la Résistance C'est nos darons qui ont reconstruit toute la France Les tirailleurs sénégalais à genoux que devant le Seigneur C'est pour les mères analphabètes qui ont enfanté des ingénieurs C'est pas au stand de tir qu'on a connu des frayeurs On a tous vécu l'pire sans côtoyer le meilleur Han, je joue mon avenir, je joue pas de rôle C'est malheureux mais en vrai c'est drôle Ils nous appellent, on quittera pas nos halls Parc'que y a plein de racistes chez les Gilets Jaunes Et c'est honnête, pas de méchanceté nan Nous demander d'l'aide en vrai c'est pas logique pas logique C'est l'hôpital qui s'moque d'la charité Les USA qui sucent les soviétiques Eh, eh, eh, faut faire d'l'oseille sa mère la pute Ouais, ouais, ouais, ouais, faut faire d'l'oseille sa mère la pute Et ouais le monde tourne à l'envers, on s'fait boycotter par nos frères Y a qu'à regarder les ouïghours, comment l'musulman on s'en sert Et t'insultes de fils de pute, t'inquiète, j'le mémorise C'est eux qui nous terrorisent et ils nous traitent de terroristes On a pris des couleurs en promenade, on rêve de l'île Maurice On a tous grandi en cage un peu comme Hugo Lloris Ouais c'est nous les méchants, le monde est à moi Comme Didier, j'veux des champs mais vers Ketama Ouais j'vais cultiver, Naturalia Pour toi la vie vaut rien, pour nous, elle est trop ghalia Et on paye la cuenta, c'est la ruelle Les mauvais élèves sont manuels J'change chaque semaine de bagnole Baise plus de vieilles qu'Emmanuel Yougataga, Deksaga, en live sur la selecta J'suis là pour faire chier l'État, j'ai le rôle du smecta Wahad wahad jouj tlata, Sidi Maarouf a Sbata Cabarilla ti pasa, mi casa es tu casa Et j'parle pas à ces déchets, là, j'suis assez pressé J'ai fait plus de pêchés qu'les membres d'ACDC J'ai pas assez brassé, on parle qu'en TTC Tu veux qu'on t'fasse bosser, j'suis pas intéressé Et j'veux l'actrice dans l'Féfé, le pare-brise plein d'PV Ce soir, j'mets la Belvé', tu peux m'appeler BG Ouais darwa c'est léger, tu m'dis d'y aller molo Chez nous, y a tellement d'boloss, des fois, y a pas assez d'CC Eh, les guetteurs guettent, les gérants s'font gérer chouf J'vais pas m'faire péter sortant du TGV Tous les résidents, j'les ai déjà aider tous Et fuck le président, la juge et l'préfet Fuck les békés, vive Belleville et Riquet J'marque comme Benze' et j't'arrache comme Pepe Fais pas l'kéké, y aura pas d'ITT Et reste comme t'étais, nous fais pas l'retraité You might also like Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est la rue qui nous a fait changer Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est aussi elle qui nous a fait manger C'est aussi elle qui nous a fait manger Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est aussi elle qui nous a fait manger C'est aussi elle qui nous a fait manger1</t>
+          <t>Nabz, nigga, what's up ? Mister Yougataga et Deksaga dans les riages-ma Poto, tiens bien ta go ou elle finit sur C LE ZGA Demande à Sadek ouais, on lâchera pas l'steak Le salaire d'la juge vaut même pas l'prix d'mes baskets Fin d'crochet, passement d'jambe, le tout suivi d'une passe dé' J'ai grandi dans l'impasse, Belleville, Barbès et Place D C'est tous les jours mon birthday, ils m'veulent comme ils veulent Barksdale argh J'vends plus de choco qu'Nestlé ouais, ils veulent me mettre les bracelets J'ai grandi dans la galère, j'rappe pendant qu'tu dors rah J'suis la galette de crack qui a fait déborder la goutte d'Or brah Moi, tu m'connais, Yougataga, j'suis toujours là quand faut y aller ouais ouais Dans l'four enfouraillé, on veut défourailler l'poulailler J'suis cet enfant qui pleure de rage dans les bras d'sa maman voilée C'trafiquant dans l'engrenage qui va investir dans un voilier Han, j'veux niquer les racistes, faire claquer leurs molaires yeah Et s'il était si lucide, il s'rait musulman Molière yeah Ils préfèrent s'tuer au pinard et prôner l'adultère, bizarre Ils voient tout en noir les enfants des Lumières Lumières Tout terrain, un neuf et un Gilera skish Éclate un ennemi et on s'envole pour l'Nigéria ski skish Mister Yougataga et Deksaga dans les riages-ma Poto, tiens bien ta go ou elle finit sur C LE ZGA J'suis là à plein temps, t'es qu'un saisonnier hein À part les gens qu'j'te présente, hein qui tu connais ? Personne Les contrats, moi, j'les lis comme des BD Se venger, dépassé comme DVD Dans la vie, on a que c'qu'on mérite, les yous-voy, ils étudient mes rimes Les escrocs sont à la mairie, c'est les mêmes qui ont fumé Mesrine Chez moi, Momo il est mal vu, c'est pas Charles dans la prairie Les tits-pe sont en garde à vue et les gravands ont presque tous péri Seconde guerre mondiale, qui est-c'qui pleurait ? C'est pas les Arabes et les Noirs qui ont coopéré C'est les toubabous qui ont trahi la Résistance C'est nos darons qui ont reconstruit toute la France Les tirailleurs sénégalais à genoux que devant le Seigneur C'est pour les mères analphabètes qui ont enfanté des ingénieurs C'est pas au stand de tir qu'on a connu des frayeurs On a tous vécu l'pire sans côtoyer le meilleur Han, je joue mon avenir, je joue pas de rôle C'est malheureux mais en vrai c'est drôle Ils nous appellent, on quittera pas nos halls Parc'que y a plein de racistes chez les Gilets Jaunes Et c'est honnête, pas de méchanceté nan Nous demander d'l'aide en vrai c'est pas logique pas logique C'est l'hôpital qui s'moque d'la charité Les USA qui sucent les soviétiques Eh, eh, eh, faut faire d'l'oseille sa mère la pute Ouais, ouais, ouais, ouais, faut faire d'l'oseille sa mère la pute Et ouais le monde tourne à l'envers, on s'fait boycotter par nos frères Y a qu'à regarder les ouïghours, comment l'musulman on s'en sert Et t'insultes de fils de pute, t'inquiète, j'le mémorise C'est eux qui nous terrorisent et ils nous traitent de terroristes On a pris des couleurs en promenade, on rêve de l'île Maurice On a tous grandi en cage un peu comme Hugo Lloris Ouais c'est nous les méchants, le monde est à moi Comme Didier, j'veux des champs mais vers Ketama Ouais j'vais cultiver, Naturalia Pour toi la vie vaut rien, pour nous, elle est trop ghalia Et on paye la cuenta, c'est la ruelle Les mauvais élèves sont manuels J'change chaque semaine de bagnole Baise plus de vieilles qu'Emmanuel Yougataga, Deksaga, en live sur la selecta J'suis là pour faire chier l'État, j'ai le rôle du smecta Wahad wahad jouj tlata, Sidi Maarouf a Sbata Cabarilla ti pasa, mi casa es tu casa Et j'parle pas à ces déchets, là, j'suis assez pressé J'ai fait plus de pêchés qu'les membres d'ACDC J'ai pas assez brassé, on parle qu'en TTC Tu veux qu'on t'fasse bosser, j'suis pas intéressé Et j'veux l'actrice dans l'Féfé, le pare-brise plein d'PV Ce soir, j'mets la Belvé', tu peux m'appeler BG Ouais darwa c'est léger, tu m'dis d'y aller molo Chez nous, y a tellement d'boloss, des fois, y a pas assez d'CC Eh, les guetteurs guettent, les gérants s'font gérer chouf J'vais pas m'faire péter sortant du TGV Tous les résidents, j'les ai déjà aider tous Et fuck le président, la juge et l'préfet Fuck les békés, vive Belleville et Riquet J'marque comme Benze' et j't'arrache comme Pepe Fais pas l'kéké, y aura pas d'ITT Et reste comme t'étais, nous fais pas l'retraité Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est la rue qui nous a fait changer Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est aussi elle qui nous a fait manger C'est aussi elle qui nous a fait manger Depuis p'tit attiré par le danger C'est la rue qui nous a fait changer C'est aussi elle qui nous a fait manger C'est aussi elle qui nous a fait manger1</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, ya que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à lannée dernière au chtar avec Youssouf et Seth Jappelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et japerçois les strass et paillettes Cest fini les rehkéyèt, Kore on se check tout à lheure faut que jaille chercher mes trophées Deux Soixante à lheure, cest dans la Féfé que ça va chauffer Direction le bled, man tinquiète cest pas pour faire un go fast Le rap français je viens de lécraser, il marrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe létéye, raljo lbierra Woo Gataga lyoma lguerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Ya ben rhami, rameli lkés Zid oh zid ih ramalhr T Werhahtek, rhani mgamerh Zid ou Zid oh rhamelh T Werhahtek, rhani mgamerh You might also like Enéya, khouya, jme verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche dune femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais lexploser Jaurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable Jappelle une bête de meuf, tellement canon quil faut un port darmes Elle est trop mcheneuf, je sais pas comment la gérer Ici cest pas comme au Maroc, cest pas comme en Algérie Ah nan Dahwa, cest la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en lair, aujourdhui cest la guerre</t>
+          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, ya que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à lannée dernière au chtar avec Youssouf et Seth Jappelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et japerçois les strass et paillettes Cest fini les rehkéyèt, Kore on se check tout à lheure faut que jaille chercher mes trophées Deux Soixante à lheure, cest dans la Féfé que ça va chauffer Direction le bled, man tinquiète cest pas pour faire un go fast Le rap français je viens de lécraser, il marrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe létéye, raljo lbierra Woo Gataga lyoma lguerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Ya ben rhami, rameli lkés Zid oh zid ih ramalhr T Werhahtek, rhani mgamerh Zid ou Zid oh rhamelh T Werhahtek, rhani mgamerh Enéya, khouya, jme verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche dune femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais lexploser Jaurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable Jappelle une bête de meuf, tellement canon quil faut un port darmes Elle est trop mcheneuf, je sais pas comment la gérer Ici cest pas comme au Maroc, cest pas comme en Algérie Ah nan Dahwa, cest la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en lair, aujourdhui cest la guerre</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>On va vibrer, vibrer, vibrer On va bouger, bouger, bouger Sex On The Beach sur la ble-ta Vive la vida loca Tu connais, cest Yougataga On va vibrer, vibrer, vibrer On va bouger, bouger, bouger Sors la Black ou la Visa Ibiza, tu le sais déjà You oh oh oh oh oh oh oh Ok pour commencer, avec nous tu sais comment cest La vie de rêve gringo on te dit quoi faire et quoi manger esse ! Quiero un poco de vodka con zumo de manzana La gente está muy loca, son las tres de la mañana Ya quatre mecs pour dix nanas, ce soir lambiance est halla Gucci Dolce Gabbana et hop pour la magie cest Paname Les gars ils assurent le biz, je veux que toutes les Go elles aillent sur la piste Gros je tai déjà dit on est tous égaux égocentriques et égoïstes ! Jai vu la place des grands hommes, où est passé celle des grandes femmes ? Jécoute mon son je me transforme je maime je suis mon plus grand fan Dis leur K-Reen cest la fête, mesdames, messieurs mesdemoiselles Donc je veux voir toutes les mains en lair sauf ceux qui fouettent des aisselles ! Je suis à la recherche de la muy bonita La chica la mas guapa y la mas linda Joffrirai pas mon cur à une meuf zinega Demande à mon soce Bilna cest le Zou GATAGA !!! You might also like Prend moi la main, viens on va danser Oublions demain et allons-nous ambiancer Faut y aller kil-tran, sans arrières pensées Laisse parler les gens toi-même tu sais Des fois jaimerais menfuir courir partir sans me retourner Dire quhier je partais en vrille aujourdhui je pars en tournée Ok, la vie cest comme un film, faut pas mourir au début, baby Lamour ne tient quà un fil, à nous den faire des pulls Avec les femmes je suis super nul, mais bon, ce quelles aiment cest que je suis sincère En voulant acheter ce qui est superflu on finit par vendre ce qui est nécessaire Ya Zèh, jespère que les vrais comprendront Que ma carrière servira de corde que quand les faux se pendront ! Maintenant quand je fais des plats, cest plus des pattes, cest à la piscine Jacuzzi limousine bête de cuistot dans la cuisine Mojito sur la ble-ta, viva la vida loca Tu connais, cest le Zou GATAGA !!! AH AH AH Woo GATAGA Mister YOU, K-Reen, alors on dit quoi, hein ??? Lunettes de soleil, crème solaire 37.2 le matin WOO GATAAMOUAAHHH !!!!! Sous le ciel bleu le son relève des capots On est toujours official tu connais On claque des liasses, la vie de barjot Nous on kiffe ça normal ça le fait hey ! Surtout pas de pression on attend la gagne fais péter le champagne On verra après on est ensemble et on va sambiancer On fait comme ça, on fait la Vida Loca</t>
+          <t>On va vibrer, vibrer, vibrer On va bouger, bouger, bouger Sex On The Beach sur la ble-ta Vive la vida loca Tu connais, cest Yougataga On va vibrer, vibrer, vibrer On va bouger, bouger, bouger Sors la Black ou la Visa Ibiza, tu le sais déjà You oh oh oh oh oh oh oh Ok pour commencer, avec nous tu sais comment cest La vie de rêve gringo on te dit quoi faire et quoi manger esse ! Quiero un poco de vodka con zumo de manzana La gente está muy loca, son las tres de la mañana Ya quatre mecs pour dix nanas, ce soir lambiance est halla Gucci Dolce Gabbana et hop pour la magie cest Paname Les gars ils assurent le biz, je veux que toutes les Go elles aillent sur la piste Gros je tai déjà dit on est tous égaux égocentriques et égoïstes ! Jai vu la place des grands hommes, où est passé celle des grandes femmes ? Jécoute mon son je me transforme je maime je suis mon plus grand fan Dis leur K-Reen cest la fête, mesdames, messieurs mesdemoiselles Donc je veux voir toutes les mains en lair sauf ceux qui fouettent des aisselles ! Je suis à la recherche de la muy bonita La chica la mas guapa y la mas linda Joffrirai pas mon cur à une meuf zinega Demande à mon soce Bilna cest le Zou GATAGA !!! Prend moi la main, viens on va danser Oublions demain et allons-nous ambiancer Faut y aller kil-tran, sans arrières pensées Laisse parler les gens toi-même tu sais Des fois jaimerais menfuir courir partir sans me retourner Dire quhier je partais en vrille aujourdhui je pars en tournée Ok, la vie cest comme un film, faut pas mourir au début, baby Lamour ne tient quà un fil, à nous den faire des pulls Avec les femmes je suis super nul, mais bon, ce quelles aiment cest que je suis sincère En voulant acheter ce qui est superflu on finit par vendre ce qui est nécessaire Ya Zèh, jespère que les vrais comprendront Que ma carrière servira de corde que quand les faux se pendront ! Maintenant quand je fais des plats, cest plus des pattes, cest à la piscine Jacuzzi limousine bête de cuistot dans la cuisine Mojito sur la ble-ta, viva la vida loca Tu connais, cest le Zou GATAGA !!! AH AH AH Woo GATAGA Mister YOU, K-Reen, alors on dit quoi, hein ??? Lunettes de soleil, crème solaire 37.2 le matin WOO GATAAMOUAAHHH !!!!! Sous le ciel bleu le son relève des capots On est toujours official tu connais On claque des liasses, la vie de barjot Nous on kiffe ça normal ça le fait hey ! Surtout pas de pression on attend la gagne fais péter le champagne On verra après on est ensemble et on va sambiancer On fait comme ça, on fait la Vida Loca</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>La rue c'est paro d'mande au poto Diawara J'bicrave du shit d'la weed du cke-cra et d'la wawa J'suis faya, c'est grillé dis-leur John rien d'anodin Y'a pas qu'le 14 Février qu'on encule la mère à Valentin Gros, la vie c'est morose darawa demande à Malik Faut des couilles de rhinocéros ewa pour jouer dans ma ligue 1492 ils ont découvert l'Amérique Aujourd'hui dans l'92 ils r'trouvent du shit vers la mairie En 732 on s'est fait boycott' par Charles Martel Maintenant au volant d'un R32 eh bah Sarko on le gué-lar mortel 1789, la révolution française À c't'heure-ci dans l'19 tu peux pé-cho 400 litrons d'cess En l'an 800 ils ont couronné Charlemagne Eux ils s'en battent les klao' Chems et Gims déchirent la mic Attention layster j'suis v'nu pour marqué l'histoire C'est Mister You j'raterai pas l'avion comme Mac Allister Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef You might also like J'fais des trucs propres ensuite j'me barre en snow J'ai commencé les rimes tôt un peu comme Besancenot Hein hein j'suis pas dans l'slow J'irai plutôt puiser l'inspi' dans des films gores comme Saw Ok le flow la tech' tout y est comme oreiller un bouclier Paname c'est gore donc forcément on dort avec les poings serrés Viens, viens j'vais t'l'insérer, viens qu'j'te montre de l'art sérieux Ensuite t'iras te plaindre aux keufs en leur disant wAllah c'est eux Boom la France agonise Maître Gims ou Wolverine Gifle dans ta gueule si tu souris sache-le pour l'avenir Tiens en parlant d'avenir, que va d'venir Sarkozy ? Si j'me décidais à faire un feat avec Carla Bruni Oh c'est une plaisanterie j'suis une sorte de maladie J'ai du mal à le dire mais le MC auront du mal à l'vivre Hey tu kiffes le sexe et les flingues Deuss tah les noichs nommés Tcheng ou bien Peng Appelle-moi Gims Al Pacin', Ze pequeño, Clark Kent Aladdin le king de Kin a Pikine nigga Sexion d'assaut Wati B yeah Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef En matière dillicite mes ptites frappes savent y faire Ça vi-ser les criquets, ça crame sans mis-per H24 on protège mère, tante, cousine Même si cest rude avec tant dmerde tant dsoucis On en a marre des frigos vides et des flics hostiles Maintenant on veut des filles coquines et du fric aussi 75020 tu connais lcode postal De lor dans les cordes vocales la débrouille le sport local Si on traîne tard le soir Cest pas parce que la nuit porte conseil, cest juste pour dl'oseille Ici ça s'bute la nuit, ça fume la weed Les stups sagitent, tu connais cest les rues dParis Comme un baveu jconnais la loi mais jhésite pas À la transgresser quand il sagit dm'engraisser Ils voulaient quj'reste pauvre et honnête Cest mal me connaître, ils ont menti tant pis si jfinis aux Baumettes Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef A quoi penser quand lbulletin est dérisoire Quand la bicrave est un biz' tu tfais péter en provisoire Les propos, la pute de proc' tranche comme des rasoirs Yaurait moins ddéboires si les donneuses se faisaient trouer comme des passoires La trahison, lhorizon Nos ptits frères et leurs nouvelles prisons Funambule du code pénale, paya, personne na nos grades Ta mentale de voyous soldats, Pushka en main le sang froid Une ville d'indigènes, je dis qule monde sourit car ma présence gêne Nos parents dans nos tess ont pris une longue peine Nos curs dans nos quartiers chaud souffrent et fondent Là où criminels, trafiquants et fils de famille se confondent La juge nique sa mère, enfin jn'ai plus trop peur FLN comme mon père, l'brolic et moi on fait la paire Kamikaze, non fashion fichu La vérité sort de la bouche des poucaves, prends toi cette bastos dans le cul Cest signé hata militaire guette ma philosophie En marge dla république avec un bic machiavélique Rêve de vendetta, toujours entouré de mes soldats Trompe toi, sois lun dentre nous et tu comprendras Je nsuis quun jeune de Belleville, un artiste en devenir Pour tous mes frères qui sont partis sans jamais en revenir Entre la drogue et la tise on nique notre avenir Calomnie et guerre mais le pire reste à venir, soldat !1</t>
+          <t>La rue c'est paro d'mande au poto Diawara J'bicrave du shit d'la weed du cke-cra et d'la wawa J'suis faya, c'est grillé dis-leur John rien d'anodin Y'a pas qu'le 14 Février qu'on encule la mère à Valentin Gros, la vie c'est morose darawa demande à Malik Faut des couilles de rhinocéros ewa pour jouer dans ma ligue 1492 ils ont découvert l'Amérique Aujourd'hui dans l'92 ils r'trouvent du shit vers la mairie En 732 on s'est fait boycott' par Charles Martel Maintenant au volant d'un R32 eh bah Sarko on le gué-lar mortel 1789, la révolution française À c't'heure-ci dans l'19 tu peux pé-cho 400 litrons d'cess En l'an 800 ils ont couronné Charlemagne Eux ils s'en battent les klao' Chems et Gims déchirent la mic Attention layster j'suis v'nu pour marqué l'histoire C'est Mister You j'raterai pas l'avion comme Mac Allister Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef J'fais des trucs propres ensuite j'me barre en snow J'ai commencé les rimes tôt un peu comme Besancenot Hein hein j'suis pas dans l'slow J'irai plutôt puiser l'inspi' dans des films gores comme Saw Ok le flow la tech' tout y est comme oreiller un bouclier Paname c'est gore donc forcément on dort avec les poings serrés Viens, viens j'vais t'l'insérer, viens qu'j'te montre de l'art sérieux Ensuite t'iras te plaindre aux keufs en leur disant wAllah c'est eux Boom la France agonise Maître Gims ou Wolverine Gifle dans ta gueule si tu souris sache-le pour l'avenir Tiens en parlant d'avenir, que va d'venir Sarkozy ? Si j'me décidais à faire un feat avec Carla Bruni Oh c'est une plaisanterie j'suis une sorte de maladie J'ai du mal à le dire mais le MC auront du mal à l'vivre Hey tu kiffes le sexe et les flingues Deuss tah les noichs nommés Tcheng ou bien Peng Appelle-moi Gims Al Pacin', Ze pequeño, Clark Kent Aladdin le king de Kin a Pikine nigga Sexion d'assaut Wati B yeah Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef En matière dillicite mes ptites frappes savent y faire Ça vi-ser les criquets, ça crame sans mis-per H24 on protège mère, tante, cousine Même si cest rude avec tant dmerde tant dsoucis On en a marre des frigos vides et des flics hostiles Maintenant on veut des filles coquines et du fric aussi 75020 tu connais lcode postal De lor dans les cordes vocales la débrouille le sport local Si on traîne tard le soir Cest pas parce que la nuit porte conseil, cest juste pour dl'oseille Ici ça s'bute la nuit, ça fume la weed Les stups sagitent, tu connais cest les rues dParis Comme un baveu jconnais la loi mais jhésite pas À la transgresser quand il sagit dm'engraisser Ils voulaient quj'reste pauvre et honnête Cest mal me connaître, ils ont menti tant pis si jfinis aux Baumettes Joue et tu r'pars à quatre pattes On fait les choses propres 75 t'inquiète pas En attendant qu'la monnaie pleuve, que les Majors pleurent On est pas là pour les groupies pour qu'elles nous donnent des fleurs Paris Ma chérie tinquiète pas Ce soir c'est l'top c'est Mister You qui gère Et même les dames du 16 tirent leur couvre-chef A quoi penser quand lbulletin est dérisoire Quand la bicrave est un biz' tu tfais péter en provisoire Les propos, la pute de proc' tranche comme des rasoirs Yaurait moins ddéboires si les donneuses se faisaient trouer comme des passoires La trahison, lhorizon Nos ptits frères et leurs nouvelles prisons Funambule du code pénale, paya, personne na nos grades Ta mentale de voyous soldats, Pushka en main le sang froid Une ville d'indigènes, je dis qule monde sourit car ma présence gêne Nos parents dans nos tess ont pris une longue peine Nos curs dans nos quartiers chaud souffrent et fondent Là où criminels, trafiquants et fils de famille se confondent La juge nique sa mère, enfin jn'ai plus trop peur FLN comme mon père, l'brolic et moi on fait la paire Kamikaze, non fashion fichu La vérité sort de la bouche des poucaves, prends toi cette bastos dans le cul Cest signé hata militaire guette ma philosophie En marge dla république avec un bic machiavélique Rêve de vendetta, toujours entouré de mes soldats Trompe toi, sois lun dentre nous et tu comprendras Je nsuis quun jeune de Belleville, un artiste en devenir Pour tous mes frères qui sont partis sans jamais en revenir Entre la drogue et la tise on nique notre avenir Calomnie et guerre mais le pire reste à venir, soldat !1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hades HLM, Hasta La Muerte Yeah, yeah Sem7o liya 3robi motherfucker Genoeg flows, ik ben geen fucking mens Ah Draag die Fendi in die Benz Kankhelli zzamel bouhoum llor Casablanca mi amor, leven net een mafioso Kayen lbayda voor die nosso Zoeken watcha's in die osso 3robi mayne ik ben met You Mannen zijn jealous, ze zien wat ik doe In de zomer heb ik door Zie me stunten op je moer Ik ben altijd op die sjans Zie me laagjes daar in France Zie me laagjes daar in Molenbeek Dekhel lflouss, ma thderch bezzaf Fucking pussy's, nee ik ben niet met Ik wil draaien mattie, net roulette Veel euro's, mathématique Ren naar binnen met een automatic Ey, ey, frada kaydiro mossiqa Marijuana Americano, California rook Gelato Fih l7chich in die bateau, bla ma ttlesseq b7al tattoos Aan het rennen voor m'n brood Fatoemannen willen mij ook dood Drari sghar, zie ze spelen groot Ik en jij, ik en jij, ik en jij, we zijn niet hetzelfde, we zijn niet hetzelfde, we zijn niet hetzelfde You might also like Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra C'est 3robi Yougataga, les peines font mal sur l'béton J'ai beaucoup d'frères, pour les revoir, bah, faudrait que j'bé-tom Belleville, Barbès ou Pierrefitte, la rue, ça va super vite Les tits-pe deviennent des gravands, les anciens finissent Uber Eats Qu'est-ce tu veux faire ? Tout part en vrille, j'suis entouré que de mhabil On s'tue entre frères, zzah, comme Qabil et Habil Parfois, on croit tout savoir mais sache que ghir Rebbi li 3aref Les épreuves, faut les surmonter, ça sert à rien d'faire le mec zehef Ch7al men wa7ed kaytreffe7, ch7al men wa7ed kaytme77en Weld khali chedd la licence, kheddam kaykhsel f lmwa3en Internet khrej 3la cha3b, koulchi gha ywelli kassoul Lyouma cheft 3arbi fater w 7dah nesrani kaysoum 3douya bnali guitoun, qtelni m l3ayn w lghira Casanostra, khoya, sebsi, temra w 7rira Lwalidin dima fi gloubna, deyye3na sghorna f l7bassat Koun ghir 7ellina lktouba, koun ghir tfina ttelfazat Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra</t>
+          <t>Hades HLM, Hasta La Muerte Yeah, yeah Sem7o liya 3robi motherfucker Genoeg flows, ik ben geen fucking mens Ah Draag die Fendi in die Benz Kankhelli zzamel bouhoum llor Casablanca mi amor, leven net een mafioso Kayen lbayda voor die nosso Zoeken watcha's in die osso 3robi mayne ik ben met You Mannen zijn jealous, ze zien wat ik doe In de zomer heb ik door Zie me stunten op je moer Ik ben altijd op die sjans Zie me laagjes daar in France Zie me laagjes daar in Molenbeek Dekhel lflouss, ma thderch bezzaf Fucking pussy's, nee ik ben niet met Ik wil draaien mattie, net roulette Veel euro's, mathématique Ren naar binnen met een automatic Ey, ey, frada kaydiro mossiqa Marijuana Americano, California rook Gelato Fih l7chich in die bateau, bla ma ttlesseq b7al tattoos Aan het rennen voor m'n brood Fatoemannen willen mij ook dood Drari sghar, zie ze spelen groot Ik en jij, ik en jij, ik en jij, we zijn niet hetzelfde, we zijn niet hetzelfde, we zijn niet hetzelfde Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra C'est 3robi Yougataga, les peines font mal sur l'béton J'ai beaucoup d'frères, pour les revoir, bah, faudrait que j'bé-tom Belleville, Barbès ou Pierrefitte, la rue, ça va super vite Les tits-pe deviennent des gravands, les anciens finissent Uber Eats Qu'est-ce tu veux faire ? Tout part en vrille, j'suis entouré que de mhabil On s'tue entre frères, zzah, comme Qabil et Habil Parfois, on croit tout savoir mais sache que ghir Rebbi li 3aref Les épreuves, faut les surmonter, ça sert à rien d'faire le mec zehef Ch7al men wa7ed kaytreffe7, ch7al men wa7ed kaytme77en Weld khali chedd la licence, kheddam kaykhsel f lmwa3en Internet khrej 3la cha3b, koulchi gha ywelli kassoul Lyouma cheft 3arbi fater w 7dah nesrani kaysoum 3douya bnali guitoun, qtelni m l3ayn w lghira Casanostra, khoya, sebsi, temra w 7rira Lwalidin dima fi gloubna, deyye3na sghorna f l7bassat Koun ghir 7ellina lktouba, koun ghir tfina ttelfazat Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra Casanostra, Casanostra</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C'est la voilière s'amuse pendant que ma croisière s'annule Car dans le tier-quar t'as vu y'a plus de vacances pour le Samu Les mômes en garde-à-vue, c'est le soleil de la sère-mi Tous mes points ont sautés, j'vais passer l'été sans permis J'défonce tous les barrages, j'suis sur les routes de l'interdit LÉtat en mode économie envoie les braqueurs en colonie Bitume gris c'est le coloris, wesh colo j'squatte ton logis Même dans le 34 j'suis dans le 94 car c'est les mêmes pathologies On s'en fout pas trop logique j'suis en vacances toute l'année J'suis au charbon toute l'année, sur le bitume comme un acharné C'est le rugiment de mon régiment, j'suis dans une merde hallucinante On représente la délinquance itinérante, la rue, le ciment Donc écoute nos résumés, Bad Game, on énumère En tant que coupable présumé, assumé tant qu'on a pas du-per Bon c'est sa les cances-va pour le ghetto yougatagaa Les condés veulent te barrer la route, veulent pas de mois d'août à Casa Tout les ans on fait l'Italie, là j'ai pas fait Roma nan J'ai voulu attacher le re-fré de Roumanoff L'été ça ne change pas, seul l'hiver on tise P'tit verre de champagne on devient braqueur en Vel-Satis Lacrim, il a claqué les menteurs 2009, avoir un Glock est élémentaire Ok il me faut les cent bâtons poto, là j'en ai mal au ventre Toujours au casse pipe, c'est pour ça qu'on part le mois de novembre Présumé coupable car on s'allume aussi Jette le corps j'récupere les diam's c'est dans sa limousine - Allo Younes refré - Barre-toi du Novotel En bas y'a les keufs vas-y j'te rappelle d'un nouveau tel You might also like Aéroport de Zenata Tlemcen, j'suis au de-blé 35 degrés dans la te-tê j'sors les Ray-Ban's pour m'la ter-pé Mon zinc' me dit t'es un tre-traî quand j'lui montre quartier Hallam Il apprécie tout mon CD mais il me dit que j'fais que parler d'Paname Il me dit représente nous pour le coup j'pose un 12 Mais c'bâtard il pose un XXX donc sur le coup XXX Bédave de la frappe bouteille de Jack les Harragas Sur la plage ça me parle de kilos de Malaga Whoua té-ma la go, c'est elle la petite lyonnaise ? J'la fais té-mon dans la sse-cai, j'lui met Matoub Lounes Tu connais le charlatan, j'suis pas venu cher-cher la tonne Une chicha sur du Hasni on sendort au Shératon Et moi cet été bah j'ai bicrave toute les vacances J'étais au charbon, mission transaction dans toute la France J'suis parti vers Dreux, j'suis remonté vers Creil J'ai serré une petite meuf blonde les yeux verts clairs Elle ma dit qu'est ce tu fais dans la vie ? J'ai dit j'suis comme lhôpital J'vends de la poudre aux patients et toi t'es doù ? Elle m'a dit j'suis Rital J'lui est mis une bête de disquette, XXX Elle fait plus de pâtes al dente nan elle cuisine d'la quétte Woogataga j'me verrai bien à kech-Marra ou au Pacha Mais j'suis en vale-ca donc j'garde la pêche dahwa Nique les hagounes, j'serai bien parti vers Cancún Mais y'avait de la pure sur le terrain, j'ai du camper tout le mois d'août Y'a pas de doutes nan c'est clair c'est déclaré Un petit z'déh, une teille-bou, et t'es en cances-va toute la soirée J'partirai bien troqué du shit fih Guadalupe Mais si ça XXX, l'OCRTIS ne va pas me louper</t>
+          <t>C'est la voilière s'amuse pendant que ma croisière s'annule Car dans le tier-quar t'as vu y'a plus de vacances pour le Samu Les mômes en garde-à-vue, c'est le soleil de la sère-mi Tous mes points ont sautés, j'vais passer l'été sans permis J'défonce tous les barrages, j'suis sur les routes de l'interdit LÉtat en mode économie envoie les braqueurs en colonie Bitume gris c'est le coloris, wesh colo j'squatte ton logis Même dans le 34 j'suis dans le 94 car c'est les mêmes pathologies On s'en fout pas trop logique j'suis en vacances toute l'année J'suis au charbon toute l'année, sur le bitume comme un acharné C'est le rugiment de mon régiment, j'suis dans une merde hallucinante On représente la délinquance itinérante, la rue, le ciment Donc écoute nos résumés, Bad Game, on énumère En tant que coupable présumé, assumé tant qu'on a pas du-per Bon c'est sa les cances-va pour le ghetto yougatagaa Les condés veulent te barrer la route, veulent pas de mois d'août à Casa Tout les ans on fait l'Italie, là j'ai pas fait Roma nan J'ai voulu attacher le re-fré de Roumanoff L'été ça ne change pas, seul l'hiver on tise P'tit verre de champagne on devient braqueur en Vel-Satis Lacrim, il a claqué les menteurs 2009, avoir un Glock est élémentaire Ok il me faut les cent bâtons poto, là j'en ai mal au ventre Toujours au casse pipe, c'est pour ça qu'on part le mois de novembre Présumé coupable car on s'allume aussi Jette le corps j'récupere les diam's c'est dans sa limousine - Allo Younes refré - Barre-toi du Novotel En bas y'a les keufs vas-y j'te rappelle d'un nouveau tel Aéroport de Zenata Tlemcen, j'suis au de-blé 35 degrés dans la te-tê j'sors les Ray-Ban's pour m'la ter-pé Mon zinc' me dit t'es un tre-traî quand j'lui montre quartier Hallam Il apprécie tout mon CD mais il me dit que j'fais que parler d'Paname Il me dit représente nous pour le coup j'pose un 12 Mais c'bâtard il pose un XXX donc sur le coup XXX Bédave de la frappe bouteille de Jack les Harragas Sur la plage ça me parle de kilos de Malaga Whoua té-ma la go, c'est elle la petite lyonnaise ? J'la fais té-mon dans la sse-cai, j'lui met Matoub Lounes Tu connais le charlatan, j'suis pas venu cher-cher la tonne Une chicha sur du Hasni on sendort au Shératon Et moi cet été bah j'ai bicrave toute les vacances J'étais au charbon, mission transaction dans toute la France J'suis parti vers Dreux, j'suis remonté vers Creil J'ai serré une petite meuf blonde les yeux verts clairs Elle ma dit qu'est ce tu fais dans la vie ? J'ai dit j'suis comme lhôpital J'vends de la poudre aux patients et toi t'es doù ? Elle m'a dit j'suis Rital J'lui est mis une bête de disquette, XXX Elle fait plus de pâtes al dente nan elle cuisine d'la quétte Woogataga j'me verrai bien à kech-Marra ou au Pacha Mais j'suis en vale-ca donc j'garde la pêche dahwa Nique les hagounes, j'serai bien parti vers Cancún Mais y'avait de la pure sur le terrain, j'ai du camper tout le mois d'août Y'a pas de doutes nan c'est clair c'est déclaré Un petit z'déh, une teille-bou, et t'es en cances-va toute la soirée J'partirai bien troqué du shit fih Guadalupe Mais si ça XXX, l'OCRTIS ne va pas me louper</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-Mister You Et encore une course poursuite darhwa, Booska-p mon socs, Mister Yougatahramkhas comme les boycotteurs bandes d'enfoirés Ha Et putain, vas-y, vas-y, on va faire demi-tour poto , on va aller garer ta caisse -Jr O Chrome Mais wallah toi aussi t es une galère poto, wesh c est quoi les bails ? -Mister You Nan wallah , elle est cendrée mais vas-y t'inquiètes j'ai des bécanes... Ha ouais mais ta jambe, toi tu peux piloter avec ta jambe ? -Jr O Chrome Hey moi jambe ou pas jambe, t'inquiètes même pas ! -Mister You Aieaieaie vas-y darwah j ai confiance, j ai confiance, vas-y on y go Tu vas pas m'croire, mais y a Broussard et Julie Lescaut L'expression du regard, elle veut dire Let's go ! Hop, te-fein, demi-tour on court au bout On a trop faim, mais la melle-ga a un sale goût Ha Woogataga Arrêtez vous ! les keufs y gueulent On prends à droite ensuite à gauche et on s'réfugie dans un immeuble En moins d'deux on est cagoulés, armés d'un Desert Eagle Ça va douiller du poulet, ça va grailler du McChicken Truc de fou, ouais, on est tous déterminés Les keufs c'est comme les traîtres, faudrait tous les exterminer Troisième sous-sol, on monte chacun sur un R1 J'prends mon phone, j'appelle un petit qu'est devant le parking y m'dit Y a rien Coup d'starter, embrayage, démarrage, soleil Be-be-be-Belleville, opérationnel J'm'arrête, je check JR et j'ouvre un flash que j'tise deuss Darwah, ça devient chaud, faut que j'quitte le 19 Donc, j'appelle une petite meuf et j'lui demande ou elle est Elle m'dit qu'elle est chez elle, qu'elle galère, qu'elle zyeute la télé Elle regarde Plus belle la vie, bah à mon avis J'arriverais à la disquetté histoire qu'elle se barre en Bolivie Première, deuxième, j'suis dans l'douzième Métro Dugommier , j'capte un keu-mé qui m'doit d'l'oseille papiers J'ai du l'goumer vu qu'y s'est mis à bé-bégayer Ouais y s'est tout mis dans l'nez, mais l'enfoiré y m'a pas payé J'reprends ma cane-bé, j'réaccélère Be-be-be, beh ouais, qu'y nique sa mère Sniffer d'la coke, c'est pire que d'faire la bise au diable J'rêve que d'tonnes et d'cognac, faya dans un p'tit Zodiac J'kifferais faire des course poursuites avec la guar-Ja J'rêve que d'délit de fuite, comme Soucca Mel-ja ? Moi si j'serais dans Heat, bah j'serais Val Kilmer Ce trou de balle de schmitt ouais, j'souhaiterais qu'il meurt Zéro heure pile, j'arrive en bas d'chez la meuf Elle habite dans l'8, au 6 rue Marbeuf Au-dessus du Hartwood, deuxième étage Elle m'fait un signe, y a les keufs partout, j'ai capté le message Là j fais plus un geste, y a qu'mes yeux qui bougent Tout droit à 200 mètres je crois qu'il y a un type qu'est louche En même pas 4 secondes, j'en repère dix autres Course poursuite, la suite au prochain épisode !You might also like1</t>
+          <t>-Mister You Et encore une course poursuite darhwa, Booska-p mon socs, Mister Yougatahramkhas comme les boycotteurs bandes d'enfoirés Ha Et putain, vas-y, vas-y, on va faire demi-tour poto , on va aller garer ta caisse -Jr O Chrome Mais wallah toi aussi t es une galère poto, wesh c est quoi les bails ? -Mister You Nan wallah , elle est cendrée mais vas-y t'inquiètes j'ai des bécanes... Ha ouais mais ta jambe, toi tu peux piloter avec ta jambe ? -Jr O Chrome Hey moi jambe ou pas jambe, t'inquiètes même pas ! -Mister You Aieaieaie vas-y darwah j ai confiance, j ai confiance, vas-y on y go Tu vas pas m'croire, mais y a Broussard et Julie Lescaut L'expression du regard, elle veut dire Let's go ! Hop, te-fein, demi-tour on court au bout On a trop faim, mais la melle-ga a un sale goût Ha Woogataga Arrêtez vous ! les keufs y gueulent On prends à droite ensuite à gauche et on s'réfugie dans un immeuble En moins d'deux on est cagoulés, armés d'un Desert Eagle Ça va douiller du poulet, ça va grailler du McChicken Truc de fou, ouais, on est tous déterminés Les keufs c'est comme les traîtres, faudrait tous les exterminer Troisième sous-sol, on monte chacun sur un R1 J'prends mon phone, j'appelle un petit qu'est devant le parking y m'dit Y a rien Coup d'starter, embrayage, démarrage, soleil Be-be-be-Belleville, opérationnel J'm'arrête, je check JR et j'ouvre un flash que j'tise deuss Darwah, ça devient chaud, faut que j'quitte le 19 Donc, j'appelle une petite meuf et j'lui demande ou elle est Elle m'dit qu'elle est chez elle, qu'elle galère, qu'elle zyeute la télé Elle regarde Plus belle la vie, bah à mon avis J'arriverais à la disquetté histoire qu'elle se barre en Bolivie Première, deuxième, j'suis dans l'douzième Métro Dugommier , j'capte un keu-mé qui m'doit d'l'oseille papiers J'ai du l'goumer vu qu'y s'est mis à bé-bégayer Ouais y s'est tout mis dans l'nez, mais l'enfoiré y m'a pas payé J'reprends ma cane-bé, j'réaccélère Be-be-be, beh ouais, qu'y nique sa mère Sniffer d'la coke, c'est pire que d'faire la bise au diable J'rêve que d'tonnes et d'cognac, faya dans un p'tit Zodiac J'kifferais faire des course poursuites avec la guar-Ja J'rêve que d'délit de fuite, comme Soucca Mel-ja ? Moi si j'serais dans Heat, bah j'serais Val Kilmer Ce trou de balle de schmitt ouais, j'souhaiterais qu'il meurt Zéro heure pile, j'arrive en bas d'chez la meuf Elle habite dans l'8, au 6 rue Marbeuf Au-dessus du Hartwood, deuxième étage Elle m'fait un signe, y a les keufs partout, j'ai capté le message Là j fais plus un geste, y a qu'mes yeux qui bougent Tout droit à 200 mètres je crois qu'il y a un type qu'est louche En même pas 4 secondes, j'en repère dix autres Course poursuite, la suite au prochain épisode !1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais-moi voir comment tu bouges Fais-moi voir comment tu danses Parle avec moi deux minutes Jte dirais comment tu penses Ya dlalcool, jte fais boire Si tes chaude, fais-moi voir Me donne pas du caviar jpréfère être qu'avoir Dans les poches trois-quatre barres, et quelques potes-ca Jai cquil faut dans lcalbard les yeucous, le pushka Ce soir cest champagne, sky, Gin et vodka Soirée dmalade, jvous demande de garder votre calme Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Poto fais-moi voir la vie drêve Jte ferai voir la vie dtess Mes potos naviguent dans livresse Ils sretrouvent noyés dans la tristesse Cque XXX monnaie Quand tas plus un personne te reconnaît Fais-moi rêver, fais-moi voler Faut qujminspire, fais-moi zoner Fais-moi voir ton amour si tu maimes Me ldis pas, vas-y prouve-moi le Fais-moi voir toute haine Tout cque tas dans le cur, jsens qutu vas mal Fais-moi voir ce que tas vu Jte ferai vivre ce que je vois Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais, fais, fais-moi voir Fais, fais, fais-moi voir Fais-moi voir, fais-moi voir Fais-moi voir, fais-moi voir Fais-moi voirYou might also like1</t>
+          <t>Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais-moi voir comment tu bouges Fais-moi voir comment tu danses Parle avec moi deux minutes Jte dirais comment tu penses Ya dlalcool, jte fais boire Si tes chaude, fais-moi voir Me donne pas du caviar jpréfère être qu'avoir Dans les poches trois-quatre barres, et quelques potes-ca Jai cquil faut dans lcalbard les yeucous, le pushka Ce soir cest champagne, sky, Gin et vodka Soirée dmalade, jvous demande de garder votre calme Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Poto fais-moi voir la vie drêve Jte ferai voir la vie dtess Mes potos naviguent dans livresse Ils sretrouvent noyés dans la tristesse Cque XXX monnaie Quand tas plus un personne te reconnaît Fais-moi rêver, fais-moi voler Faut qujminspire, fais-moi zoner Fais-moi voir ton amour si tu maimes Me ldis pas, vas-y prouve-moi le Fais-moi voir toute haine Tout cque tas dans le cur, jsens qutu vas mal Fais-moi voir ce que tas vu Jte ferai vivre ce que je vois Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais pas la folle et Fais moi voir cque tas à mdonner Promets-moi monts et merveilles On rêvera toute la noche Fais, fais, fais-moi voir Fais, fais, fais-moi voir Fais-moi voir, fais-moi voir Fais-moi voir, fais-moi voir Fais-moi voir1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Enchantéééé Moi c'est Yougataga alias Latifi pour les gradés Ils m'ont pété mais bon j'la sentait Y'a que les Hèsses qui reste au.... Attend écoutez Trop deuss pour la Mondeo si l'argent il est sale j'ai mon déo Ça m'fait plaisir quand j'prend l'micro d'observer que tout le monde est auch Il neige toujours au tiéquar y'a plus besoin de voir la météo J'ai commencer tout en bas et El Hamdoulah j'suis monté haut Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sur que nos mères elle pleurent quand les magistrats ils sont content A défaut de clé faut du stique-pla pour les portes de la Santé Ça part d'une ptite barrette de merde ça s'termine par de la sureté Si tu fumes du foin toute ta peine on croira pas que t'es une te-té Pour être millionnaire suffit d'une flûte t'minique ça parle en T J'sors du zoogatazoo quartier mal fréquenté Rempli de boloss rempli de condés rempli d'trafiquante Et quand t'es seul au bord du gouffre rappelle-toi que beaucoup de gens souffrent Ouais dahwa tous t'est mektoub faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan c'est l'bonhomme qui fait sa paye Grosse dédicasse à Lass sur téléfoot ça fait l'rappel Ça passe de la place au Real du dispatching au disque platine C'est la frontiere de l'iréel dans nos tiékar c'est transputing Quand on etait petit avec bazoo dans l'zoo c'etait resident evil On voulais gué-lar des tonnes pour être les présidents de Belleville Mais bon l'Etat il nous a eu, il nous a fait mal au moral Bon on a pas poukave en gard'av on a tous eu 0 à l'oral Toujours présumé coupable jamais acquitté Clin d'oeil a Slimane Belmadi ainsi qu'a Ali Diakité You might also like Ouhh, enchanté Moi c'est Yougataga alias Latifi pour les gradés Là j'suis au placard et j'suis en train de chanter Y'a que les hèsses qui restent au 42 rue de la Santé XXX Mister Yougataga... Y'a que les Hèsses qui restent au 42,rue de la Santé On se tchek à la Santé et on s'rattrape à ?? On veut s'faire la patronne on veut Sandra Paoli On crachera pas dans sa culotte, on crachera pas au lit On crachera pas au chiotte nan, on crachera sur la police Woogataga tout ce que moi j'sais C'est que j'vaut cent fois plus que le gradé que les Hésses et que le fe-ché Quand tu fait le Ramdame beh ils faut qu'ils te fassent chier Faut qu'ils te poussent à la faute, bèl hlag beh va pas tout clasher Vaut mieux les ignorer ces petits porte-clé ambulant qui portent une tunique bleu et qui croit que ça les rend plus corpulents Ils méritent des baffes dans la gueule mais bon ils valent pas 45 jours J'sais de quoi j'te parle ma gueule demande plus l'jhour au bout de 4 jours Tu rêves que de Albak sèlek quand ton sommeil est interrompu Là-bas le lundi y'a pas de soleil toute la semaine non plus Crois-moi le QD c'est pété, Dahwa j'ai vu, j'ai vécu, pour pas s'faire pété fais pas le te-bé Plante ton shit dans le cul Presque tous des passeurs au parlu c'est l'aéroport on calle tout entre les sse-f et ont s'fait fouiller par ces gros porcs Quand on a trop d'choses à planquer on met deux vestes et un très très gros jeans Mate la démarche c'est plus des fesses mais des pinces crocodiles Laissez moi dans ma matrice fesant dl'oseille en grattant le papier Ce que j'kifferai c'est que la directrice me lèche les doigts de pieds, que tous les gradés se fassent écraser Et enfin que les hésses brûlent devant les détenues s'marrant sans s'lasser Grosse barbe au mitard, baskets sans lacets Sois patient dans la poisse, un jour la chance viendra t'embrasser Au lieu de s'presser vaut mieux patienter, y'a que les hésses qui restent au, 42 rue de la Santé Ouhh, enchanté Moi c'est Yougataga alias Latifi pour les gradés Là j'suis au placard et j'suis en train de chanter Y'a que les hèsses qui restent au 42 rue de la Santé Y'a que les Hésses qui restent au 42,rue de la Santé1</t>
+          <t>Enchantéééé Moi c'est Yougataga alias Latifi pour les gradés Ils m'ont pété mais bon j'la sentait Y'a que les Hèsses qui reste au.... Attend écoutez Trop deuss pour la Mondeo si l'argent il est sale j'ai mon déo Ça m'fait plaisir quand j'prend l'micro d'observer que tout le monde est auch Il neige toujours au tiéquar y'a plus besoin de voir la météo J'ai commencer tout en bas et El Hamdoulah j'suis monté haut Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sur que nos mères elle pleurent quand les magistrats ils sont content A défaut de clé faut du stique-pla pour les portes de la Santé Ça part d'une ptite barrette de merde ça s'termine par de la sureté Si tu fumes du foin toute ta peine on croira pas que t'es une te-té Pour être millionnaire suffit d'une flûte t'minique ça parle en T J'sors du zoogatazoo quartier mal fréquenté Rempli de boloss rempli de condés rempli d'trafiquante Et quand t'es seul au bord du gouffre rappelle-toi que beaucoup de gens souffrent Ouais dahwa tous t'est mektoub faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan c'est l'bonhomme qui fait sa paye Grosse dédicasse à Lass sur téléfoot ça fait l'rappel Ça passe de la place au Real du dispatching au disque platine C'est la frontiere de l'iréel dans nos tiékar c'est transputing Quand on etait petit avec bazoo dans l'zoo c'etait resident evil On voulais gué-lar des tonnes pour être les présidents de Belleville Mais bon l'Etat il nous a eu, il nous a fait mal au moral Bon on a pas poukave en gard'av on a tous eu 0 à l'oral Toujours présumé coupable jamais acquitté Clin d'oeil a Slimane Belmadi ainsi qu'a Ali Diakité Ouhh, enchanté Moi c'est Yougataga alias Latifi pour les gradés Là j'suis au placard et j'suis en train de chanter Y'a que les hèsses qui restent au 42 rue de la Santé XXX Mister Yougataga... Y'a que les Hèsses qui restent au 42,rue de la Santé On se tchek à la Santé et on s'rattrape à ?? On veut s'faire la patronne on veut Sandra Paoli On crachera pas dans sa culotte, on crachera pas au lit On crachera pas au chiotte nan, on crachera sur la police Woogataga tout ce que moi j'sais C'est que j'vaut cent fois plus que le gradé que les Hésses et que le fe-ché Quand tu fait le Ramdame beh ils faut qu'ils te fassent chier Faut qu'ils te poussent à la faute, bèl hlag beh va pas tout clasher Vaut mieux les ignorer ces petits porte-clé ambulant qui portent une tunique bleu et qui croit que ça les rend plus corpulents Ils méritent des baffes dans la gueule mais bon ils valent pas 45 jours J'sais de quoi j'te parle ma gueule demande plus l'jhour au bout de 4 jours Tu rêves que de Albak sèlek quand ton sommeil est interrompu Là-bas le lundi y'a pas de soleil toute la semaine non plus Crois-moi le QD c'est pété, Dahwa j'ai vu, j'ai vécu, pour pas s'faire pété fais pas le te-bé Plante ton shit dans le cul Presque tous des passeurs au parlu c'est l'aéroport on calle tout entre les sse-f et ont s'fait fouiller par ces gros porcs Quand on a trop d'choses à planquer on met deux vestes et un très très gros jeans Mate la démarche c'est plus des fesses mais des pinces crocodiles Laissez moi dans ma matrice fesant dl'oseille en grattant le papier Ce que j'kifferai c'est que la directrice me lèche les doigts de pieds, que tous les gradés se fassent écraser Et enfin que les hésses brûlent devant les détenues s'marrant sans s'lasser Grosse barbe au mitard, baskets sans lacets Sois patient dans la poisse, un jour la chance viendra t'embrasser Au lieu de s'presser vaut mieux patienter, y'a que les hésses qui restent au, 42 rue de la Santé Ouhh, enchanté Moi c'est Yougataga alias Latifi pour les gradés Là j'suis au placard et j'suis en train de chanter Y'a que les hèsses qui restent au 42 rue de la Santé Y'a que les Hésses qui restent au 42,rue de la Santé1</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>La vie c'est une pute, moi j'la maque d'autres préfèrent piner... OK, hessé ! La vie c'est une pute, moi j'la maque d'autres préfèrent piner J'kiffe le Jack le seum, j'touche pas la skunk au verre pilé Les keufs ils veulent m'interpeller la coke j'l'achète vers Épinay Big up Wira, les Zakariens le rap il va s'faire épiler Dit leur JR, hessé ! Représente tous Paname On va s'faire un CRS en, hommage à Coux d'la banane Bel hram, j'bicrave du sbar, d'la one Il m'est d'jà arriver d'porter des sac de sport plus lourd que oim 36 quai, pour m'péter il leur faudra l'aide du FBI Cette année l'Haïd l'kebir j'vais lfêter avec un G.I Aïe aïe aïe braaaaahh, Woogataga j'viens t'mettre a l'aise Si tu boycott j't'allume ta mère comme les touristes pakistanais Faut qu'tu m'khalass, eh rend mon fric même si tu m'dois rien Tu connais la musique chez moi y'a pas d'végétarien Eh da3wa la rabla bah ça rapporte des pesetas La vengeance c'est le seul plat, qu'on déguste chez Häagen-Dazs On a de l'audace on suce pas on percera dans l'rap en trimant Mais Sarko il est président on va p'tete gouter au rapatriement Manny fuck ton amitié nous hassoul on s'en bas les lleu-c' Tu fais trop pitié tu m'soules vas-y parle à ma eu-qu' Tu rappe comme Chantal Goya Mister Yougataga Faites péter l'champagne cognac ! You might also like Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya En ce qui m'concerne cousin y'a pas d'challenge, j't'expose mon talent Vocalement du lourd, avoue que t'en reste bouche bée J'suis loin d'être nonchalant, wesh sois pas dégouté Foolek ! sont mes couplets, direct ! la boucle est bouclée On fais des prouesses au mic demande a Younes on a l'mort L'ami te prend pas pour Escobar, nan J'viens mettre les points sur les I les barres sur les T Mec, dans chaque coin du pays t'es pas en sûreté Beaucoup d'rappeurs s'inspirent de Chantal Goya Tu peux être sûr que dans peu d'temps on t'fra du chantage khoya Ça joue les Sron mais y'a qu'des brebis galeuses Ils aimeraient bien avoir mon flow mais y'a que moi qui l'manoeuvre Dit leur Wira on fait ça bien sur l'instru ta3 Wisley C'est vrai qu'l'État ils nous mettent en chien mais bon ils arrivent pas à nous museler Hey, fais péter l'son t'auras le diable au corps Dédicace à Boubakar et à No Time Records Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya C'est d'la bastos du rap de ghetto youth Sexion DAssaut, Wira Les Zaka y'a moi ya l'poto You C'est l'Paris centre, XXème XIXème la porte de Champerret Tu veux du lourd voir des grosses saisies vient dans nos chanterets Arrête t'es naze, tu veux notre avis t'es loin d'être populaire T'a vu l'équipe, vu qu'on a du cur on t'arrache qu'une molaire Si l'rap c'était une compet', ok, ça serrait l'carambolage Tu veux un feat ? Ramène toi mais pose pas comme Chantal Goya À Paris, ça charrie on est toujours là quand faut gole-ri Tout l'tié-quar s'rais milliardaire si il s'rais payer à chaque connerie Shams Eddine Dahmani on lui souhaite la gloire d'Sean Connery Many, trahir sa famille c'est c'qui y'a d'plus cheum comme crime Mec, khabta mon bien être j'suis pas nette j'fuck toute la planète C'normal que ça fasse mal quand c'tes reufs' qui t'la mettent Quand on étaient p'tits les anciens ils nous envoient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette... Tu rappe comme Chantal Goya Ils nous sucent la bite pour qu'on leur avance une galette... Mister Yougataga, faites péter l'champagne cognac ! Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya</t>
+          <t>La vie c'est une pute, moi j'la maque d'autres préfèrent piner... OK, hessé ! La vie c'est une pute, moi j'la maque d'autres préfèrent piner J'kiffe le Jack le seum, j'touche pas la skunk au verre pilé Les keufs ils veulent m'interpeller la coke j'l'achète vers Épinay Big up Wira, les Zakariens le rap il va s'faire épiler Dit leur JR, hessé ! Représente tous Paname On va s'faire un CRS en, hommage à Coux d'la banane Bel hram, j'bicrave du sbar, d'la one Il m'est d'jà arriver d'porter des sac de sport plus lourd que oim 36 quai, pour m'péter il leur faudra l'aide du FBI Cette année l'Haïd l'kebir j'vais lfêter avec un G.I Aïe aïe aïe braaaaahh, Woogataga j'viens t'mettre a l'aise Si tu boycott j't'allume ta mère comme les touristes pakistanais Faut qu'tu m'khalass, eh rend mon fric même si tu m'dois rien Tu connais la musique chez moi y'a pas d'végétarien Eh da3wa la rabla bah ça rapporte des pesetas La vengeance c'est le seul plat, qu'on déguste chez Häagen-Dazs On a de l'audace on suce pas on percera dans l'rap en trimant Mais Sarko il est président on va p'tete gouter au rapatriement Manny fuck ton amitié nous hassoul on s'en bas les lleu-c' Tu fais trop pitié tu m'soules vas-y parle à ma eu-qu' Tu rappe comme Chantal Goya Mister Yougataga Faites péter l'champagne cognac ! Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya En ce qui m'concerne cousin y'a pas d'challenge, j't'expose mon talent Vocalement du lourd, avoue que t'en reste bouche bée J'suis loin d'être nonchalant, wesh sois pas dégouté Foolek ! sont mes couplets, direct ! la boucle est bouclée On fais des prouesses au mic demande a Younes on a l'mort L'ami te prend pas pour Escobar, nan J'viens mettre les points sur les I les barres sur les T Mec, dans chaque coin du pays t'es pas en sûreté Beaucoup d'rappeurs s'inspirent de Chantal Goya Tu peux être sûr que dans peu d'temps on t'fra du chantage khoya Ça joue les Sron mais y'a qu'des brebis galeuses Ils aimeraient bien avoir mon flow mais y'a que moi qui l'manoeuvre Dit leur Wira on fait ça bien sur l'instru ta3 Wisley C'est vrai qu'l'État ils nous mettent en chien mais bon ils arrivent pas à nous museler Hey, fais péter l'son t'auras le diable au corps Dédicace à Boubakar et à No Time Records Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya C'est d'la bastos du rap de ghetto youth Sexion DAssaut, Wira Les Zaka y'a moi ya l'poto You C'est l'Paris centre, XXème XIXème la porte de Champerret Tu veux du lourd voir des grosses saisies vient dans nos chanterets Arrête t'es naze, tu veux notre avis t'es loin d'être populaire T'a vu l'équipe, vu qu'on a du cur on t'arrache qu'une molaire Si l'rap c'était une compet', ok, ça serrait l'carambolage Tu veux un feat ? Ramène toi mais pose pas comme Chantal Goya À Paris, ça charrie on est toujours là quand faut gole-ri Tout l'tié-quar s'rais milliardaire si il s'rais payer à chaque connerie Shams Eddine Dahmani on lui souhaite la gloire d'Sean Connery Many, trahir sa famille c'est c'qui y'a d'plus cheum comme crime Mec, khabta mon bien être j'suis pas nette j'fuck toute la planète C'normal que ça fasse mal quand c'tes reufs' qui t'la mettent Quand on étaient p'tits les anciens ils nous envoient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette... Tu rappe comme Chantal Goya Ils nous sucent la bite pour qu'on leur avance une galette... Mister Yougataga, faites péter l'champagne cognac ! Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa Les MC's jouent les cro-ma mais y chantent comme Chantal Goya</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cest Lartiste, comment ça va ? Cest moi Younes, Younes le cousin Eh wesh ça fait longtemps on ta pas vu Alors Marrakech cette année ? On va senjailler ce soir Il est où Mister You Bimbim ? Jespère que tas pas oublié ma paire dAir Max, 142 et demi Marrakech Very Bad Trip, DJ Abdel Tout cqui spasse à Marrakech, reste à Marrakech Dont you know pump it up, pump it up DJ Abdel, Lartiste babe Eh discret, discret Mister You, Bimbim Eh jsuis même pas là wAllah Ce soir cest pump it up Jvais finir amnésique Marrakech Very Bad Trip After à la piscine cest die Si tu voulais recharger les batteries On est dans ldélire si tu veux follow Ya que des folles et des alcoolos Tu tes vomi dessus javoue cest ballot Mais qui ta dit que cétait de leau ? Au Dom Pé jsuis dopé, toute léquipe est opé Petit séjour à Marrakech on a boycott Saint Tropez Jhésite entre le So, Theatro et 555 Jmen fous tant quon samuse avec mes zincs-zincs Bang bang carré VIP, bad bitch, Grey Goose Bienvenue dans ma matrice, re-frè, on va se relaxer Fais pas lfou, on tallume avant dte menacer Ne sois pas peiné fils Mets de côté ta tristesse Faut quon crame les bénéfices Quon a grattés dans lbusiness Marre de manger du riz Abdel aux platines on est au Marrakech Du Rire La jsirote un cocktail et jgraille des crevettes tranquille Jsuis avec trois copines et ya Lartiste et Bimbim Ce soir cest te-boi, tapparaîs plus à la piscine Dans la villa du cognac, entouré que de missiles On est des imbéciles, demain cest lamnésie Eh toi viens par ici, faut qujoublie mes soucis Tu voulais ce billet let-vio Il a failli te ler-vio Ma chérie cest pas de lÉvian Arrête lalcool mets-toi au lait bio Jsuis avec une post bad beurette Tous mes potes veulent la retweeter Oui un bad bad beurette Le mot dordre cest profiter Profiter dla life, faire des sous et se barrer Le monde tourne en rond moi je suis dans le carré You, Lartiste, Bimbim met ta tête au carré Sont-ils préparés ? Le son est deep, poto, kiffe, kiffe, kiffe Claque ton biff plus charmant que Hitch, j'la regarde et switch Elle finit dans mon lit puis vous connaissez la suite Elles aiment les bad boys attentionnés Qui payent laddition, qui font les gros bonnets Elles veulent le pactole sans charbonner Elles misent sur le cheval gagnant cest des doubles poneys Money, money, cesse de jalouser Les sapes, les haineux on va les cartoucher On va les cartonner ratatata Miss pousse ton boule même si tes une patata Ce soir cest pump it up, jai dit pump it up Pas de condés, pas dembrouilles, pas dmenottes Ce soir jai sorti les plus belles sapes de ma garde robe Ce soir cest pump it up, pump-pump it up On finit tous chés-per, en after chez Pierre Petit déj pépère, on est tous déter Donc direction le Mazazik On senjaille avec léquipe, loin des parasites Ce soir cest pump it up DJ Abdel Ce soir cest pump it upYou might also like</t>
+          <t>Cest Lartiste, comment ça va ? Cest moi Younes, Younes le cousin Eh wesh ça fait longtemps on ta pas vu Alors Marrakech cette année ? On va senjailler ce soir Il est où Mister You Bimbim ? Jespère que tas pas oublié ma paire dAir Max, 142 et demi Marrakech Very Bad Trip, DJ Abdel Tout cqui spasse à Marrakech, reste à Marrakech Dont you know pump it up, pump it up DJ Abdel, Lartiste babe Eh discret, discret Mister You, Bimbim Eh jsuis même pas là wAllah Ce soir cest pump it up Jvais finir amnésique Marrakech Very Bad Trip After à la piscine cest die Si tu voulais recharger les batteries On est dans ldélire si tu veux follow Ya que des folles et des alcoolos Tu tes vomi dessus javoue cest ballot Mais qui ta dit que cétait de leau ? Au Dom Pé jsuis dopé, toute léquipe est opé Petit séjour à Marrakech on a boycott Saint Tropez Jhésite entre le So, Theatro et 555 Jmen fous tant quon samuse avec mes zincs-zincs Bang bang carré VIP, bad bitch, Grey Goose Bienvenue dans ma matrice, re-frè, on va se relaxer Fais pas lfou, on tallume avant dte menacer Ne sois pas peiné fils Mets de côté ta tristesse Faut quon crame les bénéfices Quon a grattés dans lbusiness Marre de manger du riz Abdel aux platines on est au Marrakech Du Rire La jsirote un cocktail et jgraille des crevettes tranquille Jsuis avec trois copines et ya Lartiste et Bimbim Ce soir cest te-boi, tapparaîs plus à la piscine Dans la villa du cognac, entouré que de missiles On est des imbéciles, demain cest lamnésie Eh toi viens par ici, faut qujoublie mes soucis Tu voulais ce billet let-vio Il a failli te ler-vio Ma chérie cest pas de lÉvian Arrête lalcool mets-toi au lait bio Jsuis avec une post bad beurette Tous mes potes veulent la retweeter Oui un bad bad beurette Le mot dordre cest profiter Profiter dla life, faire des sous et se barrer Le monde tourne en rond moi je suis dans le carré You, Lartiste, Bimbim met ta tête au carré Sont-ils préparés ? Le son est deep, poto, kiffe, kiffe, kiffe Claque ton biff plus charmant que Hitch, j'la regarde et switch Elle finit dans mon lit puis vous connaissez la suite Elles aiment les bad boys attentionnés Qui payent laddition, qui font les gros bonnets Elles veulent le pactole sans charbonner Elles misent sur le cheval gagnant cest des doubles poneys Money, money, cesse de jalouser Les sapes, les haineux on va les cartoucher On va les cartonner ratatata Miss pousse ton boule même si tes une patata Ce soir cest pump it up, jai dit pump it up Pas de condés, pas dembrouilles, pas dmenottes Ce soir jai sorti les plus belles sapes de ma garde robe Ce soir cest pump it up, pump-pump it up On finit tous chés-per, en after chez Pierre Petit déj pépère, on est tous déter Donc direction le Mazazik On senjaille avec léquipe, loin des parasites Ce soir cest pump it up DJ Abdel Ce soir cest pump it up</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>L'avenir se cache dans le passé, j'me suis vu dans le rétroviseur Adolescent blasé en guerre avec le proviseur En permanence toujours posé l'envie de se faire un petit zdeh Quand j'avais cours à 8 bah j'étais là pour 10 heures Les professeurs certes ils avaient raison Ils m'ont dit tu goutteras à la merde, m'ont même prédit la prison J'manquais d'sérieux dassiduité et de ponctualité Aujourd'hui mon vieux j'fais le même taffe que Jonny Halliday C'est un truc de ouf comment la vie est pleine de surprises Y'en à certains ils rêvent plus d'argent Mais juste que leurs chaînent se brise Quand tu prends 22 ans c'est plus une peine c'est un âge Il suffit d'une pige pour voir qu'ton meilleur pote c'est un lâche Quand l'état te dit bon appétit C'est pour que tu grailles le carrelage Pour que tu grattes petit Mais toi faut pas que tu te relâches Faut croire en soit Dahwa Car si tu le fais pas qui va le faire C'est sous les pieds de l'état Que se trouve les portes de l'Enfer J'irais au bout de mes rêves J'donnerai tout jusqu'à ce que j'crève Je lâcherai pas j'ai pas le choix Car rien n'est impossible nan rien n'est impossible J'irais au bout de mes rêves Oui jusqu'au bout y'aura pas de trêve J'y arriverai, c'est mon destin Car rien n'est impossible You might also like On a pas autant de cur que Coluche Mais on est tous des enfoirés En décembre qui dit arrivant dit nouvel an foiré C'est plus des troncs d'arbres dans les roues qui nous mettent nan c'est des forêts On à déjà tous essayé d'lire l'avenir dans un bol de Ricoré Chez nous les soldats C'est leurs cellules qui sont décorées Ils finissent au car-pla Et le trésor publique les blindes de courriers Wouuuugataga bah les gars j'crois qu'on s'est gourés Au lieu de s'entre-tuer c'est p'tètre sur eux qui faudrait tirer Mais qui à dit qu'ma chance est partie ? Qui? Qui à dit que ma vie est finie ? Qui? Je changerais le courant des eaux moi Je changerais le courant des choses Enfermée dans ma bulle enfermée ... Oooooooh ooooooh Je fais confiance aux mektoub x2 Le temps m'est compté , je n'peux qu'avancer Je dois m'en sortir , ne pas renoncer Je dois m'accrocher Je dois m'efforcer de croire en moi , rien n'est impossible J'irais au bout Dis leur Mister You qu'on ira au bout Nan rien n'est impossible J'irai au bout Nan rien n'est impossible ...</t>
+          <t>L'avenir se cache dans le passé, j'me suis vu dans le rétroviseur Adolescent blasé en guerre avec le proviseur En permanence toujours posé l'envie de se faire un petit zdeh Quand j'avais cours à 8 bah j'étais là pour 10 heures Les professeurs certes ils avaient raison Ils m'ont dit tu goutteras à la merde, m'ont même prédit la prison J'manquais d'sérieux dassiduité et de ponctualité Aujourd'hui mon vieux j'fais le même taffe que Jonny Halliday C'est un truc de ouf comment la vie est pleine de surprises Y'en à certains ils rêvent plus d'argent Mais juste que leurs chaînent se brise Quand tu prends 22 ans c'est plus une peine c'est un âge Il suffit d'une pige pour voir qu'ton meilleur pote c'est un lâche Quand l'état te dit bon appétit C'est pour que tu grailles le carrelage Pour que tu grattes petit Mais toi faut pas que tu te relâches Faut croire en soit Dahwa Car si tu le fais pas qui va le faire C'est sous les pieds de l'état Que se trouve les portes de l'Enfer J'irais au bout de mes rêves J'donnerai tout jusqu'à ce que j'crève Je lâcherai pas j'ai pas le choix Car rien n'est impossible nan rien n'est impossible J'irais au bout de mes rêves Oui jusqu'au bout y'aura pas de trêve J'y arriverai, c'est mon destin Car rien n'est impossible On a pas autant de cur que Coluche Mais on est tous des enfoirés En décembre qui dit arrivant dit nouvel an foiré C'est plus des troncs d'arbres dans les roues qui nous mettent nan c'est des forêts On à déjà tous essayé d'lire l'avenir dans un bol de Ricoré Chez nous les soldats C'est leurs cellules qui sont décorées Ils finissent au car-pla Et le trésor publique les blindes de courriers Wouuuugataga bah les gars j'crois qu'on s'est gourés Au lieu de s'entre-tuer c'est p'tètre sur eux qui faudrait tirer Mais qui à dit qu'ma chance est partie ? Qui? Qui à dit que ma vie est finie ? Qui? Je changerais le courant des eaux moi Je changerais le courant des choses Enfermée dans ma bulle enfermée ... Oooooooh ooooooh Je fais confiance aux mektoub x2 Le temps m'est compté , je n'peux qu'avancer Je dois m'en sortir , ne pas renoncer Je dois m'accrocher Je dois m'efforcer de croire en moi , rien n'est impossible J'irais au bout Dis leur Mister You qu'on ira au bout Nan rien n'est impossible J'irai au bout Nan rien n'est impossible ...</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Folle de vie, j'm'affole, j'fais du son, j'm'envole Ton ennemi rafalé, faut que tu cavales Trahis par ta folle, gros, elle donne ton adresse aux voyous On s'connaît pas d'hier, boy, Hasta La Muerte, d'mande à You Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas You might also like Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Peur de sonne-per, moi, j'vais où j'veux dans la ville Moi, des fois, j'suis seul, frère, mais je repense à ma vie Envieux, jaloux, sers pas la main, t'es chelou Tu t'rappelles ? C'est nous, Ju-Ju-JuL, Mister You Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Pa-pa-pa-la-la-la-la, pa-pa-pa Pa-pa-pa-la-la-la-la, pa-pa-pa Counia manmanw, réfléchis avant d'parler Et y en a marre, de s'les farcir toute l'année Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas Ya-ya-ya-yah, ya-ya-ya-yah Ya-ya-ya-yah, ya-ya-ya-yah Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh</t>
+          <t>Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Ouais, poto, ça s'fait pas Folle de vie, j'm'affole, j'fais du son, j'm'envole Ton ennemi rafalé, faut que tu cavales Trahis par ta folle, gros, elle donne ton adresse aux voyous On s'connaît pas d'hier, boy, Hasta La Muerte, d'mande à You Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Peur de sonne-per, moi, j'vais où j'veux dans la ville Moi, des fois, j'suis seul, frère, mais je repense à ma vie Envieux, jaloux, sers pas la main, t'es chelou Tu t'rappelles ? C'est nous, Ju-Ju-JuL, Mister You Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Ouais, poto, ça s'fait pas poto, ça s'fait pas Pa-pa-pa-la-la-la-la, pa-pa-pa Pa-pa-pa-la-la-la-la, pa-pa-pa Counia manmanw, réfléchis avant d'parler Et y en a marre, de s'les farcir toute l'année Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Ghetto, c'est l'son qui sort du ghetto Avec les schmitts dans le rétro', pendant qu'j'roule un p'tit bédo J'sais même plus à quoi ressemble le métro Bastos dans la têto, on est revenu faire la déco' Tu dis qu'tu sors les métaux, nous, on sait qu't'es un gros mytho De quoi sera fait demain ? Ça, je ne sais pas T'avais tout entre tes mains mais ça, tu l'savais pas Personne trouve son chemin, tout l'monde se sépare Tu zappes tes frères pour une tchoin, poto, ça s'fait pas Ya-ya-ya-yah, ya-ya-ya-yah Ya-ya-ya-yah, ya-ya-ya-yah Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ooooh Bilel Si l'36 avais une chatte, j'aurais déjà ruiné la cave Bilel Bilel, Bilel J'arrive à toute allure, nan j'rap pas depuis t'aleur Bilel Dans l'rap j'suis tellement à l'aise, que j'pourrais poser la bite à l'air J'arrive à toute allure, nan j'rap pas depuis t'aleur Ça fait huit piges que j'suis dans l'mouve' Huit piges que j'rap sa mère la pute Huit piges que j'rêve de hits et de finir mes jours dans les mers du Sud Mais le Rap paye pas, donc obligé je vend d'la Pour être riche j'suis sans pitié, j'te f'rais sniff Brahima Snom J'suis à fond dans l'Hallam, j'suis pas d'ceux qui cherchent du taff Si l'36 avait une chatte, j'aurais déjà ruiné la cave Bilel c'est oim on m'connais jusqu'à fond vert Les boycotteurs c'est des pédé, que des p'tits cons les faux frères Les mecs sont pas rentables, c'est la routine faut faire avec Un shlag, ca reste un shlag même si il s'noie dans l'eau d'Javel Ils parlent de moi, de mon Rap, de mes cuites, de mes tacles, de ma jambe en métal, de ma chute en bécane Ils disent même que j'perd mon temps, que j'perçerais pas de toute manière, mec Si tu t'mêlais un peu d'la grosse chatte à ta mère ouais You might also like DI L'avenir est nous Bes-bar, toujours dans l'bizz de la meth DI Rien à foutre du game, moi comme Eto'O j'vise le but L'avenir est à nous, pas aux fils de putes Rien à foutre du game, moi comme Eto'O j'vise le but D-D-DI toujours dans l'bizz de la meth O-pérationel même quand c'est la merde 25 perches au conteur, toujours d'la batterie J'met des sous de ter-co pour qu'au bled j'me rapatrie C'est les bas-fond d'Paris, à ne pas confondre Sinon comme Aumarey, tu te la mange profonde La tête ailleurs, en gardant les pieds sur Terre Les frères coulent sur l'terrain comme l'eau d'une citerne Tos-ma, boloss, transac' dans une rue terne C'est l'quotidien des frères qui n'rentre pas dans les critères De la société gouvernée par des racistes Toujours capuché pour pas passer sur la six La capital a fait d'nous des capitalistes Les kazkami prennent le talis Les litrons dans la valise Darwa j'suis paranoïaque, comme tous les mecs en val-ca Mister You J'transforme la coke en que-cra Woogataga Mister You Faut pas trahir les siens, mon pote abracadabra J'suis un magicien j'transforme la coke en que-cra Woogataga, j'crache une touche-car pour les couches tard Qui vont au bon-char, H24, et qui ratent pas une promenade au shtar surveillant 11.43 autour de la taille rafleuse dans la ve-ca Darwa j'suis paranoïaque, comme tous les mecs en val-ca Ok Saha la famille, j'suis enchanté j'm'appelle Rémi L'genre de mec qu'arrive tout de suite mais enfait est la dans une heure et demi Sahabi fait moi , j'vais faire une overdose de pâte J'peu t'jurer qu'la zer-mi c'était mon meilleur prof de maths Wallah Y'a pas d'échappatoire sans oublier d'se conteste Younes Suce petit la j'sort direct du concessionnaire Avec mon sperm tu tes lavé, ta pas d'personnalité Bref, Marie si tu savais combien j'l'emmerde Johnny Hallyday P'tit pédé t'as pas idée de c'qui s'passe dans ma tête La j'braque le mic au Mac Ten et le Rap au AK-47 Still Fresh T'es une caresse, moi une rafale de balons Still Fresh Still Fresh T'es une caresse, moi une rafale de balons Still Fresh Still Fresh, dit négros, qui a déjà les crocs A-compagner d'mes rho, de Xa, à Black-Mo Élever est le niveau, en chien sont les michtos De loins j'matte les MC qui galope, ça vient du 7.5 0.2.0 Un shmit tout seul dans une tess, c'est comme un bukett devant des dobermans Une salope dans une clique, ca sent l'feat comme une meuf qui tourne mal Salope J'les siffles à la marseillaise, c'est qu'le revers d'la médaille Man, d'la colonisation et dhumiliation par des flics crades Jenchaîne les coups d'shlass lyrical, le temps d'un seiz j'suis Dartagnan Flow super efficace, tu r'grette d'avoir test, fallais y penser avant Plus trop d'thunes à la caisse, j'travaille le mic pour ramener des sous aux parents Fait c'qu'il faut pour être frais dans nos sap donc ça rotte-ca au printemps Aie Depuis peu dans l'Rap, mais j'nique tout, j'm'en bat les lleu-cou Gonflé à bloc, salope nous on fonse dans l'tas T'es une caresse, moi une rafale de balles à ma sortie dans les bacs Fougère, 20ème, ça y est j'ai fait mon taff, et maintenant j'me barre Pahh Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque</t>
+          <t>Ooooh Bilel Si l'36 avais une chatte, j'aurais déjà ruiné la cave Bilel Bilel, Bilel J'arrive à toute allure, nan j'rap pas depuis t'aleur Bilel Dans l'rap j'suis tellement à l'aise, que j'pourrais poser la bite à l'air J'arrive à toute allure, nan j'rap pas depuis t'aleur Ça fait huit piges que j'suis dans l'mouve' Huit piges que j'rap sa mère la pute Huit piges que j'rêve de hits et de finir mes jours dans les mers du Sud Mais le Rap paye pas, donc obligé je vend d'la Pour être riche j'suis sans pitié, j'te f'rais sniff Brahima Snom J'suis à fond dans l'Hallam, j'suis pas d'ceux qui cherchent du taff Si l'36 avait une chatte, j'aurais déjà ruiné la cave Bilel c'est oim on m'connais jusqu'à fond vert Les boycotteurs c'est des pédé, que des p'tits cons les faux frères Les mecs sont pas rentables, c'est la routine faut faire avec Un shlag, ca reste un shlag même si il s'noie dans l'eau d'Javel Ils parlent de moi, de mon Rap, de mes cuites, de mes tacles, de ma jambe en métal, de ma chute en bécane Ils disent même que j'perd mon temps, que j'perçerais pas de toute manière, mec Si tu t'mêlais un peu d'la grosse chatte à ta mère ouais DI L'avenir est nous Bes-bar, toujours dans l'bizz de la meth DI Rien à foutre du game, moi comme Eto'O j'vise le but L'avenir est à nous, pas aux fils de putes Rien à foutre du game, moi comme Eto'O j'vise le but D-D-DI toujours dans l'bizz de la meth O-pérationel même quand c'est la merde 25 perches au conteur, toujours d'la batterie J'met des sous de ter-co pour qu'au bled j'me rapatrie C'est les bas-fond d'Paris, à ne pas confondre Sinon comme Aumarey, tu te la mange profonde La tête ailleurs, en gardant les pieds sur Terre Les frères coulent sur l'terrain comme l'eau d'une citerne Tos-ma, boloss, transac' dans une rue terne C'est l'quotidien des frères qui n'rentre pas dans les critères De la société gouvernée par des racistes Toujours capuché pour pas passer sur la six La capital a fait d'nous des capitalistes Les kazkami prennent le talis Les litrons dans la valise Darwa j'suis paranoïaque, comme tous les mecs en val-ca Mister You J'transforme la coke en que-cra Woogataga Mister You Faut pas trahir les siens, mon pote abracadabra J'suis un magicien j'transforme la coke en que-cra Woogataga, j'crache une touche-car pour les couches tard Qui vont au bon-char, H24, et qui ratent pas une promenade au shtar surveillant 11.43 autour de la taille rafleuse dans la ve-ca Darwa j'suis paranoïaque, comme tous les mecs en val-ca Ok Saha la famille, j'suis enchanté j'm'appelle Rémi L'genre de mec qu'arrive tout de suite mais enfait est la dans une heure et demi Sahabi fait moi , j'vais faire une overdose de pâte J'peu t'jurer qu'la zer-mi c'était mon meilleur prof de maths Wallah Y'a pas d'échappatoire sans oublier d'se conteste Younes Suce petit la j'sort direct du concessionnaire Avec mon sperm tu tes lavé, ta pas d'personnalité Bref, Marie si tu savais combien j'l'emmerde Johnny Hallyday P'tit pédé t'as pas idée de c'qui s'passe dans ma tête La j'braque le mic au Mac Ten et le Rap au AK-47 Still Fresh T'es une caresse, moi une rafale de balons Still Fresh Still Fresh T'es une caresse, moi une rafale de balons Still Fresh Still Fresh, dit négros, qui a déjà les crocs A-compagner d'mes rho, de Xa, à Black-Mo Élever est le niveau, en chien sont les michtos De loins j'matte les MC qui galope, ça vient du 7.5 0.2.0 Un shmit tout seul dans une tess, c'est comme un bukett devant des dobermans Une salope dans une clique, ca sent l'feat comme une meuf qui tourne mal Salope J'les siffles à la marseillaise, c'est qu'le revers d'la médaille Man, d'la colonisation et dhumiliation par des flics crades Jenchaîne les coups d'shlass lyrical, le temps d'un seiz j'suis Dartagnan Flow super efficace, tu r'grette d'avoir test, fallais y penser avant Plus trop d'thunes à la caisse, j'travaille le mic pour ramener des sous aux parents Fait c'qu'il faut pour être frais dans nos sap donc ça rotte-ca au printemps Aie Depuis peu dans l'Rap, mais j'nique tout, j'm'en bat les lleu-cou Gonflé à bloc, salope nous on fonse dans l'tas T'es une caresse, moi une rafale de balles à ma sortie dans les bacs Fougère, 20ème, ça y est j'ai fait mon taff, et maintenant j'me barre Pahh Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque Triste Epoque</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Shorty I'm there for you anytime you need me For real girl, it's me in your world, believe me Nothing make a man feel better than a woman Queen with a crown that be down for whatever There are few things that's forever, my lady We can make war or make babies Back when I was nothing You made a brother feel like he was something That's why I'm with you to this day boo, no fronting Even when the skies were gray You would rub me on my back and say, Baby it'll be okay Now that's real to a brother like me, baby Never ever give my cootie away and keep it tight aight And I'ma walk these dogs so we can live In a fat-ass crib with thousands of kids Word life, you don't need a ring to be my wife Just be there for me and I'ma make sure we be Living in the effin' lap of luxury I'm realizing that you didn't have to funk with me But you did, now I'm going all out kid And I got mad love to give, you my nigga You might also like You're all, I need To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Like sweet morning dew I took one look at you And it was plain to see You were my destiny With you I'll spend my time I'll dedicate my life, I'll sacrifice for you Dedicate my life to you I got a Love Jones for your body and your skin tone Five minutes alone, I'm already on the bone Plus I love the fact you got a mind of your own No need to shop around you got the good stuff at home Even if I'm locked up North you in the world Wrapped in three-fourths of cloth never showing your stuff off, boo It be true me for you, that's how it is I be your Noah, you be my Wiz I'm your mister, you my misses with hugs and kisses Valentine cards and birthday wishes, please We on another level of planning, of understanding The bond between man and woman, and child The highest elevation 'cause we above All that romance crap, just show your love You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Suck on these Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the, Tical Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the chair, Tical Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the chair, Tical Mary J. raw, and Meth-Tical Like sweet morning dew Yeah yeah I took one look at you Cootie in the chair, Tical And it was plain to see Cheeba cheeba y'all You were my destiny, baby Cheeba cheeba y'all Cheeba cheeba y'all, bring it on, yeah What's that shit that they be smoking No romance without finance for now Baby, please, '95 Ticallion Stallion, ha ha, ha ha Man woman and child, yeah15</t>
+          <t>You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Shorty I'm there for you anytime you need me For real girl, it's me in your world, believe me Nothing make a man feel better than a woman Queen with a crown that be down for whatever There are few things that's forever, my lady We can make war or make babies Back when I was nothing You made a brother feel like he was something That's why I'm with you to this day boo, no fronting Even when the skies were gray You would rub me on my back and say, Baby it'll be okay Now that's real to a brother like me, baby Never ever give my cootie away and keep it tight aight And I'ma walk these dogs so we can live In a fat-ass crib with thousands of kids Word life, you don't need a ring to be my wife Just be there for me and I'ma make sure we be Living in the effin' lap of luxury I'm realizing that you didn't have to funk with me But you did, now I'm going all out kid And I got mad love to give, you my nigga You're all, I need To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Like sweet morning dew I took one look at you And it was plain to see You were my destiny With you I'll spend my time I'll dedicate my life, I'll sacrifice for you Dedicate my life to you I got a Love Jones for your body and your skin tone Five minutes alone, I'm already on the bone Plus I love the fact you got a mind of your own No need to shop around you got the good stuff at home Even if I'm locked up North you in the world Wrapped in three-fourths of cloth never showing your stuff off, boo It be true me for you, that's how it is I be your Noah, you be my Wiz I'm your mister, you my misses with hugs and kisses Valentine cards and birthday wishes, please We on another level of planning, of understanding The bond between man and woman, and child The highest elevation 'cause we above All that romance crap, just show your love You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by You're all, I need Lie together, cry together I swear to God I hope we fucking die together To get by Suck on these Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the, Tical Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the chair, Tical Cheeba cheeba y'all, and you don't stop Yeah yeah, cootie in the chair, Tical Mary J. raw, and Meth-Tical Like sweet morning dew Yeah yeah I took one look at you Cootie in the chair, Tical And it was plain to see Cheeba cheeba y'all You were my destiny, baby Cheeba cheeba y'all Cheeba cheeba y'all, bring it on, yeah What's that shit that they be smoking No romance without finance for now Baby, please, '95 Ticallion Stallion, ha ha, ha ha Man woman and child, yeah15</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bilel c'est oi-m, j'prends pas d'one, c'est ta mère qui prend des g Pour la maille, rien qu'j'me magne allons braquer les PDG J'suis toujours là où il faut pas, normal j'traîne à rue Piat En fait vous savez quoi ? J'suis v'nu dans votre pe-ra Comme Aymen dans un appart pour tout prendre il m'faut peut d'temps C'est l'44, qui t'drague quand la cagoule t'va comme un gant Là c'est lel-Bi non ça dépend, Bilel pour les dé-clan J'ai pas b'soin d'ton aide tu m'tend la main tu t'manges des crampes J'ai pas d'médaille, mesdames mais Mobb Deep il fait des coupes C'est la bataille des hataï mimoune y met des couilles Y'a qu'ceux qui s'pressent qu'arrivent en r'tard comme dirais You J'ai une idée si j'vous encule bande de batard qu'en diriez-vous ? J'me sens r'présenter que quand Lassana joue Pour ça d'mande à dadié c'est makélélé qu'on va yé-dou Surtout m'en voulez pas, d'avoir épuiser tout Si tu kiffe pas, re-noi tu nique ta mère et puis c'est tout Si t'atteins la trentaine on dira tous que c'est pas mal Le quartier c'est plus le même d'puis qu'ils nous ont tué Mamad ! My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor You might also like Claustrophobe à cause des barreaux ça rêve d'une porte entrouverte La rue c'est paro ça s'bicrave la coke entre frère Tu r'tourne au placard, t'a même pas eu l'temps d'te r'faire C'est à croire qu'le paradis il est beaucoup plus loin qu'l'enfer À part le harm pour avancer, comment faire ? Moi je n'suis pas un animal j'trouve pas ça normal qu'on m'enferme Je n'fume pas je n'bois pas mais hachek je place pendant l'carême Je dédicace à Blackara et toute la place Armand Carrel Le 36 on est cramé qu'ce soit Dramé ou Latifi Relativise si t'es un 3ineur regarde pas shams à la TV Avant qu'finisse ben j'cace-dédi aux frères qui sont parti vite Et aux autres qui ont les couilles qui montent qui troque leur shit en Martinique My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor C'est pour les vrais et les mecs scred qui marchent pas à la rotte-ca Qui causent au Beretta et qui t'chales en YZ Rappeur de l'an 2000, djib-Na, c'est ma demi A m'tester ils sont 2000 où est marie et ben devine Dans l'rap c'est la guerre Kil O Mic c'est l'Hezbollah Ma mère préfère se taire car elle même c'est un ex taulard Quand mon frère était en galère j'était l'seul mandataire Mais c'est pas grave laisse moi l'micro qu'te mette du monde à terre Jamais dire non à un tête à tête toujours d'aplomb d'mande a Djeba L'OPJ il pète un plomb à ses questions j'répond J'sais pas Sur l'terrain on restera normal, vu qu'c'est chez nous On laissera pas le reste aux rats allez le dire à Luciano My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor Ça s'casse les reins sur la pierre, Y'a pas de Dunlopillo Au placard, le nerf d'la guerre on m'a appris que c'était l'pilon Sous commission rogatoire mes frères tombent comme des dominos Nique la mère à tout l'monde crois pas qu'j'm'adresse qu'aux minots Rien qu'j'pilonne j'rêve que d'cramer Babylone C'est un camtar cellulaire qu'a remplacé mon mobile-home Bambigno room faya Monsieur Sensimilia Et avant d'quitter les miens faut qu'j'leur lègue 5-6 milliards Rez-d'chaussée, milieu, c'est trop la merde aux arrivants C'est là qu'tu vois qu'l'État ils t'brisent ta colonne à la Yvan gros Sur l'ter-ter y'a qu'moi qui vend Ab-Ab-Abbatage Bebe-bebebe-Belleville My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor Younes Lel-bi Kill O Mic Rebeval rue des Envierges Elles nous ont r'trouver dans leur ck-chné toutes ces cochonnes soit disant vierges Younes Lel-bi Kill O Mic Rebeval rue des Envierges C'est qu'elles encaissent et elles avalent toutes ces tasses-pé soit disant vierges My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor My baby's so amazing Let me sit back and count the way One! She the shit Two! She the shit Three! She the shit Unnh!</t>
+          <t>Bilel c'est oi-m, j'prends pas d'one, c'est ta mère qui prend des g Pour la maille, rien qu'j'me magne allons braquer les PDG J'suis toujours là où il faut pas, normal j'traîne à rue Piat En fait vous savez quoi ? J'suis v'nu dans votre pe-ra Comme Aymen dans un appart pour tout prendre il m'faut peut d'temps C'est l'44, qui t'drague quand la cagoule t'va comme un gant Là c'est lel-Bi non ça dépend, Bilel pour les dé-clan J'ai pas b'soin d'ton aide tu m'tend la main tu t'manges des crampes J'ai pas d'médaille, mesdames mais Mobb Deep il fait des coupes C'est la bataille des hataï mimoune y met des couilles Y'a qu'ceux qui s'pressent qu'arrivent en r'tard comme dirais You J'ai une idée si j'vous encule bande de batard qu'en diriez-vous ? J'me sens r'présenter que quand Lassana joue Pour ça d'mande à dadié c'est makélélé qu'on va yé-dou Surtout m'en voulez pas, d'avoir épuiser tout Si tu kiffe pas, re-noi tu nique ta mère et puis c'est tout Si t'atteins la trentaine on dira tous que c'est pas mal Le quartier c'est plus le même d'puis qu'ils nous ont tué Mamad ! My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor Claustrophobe à cause des barreaux ça rêve d'une porte entrouverte La rue c'est paro ça s'bicrave la coke entre frère Tu r'tourne au placard, t'a même pas eu l'temps d'te r'faire C'est à croire qu'le paradis il est beaucoup plus loin qu'l'enfer À part le harm pour avancer, comment faire ? Moi je n'suis pas un animal j'trouve pas ça normal qu'on m'enferme Je n'fume pas je n'bois pas mais hachek je place pendant l'carême Je dédicace à Blackara et toute la place Armand Carrel Le 36 on est cramé qu'ce soit Dramé ou Latifi Relativise si t'es un 3ineur regarde pas shams à la TV Avant qu'finisse ben j'cace-dédi aux frères qui sont parti vite Et aux autres qui ont les couilles qui montent qui troque leur shit en Martinique My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor C'est pour les vrais et les mecs scred qui marchent pas à la rotte-ca Qui causent au Beretta et qui t'chales en YZ Rappeur de l'an 2000, djib-Na, c'est ma demi A m'tester ils sont 2000 où est marie et ben devine Dans l'rap c'est la guerre Kil O Mic c'est l'Hezbollah Ma mère préfère se taire car elle même c'est un ex taulard Quand mon frère était en galère j'était l'seul mandataire Mais c'est pas grave laisse moi l'micro qu'te mette du monde à terre Jamais dire non à un tête à tête toujours d'aplomb d'mande a Djeba L'OPJ il pète un plomb à ses questions j'répond J'sais pas Sur l'terrain on restera normal, vu qu'c'est chez nous On laissera pas le reste aux rats allez le dire à Luciano My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor Ça s'casse les reins sur la pierre, Y'a pas de Dunlopillo Au placard, le nerf d'la guerre on m'a appris que c'était l'pilon Sous commission rogatoire mes frères tombent comme des dominos Nique la mère à tout l'monde crois pas qu'j'm'adresse qu'aux minots Rien qu'j'pilonne j'rêve que d'cramer Babylone C'est un camtar cellulaire qu'a remplacé mon mobile-home Bambigno room faya Monsieur Sensimilia Et avant d'quitter les miens faut qu'j'leur lègue 5-6 milliards Rez-d'chaussée, milieu, c'est trop la merde aux arrivants C'est là qu'tu vois qu'l'État ils t'brisent ta colonne à la Yvan gros Sur l'ter-ter y'a qu'moi qui vend Ab-Ab-Abbatage Bebe-bebebe-Belleville My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor Younes Lel-bi Kill O Mic Rebeval rue des Envierges Elles nous ont r'trouver dans leur ck-chné toutes ces cochonnes soit disant vierges Younes Lel-bi Kill O Mic Rebeval rue des Envierges C'est qu'elles encaissent et elles avalent toutes ces tasses-pé soit disant vierges My lady never lets me down That's why I never let her go She always there to lift me up When I fall down and hit the floor My baby's so amazing Let me sit back and count the way One! She the shit Two! She the shit Three! She the shit Unnh!</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Faut pas trahir les siens, mon pote abracadabra Eh j'suis un magicien, j'transforme la coke en ke-cra Ah Woogataga, j'crache une touche-car pour les couches tard Qui vont au bon-char, H24, et qui ratent pas une promenade au shtar surveillant 11.43 autour de la taille, rafleuse dans la ve-ca Darwa j'suis paranoïaque, comme tous les mecs en val-ca Ok Saha la famille, enchanté j'm'appelle Rémi L'genre de mec qu'arrive tout de suite mais en fait est là dans une heure et demi Sahabi, fais-moi gloubi,, j'vais faire une overdose de pâte J'peux t'jurer qu'la sère-mi c'était mon meilleur prof de maths Y a pas d'échappatoire et sans oublier d'ceux qu'ont test Younès Casse toi petit toupette, là j'sort direct du concessionnaire Avec mon sperme tu t'es lavé, t'as pas d'personnalité Bref, Marie si tu savais combien j'l'emmerde Johnny Hallyday P'tit pédé, t'as pas idée de c'qui s'passe dans ma tête Là j'braque le mic au Mac Ten, Woogatag'AK-47 Ils veulent qu'j'en damne l'esprit, t'es fou, l'Sheitan respire J'les fais cher-ca, c'est Végéta comme état d'esprit JR O Crom, Jeryzoos pour les intimes J'me présente, la baraque hantée, sortez les infirmes C'est Mister Yougataga, j'te fais mouiller plus d'une tasse-pé J'bicrave du crack, du taga, j'nique la mère aux teurs-inspec C'est l'75, département d'la résine J'suis saisonnier, pour éviter les grosses saisies You might also like Ok, je suis un type axé sur la Vendetta Et c'est les types paxés, bah que je vends des tases Et pas qu'tu vas faire, on fait des jaloux Car ce que tu vas faire, on l'fait déjà nous Faut de l'actualité, que l'on cause moins On veut moins de dualité, dans ma cosmopolite Eh, pour le casion, le larron et la bécane On a faim de casses, regarde, la roue est impeccable, ok Ceci est un son pour les mauvais garçons J'ai des soucis à la son-m' avec des beurs au Eh, il m'faut le million, et j'ai pas tout ça Mais là je vais devenir mignon comme un Yakuza Et si j'ai la première place, je veux pas d'médaille, nan Mais fuir en première classe et faire un bar en Thaïlande Dans l'agence Tout Risques, appelle-moi Looping J'avais le gros butin en main mais les keufs m'ont pas loupé 2009, sors de chez oi-t' à tes risques et périls Des phases et des histoires, j'peux t'en sortir une encyclopédie C'est pour tous mes sales gamins qui barbent tout dans le sac à main Un con c'est comme un sac à main, partout mais pas les sacs à main C'est Paname, section criminelle Connue des brigades, éduquée sur une base militaire C'est la guérilla, qui c'est qui finance ? C'est le ministère Sérieux, Marianne, j'te la mets dans l'ul-c' direct là, sec Ça vient des Goulags, où pour dialoguer, faut les pincettes Où y a des soulards, qui pillavent jusqu'à l'énième bouteille Où ça cogne à-l et perd son temps sous l'effet d'la fumette Toute la semaine, les pieds contre l'mur, tous comme des loques humaines Y a d'la résine, surtout du réseau, du bon son qui résonne Le mien réside Paris-Centre, Ze-Art, tous, ça vit dans l'désordre Sexion d'Assaut, Belleville, Mister You et Chevilly-Larue JR O Crom, demande à Lacrim, on a l'ce-vi, la rue J'suis comme un dingue, plutôt dans ma bulle, j'veux pas d'un psychologue Des passes, des mots, du lourd comme un mammouth, j'ai l'appétit d'un ogre La rage de vaincre, j'pourrais t'balafrer juste avec une cannette T'as vu c'qui reste des logements qués-bra et des quartiers funestes</t>
+          <t>Faut pas trahir les siens, mon pote abracadabra Eh j'suis un magicien, j'transforme la coke en ke-cra Ah Woogataga, j'crache une touche-car pour les couches tard Qui vont au bon-char, H24, et qui ratent pas une promenade au shtar surveillant 11.43 autour de la taille, rafleuse dans la ve-ca Darwa j'suis paranoïaque, comme tous les mecs en val-ca Ok Saha la famille, enchanté j'm'appelle Rémi L'genre de mec qu'arrive tout de suite mais en fait est là dans une heure et demi Sahabi, fais-moi gloubi,, j'vais faire une overdose de pâte J'peux t'jurer qu'la sère-mi c'était mon meilleur prof de maths Y a pas d'échappatoire et sans oublier d'ceux qu'ont test Younès Casse toi petit toupette, là j'sort direct du concessionnaire Avec mon sperme tu t'es lavé, t'as pas d'personnalité Bref, Marie si tu savais combien j'l'emmerde Johnny Hallyday P'tit pédé, t'as pas idée de c'qui s'passe dans ma tête Là j'braque le mic au Mac Ten, Woogatag'AK-47 Ils veulent qu'j'en damne l'esprit, t'es fou, l'Sheitan respire J'les fais cher-ca, c'est Végéta comme état d'esprit JR O Crom, Jeryzoos pour les intimes J'me présente, la baraque hantée, sortez les infirmes C'est Mister Yougataga, j'te fais mouiller plus d'une tasse-pé J'bicrave du crack, du taga, j'nique la mère aux teurs-inspec C'est l'75, département d'la résine J'suis saisonnier, pour éviter les grosses saisies Ok, je suis un type axé sur la Vendetta Et c'est les types paxés, bah que je vends des tases Et pas qu'tu vas faire, on fait des jaloux Car ce que tu vas faire, on l'fait déjà nous Faut de l'actualité, que l'on cause moins On veut moins de dualité, dans ma cosmopolite Eh, pour le casion, le larron et la bécane On a faim de casses, regarde, la roue est impeccable, ok Ceci est un son pour les mauvais garçons J'ai des soucis à la son-m' avec des beurs au Eh, il m'faut le million, et j'ai pas tout ça Mais là je vais devenir mignon comme un Yakuza Et si j'ai la première place, je veux pas d'médaille, nan Mais fuir en première classe et faire un bar en Thaïlande Dans l'agence Tout Risques, appelle-moi Looping J'avais le gros butin en main mais les keufs m'ont pas loupé 2009, sors de chez oi-t' à tes risques et périls Des phases et des histoires, j'peux t'en sortir une encyclopédie C'est pour tous mes sales gamins qui barbent tout dans le sac à main Un con c'est comme un sac à main, partout mais pas les sacs à main C'est Paname, section criminelle Connue des brigades, éduquée sur une base militaire C'est la guérilla, qui c'est qui finance ? C'est le ministère Sérieux, Marianne, j'te la mets dans l'ul-c' direct là, sec Ça vient des Goulags, où pour dialoguer, faut les pincettes Où y a des soulards, qui pillavent jusqu'à l'énième bouteille Où ça cogne à-l et perd son temps sous l'effet d'la fumette Toute la semaine, les pieds contre l'mur, tous comme des loques humaines Y a d'la résine, surtout du réseau, du bon son qui résonne Le mien réside Paris-Centre, Ze-Art, tous, ça vit dans l'désordre Sexion d'Assaut, Belleville, Mister You et Chevilly-Larue JR O Crom, demande à Lacrim, on a l'ce-vi, la rue J'suis comme un dingue, plutôt dans ma bulle, j'veux pas d'un psychologue Des passes, des mots, du lourd comme un mammouth, j'ai l'appétit d'un ogre La rage de vaincre, j'pourrais t'balafrer juste avec une cannette T'as vu c'qui reste des logements qués-bra et des quartiers funestes</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Qui zer 3el lisser, 3ayta daoudia Settat, Berrechid, Casa, Mohammédia Garage 3ellal, Sebata, ola Salmia Wled ben homan 3aychin b'nia Al Bandit Mister You, Dj 7mida La chferti l'motor i3tik ksida Wled Casa s7ab dar baida Hezo yedikom lyouma nayda Oujda Kenitra, Meknes o Fes Ntle3 l'ktama bach na tnefesse Walabouda f khater Bin'bin Nadjib Mehdi oula Yassine Ana liouma m3a dj hmida Ana liouma m3a Al Bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a dj hmida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Yal babor ya mon amour Wafina fina khwati 3atini l'Visa ou l'Passport Wafina fina khwati You might also like J'débarque l'arabe sur un son Daoudia Mon zinc' m'as dit mat khememch j'ai de la belgia Piscine ou Villa, rebeu dans un Riad Vodka Whisky 3kg de Grillades Hmida au platines avec You on fait la diff' Des bombes latines, des bombes du rhytmes C'est la fête jet set , bouteille d'rosé 7abed étalé et nud nécrosé On est heureux on tire en l'air s7ab fantasia Fait moi une danse du ventre bouge ta che7ma Ouai c'est 7ala, soir-ce c'est 7amid Mama n'aime pas ce que vend 3ami Bladi Diwna l'mellah Fuck les khda3rh J'achètes la côte si je gère une Rock-Feller Sur du chaa3bi, j'danse la Roumba Parles aux ennemis et t'es viré de la Rounda Hamdullah on est tres loin de la dech' Garde la peche et viens pas nous faire ier'ch On pète des bouches et des bouchons de lièges Y a que des beaux mecs, faut que les meufs soient fraiches Marrakech convertie les dirhams en pêchers Rosny-sous-Bois, toujours plaqué en DG Kherjou l'ma7ia Fait pêter les Tetingers Ce soir c'est dans la piscine pas au 7ebs qu'on va plonger Ana liouma m3a dj 7mida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a Dj hmida Ana liouma m3a Al bandit Ana smiti Yougataga Wafina fina khwati1</t>
+          <t>Qui zer 3el lisser, 3ayta daoudia Settat, Berrechid, Casa, Mohammédia Garage 3ellal, Sebata, ola Salmia Wled ben homan 3aychin b'nia Al Bandit Mister You, Dj 7mida La chferti l'motor i3tik ksida Wled Casa s7ab dar baida Hezo yedikom lyouma nayda Oujda Kenitra, Meknes o Fes Ntle3 l'ktama bach na tnefesse Walabouda f khater Bin'bin Nadjib Mehdi oula Yassine Ana liouma m3a dj hmida Ana liouma m3a Al Bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a dj hmida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Yal babor ya mon amour Wafina fina khwati 3atini l'Visa ou l'Passport Wafina fina khwati J'débarque l'arabe sur un son Daoudia Mon zinc' m'as dit mat khememch j'ai de la belgia Piscine ou Villa, rebeu dans un Riad Vodka Whisky 3kg de Grillades Hmida au platines avec You on fait la diff' Des bombes latines, des bombes du rhytmes C'est la fête jet set , bouteille d'rosé 7abed étalé et nud nécrosé On est heureux on tire en l'air s7ab fantasia Fait moi une danse du ventre bouge ta che7ma Ouai c'est 7ala, soir-ce c'est 7amid Mama n'aime pas ce que vend 3ami Bladi Diwna l'mellah Fuck les khda3rh J'achètes la côte si je gère une Rock-Feller Sur du chaa3bi, j'danse la Roumba Parles aux ennemis et t'es viré de la Rounda Hamdullah on est tres loin de la dech' Garde la peche et viens pas nous faire ier'ch On pète des bouches et des bouchons de lièges Y a que des beaux mecs, faut que les meufs soient fraiches Marrakech convertie les dirhams en pêchers Rosny-sous-Bois, toujours plaqué en DG Kherjou l'ma7ia Fait pêter les Tetingers Ce soir c'est dans la piscine pas au 7ebs qu'on va plonger Ana liouma m3a dj 7mida Ana liouma m3a al bandit Ana smiti yougataga Wafina fina khwati Ana liouma m3a Dj hmida Ana liouma m3a Al bandit Ana smiti Yougataga Wafina fina khwati1</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Hades Quarante kilos qui m'attendent vers le port dAnvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur linstru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais Jsuis du ghetto, mfaut des espèces, j'suis un raclo dla pire espèce D'après l'Etat j'suis space, il mfaut d'l'oseille comme dans Scarface Dans ma tess, oui, j'suis khapta, oui J'fume du pilon, de la weed, d'la critical et d'la blueberry ouais ouais J'ai pesé, vendu des kilos J'ai l'neuf milimètres pour les tête-à-tête Dorénavant ça la joue quille-tran, regarde ma gueule à la télé J'ai pas pris une ride en dix ans pourtant j'fonce tête baissée dans la mêlée On sait qui est qui dans le bendo, HLM pour la peine On sait qui fait de l'oseille et qui fait de la peine, ok, ok Ils font d'la merde, ces bâtards me font d'la peine, ouais, ouais J'suis comme la Bête, j'rêve toujours de m'faire la Belle j'protège mes arrières J'ai rien à perdre baby, j'taffe qu'avec mes frères You might also like Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface Tu t'prends pour le meilleur, tu crois qu'personne ne t'égale Puis quand t'es dans la merde, les te regardent On a pris d'la vodka, du Jack, on a tout mélangé On a vendu la me-came mon gars fallait manger Nos proches ils sont dans nos curs Dans nos poches Ça mise des sommes au poker, le Diable michtonne, le sourire moqueur Ils font d'la merde, ces bâtards me font d'la peine, ouais, ouais J'suis comme la Bête, j'rêve toujours de m'faire la Belle j'protège mes arrières J'ai rien à perdre baby j'taffe qu'avec mes frères Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface Faut pas mélanger la beuh avec le vrai Mister Yougataga Les boycotteurs j'les anéantis j'rape par gourmandise Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface</t>
+          <t>Hades Quarante kilos qui m'attendent vers le port dAnvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur linstru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais Jsuis du ghetto, mfaut des espèces, j'suis un raclo dla pire espèce D'après l'Etat j'suis space, il mfaut d'l'oseille comme dans Scarface Dans ma tess, oui, j'suis khapta, oui J'fume du pilon, de la weed, d'la critical et d'la blueberry ouais ouais J'ai pesé, vendu des kilos J'ai l'neuf milimètres pour les tête-à-tête Dorénavant ça la joue quille-tran, regarde ma gueule à la télé J'ai pas pris une ride en dix ans pourtant j'fonce tête baissée dans la mêlée On sait qui est qui dans le bendo, HLM pour la peine On sait qui fait de l'oseille et qui fait de la peine, ok, ok Ils font d'la merde, ces bâtards me font d'la peine, ouais, ouais J'suis comme la Bête, j'rêve toujours de m'faire la Belle j'protège mes arrières J'ai rien à perdre baby, j'taffe qu'avec mes frères Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface Tu t'prends pour le meilleur, tu crois qu'personne ne t'égale Puis quand t'es dans la merde, les te regardent On a pris d'la vodka, du Jack, on a tout mélangé On a vendu la me-came mon gars fallait manger Nos proches ils sont dans nos curs Dans nos poches Ça mise des sommes au poker, le Diable michtonne, le sourire moqueur Ils font d'la merde, ces bâtards me font d'la peine, ouais, ouais J'suis comme la Bête, j'rêve toujours de m'faire la Belle j'protège mes arrières J'ai rien à perdre baby j'taffe qu'avec mes frères Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface Faut pas mélanger la beuh avec le vrai Mister Yougataga Les boycotteurs j'les anéantis j'rape par gourmandise Quarante kilos qui m'attendent vers le port d'Anvers J'ai des tas de billets bleus à repeindre en vert Là j'suis calé sur l'instru Passe le volant j'accélère, la douane volante j'en ai rien à battre, ouais Pas le moment j'suis khabat et je ne compte pas me rabattre Quarante kilos dans la Benz putain de merde, ouais j'dirai qu'j'les pète, j'ai rien à perdre, ouais J'suis du ghetto, m'faut des espèces, j'suis un raclo d'la pire espèce D'après l'Etat j'suis space, il m'faut d'l'oseille comme dans Scarface</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais, ouais, ouais Mister Yougataga c'est la muerte, ma gueule S.Pri Noir aight Douki mélo, c'est comment ? Eh Alors comme ça vous voulez du sale ? Du putain d'You à lancienne aight D'la sel3a, coupe pas du sel ah, du trafic, du recel, une tonne de shit, 100 kilos d'zep ouais S'en bat les couilles d'la douane ah, ces p'tits bâtards nous filatent Et pourtant, on passe des tonnes en camtar ah Fuck les radars et les gheddar, bessir, gunten tag J'vois qu'létau sresserre, niquez des mères devient nécessaire On les fait mouiller, c'est pas leffet d'serre, on dort pas, on a tous des cernes C'est dans l'viseur du Desert Eagle, ma ptite gueule, vaut mieux qu'tu désertes ah C'est pour les Touansa et les DZ, les Mgharba, fuck ceux qu'ont prit des ailes Devant l'État comme des contorsionnistes ah, j'reviens pour faire du khaliss J'ai pas b'soin de prendre du Cialis pour niquer la mère aux sionistes J'rappe pour Casa, mes frères à Gaza, Cabarilla Tipaza ah Et d'la ppe-fra dans les massas, putain, regardez-moi ça Des regards froids, des mains sales, j'entends tout l'monde dans la salle J'entends tout l'monde crier You, arrête d'faire le sentimental ouais Reviens nous faire du hardcore, nique le sale, les instrumentales rah You might also like J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé Fils de pute, j'suis sur le corner, c'est toujours la même chose Mon poto bicrave la sel3a, c'est toujours la même dose Avant, j'avais rien, j'avais nada, j'veux la rivière, j'veux la plata J'les écoute pas, c'est des bratas, j'fais des sous, j'vais sauver papa J'ai nagé où j'avais pas pied, tu connais tout pour le papel Si t'as besoin, boy, tu m'appelles, l'alcool brun pour soigner ma peine Ma première paye, c'était pour la mama, mais elle est partie avant T'inquiète pas, pour moi, ça va, le p'tit reuf touche les avances On volait dans les p'tits magasins, maintenant, j'suis dans les magazines Pourquoi tu nous joues les savants ? 10K pour qu'les p'tits t'assassinent Y a pas l'mensonge sur mes babines si j'te donne ma parole J'avance avec la force de Dieu et les yeux d'la daronne J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé J'ai pas perdu la mémoire, on a enterré des morts La dounia, elle nous fait peur, j'ai pas compté les efforts J'ai pas compté les oiseaux, j'ai rempli tout l'abreuvoir L'oseille s'est mis à pleuvoir, ouais, ouais, ouais J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé J'vais pas t'mentir, moi, je fais pas de manières J'm'en bats les reins qu'l'agent soit assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé</t>
+          <t>Ouais, ouais, ouais, ouais, ouais, ouais Mister Yougataga c'est la muerte, ma gueule S.Pri Noir aight Douki mélo, c'est comment ? Eh Alors comme ça vous voulez du sale ? Du putain d'You à lancienne aight D'la sel3a, coupe pas du sel ah, du trafic, du recel, une tonne de shit, 100 kilos d'zep ouais S'en bat les couilles d'la douane ah, ces p'tits bâtards nous filatent Et pourtant, on passe des tonnes en camtar ah Fuck les radars et les gheddar, bessir, gunten tag J'vois qu'létau sresserre, niquez des mères devient nécessaire On les fait mouiller, c'est pas leffet d'serre, on dort pas, on a tous des cernes C'est dans l'viseur du Desert Eagle, ma ptite gueule, vaut mieux qu'tu désertes ah C'est pour les Touansa et les DZ, les Mgharba, fuck ceux qu'ont prit des ailes Devant l'État comme des contorsionnistes ah, j'reviens pour faire du khaliss J'ai pas b'soin de prendre du Cialis pour niquer la mère aux sionistes J'rappe pour Casa, mes frères à Gaza, Cabarilla Tipaza ah Et d'la ppe-fra dans les massas, putain, regardez-moi ça Des regards froids, des mains sales, j'entends tout l'monde dans la salle J'entends tout l'monde crier You, arrête d'faire le sentimental ouais Reviens nous faire du hardcore, nique le sale, les instrumentales rah J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé Fils de pute, j'suis sur le corner, c'est toujours la même chose Mon poto bicrave la sel3a, c'est toujours la même dose Avant, j'avais rien, j'avais nada, j'veux la rivière, j'veux la plata J'les écoute pas, c'est des bratas, j'fais des sous, j'vais sauver papa J'ai nagé où j'avais pas pied, tu connais tout pour le papel Si t'as besoin, boy, tu m'appelles, l'alcool brun pour soigner ma peine Ma première paye, c'était pour la mama, mais elle est partie avant T'inquiète pas, pour moi, ça va, le p'tit reuf touche les avances On volait dans les p'tits magasins, maintenant, j'suis dans les magazines Pourquoi tu nous joues les savants ? 10K pour qu'les p'tits t'assassinent Y a pas l'mensonge sur mes babines si j'te donne ma parole J'avance avec la force de Dieu et les yeux d'la daronne J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé J'ai pas perdu la mémoire, on a enterré des morts La dounia, elle nous fait peur, j'ai pas compté les efforts J'ai pas compté les oiseaux, j'ai rempli tout l'abreuvoir L'oseille s'est mis à pleuvoir, ouais, ouais, ouais J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires alimentaires J'me soucis de ma mère et de sa santé sa santé J'vais pas t'mentir, moi, je fais pas de manières pas de manières J'm'en bats les reins qu'l'agent soit assermenté assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé J'vais pas t'mentir, moi, je fais pas de manières J'm'en bats les reins qu'l'agent soit assermenté J'ai volé pour des raisons alimentaires J'me soucis de ma mère et de sa santé</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ouais ouais ouais On t'enterre dans un trou darwa A.L.K.P.O.T.E, Mister You, Farage Arrête You si tu peux On fait qu'des musiques trop criminelles Rien à foutre on a la même poudre, qu'en République Dominicaine J'embrasse ta sur avec l'haleine de l'ambassadeur L'empereur c'est un nouveau genre d'amateur Des vidéos X, ma clique terrorise Sale salope tu vas t'faire niquer l' coccyx Y'a qu'des braqueurs, voleurs, dealers, youvs Des rimeurs de fou sont sur l'projet d'Mister You Bolloss tu sniffe mais faut du biff, j'ai l'flow qu'tu kiff A cause du spliff j'suis productif et trop furtif quand j'pose une rive Incorruptible j'ai des amis cultivés Matte mes ennemis ruminés, vive l'unité Contre eux j'suis immunisé, j'suis illuminé J'me prive du dîner quand j'tise du JB Prend un fichu ticket si tu veux m'niquer Les crimes sont non élucidé, moi très tôt j'ai du dealer You might also like Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sers, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme J'pèse le poids d'mes mots comme si c'était la dernière fois J'peu plus m'permettre de laisser d'la merde derrière moi J'aime la vie qu'elle soit douce ou corsée J'me sent bien sous ma grisaille, qu'ils aillent tous se torchés La solitude m'a forgé, jespérais touché la lune Mais c'est pas en touchant un paquet d'thune qu'tu peux trouver l'salut Tu peux toujours douter d'ma plume, peux préparer ton corbillard La mort fait aussi peur qu'les intentions te porte le di-able Sex, drogue, pillave, y'a pas un d'ces porcs fiables Juste ambiance Clichy, qui attend qu'tu donnes ton corps biatch Fuck, fuck les G.I., encore une rafale tu piges Respect à Madri d'Neochrome mafia du disque Le 77 présente l'unique BSD 13 Quand Farage prend l'micro dead pour les mythos, tu n'y reste des traits Voilà c'que tu nous balances T'aura beau foutre ta langue, tu peux pas skier l'avalanche Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sert, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Aaarh, j'devais m'barer a Casa C'est la merde y'a trop d'frères qui crèvent à Gaza Les p'tits poissons dans l'ghetto, ils bé-tom avant d'savoir nager Ils boivent la tasse dans l'Sky, après s'être noyer dans l'panaché Ni cool, ni Joe mais bon quand même on t'nique ta mère Y'a plus l'temps d'jouer darwa l'croupier il est déjà par terre Menotté, ligoter, entrain d'se faire péter l'derrière 22 ans de sûreté, synonyme de fin d'carrière Ils parlent de guerre, les gangstères tah Marligomont Mais quand t'arrives armé d'un Glock ils t'rétorque salamoualikoum Bête de formation Effectivement, comme dit Abis, j'suis pas maçon mais bon j'travaille dans l'batiment Ougataga, j'ai toujours les yeux plissés J'suis un peu comme une gueen gars, j'laisserai aucun mec me baiser Eister, Nadal dédicace pour Abou Comme on dit pas b'soin d'pare-balle quand on connait un bon marabout Ornicar, dans l'tié-car, on sait pas il est passé par où Demande aux anciens, à combien d'kilo-métreur tourne la roue Quand j'entends You pourquoi tu m'dédicaces pas C'est parce que t'es pas un voyou et donc tu mérites une hazba Neochrome, Farage, Alk, Mister You-gataga Neochrome darwa Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sert, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Ok frère Cherches pas ton coins de paradis au bout d'l'enfer</t>
+          <t>Ouais ouais ouais On t'enterre dans un trou darwa A.L.K.P.O.T.E, Mister You, Farage Arrête You si tu peux On fait qu'des musiques trop criminelles Rien à foutre on a la même poudre, qu'en République Dominicaine J'embrasse ta sur avec l'haleine de l'ambassadeur L'empereur c'est un nouveau genre d'amateur Des vidéos X, ma clique terrorise Sale salope tu vas t'faire niquer l' coccyx Y'a qu'des braqueurs, voleurs, dealers, youvs Des rimeurs de fou sont sur l'projet d'Mister You Bolloss tu sniffe mais faut du biff, j'ai l'flow qu'tu kiff A cause du spliff j'suis productif et trop furtif quand j'pose une rive Incorruptible j'ai des amis cultivés Matte mes ennemis ruminés, vive l'unité Contre eux j'suis immunisé, j'suis illuminé J'me prive du dîner quand j'tise du JB Prend un fichu ticket si tu veux m'niquer Les crimes sont non élucidé, moi très tôt j'ai du dealer Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sers, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme J'pèse le poids d'mes mots comme si c'était la dernière fois J'peu plus m'permettre de laisser d'la merde derrière moi J'aime la vie qu'elle soit douce ou corsée J'me sent bien sous ma grisaille, qu'ils aillent tous se torchés La solitude m'a forgé, jespérais touché la lune Mais c'est pas en touchant un paquet d'thune qu'tu peux trouver l'salut Tu peux toujours douter d'ma plume, peux préparer ton corbillard La mort fait aussi peur qu'les intentions te porte le di-able Sex, drogue, pillave, y'a pas un d'ces porcs fiables Juste ambiance Clichy, qui attend qu'tu donnes ton corps biatch Fuck, fuck les G.I., encore une rafale tu piges Respect à Madri d'Neochrome mafia du disque Le 77 présente l'unique BSD 13 Quand Farage prend l'micro dead pour les mythos, tu n'y reste des traits Voilà c'que tu nous balances T'aura beau foutre ta langue, tu peux pas skier l'avalanche Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sert, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Aaarh, j'devais m'barer a Casa C'est la merde y'a trop d'frères qui crèvent à Gaza Les p'tits poissons dans l'ghetto, ils bé-tom avant d'savoir nager Ils boivent la tasse dans l'Sky, après s'être noyer dans l'panaché Ni cool, ni Joe mais bon quand même on t'nique ta mère Y'a plus l'temps d'jouer darwa l'croupier il est déjà par terre Menotté, ligoter, entrain d'se faire péter l'derrière 22 ans de sûreté, synonyme de fin d'carrière Ils parlent de guerre, les gangstères tah Marligomont Mais quand t'arrives armé d'un Glock ils t'rétorque salamoualikoum Bête de formation Effectivement, comme dit Abis, j'suis pas maçon mais bon j'travaille dans l'batiment Ougataga, j'ai toujours les yeux plissés J'suis un peu comme une gueen gars, j'laisserai aucun mec me baiser Eister, Nadal dédicace pour Abou Comme on dit pas b'soin d'pare-balle quand on connait un bon marabout Ornicar, dans l'tié-car, on sait pas il est passé par où Demande aux anciens, à combien d'kilo-métreur tourne la roue Quand j'entends You pourquoi tu m'dédicaces pas C'est parce que t'es pas un voyou et donc tu mérites une hazba Neochrome, Farage, Alk, Mister You-gataga Neochrome darwa Avant qu'on finisse tous en guerre, ouais tous en terre Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Le doute j'm'en sert, écoute mon frère Combattre mes démons demeure ma plus grande guerre Cherches pas ton coins de paradis au bout d'l'enfer Un vol à mains armés qui tourne mal c'est 12 ans ferme Ok frère Cherches pas ton coins de paradis au bout d'l'enfer</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SHK SHK 2.6.0, city gangsta Du rap de vrai, c'est pour les hommes Rah, cest pour les vrais vaillants Rah Ceux qui tournent au placard, des Baumettes jusqu'à Sequedin Joignable que sur mon 06, j'avais pas dréseau comme Hams J'passe en bécane, en i, cagoulé, j'fais des gros oigts-d à la cam' Des gros doigts Ils m'ont rendu méchant, j'suis gentil à la base À la base J'suis pas fils d'avocat, jsuis fils de haraga De haraga Grandi dans la galère mais on fait pas les miskines Rah Est-ce que jsuis en droit d'demander si tu mestimes ? Vu que quand j'suis en chien, ds nouvelles, t'en prnds jamais Jamais J'leur ai tendu la main et ils ml'ont rendu comme Jamel Rah Les p'tits d'chez moi, ils bicravent tous du te-shi Paris, c'est magique et ça l'était avant Messi, gros On fait pas les ssistes-gro, même si j'ai vu d'la drogue à foison Rah, rah La rue, c'est bien quand t'es p'tit, quand tu grandis, c'est un poison On connaît les grands poissons, ceux qui nagent avec les requins Pah Si tu veux nous douiller, tu finis dans les bois comme Robin Pah J'mets que des grosses frappes à la Wayne Rooney Tiens Écoute, mon pote, tu veux du sale ? J'remets Rah J'rappe ma vida et ça s'ressent bien dans mes textes Ah ouais J'casse ma Lyca' avant qu'à six du mat', ça pète Haut comme trois pommes mais si j'te mets une pêche, tu tombes dedans Direct Lâche la sacoche, l'ancien, t'as trente-deux ans Fais pas l'gue-din, y a qu'toi et moi Pah donc personne va séparer si on s'rentre dedans You might also like Des folles qui pleurent, des hommes à terre, j'fais pas parti d'ces amateurs J'suis v'nu pour baiser l'rap, baisse le micro' au niveau d'ma teub Malheureusement, l'oseille rapide ça rime souvent avec prison ferme Un mec qu'a rotte-ca des affaires, ils l'ont soulevé, ils ont pris son frère J'me fais flasher, permis étranger, m'en bat les couilles, j'roule toute la night J'suis vers Marbella ou vers Tanger, sacoche LV, survêtement Nike Ça t'allume ta mère à six du mat', un Glock et d'la conso' calée Harbat salek, tranquille pépère, gros, t'inquiète pas, tout est carré La vérité prend l'escalier, wallaye bilaye, frérot, j'mens pas J'aime reflâner l'ultra-instinct mais leur niveau, il est tellement bas, ah-ah-ah Les trois quarts sont remplis d'chichis, j'ai même pas b'soin d'me mettre en Sayen, j'les fouette comme un plat tah Chichi J'me rappelle de ma cellule, ces putains d'promenades au mitard Surveillant Surveillant qui m'casse les couilles, avec un pétard, j'fais quatre pétards Y a pas d'ketchup, y a pas d'moutarde, des fois, j'cogite, j'dors un peu tard J'pilote ma life comme un motard, j'me fais 3ayen par des bâtards Les frères, ils peuvent compter sur oi-m comme sur une bête de calculette J'suis pas de ceux qui font des pâtes, y a qu'à Allah qu'j'demande de l'aide Nous n'avons pas les mêmes valeurs, nan, on vient pas d'la même planète C'est ISK, Yougataga, tu fais l'malin, on t'allume ta mère Rah Tu sais qu'j'suis bon qu'à ça, destiné à faire que du sale J'entends les auditeurs me dire Gracias por la qualidad En juin, j'étais avec You, en Fe'-Fe' sur l'allée d'Puerto Banús En août dans un chiringuito sur les plages de Benalmádena C'est très loin des Arthéna mais j'ai la tête au quartier Ah ouais J'pense à mes frères que les keufs ont embarqué Pah J'suis pas là pour leur plaire, j'vais pas changer d'face J'me sens dans l'pe-ra comme un harbouch qui n'a pas d'face Mais bon, c'est pas grave, on s'adapte à toutes circonstances Avant d'lui plaire, j'ai dû ramer, khey, j'ai fait la cour à la France Rah Les poules auront des dents quand les keufs feront plus d'bavures Les traits sur les tes-traî, sur l'té-c' comme après la coiffure J'vais pas ouvrir mon cur, ça risquerait d'te faire mal Ouais J'vais pas montrer mes peurs, tu t'en serviras contre moi De base, on était plein, soudés, y avait zéro vice Derrière un bien se cache un mal car c'est l'argent qui nous divise On calcule pas quand on agit mais en vrai, on fait des trucs de fou Envoie l'p'tit frère chez la nourrice, du détail dans un sac de foot Pah, pah À trois, ça baraude sur un scoot', à sept dans un Clio pé-ta Hein ? À toi d'me dire combien on est sur la margarita ? Combien ? Ch'veux longs, dégaine d'un rital, c'est mon côté tounsi J'leur ai montré l'droit ch'min et ils préfèrent les raccourcis Et si ça leur tombe dessus, ils diront qu'c'est d'ma faute Longue vie à mes frères et les miens, j'souhaite le pire aux autres Longue vie aux nôtres On mène la vida loca ISK À tous les gars du 7.7 Mister Yougataga À tous les gens d'Paname Hasta la muerte Ah, jusqu'à la mort C'est pour les gens d'la calle Pour les gens d'la rue, gros Pour tous les frères et surs enfermés La liberta n'tient pas Ah, y a qu'les 3esses qui restent au placard, ma gueule</t>
+          <t>SHK SHK 2.6.0, city gangsta Du rap de vrai, c'est pour les hommes Rah, cest pour les vrais vaillants Rah Ceux qui tournent au placard, des Baumettes jusqu'à Sequedin Joignable que sur mon 06, j'avais pas dréseau comme Hams J'passe en bécane, en i, cagoulé, j'fais des gros oigts-d à la cam' Des gros doigts Ils m'ont rendu méchant, j'suis gentil à la base À la base J'suis pas fils d'avocat, jsuis fils de haraga De haraga Grandi dans la galère mais on fait pas les miskines Rah Est-ce que jsuis en droit d'demander si tu mestimes ? Vu que quand j'suis en chien, ds nouvelles, t'en prnds jamais Jamais J'leur ai tendu la main et ils ml'ont rendu comme Jamel Rah Les p'tits d'chez moi, ils bicravent tous du te-shi Paris, c'est magique et ça l'était avant Messi, gros On fait pas les ssistes-gro, même si j'ai vu d'la drogue à foison Rah, rah La rue, c'est bien quand t'es p'tit, quand tu grandis, c'est un poison On connaît les grands poissons, ceux qui nagent avec les requins Pah Si tu veux nous douiller, tu finis dans les bois comme Robin Pah J'mets que des grosses frappes à la Wayne Rooney Tiens Écoute, mon pote, tu veux du sale ? J'remets Rah J'rappe ma vida et ça s'ressent bien dans mes textes Ah ouais J'casse ma Lyca' avant qu'à six du mat', ça pète Haut comme trois pommes mais si j'te mets une pêche, tu tombes dedans Direct Lâche la sacoche, l'ancien, t'as trente-deux ans Fais pas l'gue-din, y a qu'toi et moi Pah donc personne va séparer si on s'rentre dedans Des folles qui pleurent, des hommes à terre, j'fais pas parti d'ces amateurs J'suis v'nu pour baiser l'rap, baisse le micro' au niveau d'ma teub Malheureusement, l'oseille rapide ça rime souvent avec prison ferme Un mec qu'a rotte-ca des affaires, ils l'ont soulevé, ils ont pris son frère J'me fais flasher, permis étranger, m'en bat les couilles, j'roule toute la night J'suis vers Marbella ou vers Tanger, sacoche LV, survêtement Nike Ça t'allume ta mère à six du mat', un Glock et d'la conso' calée Harbat salek, tranquille pépère, gros, t'inquiète pas, tout est carré La vérité prend l'escalier, wallaye bilaye, frérot, j'mens pas J'aime reflâner l'ultra-instinct mais leur niveau, il est tellement bas, ah-ah-ah Les trois quarts sont remplis d'chichis, j'ai même pas b'soin d'me mettre en Sayen, j'les fouette comme un plat tah Chichi J'me rappelle de ma cellule, ces putains d'promenades au mitard Surveillant Surveillant qui m'casse les couilles, avec un pétard, j'fais quatre pétards Y a pas d'ketchup, y a pas d'moutarde, des fois, j'cogite, j'dors un peu tard J'pilote ma life comme un motard, j'me fais 3ayen par des bâtards Les frères, ils peuvent compter sur oi-m comme sur une bête de calculette J'suis pas de ceux qui font des pâtes, y a qu'à Allah qu'j'demande de l'aide Nous n'avons pas les mêmes valeurs, nan, on vient pas d'la même planète C'est ISK, Yougataga, tu fais l'malin, on t'allume ta mère Rah Tu sais qu'j'suis bon qu'à ça, destiné à faire que du sale J'entends les auditeurs me dire Gracias por la qualidad En juin, j'étais avec You, en Fe'-Fe' sur l'allée d'Puerto Banús En août dans un chiringuito sur les plages de Benalmádena C'est très loin des Arthéna mais j'ai la tête au quartier Ah ouais J'pense à mes frères que les keufs ont embarqué Pah J'suis pas là pour leur plaire, j'vais pas changer d'face J'me sens dans l'pe-ra comme un harbouch qui n'a pas d'face Mais bon, c'est pas grave, on s'adapte à toutes circonstances Avant d'lui plaire, j'ai dû ramer, khey, j'ai fait la cour à la France Rah Les poules auront des dents quand les keufs feront plus d'bavures Les traits sur les tes-traî, sur l'té-c' comme après la coiffure J'vais pas ouvrir mon cur, ça risquerait d'te faire mal Ouais J'vais pas montrer mes peurs, tu t'en serviras contre moi De base, on était plein, soudés, y avait zéro vice Derrière un bien se cache un mal car c'est l'argent qui nous divise On calcule pas quand on agit mais en vrai, on fait des trucs de fou Envoie l'p'tit frère chez la nourrice, du détail dans un sac de foot Pah, pah À trois, ça baraude sur un scoot', à sept dans un Clio pé-ta Hein ? À toi d'me dire combien on est sur la margarita ? Combien ? Ch'veux longs, dégaine d'un rital, c'est mon côté tounsi J'leur ai montré l'droit ch'min et ils préfèrent les raccourcis Et si ça leur tombe dessus, ils diront qu'c'est d'ma faute Longue vie à mes frères et les miens, j'souhaite le pire aux autres Longue vie aux nôtres On mène la vida loca ISK À tous les gars du 7.7 Mister Yougataga À tous les gens d'Paname Hasta la muerte Ah, jusqu'à la mort C'est pour les gens d'la calle Pour les gens d'la rue, gros Pour tous les frères et surs enfermés La liberta n'tient pas Ah, y a qu'les 3esses qui restent au placard, ma gueule</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Nells Nells J'les vois plus au démarrage, sel3a dans les bagages Contrôle par les douaniers, j'crois qu'j'ai rien à déclarer Comme Gataga, j'ai la rage, j'prends un billet, j'm'arrache Toujours un gars taré qui n'a jamais su s'barrer rrah Si c'est rentable, on investit, fais belek au bénéfice caché dans l'appart' paw, paw, paw Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC Posé sur la ligne à mon rrain-te, gros, j'crois bien qu'on va les grailler après l'apéro La miss, t'es fraîche mais t'auras jamais le numéro, trop de fierté, du mal à te dire te quiero J'suis dans le business, y a pas de mala mala La crème des gamos On en veut des kichtas Des coups comme à Roland-Garros On mène la vie d'artiste, ah J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère You might also like J'suis avec le poto Krili' et toute l'équipe de 13ème Art J'suis entre Paname et Lille, Rotter' et seille-Mar Pardonné comme des frères, je dis juste plus bonjour Ça repart arracher toutes les fleurs, printemps revient toujours On n'a pas eu les mêmes privilèges, la rue, c'est fatale Feinte tah Hakim Ziyech, frappe tah Youcef Atal yah Toi, t'es boycotté, t'es où ? Ah, la putain d'ta race Moi, là j'suis dans des yachts et dans des putains d'palace Chez nous, on parle pas, c'est l'regard qui t'menace Demande aux gars d'la Jonque', ça sent l'Amérique, Dallas Ceux qui font les malins finissent souvent l'quart d'trop Et difficile de faire le dingue quand l'corps n'est même pas retrouvé Da3wa, si ça part en couille, y a c'qu'il faut dans la ve-ca Y a d'quoi partir en vale-ca et d'quoi payer l'avocat Tu connais Yougataga, tu auras qu'des Balenciaga Comme un grand mauvais chacal, ra-ta-ta-ta-tah La crème des gamos On en veut des kichtas Des coups comme à Roland-Garros On mène la vie d'artiste, ah J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère On s'aime le mercredi, on s'déteste le dimanche Les mots qu'on n's'est pas dit sont les graines du silence Hier, j'étais dans ma grotte, aujourd'hui, j'suis dans la finance On sort un single, c'est toute la ce-Fran qui danse Une kichta, un passeport, RS en mode sport Palette, j'passe les rapports, d'la Cali qui s'évapore J'te dis pas quand ça va pas, mentalité Savastano J'suis passé par la fenêtre, y avait les 7nouchs derrière la porte J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère Fais belek au bénéfice caché dans l'appart' Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC Si c'est rentable, on investit, fais belek au bénéfice caché dans l'appart' Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC</t>
+          <t>Nells Nells J'les vois plus au démarrage, sel3a dans les bagages Contrôle par les douaniers, j'crois qu'j'ai rien à déclarer Comme Gataga, j'ai la rage, j'prends un billet, j'm'arrache Toujours un gars taré qui n'a jamais su s'barrer rrah Si c'est rentable, on investit, fais belek au bénéfice caché dans l'appart' paw, paw, paw Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC Posé sur la ligne à mon rrain-te, gros, j'crois bien qu'on va les grailler après l'apéro La miss, t'es fraîche mais t'auras jamais le numéro, trop de fierté, du mal à te dire te quiero J'suis dans le business, y a pas de mala mala La crème des gamos On en veut des kichtas Des coups comme à Roland-Garros On mène la vie d'artiste, ah J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'suis avec le poto Krili' et toute l'équipe de 13ème Art J'suis entre Paname et Lille, Rotter' et seille-Mar Pardonné comme des frères, je dis juste plus bonjour Ça repart arracher toutes les fleurs, printemps revient toujours On n'a pas eu les mêmes privilèges, la rue, c'est fatale Feinte tah Hakim Ziyech, frappe tah Youcef Atal yah Toi, t'es boycotté, t'es où ? Ah, la putain d'ta race Moi, là j'suis dans des yachts et dans des putains d'palace Chez nous, on parle pas, c'est l'regard qui t'menace Demande aux gars d'la Jonque', ça sent l'Amérique, Dallas Ceux qui font les malins finissent souvent l'quart d'trop Et difficile de faire le dingue quand l'corps n'est même pas retrouvé Da3wa, si ça part en couille, y a c'qu'il faut dans la ve-ca Y a d'quoi partir en vale-ca et d'quoi payer l'avocat Tu connais Yougataga, tu auras qu'des Balenciaga Comme un grand mauvais chacal, ra-ta-ta-ta-tah La crème des gamos On en veut des kichtas Des coups comme à Roland-Garros On mène la vie d'artiste, ah J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère On s'aime le mercredi, on s'déteste le dimanche Les mots qu'on n's'est pas dit sont les graines du silence Hier, j'étais dans ma grotte, aujourd'hui, j'suis dans la finance On sort un single, c'est toute la ce-Fran qui danse Une kichta, un passeport, RS en mode sport Palette, j'passe les rapports, d'la Cali qui s'évapore J'te dis pas quand ça va pas, mentalité Savastano J'suis passé par la fenêtre, y avait les 7nouchs derrière la porte J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère J'ai quitté l'bât', j'ai mis la Patek, tu m'voyais par terre, j'ai plus besoin d'aide J'ai plus besoin d'elle, j'ai besoin d'air, j'veux voyager, plus connaître la galère Fais belek au bénéfice caché dans l'appart' Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC Si c'est rentable, on investit, fais belek au bénéfice caché dans l'appart' Sur le terrain, j'en ai servi des schlags à la demande, menotté par la BAC</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nock-Pi J'ai besoin d'un , va voir ton père tass Besoin d'aller cramer les concerts, besoin d'une paire d'as J'ai besoin d'mon oin'j Traine pas qu'avec des strings ou du beau linge Besoin d'un qui m'travaille les méninges J'ai besoin d'un beau calibre, besoin d'espèce, d'un testament Baiser ceux qui nous test avant l'apocalypse J'ai besoin d'une kalachnikov Pour allumer toute la Terre, surtout ceux qui pensent qu'à la chnikav Besoin de rien face à la foule XX comme un mahboul Comme à l'ancienne, comme la débrouille, d'la réussite jusqu'au embrouille J'ai besoin d'rentrer dans l'vif du sujet, il m'faut du biff J'ai des projets pour la mif, on est soudés pour la ie-v A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de choses On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer You might also like Besoin d'voir mon équipe au top Pour l'enterrement des pseudo star, j'porterais un jolie costard J'ai besoin d'une plaque , t'as besoin d'une claque chérie D'un S500, de mac et d'un p'tit Blackberry Besoin d'un bon baveu, besoin de voir les nôtres riches Allons casser une biche en Autriche Besoin d'espace, besoin d'espèces On arrive en retard que quand on s'presse, rendez vous au midnight express Besoin de kicker c'est mon traitement, t'as vu comment ils nous traite, nan Mettre la France sous pression, j'suis prêt donc il serait peut être temps J'ai besoin d'casser la porte et d'm'introduire de manière forte Parc'que faut qu'mon poto sorte de sa cellule de n'importe quelle sorte A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de choses On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer J'arrive en , ma zik sous J'ai besoin d'une charmeuse fraîche genre classique Cooper S'en bats les couilles ouais, garder vos licornes et vos girafes J'en ai pas besoin d'un taf mais 3 pièces sur l'avenue Vaugirard J'ai besoin qu'mon cur palpite, besoin d'partir au casse pipe Pétasse de seum élastique C'est qui c'type, nan c'est rien c'est Mister You C'est celui qui représente la street, celui qui représente les vrais voyous Besoin d'un temps de vérité, de t'sentir représenté déjanté, tu vas vite déchanter Besoin d'voir mes ennemis à l'armée 9.4 gros chez nous c'est les têtes cramé A l'étroit dans nos quartier Dans nos quartier frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de chose On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer On a des soucis rien qu'on dit t'inquiète pas J'en ai pas besoin de paraître, j'viens d'enculer ma quette-pla Niquez vos mères, niquez vos mamans J'finirai pas centenaire car moi j'suis pas l'fils à madame Calment Besoin d'me mettre bien, avec rien Un verre plein, rien qu'des r'quins, calmer leur faim Besoin d'mon instinct, pas d'médecin, pas d'mec sain On règle ça et ça fait ratatata Besoin de faire la guerre sous mélange corsé Sur le quai des Orfèvres, J'ai besoin d'un , d'un gilet De signer chez les D'un jeu dans ma Matrix sur Xbox A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de chose On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer Besoin d'rentrer dans l'vif du sujet, il m'faut du biff Besoin d'voir mon équipe au top, besoin de voir les nôtres riche Baiser ceux qui nous test avant l'apocalypse J'ai besoin d'une plaque XX, t'as besoin d'une claque chérie J'ai besoin d'un son street qui m'travaille les méninges Besoin d'aller cramer les concerts Besoin d'rentrer dans l'vive du sujet, il m'faut du Besoin d'voir mon équipe au top, besoin de voir les nôtres riche</t>
+          <t>Nock-Pi J'ai besoin d'un , va voir ton père tass Besoin d'aller cramer les concerts, besoin d'une paire d'as J'ai besoin d'mon oin'j Traine pas qu'avec des strings ou du beau linge Besoin d'un qui m'travaille les méninges J'ai besoin d'un beau calibre, besoin d'espèce, d'un testament Baiser ceux qui nous test avant l'apocalypse J'ai besoin d'une kalachnikov Pour allumer toute la Terre, surtout ceux qui pensent qu'à la chnikav Besoin de rien face à la foule XX comme un mahboul Comme à l'ancienne, comme la débrouille, d'la réussite jusqu'au embrouille J'ai besoin d'rentrer dans l'vif du sujet, il m'faut du biff J'ai des projets pour la mif, on est soudés pour la ie-v A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de choses On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer Besoin d'voir mon équipe au top Pour l'enterrement des pseudo star, j'porterais un jolie costard J'ai besoin d'une plaque , t'as besoin d'une claque chérie D'un S500, de mac et d'un p'tit Blackberry Besoin d'un bon baveu, besoin de voir les nôtres riches Allons casser une biche en Autriche Besoin d'espace, besoin d'espèces On arrive en retard que quand on s'presse, rendez vous au midnight express Besoin de kicker c'est mon traitement, t'as vu comment ils nous traite, nan Mettre la France sous pression, j'suis prêt donc il serait peut être temps J'ai besoin d'casser la porte et d'm'introduire de manière forte Parc'que faut qu'mon poto sorte de sa cellule de n'importe quelle sorte A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de choses On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer J'arrive en , ma zik sous J'ai besoin d'une charmeuse fraîche genre classique Cooper S'en bats les couilles ouais, garder vos licornes et vos girafes J'en ai pas besoin d'un taf mais 3 pièces sur l'avenue Vaugirard J'ai besoin qu'mon cur palpite, besoin d'partir au casse pipe Pétasse de seum élastique C'est qui c'type, nan c'est rien c'est Mister You C'est celui qui représente la street, celui qui représente les vrais voyous Besoin d'un temps de vérité, de t'sentir représenté déjanté, tu vas vite déchanter Besoin d'voir mes ennemis à l'armée 9.4 gros chez nous c'est les têtes cramé A l'étroit dans nos quartier Dans nos quartier frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de chose On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer On a des soucis rien qu'on dit t'inquiète pas J'en ai pas besoin de paraître, j'viens d'enculer ma quette-pla Niquez vos mères, niquez vos mamans J'finirai pas centenaire car moi j'suis pas l'fils à madame Calment Besoin d'me mettre bien, avec rien Un verre plein, rien qu'des r'quins, calmer leur faim Besoin d'mon instinct, pas d'médecin, pas d'mec sain On règle ça et ça fait ratatata Besoin de faire la guerre sous mélange corsé Sur le quai des Orfèvres, J'ai besoin d'un , d'un gilet De signer chez les D'un jeu dans ma Matrix sur Xbox A l'étroit dans nos quartiers Dans nos quartiers frère On a besoin de s'évader Besoin d'rien, besoin d'tout Besoin de trop de chose On rêve tous de la vie en rose La vie de cauchemar Besoin des frères et surs Des tiens, des miens, pouvoir avancer Besoin d'rentrer dans l'vif du sujet, il m'faut du biff Besoin d'voir mon équipe au top, besoin de voir les nôtres riche Baiser ceux qui nous test avant l'apocalypse J'ai besoin d'une plaque XX, t'as besoin d'une claque chérie J'ai besoin d'un son street qui m'travaille les méninges Besoin d'aller cramer les concerts Besoin d'rentrer dans l'vive du sujet, il m'faut du Besoin d'voir mon équipe au top, besoin de voir les nôtres riche</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fin homa lmgharba Fin wlad casa Wald béni mellal Finha dar bouâaza Casa 3oukacha oujda Meknès Jib Jib l9ar3a Zid 3amr lkas Ch7al mn wa7d kan kibi3 f lghebra Mat f l'b7ar kan ghadi f lghreba Mat ki fir3awn li kan kijri 3la moussa Mat w khella familto men7ousa Dar kollchi bel7ram 7ta 7ta masd9atlo Lbar7 kano s7ab lyouma baghin yta9atlo Wa fin l2asdi9a Mab9ach fihom ti9a Saknin f cellule allah y3ttihom di9a Mel7a w kamon chwiyet zit l3oud Ch7al mn wa7d da3 w mat lih l7ot Khwa dar w mcha khella ga3 lkhot B9aw ghi tsawr las9in f l7yott Ya bladi Twa7achtek dima fi galbi w bali Waw Waw You might also like Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Mato rej3ou sekro chett7o Khafo n3essou 3amou derbo Lgaro Lgaro che3lou 7rego Chdo l'bateau 7ta howa 7ergo Fehmo dakho sa7bo jabo Hadro Hadro 3la hayato W 3la martou li 7em9ato Li heblato w khellato 9albi w 9albi kan kaybghihom Walakin 7ta homa hadrou Bghito Bghito 3lash ghanttal9o Walo walo khelliwni 3likom Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi1</t>
+          <t>Fin homa lmgharba Fin wlad casa Wald béni mellal Finha dar bouâaza Casa 3oukacha oujda Meknès Jib Jib l9ar3a Zid 3amr lkas Ch7al mn wa7d kan kibi3 f lghebra Mat f l'b7ar kan ghadi f lghreba Mat ki fir3awn li kan kijri 3la moussa Mat w khella familto men7ousa Dar kollchi bel7ram 7ta 7ta masd9atlo Lbar7 kano s7ab lyouma baghin yta9atlo Wa fin l2asdi9a Mab9ach fihom ti9a Saknin f cellule allah y3ttihom di9a Mel7a w kamon chwiyet zit l3oud Ch7al mn wa7d da3 w mat lih l7ot Khwa dar w mcha khella ga3 lkhot B9aw ghi tsawr las9in f l7yott Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Mato rej3ou sekro chett7o Khafo n3essou 3amou derbo Lgaro Lgaro che3lou 7rego Chdo l'bateau 7ta howa 7ergo Fehmo dakho sa7bo jabo Hadro Hadro 3la hayato W 3la martou li 7em9ato Li heblato w khellato 9albi w 9albi kan kaybghihom Walakin 7ta homa hadrou Bghito Bghito 3lash ghanttal9o Walo walo khelliwni 3likom Ya bladi Twa7achtek dima fi galbi w bali Waw Waw Fin ghada biya Ghi mimti f 3iniya W zahri w mdar liya C'est ça la vie 9albi rah safi Twa7acht bladi Ga3 s7abi1</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>De nos jours pour une barrette ils t'mettent la peine à Fofana On a trop l'je3 donc direct darwah on bicrave la cocaïne Ha-attention il t'faut quoi, du te-shi ? T'as qu'à passer à Ramponeau et tu t'f'ras vi-ser pas Toji Il nous faut des armes, du beurre et du m'buru Bandigo à r'tourner sa veste mais bon elle était d'jà muru Ah Ougataga darwah bienvenu à zoo Les siste-gro ramène à You Les gue-shla mènent à Bazoo J'suis avec Malik Omer J.R poto Rico Jean Luc j'lui met dans l'ul-c j'lui fais crier cocorico Ok hey gringo Suce moi la bite un petit peu Pour un 10e Là où j'habite tu t'fais crosser par un tit-pe Qui peut me dire que Mister You c'est un bâtard On m'a pas cru on m'a pas écrit Prétoire, direct mitard Au parloir ça roule du cul Mais crois pas qu'on suce Noko Vatos Loco Bonhomme comme tous les CissokoYou might also like</t>
+          <t>De nos jours pour une barrette ils t'mettent la peine à Fofana On a trop l'je3 donc direct darwah on bicrave la cocaïne Ha-attention il t'faut quoi, du te-shi ? T'as qu'à passer à Ramponeau et tu t'f'ras vi-ser pas Toji Il nous faut des armes, du beurre et du m'buru Bandigo à r'tourner sa veste mais bon elle était d'jà muru Ah Ougataga darwah bienvenu à zoo Les siste-gro ramène à You Les gue-shla mènent à Bazoo J'suis avec Malik Omer J.R poto Rico Jean Luc j'lui met dans l'ul-c j'lui fais crier cocorico Ok hey gringo Suce moi la bite un petit peu Pour un 10e Là où j'habite tu t'fais crosser par un tit-pe Qui peut me dire que Mister You c'est un bâtard On m'a pas cru on m'a pas écrit Prétoire, direct mitard Au parloir ça roule du cul Mais crois pas qu'on suce Noko Vatos Loco Bonhomme comme tous les Cissoko</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, y'a que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à l'année dernière au chtar avec Youssouf et Seth J'appelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et j'aperçois les strass et paillettes C'est fini les rehkéyèt, Kore on se check tout à l'heure faut que j'aille chercher mes trophées Deux Soixante à l'heure, c'est dans la Féfé que ça va chauffer Direction le bled, man t'inquiète c'est pas pour faire un go fast Le rap français je viens de l'écraser, il m'arrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe l'étéye, raljo l'bierra Woo Gataga l'yoma l'guerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh You might also likeEnéya, rouya, j'me verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche d'une femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais l'exploser J'aurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable J'appelle une bête de meuf, tellement canon qu'il faut un port d'armes Elle est trop mcheneuf, je sais pas comment la gérer Ici c'est pas comme au Maroc, c'est pas comme en Algérie Ah nan Dahwa, c'est la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en l'air, aujourd'hui c'est la guerre Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh</t>
+          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, y'a que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à l'année dernière au chtar avec Youssouf et Seth J'appelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et j'aperçois les strass et paillettes C'est fini les rehkéyèt, Kore on se check tout à l'heure faut que j'aille chercher mes trophées Deux Soixante à l'heure, c'est dans la Féfé que ça va chauffer Direction le bled, man t'inquiète c'est pas pour faire un go fast Le rap français je viens de l'écraser, il m'arrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe l'étéye, raljo l'bierra Woo Gataga l'yoma l'guerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh Enéya, rouya, j'me verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche d'une femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais l'exploser J'aurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable J'appelle une bête de meuf, tellement canon qu'il faut un port d'armes Elle est trop mcheneuf, je sais pas comment la gérer Ici c'est pas comme au Maroc, c'est pas comme en Algérie Ah nan Dahwa, c'est la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en l'air, aujourd'hui c'est la guerre Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, y'a que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à l'année dernière au chtar avec Youssouf et Seth J'appelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et j'aperçois les strass et paillettes C'est fini les rehkéyèt, Kore on se check tout à l'heure faut que j'aille chercher mes trophées Deux Soixante à l'heure, c'est dans la Féfé que ça va chauffer Direction le bled, man t'inquiète c'est pas pour faire un go fast Le rap français je viens de l'écraser, il m'arrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe l'étéye, raljo l'bierra Woo Gataga l'yoma l'guerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh You might also likeEnéya, rouya, j'me verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche d'une femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais l'exploser J'aurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable J'appelle une bête de meuf, tellement canon qu'il faut un port d'armes Elle est trop mcheneuf, je sais pas comment la gérer Ici c'est pas comme au Maroc, c'est pas comme en Algérie Ah nan Dahwa, c'est la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en l'air, aujourd'hui c'est la guerre Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh</t>
+          <t>Zahouania, Mister You, Kore Ah, la jeunesse attention Zoo, Zoo Zoo Gataga, Ah ah, si si Lacrim, y'a que des stoppeurs chez nous Ah Woo Gataga Jeudi 30 juin 2011, 21h27 Cette heure-ci je suis sur la côte, je suis rhabta je vais faire la fête Je repense à l'année dernière au chtar avec Youssouf et Seth J'appelle le barman et je commande un whisky sec Là je suis avec Najet, avec Khaled, avec Hayèt et j'aperçois les strass et paillettes C'est fini les rehkéyèt, Kore on se check tout à l'heure faut que j'aille chercher mes trophées Deux Soixante à l'heure, c'est dans la Féfé que ça va chauffer Direction le bled, man t'inquiète c'est pas pour faire un go fast Le rap français je viens de l'écraser, il m'arrive sous la godasse Matte mes semelles, guette le sang des concurrents, il est dégoulasse Des haineurs, des haineuses, des counards et des counasses Bref rabewe l'étéye, raljo l'bierra Woo Gataga l'yoma l'guerra Je serais bien entouré matte mes potes que des tarés Un pour tous, tous bourrés, on va se finir au cabaret Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh Enéya, rouya, j'me verrais bien à Pattaya Entrain de rouler des gros sbar, faya, à al playa Aïe, aïe, aïe, toujours autant de paranoïa Là je suis à la recherche d'une femme aussi chéba que Zarouania Je suis au quartier, je suis posé Je suis entrain de causer avec Chakir et Rifché Passe le micro, je vais l'exploser J'aurais aimé être un fauteuil dans un salon de coiffure pour dames Car je sais que la chaise électrique dahwa elle est pas confortable Ah- tends minute, je prends mon portable J'appelle une bête de meuf, tellement canon qu'il faut un port d'armes Elle est trop mcheneuf, je sais pas comment la gérer Ici c'est pas comme au Maroc, c'est pas comme en Algérie Ah nan Dahwa, c'est la Cefran Ici tout le monde il est beau mais personne il est content Chouf tout le monde il est vénère, tout le monde il fait la tête Mais je veux voir toutes les mains en l'air, aujourd'hui c'est la guerre Y'a ben rhami, rameli l'kés Zid oh zid ih ramalhr T Werhahtek, rhani m'gamerh Zid ou Zid oh rhamelh T Werhahtek, rhani m'gamerh</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>J'ai fais un bon capture, je pense que c'est le rap français Attend Hans amène le au décrassage Ensuite tu le jettera dans la cage avec les lions Les 2 lions indomptables Ouiiiiii Mister Yougataga tatata taga tatata taga Mister toutounisan tou tou tounisan tou tou tounisan La zik est bonne c'est de la frappe pas de la co com Deuile et Belleville, sansle hall ça s'traine Tu joue le croma, direct on ouvre le feu Ça sort du zoo zou zougatabra Mister you Woogataga chui un peu comme Scofield Moi le taga jle fume jusqu'au filtre Chui alcoolique Un vrai flemmard mais quand ya les flics darwa jcours trop vite Ya pas que l'argent Qui est sale ya aussi la bouche des faux qui profitent Jiranine ce qui ont faim Comme dit tunisan bara nayek jbute 2,3 rum Dans la rue i spasse des trucs horrible, des truc de malade mentaux Mais sache que si toi t stokma nous on a tout ski faut sous le manteau Eh poto si tu joue le croma direct on ouvre le feu You might also likeÇa sort du zoogata mouaah sortez les y'euillfeu Tunisiano Et quand on les massav vla un massacre orchestré par des têtes grillés Halbouch et le style voyage entre les hagar et les poukpouk Pas de cette rassa cette race Qui donnerai sa mère pour quelques billet Deuille et belleville sa ne vend plus du rêve mais de la schnouf Mister toun tounisan et darwa chui un sadique Mister yougataga j'aye y khla a la rasek La zik est bonne c'est de la frape pas de la com Et la merde à de l'avenir elle investi le temps pas de bol La zik est bonne c de la frape pas de la co com! Deuille et belleville Dans les hall sa traine tu jou lcroma,direct on ouvre le feu Sa sort du zoo zou zougatabra. x2 Tunisiano On est convoité épaté on été nos darons Nous parents on été exploité et on toujours dit pardon Serrer la main a Sarkozy mais comment sa c'est pas mon modèle Sympathiser avec l'ennemie nike sa mere chui pas Faudel Mister you Ya pas de Faudel pas de Jonhny et pas de Dr Gynéco Le meme discours d'puis l'départ nique tous la mere a Nico On pête la veuve clico, pisté par des toxico Ont croque la vie a pleine dents donc bientôt on aura plus d'chicos Tunisiano Ici les reufs ont la rage ne te permet d'exces d'zelle Niveau partage ne devrais pas croké un bredzelle Mister you Le monde est infame d'vant les halls sa traine sec Méfie toi des femmes surtout celles qui cours apres l'sexe Tunisiano Et tête grillé comme elle est pas stylé sur de la funk Pour faire un billet un peu de verre pilé dans de la skunk Mister you Le genre de mec ki au micro s'précipite comme quand faut payer Celui qui sreflete plus en huit-clos, gros qui ont beau payer Wallah la somme rhoya tu veux joué avec Brulé c'est un grand barjo Et fais pas le voyou quand tu vois You Lui il emmène pas au décrassage Ils sort des billatérale et il te fais crié Mister you you gataga !!! Darwa c l'bordel ont est plus en 732 nike la mere a Charles Martel Mister tou tou tounisan Eh khey c l'darwa m'en veut pas méfie toi met pas de srall dans Karwa Mister You You gataga Ould bled rhoya, fine ou mel b'net,hey fine oumenhet Mister tou tou tounisan Lani fetmet ,lel houet oul bnet ou lohline lani n'sit</t>
+          <t>J'ai fais un bon capture, je pense que c'est le rap français Attend Hans amène le au décrassage Ensuite tu le jettera dans la cage avec les lions Les 2 lions indomptables Ouiiiiii Mister Yougataga tatata taga tatata taga Mister toutounisan tou tou tounisan tou tou tounisan La zik est bonne c'est de la frappe pas de la co com Deuile et Belleville, sansle hall ça s'traine Tu joue le croma, direct on ouvre le feu Ça sort du zoo zou zougatabra Mister you Woogataga chui un peu comme Scofield Moi le taga jle fume jusqu'au filtre Chui alcoolique Un vrai flemmard mais quand ya les flics darwa jcours trop vite Ya pas que l'argent Qui est sale ya aussi la bouche des faux qui profitent Jiranine ce qui ont faim Comme dit tunisan bara nayek jbute 2,3 rum Dans la rue i spasse des trucs horrible, des truc de malade mentaux Mais sache que si toi t stokma nous on a tout ski faut sous le manteau Eh poto si tu joue le croma direct on ouvre le feu Ça sort du zoogata mouaah sortez les y'euillfeu Tunisiano Et quand on les massav vla un massacre orchestré par des têtes grillés Halbouch et le style voyage entre les hagar et les poukpouk Pas de cette rassa cette race Qui donnerai sa mère pour quelques billet Deuille et belleville sa ne vend plus du rêve mais de la schnouf Mister toun tounisan et darwa chui un sadique Mister yougataga j'aye y khla a la rasek La zik est bonne c'est de la frape pas de la com Et la merde à de l'avenir elle investi le temps pas de bol La zik est bonne c de la frape pas de la co com! Deuille et belleville Dans les hall sa traine tu jou lcroma,direct on ouvre le feu Sa sort du zoo zou zougatabra. x2 Tunisiano On est convoité épaté on été nos darons Nous parents on été exploité et on toujours dit pardon Serrer la main a Sarkozy mais comment sa c'est pas mon modèle Sympathiser avec l'ennemie nike sa mere chui pas Faudel Mister you Ya pas de Faudel pas de Jonhny et pas de Dr Gynéco Le meme discours d'puis l'départ nique tous la mere a Nico On pête la veuve clico, pisté par des toxico Ont croque la vie a pleine dents donc bientôt on aura plus d'chicos Tunisiano Ici les reufs ont la rage ne te permet d'exces d'zelle Niveau partage ne devrais pas croké un bredzelle Mister you Le monde est infame d'vant les halls sa traine sec Méfie toi des femmes surtout celles qui cours apres l'sexe Tunisiano Et tête grillé comme elle est pas stylé sur de la funk Pour faire un billet un peu de verre pilé dans de la skunk Mister you Le genre de mec ki au micro s'précipite comme quand faut payer Celui qui sreflete plus en huit-clos, gros qui ont beau payer Wallah la somme rhoya tu veux joué avec Brulé c'est un grand barjo Et fais pas le voyou quand tu vois You Lui il emmène pas au décrassage Ils sort des billatérale et il te fais crié Mister you you gataga !!! Darwa c l'bordel ont est plus en 732 nike la mere a Charles Martel Mister tou tou tounisan Eh khey c l'darwa m'en veut pas méfie toi met pas de srall dans Karwa Mister You You gataga Ould bled rhoya, fine ou mel b'net,hey fine oumenhet Mister tou tou tounisan Lani fetmet ,lel houet oul bnet ou lohline lani n'sit</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Y'a ceux qui sortent et ceux qui rentrent Les concurrents se sentent carotte Compteur bloqué à trois cent quarante J'suis entre Belleville et l'cent quarante Rah Hier, c'était dur pour mes parents Avec moi l'présent n'a rien d'marrant Là j'vais charger les Et hamar les catamarans Vaut mieux dire nan que peut-être Le crâne est sur l'appuie-tête J'ai connu quatr fois les arrivants Les toiletts sans la cuvette Les douches remplies d'champignons Y'a qu'les hesses qu'ont pris perpét' Mais hamdoullah, on est sortis À c't'heure-ci, on fait des pépettes Fait des pépettes, fait des pépettesYou might also like</t>
+          <t>Y'a ceux qui sortent et ceux qui rentrent Les concurrents se sentent carotte Compteur bloqué à trois cent quarante J'suis entre Belleville et l'cent quarante Rah Hier, c'était dur pour mes parents Avec moi l'présent n'a rien d'marrant Là j'vais charger les Et hamar les catamarans Vaut mieux dire nan que peut-être Le crâne est sur l'appuie-tête J'ai connu quatr fois les arrivants Les toiletts sans la cuvette Les douches remplies d'champignons Y'a qu'les hesses qu'ont pris perpét' Mais hamdoullah, on est sortis À c't'heure-ci, on fait des pépettes Fait des pépettes, fait des pépettes</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mister You gataga JRK Le vingt moins un, cousin Brah Bah ouais Laskt, Laskrt, Laskrt J'me fais 'tej cent grammes, j'découpe dans la cellule J'bicrave des ramsin en promenade, j'fais gonfler mon pécule Les p'tits d'chez moi ont plus de couilles que les p'tits de chez toi Un homme à terre, une douille au sol, une mère qui pleure son fils J'fais du bénéfice, j'taff, j'fais des sacrifices Quartier hala, quartier haram, 1.9 côté sombre de Paname T'inquiète même pas j'prends mes distances, j'étais bien quand t'étais pas là À la barre j'plaide non-coupable mais pas une fois c'était pas moi Il m'faut l'salaire d'Haaland, il m'faut l'salaire d'Haller C'est mes petits, j'leur mets des tartes ou j'leur fais passer l'balai J'ai mis le plein dans l'AMG et là j'suis pas prêt d'caler Pour le soleil de Palerme, j'ai fini au palais Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram You might also like J'suis un vrai marroquí, j'me repose pas sur mes acquis Dans la surface de réparation, appelle moi Inzaghi Hahaha J'viens du 19ème Ouais comme le frérot Zaki Il m'faut des liasses de violet Brr couleur Kawasaki Y a de la vodka, y a du whisky, j'peux même boire du saké Fuck les indics et les poucaves, moi je peux pas me les sacquer L'OFAST enquête, ces bâtards, ils recherchent des indices On m'appelle l'ancien solide, j'suis comme le 33.10 Trop disent des choses mais n'assument pas leur lyrics À dix-sept ans j'décapotais, c'est moi qui tirait dans les rixes J'vendais du crack dans mon quartier, bien sûr qu'j'avais l'amour du risque Moi j'ai dormi à Eric Saty, j'ai pas connu l'parc Astérix Demande au poto JRK, j'ai fais cinq fois les arrivants Surveillant Gros, j'ai tellement eu de lères-ga, j'veux des millions pour mes enfants C'est Mister You gataga, même blessé j'gagne le tournoi N'oublie pas, les grands d'chez toi, ils faisaient des transac' pour moi hahaha Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram</t>
+          <t>Mister You gataga JRK Le vingt moins un, cousin Brah Bah ouais Laskt, Laskrt, Laskrt J'me fais 'tej cent grammes, j'découpe dans la cellule J'bicrave des ramsin en promenade, j'fais gonfler mon pécule Les p'tits d'chez moi ont plus de couilles que les p'tits de chez toi Un homme à terre, une douille au sol, une mère qui pleure son fils J'fais du bénéfice, j'taff, j'fais des sacrifices Quartier hala, quartier haram, 1.9 côté sombre de Paname T'inquiète même pas j'prends mes distances, j'étais bien quand t'étais pas là À la barre j'plaide non-coupable mais pas une fois c'était pas moi Il m'faut l'salaire d'Haaland, il m'faut l'salaire d'Haller C'est mes petits, j'leur mets des tartes ou j'leur fais passer l'balai J'ai mis le plein dans l'AMG et là j'suis pas prêt d'caler Pour le soleil de Palerme, j'ai fini au palais Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram J'suis un vrai marroquí, j'me repose pas sur mes acquis Dans la surface de réparation, appelle moi Inzaghi Hahaha J'viens du 19ème Ouais comme le frérot Zaki Il m'faut des liasses de violet Brr couleur Kawasaki Y a de la vodka, y a du whisky, j'peux même boire du saké Fuck les indics et les poucaves, moi je peux pas me les sacquer L'OFAST enquête, ces bâtards, ils recherchent des indices On m'appelle l'ancien solide, j'suis comme le 33.10 Trop disent des choses mais n'assument pas leur lyrics À dix-sept ans j'décapotais, c'est moi qui tirait dans les rixes J'vendais du crack dans mon quartier, bien sûr qu'j'avais l'amour du risque Moi j'ai dormi à Eric Saty, j'ai pas connu l'parc Astérix Demande au poto JRK, j'ai fais cinq fois les arrivants Surveillant Gros, j'ai tellement eu de lères-ga, j'veux des millions pour mes enfants C'est Mister You gataga, même blessé j'gagne le tournoi N'oublie pas, les grands d'chez toi, ils faisaient des transac' pour moi hahaha Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram Wesh, You, c'est comment ? J'récupère la commande, sur le bleu ça m'relance J'visser' en dehors d'la France, y a des boites et des kilogrammes J'suis venu ravitailler l'binks, envoie un message sur Télégram</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleurer des rivières Il nous détestent on les détestent On a la culture de la gagne, la haine de la défaite Là pour la famille, Là pour les frères Préfèrent faire les choses pour les choses Que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrais pété les portes Pour que les notre prenne une autre chance La bas le monde est a nous c'est que du flanc Soit t'es in, soit t'es out, soit t'allonge, soit tu flanche Les règles suivent, retenir les reines Ce qui t'aime c'est ce qui compte le reste On s'en bat les reins, tout n'est pas donner, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais Tout n'est pas sain, dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps a refaire le coin Trop y'a la peine trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 You might also like C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement finte crochées passement de jambes Tu connais la musique dahwa On se mélanges pas trop avec les gens On s'en bas les couilles, il nous faut dl'argent On reve d'etre dans un palais Mais pas en étant guidé par un darme-gen Sa sent la p'tata Zoogataga Ouais wahad , jouj , tlata J'suis venu pointé du doigt l'Etat C'est enculé qui vivent dans un vrai confort 9 métres carrés sans télé y'a que le shit qui nous réconforte Pour s'évadé rejoindre les airs on s'roule de gros bulldozer Qui démolisse nos veau-cer les hésess nikez vos soeurs Vu que le me-seu c'est consistant laisse la be-her pour l'désert On a la dalle on graille nos ongles on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafic les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troc sa toutes p'tites voitures Contre un bête de yacht et c'est parti pour la dictature Mais il croit la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'africains Dahwa sort du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga Misla, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainés, le Sheitan vient engrainé La course aux milliards rend notre cur noir, l'a gangrèné Sur l'autoroute du suicide inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face du bédo dans l'traîneau J'donne plus mon amour pour toujours À la manu chao perquise en guise de Ciao Gadjo,Gadji, nos destins sont gâchés Enragé le navire de nos rêves a déjà naufragée Embrassé ma tess par les flammes du mal C'est fait embrassé Sur le bitume nos silhouette sont tracé Nous laissé déclassé des classes Et déplacé des basses Térassé par la pouasses Nos destins entrasse au passé khey On bataille on veut tous faire de la maille Qu'on bicrave qu'on travail on sera traité de racaille Alors nique leurs meres à c'est Gros Fils de Putes Y'a pas ma téte a l'affiche j'suis fiché chez les stups 93.13 presse dans les yeuz on pense qu'a craché comme mon gun Crache la fumée mes poumons sont encrassé Grassié Gracias muchachos muchachas, comme Fallait bien que j'me refasse Atrophié assomer par l'enclume du procureur Sur street lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
+          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Tu veux m'décendre quoi ? Tu peux pas m'décendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleurer des rivières Il nous détestent on les détestent On a la culture de la gagne, la haine de la défaite Là pour la famille, Là pour les frères Préfèrent faire les choses pour les choses Que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrais pété les portes Pour que les notre prenne une autre chance La bas le monde est a nous c'est que du flanc Soit t'es in, soit t'es out, soit t'allonge, soit tu flanche Les règles suivent, retenir les reines Ce qui t'aime c'est ce qui compte le reste On s'en bat les reins, tout n'est pas donner, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais Tout n'est pas sain, dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps a refaire le coin Trop y'a la peine trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement finte crochées passement de jambes Tu connais la musique dahwa On se mélanges pas trop avec les gens On s'en bas les couilles, il nous faut dl'argent On reve d'etre dans un palais Mais pas en étant guidé par un darme-gen Sa sent la p'tata Zoogataga Ouais wahad , jouj , tlata J'suis venu pointé du doigt l'Etat C'est enculé qui vivent dans un vrai confort 9 métres carrés sans télé y'a que le shit qui nous réconforte Pour s'évadé rejoindre les airs on s'roule de gros bulldozer Qui démolisse nos veau-cer les hésess nikez vos soeurs Vu que le me-seu c'est consistant laisse la be-her pour l'désert On a la dalle on graille nos ongles on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafic les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troc sa toutes p'tites voitures Contre un bête de yacht et c'est parti pour la dictature Mais il croit la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'africains Dahwa sort du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga Misla, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainés, le Sheitan vient engrainé La course aux milliards rend notre cur noir, l'a gangrèné Sur l'autoroute du suicide inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face du bédo dans l'traîneau J'donne plus mon amour pour toujours À la manu chao perquise en guise de Ciao Gadjo,Gadji, nos destins sont gâchés Enragé le navire de nos rêves a déjà naufragée Embrassé ma tess par les flammes du mal C'est fait embrassé Sur le bitume nos silhouette sont tracé Nous laissé déclassé des classes Et déplacé des basses Térassé par la pouasses Nos destins entrasse au passé khey On bataille on veut tous faire de la maille Qu'on bicrave qu'on travail on sera traité de racaille Alors nique leurs meres à c'est Gros Fils de Putes Y'a pas ma téte a l'affiche j'suis fiché chez les stups 93.13 presse dans les yeuz on pense qu'a craché comme mon gun Crache la fumée mes poumons sont encrassé Grassié Gracias muchachos muchachas, comme Fallait bien que j'me refasse Atrophié assomer par l'enclume du procureur Sur street lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3,9-3,7-5 te foudroie Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You , Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme nos parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleuré des rivières Il nous détestent, on les déteste On a la culture de la gagne, la haine de la défaite Là pour la famille, là pour les frères Préfère faire les choses pour les choses que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrait péter les portes pour que les nôtres aient une autre chance Là-bas le monde est à nous c'est que du flan Soit t'es in, soit t'es out, soit t'as l'manche, soit tu flanches Les règles suivent, retenir les rênes Ceux qui t'aiment, tout ce qui compte, le reste on s'en bat les reins Tout n'est pas donné, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais, tout n'est pas sain Dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps à refaire le coin Trop y'a la peine, trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 You might also like C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement, feinte crochets passement de jambes Tu connais la musique, dahwa on se mélange pas trop avec les gens On s'en bas les couilles, il nous faut d'l'argent On rêve d'être dans un palais mais pas en étant guidé par un darme-gen Sa sent la p'tata, zoogataga Ouais wahad , jouj , tlata J'suis venu pointer du doigt l'État Ces enculés qui vivent dans un vrai confort Neuf mètres carrés sans télé y'a que le shit qui nous réconforte Pour s'évader, rejoindre les airs, on roule de gros bulldozers Qui démolisse nos veaux-cer, les hésess niquez vos surs Vu que le me-seu c'est consistant, laisse la be-her pour l'désert On a la dalle, on graille nos ongles, on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafique les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troque sa tout p'tite voiture Contre un bête de yacht et c'est parti pour la dictature Mais ils croient la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'Africains Dahwa, sors du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga, Mista, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic, t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainées, le Sheitan vient engrainer La course aux milliards rend notre cur noir, l'a gangréné Sur l'autoroute du suicide, inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face, du bédo dans l'traîneau J'taime plus mon amour pour toujours À la Manu Chao, perquise en guise de Ciao Gadjo, Gadji, nos destins sont gâchés Enragé, le navire de nos rêves a déjà naufragé Embrasée, ma tess par les flammes du mal s'est faite embrasser Sur le bitume, nos silhouettes sont tracées Délaissés, déclassés, déclassés, déplacés Dépassés, terrassés par la poisse Nos destins on trace au passé, khey On bataille, on veut tous faire de la maille Qu'on bicrave, qu'on travaille, on sera traité de racaille Alors nique leurs mères à ces gros fils de putes Y'a pas ma tête a l'affiche, j'suis fiché chez les stups 93, 13 braise dans les yeuz, on pense qu'à brasser Comme mon gun, j'crache la fumée, mes poumons sont encrassés Grazie, gracias muchachos muchachas Comme Pachanga, fallait bien que j'me refasse Atrophié, assommé par l'enclume du procureur Sur Street Lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
+          <t>Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Street lourd, Street lourd, Street lourd, Street lourd Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Tu veux nous descendre quoi ? Tu peux pas nous descendre nan Oui on ose, oui on prouve On prend ce qu'on trouve, oui on ouvre, oui on trompe Cette jungle a fait de nous des bêtes fauves Soit on progresse, soit on retombe dans les mêmes fautes La tête dans l'oseille et les mains dans la misère Dans nos yeux y'a plus de larmes on a déjà pleuré des rivières Il nous détestent, on les déteste On a la culture de la gagne, la haine de la défaite Là pour la famille, là pour les frères Préfère faire les choses pour les choses que faire les choses pour les faire On a tous un peu la même vie, les mêmes vices Partir et refuser de revenir les mains vides Le quartier c'est notre chambre On voudrait péter les portes pour que les nôtres aient une autre chance Là-bas le monde est à nous c'est que du flan Soit t'es in, soit t'es out, soit t'as l'manche, soit tu flanches Les règles suivent, retenir les rênes Ceux qui t'aiment, tout ce qui compte, le reste on s'en bat les reins Tout n'est pas donné, tout n'est pas simple Tout n'est pas vrai, tout n'est pas faux, tout n'est pas mauvais, tout n'est pas sain Dur d'aller bien, dur de faire le point Le temps demeure et les ondes passe Et on passe le temps à refaire le coin Trop y'a la peine, trop y'a mort d'hommes On voudrais revenir en arrière au temps des 11 C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours On arrive tranquillement, feinte crochets passement de jambes Tu connais la musique, dahwa on se mélange pas trop avec les gens On s'en bas les couilles, il nous faut d'l'argent On rêve d'être dans un palais mais pas en étant guidé par un darme-gen Sa sent la p'tata, zoogataga Ouais wahad , jouj , tlata J'suis venu pointer du doigt l'État Ces enculés qui vivent dans un vrai confort Neuf mètres carrés sans télé y'a que le shit qui nous réconforte Pour s'évader, rejoindre les airs, on roule de gros bulldozers Qui démolisse nos veaux-cer, les hésess niquez vos surs Vu que le me-seu c'est consistant, laisse la be-her pour l'désert On a la dalle, on graille nos ongles, on sait ce que c'est que la misère Représente Paname hein, en ce qui m'concerne Eh ouais même en cavale, j'ai eu les couilles de faire des concerts Mais où sont passé les milliards tah la lutte contre le cancer Dans les poches de Chirac donc Balladur monte sur ses grands airs La cerise sur les frégates a comme un bon coup de peinture Sarkozy trafique les scrutins et arrache sa candidature C't'enfant de putain empoche le butin et troque sa tout p'tite voiture Contre un bête de yacht et c'est parti pour la dictature Mais ils croient la mettre à qui ces bâtards de républicains Pour nourrir une seule bouche il privent des millions d'Africains Dahwa, sors du taga et roule un gros z'déh pour Street Lourd Zoo-zoogataga, Mista, Teddy, Mosko t'pètent la bouche C'est du Lourd Comme un bolide a grand d'vitesse Vitesse, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic, t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours Au parloir cesse de peiner, mes res-f' ton enchaînés Nos surs jouent les trainées, le Sheitan vient engrainer La course aux milliards rend notre cur noir, l'a gangréné Sur l'autoroute du suicide, inutile de freiner Imprégné pelo pelo on l'a fait melo melo Mano à mano pelo dans ta face, du bédo dans l'traîneau J'taime plus mon amour pour toujours À la Manu Chao, perquise en guise de Ciao Gadjo, Gadji, nos destins sont gâchés Enragé, le navire de nos rêves a déjà naufragé Embrasée, ma tess par les flammes du mal s'est faite embrasser Sur le bitume, nos silhouettes sont tracées Délaissés, déclassés, déclassés, déplacés Dépassés, terrassés par la poisse Nos destins on trace au passé, khey On bataille, on veut tous faire de la maille Qu'on bicrave, qu'on travaille, on sera traité de racaille Alors nique leurs mères à ces gros fils de putes Y'a pas ma tête a l'affiche, j'suis fiché chez les stups 93, 13 braise dans les yeuz, on pense qu'à brasser Comme mon gun, j'crache la fumée, mes poumons sont encrassés Grazie, gracias muchachos muchachas Comme Pachanga, fallait bien que j'me refasse Atrophié, assommé par l'enclume du procureur Sur Street Lourd j'garde mon profil de tueur C'est du Lourd Comme un bolide à grande vitesse Vie d'tess, hesses, on t'la met en finesse C'est du Lourd 1-3, 9-3, 7-5 te foudroient Tu veux test le mic t'es fou toi C'est du Lourd Pour tous les tiers-quar de Paname à seille-Mar C'est You, Luciano et Sen-Lar C'est du Lourd Comme à Street Lourd, comme notre parcours Comme tous les mecs de tés-c' en bas des tours C'est du lourd</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Léquipe est toquée Faites péter les Dom-pé Ben cest bien compté On sen fout dce que ça va coûter Du vert du jaune du violet Le prix dun cabriolet Le garage a djà sauté On sen fout dce que ça va coûter 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Ah ! 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Champagne, champagne Faut quça parte en freestyle Champagne, champagne Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal Salut ça va tout va bien ouech Tu fais quoi ce soir Tu fais quoi ? tu fais rien, viens jtinvite à tassoir A ma table ya cqui faut du cristal et du Ruinart Prépare un ptit peignoir Ya after dans ma baignoire Il sfait tard donc arrête, ste plait monte dans la charrette Tas un rgard revolver Les yeux couleur ??? Ya du biff ?? Le frigo il est rempli dor Ce soir cest ta fête Non jveux pas tlaisser mi-dor 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Champagne, champagne Faut quça parte en freestyle Champagne, champagne Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal You might also likeAllez faites péter les Dom Pé Et tous les bouchons dliège Cest pour mes potes Hollandais Et tous mes frères au bled Qui sen batent les couilles qui vendent dla sla Moi jai fait du flouz avant dfaire du beu-ra Jprends ceux qui vendent dla sla Moi jai fait du flouz avant dfaire du beu-ra DJKAYZ champagne Faut quça parte en freestyle Champagne, champagne En famille Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal</t>
+          <t>Léquipe est toquée Faites péter les Dom-pé Ben cest bien compté On sen fout dce que ça va coûter Du vert du jaune du violet Le prix dun cabriolet Le garage a djà sauté On sen fout dce que ça va coûter 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Ah ! 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Champagne, champagne Faut quça parte en freestyle Champagne, champagne Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal Salut ça va tout va bien ouech Tu fais quoi ce soir Tu fais quoi ? tu fais rien, viens jtinvite à tassoir A ma table ya cqui faut du cristal et du Ruinart Prépare un ptit peignoir Ya after dans ma baignoire Il sfait tard donc arrête, ste plait monte dans la charrette Tas un rgard revolver Les yeux couleur ??? Ya du biff ?? Le frigo il est rempli dor Ce soir cest ta fête Non jveux pas tlaisser mi-dor 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon 5 heures sur la Rolex Les coeurs dans les cojones Jembrasse des cous qui sent bon Avec mes lèvres de Moet et Chandon Champagne, champagne Faut quça parte en freestyle Champagne, champagne Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal Allez faites péter les Dom Pé Et tous les bouchons dliège Cest pour mes potes Hollandais Et tous mes frères au bled Qui sen batent les couilles qui vendent dla sla Moi jai fait du flouz avant dfaire du beu-ra Jprends ceux qui vendent dla sla Moi jai fait du flouz avant dfaire du beu-ra DJKAYZ champagne Faut quça parte en freestyle Champagne, champagne En famille Amenez que du Cristal, champagne, champagne Faut quça parte en freestyle, champagne, champagne Amenez que du Cristal</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tu la connais, ça fait deux semaines, mon poto, faut pas charier Tu l'as vu deux-trois fois et tu m'parles de te marier Elle va te faire tourner la tête, un peu comme un barillet Les confessions intimes se font sur l'oreiller Pour toi, le ciel est bleu mais pour elle, il est violet On fait c'qu'on peut sans oublier qui on est Ton cur était mé-fer, elle a su l'cambrioler Ça commence par un verre, ça fini en cabriolet Elle va devenir possessive, elle voudra remplacer ta mama Celle qu'avait l'air inoffensive, c'était la plus dangereuse des nanas C'était une beauté beauté, elle t'as vu menotté 'notté Elle sait que t'es côté côté, elle t'avait bien noté Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois Très vite elle t'oubliera, elle viendra pas au parloir C'était une beauté, beauté, elle t'as vu menotté, 'notté Elle sait que t'es côté, côté, elle t'avait bien noté You might also like Des fois, j'la veux pas, des fois, j'veux la marier ok J'l'ai connue dans la hess, j'l'ai connue dans l'barrio wouh Tu m'dis Tu m'fais du mal, mon cur s'est éparpillé ah, ah Il faut qu'on se relaxe, coucher d'soleil à Rio On voyait les choses à deux, d'temps en temps, elle fume un peu J'ai crû voir le Pacifique dans le creux de ses yeux gamberge Elle m'connait, j'suis lunatique, j'peux lui tirer les cheveux ah, ah J'aime pas quand elle t'menick, elle sait bien que j'suis nerveux Elle savait pas qu'j'étais un loup ouh, ouh, ouh, en traître, elle faisait la mala ah, ah, ah, ah Et ses copines étaient jalouses gamberge, normal, elles m'ont tout balance elle m'ont tout dit C'était une beauté beauté, elle t'as vu menotté 'notté Elle sait que t'es côté côté, elle t'avait bien noté Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois Très vite elle t'oubliera, elle viendra pas au parloir C'était une beauté, beauté, elle t'as vu menotté, 'notté Elle sait que t'es côté, côté, elle t'avait bien noté Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois La vie qu'elle t'oubliera, elle viendra pas au parloir</t>
+          <t>Tu la connais, ça fait deux semaines, mon poto, faut pas charier Tu l'as vu deux-trois fois et tu m'parles de te marier Elle va te faire tourner la tête, un peu comme un barillet Les confessions intimes se font sur l'oreiller Pour toi, le ciel est bleu mais pour elle, il est violet On fait c'qu'on peut sans oublier qui on est Ton cur était mé-fer, elle a su l'cambrioler Ça commence par un verre, ça fini en cabriolet Elle va devenir possessive, elle voudra remplacer ta mama Celle qu'avait l'air inoffensive, c'était la plus dangereuse des nanas C'était une beauté beauté, elle t'as vu menotté 'notté Elle sait que t'es côté côté, elle t'avait bien noté Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois Très vite elle t'oubliera, elle viendra pas au parloir C'était une beauté, beauté, elle t'as vu menotté, 'notté Elle sait que t'es côté, côté, elle t'avait bien noté Des fois, j'la veux pas, des fois, j'veux la marier ok J'l'ai connue dans la hess, j'l'ai connue dans l'barrio wouh Tu m'dis Tu m'fais du mal, mon cur s'est éparpillé ah, ah Il faut qu'on se relaxe, coucher d'soleil à Rio On voyait les choses à deux, d'temps en temps, elle fume un peu J'ai crû voir le Pacifique dans le creux de ses yeux gamberge Elle m'connait, j'suis lunatique, j'peux lui tirer les cheveux ah, ah J'aime pas quand elle t'menick, elle sait bien que j'suis nerveux Elle savait pas qu'j'étais un loup ouh, ouh, ouh, en traître, elle faisait la mala ah, ah, ah, ah Et ses copines étaient jalouses gamberge, normal, elles m'ont tout balance elle m'ont tout dit C'était une beauté beauté, elle t'as vu menotté 'notté Elle sait que t'es côté côté, elle t'avait bien noté Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois Très vite elle t'oubliera, elle viendra pas au parloir C'était une beauté, beauté, elle t'as vu menotté, 'notté Elle sait que t'es côté, côté, elle t'avait bien noté Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Ouais, ouais, ouais, ouais, ouais La, la, la, la, la Une fois qu'elle t'accompagne, tu crois qu'le monde est à toi Elle va te faire du sale, te prendre pour son chihuahua Crois-moi qu'elle te quittera si tu touches zéro par mois La vie qu'elle t'oubliera, elle viendra pas au parloir</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveill pas son lexique Comme dit Nass Blleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon Bienvenue à la place où ça traîne ça charbonne ...You might also like</t>
+          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveill pas son lexique Comme dit Nass Blleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon Bienvenue à la place où ça traîne ça charbonne ...</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta You might also like Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
+          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Comment t'expliquer ? x6 C'est comment, hein ?! Comment leur expliquer que j'connais d'ja la fin du feuilleton J'ai l'instinct meurtrier comme un détenu face à un maton J'descends sur mes cotes j'tape une parano sur mes critons Ces bâtards m'ont à lil et préféreraient m'avoir à lilleton Histoire d'remplir leurs quotas, espèce d'hijo de puta Moi j'me venge sur la France, j'envoies la pure qu'arrive de Punta Pas vu pas pris la liberté n'a pas d'prix Faut qu'j'esquive la taule, la psychiatrie La se-pri la putain d'sauterie Toc Toc Toc putain d'merde rebelote, les huissiers frappent à ma porte Ils sont revenus sous escorte Banlieue disque d'or en toc mais j'suis pas dans l'éléctro J'fais que dans lélectrochoc dites-moi où s'cachent les rappeurs Sous la dent j'ai plus rien à m'mettre la plupart de ces bâtards vont finir aux oubliettes Viens faire un tour à Vitry j'suis grillé de la tête aux ied-p Mais comment leur expliquer que j'ai la verbale mitraillette C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer You might also like Si j'te dis Medhi j'vais bien, c'est que j'viens slash un Nique les procureurs parce qu'ils adorent voir nos mères en pleurs J'dis mashalla darwa quand j'vois un frère prendre d'l'ampleur Quand on m'dit le client est roi j'réponds le vendeur est empereur Woogata ftoo, rap tah les fous qui préfèrent s'acheter une rafleuse que d'faire du kung-fu La Mecque j'suis de ceux qui s'blessent et qui toussent mec oularafou J't'ai d'jà dit on s'cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez-moi pour que je m'arrête Les m'ont trop à lil dites-leur d'niquer leurs mères les chouettes On s'occupe d'la vodka Vouuugataga gardez la Schweppes En vale-ca entre la rue et la prison j'suis en train d'faire des slaloms J'suis sous pression y a tout le 36 en bas d'chez la daronne J'suis comme un homme qui aime observant une femme qui elle En courant vers sa perte ce serait perdu dans ce monde infâme J'crains les flammes j'kifferais entendre malhelbik au paradis J'écoute lÉtat et j'me trompe pas les tards-ba ils nous baratinent J'rappe pour ma team, pour Belleville, pour tout le 9.4 Pour toutes les têtes cramées les arbouches et puis les blacks C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer Mi amigo, j'débarque en mode Maradona Diego Selha dans le frigo, sosie de Madonna dans la vago On est tous dingos, on veut tous des lingots Bang Bang donc charge la taupe dans l'Berlingo Obligé de braquer sans s'faire traquer pour raquer une tête Toujours au taquet, ça vent des paquets, j'sais pas se qui s'passe dans nos têtes C'est bête dans l'crime on fait recette La fête quand un frère sort de Fresnes ou des Baumettes T'inquiètes, j'pars à la pêche d'un bon plan Pisté par la bande à Rantanplan On a plus le temps ça devient sanglant, trop d'putes font semblant Pètes plus haut que ton cul grand et tu t'retrouveras sans dents Pok-Pok C'est pas tomber dans l'filet Me d'mande pour pourquoi les p'tits veulent tous acheter un gilet On a tous des pistolets p'tit con Personne y piste ici c'est trop laid fiston... C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer</t>
+          <t>Comment t'expliquer ? x6 C'est comment, hein ?! Comment leur expliquer que j'connais d'ja la fin du feuilleton J'ai l'instinct meurtrier comme un détenu face à un maton J'descends sur mes cotes j'tape une parano sur mes critons Ces bâtards m'ont à lil et préféreraient m'avoir à lilleton Histoire d'remplir leurs quotas, espèce d'hijo de puta Moi j'me venge sur la France, j'envoies la pure qu'arrive de Punta Pas vu pas pris la liberté n'a pas d'prix Faut qu'j'esquive la taule, la psychiatrie La se-pri la putain d'sauterie Toc Toc Toc putain d'merde rebelote, les huissiers frappent à ma porte Ils sont revenus sous escorte Banlieue disque d'or en toc mais j'suis pas dans l'éléctro J'fais que dans lélectrochoc dites-moi où s'cachent les rappeurs Sous la dent j'ai plus rien à m'mettre la plupart de ces bâtards vont finir aux oubliettes Viens faire un tour à Vitry j'suis grillé de la tête aux ied-p Mais comment leur expliquer que j'ai la verbale mitraillette C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer Si j'te dis Medhi j'vais bien, c'est que j'viens slash un Nique les procureurs parce qu'ils adorent voir nos mères en pleurs J'dis mashalla darwa quand j'vois un frère prendre d'l'ampleur Quand on m'dit le client est roi j'réponds le vendeur est empereur Woogata ftoo, rap tah les fous qui préfèrent s'acheter une rafleuse que d'faire du kung-fu La Mecque j'suis de ceux qui s'blessent et qui toussent mec oularafou J't'ai d'jà dit on s'cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez-moi pour que je m'arrête Les m'ont trop à lil dites-leur d'niquer leurs mères les chouettes On s'occupe d'la vodka Vouuugataga gardez la Schweppes En vale-ca entre la rue et la prison j'suis en train d'faire des slaloms J'suis sous pression y a tout le 36 en bas d'chez la daronne J'suis comme un homme qui aime observant une femme qui elle En courant vers sa perte ce serait perdu dans ce monde infâme J'crains les flammes j'kifferais entendre malhelbik au paradis J'écoute lÉtat et j'me trompe pas les tards-ba ils nous baratinent J'rappe pour ma team, pour Belleville, pour tout le 9.4 Pour toutes les têtes cramées les arbouches et puis les blacks C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer Mi amigo, j'débarque en mode Maradona Diego Selha dans le frigo, sosie de Madonna dans la vago On est tous dingos, on veut tous des lingots Bang Bang donc charge la taupe dans l'Berlingo Obligé de braquer sans s'faire traquer pour raquer une tête Toujours au taquet, ça vent des paquets, j'sais pas se qui s'passe dans nos têtes C'est bête dans l'crime on fait recette La fête quand un frère sort de Fresnes ou des Baumettes T'inquiètes, j'pars à la pêche d'un bon plan Pisté par la bande à Rantanplan On a plus le temps ça devient sanglant, trop d'putes font semblant Pètes plus haut que ton cul grand et tu t'retrouveras sans dents Pok-Pok C'est pas tomber dans l'filet Me d'mande pour pourquoi les p'tits veulent tous acheter un gilet On a tous des pistolets p'tit con Personne y piste ici c'est trop laid fiston... C'est la guerre en moi comment t'expliquer C'est la merde en bas comment t'expliquer Obligé d'vendre du Cla-Cla comment t'expliquer Trop de frères au card-pla comment t'expliquer Manque d'argent dans nos mille-fa Alors on monte notre mafia comment t'expliquer Pourtant on marche Beunya comment t'expliquer On veut une belle houria comment t'expliquer</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10, 10 9, 9 8, 7 7, 6 6, 5 5, 4 4, 3 3, 5, 5, 7, 7You might also like</t>
+          <t>10, 10 9, 9 8, 7 7, 6 6, 5 5, 4 4, 3 3, 5, 5, 7, 7</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Toute ta vie tu parles de millions Mais on sait très bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner Quand ça sort le X-ADV, la mort te donne RDV Millionnaire sans les droits TV, je peux vivre tout ce que j'ai rêvé Je suis pas là pour vous bluffer, je suis toujours là pour mes refrés T'as pas vu tout ce qu'on a fait, bien sûr qu'on est refaits J'sais que l'État invente des virus pour vendre ds médicaments C'est Mister You, c'st l'Allemand, on te la met musicalement Étant petit je coupais la C avec toutes sortes de calmants Et y a pas besoin de le placer, c'est un putain de couplet gagnant J'ai fêté mes 20 piges au D4, c'est un putain de rap de P4 J'ai rendu paro le psychiatre, je paye mieux qu'un ? en K Tu me connais, putain d'étalon, le talent reconnait le talent Si tu poucaves on te fume ta mère, on va pas te couper ta langue Toute ta vie tu parles de millions Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner You might also like J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? Très loin de ma tess je sais pas ça me manque c'est comment ? Ils dansent les bras en l'air mais ils sont fauchés les gens du moment J'avance et dans les couilles j'ai toujours quelques grammes de teushi Dis mashallah la3roussa , dis mashallah j'ai grossi 1, 2, 3, 4 plans et tout l'hiver je suis posé On veut de la plata plata, on veut des billets billets 1, 2, 3 et 4 mecs qui viendront pour t'arroser J'ai pas oublié oublié, c'est tout le monde qui veut briller On a connu la hess, pour ça que j'déteste les profiteurs Les putes à buzz et dans le viseur y en a trop dans mon secteur On a gardé la pêche quand ils venaient chez nous à 6h Pété sous contrôle judiciaire j'oublie sous gros joint d'Amster' Toute ta vie tu parles de millions Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? C'est pour les pelos de Lyon et les frères de Paname Y a le prix d'un Macan dans la banane C'est pour les pelos de Lyon et les frères de Paname Y a le prix d'un Macan dans la banane J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? Toute ta vie tu parles de million Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner</t>
+          <t>Toute ta vie tu parles de millions Mais on sait très bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner Quand ça sort le X-ADV, la mort te donne RDV Millionnaire sans les droits TV, je peux vivre tout ce que j'ai rêvé Je suis pas là pour vous bluffer, je suis toujours là pour mes refrés T'as pas vu tout ce qu'on a fait, bien sûr qu'on est refaits J'sais que l'État invente des virus pour vendre ds médicaments C'est Mister You, c'st l'Allemand, on te la met musicalement Étant petit je coupais la C avec toutes sortes de calmants Et y a pas besoin de le placer, c'est un putain de couplet gagnant J'ai fêté mes 20 piges au D4, c'est un putain de rap de P4 J'ai rendu paro le psychiatre, je paye mieux qu'un ? en K Tu me connais, putain d'étalon, le talent reconnait le talent Si tu poucaves on te fume ta mère, on va pas te couper ta langue Toute ta vie tu parles de millions Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? Très loin de ma tess je sais pas ça me manque c'est comment ? Ils dansent les bras en l'air mais ils sont fauchés les gens du moment J'avance et dans les couilles j'ai toujours quelques grammes de teushi Dis mashallah la3roussa , dis mashallah j'ai grossi 1, 2, 3, 4 plans et tout l'hiver je suis posé On veut de la plata plata, on veut des billets billets 1, 2, 3 et 4 mecs qui viendront pour t'arroser J'ai pas oublié oublié, c'est tout le monde qui veut briller On a connu la hess, pour ça que j'déteste les profiteurs Les putes à buzz et dans le viseur y en a trop dans mon secteur On a gardé la pêche quand ils venaient chez nous à 6h Pété sous contrôle judiciaire j'oublie sous gros joint d'Amster' Toute ta vie tu parles de millions Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? C'est pour les pelos de Lyon et les frères de Paname Y a le prix d'un Macan dans la banane C'est pour les pelos de Lyon et les frères de Paname Y a le prix d'un Macan dans la banane J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? J'ai pas le temps, j'ai trop la dalle elle sait la miss Elle préfère te voir en Burberry qu'en qamis Toi tu t'attaches mais elle te donne à la police Pourquoi c'est celui qui touche le moins qui prend des risques ? Toute ta vie tu parles de million Mais on sait bien que t'as pas de filon Y a mon avenir il est dessiné Mais dans la rue tu glisses, tu te retrouves vite à cantiner</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Elle a fait du mal à mon cur J'ai pas marché, j ai pris l'ascenseur Elle a fait du mal à mon cur J'vais m'venger, quitte à serrer sa sur Dieu mon amour était sincère, mais pourtant au fond à quoi ça sert ? Quand c'est pas réciproque, c'est pire qu'un cancer Aujourd'hui, j'fous le feu à chaque concertYou might also like</t>
+          <t>Elle a fait du mal à mon cur J'ai pas marché, j ai pris l'ascenseur Elle a fait du mal à mon cur J'vais m'venger, quitte à serrer sa sur Dieu mon amour était sincère, mais pourtant au fond à quoi ça sert ? Quand c'est pas réciproque, c'est pire qu'un cancer Aujourd'hui, j'fous le feu à chaque concert</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête On ne prête qu'aux riches ou à ceux qui font semblant d'l'être Montrez moi la niche et j'vous dirai la race du maitre Si tu cherches la merde, passe à Belleville on ne sait pas dire non Aux meufs et aux keufs, 20e-19 on ne fait que tir-men J'ai beusek 1 seconde tchin tchin, c'est que l'étirement C'est un vol à la tire ta folle si on te la vole c'est qu'elle attire nan? Tu ne penses pas toi comme un con t'agis T'aimes pas partager de peur que le bien soit contagieux T'es qu'un vard-cre qui n'fait que s'gaver finira l'ventre creux J'dis à genoux 5 samedis n'valent pas un vendredi Dans mon crane j'sais pas c'qui trottine Mon plus beau rêve serait d'revoir Bachir ou les 2 Mamad et Badredine J'te l'redis pour la première fois, j'n'aime que les gros deals Si ta meuf elle m'plait, j'l'accoste comme un crocodile J'boycotte pas mais j'suis plutôt critique J'te fais croire qu'jsuis ton pote et après j'suis plus trop crédible You might also like J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête Mec où va l'Ferrari quand tu finis sous terre ? Le torero il finit par s'faire avoir par l'taureau Qu'est-ce que tu crois hein ? Que tes potes ils veulent t'rendre heureux Sur l'terrain une amitié ça vaut qu'30 euros Marre de cette routine, dans mon crâne j'sais pas c'qui trottine Pour Mamad et patrodine j'ferais 2 rek3a J'ai la rage, mais pas un centième d'celle d'leur mille-fa Le ventre creux j'ai plus faim j'rends hommage à tous mes défunts J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête Nos termes ne sont pas des valeurs faussées, c'est l'état les vrais leurs-vo Ça fera pas des métisses si on met nos noms avec leurs veaux Mes frères ils sont sous tise c'est pas leurs fautes s'ils ont l'air fous Layerfo j'cotise pour ma retraite à Clairvaux J'suis venu tuer la colombe pour ressusciter l'corbeau J'suis faya, ça fait des plombes sers moi un p'tit verre d'bordeaux Chez moi l'sky c'est JB plus que 96 FM J'suis égaré comme un nudiste qu'a retrouvé ses affaires J'suis tellement sous tise, faudra m'greffer un 2ème foie Être libérable c'est un truc de ouf, c'est comme renaitre une 2ème fois J'ai la foi khouya, j'crois en Allah et son Prophète J'rends hommage à Papy, Sabri et Driss de Place des Fêtes C'est trop la défaite mec, j'sais pas c'qui s'passe dans ma tête Rapta mon bien-être, j'suis pas net j'fuck toute la planète J'ai mangé tout l'teau-ga et maintenant j'veux les miettes Woogata I am the best, lui qui veut m'teste j'vais lui mettre Belleville, ça vend du shit d'la weed, du crack et aussi d'la cess Nique sa mère, c'est la galère donc on n'fait qu'ramer On vi-ser sur l'terter et par les stups on s'fait cramer La famille Dramé, j'représente obligé Belleville le gout du 20 avec pas mal de 19 dans l'pichet J'ai vu et j'ai vendu la mort dans des sachets Sachez que même l'ingé bah il a fini par s'faire placé C'trop paro dans l'ghetto donc on n'fait qu's'armer On sera peut-être servi par les blancs dans un monde de basanés Ça fait des années des années et des années Que nos mères, elles salé pour ne plus qu'on s'laisse aller Instinc et listo, j'dois représenter Rebeval J'ai la volonté de mourir pour mes carnales Arabes et noirs, 13 puntos vatos loco Pour péter l'milliard faudra débiter la tonne en coco Les crocs, quand t'souries y t'sourit y'a trop d'chicots Il fait quer-cro mime l'épicier vend plein d'citrons aux toxicos C'est vrai qu'c'est con, mais l'magot on l'associe trop à la Veuve Cliquot Woogataga bebebelleville on nique tous la mère à Nico gros Un but de Lassana vaut mieux que 2 de Figo 1 bière dans la main vaut mieux que 2 dans l'frigo Sous Don Perignon, le million ce serait plus cool si nous l'aurions Sous sky nos larmes elles coulent en hommage à Bakari d'l'Orion gros</t>
+          <t>J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête On ne prête qu'aux riches ou à ceux qui font semblant d'l'être Montrez moi la niche et j'vous dirai la race du maitre Si tu cherches la merde, passe à Belleville on ne sait pas dire non Aux meufs et aux keufs, 20e-19 on ne fait que tir-men J'ai beusek 1 seconde tchin tchin, c'est que l'étirement C'est un vol à la tire ta folle si on te la vole c'est qu'elle attire nan? Tu ne penses pas toi comme un con t'agis T'aimes pas partager de peur que le bien soit contagieux T'es qu'un vard-cre qui n'fait que s'gaver finira l'ventre creux J'dis à genoux 5 samedis n'valent pas un vendredi Dans mon crane j'sais pas c'qui trottine Mon plus beau rêve serait d'revoir Bachir ou les 2 Mamad et Badredine J'te l'redis pour la première fois, j'n'aime que les gros deals Si ta meuf elle m'plait, j'l'accoste comme un crocodile J'boycotte pas mais j'suis plutôt critique J'te fais croire qu'jsuis ton pote et après j'suis plus trop crédible J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête Mec où va l'Ferrari quand tu finis sous terre ? Le torero il finit par s'faire avoir par l'taureau Qu'est-ce que tu crois hein ? Que tes potes ils veulent t'rendre heureux Sur l'terrain une amitié ça vaut qu'30 euros Marre de cette routine, dans mon crâne j'sais pas c'qui trottine Pour Mamad et patrodine j'ferais 2 rek3a J'ai la rage, mais pas un centième d'celle d'leur mille-fa Le ventre creux j'ai plus faim j'rends hommage à tous mes défunts J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête J'sais pas c'qui s'passe dans ma tête Nos termes ne sont pas des valeurs faussées, c'est l'état les vrais leurs-vo Ça fera pas des métisses si on met nos noms avec leurs veaux Mes frères ils sont sous tise c'est pas leurs fautes s'ils ont l'air fous Layerfo j'cotise pour ma retraite à Clairvaux J'suis venu tuer la colombe pour ressusciter l'corbeau J'suis faya, ça fait des plombes sers moi un p'tit verre d'bordeaux Chez moi l'sky c'est JB plus que 96 FM J'suis égaré comme un nudiste qu'a retrouvé ses affaires J'suis tellement sous tise, faudra m'greffer un 2ème foie Être libérable c'est un truc de ouf, c'est comme renaitre une 2ème fois J'ai la foi khouya, j'crois en Allah et son Prophète J'rends hommage à Papy, Sabri et Driss de Place des Fêtes C'est trop la défaite mec, j'sais pas c'qui s'passe dans ma tête Rapta mon bien-être, j'suis pas net j'fuck toute la planète J'ai mangé tout l'teau-ga et maintenant j'veux les miettes Woogata I am the best, lui qui veut m'teste j'vais lui mettre Belleville, ça vend du shit d'la weed, du crack et aussi d'la cess Nique sa mère, c'est la galère donc on n'fait qu'ramer On vi-ser sur l'terter et par les stups on s'fait cramer La famille Dramé, j'représente obligé Belleville le gout du 20 avec pas mal de 19 dans l'pichet J'ai vu et j'ai vendu la mort dans des sachets Sachez que même l'ingé bah il a fini par s'faire placé C'trop paro dans l'ghetto donc on n'fait qu's'armer On sera peut-être servi par les blancs dans un monde de basanés Ça fait des années des années et des années Que nos mères, elles salé pour ne plus qu'on s'laisse aller Instinc et listo, j'dois représenter Rebeval J'ai la volonté de mourir pour mes carnales Arabes et noirs, 13 puntos vatos loco Pour péter l'milliard faudra débiter la tonne en coco Les crocs, quand t'souries y t'sourit y'a trop d'chicots Il fait quer-cro mime l'épicier vend plein d'citrons aux toxicos C'est vrai qu'c'est con, mais l'magot on l'associe trop à la Veuve Cliquot Woogataga bebebelleville on nique tous la mère à Nico gros Un but de Lassana vaut mieux que 2 de Figo 1 bière dans la main vaut mieux que 2 dans l'frigo Sous Don Perignon, le million ce serait plus cool si nous l'aurions Sous sky nos larmes elles coulent en hommage à Bakari d'l'Orion gros</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Huit heures et d'mi du matin, il vient denfiler son jean On est en direct avec Martin, il est en train d'préparer les tartines Pour sa femme et ses deux filles, il a pas perdu le fil, il sait qu'la vie est un combat et qu'chaque jour est un défi Quand l'présent nous sourit, on croit qu'tout est magnifique mais bon lavenir est incertain et pour certains il est maléfique Là, il est huit heures cinquante-sept et il vient denfiler sa veste Il a pris les clés du 307, garer dans l'quartier des Abbesses Il démarre, il embraye, il enclenche la marche arrière, un p'tit coup dil dans l'rétro Et repart en première, deuxième, troisième, là son téléphone il sonne, en répondant allô, il vient de tuer une personne Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit Elle était belle et souriante, elle se prénommait Daphné Chevelure blonde et bien brillante, les yeux dun bleu qui tlaisse en apnée Lycéenne en terminale, scientifique, cétait une fille géniale ouais une gentille fille Tous les mecs de lécole, ils étaient love delle, elle était plus dans ses bouquins que dans son phone'tel Le chemin, il était si court d'chez elle au bahut, il suffisait d'faire quatre cent mètres et d'traverser la rue Mais un jeudi matin sur l'passage piéton, une voiture la fauchée, elle est morte sur le béton Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit You might also like La vie elle est dur faut faire attention oh oh oh Tu peux tout perdre par inattention yeah yeah yeah Mourir ou finir en détention oh oh oh Te poses pas trop de questions yeah yeah yeah Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit</t>
+          <t>Huit heures et d'mi du matin, il vient denfiler son jean On est en direct avec Martin, il est en train d'préparer les tartines Pour sa femme et ses deux filles, il a pas perdu le fil, il sait qu'la vie est un combat et qu'chaque jour est un défi Quand l'présent nous sourit, on croit qu'tout est magnifique mais bon lavenir est incertain et pour certains il est maléfique Là, il est huit heures cinquante-sept et il vient denfiler sa veste Il a pris les clés du 307, garer dans l'quartier des Abbesses Il démarre, il embraye, il enclenche la marche arrière, un p'tit coup dil dans l'rétro Et repart en première, deuxième, troisième, là son téléphone il sonne, en répondant allô, il vient de tuer une personne Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit Elle était belle et souriante, elle se prénommait Daphné Chevelure blonde et bien brillante, les yeux dun bleu qui tlaisse en apnée Lycéenne en terminale, scientifique, cétait une fille géniale ouais une gentille fille Tous les mecs de lécole, ils étaient love delle, elle était plus dans ses bouquins que dans son phone'tel Le chemin, il était si court d'chez elle au bahut, il suffisait d'faire quatre cent mètres et d'traverser la rue Mais un jeudi matin sur l'passage piéton, une voiture la fauchée, elle est morte sur le béton Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit La vie elle est dur faut faire attention oh oh oh Tu peux tout perdre par inattention yeah yeah yeah Mourir ou finir en détention oh oh oh Te poses pas trop de questions yeah yeah yeah Et ouais la vie, elle est compliquée, ya des hauts et des bas Alors faut profiter et vivre chaque moment comme il se doit Et ouais la vie, elle est compliquée non ne vous méprenez pas faut profiter et vivre chaque moment comme il se doit</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>On va au bled pour se laver contre l'oeil c'est mieux qu'un shampoing Et d'après vous, vous vous descendez du babouin Fils d'Adam et D'Awa enfants de parents musulmans Notre rap c'est de la wa wa, Inchallah il se vendra facilement D'après mon profil, délinquant plutot juvénil D'après mon possee, le public débat sur mes lignes Voila mon pseudonyme, Jr O Chrome c'est le rap en 2 lettres 3ème Prototype, quelle brigade ? Sexion criminelle D'après les infos, j'suis fiché dealer, pyromane D'après l'heure qu'il est, ça sent le shit les teilles-bou d'cool-al D'après les an-ienc', t'es en hess vas y banque et braque La poudre et l'acier, featuring dans les bacs d'kebab D'après le chef d'Etat, faut se rejouir de ce qu'il insinue D'après la cité, lors d'une fouille c'est sans lacets, nu D'après le ministère, faut construire pas mal de cellules D'après les colons, c'est d'Afrique que viennent les virus D'après ma nature, j'suis passif j'vends pas les ye-cou D'après les puristes, c'est du lourd Sexion, Mister You D'après l'Amerique, les hommes pieux c'est des meurtriers D'après mon point de vue, mauvais taff, on les a grillés Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée You might also like D'après vous hein ? Pourquoi on bicrave des drogues solides ? Parce qu'on est en bas de la coline et qu'on a besoin d'un trampoline D'après le juge d'instruction, j'suis un mec qui peut pas se rendre J'fais du son j'patiente, en attendant que la caillasse rentre Un pédé chez les boxeurs c'est pire qu'une gween chez les bonnes soeurs D'après les connaisseurs, ça fouette ap l'argent mouasekhe Fuck les boycotteurs, c'est Mister You avec la Sexion Freestyle au milieu de la rue, guetteur à l'intersection D'après l'Etat, ouais j'suis un bête de parasite Nique la mère à tout le monde comme quoi dahwa j'suis pas rasciste D'après les gars de chez moi, on devrait percer mieux que Busta Rhymes Esse, si t'es trop stokma, 11 43 il te baise ta reum Ah Woogataga, d'après ceux qui m'entoure Si on serait parti en Colombie on aurait pas ramené Bétancourt On serait revenu gé-char avec chacun un p'tit pavé On aurait tous mis nos écharpes au cas ou ça s'barre en GAV Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée Paname est une fausse blonde, New York est une brune siliconée Tokyo n'est qu'une poupée gonflable D'après vous, j'suis en tord vu la lourdeur de mes mots Ou ce père de mif qui mine de rien vers 23 heures tarot ses mômes Akhi, la rue c'est fort, arpente avec modération Trop squatter les bancs des tieks donne des abdos dans les fesses Cousin, j'veux mourir bien pas dans le rap ni dans la pop non Je doute de mon entrée au paradis comme voir un pape noir D'après vous, de l'esprit j'suis quasi qué-ni J'ai perdu quelques dents, la p'tite souris ne fait pas de crédit On nous berne, j'mettrai rien dans les urnes Et j'apprends rien en disant que Stéphane Bern n'a rien dans les burnes Y'a des craqués qui craquent, des bolosses crapotent et croient que La bicrave genre en claquettes c'est simple comme d'éclater des clopes Soir ce j'suis claqué mais quoique, se prendre des claque c'est un classique Se faire plaquer au placard mais bref tout ça c'est pas facile Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée</t>
+          <t>On va au bled pour se laver contre l'oeil c'est mieux qu'un shampoing Et d'après vous, vous vous descendez du babouin Fils d'Adam et D'Awa enfants de parents musulmans Notre rap c'est de la wa wa, Inchallah il se vendra facilement D'après mon profil, délinquant plutot juvénil D'après mon possee, le public débat sur mes lignes Voila mon pseudonyme, Jr O Chrome c'est le rap en 2 lettres 3ème Prototype, quelle brigade ? Sexion criminelle D'après les infos, j'suis fiché dealer, pyromane D'après l'heure qu'il est, ça sent le shit les teilles-bou d'cool-al D'après les an-ienc', t'es en hess vas y banque et braque La poudre et l'acier, featuring dans les bacs d'kebab D'après le chef d'Etat, faut se rejouir de ce qu'il insinue D'après la cité, lors d'une fouille c'est sans lacets, nu D'après le ministère, faut construire pas mal de cellules D'après les colons, c'est d'Afrique que viennent les virus D'après ma nature, j'suis passif j'vends pas les ye-cou D'après les puristes, c'est du lourd Sexion, Mister You D'après l'Amerique, les hommes pieux c'est des meurtriers D'après mon point de vue, mauvais taff, on les a grillés Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée D'après vous hein ? Pourquoi on bicrave des drogues solides ? Parce qu'on est en bas de la coline et qu'on a besoin d'un trampoline D'après le juge d'instruction, j'suis un mec qui peut pas se rendre J'fais du son j'patiente, en attendant que la caillasse rentre Un pédé chez les boxeurs c'est pire qu'une gween chez les bonnes soeurs D'après les connaisseurs, ça fouette ap l'argent mouasekhe Fuck les boycotteurs, c'est Mister You avec la Sexion Freestyle au milieu de la rue, guetteur à l'intersection D'après l'Etat, ouais j'suis un bête de parasite Nique la mère à tout le monde comme quoi dahwa j'suis pas rasciste D'après les gars de chez moi, on devrait percer mieux que Busta Rhymes Esse, si t'es trop stokma, 11 43 il te baise ta reum Ah Woogataga, d'après ceux qui m'entoure Si on serait parti en Colombie on aurait pas ramené Bétancourt On serait revenu gé-char avec chacun un p'tit pavé On aurait tous mis nos écharpes au cas ou ça s'barre en GAV Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée Paname est une fausse blonde, New York est une brune siliconée Tokyo n'est qu'une poupée gonflable D'après vous, j'suis en tord vu la lourdeur de mes mots Ou ce père de mif qui mine de rien vers 23 heures tarot ses mômes Akhi, la rue c'est fort, arpente avec modération Trop squatter les bancs des tieks donne des abdos dans les fesses Cousin, j'veux mourir bien pas dans le rap ni dans la pop non Je doute de mon entrée au paradis comme voir un pape noir D'après vous, de l'esprit j'suis quasi qué-ni J'ai perdu quelques dents, la p'tite souris ne fait pas de crédit On nous berne, j'mettrai rien dans les urnes Et j'apprends rien en disant que Stéphane Bern n'a rien dans les burnes Y'a des craqués qui craquent, des bolosses crapotent et croient que La bicrave genre en claquettes c'est simple comme d'éclater des clopes Soir ce j'suis claqué mais quoique, se prendre des claque c'est un classique Se faire plaquer au placard mais bref tout ça c'est pas facile Présumé coupable j'suis présumé coupable D'après vous j'ai les critères pour faire du hebs toute ma life Présumé coupable j'suis présumé coupable Si c'est le cas laisse moi passer les salam au shrab puis à ma wife Est-ce qu'on est susceptible d'être expulsés ? D'après vous Est-ce que ce morceau va vous propulser ? D'après vous Finira t'on tous condamnés ? Ou arrivera t'on à faire du flouz de manière spontanée</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Brulé Euuuuuuuh décalé arbouche mon pote euuh Moi j'fais pas comme george bush euuh ahh comme yougataga mon pote Tu connais yougataga? c'est a peut prés comme benladen mon pote Euhh un grand décalé arbouche mon pote On décale...on décale...on décale...on décale...on décale Maiiiiiis c'est arbouche mon pote Mister You On a bu la tasse dans la merde On sait ce que c'est qu'la noyade On arrive par derrière On es pas très loyale On sais pas où s'trouve or ni car Ni Where is Bryan Ramène du seum et d'la skunk Là pour nous c'est royale Une.2.3.4.5 bouteille de champagne Des meufs et du sky qu'on deux ans d'age mentale Tu peux t'faire crosser par un épouvantail On est fait pour s'croiser on est pas des montagnes Fuck tu fouettes eh c'est épouvantable tu sens l'phoque Tu vois ouais miss tu pue l'emmental On n'aime pas les crasseuse leve toi de la table On va s'bourré la gueule c'soir c'est l'vin au bord dla table You might also like Ok zoogataga dédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Ougataga dédécalé arbouche Ok zoogataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ok ougataga t'fais le malin on t'pète la bouche Mister you Celui qui a pas bu il conduit même s'il a pas l'permis Ouais la famille enchanté j'mappelle rémi J'ai un clé qui cloue l'bec avec un seul mec on va pas lui dire Bsahtek mais allah y selmek J'tipe j'tape direct hop en avant les d'moizelle Moi c'est l'grand méchant loup comment vont les d'moiselles Toi t'as un regard vicieux mais quand même le vert de tes yeux regard trop celui que j'ai dans les mains Wougatagaa t'as ton gars et beh merde repose la vodka et tu sais quoi j'temmerde hein ! Lève toi casse toi et va rejoindre la piste moi j'reste là j'suis khabta j'vais m'rouler du cannabis Ok zoogataga dédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Ougataga dédécalé arbouche Ok zoogataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ok ougataga t'fais le malin on t'pète la bouche1</t>
+          <t>Brulé Euuuuuuuh décalé arbouche mon pote euuh Moi j'fais pas comme george bush euuh ahh comme yougataga mon pote Tu connais yougataga? c'est a peut prés comme benladen mon pote Euhh un grand décalé arbouche mon pote On décale...on décale...on décale...on décale...on décale Maiiiiiis c'est arbouche mon pote Mister You On a bu la tasse dans la merde On sait ce que c'est qu'la noyade On arrive par derrière On es pas très loyale On sais pas où s'trouve or ni car Ni Where is Bryan Ramène du seum et d'la skunk Là pour nous c'est royale Une.2.3.4.5 bouteille de champagne Des meufs et du sky qu'on deux ans d'age mentale Tu peux t'faire crosser par un épouvantail On est fait pour s'croiser on est pas des montagnes Fuck tu fouettes eh c'est épouvantable tu sens l'phoque Tu vois ouais miss tu pue l'emmental On n'aime pas les crasseuse leve toi de la table On va s'bourré la gueule c'soir c'est l'vin au bord dla table Ok zoogataga dédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Ougataga dédécalé arbouche Ok zoogataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ok ougataga t'fais le malin on t'pète la bouche Mister you Celui qui a pas bu il conduit même s'il a pas l'permis Ouais la famille enchanté j'mappelle rémi J'ai un clé qui cloue l'bec avec un seul mec on va pas lui dire Bsahtek mais allah y selmek J'tipe j'tape direct hop en avant les d'moizelle Moi c'est l'grand méchant loup comment vont les d'moiselles Toi t'as un regard vicieux mais quand même le vert de tes yeux regard trop celui que j'ai dans les mains Wougatagaa t'as ton gars et beh merde repose la vodka et tu sais quoi j'temmerde hein ! Lève toi casse toi et va rejoindre la piste moi j'reste là j'suis khabta j'vais m'rouler du cannabis Ok zoogataga dédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Ougataga dédécalé arbouche Ok zoogataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ougataga t'fais le malin on t'péte la bouche Zoogataga dédédécalé arbouche Ok ougataga t'fais le malin on t'pète la bouche1</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Intro Hasta la muerte Hasta la muerte Hades Volume 2 Hey, tu connais les condés Veulent boycotter, veulent saccager Tout est cassé, petits batards Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte un gova, m'en bats les couilles du Dmel Les tit-pe tournent en RM, les gravons dans la BM Tout le monde veut tenir les rênes d'l'économie souterraine Maman a toujours été reine, papa a toujours été roi Mon frère a grandi à Fresnes, à Fleury, D5 D4 D3 La gardienne mérite pas d'être reine, elle a tout lance-ba cette lope-sa C'est des gros problèmes que l'on traine, crois-moi de3wa c'est comme ça C'est vrai que dans nos quartiers, fraternité vaut mieux qu'amitié À nos yeux minimum c'est Cartier Chez moi on accueille les keufs au mortier You might also like Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Faut investir pour la mama, on mise tout sur la marijuana Et de3wa pour papa, j'veux l'oseille du Cartel de Tijuana Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Les tit-pe tounent en KTM, les grands vont chercher des plavons Un tout petit peu de haine, l'amour est mort au charbon Dans , le mercredi c'est pas bon Ça casse ta porte le matin, toi tu savais que ça sentait pas bon Mais t'as quand-même vendu du pilon, des pilules et puis d'la cess T'as sorti les Lamborghini, les Ferrari puis les Classe S À cette heure-ci t'es dans ta cellule, et t'es là tu côtoies la hess Contre un grossiste et un herraga qui parle moins qu'en sortant du hebss La vie c'est un allez simple donc y'aura pas d'remontada Zemzem vaut mieux que whisky et que Piña colada De3wa demande à Bakar, quand t'es au placard pas b'soin d'placard Poto, ouais fuck les hagar C'Mister Mister Yougataga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Faut investir pour la mama, on mise tout sur la marijuana Et de3wa pour papa, j'veux l'oseille du Cartel de Tijuana Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel1</t>
+          <t>Intro Hasta la muerte Hasta la muerte Hades Volume 2 Hey, tu connais les condés Veulent boycotter, veulent saccager Tout est cassé, petits batards Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte un gova, m'en bats les couilles du Dmel Les tit-pe tournent en RM, les gravons dans la BM Tout le monde veut tenir les rênes d'l'économie souterraine Maman a toujours été reine, papa a toujours été roi Mon frère a grandi à Fresnes, à Fleury, D5 D4 D3 La gardienne mérite pas d'être reine, elle a tout lance-ba cette lope-sa C'est des gros problèmes que l'on traine, crois-moi de3wa c'est comme ça C'est vrai que dans nos quartiers, fraternité vaut mieux qu'amitié À nos yeux minimum c'est Cartier Chez moi on accueille les keufs au mortier Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Faut investir pour la mama, on mise tout sur la marijuana Et de3wa pour papa, j'veux l'oseille du Cartel de Tijuana Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Les tit-pe tounent en KTM, les grands vont chercher des plavons Un tout petit peu de haine, l'amour est mort au charbon Dans , le mercredi c'est pas bon Ça casse ta porte le matin, toi tu savais que ça sentait pas bon Mais t'as quand-même vendu du pilon, des pilules et puis d'la cess T'as sorti les Lamborghini, les Ferrari puis les Classe S À cette heure-ci t'es dans ta cellule, et t'es là tu côtoies la hess Contre un grossiste et un herraga qui parle moins qu'en sortant du hebss La vie c'est un allez simple donc y'aura pas d'remontada Zemzem vaut mieux que whisky et que Piña colada De3wa demande à Bakar, quand t'es au placard pas b'soin d'placard Poto, ouais fuck les hagar C'Mister Mister Yougataga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Beaucoup d'sel3a, peu d'kherja entre la ligne et l'Malaga Faut investir pour la mama, on mise tout sur la marijuana Et de3wa pour papa, j'veux l'oseille du Cartel de Tijuana Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel Ils veulent nous mettre les menottes, ils ont l'seum qu'on porte des RM Veulent qu'on gamelle toute l'année et qu'la juge refuse nos DML En te-boî sur la ble-ta, j'ai posé plus d'un ML Chaque bouteille coûte une gova, m'en bats les couilles du Demel1</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? J'voulais vous parler de Dounia Dounia mais aujourd'hui, j'suis faya faya Khapta à la playa Yougataga, va bene ma bella bella L'Afrique, c'est mieux que Pattaya, vêtu de l'3arbaya, elle a délaissé Marbella, bikow, va bene ma belle Chaque dounia, les matinales, dans un linceul au village, on va la perdre au final, ouais Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Dans nos têtes, c'est la guerre, c'est pire qu'à Sarajevo, c'est Mister, Hayce, et l'younos ? prosterne, asseyez-vous J'voulais sortir avec Dounia mais les chapros ? n'est pas Azrail, ça vend le shit et la cocaïne Surtout, fume pas, tu seras handicapé handicapé, que Dieu m'en soit témoin témoin Le bonheur est dans le pré bonheur est dans le pré, le malheur est dans le loin woh Ne fait pas causette avec les misérables, tant d'oseille mais j'me sens si vulnérable En retard à mes funérailles, je revends le funérarium You might also like Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Nebki a'3lal dounia koul youm nebki a'3lal dounia Nebki a'3lal dounia koul youm nebki a'3lal dounia Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga</t>
+          <t>Nabz, nigga, what's up ? J'voulais vous parler de Dounia Dounia mais aujourd'hui, j'suis faya faya Khapta à la playa Yougataga, va bene ma bella bella L'Afrique, c'est mieux que Pattaya, vêtu de l'3arbaya, elle a délaissé Marbella, bikow, va bene ma belle Chaque dounia, les matinales, dans un linceul au village, on va la perdre au final, ouais Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Dans nos têtes, c'est la guerre, c'est pire qu'à Sarajevo, c'est Mister, Hayce, et l'younos ? prosterne, asseyez-vous J'voulais sortir avec Dounia mais les chapros ? n'est pas Azrail, ça vend le shit et la cocaïne Surtout, fume pas, tu seras handicapé handicapé, que Dieu m'en soit témoin témoin Le bonheur est dans le pré bonheur est dans le pré, le malheur est dans le loin woh Ne fait pas causette avec les misérables, tant d'oseille mais j'me sens si vulnérable En retard à mes funérailles, je revends le funérarium Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Nebki a'3lal dounia koul youm nebki a'3lal dounia Nebki a'3lal dounia koul youm nebki a'3lal dounia Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Stef Becker beatmaker Be-Be-Be-Be-Be-Be-Be-Belleville Yougataga Mister You ma gueule C'est pour les frères des Mureaux et pour les frérots des Bosquets Nous on préfère vendre d'l'héro' qu'voler des choses à la mosquée J'veux un château pour ma mère, s7ab Marcel Pagnol Quand y a pas d'shit, on cogite, on prend pas d'Valium Ça ramène des fois le biff qui mérite même pas un grec Ouais, ouais, c'est le Y producteur, auteur, interprète J'suis tombé et retombé, bats les couilles des retombées Ouais, ouais, ouais, j'me la raconte comme Cédric Doumbé Fini les flagrants délits, hamdoullah on est bénis J'regarde chaque match commenté par Mohamed Henni Dégaine d'Al Pacino, veste Valentino On a grandi vite, un peu comme le p'tit Dadinho On doit cantiner pour la semaine d'après Et poser le bon en fin de matinée Ils veulent nous tartiner mais ils nous appellent Les beurres Would el hram ces shmettas, j'sais bien qu'on leur fait peur You might also like J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder Le Seigneur créa la plume donc l'avenir est pré-défini J'quitterai jamais l'navire comme Salim ou Maddy Phili Cinq ans pour une barrette, quatre mois pour pédophilie Quelle justice de merde, j'sais bien que c'n'est pas fini Bientôt la Légion d'honneur pour les violeurs de gosses J'vois bien qu'on s'approche de l'heure, ils r'cherchent des femmes précoces Le sheitan fait bien son travail, on r'trouve des bébés dans des frigos L'prix d'un rat c'est 200k, du caviar et d'la Veuve Clicquot Y a des mecs qui ont l'milliard et qui vivent dans la tourmente Y a des orphelinats qui servent de plaque tournante Ils nous cachent des histoires de ouf, demande à Karl Zéro Des orgies d'malade, ils sont remplis d'chnouff et d'héro' Les fédéraux sont au courant, ça s'passe pas qu'en Occident S'tu l'ouvres, ils t'cribleront d'douilles et f'ront passer ça en accident Ferme ta gueule et tes yeux si tu veux qu'tout s'passe bien Aboubakar et Rachid prennent plus que Sébastien Jean-Marc a pris du sursis pour attouchement sur mineur Moi, j'ai pris vingt-quatre mois ferme pour un p'tit délit mineur Ils m'ont embarqué avec mon fils âgé d'à peine six ans Donc à mes yeux, leur justice mérite des coups d'ciseaux J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder</t>
+          <t>Stef Becker beatmaker Be-Be-Be-Be-Be-Be-Be-Belleville Yougataga Mister You ma gueule C'est pour les frères des Mureaux et pour les frérots des Bosquets Nous on préfère vendre d'l'héro' qu'voler des choses à la mosquée J'veux un château pour ma mère, s7ab Marcel Pagnol Quand y a pas d'shit, on cogite, on prend pas d'Valium Ça ramène des fois le biff qui mérite même pas un grec Ouais, ouais, c'est le Y producteur, auteur, interprète J'suis tombé et retombé, bats les couilles des retombées Ouais, ouais, ouais, j'me la raconte comme Cédric Doumbé Fini les flagrants délits, hamdoullah on est bénis J'regarde chaque match commenté par Mohamed Henni Dégaine d'Al Pacino, veste Valentino On a grandi vite, un peu comme le p'tit Dadinho On doit cantiner pour la semaine d'après Et poser le bon en fin de matinée Ils veulent nous tartiner mais ils nous appellent Les beurres Would el hram ces shmettas, j'sais bien qu'on leur fait peur J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder Le Seigneur créa la plume donc l'avenir est pré-défini J'quitterai jamais l'navire comme Salim ou Maddy Phili Cinq ans pour une barrette, quatre mois pour pédophilie Quelle justice de merde, j'sais bien que c'n'est pas fini Bientôt la Légion d'honneur pour les violeurs de gosses J'vois bien qu'on s'approche de l'heure, ils r'cherchent des femmes précoces Le sheitan fait bien son travail, on r'trouve des bébés dans des frigos L'prix d'un rat c'est 200k, du caviar et d'la Veuve Clicquot Y a des mecs qui ont l'milliard et qui vivent dans la tourmente Y a des orphelinats qui servent de plaque tournante Ils nous cachent des histoires de ouf, demande à Karl Zéro Des orgies d'malade, ils sont remplis d'chnouff et d'héro' Les fédéraux sont au courant, ça s'passe pas qu'en Occident S'tu l'ouvres, ils t'cribleront d'douilles et f'ront passer ça en accident Ferme ta gueule et tes yeux si tu veux qu'tout s'passe bien Aboubakar et Rachid prennent plus que Sébastien Jean-Marc a pris du sursis pour attouchement sur mineur Moi, j'ai pris vingt-quatre mois ferme pour un p'tit délit mineur Ils m'ont embarqué avec mon fils âgé d'à peine six ans Donc à mes yeux, leur justice mérite des coups d'ciseaux J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder J'suis un requin, vrai marocain, fuck le dauphin Flipper Ils veulent nous foutre au trou comme la boule d'un flipper C'est l'État qui vend des mouchoirs mais c'est nos mères qui pleurent Bientôt y aura des potes-ca dans les surprises Kinder</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? Ca Graille le lham devant oi-t, ça t'propose des frites, sale imbécile ne coupe pas l'arbre qui te donne des fruits Soit toujours zen, et méfies-toi de ton entourage, quand le lion saigne les chacals reprennent du courage C'est Mister You, DA Uzi, tu sais qu'l'avenir est à nous, j'arrive tout de suite, ma chérie, commande moi l'souris D'Agneau J'ai le train d'vie d'un footeux, mon oseille est douteux, j'en ai rien à foutre, nique sa mère la pute Personne me prend mes patins, marre de grailler des pâtes, trop vieux pour être atteint, trop bon pour une catin J'te laisse sauver l'honneur mais j'vais te baiser 4-1, ma gueule, à la bonne heure, on a tous goûter la plata Personne a mon grata, distribue la khapta, de-spi comme un ruita, fait la guerre à l'État En écoutant Gambetta, j'fume la beuh de Breda, personne ne m'arrêtera, j'ai sorti mon Beretta, click, bbrrrah C'est You, DA U, c'est sûr qu'ça plaisante pas Des presses et des touches, on voit la vie en apnée Si c'est trop cher, jamais tu nous revois, moi, le soir... J'suis en apnée, Que du Balmain J'vais la rappeler, j'vais prendre sa main J'suis en apnée, sous commission Sur le rrain-te, bien sûr qu'ça plaisante pas Chien d'la cité, que des grandes tours, j'avance dans l'ombre sans garantie J'suis comme le petit Kirikou, ils m'aiment pas trop, trop d'sale Peu d'pardon, chez l'oncle Sam, j'suis à L.A, j'suis loin du hall Hier, j'étais à Fleury, j'te fais quarante sur le tron-li Carbo comme Zedia, j'baise une Sse-ssui comme un che-ri comme un che-ri J'règles les embrouilles, c'est moi l'chérif c'est moi J'ai vu leurs yeux, c'est des menteurs des menteurs La gueule ouverte, il faut les laisser avec une vue sur l'ciel Sur ce ?, on fait pas semblant d'aimer On fait pas preuve de l'acheter J'arrive du fond d'la cité avec des mamacitas Pourquoi on vend aussitôt ? Pour pas s'arrêter trop tard C'est des blagues de Carambar, j'suis un chacal, j'peux les choquer moi Dès le matin, YOP ils t'parlent pas quand t'es à ied-p J'suis avec You dans la grotte, incha'Allah j'ai l'yacht De ceux qui balayaient, normal qu'on voit les Baléares J'ai d'linspi en cimé, ramène juste une SIM You might also like C'est You, DA U, c'est sûr qu'ça plaisante pas Des presses et des touches, on voit la vie en apnée Si c'est trop cher, jamais tu nous revois, moi, le soir... J'suis en apnée, Que du Balmain J'vais la rappeler, j'vais prendre sa main J'suis en apnée, sous commission Sur le rrain-te, bien sûr qu'ça plaisante pas</t>
+          <t>Nabz, nigga, what's up ? Ca Graille le lham devant oi-t, ça t'propose des frites, sale imbécile ne coupe pas l'arbre qui te donne des fruits Soit toujours zen, et méfies-toi de ton entourage, quand le lion saigne les chacals reprennent du courage C'est Mister You, DA Uzi, tu sais qu'l'avenir est à nous, j'arrive tout de suite, ma chérie, commande moi l'souris D'Agneau J'ai le train d'vie d'un footeux, mon oseille est douteux, j'en ai rien à foutre, nique sa mère la pute Personne me prend mes patins, marre de grailler des pâtes, trop vieux pour être atteint, trop bon pour une catin J'te laisse sauver l'honneur mais j'vais te baiser 4-1, ma gueule, à la bonne heure, on a tous goûter la plata Personne a mon grata, distribue la khapta, de-spi comme un ruita, fait la guerre à l'État En écoutant Gambetta, j'fume la beuh de Breda, personne ne m'arrêtera, j'ai sorti mon Beretta, click, bbrrrah C'est You, DA U, c'est sûr qu'ça plaisante pas Des presses et des touches, on voit la vie en apnée Si c'est trop cher, jamais tu nous revois, moi, le soir... J'suis en apnée, Que du Balmain J'vais la rappeler, j'vais prendre sa main J'suis en apnée, sous commission Sur le rrain-te, bien sûr qu'ça plaisante pas Chien d'la cité, que des grandes tours, j'avance dans l'ombre sans garantie J'suis comme le petit Kirikou, ils m'aiment pas trop, trop d'sale Peu d'pardon, chez l'oncle Sam, j'suis à L.A, j'suis loin du hall Hier, j'étais à Fleury, j'te fais quarante sur le tron-li Carbo comme Zedia, j'baise une Sse-ssui comme un che-ri comme un che-ri J'règles les embrouilles, c'est moi l'chérif c'est moi J'ai vu leurs yeux, c'est des menteurs des menteurs La gueule ouverte, il faut les laisser avec une vue sur l'ciel Sur ce ?, on fait pas semblant d'aimer On fait pas preuve de l'acheter J'arrive du fond d'la cité avec des mamacitas Pourquoi on vend aussitôt ? Pour pas s'arrêter trop tard C'est des blagues de Carambar, j'suis un chacal, j'peux les choquer moi Dès le matin, YOP ils t'parlent pas quand t'es à ied-p J'suis avec You dans la grotte, incha'Allah j'ai l'yacht De ceux qui balayaient, normal qu'on voit les Baléares J'ai d'linspi en cimé, ramène juste une SIM C'est You, DA U, c'est sûr qu'ça plaisante pas Des presses et des touches, on voit la vie en apnée Si c'est trop cher, jamais tu nous revois, moi, le soir... J'suis en apnée, Que du Balmain J'vais la rappeler, j'vais prendre sa main J'suis en apnée, sous commission Sur le rrain-te, bien sûr qu'ça plaisante pas</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Mister you gatagaYou might also like</t>
+          <t>Mister you gataga</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fatalité HLM compter, peser, emballer drari Fatalité Hasta la muerte Big-up le F-Doumam c'est boussiah, brolek j'sors le pouchka Chez nous quand ça se tire dessus c'est pas des balles en mousse Un jour j'ai planté de l'oseille, est-ce que d'la haine qui pousse Plha et c'est tout le tier-quar qui tousse Chez moi ça fait des sous, ouais big-up Lins, Viara, Moussa J'suis armé d'un kabouz donc s'il te plaît remballe ton moussa Eh si t'as une Philippe Morris, j'suis toujours l'amour du risque Suffit d'une fleur fanée, pour que ton jardin il pourrisse On veut faire passer de la frappe en provenance du Brésil Le cul posé sur le canapé big-up à ton tonton des îles L'histoire se termine par un au revoir au parloir le temps d'un battement de cil La fin du monde parait si proche dis-leur Rim'K y a tellement de signes J'ai le haut du crâne lisse, comme les pneus d'un Gilera Sommes-nous des hommes de bien, seul le temps nous le dira Café, clope sur une terrasse de la French Riviera J'peux mourir à ciel ouvert en me mangeant une rafale Faux cul dès le départ j'suis en ville en super motard Tu vois des flots de haine et d'amertume dans nos regards Se geler les couilles dans une cellule au mitar Petit-frère pour se refaire il n'est jamais trop tard On part en guerre on veut du sept en première ligne Première presse, on détaille notre premier litre J'ai enfilé mon équipement d'la première league On est entre vermines, dans un berline Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris You might also like Pee-wee, ST, chappy, ZB j'en rêvais depuis le CP Sixième shit, clope et OCB, j'rédigeais pas de CV En quatrième j'traînais devant les clubs, j'arrachais des CB Mi ange, Mi démon à 19 ans, le nom d'mon premier CD Les concurrents ont voulu tester À cette heure-ci ils sont décédés Le plus fort d'entre eux j'lai fleugi J'savais même pas qui c'était J'annonce des carrières d'ITT Je veux Bentley, Porsche, Audi TT Yougataga, Rim'k arrivent trop chaud, sors en été On va finir sur un yacht parce qu'on l'a mérité Toi tu vas finir comme la France, bâtard surendetté J'ai toujours d'la frappe à bicrave, c'est pour ça que les frérots me kiffent J'suis un vieux d'la vieille enfoiré, j'écris des 16 en hiéroglyphes Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris</t>
+          <t>Fatalité HLM compter, peser, emballer drari Fatalité Hasta la muerte Big-up le F-Doumam c'est boussiah, brolek j'sors le pouchka Chez nous quand ça se tire dessus c'est pas des balles en mousse Un jour j'ai planté de l'oseille, est-ce que d'la haine qui pousse Plha et c'est tout le tier-quar qui tousse Chez moi ça fait des sous, ouais big-up Lins, Viara, Moussa J'suis armé d'un kabouz donc s'il te plaît remballe ton moussa Eh si t'as une Philippe Morris, j'suis toujours l'amour du risque Suffit d'une fleur fanée, pour que ton jardin il pourrisse On veut faire passer de la frappe en provenance du Brésil Le cul posé sur le canapé big-up à ton tonton des îles L'histoire se termine par un au revoir au parloir le temps d'un battement de cil La fin du monde parait si proche dis-leur Rim'K y a tellement de signes J'ai le haut du crâne lisse, comme les pneus d'un Gilera Sommes-nous des hommes de bien, seul le temps nous le dira Café, clope sur une terrasse de la French Riviera J'peux mourir à ciel ouvert en me mangeant une rafale Faux cul dès le départ j'suis en ville en super motard Tu vois des flots de haine et d'amertume dans nos regards Se geler les couilles dans une cellule au mitar Petit-frère pour se refaire il n'est jamais trop tard On part en guerre on veut du sept en première ligne Première presse, on détaille notre premier litre J'ai enfilé mon équipement d'la première league On est entre vermines, dans un berline Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris Pee-wee, ST, chappy, ZB j'en rêvais depuis le CP Sixième shit, clope et OCB, j'rédigeais pas de CV En quatrième j'traînais devant les clubs, j'arrachais des CB Mi ange, Mi démon à 19 ans, le nom d'mon premier CD Les concurrents ont voulu tester À cette heure-ci ils sont décédés Le plus fort d'entre eux j'lai fleugi J'savais même pas qui c'était J'annonce des carrières d'ITT Je veux Bentley, Porsche, Audi TT Yougataga, Rim'k arrivent trop chaud, sors en été On va finir sur un yacht parce qu'on l'a mérité Toi tu vas finir comme la France, bâtard surendetté J'ai toujours d'la frappe à bicrave, c'est pour ça que les frérots me kiffent J'suis un vieux d'la vieille enfoiré, j'écris des 16 en hiéroglyphes Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris Je cherche un billet à faire sur Paris sur Paris Compter, peser, emballer, drari Je cherche un billet à faire sur Paris sur Paris Sur Paris</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>- Wesh You, bien ou quoi ? - Bien et toi, ma gueule ? - Tranquille ? - Hamdoullah - Eh, devine qui j'viens d'voir là ? - Qui ça ? - Chaussette, tu t'rappelles de Chaussette ? - Quoi ? Faut même plus l'cala lui, t'es un ouf toi - Ah ouais ? - WAllah, mais lui faut même plus l'cala, gros, j't'explique - Ouais ? - Alors lawiss... Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Faut qu'j'arrête de la cala, à deux doigts de la Kalash Entre l'amour et la haine, y a des petits décalages C'est vrai qu'elle me rend malade quand j'me lève le matin Quand on aime on compte pas, mais elle est forte en maths, hein Elle sait comment m'atteindre, elle sait comment m'rendre fou J'ai mon 9 millimètres, pas besoin d'faire du kung-fu Et ça veut faire la guerre, j'veux pas rater ces J'tire une fois en l'air pour réveiller tout l'zoo Chacun sa route, chacun son bolide, chacun sa croûte, chacun sa chronique Madame la street, j't'aime à la folie, Madame la street, j't'aime à la folie J'n'écoutais pas c'que mes parents m'disaient, j'regardais pas l'journal télévisé J'vendais d'la drogue sur les bancs du lycée, j'ai fini menotté dans la banalisée You might also like Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Viens plus m'cala viens plus m'cala, j'suis dans des eaux où tu n'peux pas nager J'ai des balafres j'ai des balafres, même amnésia ne peut pas soulager T'étais pas là t'étais pas là, quand c'était la crise, qu'y avait rien à manger Viens pas m'cala viens pas m'cala, viens plus m'cala viens plus m'cala Chacun sa route, chacun son bolide, chacun sa croûte, chacun son brolique brah Tu nous aimes pas mais tu regardes nos stories, tu nous aimes pas mais tu regardes nos stories J'vais même plus t'cala si j'ai trop tisé ouais, même si j'voulais sympathiser Ça claque des 20 balles aux Champs-Élysées ouh, tout l'carré VIP est traumatisé Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala</t>
+          <t>- Wesh You, bien ou quoi ? - Bien et toi, ma gueule ? - Tranquille ? - Hamdoullah - Eh, devine qui j'viens d'voir là ? - Qui ça ? - Chaussette, tu t'rappelles de Chaussette ? - Quoi ? Faut même plus l'cala lui, t'es un ouf toi - Ah ouais ? - WAllah, mais lui faut même plus l'cala, gros, j't'explique - Ouais ? - Alors lawiss... Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Faut qu'j'arrête de la cala, à deux doigts de la Kalash Entre l'amour et la haine, y a des petits décalages C'est vrai qu'elle me rend malade quand j'me lève le matin Quand on aime on compte pas, mais elle est forte en maths, hein Elle sait comment m'atteindre, elle sait comment m'rendre fou J'ai mon 9 millimètres, pas besoin d'faire du kung-fu Et ça veut faire la guerre, j'veux pas rater ces J'tire une fois en l'air pour réveiller tout l'zoo Chacun sa route, chacun son bolide, chacun sa croûte, chacun sa chronique Madame la street, j't'aime à la folie, Madame la street, j't'aime à la folie J'n'écoutais pas c'que mes parents m'disaient, j'regardais pas l'journal télévisé J'vendais d'la drogue sur les bancs du lycée, j'ai fini menotté dans la banalisée Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Viens plus m'cala viens plus m'cala, j'suis dans des eaux où tu n'peux pas nager J'ai des balafres j'ai des balafres, même amnésia ne peut pas soulager T'étais pas là t'étais pas là, quand c'était la crise, qu'y avait rien à manger Viens pas m'cala viens pas m'cala, viens plus m'cala viens plus m'cala Chacun sa route, chacun son bolide, chacun sa croûte, chacun son brolique brah Tu nous aimes pas mais tu regardes nos stories, tu nous aimes pas mais tu regardes nos stories J'vais même plus t'cala si j'ai trop tisé ouais, même si j'voulais sympathiser Ça claque des 20 balles aux Champs-Élysées ouh, tout l'carré VIP est traumatisé Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Nan, faut pas les cala nan, faut pas les cala Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala Faut pas les cala faut pas les cala, tous ces poissons qui viennent te déranger Nan, faut pas les cala faut pas les cala, tous ces petits poissons qui voudraient te manger Nan, faut pas les cala, toutes ces girouettes qui aiment trop se mélanger Nan, faut pas les cala faut pas les cala, nan, faut pas les cala nan, faut pas les cala</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Yeah yeah, hein hein Intouchable Click, 9-4 Seth Gueko, 9-5 Mister Yougataga, 7-5 Ter-ma les démons d'minuit Gros tre-ven, barbe en collier Robert Hux Gros kalash sous l'trois-quarts, oh Morpheus Allez natchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'ux Tes prospectus remplissent ma corbeille de chiottes J'ai les orteils de Shrek et les oreilles de Spock, han C'est pour mieux t'entendre jouir, mon enfant Viens dans ma caravane tu verras mon tigre dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versace, le tampon c'est la méduse Cachées dans les panneaux d'portes du V12 Marlich si t'es pas notre pote, y'aura qu'Dieu pour m'gé-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'vase Effacez de nos paysages les tours d'Alcatraz C'est l'Professeur Punchline pour un cours d'rattrapage Han You might also like Clic blah Quand arrivent les pirates le roi devient primate Même si l'avion est sans pilote nos vies tiennent du miracle De la rage on n'a pas l'antidote et soigne à la kalach' Aaah Faut pas rigoler avec moi Clic blah Intouchables Clique on plaisante pas Blah C'est S.E.T.H. Yougataga, ça fait mal Fais pas l'fou, c'est l'bitume en personne, j't'ai dit Aaah Faut pas rigoler avec moi J'me suis évadé d'un asile, j'suis un danger pour la société Comme le chinois de Bois-l'Abbé, moi j'défie l'autorité Ici Démon j'reviens de l'enfer c'est pour les XXX qui nous côtoient Intouchables, Yougataga, Seth Gueko on plaisante pas Bouteille de Jack, ma pochette d'herbe Seul dans mon coin et j'suis refait Viens pas m'parler j'suis démoniaque, dans mes paroles et dans mes faits J'crache sur vos lois, nique ta mère ton droit, ton Journal Officiel J'mets mon grain d'sel partout où j'passe, gros les RG se renseignent Pour ton enseigne j'me nourris de rage comme les hommes y'a 4.000 ans Ma devise palpée sur l'sang, c'est la guerre du feu pour moi tout l'temps En attendant, j'veux faire d'l'oseille Toucher le salaire de Pastore Dans cette vie j'ai trop morflé Ouais même mon cur est enflé Un conseil faut pas réveiller les démons qui sont en moi J'donnerai ton corps à des piranhas qui ont pas mangé depuis deux mois Et j'abrite un laboratoire J'ai grandi dans les cités-dortoirs Les bidonvilles, les dépotoirs Sous commission rogatoire J'suis avec Demon One et Seth J't'avouerai un truc pour être honnête J'sais bien qu'l'argent il fait pas l'bonheur, mais moi j'm'en bats les coucougnettes J'ai déjà vendu des drogues bizarres, j'ai envoyé plein d'gueuches sur d'autres planètes J'me lève pour l'sexe ou pour la maille, en tout cas pas pour Danette Ma machine elle remonte pas l'temps mais elle sait compter les billets Elle fait un drôle de bruit, elle fait fffffffffffff ding, ça y est Yeah, frère, bsah' Que dois-je faire ? Détruire ou construire M'laver ou m'salir Manger ou vomir Lâcher ou tenir M'lever ou dormir Ah Woogataga, clic brah J'habite au coin d'l'avenue des XXX et d'la rue des hachich J'roule un sbah les yeux gonflés, un clin d'oeil à Bart J'recherche une meuf qu'a un bel appart' Une Smart ou une Fiat à part Il m'faut du shit, du sky, d'la maille ainsi qu'un 'dwich pour éponger D'la bonne beuh et un bon baveux, histoire d'pas replonger J'ai trop la dalle, mec moi j'pourrais manger l'mic' et l'ingé Eux et nous c'est d'l'huile et d'l'eau pour ça qu'on peut pas s'mélanger Aaah 1</t>
+          <t>Yeah yeah, hein hein Intouchable Click, 9-4 Seth Gueko, 9-5 Mister Yougataga, 7-5 Ter-ma les démons d'minuit Gros tre-ven, barbe en collier Robert Hux Gros kalash sous l'trois-quarts, oh Morpheus Allez natchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'ux Tes prospectus remplissent ma corbeille de chiottes J'ai les orteils de Shrek et les oreilles de Spock, han C'est pour mieux t'entendre jouir, mon enfant Viens dans ma caravane tu verras mon tigre dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versace, le tampon c'est la méduse Cachées dans les panneaux d'portes du V12 Marlich si t'es pas notre pote, y'aura qu'Dieu pour m'gé-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'vase Effacez de nos paysages les tours d'Alcatraz C'est l'Professeur Punchline pour un cours d'rattrapage Han Clic blah Quand arrivent les pirates le roi devient primate Même si l'avion est sans pilote nos vies tiennent du miracle De la rage on n'a pas l'antidote et soigne à la kalach' Aaah Faut pas rigoler avec moi Clic blah Intouchables Clique on plaisante pas Blah C'est S.E.T.H. Yougataga, ça fait mal Fais pas l'fou, c'est l'bitume en personne, j't'ai dit Aaah Faut pas rigoler avec moi J'me suis évadé d'un asile, j'suis un danger pour la société Comme le chinois de Bois-l'Abbé, moi j'défie l'autorité Ici Démon j'reviens de l'enfer c'est pour les XXX qui nous côtoient Intouchables, Yougataga, Seth Gueko on plaisante pas Bouteille de Jack, ma pochette d'herbe Seul dans mon coin et j'suis refait Viens pas m'parler j'suis démoniaque, dans mes paroles et dans mes faits J'crache sur vos lois, nique ta mère ton droit, ton Journal Officiel J'mets mon grain d'sel partout où j'passe, gros les RG se renseignent Pour ton enseigne j'me nourris de rage comme les hommes y'a 4.000 ans Ma devise palpée sur l'sang, c'est la guerre du feu pour moi tout l'temps En attendant, j'veux faire d'l'oseille Toucher le salaire de Pastore Dans cette vie j'ai trop morflé Ouais même mon cur est enflé Un conseil faut pas réveiller les démons qui sont en moi J'donnerai ton corps à des piranhas qui ont pas mangé depuis deux mois Et j'abrite un laboratoire J'ai grandi dans les cités-dortoirs Les bidonvilles, les dépotoirs Sous commission rogatoire J'suis avec Demon One et Seth J't'avouerai un truc pour être honnête J'sais bien qu'l'argent il fait pas l'bonheur, mais moi j'm'en bats les coucougnettes J'ai déjà vendu des drogues bizarres, j'ai envoyé plein d'gueuches sur d'autres planètes J'me lève pour l'sexe ou pour la maille, en tout cas pas pour Danette Ma machine elle remonte pas l'temps mais elle sait compter les billets Elle fait un drôle de bruit, elle fait fffffffffffff ding, ça y est Yeah, frère, bsah' Que dois-je faire ? Détruire ou construire M'laver ou m'salir Manger ou vomir Lâcher ou tenir M'lever ou dormir Ah Woogataga, clic brah J'habite au coin d'l'avenue des XXX et d'la rue des hachich J'roule un sbah les yeux gonflés, un clin d'oeil à Bart J'recherche une meuf qu'a un bel appart' Une Smart ou une Fiat à part Il m'faut du shit, du sky, d'la maille ainsi qu'un 'dwich pour éponger D'la bonne beuh et un bon baveux, histoire d'pas replonger J'ai trop la dalle, mec moi j'pourrais manger l'mic' et l'ingé Eux et nous c'est d'l'huile et d'l'eau pour ça qu'on peut pas s'mélanger Aaah 1</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un batard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans lur cul puis Ils n'ont fait que m'pister car pour me sautr fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veux m'test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser On regrette Tony et petit Zé D'une balle on peux t'viser après avoir sympathisé Petit c'est, tranchant sisi comme un coup d'couteau C'est bouillant comme un toto poto C'est claire comme une goute d'eau Qu'les p'tits oiseaux dans l'ghetto Ils bé-ton avant d'savoir voler Parce qu'ils s'achètent un pistolet Pour plus vite se rafistoler PD si tu sais sucer ben personne pourras t'pistonner You might also likeJadis c'était sur 6 maintenant sur 24 Piste on est sous haute tension Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous Nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sais pas danser le zouk par contre on sais frotter les cales vu On sait chiner une pute sans lui payer ce qu'elle veux On fait un vu que d'vant un oinj à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portes feuilles On va au charbon quand y'a foye Dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone Au 36 ils raffolent voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacance et nage avec Le me-seu c'est ma navette La ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie dieu J'remercie m'man car j'suis né en ce-fran Mais je ne suis pas un autochtone Putain d'poissard aux arrivants un moi d'octobre J'mérite le brassard Tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à Persa J'roule un perso Je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaux mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse Marvin avec Younes Le coup droit d'la coupe Barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe Le singe descend de l'arbre C'est pour ça qu'j'kiff l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du coca chaud Hey mutchatcho Shriki once quarenta y tres Big up sherif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace au Nos mère pleurent, les lits sont vide dans nos chambres On compte sur l'seigneur, nos deux bras, nos trois jambes La rue la zon-pri ses razoir à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavon aimeraient savoir ce que nous savons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au quai d'l'a rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Sisi on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maque moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rais Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou A quiconque voudrai parier ben ça d'vrait lui couter ses sous Pour Lasana Diara ben on pourrait ligoter Zizou J'mérite pas d'bisou J'm'en fous j'sors du zoo J'éclate les ondes J'éclaire les ombres j'rap quatre saisons J'vend du crack des tazoo J'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la passons Dehors ca vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de se qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouche depuis qu'tout les chemins mènent à zoo J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier Moral en béton quand on béton y a pas d'brancardier Ca sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le maque Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure jcause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre et qui fait l'écoute Du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veux m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Be-bebebe-bebebe-bebebe-Belleville !</t>
+          <t>Be be be be Belleville Ougataga ! C'est Mister You ! Ha'tention ! La rue puis la prison gros, écoute ça Dire à un batard d'm'écrire autant dire à Fat Joe d'maigrir Demain ils vont pleurer donc aujourd'hui j'laisse les mecs rire Nos vaches si on n'peut les prendre on va les traire c'est mieux qu'rien Ma bite ouais ils ont pris nos terres donc faut qu'ils crèvent ces mécréants Ils m'ont grillé en train d'mettre ma bite dans lur cul puis Ils n'ont fait que m'pister car pour me sautr fallait du r'cul 75 mon matricule ça défouraille au crépuscule Celui qui veux m'test il coule vu qu'nous on s'en bas les testicules Astiquez ma cellule j'ai tout dans l'cul plastifié On ne peut pas l'identifier mais c'est du seum certifié Petit frère leurs paroles, c'est d'la merde faut pas t'y fier T'as beau être fort à l'école eux ils t'conseilleront pâtissier Tout dans l'excès on sait pas tiser On regrette Tony et petit Zé D'une balle on peux t'viser après avoir sympathisé Petit c'est, tranchant sisi comme un coup d'couteau C'est bouillant comme un toto poto C'est claire comme une goute d'eau Qu'les p'tits oiseaux dans l'ghetto Ils bé-ton avant d'savoir voler Parce qu'ils s'achètent un pistolet Pour plus vite se rafistoler PD si tu sais sucer ben personne pourras t'pistonner Jadis c'était sur 6 maintenant sur 24 Piste on est sous haute tension Ah'ttention mesdames et messieurs Dans un instant, ça devrait vous crever les yeux Nos avocats souillent nos sous Nous avons cassé le zoo On sait pas c'qui s'passe mais bon en tout cas c'est le souk On sais pas danser le zouk par contre on sais frotter les cales vu On sait chiner une pute sans lui payer ce qu'elle veux On fait un vu que d'vant un oinj à quatre feuilles On aide les p'tites vieilles que pour chlaker leurs portes feuilles On va au charbon quand y'a foye Dans l'système on ne voit qu'la faille Yougataga pour du shit on pète la vitre de l'hygiaphone Fuck la stup au microphone Au 36 ils raffolent voir les siste-gro s'faire soulever, pister via leurs phone Moi j'suis pas l'genre à baver en g.a.v J'criais d'jà Belleville j'savais même pas quel âge j'avais Chez moi on ne confond pas le cool-al et la javel Rentre ma bite dans ton cul va en vacance et nage avec Le me-seu c'est ma navette La ille-feu c'est ma manette J'cogite, il m'faut du shit pour qu'mon esprit s'évade avec Belleville, ça m'manque le pacifique et ses mangues J'suis bloqué par l'ciment j'prie dieu J'remercie m'man car j'suis né en ce-fran Mais je ne suis pas un autochtone Putain d'poissard aux arrivants un moi d'octobre J'mérite le brassard Tel Ronaldinho au Barça Golden Crew aux platines une grosse dédicace à Persa J'roule un perso Je hula hoop avec un vicieux cerceau Étant p'tit j'rêvais d'limer les barreaux de mon berceau A Belleville zoo c'est l'ptit risou qui tue le rat Comme on dit un tiens vaux mieux que deux tu l'auras Promesse tenue rime toujours avec prouesse Vengeance avec finesse Marvin avec Younes Le coup droit d'la coupe Barrage en couille dès ma jeunesse C'que j'ai fait et c'que j'vais faire était écrit avant qu'je naisse L'homme descend du singe Le singe descend de l'arbre C'est pour ça qu'j'kiff l'herbe chaque jour j'fume 200 dollars L'été ma liberté fut acheminée vers le cachot Où j'fumais plus qu'une cheminée tout en tisant du coca chaud Hey mutchatcho Shriki once quarenta y tres Big up sherif Triki Frederico Fernandez Pour mon frère Yacine j'pourrais comparaitre pour assassinat Un braquage lyrical j'dédicace au Nos mère pleurent, les lits sont vide dans nos chambres On compte sur l'seigneur, nos deux bras, nos trois jambes La rue la zon-pri ses razoir à double tranchant J'pourrais t'saigner comme Diz l'araignée et Tandian Y a tant d'gens qu'aimeraient savoir ce que nous savons On n'dit jamais jamais à part quand faut ramasser l'savon Les gavon aimeraient savoir ce que nous savons On va d'l'avant l'arme pour l'suicide on t'la vend c'est navrant Ougataga mais nique sa mère c'est comme ça La vie c'est une pute faut la maquer cette lope-sa J'suis cette debza sous faya qu'a dérapé Et quiconque voudra m'tester sera VIP au quai d'l'a rapée J'suis avec mes khels mes 3arbis j'suis lancé on ne m'arrête plus J'ai mon sky ma redbi j'dédicace à Omar Hedbi J'cogite, j'gamelle mon co-détenu c'est Djamel L'un s'embrouille l'autre s'amène dites bien au juge qu'il nique sa mère Avant hier j'étais au D5 bientôt j'me barre en Thaï L'ancien garde tes conseils sérieux t'es pas rentable Autrefois c'était pour les alloc' familiales Maintenant ça t'met en cloque pour une condi' parentale Sisi on braque ni les banques ni les pharmacies Par contre on crosse les grossistes on les fait fort mincir La vie c'est une pute faut qu'tu la maque moi aussi Mon niveau d'étude, j'crois qu'j'ai un bac -6 Fuck les ton-ma qui jouent les cro-ma et s'prennent pour Percie J'roule un gare-ci si l'préau s'rais Bercy j'aurais d'jà percé Quand on m'a ouvert la porte c'était un surveillant comment lui dire merci Aux arrivants, déboussolant totale inertie Tout à prouver roofer j'débarque en R6 ou en ZX Et vers neuf heures j'pète le Mercier Face au passé ça sent la merde à présent La rue puis la prison Belleville zoo ça tombe à treize ans Dès qu'ça sent la patate hata nous maîtrisons Gamberge de triso pour un 10E ça peux t'ghissou A quiconque voudrai parier ben ça d'vrait lui couter ses sous Pour Lasana Diara ben on pourrait ligoter Zizou J'mérite pas d'bisou J'm'en fous j'sors du zoo J'éclate les ondes J'éclaire les ombres j'rap quatre saisons J'vend du crack des tazoo J'suis d'la bande à Bazoo On a rencard avec les shlag donc la pure nous la passons Dehors ca vend la maxou au parloir ça cale des maxons Les matonnes mouillent à la vue de se qu'on a dans le caleçon Dehors ça vend la maxou au parloir ça cale des maxons Les mecs sont farouche depuis qu'tout les chemins mènent à zoo J'grille les rouges passe au feu vert m'a dit Philippe J'lui ai dit j'arrive avec Mahmoud, Karter et Madi Filis Avec ma bande d'enfoirés j'fous la merde dans vos soirées J'vais ramener tout l'quartier Kirchon Dadjé et Salim Souaré N'est-il pas vrai frelon que l'on s'regarde au grand quartier Moral en béton quand on béton y a pas d'brancardier Ca sert à rien de vouloir jouer les G.I.Joe imbécile Droite gauche dans tes cils comme dit Wadjon Ramenez toutes vos putes elles vous diront c'est qui le maque Nadjib, Bilel c'est la famille c'est Kill O Mic Rap trop violent à chaque mesure jcause l'hématome J'en ai vu des surveillants jouer les cro-ma d'vant les matonnes Stop, regarde la gueule de l'ingé' qui m'enregistre et qui fait l'écoute Du flow sorti tout droit de Fleury Mérogis J'vend d'la came donc j'porte trois fois l'numéro six gros Quand j'monte à Dam c'est pour crosser la mère au sisste-gro Le micro j'le rend paro il attrape le chikungunya C'lui qui veux m'test ben j'lui pète ses chicots d'une bounia Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Pou-pou-pour Zied et Bouna à qui ils ont remis la chaise électrique Rechargeons nos puchka et allons tous chasser les flics Be-bebebe-bebebe-bebebe-Belleville !</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Gros big up à ELC Les pyramide dahwa Belleville Mister you Mystik C'est pas de la musique de reve C'est d'la musique de combat Cette vie elle est bizarre trop de chose qui me derange Les vrai gars sont en galere ou en cavale Et les kehba mange Stop changement de programme Y'en a marre T's en manque d'air t'es n manque d'herbe T'es en manque de liberté, t'encule les shtar comme moi T'es en pleine période de puberté Jambe écarté aux arrivants Dispatching c'est pas kiffant Au 36 tu joue le bolosse mais ils savent très bien c'est toi qui vend On ta dit tu feras pas d'biff si t'arrête pas l'école Ta 15 pige donc t'y crois et tu prend l'taureau par les cornes Tes cornflakes tu les a boycotte pour du mezel Tu sais qu'armé d'une rafleuse tu peux faire courir 10 monsieur La j'réchauffe l'atmosphère à 75celsius J'sais qu'les blondes s'mettent en levrette Aussi vite que les grosses sucent Mon processus bah c'est une disquette tah les ksos Wesh toi aussi c'est casper qui t'a appris t'avais pas de sos C'est la merde pour une repeteYou might also like</t>
+          <t>Gros big up à ELC Les pyramide dahwa Belleville Mister you Mystik C'est pas de la musique de reve C'est d'la musique de combat Cette vie elle est bizarre trop de chose qui me derange Les vrai gars sont en galere ou en cavale Et les kehba mange Stop changement de programme Y'en a marre T's en manque d'air t'es n manque d'herbe T'es en manque de liberté, t'encule les shtar comme moi T'es en pleine période de puberté Jambe écarté aux arrivants Dispatching c'est pas kiffant Au 36 tu joue le bolosse mais ils savent très bien c'est toi qui vend On ta dit tu feras pas d'biff si t'arrête pas l'école Ta 15 pige donc t'y crois et tu prend l'taureau par les cornes Tes cornflakes tu les a boycotte pour du mezel Tu sais qu'armé d'une rafleuse tu peux faire courir 10 monsieur La j'réchauffe l'atmosphère à 75celsius J'sais qu'les blondes s'mettent en levrette Aussi vite que les grosses sucent Mon processus bah c'est une disquette tah les ksos Wesh toi aussi c'est casper qui t'a appris t'avais pas de sos C'est la merde pour une repete</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>No Time, No Time, No Time, No Time, No Time, No Time Dans quelques temps j'vais quitter la baraque D'un côté je dis bon débarras Gims, y'a grave l'inspi dans les parages La 9ème Zone bah c'est Paname, Sexion d'Assaut v'là les tarés Solo c'est pas le même tarif, sous l'eau douce comme une otarie George Bush il envoie ses missiles comme Dieu nous envoie ce Messie Sexion d'Assaut Mais dis-moi qui sont ces messieurs moi j'me présente c'est Gims Le truc, c'est qui m'aime me suive y'a même ma gueule sur MSN Moi, l'inspecteur, y me met l'seum mais tout c'que j'veux c'est aller-ller ssé-p ! Ok, on est massif, laisse pas la porte ouverte Sexion d'Assaut, puis No Time Records, là faut sortir couvert Eh, j'crois qu'j'ai la haine, la dalle d'un Kosovard Un gros ceau-mor, pour éclater l'game, piquer tous vos dollars Y'a des boloss, des fois d'la coke, si il faut, on gratte le mur T'as pas l'niveau, ter-ma sur le son comment j'te brise l'anus Nouvelle géné', ça c'est pour Yaya, Farid et tous mes potes Pour Paris Centre, Belleville, Place des tes-f' et pour Wisla la Prod Wisla You might also like Wisla la-Wisla la-Wisla la-Wisla la-Wisla la Prod, Wisla la Prod On déboule on kick ça sec Faut surtout pas que tu rates le début donc vite va ser-p' On dame tous dans le même plat vire les petites assiettes Pour nous rattraper faut bosser donc évite la sieste Te déchire pas, le son, nous on s'en fout tu sais On court pas derrière les radios ni ces foutus scènes No Time Akhi c'est lourd, c'est normal, c'est nous Toi, balance-moi juste le contrat et puis dis-moi j'signe où Avant qu'on t'compare à ma bite tu m'arrives aux doigts d'ieds-p Tu fais trop tié-p', aller j't'invite mais c'est quand même à toi d'yer-p' hein Il nous faut du tiep, du couscous et un peu d'mafé On les baise tous, 19ème c'est marqué sur les grains d'cafés Comme John Coffey, on va leur faire sniffer la Ligne verte J'suis avec Trisma, Bouba, Ok Wisla, roule un joint d'herbe C'est la merde, Yougataga, et mon gars, faut qu'on assume La promenade c'est pas aux Anglais, c'trouve pas sur la Côte d'Azur No Time, No Time, No Time, No Time, No Time, No Time</t>
+          <t>No Time, No Time, No Time, No Time, No Time, No Time Dans quelques temps j'vais quitter la baraque D'un côté je dis bon débarras Gims, y'a grave l'inspi dans les parages La 9ème Zone bah c'est Paname, Sexion d'Assaut v'là les tarés Solo c'est pas le même tarif, sous l'eau douce comme une otarie George Bush il envoie ses missiles comme Dieu nous envoie ce Messie Sexion d'Assaut Mais dis-moi qui sont ces messieurs moi j'me présente c'est Gims Le truc, c'est qui m'aime me suive y'a même ma gueule sur MSN Moi, l'inspecteur, y me met l'seum mais tout c'que j'veux c'est aller-ller ssé-p ! Ok, on est massif, laisse pas la porte ouverte Sexion d'Assaut, puis No Time Records, là faut sortir couvert Eh, j'crois qu'j'ai la haine, la dalle d'un Kosovard Un gros ceau-mor, pour éclater l'game, piquer tous vos dollars Y'a des boloss, des fois d'la coke, si il faut, on gratte le mur T'as pas l'niveau, ter-ma sur le son comment j'te brise l'anus Nouvelle géné', ça c'est pour Yaya, Farid et tous mes potes Pour Paris Centre, Belleville, Place des tes-f' et pour Wisla la Prod Wisla Wisla la-Wisla la-Wisla la-Wisla la-Wisla la Prod, Wisla la Prod On déboule on kick ça sec Faut surtout pas que tu rates le début donc vite va ser-p' On dame tous dans le même plat vire les petites assiettes Pour nous rattraper faut bosser donc évite la sieste Te déchire pas, le son, nous on s'en fout tu sais On court pas derrière les radios ni ces foutus scènes No Time Akhi c'est lourd, c'est normal, c'est nous Toi, balance-moi juste le contrat et puis dis-moi j'signe où Avant qu'on t'compare à ma bite tu m'arrives aux doigts d'ieds-p Tu fais trop tié-p', aller j't'invite mais c'est quand même à toi d'yer-p' hein Il nous faut du tiep, du couscous et un peu d'mafé On les baise tous, 19ème c'est marqué sur les grains d'cafés Comme John Coffey, on va leur faire sniffer la Ligne verte J'suis avec Trisma, Bouba, Ok Wisla, roule un joint d'herbe C'est la merde, Yougataga, et mon gars, faut qu'on assume La promenade c'est pas aux Anglais, c'trouve pas sur la Côte d'Azur No Time, No Time, No Time, No Time, No Time, No Time</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RefrainYou might also like</t>
+          <t>Refrain</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Mes chères compatriotes, j'tenais à vous remercier D'avoir acheté, écouté ou faite tourner mon album Woogataga Le Prince GraciasYou might also like</t>
+          <t>Mes chères compatriotes, j'tenais à vous remercier D'avoir acheté, écouté ou faite tourner mon album Woogataga Le Prince Gracias</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Eh, eh, eh, eh, eh, eh, eh J'nique ma santé pour de l'argent, j'ai rendu fou tous mes agents Certains disent même qu'j'suis une légende, dans le fond et la forme, j'égard les gens J'ai trop côtoyé la hess, à minuit pile, j'suis sur les champs Y a les douaniers qui jettent la R, ça va se terminer sur les gens Petit frérot, fais gaffe à oi-t et concentre-toi sur le foot En vrai, le rap c'st que d'la merde, j't l'dis tout haut qu'j'ai rien à foutre Pour le charbon, j'disais pas non, moi qui pensais qu'j'avais le bras long J'ai pas eu la chance d'jouer au ballon, par contre, ouais, j'ai fini aux ballons J'sais qu'l'industrie tah la musique, elle est mauvaise, elle est radine Elle est remplie de timiniks, elle est gérée par des chayatines T'es mon frérot, pour toi la lune, s'il faut j'irai t'la décrocher Moi, d'puis tout p'tit, j'sors des projets, j'préfère que tu mettes des crochets Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar You might also like Mais je peux pas lâcher le peu-ra, dans la sique-mu j'en ai des fans Des babtous, rebeus, re-noi, des ti-peu, des hommes et des femmes Et si j'en fais grand frérot, c'est pour mettre la mif' à l'abri J'ai donné le disque d'or à maman, elle l'as te-je quand elle l'a pris Donc je vais bientôt arrêter, elle veut qu'joue sur le rrain-té Elle veut qu'j'mette des petits ponts, des frappes que personne peut arrêter Mais il y a la vie d'artiste à côté qui me dit de pas arrêter C'est les données, ma vida tout ce que je veux c'est de pas la rater Entraînement la mañana, dans la soirée je peux rapper On a charbonné, on a creusé, on a même dû ramper Frérot j'ai cru en mes rêves, nous on a dû s'accrocher J'veux un maillot, un disque d'or, dans la bre-cham accroché Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar</t>
+          <t>Eh, eh, eh, eh, eh, eh, eh J'nique ma santé pour de l'argent, j'ai rendu fou tous mes agents Certains disent même qu'j'suis une légende, dans le fond et la forme, j'égard les gens J'ai trop côtoyé la hess, à minuit pile, j'suis sur les champs Y a les douaniers qui jettent la R, ça va se terminer sur les gens Petit frérot, fais gaffe à oi-t et concentre-toi sur le foot En vrai, le rap c'st que d'la merde, j't l'dis tout haut qu'j'ai rien à foutre Pour le charbon, j'disais pas non, moi qui pensais qu'j'avais le bras long J'ai pas eu la chance d'jouer au ballon, par contre, ouais, j'ai fini aux ballons J'sais qu'l'industrie tah la musique, elle est mauvaise, elle est radine Elle est remplie de timiniks, elle est gérée par des chayatines T'es mon frérot, pour toi la lune, s'il faut j'irai t'la décrocher Moi, d'puis tout p'tit, j'sors des projets, j'préfère que tu mettes des crochets Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar Mais je peux pas lâcher le peu-ra, dans la sique-mu j'en ai des fans Des babtous, rebeus, re-noi, des ti-peu, des hommes et des femmes Et si j'en fais grand frérot, c'est pour mettre la mif' à l'abri J'ai donné le disque d'or à maman, elle l'as te-je quand elle l'a pris Donc je vais bientôt arrêter, elle veut qu'joue sur le rrain-té Elle veut qu'j'mette des petits ponts, des frappes que personne peut arrêter Mais il y a la vie d'artiste à côté qui me dit de pas arrêter C'est les données, ma vida tout ce que je veux c'est de pas la rater Entraînement la mañana, dans la soirée je peux rapper On a charbonné, on a creusé, on a même dû ramper Frérot j'ai cru en mes rêves, nous on a dû s'accrocher J'veux un maillot, un disque d'or, dans la bre-cham accroché Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah, yeah J'fais rentrer des sous, j'fais des shows dans les clubs Rappeur footeux, c'est ma vida Ferme ta gueule, va signer dans un club Frérot, je fais rentrer la kichta Pour la mifa' faut des dollars Je veux pas que tu finisse tolard Plus jamais te voir au parloir J'finirais pas comme Escobar</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée J'perds pas la tête, j'suis pas Marie-Antoinette Si j'la ferme c'est qu'j'suis au poste ou aux toilettes Instru de Zak, big up à mon soss Khaled Bébé on n'tire plus leur sac non on leur vient en aide J'dis pas qu'on est honnêtes, mais au moins j'dirais qu'on essaie Ils nous prennent pour des marionnettes, ils voudraient qu'on fasse leur vaisselle Ils voudraient qu'on nettoie leurs WC, mais c'est eux qui fabriquent la merde c'est pas que blesser, quand Moïse traverse la mer à coup d'crosse faut les blesser J'suis meilleur qu'eux tous j'ai juste à poser couscous, mafé, poulet braisé Shit, cke-cra, peuf, CC, les concurrents sont baisés J'suis d'retour pour encaisser ce que me doit le passé Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée You might also like Et ce soir j'big up pour le DJ C'est dans l'Rif que j'veux des champs j'suis pas Didier Faut pas mélanger le fric et l'amitié Dans la vie vaut mieux faire envie que pitié J'me rappelle des vérifs à Petit dans le quartier survêtement Versace Enfance se barre en couille, pour elle j'pourrais dead La parole ça vaut tout, mieux vaut dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher J'pense à oim, ma gueule j'ai pas l'temps d't'aider Tu crèveras car c'est comme ça qu't'es né Zé Pequeno ou Bene La parole ça vaut tout, mieux vaut dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu restes même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Ça part en couilles, pour elle j'pourrais dead La parole ça vaut tout vaut mieux dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher1</t>
+          <t>Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée J'perds pas la tête, j'suis pas Marie-Antoinette Si j'la ferme c'est qu'j'suis au poste ou aux toilettes Instru de Zak, big up à mon soss Khaled Bébé on n'tire plus leur sac non on leur vient en aide J'dis pas qu'on est honnêtes, mais au moins j'dirais qu'on essaie Ils nous prennent pour des marionnettes, ils voudraient qu'on fasse leur vaisselle Ils voudraient qu'on nettoie leurs WC, mais c'est eux qui fabriquent la merde c'est pas que blesser, quand Moïse traverse la mer à coup d'crosse faut les blesser J'suis meilleur qu'eux tous j'ai juste à poser couscous, mafé, poulet braisé Shit, cke-cra, peuf, CC, les concurrents sont baisés J'suis d'retour pour encaisser ce que me doit le passé Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Et ce soir j'big up pour le DJ C'est dans l'Rif que j'veux des champs j'suis pas Didier Faut pas mélanger le fric et l'amitié Dans la vie vaut mieux faire envie que pitié J'me rappelle des vérifs à Petit dans le quartier survêtement Versace Enfance se barre en couille, pour elle j'pourrais dead La parole ça vaut tout, mieux vaut dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher J'pense à oim, ma gueule j'ai pas l'temps d't'aider Tu crèveras car c'est comme ça qu't'es né Zé Pequeno ou Bene La parole ça vaut tout, mieux vaut dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu ride même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Aujourd'hui j'reviens faire du sale, hier j'ai d'jà tout plié Mon esprit t'a d'jà zappé, mon cur veut pas t'oublier Balle dans la tête, ouais tu restes même pour un vieux billet J'ai l'caractère d'une grenade, évidemment dégoupillée Ça part en couilles, pour elle j'pourrais dead La parole ça vaut tout vaut mieux dire non que peut-être J'me rappelle des gardav de c'putain Du dépôt, du placard, j'suis pas là pour vous tchatcher1</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Back to the future back to the future J'rappe pour mes frères à Casa, à Tanger, à Skhour Rehamn J'rappe pour mes frères à Alger, Béjaïa, Mostaganem Si tu fais le malin je t'allume ta mère, et j'graille direct la gamelle On me parle de la hess plus d'un SMIC Moi j'veux le million plus en SMIC Avec mes potes Jrêve dun palace pour ma daronne dans lîle Jlui laissera pas les clés du rap parce que cest de la merde Mais il aura celle de toutes les gova et toutes les baraques à rakel Péte le champagne coute que coute, tous les jours cest mon birthday Ma mère ma appris à marcher les stups mont appris à me cacher Jai bu grave la mort en sachet Je rap pour mes frères à Casa Je rap pour mes frères à Alger Fuck les condés sérieux jme branle Et jfais de loseille comme Troisième ou trente sixième chambre La rue est en folie quand je chante Qu'est-ce quelle est bonne mais ce quelle est chiante La rue est en folie quand je chante Quest-ce quelle est bonne mais ce qu'elle est chiante Ouais, ouais, ouais Surveillant! Back to the future back to the futureYou might also like</t>
+          <t>Back to the future back to the future J'rappe pour mes frères à Casa, à Tanger, à Skhour Rehamn J'rappe pour mes frères à Alger, Béjaïa, Mostaganem Si tu fais le malin je t'allume ta mère, et j'graille direct la gamelle On me parle de la hess plus d'un SMIC Moi j'veux le million plus en SMIC Avec mes potes Jrêve dun palace pour ma daronne dans lîle Jlui laissera pas les clés du rap parce que cest de la merde Mais il aura celle de toutes les gova et toutes les baraques à rakel Péte le champagne coute que coute, tous les jours cest mon birthday Ma mère ma appris à marcher les stups mont appris à me cacher Jai bu grave la mort en sachet Je rap pour mes frères à Casa Je rap pour mes frères à Alger Fuck les condés sérieux jme branle Et jfais de loseille comme Troisième ou trente sixième chambre La rue est en folie quand je chante Qu'est-ce quelle est bonne mais ce quelle est chiante La rue est en folie quand je chante Quest-ce quelle est bonne mais ce qu'elle est chiante Ouais, ouais, ouais Surveillant! Back to the future back to the future</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bien ! Aussi bien qu'on peut être mal on peut être plein Mais avec avec la mort, c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale... Au fond je sais que, le diable m'a d'jà mis en échec A chaque minute qui passe ça pense à dé-blin l'chéquier L'sourir d'la mort, plus expressif que c'lui du banquier J'envie les sourds, aveugles, les muets... J'ai vu trop d'reufs, agoniser ou s'entretuer Le cur paralysé comme voir son fils s'faire renverser Battre la vie m'écur depuis qu'l'autre bâtard a visé l'cur Très vite le fil d'la vie s'brise... Des soirs j'imagine Aymen, transperçant l'par-brise J'cogite, j'rame même, à Sabry à Driss Dans mon cur de bastos brodé Une pour Nader, l'autre pour M.A.M.A.D Y a des anges, et y a des démons Vodka, sky mélange et ça y est la rage témon Eh range ta main sauf si c'est pour faire l'aumône C'est pas l'habit, mais les bonnes surs qui s'font les moines En bien le moindre acte, et la main droite témoigne Et si tu m'aimes pas, beh n'viens pas à mon enterrement La vie c'est une rette-ba, s'consume comme le ssem de terre-Nan Hommage, à tous les re-frè qui sont terre-pa Aux disparus qui m'ont dit N'bouge pas j'arrive Mes larmes pour fleuve, ont pagayé et pris une autre rive Ne serait-ce vous r'voire qu'une fois, à nous tous serait notre rêve Cette vie m'crêve, bataille sans trêve L'il cause le deuil même si quatre feuille sonne avec trèfle... Où sont mes reufs partis, tous enterrés sans qu'ils n'obtempèrent Pardi, Dieu pardon, autant pour moi, au temps perdu Et ouais frère que faire, de c'temps du-per, de tous mes frères enmés-fer ? De toutes ces rettes-ba vies-ser eh, pas aussi bien qu'en jellabawer C'est vrai que l'vice aide, mais n'oublie pas que l'ange a l'power Qu'le fil d'la vie c'est une rette-ba, à chaque bédo ça s'frite Qu'la vie c'est des squettes-ba, Belleville c'est Foot Locker Et y a qu'les plus belles paires qu'partent trop vite Battre m'a balafré l'cur Doomams l'a réouvert trop vite ! Long comme étripé, le ventre vide Pour l'instant j'n'ai pas d'quoi être fier Comme beaucoup m'demande que faire Y n'faut pas d'faux pas non il ne faut pas finir kéfère Côtoyant la de-mer on a fini par quéqué Finir criminel pour ton frère, pour ceux qu'tu sais non pas pour quelqu'un Nous c'est Belleville, regarde pas on t'évitera J'suis l'comble d'un marteau coincé dans une prison vitrée Ici partout l'passant en parle, l'19 on périt Les joues s'creusent, telles des vases, marre des chaires pétries Tu sais gros au sol, tu sé-creu en l'air tu t'sé-cra Salle pétrie, p'tit frère p'tite sur J'vois qu'l'Euro c'est l'drame, ressortez les convertisseurs Dans la rue y a trop d'dos d'âne, personne ne t'sert d'amortisseur Trop d'journées entre mains sèches, au plus sage au moins sage Au moins sache, qu'une vérité vaut mieux qu'mille mensonges Attention aux massages, quand t'as pour kiné l'diable L'ange au volant, et l'démon passager, où va Lamborghini Diablo Quand l'âme s'envole, que l'corps s'console à son linceul Les six adroits comme mes soces, droit comme un seize Trop douloureux comme un cri, malgré d'peu instruit Sur instru s'confondent est versus et écrit Sur l'bitume tu places sur les toits les keufs y t'grille Puis d'viennent des masses, trop maigrissent Percent en classe, finissent grossistes Ceci c'l'épée d'Damoclès, pour éventrer les plus gros cistes-ra J'ai vécu dix-neuf ans dans l'19, j'ai tellement faim Je j'suis plus sûr d'atteindre les vingt ans Wesh t'entend ? J'sais qu'en partant dans l'cinquième quart-temps Y en a beaucoup qui s'ront contents... You might also like On peut être bien Aussi bien qu'on peut être mal on peut être plein Mais avec la mort c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale On peut être bien Aussi bien qu'on peut être mal on peut être plein Mais avec la mort c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale ! La vie c'est sale J'sais pas c'qui m'retient dans mon crâne j'sais pas c'qui trottine... Dédié aux disparus d'Belleville ! A Mamadou Keïta et à Harkan j'suis pas tranquille... A jamais l'respect Moi j'suis loin et mash'allah juste que vos âmes reposent en paix... Allahu akbar !</t>
+          <t>Bien ! Aussi bien qu'on peut être mal on peut être plein Mais avec avec la mort, c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale... Au fond je sais que, le diable m'a d'jà mis en échec A chaque minute qui passe ça pense à dé-blin l'chéquier L'sourir d'la mort, plus expressif que c'lui du banquier J'envie les sourds, aveugles, les muets... J'ai vu trop d'reufs, agoniser ou s'entretuer Le cur paralysé comme voir son fils s'faire renverser Battre la vie m'écur depuis qu'l'autre bâtard a visé l'cur Très vite le fil d'la vie s'brise... Des soirs j'imagine Aymen, transperçant l'par-brise J'cogite, j'rame même, à Sabry à Driss Dans mon cur de bastos brodé Une pour Nader, l'autre pour M.A.M.A.D Y a des anges, et y a des démons Vodka, sky mélange et ça y est la rage témon Eh range ta main sauf si c'est pour faire l'aumône C'est pas l'habit, mais les bonnes surs qui s'font les moines En bien le moindre acte, et la main droite témoigne Et si tu m'aimes pas, beh n'viens pas à mon enterrement La vie c'est une rette-ba, s'consume comme le ssem de terre-Nan Hommage, à tous les re-frè qui sont terre-pa Aux disparus qui m'ont dit N'bouge pas j'arrive Mes larmes pour fleuve, ont pagayé et pris une autre rive Ne serait-ce vous r'voire qu'une fois, à nous tous serait notre rêve Cette vie m'crêve, bataille sans trêve L'il cause le deuil même si quatre feuille sonne avec trèfle... Où sont mes reufs partis, tous enterrés sans qu'ils n'obtempèrent Pardi, Dieu pardon, autant pour moi, au temps perdu Et ouais frère que faire, de c'temps du-per, de tous mes frères enmés-fer ? De toutes ces rettes-ba vies-ser eh, pas aussi bien qu'en jellabawer C'est vrai que l'vice aide, mais n'oublie pas que l'ange a l'power Qu'le fil d'la vie c'est une rette-ba, à chaque bédo ça s'frite Qu'la vie c'est des squettes-ba, Belleville c'est Foot Locker Et y a qu'les plus belles paires qu'partent trop vite Battre m'a balafré l'cur Doomams l'a réouvert trop vite ! Long comme étripé, le ventre vide Pour l'instant j'n'ai pas d'quoi être fier Comme beaucoup m'demande que faire Y n'faut pas d'faux pas non il ne faut pas finir kéfère Côtoyant la de-mer on a fini par quéqué Finir criminel pour ton frère, pour ceux qu'tu sais non pas pour quelqu'un Nous c'est Belleville, regarde pas on t'évitera J'suis l'comble d'un marteau coincé dans une prison vitrée Ici partout l'passant en parle, l'19 on périt Les joues s'creusent, telles des vases, marre des chaires pétries Tu sais gros au sol, tu sé-creu en l'air tu t'sé-cra Salle pétrie, p'tit frère p'tite sur J'vois qu'l'Euro c'est l'drame, ressortez les convertisseurs Dans la rue y a trop d'dos d'âne, personne ne t'sert d'amortisseur Trop d'journées entre mains sèches, au plus sage au moins sage Au moins sache, qu'une vérité vaut mieux qu'mille mensonges Attention aux massages, quand t'as pour kiné l'diable L'ange au volant, et l'démon passager, où va Lamborghini Diablo Quand l'âme s'envole, que l'corps s'console à son linceul Les six adroits comme mes soces, droit comme un seize Trop douloureux comme un cri, malgré d'peu instruit Sur instru s'confondent est versus et écrit Sur l'bitume tu places sur les toits les keufs y t'grille Puis d'viennent des masses, trop maigrissent Percent en classe, finissent grossistes Ceci c'l'épée d'Damoclès, pour éventrer les plus gros cistes-ra J'ai vécu dix-neuf ans dans l'19, j'ai tellement faim Je j'suis plus sûr d'atteindre les vingt ans Wesh t'entend ? J'sais qu'en partant dans l'cinquième quart-temps Y en a beaucoup qui s'ront contents... On peut être bien Aussi bien qu'on peut être mal on peut être plein Mais avec la mort c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale On peut être bien Aussi bien qu'on peut être mal on peut être plein Mais avec la mort c'est seul à seul Pas d'plan et pas d'pot Quand on s'console seul à seul La vie c'est ça, la vie c'est sale ! La vie c'est sale J'sais pas c'qui m'retient dans mon crâne j'sais pas c'qui trottine... Dédié aux disparus d'Belleville ! A Mamadou Keïta et à Harkan j'suis pas tranquille... A jamais l'respect Moi j'suis loin et mash'allah juste que vos âmes reposent en paix... Allahu akbar !</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>- Moi à la base j'en avais marre, je voulais même pas y aller Après à la base ils mont dit vas-y, je suis venu jai pris le calibre tac, j'tai dit, à la base je devais juste le tenir, cest venu, ça a déraillé, ça a défouraillé, ouais jai fais quoi jai sortis le calibre poto Ils voulaient me tirer dessus, jai fais quoi jai tiré moi, jai tiré je voulais juste faire peur, bah dans la tête il est revenu Lautre il vient il me qué-bra, jai fais quoi, aussi balle dans la tête Un, deux, lautre il arrive, trois, trois, jamais deux sans trois pah pah pah - Cst quoi lhistoire il tas fait quoi le que-m ? - Ah laisse tomber, wallah il a balance tout le monde - Comment ça il a balance tout le monde ? - J'sais pas tout le monde dit quil a balance tout le monde, ça pète chez les gens, Hamid il a craché sur la juge - Dit wallah, incroyable - Moi jai entendu il sest fait péta avec des affaires - Combien daffaires ? - Je crois trois mètres hein - Dis wallah - Wallah incroyable on est dans la merde - En plus il envoi des, il envoi des grandes lui jai entendu hein - Ouais mais tout le monde tout le monde à misé frère - Ah ouais c'était pas lui les deux grandes - Non tout le monde a misé arête ya les sous à tout le monde - Ah ouais, cest pour ça il a balance tout le monde - Ah ce fils dep' il a fait comme 6ix9ine - Billet de fou, il a fais style il était pisté - Arête cest mito, zahma il a a tout donné - Ouais la vie de ma mère tout sa mère - Putain le fils de tain-p' - Toi cest comment tas posé une DML ou quoi une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoiYou might also like</t>
+          <t>- Moi à la base j'en avais marre, je voulais même pas y aller Après à la base ils mont dit vas-y, je suis venu jai pris le calibre tac, j'tai dit, à la base je devais juste le tenir, cest venu, ça a déraillé, ça a défouraillé, ouais jai fais quoi jai sortis le calibre poto Ils voulaient me tirer dessus, jai fais quoi jai tiré moi, jai tiré je voulais juste faire peur, bah dans la tête il est revenu Lautre il vient il me qué-bra, jai fais quoi, aussi balle dans la tête Un, deux, lautre il arrive, trois, trois, jamais deux sans trois pah pah pah - Cst quoi lhistoire il tas fait quoi le que-m ? - Ah laisse tomber, wallah il a balance tout le monde - Comment ça il a balance tout le monde ? - J'sais pas tout le monde dit quil a balance tout le monde, ça pète chez les gens, Hamid il a craché sur la juge - Dit wallah, incroyable - Moi jai entendu il sest fait péta avec des affaires - Combien daffaires ? - Je crois trois mètres hein - Dis wallah - Wallah incroyable on est dans la merde - En plus il envoi des, il envoi des grandes lui jai entendu hein - Ouais mais tout le monde tout le monde à misé frère - Ah ouais c'était pas lui les deux grandes - Non tout le monde a misé arête ya les sous à tout le monde - Ah ouais, cest pour ça il a balance tout le monde - Ah ce fils dep' il a fait comme 6ix9ine - Billet de fou, il a fais style il était pisté - Arête cest mito, zahma il a a tout donné - Ouais la vie de ma mère tout sa mère - Putain le fils de tain-p' - Toi cest comment tas posé une DML ou quoi une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi, une DML ou quoi</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ah ah'ttention Mister Yougataga La rue c'est paro Belleville zoogataga C'est Mister You Parait que la police te cherche Zoogataga La j'suis en cavale à croire que j'suis Scofield Toxicomane j'allume un sdeh j'le fume jusqu'au filtre DJ Moh'h, DJ Fans-t No Time Records Zoogataga La rue c'est paro J'prépare juste d'la one M'est déjà arrivé de porter dans sacs de sport plus lourds que oim Ils pourront pas nous empêchez d'avancer, de prier On reste debout jusqu'à la mort, real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé a la recherche du khalis-khalis Real Man gangsta On chante nos vies sans la musique on serrait surement dead mais tant qu'on est encore en vie On kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mics Real Man gangsta Hessé ! Représente tous Paname Hessé ! Représente tous Paname Hessé ! Représente tous Paname Fuck ton amitié nous asshole on s'en bat les yeuc' Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa, les MC's jouent les croma mais y chantent comme Chantal GoyaYou might also like1</t>
+          <t>Ah ah'ttention Mister Yougataga La rue c'est paro Belleville zoogataga C'est Mister You Parait que la police te cherche Zoogataga La j'suis en cavale à croire que j'suis Scofield Toxicomane j'allume un sdeh j'le fume jusqu'au filtre DJ Moh'h, DJ Fans-t No Time Records Zoogataga La rue c'est paro J'prépare juste d'la one M'est déjà arrivé de porter dans sacs de sport plus lourds que oim Ils pourront pas nous empêchez d'avancer, de prier On reste debout jusqu'à la mort, real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé a la recherche du khalis-khalis Real Man gangsta On chante nos vies sans la musique on serrait surement dead mais tant qu'on est encore en vie On kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mics Real Man gangsta Hessé ! Représente tous Paname Hessé ! Représente tous Paname Hessé ! Représente tous Paname Fuck ton amitié nous asshole on s'en bat les yeuc' Anaya khoya j'me verrais bien à Pattaya En train d'rouler des gros sbah faya à la playa woogataga Vale-ca, vodka, paranoïa, les MC's jouent les croma mais y chantent comme Chantal Goya1</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Manbita al ahrar Machriqa al anwar Mountada sou'dadi wa himah Doumta mountadah wa himah Ichta fi l awtan Liloula ounwan Mil'a koulli janane Dikra koulli lissane Birrouhi Biljassadi Habba fatak Labba nidak Fi fami wa fi dami Hawaka thara nour wa nar Ikhwati haya Liloula sa'aya Nouch'hidi dounya Anna houna nahya Bichia'ar Allah, Al Watan, Al malikYou might also like</t>
+          <t>Manbita al ahrar Machriqa al anwar Mountada sou'dadi wa himah Doumta mountadah wa himah Ichta fi l awtan Liloula ounwan Mil'a koulli janane Dikra koulli lissane Birrouhi Biljassadi Habba fatak Labba nidak Fi fami wa fi dami Hawaka thara nour wa nar Ikhwati haya Liloula sa'aya Nouch'hidi dounya Anna houna nahya Bichia'ar Allah, Al Watan, Al malik</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>- Mister You, est-c'que t'écris tous les jours ou...? - Nan nan pas tous les jours parc'que, comment ça s'appelle... Parce qu'ici t'sais, j'ai trop la rage en moi. Faut trouver des petits thèmes à droite à gauche, j'écris des morceaux parce que des fois j'ai une haine, t'as vu, eh j'ai envie de, sur le Coran, d'faire des bêtises en mode t'sais attraper un surveillant des fois et... Bah nan j'ferai pas 6 ans car j'ai la eu-que et l'brava lavong Un dos d'âne j'suis en train d'bosser mais bon j'sens qu'ça va exploser J'ai qu'des balles à proposer à ceux qui rêveraient qu'j'sois cadenassé Crois-moi pour être crédible, dahwa le ton pas besoin d'l'hausser J'boufferai du thon j'le sais, car nan j'suis pas Keyser Söze Nous accroupissent et nous font tousser, c'est d'travers qu'ils nous font pousser Coupable, à tous les procès, le proc' c'bâtard on aimerait l'crosser Les mecs comme moi ils s'font pas relaxer, baveux qui ferait le tabasser Sur la route d'la liberté, le juge peut t'en fermer l'accès À peine tu sors tu re-béton, tu remontres ton cul, hop fais tes lacets Les sous scellés, ton pécule, toi t'sais même pas c'qu'il s'est passé Nique l'État, nique tout l'gouvernement français T'sais ma troisième be-jam, ils savent très bien où ils peuvent s'l'enfoncer Mec le seum faut pas trop le doser, si t'as un plan faut nous l'proposer Nan on a pas grandi dans l'zoo, mais nos rêves pourraient s'exaucer Sors le Mercier pour nous remercier et n'oublie pas d'nous financer Moi j'termine comme j'ai commencé avec une rime en cé Mais où est passé l'autre pute qui avant-hier me disait non ? Beh elle est à genoux, et elle m'suce la bite depuis qu'elle a vu les phares Xénon J'en ai déjà pris pas mal en levrette ouais, des saintes-nitouches J'sais qu'les vrais reconnaissent les vrais donc j'en place une big pour Minou Si tu veux d'la pure bah nous en avons, l'argent sale au 'Sky nous le lavons Chez moi c'est l'monde à l'envers, les petits mettent sur l'terrain les gravons Zoogataga, toujours paré pour les plavons Bah nan j'ferai pas 6 ans car j'ai la eu-que et l'brava lavong Laisse parles les javons, en direct d'la gardav' On commence à faire des pompes car on sait qu'on va pas ressortir On garde la pêche, la poire, le poireau et l'potiron Pour en faire une bonne soupe et p't-être qu'à la fin nous grandirons Le placard c'est comme la vie, H24 nous galérons L'objectif c'est d'être là-bas mais de quand même nier, gars, t'es rond Zoogataga, j'répète laisse parler les javons On dit jamais jamais jamais à part quand faut ramasser l'savonYou might also like</t>
+          <t>- Mister You, est-c'que t'écris tous les jours ou...? - Nan nan pas tous les jours parc'que, comment ça s'appelle... Parce qu'ici t'sais, j'ai trop la rage en moi. Faut trouver des petits thèmes à droite à gauche, j'écris des morceaux parce que des fois j'ai une haine, t'as vu, eh j'ai envie de, sur le Coran, d'faire des bêtises en mode t'sais attraper un surveillant des fois et... Bah nan j'ferai pas 6 ans car j'ai la eu-que et l'brava lavong Un dos d'âne j'suis en train d'bosser mais bon j'sens qu'ça va exploser J'ai qu'des balles à proposer à ceux qui rêveraient qu'j'sois cadenassé Crois-moi pour être crédible, dahwa le ton pas besoin d'l'hausser J'boufferai du thon j'le sais, car nan j'suis pas Keyser Söze Nous accroupissent et nous font tousser, c'est d'travers qu'ils nous font pousser Coupable, à tous les procès, le proc' c'bâtard on aimerait l'crosser Les mecs comme moi ils s'font pas relaxer, baveux qui ferait le tabasser Sur la route d'la liberté, le juge peut t'en fermer l'accès À peine tu sors tu re-béton, tu remontres ton cul, hop fais tes lacets Les sous scellés, ton pécule, toi t'sais même pas c'qu'il s'est passé Nique l'État, nique tout l'gouvernement français T'sais ma troisième be-jam, ils savent très bien où ils peuvent s'l'enfoncer Mec le seum faut pas trop le doser, si t'as un plan faut nous l'proposer Nan on a pas grandi dans l'zoo, mais nos rêves pourraient s'exaucer Sors le Mercier pour nous remercier et n'oublie pas d'nous financer Moi j'termine comme j'ai commencé avec une rime en cé Mais où est passé l'autre pute qui avant-hier me disait non ? Beh elle est à genoux, et elle m'suce la bite depuis qu'elle a vu les phares Xénon J'en ai déjà pris pas mal en levrette ouais, des saintes-nitouches J'sais qu'les vrais reconnaissent les vrais donc j'en place une big pour Minou Si tu veux d'la pure bah nous en avons, l'argent sale au 'Sky nous le lavons Chez moi c'est l'monde à l'envers, les petits mettent sur l'terrain les gravons Zoogataga, toujours paré pour les plavons Bah nan j'ferai pas 6 ans car j'ai la eu-que et l'brava lavong Laisse parles les javons, en direct d'la gardav' On commence à faire des pompes car on sait qu'on va pas ressortir On garde la pêche, la poire, le poireau et l'potiron Pour en faire une bonne soupe et p't-être qu'à la fin nous grandirons Le placard c'est comme la vie, H24 nous galérons L'objectif c'est d'être là-bas mais de quand même nier, gars, t'es rond Zoogataga, j'répète laisse parler les javons On dit jamais jamais jamais à part quand faut ramasser l'savon</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bonjour vous êtes bien sur la boite vocale de prénom censuré conseiller dinsertion et de probation à la maison d'arrêt de Paris, La Santé Veuillez me laisser un message après le bip sonore et n'oubliez pas de m'indiquer vos coordonnées afin que je puisse vous rappelez Meci Bip Mister You Ouais, Allô Ahahahah OugatagaYou might also like</t>
+          <t>Bonjour vous êtes bien sur la boite vocale de prénom censuré conseiller dinsertion et de probation à la maison d'arrêt de Paris, La Santé Veuillez me laisser un message après le bip sonore et n'oubliez pas de m'indiquer vos coordonnées afin que je puisse vous rappelez Meci Bip Mister You Ouais, Allô Ahahahah Ougataga</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EN RETRANSCRIPTION, NE PAS TOUCHER, MERCI Khosé ! Khosé, ils sont revenus ! Ils sont revenus ! Michael TwoRed Beats on the track W hablato b l'ghemza Ah, ah ou marto nassiha Ah Kan nawi ghier yetfela mais m3a hadi jamais, non Y'a khouya défaut fik, 3yit ena manwesik W dertiha b yedik, ça y est ba3adena Wily wily wiley, 3la darba 3andeha Y'a hbiba, désolé, gatlo, bye, bye, bye Oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Oh, oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Rrah Ya déjà golthalo, y khali le3yalette Makench 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7et lih rass Gotelek f l'gamila Ah, ay f l'gamila Haslato f l'gamila, gotlek fel gamila W khalik hani, w tba3ti hadi, w zideti hadi Oh, oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Rrah Ya déjà golthalo, y khali le3yalette Maknch 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7t lih rass Rrah You might also like C'est une vraie bomba latina, rien qu'elle te baratine À cause d'elle, dans ta tête, c'est Ruina, t'as même quitté ta team Elle pense qu'à elle et à son bien-être, véritable égoïste Elle s'prend pour l'nombril d'la planète, t'as pas l'dernier d'la liste Elle est trop fraîche la chica, elle a les chevilles qui gonflent Tu la vois, tu deviens Cheeta, tu perds l'esprit King-Kong Elle est un peu comme la Mona Lisa, elle t'lâche pas du regard Elle éteint direct son phone-tél', mec, si t'as du retard Ya déjà golthalo, y khali le3yalette Makench 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7et lih rass</t>
+          <t>EN RETRANSCRIPTION, NE PAS TOUCHER, MERCI Khosé ! Khosé, ils sont revenus ! Ils sont revenus ! Michael TwoRed Beats on the track W hablato b l'ghemza Ah, ah ou marto nassiha Ah Kan nawi ghier yetfela mais m3a hadi jamais, non Y'a khouya défaut fik, 3yit ena manwesik W dertiha b yedik, ça y est ba3adena Wily wily wiley, 3la darba 3andeha Y'a hbiba, désolé, gatlo, bye, bye, bye Oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Oh, oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Rrah Ya déjà golthalo, y khali le3yalette Makench 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7et lih rass Gotelek f l'gamila Ah, ay f l'gamila Haslato f l'gamila, gotlek fel gamila W khalik hani, w tba3ti hadi, w zideti hadi Oh, oh, oh W khalik hani, w tba3ti hadi, w zideti hadi Rrah Ya déjà golthalo, y khali le3yalette Maknch 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7t lih rass Rrah C'est une vraie bomba latina, rien qu'elle te baratine À cause d'elle, dans ta tête, c'est Ruina, t'as même quitté ta team Elle pense qu'à elle et à son bien-être, véritable égoïste Elle s'prend pour l'nombril d'la planète, t'as pas l'dernier d'la liste Elle est trop fraîche la chica, elle a les chevilles qui gonflent Tu la vois, tu deviens Cheeta, tu perds l'esprit King-Kong Elle est un peu comme la Mona Lisa, elle t'lâche pas du regard Elle éteint direct son phone-tél', mec, si t'as du retard Ya déjà golthalo, y khali le3yalette Makench 3la balo, t'dir 3lih l'enquête Khalatlo fy l'auto Oh, oh, riha ananas Ya déjà golthalo, hta fet7et lih rass</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Comme Yves j'ai fait mon temps, comme Colo j'suis commandant Alcoolo j'suis combattant comme Youss j'sais qu'on m'attend Paie comptant ... c'est que quand t'es pas content En cas d'embrouille on ira jusqu'aux pâtes au thon Le voyageur c'est un passeur c'est pas Tintin Doigte la BAC surtout si ces connards t'attaquent Les petits voient grand sont créatifs mieux que dans Artatac Le diable ne compte que par 6 les bières ne se boient que par pack Avec un pare balles bouillant on fait des pomps sur un ... Comme dit Pak Pak une tête à claqus ça mange des .... Le truc c'est de retranscrire sa vision par le bic Wougataga j'suis marteau on me clouera pas le bec C'est grave si tu te renseignes rien de plus surclassé C'est cru comme la cervelle d'un gosse écrasé Le rap c'est un jogging mes poumons je dois les décrasser Les MC's déclassés avec mon phrasé je dois les dépasser J'impose la Mi Ange Mi Démoncratie Tu cherches la merde frère cherche des mots crasseux Les mauvais garçons en classe sont comme en récréation Les droitards sont des mythos au micro ils font que ... Devant les keufs nous on pratique la masturbation Dans tes politiques ... ils assurent la baston Ils ont le seum de nous voir plus official qu'eux Que rarement seul ... que des têtes à queue Ne t'étonne pas que mes frères partent à l'attaque Toi tu sais pas mais moi j'sais ... Ce qui nous sépare une tass et un gun J'ai compris que la zonpri et l'État c'est qu'un keumYou might also like</t>
+          <t>Comme Yves j'ai fait mon temps, comme Colo j'suis commandant Alcoolo j'suis combattant comme Youss j'sais qu'on m'attend Paie comptant ... c'est que quand t'es pas content En cas d'embrouille on ira jusqu'aux pâtes au thon Le voyageur c'est un passeur c'est pas Tintin Doigte la BAC surtout si ces connards t'attaquent Les petits voient grand sont créatifs mieux que dans Artatac Le diable ne compte que par 6 les bières ne se boient que par pack Avec un pare balles bouillant on fait des pomps sur un ... Comme dit Pak Pak une tête à claqus ça mange des .... Le truc c'est de retranscrire sa vision par le bic Wougataga j'suis marteau on me clouera pas le bec C'est grave si tu te renseignes rien de plus surclassé C'est cru comme la cervelle d'un gosse écrasé Le rap c'est un jogging mes poumons je dois les décrasser Les MC's déclassés avec mon phrasé je dois les dépasser J'impose la Mi Ange Mi Démoncratie Tu cherches la merde frère cherche des mots crasseux Les mauvais garçons en classe sont comme en récréation Les droitards sont des mythos au micro ils font que ... Devant les keufs nous on pratique la masturbation Dans tes politiques ... ils assurent la baston Ils ont le seum de nous voir plus official qu'eux Que rarement seul ... que des têtes à queue Ne t'étonne pas que mes frères partent à l'attaque Toi tu sais pas mais moi j'sais ... Ce qui nous sépare une tass et un gun J'ai compris que la zonpri et l'État c'est qu'un keum</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A la bien mix party Yougataga, Reda Taliani, DJ Hamida Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Les jaloux ont maigri, ils ont même fini anorexique En ce-Fran il fait trop gris, donc j'me barre au Mexique Cheveux bruns aux yeux marrons, laissez-moi danser comme Dalida Faut une Bentley pour l'daron et une villa pour l'walida Wa Hamida, wa Reda, Meknes, Alger, Dar el beyda Dans mes concerts c'est la guerre, y a plus de zde7 qu'à ? Y a plus de ? qu'en Irak, j'ai plus d'oseille que Chirac J'accélère dans l'virage, fuck les jaloux qui ragent Fuck le lotto et son tirage, on compte que sur nos cojones Moi c'est Mister Younes, t'inquiète pas les vrais m'connaissent 30 litrons de kherdala dans ma valise Demande à ?, cette fois haja on s'organise Y a de la CC, d'la beldia, des hambourgers et des sirops T'inquiète, la sortie c'est sûre même si la prison salue Y a d'la3ds, d'la loubia, d'la ? et d'la chorba Du pilon, d'la ghebra, à bicrave f'lghorba You might also like Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Salam a 3ibadallah, salam si t'es pas de là Si t'es jaloux, na3sa f'zarbia y a pas de matelas S7ab l'? non non j'suis pas de ceux-la J'suis dans la ce-pla, Kalsha tu connais l'ze-bla Les jaloux sont de partout, chez la famille, les amis et même du partouche ? la cartouche On a de quoi à perdre ? dans nos babouches 2016 on va les traumatiser J'bois jamais mais j'fais comme si j'ai tisé Ils trouvent tu es beau mais c'est pas ce qu'ils disaient Aujourd'hui ils sont tous prêts à miser J'ai l'oseille fine, va bene Fog el khobz au darecho Taliani, Mister You dans la cellule on a l're-chau Sa7b 7mida, personne pe-cho, cette année on va que-cho Mix Party 2016, frèro balance le show Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass ? Chez nous on a toujours la rage USMH wlad el 7arrach N'importe quel âge, ça sort la kalash L'Europe, l'Afrique, fuck le décalage Raja et l'Wydad connecté khouya, Casanegra en pleine paranoïa Bab el Oued chouhada, Mister Mister Yougataga</t>
+          <t>A la bien mix party Yougataga, Reda Taliani, DJ Hamida Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Les jaloux ont maigri, ils ont même fini anorexique En ce-Fran il fait trop gris, donc j'me barre au Mexique Cheveux bruns aux yeux marrons, laissez-moi danser comme Dalida Faut une Bentley pour l'daron et une villa pour l'walida Wa Hamida, wa Reda, Meknes, Alger, Dar el beyda Dans mes concerts c'est la guerre, y a plus de zde7 qu'à ? Y a plus de ? qu'en Irak, j'ai plus d'oseille que Chirac J'accélère dans l'virage, fuck les jaloux qui ragent Fuck le lotto et son tirage, on compte que sur nos cojones Moi c'est Mister Younes, t'inquiète pas les vrais m'connaissent 30 litrons de kherdala dans ma valise Demande à ?, cette fois haja on s'organise Y a de la CC, d'la beldia, des hambourgers et des sirops T'inquiète, la sortie c'est sûre même si la prison salue Y a d'la3ds, d'la loubia, d'la ? et d'la chorba Du pilon, d'la ghebra, à bicrave f'lghorba Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Salam a 3ibadallah, salam si t'es pas de là Si t'es jaloux, na3sa f'zarbia y a pas de matelas S7ab l'? non non j'suis pas de ceux-la J'suis dans la ce-pla, Kalsha tu connais l'ze-bla Les jaloux sont de partout, chez la famille, les amis et même du partouche ? la cartouche On a de quoi à perdre ? dans nos babouches 2016 on va les traumatiser J'bois jamais mais j'fais comme si j'ai tisé Ils trouvent tu es beau mais c'est pas ce qu'ils disaient Aujourd'hui ils sont tous prêts à miser J'ai l'oseille fine, va bene Fog el khobz au darecho Taliani, Mister You dans la cellule on a l're-chau Sa7b 7mida, personne pe-cho, cette année on va que-cho Mix Party 2016, frèro balance le show Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass Allo allo ya les jaloux, marb7tou walou Ana w 3omri rana labas, fuck hadrat nass ? Chez nous on a toujours la rage USMH wlad el 7arrach N'importe quel âge, ça sort la kalash L'Europe, l'Afrique, fuck le décalage Raja et l'Wydad connecté khouya, Casanegra en pleine paranoïa Bab el Oued chouhada, Mister Mister Yougataga</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Stef Becker Beatmaker On a grandi dans le danger, on s'est sali les mains avant d'les laver pour manger bon Tu fais l'thug dans ton quartier mais t'es personne même dans ton quartier, sale p'tit con Chacun sa vie, j'vais pas t'juger mais t'as grugé tous tes gars pour un p'tit bout d'téton Pour un p'tit bout d'teu-teu, pour un coup d'beu-teu, tu vas pas t'manger des coups d'bâtons Bâtard, tu jalouses tout c'qu'on va pas dire, quand j'vais te faire, personne va compatir Barre toi d'avance si tu comptais partir Partir, faut qu'tu rendes des comptes T'as pris des ailes, tu veux t'envoler, t'as pris tes aises, t'es trop à se-l'ai T'es trop à se-l'ai, j's'rais pas désolé, j'arrive en i comme le prix d'la gasoline J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Che Guevara, j'fais que cartoucher 'cher, sur le bordel, bang dans la te-tê 'tê Les laisse sans voix, j'tire une taff, dolce vita, respect, j'l'ai pas volé 'lé Dégaine diel pimpin', true kingpin, link Bimbim Link Bimbim Faut rester digne, wet d'ici, ensuite tchin-tchin Et j'mène le game comme playoffs Playoffs Hagra de trois points, d'dunk, de feintes, de lay-ups C'que des cracks en vrai, j'vois les jaloux s'taire Shut up et regarde le débit, té-ma donc le level s'envole dans les airs You might also like J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Accélération tah Thierry Henry, quand y a du warri, moi, j'arrive en i La vérité sort d'la bouteille, j'me ressers une bibine J'suis avec Kekra, on va récupérer Bimbim J'tip-tap, bim-bam, direction les palmiers On veut s'la faire belle, non, ça on ne va pas l'nier On joue pas pour participer, nous on joue pour gagner C'est comme ça qu'ça s'passe dans la calle J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Viens voir le i, po-po-po-lop Yeah</t>
+          <t>Stef Becker Beatmaker On a grandi dans le danger, on s'est sali les mains avant d'les laver pour manger bon Tu fais l'thug dans ton quartier mais t'es personne même dans ton quartier, sale p'tit con Chacun sa vie, j'vais pas t'juger mais t'as grugé tous tes gars pour un p'tit bout d'téton Pour un p'tit bout d'teu-teu, pour un coup d'beu-teu, tu vas pas t'manger des coups d'bâtons Bâtard, tu jalouses tout c'qu'on va pas dire, quand j'vais te faire, personne va compatir Barre toi d'avance si tu comptais partir Partir, faut qu'tu rendes des comptes T'as pris des ailes, tu veux t'envoler, t'as pris tes aises, t'es trop à se-l'ai T'es trop à se-l'ai, j's'rais pas désolé, j'arrive en i comme le prix d'la gasoline J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Che Guevara, j'fais que cartoucher 'cher, sur le bordel, bang dans la te-tê 'tê Les laisse sans voix, j'tire une taff, dolce vita, respect, j'l'ai pas volé 'lé Dégaine diel pimpin', true kingpin, link Bimbim Link Bimbim Faut rester digne, wet d'ici, ensuite tchin-tchin Et j'mène le game comme playoffs Playoffs Hagra de trois points, d'dunk, de feintes, de lay-ups C'que des cracks en vrai, j'vois les jaloux s'taire Shut up et regarde le débit, té-ma donc le level s'envole dans les airs J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Accélération tah Thierry Henry, quand y a du warri, moi, j'arrive en i La vérité sort d'la bouteille, j'me ressers une bibine J'suis avec Kekra, on va récupérer Bimbim J'tip-tap, bim-bam, direction les palmiers On veut s'la faire belle, non, ça on ne va pas l'nier On joue pas pour participer, nous on joue pour gagner C'est comme ça qu'ça s'passe dans la calle J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop Ça sort le i, po-po-po-lop Yeah, po-po-po-lop Revend la i, po-po-po-lop Yeah, po-po-po-lop J'arrive en i, po-po-po-lop Yeah, po-po-po-lop Tu joues le i, po-po-po-lop Yeah, po-po-po-lop On veut la i, po-po-po-lop Yeah, po-po-po-lop Viens voir le i, po-po-po-lop Yeah</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>On ne prête qu'aux riches ou à ceux qui font semblant d'l'être Montrez moi la niche et j'vous dirai la race du maitre Si tu cherches la merde, passe à Belleville on ne sait pas dire non Aux meufs et aux keufs, 20e-19 on ne fait que tir-men J'ai beusek 1 seconde tchin tchin, c'est que l'étirement C'est un vol à la tire ta folle si on te la vole c'est qu'lle attire nan? Tu ne pnses pas toi comme un con t'agis T'aimes pas partager de peur que le bien soit contagieux T'es qu'un vard-cre qui n'fait que s'gaver finira l'ventre creux J'dis à genoux 5 samedis n'valent pas un vendredi Dans mon crane j'sais pas c'qui trottine Mon plus beau rêve serait d'revoir Bachir ou les 2 Mamad et Badredine J'te l'redis pour la première fois, j'n'aime que les gros deals Si ta meuf elle m'plait, j'l'accoste comme un crocodile J'boycotte pas mais j'suis plutôt critique J'te fais croire qu'jsuis ton pote et après j'suis plus trop crédible Sur le riddim Marvin Younes les mecs qui vont niquer le business ... pour le fitness des ssistes-gro meurent, les fleuristes naissent Please laisse les croire qu'ils sont en tête J'sais pas ce qu'ils ont en tête, peut être s'enrichir sans payer de dette Peut être bien que oui, peut être bien que non Comment savoir sans faire ... Belleville c'est trop paro tu veux tester faut te préparer Trop égaré ... Ils planent dans les airs les renards à l'affût ... À l'heure qu'il est je crache de grosses bastos sur le kiné ... Rébéval Zoo fuck Nagui ... Le sponsor c'est Satan déconseillé aux moins de 100 ans ... obligé vous serez contents ... J'suis pas raciste fuck tout le monde d'ailleurs je prépare une liste ... Woogataga on est àl comme Capone et Norriega ... Je vends du shit je vends de la weed je vends du crack et des tazous ... Ya zeh toujours à Zeze Je sors mon zizi y'a que les 3asses qui restent en zonzonYou might also like</t>
+          <t>On ne prête qu'aux riches ou à ceux qui font semblant d'l'être Montrez moi la niche et j'vous dirai la race du maitre Si tu cherches la merde, passe à Belleville on ne sait pas dire non Aux meufs et aux keufs, 20e-19 on ne fait que tir-men J'ai beusek 1 seconde tchin tchin, c'est que l'étirement C'est un vol à la tire ta folle si on te la vole c'est qu'lle attire nan? Tu ne pnses pas toi comme un con t'agis T'aimes pas partager de peur que le bien soit contagieux T'es qu'un vard-cre qui n'fait que s'gaver finira l'ventre creux J'dis à genoux 5 samedis n'valent pas un vendredi Dans mon crane j'sais pas c'qui trottine Mon plus beau rêve serait d'revoir Bachir ou les 2 Mamad et Badredine J'te l'redis pour la première fois, j'n'aime que les gros deals Si ta meuf elle m'plait, j'l'accoste comme un crocodile J'boycotte pas mais j'suis plutôt critique J'te fais croire qu'jsuis ton pote et après j'suis plus trop crédible Sur le riddim Marvin Younes les mecs qui vont niquer le business ... pour le fitness des ssistes-gro meurent, les fleuristes naissent Please laisse les croire qu'ils sont en tête J'sais pas ce qu'ils ont en tête, peut être s'enrichir sans payer de dette Peut être bien que oui, peut être bien que non Comment savoir sans faire ... Belleville c'est trop paro tu veux tester faut te préparer Trop égaré ... Ils planent dans les airs les renards à l'affût ... À l'heure qu'il est je crache de grosses bastos sur le kiné ... Rébéval Zoo fuck Nagui ... Le sponsor c'est Satan déconseillé aux moins de 100 ans ... obligé vous serez contents ... J'suis pas raciste fuck tout le monde d'ailleurs je prépare une liste ... Woogataga on est àl comme Capone et Norriega ... Je vends du shit je vends de la weed je vends du crack et des tazous ... Ya zeh toujours à Zeze Je sors mon zizi y'a que les 3asses qui restent en zonzon</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Aaaaahh, aaaaahh, 'tens, 'tention ! Bebe, bebebe Belleville... Woogataga ! Copiez mon style et vous verrez toutes les filles s'pencher Y'a d'la cc, pas à ffer-sni mais à dispatcher Coffret plein d'shit on va passer par le dispatching Suivez-moi et j'vous emmène dans la planète Perché Dans un film, où l'héroïne est l'héroïne Stéréotype, plus hardcore que érotique Chaotique est l'ambiance, sniiiff ça sent la ptata La rue c'est ma femme, les vrai voyous m'appellent Papa Cherche pas, la merde car j'ai la chiasse Va à la chasse j'prends ta place, va à la pêche et garde la pêche N'empêche, jamais plus éclatant que doit de briller J'sais qu'y a un dieu, forcément, j'me dois de prier Dans l'rap, j'dois m'imposer de force ou de gré Le cash liquide ne s'évapore pas à cent degrés Triez, le tout c'est de coffrer les imposteurs Le truc c'est d'les griller aussi vite qu'une gaufre qui sort d'un toaster ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! You might also like J'mange, trois cent cinquante-sept rappeurs par an J'ai l'même don que Corleone on m'appelle Le Parrain Dans l'tier-quar, on m'a appris à ne pas se séparer Ornicar, j'ai jamais su il est passé par où Paro, le fric m'attire donc j'ai la rime bavonne J'ai horreur d'fouiller mes poches, tout en sachant qu'y a foy Je sais qu'c'est moi l'best, impossible que j'm'affole MC, tu m'dois l'respect t'as le même cul qu'ma folle ! Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'vais t'apprendre à respecter un peu comme un grand du quartier Touche pas à l'oseille tant qu't'as pas gagné la partie Le degré d'la dureté, sniiiff très bien réparti La CC et l'shit ne s'étalent pas sur la même tartine ! Pardi, on va t'apprendre à d'mander pardon Au charbon, sais-tu c'qu'on fait aux matons ? Le mardi, après les cantines hop, nous les tartons Avec un nuage de fumée vu qu'la veille c'était un carton ! Comme dit Claude, le lundi, y'a pas d'soleil On touche pas d'salaires, pas d'grenades, pas d'he3ba select Celui qui respecte pas, on lui viole sa mère Et t'façon, vu sa gueule, elle pourra que m'dire Ci-mer ! J'pourrais m'durcir mais non j'vais rester doux J'vais m'calmer donc, le truc c'était de Ré-enseigner l'respect à trop de tasses-pé bredouilles J'en connais deux-trois, dites moi tout le reste est d'où ! Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter...</t>
+          <t>Aaaaahh, aaaaahh, 'tens, 'tention ! Bebe, bebebe Belleville... Woogataga ! Copiez mon style et vous verrez toutes les filles s'pencher Y'a d'la cc, pas à ffer-sni mais à dispatcher Coffret plein d'shit on va passer par le dispatching Suivez-moi et j'vous emmène dans la planète Perché Dans un film, où l'héroïne est l'héroïne Stéréotype, plus hardcore que érotique Chaotique est l'ambiance, sniiiff ça sent la ptata La rue c'est ma femme, les vrai voyous m'appellent Papa Cherche pas, la merde car j'ai la chiasse Va à la chasse j'prends ta place, va à la pêche et garde la pêche N'empêche, jamais plus éclatant que doit de briller J'sais qu'y a un dieu, forcément, j'me dois de prier Dans l'rap, j'dois m'imposer de force ou de gré Le cash liquide ne s'évapore pas à cent degrés Triez, le tout c'est de coffrer les imposteurs Le truc c'est d'les griller aussi vite qu'une gaufre qui sort d'un toaster ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'mange, trois cent cinquante-sept rappeurs par an J'ai l'même don que Corleone on m'appelle Le Parrain Dans l'tier-quar, on m'a appris à ne pas se séparer Ornicar, j'ai jamais su il est passé par où Paro, le fric m'attire donc j'ai la rime bavonne J'ai horreur d'fouiller mes poches, tout en sachant qu'y a foy Je sais qu'c'est moi l'best, impossible que j'm'affole MC, tu m'dois l'respect t'as le même cul qu'ma folle ! Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'vais t'apprendre à respecter un peu comme un grand du quartier Touche pas à l'oseille tant qu't'as pas gagné la partie Le degré d'la dureté, sniiiff très bien réparti La CC et l'shit ne s'étalent pas sur la même tartine ! Pardi, on va t'apprendre à d'mander pardon Au charbon, sais-tu c'qu'on fait aux matons ? Le mardi, après les cantines hop, nous les tartons Avec un nuage de fumée vu qu'la veille c'était un carton ! Comme dit Claude, le lundi, y'a pas d'soleil On touche pas d'salaires, pas d'grenades, pas d'he3ba select Celui qui respecte pas, on lui viole sa mère Et t'façon, vu sa gueule, elle pourra que m'dire Ci-mer ! J'pourrais m'durcir mais non j'vais rester doux J'vais m'calmer donc, le truc c'était de Ré-enseigner l'respect à trop de tasses-pé bredouilles J'en connais deux-trois, dites moi tout le reste est d'où ! Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter ! J'suis faya, j'suis pété, j'suis obligé d'le répéter Ton rap, y pue la bite autant qu'un pédé qu'a pété Mec t'es, fou tu veux m'empêcher de becter ? J'viens d'Belleville, et j'vais t'apprendre à respecter...</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up? Nique sa mère le plan A, nique sa mère le plan B Jaime pas trop les , tu pourrais te faire plomber J'ai bien niqué le game, bien sûr que j'ai pris mon pied On accueille les keufs au mortier, on caillasse pas les pompiers Ceux qui parlaient mal de oi-m a finit par me pomper Faites péter les Cristal, faites péter les Dom Pé On racle l'oseille légalement, rien qu'la famille, y a pas d'banque KaNoé et L'Allemand, nous c'est l'offre, eux c'est la demande Tas reçu Yougataga ? Jsuis sorti du ghetto Là, j'sirote une vodka dans un Chiringuito Jsuis pisté par les pes-stu, j'm'arrache à Mexico J'ai visser des toxicos pour per-ta la Veuve Clicquot brrah Jrêve de m'en sortir J'veux voir des oiseaux, j'veux faire de la maille de l'oseille, de l'oseille, de l'oseille Yeah, yeah yeah, yeah, yeah, yeah, brrah Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah You might also like On voulait que du cash, des centaines de milliers dans l'Audi S Sport Le problème du problème, c'est qu'on perd espoir Y a des putes dans tes potes qui t'la mettront bessif C'est les Minguettes, c'est Belleville fils de pute On va passer devant toi, toi qui parlais de moi Moi qui parlais 3arbi, toi qui parlais chinois Deux mains sur la Honda, six balles pour la ronne-da C'est quatre points pour une lash'-Ka, mon khouya ouh, oui On les baise, on les rebaise tranquille J'remercie 3arbi tant qu'j'reste en vie, sale fou Ils font les mecs qui restent en ville en ville Recherché, mais nous on reste en fuite, sale fou Bédo, briquet, j'suis dans ma tess et j'me nique le cerveau nique le cerveau Ça fait tant d'années et ouais qu'on veut partir loin du ghetto loin du ghetto Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah L'ennemi est proche, eh-eh, faut faire belek, ça va du 19, du 69, gelek J'ai des bêtes de kichtas mais en vrai, c'est pas pareil Mon poto, j'suis instable, pas méchant, j'te casse la tête bah oui Fini l'Muscador, j'bois du Hennessy brrah Tout le monde est d'accord, non, j'n'ai pas d'ennemis Regarde les chaussures, elles coûtent un llet-bi J'ai besoin d'personne, j'ai les couilles à daddy Regarde nous en bizarre, tu crois pas, tête de Ramos J'suis dans l'Aventador, dans le gros gamos Et demande à L'Allemand d'où proviennent les gamos Si je marie une pétasse, y aura pas d'carrosse Tu nous as vu en bas, on a trimé trop d'fois J'ai besoin d'une bella qui m'fera oublier l'sale Ouais, c'est L'Allemand, KaNoé, Yougataga Quand faut de l'inspi', j'ai pas besoin d'taga, bye, bye, bye Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah J'suis khabat, j'suis khabat, j'suis khabat C'est les Minguettes, c'est Belleville fils de pute C'est les Minguettes, c'est Belleville fils de pute</t>
+          <t>Nabz, nigga, what's up? Nique sa mère le plan A, nique sa mère le plan B Jaime pas trop les , tu pourrais te faire plomber J'ai bien niqué le game, bien sûr que j'ai pris mon pied On accueille les keufs au mortier, on caillasse pas les pompiers Ceux qui parlaient mal de oi-m a finit par me pomper Faites péter les Cristal, faites péter les Dom Pé On racle l'oseille légalement, rien qu'la famille, y a pas d'banque KaNoé et L'Allemand, nous c'est l'offre, eux c'est la demande Tas reçu Yougataga ? Jsuis sorti du ghetto Là, j'sirote une vodka dans un Chiringuito Jsuis pisté par les pes-stu, j'm'arrache à Mexico J'ai visser des toxicos pour per-ta la Veuve Clicquot brrah Jrêve de m'en sortir J'veux voir des oiseaux, j'veux faire de la maille de l'oseille, de l'oseille, de l'oseille Yeah, yeah yeah, yeah, yeah, yeah, brrah Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah On voulait que du cash, des centaines de milliers dans l'Audi S Sport Le problème du problème, c'est qu'on perd espoir Y a des putes dans tes potes qui t'la mettront bessif C'est les Minguettes, c'est Belleville fils de pute On va passer devant toi, toi qui parlais de moi Moi qui parlais 3arbi, toi qui parlais chinois Deux mains sur la Honda, six balles pour la ronne-da C'est quatre points pour une lash'-Ka, mon khouya ouh, oui On les baise, on les rebaise tranquille J'remercie 3arbi tant qu'j'reste en vie, sale fou Ils font les mecs qui restent en ville en ville Recherché, mais nous on reste en fuite, sale fou Bédo, briquet, j'suis dans ma tess et j'me nique le cerveau nique le cerveau Ça fait tant d'années et ouais qu'on veut partir loin du ghetto loin du ghetto Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah L'ennemi est proche, eh-eh, faut faire belek, ça va du 19, du 69, gelek J'ai des bêtes de kichtas mais en vrai, c'est pas pareil Mon poto, j'suis instable, pas méchant, j'te casse la tête bah oui Fini l'Muscador, j'bois du Hennessy brrah Tout le monde est d'accord, non, j'n'ai pas d'ennemis Regarde les chaussures, elles coûtent un llet-bi J'ai besoin d'personne, j'ai les couilles à daddy Regarde nous en bizarre, tu crois pas, tête de Ramos J'suis dans l'Aventador, dans le gros gamos Et demande à L'Allemand d'où proviennent les gamos Si je marie une pétasse, y aura pas d'carrosse Tu nous as vu en bas, on a trimé trop d'fois J'ai besoin d'une bella qui m'fera oublier l'sale Ouais, c'est L'Allemand, KaNoé, Yougataga Quand faut de l'inspi', j'ai pas besoin d'taga, bye, bye, bye Je suis dans des bails qui m'rapportent des papiers des papiers J'suis vers Dubaï, l'bénéf' est éparpillé J'suis khabat, j'ai chargé le RS J'suis khabat, ils voulaient tout c'que j'rêve J'suis khabat, j'ai ravitaillé la tess J'suis khabat, ah ah ah J'suis khabat, j'suis khabat, j'suis khabat C'est les Minguettes, c'est Belleville fils de pute C'est les Minguettes, c'est Belleville fils de pute</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais You might also like Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à Fif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
+          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à Fif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>De nos jours pour une barrette ils te mettent la peine à Fofana On a trop le jouh donc direct dahwa on bicrave la cocaïne Ah Woo GATAGA il te faut quoi du teushi ? Tas quà passer à Ramponeau et là tu te feras vi-ser par Toshi Il nous faut des armes du beurre et du bourou Badjigou a retourné sa veste mais bon elle était diamourou Ah Woo GATAGA dahwa bienvenu à Zoo Les siste-gros ils ramènent à You et les g-shla mènent à Bazoo Je suis avec Malik Omer J.R. et le poto Rico Jean-Luc je lui mets dans le u-c je lui fais crier cocorico OK hé gringo suce-moi la bite un petit peu Pour un 10 là où jhabite tu te fais crosser par les tit-pe Qui peut me dire que Mister You cest un bâtard On ma pas cru on ma pas écrit, prétoire direct mitard Au parloir ça roule du cul mais crois pas quon suce nos cos Vato Loco bonhomme, comme tous les Sissoko Quand sonnent les cloches à 6 du sbah on ferme les portes tah le tier-quar Quand cest tes proches qui te font les poches dahwa nhal shétan Le habs la cité, je répète nhal Sheitan Y'a trop de mecs qui sont surexcités moi, je suis calme Quand la charité sinstalle, cest pour crosser lhôpital On représente Paname, la banlieue et sa capitale Regarde nos parents msèkeune et nous parle pas dhéritage Quand y'a les keufs à la porte ça saute même du dernier étage Comme dit Klakette on a un Staïli tah les Apaches Si lalcool serait un livre bah ce serait dur de tourner la page On est comme Vince nous on croit tous quon a vu la vache Létat nous incarcère nos veau-cer sont victimes de lavage On aime trop le danger, roya nhal tan-Shei Pour rendre hommage aux étrangers dahwa je prendrais tout le temps que jai Si tes vers Tanger ou vers Casablanca Ramène pas de teushi, vas à Bamako et rapporte de la coca Triste époque Ah Woo GATAGA Au placard tu perds ta mâchoire pour un bout de taga !!!You might also like</t>
+          <t>De nos jours pour une barrette ils te mettent la peine à Fofana On a trop le jouh donc direct dahwa on bicrave la cocaïne Ah Woo GATAGA il te faut quoi du teushi ? Tas quà passer à Ramponeau et là tu te feras vi-ser par Toshi Il nous faut des armes du beurre et du bourou Badjigou a retourné sa veste mais bon elle était diamourou Ah Woo GATAGA dahwa bienvenu à Zoo Les siste-gros ils ramènent à You et les g-shla mènent à Bazoo Je suis avec Malik Omer J.R. et le poto Rico Jean-Luc je lui mets dans le u-c je lui fais crier cocorico OK hé gringo suce-moi la bite un petit peu Pour un 10 là où jhabite tu te fais crosser par les tit-pe Qui peut me dire que Mister You cest un bâtard On ma pas cru on ma pas écrit, prétoire direct mitard Au parloir ça roule du cul mais crois pas quon suce nos cos Vato Loco bonhomme, comme tous les Sissoko Quand sonnent les cloches à 6 du sbah on ferme les portes tah le tier-quar Quand cest tes proches qui te font les poches dahwa nhal shétan Le habs la cité, je répète nhal Sheitan Y'a trop de mecs qui sont surexcités moi, je suis calme Quand la charité sinstalle, cest pour crosser lhôpital On représente Paname, la banlieue et sa capitale Regarde nos parents msèkeune et nous parle pas dhéritage Quand y'a les keufs à la porte ça saute même du dernier étage Comme dit Klakette on a un Staïli tah les Apaches Si lalcool serait un livre bah ce serait dur de tourner la page On est comme Vince nous on croit tous quon a vu la vache Létat nous incarcère nos veau-cer sont victimes de lavage On aime trop le danger, roya nhal tan-Shei Pour rendre hommage aux étrangers dahwa je prendrais tout le temps que jai Si tes vers Tanger ou vers Casablanca Ramène pas de teushi, vas à Bamako et rapporte de la coca Triste époque Ah Woo GATAGA Au placard tu perds ta mâchoire pour un bout de taga !!!</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Biggie Jo on the beat J'vais enflammer l'gamos comme dans Belly, pas vu, pas pris, pas d'flagrant délit Baby veut partager mes nuits, j'écoute les démons de minuit Suivi d'La Bohème d'Aznavour, l'été indien d'Joe Dassin J'aimerais tant vous parlez d'amour, j'suis écouté par trop d'assassins J'ai grandi dans la calle, entourés d'mes carnalés, vendeurs de selha écaillée, sur l'terrain même quand ça caillait Combien d'pavés j'ai détaillé ? Combien d'métaux j'ai fait tailler ? Aujourd'hui, j'veux plus en entendre parler, j'rêve que d'faire sourire la madre, yeah, yeah Compte sur nous pour la qualité C'est nous qui validons, on n'a pas besoin d'être validé J'fais planer l'hôtesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de milli', milli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de milli', milli' You might also like Cet été, j'reste au tieks, entre Fougères et Belleville zoo J'ai pas compris pourquoi mon ex veut m'faire des bisous J'fais attentat dans une auto, j'prends le pétard, j'ai la moto Yamamoto sur les sapes, Goyard floqué sur les sacs Mmh, mmh, elle veut m'appeler habibi Mmh, mmh, mais j'lui dis que nenni Mmh, mmh, on a la vista, les jutsu On joue d'la guitare comme U2 et ça fait rou-tou-tou-tou Compte sur nous pour la qualité C'est nous qui validons, on a pas besoin d'être validé J'fais planer l'hôtesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'auras pas de méli', méli', ouais Dans la rue j'me suis fait les dents, près des dealers, des yous-voi J'ai mis la cagoule et les gants, maintenant je les guette tous du toit Dahwa, j'ai trop squatté les bancs d'la cité, c'est du prétoire L'histoire d'un petit qu'est devenu grand et qu'est revenu marquer l'histoire Comme dit You, vaut mieux être qu'avoir, sur ma vie, j'veux mettre du caviar Étant p'tit, j'jouais avec les cafards, j'suis un enfant de la CAF Wesh, ma p'tite gueule, si y a un plan, n'hésite pas à m'le faire savoir J'suis comme Lick-Ma, j'ai le cur blanc, dahwa mais j'ai l'esprit noir Compte sur nous pour la qualité C'est nous qui validons, on n'a pas besoin d'être validé J'fais planer l'hotesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli', yeah</t>
+          <t>Biggie Jo on the beat J'vais enflammer l'gamos comme dans Belly, pas vu, pas pris, pas d'flagrant délit Baby veut partager mes nuits, j'écoute les démons de minuit Suivi d'La Bohème d'Aznavour, l'été indien d'Joe Dassin J'aimerais tant vous parlez d'amour, j'suis écouté par trop d'assassins J'ai grandi dans la calle, entourés d'mes carnalés, vendeurs de selha écaillée, sur l'terrain même quand ça caillait Combien d'pavés j'ai détaillé ? Combien d'métaux j'ai fait tailler ? Aujourd'hui, j'veux plus en entendre parler, j'rêve que d'faire sourire la madre, yeah, yeah Compte sur nous pour la qualité C'est nous qui validons, on n'a pas besoin d'être validé J'fais planer l'hôtesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de milli', milli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de milli', milli' Cet été, j'reste au tieks, entre Fougères et Belleville zoo J'ai pas compris pourquoi mon ex veut m'faire des bisous J'fais attentat dans une auto, j'prends le pétard, j'ai la moto Yamamoto sur les sapes, Goyard floqué sur les sacs Mmh, mmh, elle veut m'appeler habibi Mmh, mmh, mais j'lui dis que nenni Mmh, mmh, on a la vista, les jutsu On joue d'la guitare comme U2 et ça fait rou-tou-tou-tou Compte sur nous pour la qualité C'est nous qui validons, on a pas besoin d'être validé J'fais planer l'hôtesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'auras pas de méli', méli', ouais Dans la rue j'me suis fait les dents, près des dealers, des yous-voi J'ai mis la cagoule et les gants, maintenant je les guette tous du toit Dahwa, j'ai trop squatté les bancs d'la cité, c'est du prétoire L'histoire d'un petit qu'est devenu grand et qu'est revenu marquer l'histoire Comme dit You, vaut mieux être qu'avoir, sur ma vie, j'veux mettre du caviar Étant p'tit, j'jouais avec les cafards, j'suis un enfant de la CAF Wesh, ma p'tite gueule, si y a un plan, n'hésite pas à m'le faire savoir J'suis comme Lick-Ma, j'ai le cur blanc, dahwa mais j'ai l'esprit noir Compte sur nous pour la qualité C'est nous qui validons, on n'a pas besoin d'être validé J'fais planer l'hotesse, j'donne des cours à la maîtresse Nan, nous parle de stress, nous, ce soir, on est quadrillés On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli' On veut la vue sur la mer, minimum 100K d'avance Au quartier, j'passe les vacances, Christian Dior pour la fragrance On a grandi dans les délits, baby veut partager mes nuits Dans la Benz', j'ai mis du Nelly, y'aura pas de méli', méli', yeah</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Des larmes de plomb coulent de nos yeux et demain semble si loin Je perds mon temps à faire du surplace les pieds ancrés au terrain Le mal m'a tué, plus de lendemain que des armes en main Nous sommes dans l'arène, À mort crient les condés dans les gradins ... On est tous coupables, nos jeunes sont des incapables ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin quand j'étais au mitard j'ai cru voir l'avenir dans sa cachette Moi j'ai le coeur sur la main et le doigt sur la gâchette ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille You might also like Toute mon enfance je l'ai passée en bas des tours dans la délinquance ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille</t>
+          <t>Des larmes de plomb coulent de nos yeux et demain semble si loin Je perds mon temps à faire du surplace les pieds ancrés au terrain Le mal m'a tué, plus de lendemain que des armes en main Nous sommes dans l'arène, À mort crient les condés dans les gradins ... On est tous coupables, nos jeunes sont des incapables ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin quand j'étais au mitard j'ai cru voir l'avenir dans sa cachette Moi j'ai le coeur sur la main et le doigt sur la gâchette ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Toute mon enfance je l'ai passée en bas des tours dans la délinquance ... Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule 9.4 Belleville, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille Demain c'est loin faut le guide de la débrouille Esquiver les douilles faire des thunes et toujours près de toi ta cagoule Tout va si vite, la vie ne tient qu'à un fil Demain c'est loin faut faire de l'oseille dans le but de mettre bien sa famille</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? Oyoyoy Oyoyoy Oyoyoy Oyoyoy C'est un putain d'rap de chtarbé, ouais, darwa fait péter l'11, j'suis avec Hakim à Marbe', Aston Martin DB11 Tu fais l'malin, bah, je t'aurais, nique sa mère le code pénal, j'garde le gamos à Torre' et j'reprends l'bateau vers Benal' Avec oi-t, j'suis très adéquat, passe le micro, j'le déboîte, j'fais des showcases dans des boîtes, j'réinvestis tout dans des boîtes J'détaille le shit au teau-cou, Ultra Instinct Son Goku, la rotte-ca vient d'Ketama, la vengeance vient de Moscou Tu m'connais déjà, moi, c'est Yougataga, tu m'croises à Belleville, Casa' ou Malaga Moi, quand j'prends l'micro, c'est que pour faire des dégâts, chez moi, ça fait des euros que dans l'illégal J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger You might also like Oyoyooooooy, oyoyooooooy Oyoyooooooy, oyoyooooooy Moi, je fuck l'OCRTIS et la BRB, vaut mieux prendre 20 piges que finir chtarbé Face à la concu', j'connais pas l'fair-play, quand j'vois la Guardia, j'ai qu'envie d'gerber Si on coupe court, c'est qu'le regard en dit long, mec, t'as poucave ? Soit c'est oui, soit c'est non Des paies ou des peines hallucinantes, woh J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger Oyoyooooooy, oyoyooooooy Oyoyooooooy, j'reviens d'Tanger, ouais, c'est danger Oyoyooooooy, oyoyooooooy Oyoyooooooy, j'reviens d'Tanger, ouais, c'est danger</t>
+          <t>Nabz, nigga, what's up ? Oyoyoy Oyoyoy Oyoyoy Oyoyoy C'est un putain d'rap de chtarbé, ouais, darwa fait péter l'11, j'suis avec Hakim à Marbe', Aston Martin DB11 Tu fais l'malin, bah, je t'aurais, nique sa mère le code pénal, j'garde le gamos à Torre' et j'reprends l'bateau vers Benal' Avec oi-t, j'suis très adéquat, passe le micro, j'le déboîte, j'fais des showcases dans des boîtes, j'réinvestis tout dans des boîtes J'détaille le shit au teau-cou, Ultra Instinct Son Goku, la rotte-ca vient d'Ketama, la vengeance vient de Moscou Tu m'connais déjà, moi, c'est Yougataga, tu m'croises à Belleville, Casa' ou Malaga Moi, quand j'prends l'micro, c'est que pour faire des dégâts, chez moi, ça fait des euros que dans l'illégal J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger Oyoyooooooy, oyoyooooooy Oyoyooooooy, oyoyooooooy Moi, je fuck l'OCRTIS et la BRB, vaut mieux prendre 20 piges que finir chtarbé Face à la concu', j'connais pas l'fair-play, quand j'vois la Guardia, j'ai qu'envie d'gerber Si on coupe court, c'est qu'le regard en dit long, mec, t'as poucave ? Soit c'est oui, soit c'est non Des paies ou des peines hallucinantes, woh J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée J'suis vers La Línea, arrête ton cinéma, en live de Tanger, la gomme est chargée On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger On veut faire des loves, pas l'temps d'faire les loveurs On veut faire des loves, j'reviens d'Tanger, ouais, c'est danger Oyoyooooooy, oyoyooooooy Oyoyooooooy, j'reviens d'Tanger, ouais, c'est danger Oyoyooooooy, oyoyooooooy Oyoyooooooy, j'reviens d'Tanger, ouais, c'est danger</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ok, Quartier Hallam, Danube, Belleville, Abis, Yougata-blaaa Mes frères frôlent la perpet', rêve de bronzette à Pucket La hess coast c'est c'mec qui par en compet' au Fouquet C'est c'mec qui claque des pépèttes, celui qu'en a pas J'suis un poisson, l'quartier une canne à pêche, le Sheitan dans la poche J'suis dans l'impasse, le bonheur je l'attends Aucun diplôme c'est pas facile en plus je m'appelle pas Jonathan Donc t'imagines pas d'Hit Machine, en tant que musicien Dans nos ghetto pour 20 kilos certains deviennent des magiciens Ils disparaissent, réapparaissent, et c'est l'Kamasutra Beaucoup de mort 19ème trop d'corps ce ramassent sous l'drap Putain, RAPTA ou pas, pas besoin de ça pour être sincère J'suis pas le genre de mec qu'insulte ta mère après 5 verres Non, j'ai pas goutté la taule, ni touché la coke À cet heure-ci j'suis chaud bouillant pour douiller la taupe Poto, bref, la je ferme les parenthèses Dans l'rap j'arrive à ie-p, si tout ce passe bien j'repars en caisse La rue c'est brutale 19ème, Paris La rue c'est brutale La mort d'un seul loup fait l'bonheur de pleins d'renards La rue c'est brutale 19ème, capitale de l'argent sale La rue c'est brutale Y'a plus de coke que dans Blow que même dans Scarface You might also like Qui veut jouer sur notre terrain ne sentira que l'odeur de la pisse La chute fait mal hein, selon la hauteur d'la piste J'suis avec Abis aka Zougataga En 4 mesures de nous tu peux déjà jeter le CD tah beaucoup d'batards La mort d'un seul loup fait l'bonheur de pleins d'renards C'est la hess coast chez nous donc arrête de t'plaindre gros lard Le juge c'est l'physio, qu'empêche les taulards d'sortir Où va la jeunesse si ce n'est à la recherche de vos dollars sordide Carla Bruni c'est la nouvelle Marie-Antoinette Passe moi l'platine que toute ma peine j'la tape sur une Peugeot c'est des casse-tête, j'suis obligé d'leur cass-ded Suri m'a dit Même si t'as des poux, You, j'te prêterais ma casquette Surveillant fais passer ça à la 37 Aux arrivants j'suis Bob Marley, m'faut pas un baveux mais un litron d'zep Ok Yougataga même sans taga fuck les 37 Nous c'est pour marquer nos territoires toi c'est sur toi qu't'es en train d'sser-p Eh la 19, ouais ouais ouais Eh la 19, ouais DARWHA, attends attends, eh t'as reçu ? Eh mais pourquoi tu m'envoi une courgette ? Eh non c'est pour ton voisin, c'est pour ton voisin Lequel 36 ou 38 ? Ah ah tu connais 36, 36 C'est une courgette dit lui il ce la met dans l'cul Perdu dans un désert, où il y'a trop d'vodka dans l'oasis On galère pendant des heures en train d'cogiter sous cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans l'bâtiment sans être maçon tout comme Abis On va dire la vérité, chez nous peu d'VIP On fait des Douas pour les morts, on va pas taguer RIP Sur les murs non, car c'est nos rents-pa qui les repeignent En plus ils ont des oreilles donc soyons discret pour faire des sous khey J'suis trop déçu, quand j'vois un kho s'mettre à poucave Quand un bête de poto devient hijo de la puta Demande à Yougataga ça c'est pour les connaisseurs Toujours souriant, mes soucis sont voilés comme mes soeurs Ye zeh, DAHWHA on est tous dans la de-mer Maintenant on veut plus un scooter des mers mais un féfé dans l'container Dur de s'contenir, si à cet heure si j'ai l'moral C'est que j'viens d'faire un bon illet-bi ou que j'sors du d'Jumu'a REFRAIN La rue c'est brutale 19ème, Paris La rue c'est brutale La mort d'un seul loup fait l'bonheur de pleins d'renards La rue c'est brutale 19ème, capitale de l'argent sale La rue c'est brutale Y'a plus de coke que dans Blow que même dans Scarface</t>
+          <t>Ok, Quartier Hallam, Danube, Belleville, Abis, Yougata-blaaa Mes frères frôlent la perpet', rêve de bronzette à Pucket La hess coast c'est c'mec qui par en compet' au Fouquet C'est c'mec qui claque des pépèttes, celui qu'en a pas J'suis un poisson, l'quartier une canne à pêche, le Sheitan dans la poche J'suis dans l'impasse, le bonheur je l'attends Aucun diplôme c'est pas facile en plus je m'appelle pas Jonathan Donc t'imagines pas d'Hit Machine, en tant que musicien Dans nos ghetto pour 20 kilos certains deviennent des magiciens Ils disparaissent, réapparaissent, et c'est l'Kamasutra Beaucoup de mort 19ème trop d'corps ce ramassent sous l'drap Putain, RAPTA ou pas, pas besoin de ça pour être sincère J'suis pas le genre de mec qu'insulte ta mère après 5 verres Non, j'ai pas goutté la taule, ni touché la coke À cet heure-ci j'suis chaud bouillant pour douiller la taupe Poto, bref, la je ferme les parenthèses Dans l'rap j'arrive à ie-p, si tout ce passe bien j'repars en caisse La rue c'est brutale 19ème, Paris La rue c'est brutale La mort d'un seul loup fait l'bonheur de pleins d'renards La rue c'est brutale 19ème, capitale de l'argent sale La rue c'est brutale Y'a plus de coke que dans Blow que même dans Scarface Qui veut jouer sur notre terrain ne sentira que l'odeur de la pisse La chute fait mal hein, selon la hauteur d'la piste J'suis avec Abis aka Zougataga En 4 mesures de nous tu peux déjà jeter le CD tah beaucoup d'batards La mort d'un seul loup fait l'bonheur de pleins d'renards C'est la hess coast chez nous donc arrête de t'plaindre gros lard Le juge c'est l'physio, qu'empêche les taulards d'sortir Où va la jeunesse si ce n'est à la recherche de vos dollars sordide Carla Bruni c'est la nouvelle Marie-Antoinette Passe moi l'platine que toute ma peine j'la tape sur une Peugeot c'est des casse-tête, j'suis obligé d'leur cass-ded Suri m'a dit Même si t'as des poux, You, j'te prêterais ma casquette Surveillant fais passer ça à la 37 Aux arrivants j'suis Bob Marley, m'faut pas un baveux mais un litron d'zep Ok Yougataga même sans taga fuck les 37 Nous c'est pour marquer nos territoires toi c'est sur toi qu't'es en train d'sser-p Eh la 19, ouais ouais ouais Eh la 19, ouais DARWHA, attends attends, eh t'as reçu ? Eh mais pourquoi tu m'envoi une courgette ? Eh non c'est pour ton voisin, c'est pour ton voisin Lequel 36 ou 38 ? Ah ah tu connais 36, 36 C'est une courgette dit lui il ce la met dans l'cul Perdu dans un désert, où il y'a trop d'vodka dans l'oasis On galère pendant des heures en train d'cogiter sous cannabis Nous c'est en sortant et en arrivant qu'on se fait la bise On travaille dans l'bâtiment sans être maçon tout comme Abis On va dire la vérité, chez nous peu d'VIP On fait des Douas pour les morts, on va pas taguer RIP Sur les murs non, car c'est nos rents-pa qui les repeignent En plus ils ont des oreilles donc soyons discret pour faire des sous khey J'suis trop déçu, quand j'vois un kho s'mettre à poucave Quand un bête de poto devient hijo de la puta Demande à Yougataga ça c'est pour les connaisseurs Toujours souriant, mes soucis sont voilés comme mes soeurs Ye zeh, DAHWHA on est tous dans la de-mer Maintenant on veut plus un scooter des mers mais un féfé dans l'container Dur de s'contenir, si à cet heure si j'ai l'moral C'est que j'viens d'faire un bon illet-bi ou que j'sors du d'Jumu'a REFRAIN La rue c'est brutale 19ème, Paris La rue c'est brutale La mort d'un seul loup fait l'bonheur de pleins d'renards La rue c'est brutale 19ème, capitale de l'argent sale La rue c'est brutale Y'a plus de coke que dans Blow que même dans Scarface</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Là j'prend lmicro j'lui baise sa mère pour tous mes brothers Tous les jours on s'lève à 14 heures Voire à 17 ou à 18 et hop là direction l19 Il faut d'la cons départ tout d'suite, ils ont que d'la peuf les p'tits reufs Ils rêvent que d'oseille et des meufs Non ils sont pas comme Martin Luther King, ils s'en battent les couilles d'leur refrés tant quils ont leur féfé dans lparking Ça bicrave la coke ouais sa mère et son frère Trop d'rappeurs, on dirait des raclis, quand tu sras dans la merde on verra y'aura qui En plein désert ça t'prête un chauffage Ça t'gratte la cons juste après un go fast Les temps ils ont changé, que veux-tu qu'on fasse ? On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Quand on serre la ceinture c'est pas pour Hermès Nique ta mère ici c'est pas la kermesse Y'a trop d'rappeurs avec leur fric ils me stressent J'te rentre ma bite dans la che-bou, juste histoire que ça s'déroule J'vends du sommeil à ceux qui dorment debout J'les baise à quatre pattes même sur un deux-roues J'connais des blindés qui traînent dans le hood, des têtes cramées à faire flipper les jnouns J'ai qu'un seul flingue mais pour toi y a deux trous Des boules à Z tu trouveras pas de poux You might also like fuck les ripoux on refait le monde quand on est ré-bou Dans nos têtes c'est la guerre, ouais, ouais c'est Kaboul Big up Lits superposés, joints bien dosés, putain d'enfance de bâtard Etant jeune t'as baisé, les keufs t'ont baisé, pis t'as finis au placard Ça fait quatre jours t'as l'même çon-cal qu'en arrivant J'viens d'croiser l'juge, il t'a d'mandé pourquoi tu vends ? Tu lui as dis nique ta grand-mère là sale bâtard, c'est pas toi qui m'envoie , moi ce soir j'dors au placard Neuf millimètres, 11.43, 3.5.7, la tête est haute, le doigt il est sur la gâchette On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Ok pour commencer, j'vais pas tabasser J'vais juste te gifler et t'montrer comment c'est Quand la street s'énerve pas besoin d'te crosser Pas besoin d'kalash, pas besoin d't'arroser Le proc t'prend pour une merde, il a regardé vingt-deux années, mais plutôt qu'prendre perpète tu préfères canner T'as cavalé, t'as dealé, t'as tiré, t'as braqué, t'as fait investir des frères dans des putains d'affaires et au final ils ont voulu t'la faire On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Ouais c'est la street, bah ouais c'est la street Ça c'est la street, bien-sûr qu'c'est la street Ouais c'est la street, ouais, ouais c'est la street Ça c'est la street, ah ça c'est la street1</t>
+          <t>Là j'prend lmicro j'lui baise sa mère pour tous mes brothers Tous les jours on s'lève à 14 heures Voire à 17 ou à 18 et hop là direction l19 Il faut d'la cons départ tout d'suite, ils ont que d'la peuf les p'tits reufs Ils rêvent que d'oseille et des meufs Non ils sont pas comme Martin Luther King, ils s'en battent les couilles d'leur refrés tant quils ont leur féfé dans lparking Ça bicrave la coke ouais sa mère et son frère Trop d'rappeurs, on dirait des raclis, quand tu sras dans la merde on verra y'aura qui En plein désert ça t'prête un chauffage Ça t'gratte la cons juste après un go fast Les temps ils ont changé, que veux-tu qu'on fasse ? On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Quand on serre la ceinture c'est pas pour Hermès Nique ta mère ici c'est pas la kermesse Y'a trop d'rappeurs avec leur fric ils me stressent J'te rentre ma bite dans la che-bou, juste histoire que ça s'déroule J'vends du sommeil à ceux qui dorment debout J'les baise à quatre pattes même sur un deux-roues J'connais des blindés qui traînent dans le hood, des têtes cramées à faire flipper les jnouns J'ai qu'un seul flingue mais pour toi y a deux trous Des boules à Z tu trouveras pas de poux fuck les ripoux on refait le monde quand on est ré-bou Dans nos têtes c'est la guerre, ouais, ouais c'est Kaboul Big up Lits superposés, joints bien dosés, putain d'enfance de bâtard Etant jeune t'as baisé, les keufs t'ont baisé, pis t'as finis au placard Ça fait quatre jours t'as l'même çon-cal qu'en arrivant J'viens d'croiser l'juge, il t'a d'mandé pourquoi tu vends ? Tu lui as dis nique ta grand-mère là sale bâtard, c'est pas toi qui m'envoie , moi ce soir j'dors au placard Neuf millimètres, 11.43, 3.5.7, la tête est haute, le doigt il est sur la gâchette On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Ok pour commencer, j'vais pas tabasser J'vais juste te gifler et t'montrer comment c'est Quand la street s'énerve pas besoin d'te crosser Pas besoin d'kalash, pas besoin d't'arroser Le proc t'prend pour une merde, il a regardé vingt-deux années, mais plutôt qu'prendre perpète tu préfères canner T'as cavalé, t'as dealé, t'as tiré, t'as braqué, t'as fait investir des frères dans des putains d'affaires et au final ils ont voulu t'la faire On a peur de sonne-per, ouais c'est la street Nique ta mère et ton père, bah ouais c'est la street Détaillant grossiste, ça c'est la street RS3 RS6, bien-sûr c'est la street Fais attention bsahtek, ouais c'est la street Tanger, Marbe, ouais, ouais c'est la street , c'est la street On va t'allumer, ah ça c'est la street Ouais c'est la street, bah ouais c'est la street Ça c'est la street, bien-sûr qu'c'est la street Ouais c'est la street, ouais, ouais c'est la street Ça c'est la street, ah ça c'est la street1</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>This isnt by AymeNME . i make rap in english thats itYou might also like</t>
+          <t>This isnt by AymeNME . i make rap in english thats it</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Aucun bâtard m'a écrit bien que Fat-Joe soit devenu gre-mai Je vois que le ciel est gris et que la crosse de mon Pushka elle est chromé Les faux je vais les détrôner Du FéFé ils vont passer au tro-mé Parole de Yougata-ouais ouais ça je te le promet Je vais la faire comme vous vouliez Fuck le bleu je veux du violet Comme Aboubakar au placard ça va sacrifier du poulet C'est pour Zraven et BimBim sans oublier Soulé Je crois que l'être humain il est fait d'alcool tellement qu'il m'a saoulé Sans les toucher faut les couler Si tu touches une tonne faut l'écouler Ou crois moi que le sang va couler et que tes frérots seront cagoulés en bas de chez oi-t Un peu comme si il se passait rien Et puis tu te feras fumer comme un Syrien Dans la ville de Racca Bienvenue dans ma Zanka Pas de Mazeltov pas de Pasartek nan ça défouraille sec Le jour de ton mariage ça prémédite tes obsèques Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poukaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Si tu me dois du zeille-o non me sort pas tout un scénar' Sur une instru tah Hades Big-up à tout les zonards C'est pour mes frérots les taulards On fuck le proc ce gros lard Roule un zdeh on redémarre Coupable comme Raddad Omar La vie c'est comme un mur t'es le clou ou bien t'es le teau-mar Mon meilleur pote s'appelle Jean son nom de famille c'est Neymar You might also like Le procureur a était sévère nos mères ont trop souffert Le daron persévère car faut rester fier Avec moi pour piloter le Mic' pas besoin de péter le neiman Nan suffit juste que je m'en approche pour que toute ma rage en émane Avec moi pour piloter le Mic' pas besoin de péter le neiman Suffit de voir la daronne au parloir pour que le cur il est mal Hé mon ami, tu connais le dicton dans la rue ? Si ce que t'as à dire n'est pas plus beau que le silence Et bah FERME TA GUEULE Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poucaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poucaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Eh ouais ma gueule t'auras beau nourrir, loger, blanchir à la fin ils vont manger Ils voudront repartir avec l'assiette et les couverts Et ils te diront c'était pas bon ces fils de putes Yougataga ma gueule Brrrraaaahhh</t>
+          <t>Aucun bâtard m'a écrit bien que Fat-Joe soit devenu gre-mai Je vois que le ciel est gris et que la crosse de mon Pushka elle est chromé Les faux je vais les détrôner Du FéFé ils vont passer au tro-mé Parole de Yougata-ouais ouais ça je te le promet Je vais la faire comme vous vouliez Fuck le bleu je veux du violet Comme Aboubakar au placard ça va sacrifier du poulet C'est pour Zraven et BimBim sans oublier Soulé Je crois que l'être humain il est fait d'alcool tellement qu'il m'a saoulé Sans les toucher faut les couler Si tu touches une tonne faut l'écouler Ou crois moi que le sang va couler et que tes frérots seront cagoulés en bas de chez oi-t Un peu comme si il se passait rien Et puis tu te feras fumer comme un Syrien Dans la ville de Racca Bienvenue dans ma Zanka Pas de Mazeltov pas de Pasartek nan ça défouraille sec Le jour de ton mariage ça prémédite tes obsèques Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poukaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Si tu me dois du zeille-o non me sort pas tout un scénar' Sur une instru tah Hades Big-up à tout les zonards C'est pour mes frérots les taulards On fuck le proc ce gros lard Roule un zdeh on redémarre Coupable comme Raddad Omar La vie c'est comme un mur t'es le clou ou bien t'es le teau-mar Mon meilleur pote s'appelle Jean son nom de famille c'est Neymar Le procureur a était sévère nos mères ont trop souffert Le daron persévère car faut rester fier Avec moi pour piloter le Mic' pas besoin de péter le neiman Nan suffit juste que je m'en approche pour que toute ma rage en émane Avec moi pour piloter le Mic' pas besoin de péter le neiman Suffit de voir la daronne au parloir pour que le cur il est mal Hé mon ami, tu connais le dicton dans la rue ? Si ce que t'as à dire n'est pas plus beau que le silence Et bah FERME TA GUEULE Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poucaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Non c'est pas des paparazzis planqués dans les hautes herbes Y'a trop de Poucaves, trop d' H3iner et aussi l'Octris qui t'observent Nous quand on bouge de là c'est pas par rapport à Solaar Même Khabta je me tiens droit c'est le comble pour un soûlard Eh ouais ma gueule t'auras beau nourrir, loger, blanchir à la fin ils vont manger Ils voudront repartir avec l'assiette et les couverts Et ils te diront c'était pas bon ces fils de putes Yougataga ma gueule Brrrraaaahhh</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Fuck, fuck Ferrero je vends des rocher Je rentre par où les keufs sont entrain de minterroger Freestyle dans ton logis dans mon logis on mappelle Rouji Jallume ta vitre au glock pas la bougie 19éme ? Si tu veux te test tu vas te faire niquer Je graille comme maya je bois comme un viking Je visser même quand la zone est fliquée On rap pour les bonhommes on fuck les pétasses On mise des grosses sommes on a le carré dAs Gros cest yougatazoo là je rap en direct du zoo Gros porc ? côté match on pourrait ligoter Zizou Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a You might also like On mappelle F.A.D jai l'calé pour téclater Ramène la chatte à ta mère je vais en faire de la chaire à pâté Je suis là pour faire de loseille, les guetteurs ? Les 3ineurs niquer vos mères et vos pères les ? Le compte à rebours est lancer Cest interdit de balancer On veut peser notre pensée Cest notre manière de pensée Jatteins une certaine stabilité, jai des responsabilités Par où la comptabilité, il pleut des euros sur tout lété ? une opportunité, suffit dune balle pour tout niquer On te ken sans faire de publicité, comme ça que ça se passe dans la cité Les mecs en valca sont toujours là, leurs ze-bla nont pas besoin dêtre cité Suffit pas dêtre pour exister ou juste une lettre pour assister Assise correctionnelle se désister ou persister Yougataga dans tes oreilles les chiens les chiennes sont excités Ils ont aucune possibilité de mapprocher, ils peuvent quaboyer Ce matin les keufs mont contrôlé, mont reconnu, mont vouvoyé Je veux ? le proprio fuck le loyer Gros les impôts rêvent de me noyer Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a</t>
+          <t>Fuck, fuck Ferrero je vends des rocher Je rentre par où les keufs sont entrain de minterroger Freestyle dans ton logis dans mon logis on mappelle Rouji Jallume ta vitre au glock pas la bougie 19éme ? Si tu veux te test tu vas te faire niquer Je graille comme maya je bois comme un viking Je visser même quand la zone est fliquée On rap pour les bonhommes on fuck les pétasses On mise des grosses sommes on a le carré dAs Gros cest yougatazoo là je rap en direct du zoo Gros porc ? côté match on pourrait ligoter Zizou Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a On mappelle F.A.D jai l'calé pour téclater Ramène la chatte à ta mère je vais en faire de la chaire à pâté Je suis là pour faire de loseille, les guetteurs ? Les 3ineurs niquer vos mères et vos pères les ? Le compte à rebours est lancer Cest interdit de balancer On veut peser notre pensée Cest notre manière de pensée Jatteins une certaine stabilité, jai des responsabilités Par où la comptabilité, il pleut des euros sur tout lété ? une opportunité, suffit dune balle pour tout niquer On te ken sans faire de publicité, comme ça que ça se passe dans la cité Les mecs en valca sont toujours là, leurs ze-bla nont pas besoin dêtre cité Suffit pas dêtre pour exister ou juste une lettre pour assister Assise correctionnelle se désister ou persister Yougataga dans tes oreilles les chiens les chiennes sont excités Ils ont aucune possibilité de mapprocher, ils peuvent quaboyer Ce matin les keufs mont contrôlé, mont reconnu, mont vouvoyé Je veux ? le proprio fuck le loyer Gros les impôts rêvent de me noyer Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a Moi à la base je voulais golri mais je comptais pas faire mal au ? Mais ça fait 10 ans que je suis là que je leur mets que des tri7a Ils me font des rappels ils connaissent même pas la fati7a</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'ai vu qu'l'amour, c'était vraiment un truc de taré Quand nos sentiments ont commencé à se déclarer Lorsque sa présence me servait de pur bonheur Aujourd'hui, j'suis seul et je repense à hier Mon cur est rempli d'balafres, c'est la seule qui connaisse ma life J'avoue, c'est un truc de malade comment nos deux corps s'adaptent On pourrait faire ça toute la night, on aurait pu fonder une mille-fa Tous les deux, on formait une mafia mais aujourd'hui, c'est terminé Yeah, yeah, yeah, yeah On a fini par se faire du mal, moi qui voulait la marier Oui, je l'aimais, je l'aimerai J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin You might also like On s'est quittés quitte à souffrir, on a vécu l'meilleur, on a vécu l'pire Dire que j'l'avais pas du tout vu v'nir, aujourd'hui, l'amour n'est rien qu'un souvenir Elle scintille comme une étoile dans l'ciel, son sourire étincelle, son regard un zder, yeah Elle m'a trop fait tourner la tête, faisons la paix, fini la guerre On a fini par se faire du mal, moi qui voulait la marier Oui, je l'aimais, je l'aimerai J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin</t>
+          <t>J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'ai vu qu'l'amour, c'était vraiment un truc de taré Quand nos sentiments ont commencé à se déclarer Lorsque sa présence me servait de pur bonheur Aujourd'hui, j'suis seul et je repense à hier Mon cur est rempli d'balafres, c'est la seule qui connaisse ma life J'avoue, c'est un truc de malade comment nos deux corps s'adaptent On pourrait faire ça toute la night, on aurait pu fonder une mille-fa Tous les deux, on formait une mafia mais aujourd'hui, c'est terminé Yeah, yeah, yeah, yeah On a fini par se faire du mal, moi qui voulait la marier Oui, je l'aimais, je l'aimerai J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin On s'est quittés quitte à souffrir, on a vécu l'meilleur, on a vécu l'pire Dire que j'l'avais pas du tout vu v'nir, aujourd'hui, l'amour n'est rien qu'un souvenir Elle scintille comme une étoile dans l'ciel, son sourire étincelle, son regard un zder, yeah Elle m'a trop fait tourner la tête, faisons la paix, fini la guerre On a fini par se faire du mal, moi qui voulait la marier Oui, je l'aimais, je l'aimerai J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin J'l'emmènerai bien vers Marrakech, Bali, Dubaï et Punta Cana Qu'est-ce qu'elle est belle, qu'est-ce qu'elle est fraîche Elle veut d'un homme et pas d'un gamin, un gamin</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>... Djibna c'est mon blaze dans ce biz un mec sorti du 19 ... Quand les keufs vont à la chasse nous comme des bêtes on court Les médias salissent l'islam on encule la race à Bettancourt On ne fait pas un concours de suceurs le premier gagne un concombre On veut connaître des stars pour les rotteca comme Rocancourt Si tu cherches la merde j'ai plus d'un gun vers mes poubelles ... J'ai plus d'un glock dans mon froc okay s'te plaît reste minable Quand ls keufs vont à la chasse nous comme ds bêtes on court Les médias salissent l'islam on encule la race à Bettancourt On ne fait pas un concours de suceurs ... ... Moi j'suis trop ghetto il te faut des couilles ...You might also like</t>
+          <t>... Djibna c'est mon blaze dans ce biz un mec sorti du 19 ... Quand les keufs vont à la chasse nous comme des bêtes on court Les médias salissent l'islam on encule la race à Bettancourt On ne fait pas un concours de suceurs le premier gagne un concombre On veut connaître des stars pour les rotteca comme Rocancourt Si tu cherches la merde j'ai plus d'un gun vers mes poubelles ... J'ai plus d'un glock dans mon froc okay s'te plaît reste minable Quand ls keufs vont à la chasse nous comme ds bêtes on court Les médias salissent l'islam on encule la race à Bettancourt On ne fait pas un concours de suceurs ... ... Moi j'suis trop ghetto il te faut des couilles ...</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ethan Jackson à la prod' Tu nous racontes des trucs mais on s'en bat les couilles, mémère On veut faire du biff, repartir pépère pépère Besoin du bord de mer, l'océan essuiera les larmes de ma mère ma mère J'ai fait plein d'collèges pour au final, trouver le mien, le studio ressoudra tous mes problèmes Devant Rébeval, mon premier 16 est sorti, c'est pour ça que je n'oublierais pas mes collègues on les oubli pas J'ai touché des tales, c'est pour ça qu'lle m'aime, j'ai plus de folles que de frères qui m'aident Y a rien d'plus bâtard que c'putain d'système, c'est pour ça que je vais leur glisser en scred en scred C'est pour les lovés qu'on le fait, dans la vie, rien n'est faux, c'est pas un compte de fée Eh, on est côté, sur la côte, on graille des entrecôtes, du couscous, du mafé Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens La capitale, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens You might also like Quand on fout l'dahwa, c'est que pour la monnaie, Mister Yougataga, KaNoé L'être humain l'plus mauvais animal, tu m'crois pas, tu demandes à Noé J'ai trop d'frères à Fresnes et de frais annuels, j'ai que d'la haine à offrir à Noël Bébé du ghetto est devenu poète, j'guette les mouettes en buvant du Moët Mec du showbiz ne vaut pas une cacahuète cacahuète Ça t'fait la bise, le lendemain, ça rêve de t'uer-t rêve de t'uer-t Dans, dans, dans la rue, c'est un peu trop trash, ils parlent de nous dans les reportages On, on la touche au prix d'touche, on, on la touche à l' Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens La capitale, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Eh, eh, eh, ça dit quoi aujourd'hui ? You, dis-leur qu'on rigole pas Eux, ils m'ont pris pour un p'tit, demain, je serais leur papa Ouais, ça dit quoi aujourd'hui ? KaNoé, dis-leur qu'on rigole pas Eux, c'est tous des abrutis, chez nous, le savoir est palpable Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Yeah, yeah, yeah, yeah Woh, woh, woh, woh, woh, woh Yeah, yeah, yeah, yeah Woh, woh, woh, woh, woh, woh Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens</t>
+          <t>Ethan Jackson à la prod' Tu nous racontes des trucs mais on s'en bat les couilles, mémère On veut faire du biff, repartir pépère pépère Besoin du bord de mer, l'océan essuiera les larmes de ma mère ma mère J'ai fait plein d'collèges pour au final, trouver le mien, le studio ressoudra tous mes problèmes Devant Rébeval, mon premier 16 est sorti, c'est pour ça que je n'oublierais pas mes collègues on les oubli pas J'ai touché des tales, c'est pour ça qu'lle m'aime, j'ai plus de folles que de frères qui m'aident Y a rien d'plus bâtard que c'putain d'système, c'est pour ça que je vais leur glisser en scred en scred C'est pour les lovés qu'on le fait, dans la vie, rien n'est faux, c'est pas un compte de fée Eh, on est côté, sur la côte, on graille des entrecôtes, du couscous, du mafé Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens La capitale, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Quand on fout l'dahwa, c'est que pour la monnaie, Mister Yougataga, KaNoé L'être humain l'plus mauvais animal, tu m'crois pas, tu demandes à Noé J'ai trop d'frères à Fresnes et de frais annuels, j'ai que d'la haine à offrir à Noël Bébé du ghetto est devenu poète, j'guette les mouettes en buvant du Moët Mec du showbiz ne vaut pas une cacahuète cacahuète Ça t'fait la bise, le lendemain, ça rêve de t'uer-t rêve de t'uer-t Dans, dans, dans la rue, c'est un peu trop trash, ils parlent de nous dans les reportages On, on la touche au prix d'touche, on, on la touche à l' Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens La capitale, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Eh, eh, eh, ça dit quoi aujourd'hui ? You, dis-leur qu'on rigole pas Eux, ils m'ont pris pour un p'tit, demain, je serais leur papa Ouais, ça dit quoi aujourd'hui ? KaNoé, dis-leur qu'on rigole pas Eux, c'est tous des abrutis, chez nous, le savoir est palpable Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Yeah, yeah, yeah, yeah Woh, woh, woh, woh, woh, woh Yeah, yeah, yeah, yeah Woh, woh, woh, woh, woh, woh Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens Rébéval, chez nous, y a qu'des magiciens magiciens À la fin du bal, faudra payer les musiciens musiciens</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? - Alpha, toi tu participes pas comme euh... - J'étais pas bourré, à jeun, j'étais à jeun, ouais, - La logique vraiment dans l'ceau-mor - Mais, il est ien-b, hein - Lui, c'est un rappeur de base - Et alors ? Toi, t'es un rappeur ? Il a qu'des remords, wAllah, lui dis pas, j'lui dis Monte sur scène avec moi. Il m'a dit Non, wAllah. Après ça, j'ai dis quoi ? Gros, tu serais moi, il m'a dit Par Allah, j'meurs direct. Là, on est devant l'micro', lui, il veut que rapper - Oh putain, on va croire que - Les deux font la paire J'me suis levé d'bonne heure, l'avenir m'appartient pas Il m'a dit J'veux m'en aller, j'lui ai dis J'te retiens pas J'ai côtoyé l'bonheur, c'est vrai qu'c'était sympa C'tte heure-ci, j'suis dans la street et j'suis là, j'fais les cents pas J'suis un raclo d'la pire espèce, je fais ce que je veux Quand j'repense à toutes mes exs, j'les compte sur mes cheveux Avec Bazoo et dans l'tieks, on a fait des envieux Moi, tu m'connais, j'suis le best, vandale une fois vieux Dans les deux cas, on a fait du sale, des transactions de ouf Sur la rue Rébéval, du pilon, de la schnouf On a volé des tas d'billets jaunes et violets comme les Lakers On a côtoyé les banquiers, on a côtoyé les crackers You might also like On fuck la juge, on fuck le proc', on fuck le commissaire On a grandi dans la street, on a connu la misère Viens chez moi, ne compte plus tout c'qu'on a visser Chez nous, y a plus de blanche que dans le Val d'Isère Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Accélère sur l'autoroute accélère sur l'autoroute, j'prépare les dirhams au péage j'prépare les dirhams au péage Ce soir, on va en découdre ce soir, on va en découdre, à la ble-ta, y a trop d'biatchs J'suis un gars d'la rue qui a galéré, en bas d'chez moi, j'ai trop erré Entouré d'mes enfoirés, tout ceux qu'la juge peut pas blairer De la cavale à Rébeval, de la street au Zénith J'suis un putain d'retour de flamme, Mister You fait l'phénix On fuck la juge, on fuck le proc', on fuck le commissaire On a grandi dans la street, on a connu la misère Viens chez moi, ne compte plus tout c'qu'on a visser Chez nous, y a plus de blanche que dans le Val d'Isère Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley La street s'endort, on va la réveiller On l'a charclée, tu vas la détailler Quand faudra payer, faudra pas bégayer Ou bien les balles vont fuser, les keufs vont nous balayer La street s'endort, on va la réveiller On l'a charclée, tu vas la détailler Quand faudra payer, faudra pas bégayer Ou bien les balles vont fuser, les keufs vont nous balayer Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley On rend fou les condés, moi, j'fais que d'les balader Si tu joues le fou, crois-moi qu'on va pas t'rater Bâtaradé, balle dans la tête, tête, tête</t>
+          <t>Nabz, nigga, what's up ? - Alpha, toi tu participes pas comme euh... - J'étais pas bourré, à jeun, j'étais à jeun, ouais, - La logique vraiment dans l'ceau-mor - Mais, il est ien-b, hein - Lui, c'est un rappeur de base - Et alors ? Toi, t'es un rappeur ? Il a qu'des remords, wAllah, lui dis pas, j'lui dis Monte sur scène avec moi. Il m'a dit Non, wAllah. Après ça, j'ai dis quoi ? Gros, tu serais moi, il m'a dit Par Allah, j'meurs direct. Là, on est devant l'micro', lui, il veut que rapper - Oh putain, on va croire que - Les deux font la paire J'me suis levé d'bonne heure, l'avenir m'appartient pas Il m'a dit J'veux m'en aller, j'lui ai dis J'te retiens pas J'ai côtoyé l'bonheur, c'est vrai qu'c'était sympa C'tte heure-ci, j'suis dans la street et j'suis là, j'fais les cents pas J'suis un raclo d'la pire espèce, je fais ce que je veux Quand j'repense à toutes mes exs, j'les compte sur mes cheveux Avec Bazoo et dans l'tieks, on a fait des envieux Moi, tu m'connais, j'suis le best, vandale une fois vieux Dans les deux cas, on a fait du sale, des transactions de ouf Sur la rue Rébéval, du pilon, de la schnouf On a volé des tas d'billets jaunes et violets comme les Lakers On a côtoyé les banquiers, on a côtoyé les crackers On fuck la juge, on fuck le proc', on fuck le commissaire On a grandi dans la street, on a connu la misère Viens chez moi, ne compte plus tout c'qu'on a visser Chez nous, y a plus de blanche que dans le Val d'Isère Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Accélère sur l'autoroute accélère sur l'autoroute, j'prépare les dirhams au péage j'prépare les dirhams au péage Ce soir, on va en découdre ce soir, on va en découdre, à la ble-ta, y a trop d'biatchs J'suis un gars d'la rue qui a galéré, en bas d'chez moi, j'ai trop erré Entouré d'mes enfoirés, tout ceux qu'la juge peut pas blairer De la cavale à Rébeval, de la street au Zénith J'suis un putain d'retour de flamme, Mister You fait l'phénix On fuck la juge, on fuck le proc', on fuck le commissaire On a grandi dans la street, on a connu la misère Viens chez moi, ne compte plus tout c'qu'on a visser Chez nous, y a plus de blanche que dans le Val d'Isère Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley La street s'endort, on va la réveiller On l'a charclée, tu vas la détailler Quand faudra payer, faudra pas bégayer Ou bien les balles vont fuser, les keufs vont nous balayer La street s'endort, on va la réveiller On l'a charclée, tu vas la détailler Quand faudra payer, faudra pas bégayer Ou bien les balles vont fuser, les keufs vont nous balayer Yeah, yeah, yeah Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley Il faut d'l'oseille, on rêve de s'en aller C'est Belleville-zoo, on laisse les gens parler J'pilote le RS3 et j'fais que d'bombarder J'suis vers Ketama et j'vis comme Bob Marley On rend fou les condés, moi, j'fais que d'les balader Si tu joues le fou, crois-moi qu'on va pas t'rater Bâtaradé, balle dans la tête, tête, tête</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>J'arrive du coin d'la rue, de l'angle ou du hall La où les képis et les stups nous braque avec des flash-ball Mes paroles ne sont pas des hyperboles de zoulous Et au passage j'oublie pas de dire je viens d'où Belleville ! Pour la génération baise tout, litron taille des siste-gro Roule en 205, Q7 ou merco Du merco au seum, on shlass et on sème Ca béton pour teum-teum mais on récole c'qu'on sème En vie et entier, si t'écris on va en chier Avant de t'retrouver en chien, réveille toi bouge toi Reste pas sur l'té-co a regarder les péquenots et les deks ho Tu n'fais pas partie d'la déco Pour les frères qui traînent le soir tard En bas vendent du sbar, qu'assument a la barre Que la dalle a baptisé ton lâche J'ai grandi dans la violence, dans l'insouciance Dans l'enfance je voyais des voyous dehors en trans Des clochards ivres morts dormant sur l'bitume J'ai acquis l'amertume et j'aime les grosses thunes Entre une overdose de came ou de crack on garde ses crack Apres une bavure sur un innocent faite par la bac Ils croient qu'on joue à chat mais on est des lions pas des souris Et eux, comme des rats, c'est tous des troufions ou des pourris Ça fait sourire, dans 2 minutes tu vas pleurer Espèce de keffir, a genoux devant nous tu vas implorer L'pardon d'ton créateur, y'a qu'en va mal qu'tu connais Tu n'y crois même pas, starfellah tu pries jamais You might also like Tu pries jamais, p'tit fils de pute, on va t'niquer ta grand mère la pute C'est pour les rues d'courti, bisson et palicao C'est l'son des taudis si tu kiffe pas ben on t'met un K.O Big up ko et abdoulaye, mon baveux c'est kabousso Test Belleville et ta cervelle rimera avec éclaboussure Vas-y boussah tmenik, t'sais bien qu'j'suis déterminé Joue pas les Scarface dahwah t'es qu'un dessin animé Ça vient d'ris-Pa click brah, ça met des bananes et des carottes Ça ralentit pas ça prend les dos dânes a 2.40 C'est pour ceux qui ont déjà mis des buts comme Sékou Diamé C'est pour les frères ouais les vrais qui n'se quittent jamais Ceux qui gé-man la melle-ga comme le poto souri C'est Mister yougataga tu connais la story Faut faire du fric avant d'se faire sauter par les flics Le 36 quand ils saisissent 1 tonne ils déclarent 1 stick Dans mon zoo mon gars ce n'est plus smookie qui adore s'embrouiller Ah ougataga ils s'font vite douiller les David Douillé Ah ha-ttention</t>
+          <t>J'arrive du coin d'la rue, de l'angle ou du hall La où les képis et les stups nous braque avec des flash-ball Mes paroles ne sont pas des hyperboles de zoulous Et au passage j'oublie pas de dire je viens d'où Belleville ! Pour la génération baise tout, litron taille des siste-gro Roule en 205, Q7 ou merco Du merco au seum, on shlass et on sème Ca béton pour teum-teum mais on récole c'qu'on sème En vie et entier, si t'écris on va en chier Avant de t'retrouver en chien, réveille toi bouge toi Reste pas sur l'té-co a regarder les péquenots et les deks ho Tu n'fais pas partie d'la déco Pour les frères qui traînent le soir tard En bas vendent du sbar, qu'assument a la barre Que la dalle a baptisé ton lâche J'ai grandi dans la violence, dans l'insouciance Dans l'enfance je voyais des voyous dehors en trans Des clochards ivres morts dormant sur l'bitume J'ai acquis l'amertume et j'aime les grosses thunes Entre une overdose de came ou de crack on garde ses crack Apres une bavure sur un innocent faite par la bac Ils croient qu'on joue à chat mais on est des lions pas des souris Et eux, comme des rats, c'est tous des troufions ou des pourris Ça fait sourire, dans 2 minutes tu vas pleurer Espèce de keffir, a genoux devant nous tu vas implorer L'pardon d'ton créateur, y'a qu'en va mal qu'tu connais Tu n'y crois même pas, starfellah tu pries jamais Tu pries jamais, p'tit fils de pute, on va t'niquer ta grand mère la pute C'est pour les rues d'courti, bisson et palicao C'est l'son des taudis si tu kiffe pas ben on t'met un K.O Big up ko et abdoulaye, mon baveux c'est kabousso Test Belleville et ta cervelle rimera avec éclaboussure Vas-y boussah tmenik, t'sais bien qu'j'suis déterminé Joue pas les Scarface dahwah t'es qu'un dessin animé Ça vient d'ris-Pa click brah, ça met des bananes et des carottes Ça ralentit pas ça prend les dos dânes a 2.40 C'est pour ceux qui ont déjà mis des buts comme Sékou Diamé C'est pour les frères ouais les vrais qui n'se quittent jamais Ceux qui gé-man la melle-ga comme le poto souri C'est Mister yougataga tu connais la story Faut faire du fric avant d'se faire sauter par les flics Le 36 quand ils saisissent 1 tonne ils déclarent 1 stick Dans mon zoo mon gars ce n'est plus smookie qui adore s'embrouiller Ah ougataga ils s'font vite douiller les David Douillé Ah ha-ttention</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Les temps actuels déçoivent, nous remontent pas le moral Pourquoi on râle, observe mon constat visuel Vis nos vies, tu verras qu'y'a peu de joie dans les ruelles Et ce détail veut nous appâter dans le piège comme des ânes bâtés Si mon ssiste-gro il serait sicilien, je débiterais plus que Tati Je niquerais Carla et Cécilia ainsi que Rachida Dati Diakite, Belmadi m'ont dit de te dire qu'ils sont vénères Si je fais un gosse je l'appelle condi sur la vie de ma mère Cher monsieur le président va niquer tes morts Ton discours est trop amer dehwa va niquer ta mère Trop les crocs gros c'est le remake des Dents de la mer Quand y'a les keufs on dit tous qu'ils veulent nous mettre dans de la merde Cher monsieur le président va niquer tes morts Ton discours est trop amer je répète va niquer ta mère Là on a plus de repères donc on agit anormalement Faire le cher monsieur le président va niquer ta maman Dans ma plume la situation je la résume Sans aucune substance sans diplôme et sans résine Que ceux qui écoutent désapprouvent ou s'en résignent Je m'adresse aux dirigeants et du doigt je les désigne De parent résident j'encule Sarkozy évident Le ghetto on vit dedans On est géman on dupe la juge le gouvernement le proc et la police aisément Aigrement on parle de tous ces faits gênants Cher monsieur le président je m'adresse à oit Dans ton trou de balle je mets le oid J'ai un bon fond à ton égard je peux que rester bad Eh ouais je m'en bats que les RG focalisent sur notre audimat C'est pas le cachot ni leurs poulets qui vont me traumatiser Bah qu'ils viennent c'est de la haine En tirer public on la baise du bout du stylo bic On taffe pour eux pour grailler des pépites You might also like D5 D4 eh chez nous y'a que des P4 Si on respecte Chirac c'est pour ces rottes ca sur les frégates Des payes de tortionnaire et ça sans même lever le petit oid Moi j'suis pas millionnaire dis ça aux stups en bas de chez oim Fais gaffe les gros poissons ils se font hameçonner par un anchois La rue ou la prison à nous de faire le bon choix Message à la secrétaire ta3 monsieur Sarkozy Dites lui qu'il nique sa mère sa sur son père et même sa cousine Le jacuzzi bah ce coup ci il est rempli de champagne Et à cette heure ci Carla elle suce pour 100 grammes Les gendarmes lancent des brigades prennent des clichés sur moi Car j'suis cramé comme un M3 garé à Clichy sous Bois Je m'en bats les couilles j'sors du Zoogataga Ça se douille pour du taga ça s'embrouille pour des thiaga Président de la République sérieux va niquer ta mama Je me verrai bien rouler un petit stick vers Ketama M'en bats les klawis que t'as libéré Bettancourt Pour l'instant je fume de la weed je pense à Mesrine vers Clignancourt Et je me dis que la roue tourne que Allah te le fera payer Et ses contrôles musclés ses réveils à coups de bélier Ze pequeño il vend de la drogue dure les microbes dégoûtent Béné Le grossiste c'est qu'une ordure le 36 c'est un poubellier Esse on t'arrache les dents en guise de mea culpa Cher monsieur président t'es qu'un hijo de puta</t>
+          <t>Les temps actuels déçoivent, nous remontent pas le moral Pourquoi on râle, observe mon constat visuel Vis nos vies, tu verras qu'y'a peu de joie dans les ruelles Et ce détail veut nous appâter dans le piège comme des ânes bâtés Si mon ssiste-gro il serait sicilien, je débiterais plus que Tati Je niquerais Carla et Cécilia ainsi que Rachida Dati Diakite, Belmadi m'ont dit de te dire qu'ils sont vénères Si je fais un gosse je l'appelle condi sur la vie de ma mère Cher monsieur le président va niquer tes morts Ton discours est trop amer dehwa va niquer ta mère Trop les crocs gros c'est le remake des Dents de la mer Quand y'a les keufs on dit tous qu'ils veulent nous mettre dans de la merde Cher monsieur le président va niquer tes morts Ton discours est trop amer je répète va niquer ta mère Là on a plus de repères donc on agit anormalement Faire le cher monsieur le président va niquer ta maman Dans ma plume la situation je la résume Sans aucune substance sans diplôme et sans résine Que ceux qui écoutent désapprouvent ou s'en résignent Je m'adresse aux dirigeants et du doigt je les désigne De parent résident j'encule Sarkozy évident Le ghetto on vit dedans On est géman on dupe la juge le gouvernement le proc et la police aisément Aigrement on parle de tous ces faits gênants Cher monsieur le président je m'adresse à oit Dans ton trou de balle je mets le oid J'ai un bon fond à ton égard je peux que rester bad Eh ouais je m'en bats que les RG focalisent sur notre audimat C'est pas le cachot ni leurs poulets qui vont me traumatiser Bah qu'ils viennent c'est de la haine En tirer public on la baise du bout du stylo bic On taffe pour eux pour grailler des pépites D5 D4 eh chez nous y'a que des P4 Si on respecte Chirac c'est pour ces rottes ca sur les frégates Des payes de tortionnaire et ça sans même lever le petit oid Moi j'suis pas millionnaire dis ça aux stups en bas de chez oim Fais gaffe les gros poissons ils se font hameçonner par un anchois La rue ou la prison à nous de faire le bon choix Message à la secrétaire ta3 monsieur Sarkozy Dites lui qu'il nique sa mère sa sur son père et même sa cousine Le jacuzzi bah ce coup ci il est rempli de champagne Et à cette heure ci Carla elle suce pour 100 grammes Les gendarmes lancent des brigades prennent des clichés sur moi Car j'suis cramé comme un M3 garé à Clichy sous Bois Je m'en bats les couilles j'sors du Zoogataga Ça se douille pour du taga ça s'embrouille pour des thiaga Président de la République sérieux va niquer ta mama Je me verrai bien rouler un petit stick vers Ketama M'en bats les klawis que t'as libéré Bettancourt Pour l'instant je fume de la weed je pense à Mesrine vers Clignancourt Et je me dis que la roue tourne que Allah te le fera payer Et ses contrôles musclés ses réveils à coups de bélier Ze pequeño il vend de la drogue dure les microbes dégoûtent Béné Le grossiste c'est qu'une ordure le 36 c'est un poubellier Esse on t'arrache les dents en guise de mea culpa Cher monsieur président t'es qu'un hijo de puta</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Le 26 juin, jsors dLa Santé Devant jroule, Mysa cest à ta santé You, arrive en Audi S4 Eh, ok ma gueule nous on fait pas dix escales Pour les cances-vas, ya dix bâtons Des meufs sur place, un petit bateau On me dit pas tout, le meilleur pour la suite Au retour dans dix jours, on se barre vers la Suisse Jme suis refait une garde-robe Le quart venu des Galeries, le trois-quarts de Rome Gucci, Versace, Roberto Cavalli Cest pour les frères et les surs, les raclos, les gavali Prévenez la cavalerie, Mister You, Lacrim Même en cavale jrie, jvends dla coke et des disques Woogataga, ya trop dmeufs qui sont cheloues Même les mecs ils sont jaloux, ils aimeraient bien traîner avec nous Aïe aïe aïe No Time cest pire qules Apaches Lacrim libérable, faites péter lpapache Souvent ça joue les cons, car la connerie na pas dâge Eh dabord on fait les comptes, ensuite on fait lpartage On a la bougeotte, on laisse rien aux catins Cest un peu dla faute aux matons, ils nous font bouger tous les matins Vu quhier tas trahi, demain on prendra pas tes patins On tlaisse mener 1-0 et à la fin on va tla mettre 4-1 Pour les frères les cousines, une évasion Ce coup-ci, mes soucis jles efface XXX XXX Eh ya pas dessai, XXX Jme vois en bateau, mais pas sur les bords de Seine Le porc le sait, chez moi XXX De cacher du cacheton, je nvais pas renoncer Le soleil, on en rêve quand ça caille Donc on sattarde, on va finir les vacances à Cannes À midi, cest petit dej sur la Croisette Avec des copines, quon a pêchées sur la croisière Jsors du hebs, jmen bats les couilles de rapper là Ma chérie, le jacuzzi cest ma baignoire Comment fait-on ? Les scouts, bah on sdémerde Du Lacrim en Louis Vuitton sur un scooter des mers Attends le soir, les diables seront en Prada 200 dans la ville on crame tous les stops et les radars Viens les mains vides, prends juste un vol simple On a dans les poches plus que le prix dun Golf 5 Gros, ya les meufs que nous draguons Viens vite, fais ton sac ramène dla cons Un big up si tu sors du ghetto A tous ceux qui se retrouvent de pacha au XXX You might also like À ceux qui sortent du hebs, prennent un vol pour les Caraïbes, ou vers le bled À tous les tiers-quar, à toutes les équipes À toutes les petites meufs, qui prennent la route du sud, lautoroute en S4 ou en R5 toute cabossée</t>
+          <t>Le 26 juin, jsors dLa Santé Devant jroule, Mysa cest à ta santé You, arrive en Audi S4 Eh, ok ma gueule nous on fait pas dix escales Pour les cances-vas, ya dix bâtons Des meufs sur place, un petit bateau On me dit pas tout, le meilleur pour la suite Au retour dans dix jours, on se barre vers la Suisse Jme suis refait une garde-robe Le quart venu des Galeries, le trois-quarts de Rome Gucci, Versace, Roberto Cavalli Cest pour les frères et les surs, les raclos, les gavali Prévenez la cavalerie, Mister You, Lacrim Même en cavale jrie, jvends dla coke et des disques Woogataga, ya trop dmeufs qui sont cheloues Même les mecs ils sont jaloux, ils aimeraient bien traîner avec nous Aïe aïe aïe No Time cest pire qules Apaches Lacrim libérable, faites péter lpapache Souvent ça joue les cons, car la connerie na pas dâge Eh dabord on fait les comptes, ensuite on fait lpartage On a la bougeotte, on laisse rien aux catins Cest un peu dla faute aux matons, ils nous font bouger tous les matins Vu quhier tas trahi, demain on prendra pas tes patins On tlaisse mener 1-0 et à la fin on va tla mettre 4-1 Pour les frères les cousines, une évasion Ce coup-ci, mes soucis jles efface XXX XXX Eh ya pas dessai, XXX Jme vois en bateau, mais pas sur les bords de Seine Le porc le sait, chez moi XXX De cacher du cacheton, je nvais pas renoncer Le soleil, on en rêve quand ça caille Donc on sattarde, on va finir les vacances à Cannes À midi, cest petit dej sur la Croisette Avec des copines, quon a pêchées sur la croisière Jsors du hebs, jmen bats les couilles de rapper là Ma chérie, le jacuzzi cest ma baignoire Comment fait-on ? Les scouts, bah on sdémerde Du Lacrim en Louis Vuitton sur un scooter des mers Attends le soir, les diables seront en Prada 200 dans la ville on crame tous les stops et les radars Viens les mains vides, prends juste un vol simple On a dans les poches plus que le prix dun Golf 5 Gros, ya les meufs que nous draguons Viens vite, fais ton sac ramène dla cons Un big up si tu sors du ghetto A tous ceux qui se retrouvent de pacha au XXX À ceux qui sortent du hebs, prennent un vol pour les Caraïbes, ou vers le bled À tous les tiers-quar, à toutes les équipes À toutes les petites meufs, qui prennent la route du sud, lautoroute en S4 ou en R5 toute cabossée</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mon Colonel c'est pas Fabien, jécoute pas ce que les gens disent Là j'recherche une fille bien, pour faire passer de la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préfererais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dedi ouais j'en place une big à Landry Fait pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Elise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir, j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire ahh, sous commision rogatoire Mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, y'a Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups on la haine la crim' a honte 19ème c'est auch la, tout le monde recherche La Clim à Ourcq Les médias salissent l'Islam En c'qui m'concerne à mes concerts À chaque contrôle j'subis l'racisme j'vois que lÉtat Il condamne pas l'arbre à cause de ses feuilles mais d'ces racines Ces clichés nous assassinent, demande à mon frère Yacine On préfère faire 6 piges à Fresnes que 2,3 semaines a l'asile Ougataga You might also like Violent comme La violence m'a élevé</t>
+          <t>Mon Colonel c'est pas Fabien, jécoute pas ce que les gens disent Là j'recherche une fille bien, pour faire passer de la marchandise J'arrive comme un but d'Van Nistelrooy vers la fin J'préfererais crever du cholestérol que d'la faim J'te laisse passer j'regarde ton ul'c, lady, cest la galanterie Vu que cest l'heure des caces-dedi ouais j'en place une big à Landry Fait pas la bise à l'entrée nan direct crampe le videur Cette lettre c'est ni pour Elise ni pour les grand profiteurs Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Rap de grossiste tout le contraire de Kamini J'suis l'genre de mec qu'arrive faya en te-boi a 4h d'l'aprés minuit Les 3ineurs j'les ves-qui, j'ai ce qu'il faut pour les gringos Le soir, j'suis sous whisky le sbah sous San Pellegrino Sous commission rogatoire ahh, sous commision rogatoire Mes frères tombent comme des dominos Préfèrent s'acheter un 11-43 que d'faire des abdominaux J'me casse les reins sur le terrain, y'a Dunlopillo Il n'y a que la maille qui maille, j'big up Kima tah Gaston Pinot Keko et Pillon, porteuse chargée, plaque hollandaise J'empiète pas le plancher, j'doigte le régulateur de vitesse Regarde Barbès, Stalingrad, cest pas après le bus que les clients courent Cest pour tous les jeunes en stand de crack aux Puces à Clignancourt Sachant que la came fauchent les stups on la haine la crim' a honte 19ème c'est auch la, tout le monde recherche La Clim à Ourcq Les médias salissent l'Islam En c'qui m'concerne à mes concerts À chaque contrôle j'subis l'racisme j'vois que lÉtat Il condamne pas l'arbre à cause de ses feuilles mais d'ces racines Ces clichés nous assassinent, demande à mon frère Yacine On préfère faire 6 piges à Fresnes que 2,3 semaines a l'asile Ougataga Violent comme La violence m'a élevé</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner On s'est rencontré au lycée, son regard m'hypnotisait Démarche de ouf quand elle passait, même les manchots l'applaudissaient C'était même pas la peine d'essayer d'parler avec ell J'ai pris mon courage à deux mains, ell m'a rembarré, j'avais la haine C'était mon premier chagrin d'amour, elle savait pas qu'j'vendais d'la mort J'faisais la taille à Zemmour, mon tour de cou, il était plein d'or J'étais précis, direct et H24 avec mes potos J'l'ai croisé 15 piges après, elle m'a demandé une photo Elle m'a dit qu'elle regrettait, qu'elle aimerait être ma femme Elle a attendue qu'je perce pour me déclarer sa flamme Et j'ai pris un malin plaisir à lui dire Nan, laisse tomber C'est la preuve que l'amour finit bien par s'estomper Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner You might also like C'est du passé, j'suis dépassé, quand j'te suivais, toi tu me fuyais C'est du passé, j'suis dépassé, quand j'avais rien, toi tu te marrais Les meufs comme toi, je les reconnais, pas de love si y a pas de lovés Avoue que tu as déconné, faute avouée, à moitié pardonné Si j'avais la chance de tout recommencer, j'le ferais pas Mes valises, elles sont prêtes, si jamais tu décidais de te rapprocher de moi Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner</t>
+          <t>Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner On s'est rencontré au lycée, son regard m'hypnotisait Démarche de ouf quand elle passait, même les manchots l'applaudissaient C'était même pas la peine d'essayer d'parler avec ell J'ai pris mon courage à deux mains, ell m'a rembarré, j'avais la haine C'était mon premier chagrin d'amour, elle savait pas qu'j'vendais d'la mort J'faisais la taille à Zemmour, mon tour de cou, il était plein d'or J'étais précis, direct et H24 avec mes potos J'l'ai croisé 15 piges après, elle m'a demandé une photo Elle m'a dit qu'elle regrettait, qu'elle aimerait être ma femme Elle a attendue qu'je perce pour me déclarer sa flamme Et j'ai pris un malin plaisir à lui dire Nan, laisse tomber C'est la preuve que l'amour finit bien par s'estomper Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner C'est du passé, j'suis dépassé, quand j'te suivais, toi tu me fuyais C'est du passé, j'suis dépassé, quand j'avais rien, toi tu te marrais Les meufs comme toi, je les reconnais, pas de love si y a pas de lovés Avoue que tu as déconné, faute avouée, à moitié pardonné Si j'avais la chance de tout recommencer, j'le ferais pas Mes valises, elles sont prêtes, si jamais tu décidais de te rapprocher de moi Avant, tu m'ignorais, mais ça, c'était avant Je t'avais validé mais pour toi, c'était du vent Avant, tu m'ignorais, mais ça, c'était avant Aujourd'hui, tu m'aimes mais pour toi, j'ai plus le temps J'veux m'en aller loin de toi, m'en aller sans jamais me retourner J'veux m'en aller loin de toi, m'en aller sans jamais me retourner</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Dj Hamida À la bien mix party Monte le son tu connais c'est repartit Yougataga, Chabba Maria Ou chhal tkdeb alih ou chhal ykdeb aliha Ou hiya chhal tbghih ou houwa ymout aliha Bghat tkhrej alih ou bgha ykhrej aliha Kouya lahyhdih ou hiya lahyhdiha Hassab rouhak anter ou ntaya machi sahel Dawer ou dawder ou koullek hikayat Younes achkek wa'er saken omri fddem Ayit manhder ayit mansber Mahantini, Addebtini, w kwitini, bahdeltini Mahantini, Addebtini, w kwitini, bahdeltini Dwina ala raja dwina ala lwydad dwina rejla dwina ala lbnat Khassarna lhadra kbida hachak dwina ala lghorba Dwina ala lblad Gouli liya hbiba wach baka akla Mnin kan hobbek mlyouh fzanka La brika la garo la hchich la warka Mnin malka ma'amen ytlaka Men ghir chi wehda li tkoun bhalo Kimma ygoulou twansa wach nhwalo Chhal kdeb alik hadchi lli galo Chabba maria hbibek malo? You might also like J'avais trop mal au crâne, je vais bientôt déménager Tu sais pas faire le ménage, tu sais même pas faire à manger Mellit ana ana had l icha Dima cabaret dima chicha C'est normal j'en ai marre t'es toujours avec tes copines À la maison et quand tu sors c'est pour faire du shopping Hassit bel vide omri ana Ou nta lli bghiti had lhala Khlass viens on arrête les embrouilles Viens on kiff et viens on part en vadrouille Casa, Taza, Marrakesh, Agadir Ou à Ifrane histoire de bien refroidir</t>
+          <t>Dj Hamida À la bien mix party Monte le son tu connais c'est repartit Yougataga, Chabba Maria Ou chhal tkdeb alih ou chhal ykdeb aliha Ou hiya chhal tbghih ou houwa ymout aliha Bghat tkhrej alih ou bgha ykhrej aliha Kouya lahyhdih ou hiya lahyhdiha Hassab rouhak anter ou ntaya machi sahel Dawer ou dawder ou koullek hikayat Younes achkek wa'er saken omri fddem Ayit manhder ayit mansber Mahantini, Addebtini, w kwitini, bahdeltini Mahantini, Addebtini, w kwitini, bahdeltini Dwina ala raja dwina ala lwydad dwina rejla dwina ala lbnat Khassarna lhadra kbida hachak dwina ala lghorba Dwina ala lblad Gouli liya hbiba wach baka akla Mnin kan hobbek mlyouh fzanka La brika la garo la hchich la warka Mnin malka ma'amen ytlaka Men ghir chi wehda li tkoun bhalo Kimma ygoulou twansa wach nhwalo Chhal kdeb alik hadchi lli galo Chabba maria hbibek malo? J'avais trop mal au crâne, je vais bientôt déménager Tu sais pas faire le ménage, tu sais même pas faire à manger Mellit ana ana had l icha Dima cabaret dima chicha C'est normal j'en ai marre t'es toujours avec tes copines À la maison et quand tu sors c'est pour faire du shopping Hassit bel vide omri ana Ou nta lli bghiti had lhala Khlass viens on arrête les embrouilles Viens on kiff et viens on part en vadrouille Casa, Taza, Marrakesh, Agadir Ou à Ifrane histoire de bien refroidir</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Mister Yougataga RH LAS Alpha Lima Pedro Aïe, aïe, aïe Chut Ils font du boucan comme des bidons vide Recroquevillé sur moi-même comme des bidonvilles Même quand c'est chaud, toujours à l'aise comme si on chill Comme si y a tchi couillon, c'est pas la fête mais tous les jours on tchin, gros On s'mate mal, on fait bouillir le magma, toujours l'avant-bras d'vant la mag light Tu pourras chanter comme Brian McKnight, ça changera rien Wallah qu'j'connais les miens, j'pense qu'y aura pas d'fight et qu'y aura pas d'faille Tu peux pas miser sans tort au PMU, j'ai perdu être cher mais j'pleure pas comme si j'suis pas ému L jeu commence, vingt-quatr secondes et puis j'célèbre comme Alexandre Barbecue, mais y aura pas les cendres C'est délicat, on peut pas parler d'tout Trop occupé, j'peux pas parler d'vous T'es trop bizarre j'parle pas avec you Affamés, moi, RH avec You La liberté c'est qu'une statue, pour l'observer j'fume d'la chronique La vérité sort de la bouche des poucaves et des alcooliques À la barre j'mets pas d'chemise, bats les couilles de plaire au proc' Ils veulent nous mettre des peines que prennent les mecs tah au bloc La fermer d'vant la police, tu connais c'est la devise Sur une jambe, on fait nos peines en calculant les remises J'me sens comme Omar Raddad, victime d'injustice Pour m'évader dans ma tête, je fume et puis j'tease Tu pars à la chasse, j'garde ma place, j'me rebelle comme Rosa Parks L'histoire fait d'moi un black à part, j'suis rancunier, j'en veux à Bonaparte Tu bâtis rien si tu mets pas la main à la patte On vit dans le haram donc baraka mais harabat Comme 0.9, j'arrive pépère en avalanche Ils font les fous ils vont rien faire comme un shooter sans phalange J'suis maladroit, j'm'en balance, je souris quand c'est pas marrant Pour eux demain, on t'coupe le bras et on repart les bras ballants La vie vaut rien quand tu connais le prix d'une balle Un coup d'foudre, ça brise le cur, moi, j'mis sur la mentale Faut s'mettre au vert, j'aime la nature comme un rifi aime la montagne La faucheuse passe un coup d'Tel-Aviv La guerre est une plaie, dans la paix, c'est la vie Le moine fait l'habit, c'qui fait l'homme, c'est la bite Entre femme, ladyboy, t'inquiète pas, j'fais la bise Les jours, les mois, les années passent, la life défile à toute vitesse Aujourd'hui, t'es frais, t'es en place, d'main s'ra au tour des p'tits d'la tess De v'nir récupérer le four, c'est légitime, ils veulent leur part Ils veulent devenir c'que t'es devenu quand y a quinze ans, t'as fait pareil You might also like Boukata, brah Rah, rah C'est l'arroseur arrosé Rah, rah C'est l'voleur qui s'fait voler Ouais, ouais, ouais C'est la roue qui n'fait que tourner Ils veulent nous mettre des peines que prennent les mecs tah au bloc Ils vont rien faire comme un shooter sans phalange Affamés, moi, RH avec You</t>
+          <t>Mister Yougataga RH LAS Alpha Lima Pedro Aïe, aïe, aïe Chut Ils font du boucan comme des bidons vide Recroquevillé sur moi-même comme des bidonvilles Même quand c'est chaud, toujours à l'aise comme si on chill Comme si y a tchi couillon, c'est pas la fête mais tous les jours on tchin, gros On s'mate mal, on fait bouillir le magma, toujours l'avant-bras d'vant la mag light Tu pourras chanter comme Brian McKnight, ça changera rien Wallah qu'j'connais les miens, j'pense qu'y aura pas d'fight et qu'y aura pas d'faille Tu peux pas miser sans tort au PMU, j'ai perdu être cher mais j'pleure pas comme si j'suis pas ému L jeu commence, vingt-quatr secondes et puis j'célèbre comme Alexandre Barbecue, mais y aura pas les cendres C'est délicat, on peut pas parler d'tout Trop occupé, j'peux pas parler d'vous T'es trop bizarre j'parle pas avec you Affamés, moi, RH avec You La liberté c'est qu'une statue, pour l'observer j'fume d'la chronique La vérité sort de la bouche des poucaves et des alcooliques À la barre j'mets pas d'chemise, bats les couilles de plaire au proc' Ils veulent nous mettre des peines que prennent les mecs tah au bloc La fermer d'vant la police, tu connais c'est la devise Sur une jambe, on fait nos peines en calculant les remises J'me sens comme Omar Raddad, victime d'injustice Pour m'évader dans ma tête, je fume et puis j'tease Tu pars à la chasse, j'garde ma place, j'me rebelle comme Rosa Parks L'histoire fait d'moi un black à part, j'suis rancunier, j'en veux à Bonaparte Tu bâtis rien si tu mets pas la main à la patte On vit dans le haram donc baraka mais harabat Comme 0.9, j'arrive pépère en avalanche Ils font les fous ils vont rien faire comme un shooter sans phalange J'suis maladroit, j'm'en balance, je souris quand c'est pas marrant Pour eux demain, on t'coupe le bras et on repart les bras ballants La vie vaut rien quand tu connais le prix d'une balle Un coup d'foudre, ça brise le cur, moi, j'mis sur la mentale Faut s'mettre au vert, j'aime la nature comme un rifi aime la montagne La faucheuse passe un coup d'Tel-Aviv La guerre est une plaie, dans la paix, c'est la vie Le moine fait l'habit, c'qui fait l'homme, c'est la bite Entre femme, ladyboy, t'inquiète pas, j'fais la bise Les jours, les mois, les années passent, la life défile à toute vitesse Aujourd'hui, t'es frais, t'es en place, d'main s'ra au tour des p'tits d'la tess De v'nir récupérer le four, c'est légitime, ils veulent leur part Ils veulent devenir c'que t'es devenu quand y a quinze ans, t'as fait pareil Boukata, brah Rah, rah C'est l'arroseur arrosé Rah, rah C'est l'voleur qui s'fait voler Ouais, ouais, ouais C'est la roue qui n'fait que tourner Ils veulent nous mettre des peines que prennent les mecs tah au bloc Ils vont rien faire comme un shooter sans phalange Affamés, moi, RH avec You</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Hades Eh les gars, c'est parti pour foutre le dawa sur la piste J'sens comme une odeur de whisky et d'cannabis Ce soir on va foutre la merde, tu nous vois, tu khle3 Non, non, on en a plus rien à foutre, vu qu'on sait qu'on va tout perdre, ouais Me r'garde pas, j'suis un gars d'Paname voilà quoi Frais comme au Pôle Nord, toi c'est Pôle Emploi Bouteille de Jack Miel, j'regarde l'abeille j'suis en showcase dans les backstages Khapta, j'attends ma paye ouais Quand on arrive tu sens la pression Si tu fais l'malin on t'fait sauter l'caisson Trois quatre potos dorment dans la maison Sont recherchés pour moult raisons Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages You might also like Eh sers un verre, sors ton revolver, on sais qu'la Terre tourne à l'envers et l'poto You c'est comme un frère On vit la belle, un p'tit coup d'première on s'fait la belle vers le bled ou bien vers Marbella Fais gaffe, pour la maille j'suis cap de faire des trucs de ouf J'ai passé l'bac dans la street, spécialité shit et schnouf J'ai dans les poches le prix d'une Porsche et pas n'importe laquelle J'pousse six bouteilles pour commencer, fuck ceux qu'on des Eh c'est la merde frère, sors un kilo de weed J'veux m'faire un ter aussi gros que mes kalawi Tu crois qu'on blague, toi tu crois qu'on gole-ri On sent la street, toi tu pues la michtonnerie Quand on arrive tu sens la pression Si tu fais l'malin on t'fait sauter l'caisson Trois quatre potos dorment dans la maison Sont recherchés pour moult raisons Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages Hades</t>
+          <t>Hades Eh les gars, c'est parti pour foutre le dawa sur la piste J'sens comme une odeur de whisky et d'cannabis Ce soir on va foutre la merde, tu nous vois, tu khle3 Non, non, on en a plus rien à foutre, vu qu'on sait qu'on va tout perdre, ouais Me r'garde pas, j'suis un gars d'Paname voilà quoi Frais comme au Pôle Nord, toi c'est Pôle Emploi Bouteille de Jack Miel, j'regarde l'abeille j'suis en showcase dans les backstages Khapta, j'attends ma paye ouais Quand on arrive tu sens la pression Si tu fais l'malin on t'fait sauter l'caisson Trois quatre potos dorment dans la maison Sont recherchés pour moult raisons Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages Eh sers un verre, sors ton revolver, on sais qu'la Terre tourne à l'envers et l'poto You c'est comme un frère On vit la belle, un p'tit coup d'première on s'fait la belle vers le bled ou bien vers Marbella Fais gaffe, pour la maille j'suis cap de faire des trucs de ouf J'ai passé l'bac dans la street, spécialité shit et schnouf J'ai dans les poches le prix d'une Porsche et pas n'importe laquelle J'pousse six bouteilles pour commencer, fuck ceux qu'on des Eh c'est la merde frère, sors un kilo de weed J'veux m'faire un ter aussi gros que mes kalawi Tu crois qu'on blague, toi tu crois qu'on gole-ri On sent la street, toi tu pues la michtonnerie Quand on arrive tu sens la pression Si tu fais l'malin on t'fait sauter l'caisson Trois quatre potos dorment dans la maison Sont recherchés pour moult raisons Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages Magnum sur la table, rappelle le comptable J'passais les portes du placard, maintenant j'ouvre les portes Papillon, j'fais des billets mauves J'étais dans l'VIP, même quand c'était au-ch J'claque ta recette dans la soirée dans la soirée Rap de malade, que des sauvages que des sauvages J'claque ta recette dans la soirée dans la soirée Yougatagangz pour les dommages Hades</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Hades Il s'fait tard, fêtard, j'roule un pétard Métal coffré pour pas s'faire pé-ta Pelo, c'face m'attendait à l'étage Pas d'bol, il m'rattrape sur la Costa Et qu'on soit à l'ombre ou à l'air, on veut juste s'barrer ailleurs J'veux briller à Londres ou Palerme, v'-esqui les visages pâles Au pied du mur, j'demande pas de l'aide, pris en chasse, gros, j'accélère J'arrive en balle en SLR mais porte papillon porte l'il Là j'suis vers Malaga, Benalmádena J'redescends, j'prends vers Marbella avec ma hella Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah You might also like Derrière y a les quatre pots, sous le capot Le poto il est cuit, sérieusement il a pas d'pot Il vient d'prendre quinze piges pour un braquo Ce soir, j'dépasse mes limites, une passe j't'élimine, une frappe, j'la mets dans l'mille Mec, si tu n'as pas la mentale, tu mérites aucune balle, coup d'schlass direct dans l'bide Y a pas de Ich liebe dich, t'es fou, nan, marlebelich C'est l'zoo jusqu'à Malaga, Yougataga mon gars Là j'suis vers Malaga, Benalmádena J'redescends, j'prends vers Marbella avec ma hella Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah Oh-oh, ah-ah Ah-ah</t>
+          <t>Hades Il s'fait tard, fêtard, j'roule un pétard Métal coffré pour pas s'faire pé-ta Pelo, c'face m'attendait à l'étage Pas d'bol, il m'rattrape sur la Costa Et qu'on soit à l'ombre ou à l'air, on veut juste s'barrer ailleurs J'veux briller à Londres ou Palerme, v'-esqui les visages pâles Au pied du mur, j'demande pas de l'aide, pris en chasse, gros, j'accélère J'arrive en balle en SLR mais porte papillon porte l'il Là j'suis vers Malaga, Benalmádena J'redescends, j'prends vers Marbella avec ma hella Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah Derrière y a les quatre pots, sous le capot Le poto il est cuit, sérieusement il a pas d'pot Il vient d'prendre quinze piges pour un braquo Ce soir, j'dépasse mes limites, une passe j't'élimine, une frappe, j'la mets dans l'mille Mec, si tu n'as pas la mentale, tu mérites aucune balle, coup d'schlass direct dans l'bide Y a pas de Ich liebe dich, t'es fou, nan, marlebelich C'est l'zoo jusqu'à Malaga, Yougataga mon gars Là j'suis vers Malaga, Benalmádena J'redescends, j'prends vers Marbella avec ma hella Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah Pas là, RS3 gris, j'me balade J'la kiff comme elle est, c'est ma life J'ai tout claqué, j'suis malade Lyon, Paname, oh-oh, ah-ah L'son du ghetto-o, ah-ah Oh-oh, ah-ah Ah-ah</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Be be be be be be be be be belleville zougatagaaaaaa 'tention, suit mi suit mi suit mi suit mi suit mister you attention Direction la rue où y a une meuf qui joue la trainée Je sent que j'l'aime mais c'est dans la merde qu'elle veut m'entrainer J'ai un te-po en cas d'embrouille qui crache des missiles Ma copine a fait venir mes parents ici Affamé, trop précoce avec cette femme on fait des gosses Moi wallaii billey j'ai la dalle faut que j'fonde une famille Mon pote i vend des balles il en a toujours une dans l'zinc gamin La chienne kiff se glissée dans les sacs à main Woogataga mon pote i troue les sac à merde Ma copine adore les flirts mais bon je sent qu'elle m'aime Si elle me quitte pour un autre viens avec mon pote j'la récupère Le comble pour des vainqueurs bah ce serais qu'on perde Dehors mon srab quand i t'parle t'entends que click baaaah Ma pine-co propre ou sa laine n'a pas d'odeur Certes c'est la seule fleure qui pousse sur le ter-ter Ma meuf c'est l'flouze mon pote c'est mon revolver...You might also like</t>
+          <t>Be be be be be be be be be belleville zougatagaaaaaa 'tention, suit mi suit mi suit mi suit mi suit mister you attention Direction la rue où y a une meuf qui joue la trainée Je sent que j'l'aime mais c'est dans la merde qu'elle veut m'entrainer J'ai un te-po en cas d'embrouille qui crache des missiles Ma copine a fait venir mes parents ici Affamé, trop précoce avec cette femme on fait des gosses Moi wallaii billey j'ai la dalle faut que j'fonde une famille Mon pote i vend des balles il en a toujours une dans l'zinc gamin La chienne kiff se glissée dans les sacs à main Woogataga mon pote i troue les sac à merde Ma copine adore les flirts mais bon je sent qu'elle m'aime Si elle me quitte pour un autre viens avec mon pote j'la récupère Le comble pour des vainqueurs bah ce serais qu'on perde Dehors mon srab quand i t'parle t'entends que click baaaah Ma pine-co propre ou sa laine n'a pas d'odeur Certes c'est la seule fleure qui pousse sur le ter-ter Ma meuf c'est l'flouze mon pote c'est mon revolver...</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, hey, hey, hey, hey Je vais te parler d'ma story mais je nai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je nai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident J'rêve doseille depuis des années Premier conseil de discipline, laddition fut salée Un peu comme Gad bah ouais la rue elle m'allait Je voulais pas finir au placard comme un balais Il mest arrivé des trucs de malades des cavales, des escapades J'pourrais t'raconter ma story mais je n'ai pas trop le temps Je vais te parler dma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident You might also like Petit tu sais quand j'ai commencé, j'étais l'seul à m'ambiancer Je me voyais déjà en train de zouker Beyoncé Petit pas cadencé, je me foutais des conseils J'étais jeune et fou que y avait vraiment rien de censé Parlez, parlez français, moi j'voulais dépenser Toujours connecté avec mes gavas par la pensée C'est ainsi que la vie s'est faite J'ai vécu des victoires et des défaites Je vais te parler d'ma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident Je vais te parler de ma story sans m'connecter sur Snapchat La jalousie est une maladie que les trois quart des shrabs choppent Comme dit mon poto 'golo de Grigny Si tu veux qu'elle dise oui, il faut Lamborghini Les pieds sur le sable, la tête sous les palmiers Étant gamin j'ai fais du sale, ça j'peux pas l'nier Je rêvais d'Aventador et d'or au poignet Quand j'avais pas mes clés, j'dormais sur l'palier Quand la voisine du dessus pouvait pas m'saquer Quand j'courrais très vite pour pas m'faire matraquer Aujourd'hui j'regarde ma montre et j'rigole bêtement Maintenant c'est clair que non non j'n'ai plus du tout le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Mais je n'ai pas trop le temps Mais je n'ai pas trop le temps</t>
+          <t>Hey, hey, hey, hey, hey, hey, hey Je vais te parler d'ma story mais je nai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je nai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident J'rêve doseille depuis des années Premier conseil de discipline, laddition fut salée Un peu comme Gad bah ouais la rue elle m'allait Je voulais pas finir au placard comme un balais Il mest arrivé des trucs de malades des cavales, des escapades J'pourrais t'raconter ma story mais je n'ai pas trop le temps Je vais te parler dma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident Petit tu sais quand j'ai commencé, j'étais l'seul à m'ambiancer Je me voyais déjà en train de zouker Beyoncé Petit pas cadencé, je me foutais des conseils J'étais jeune et fou que y avait vraiment rien de censé Parlez, parlez français, moi j'voulais dépenser Toujours connecté avec mes gavas par la pensée C'est ainsi que la vie s'est faite J'ai vécu des victoires et des défaites Je vais te parler d'ma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Fais pas ça, c'est pas évident, non la vie c'est pas évident Fais pas ça, c'est pas évident, non la vie c'est pas évident Je vais te parler de ma story sans m'connecter sur Snapchat La jalousie est une maladie que les trois quart des shrabs choppent Comme dit mon poto 'golo de Grigny Si tu veux qu'elle dise oui, il faut Lamborghini Les pieds sur le sable, la tête sous les palmiers Étant gamin j'ai fais du sale, ça j'peux pas l'nier Je rêvais d'Aventador et d'or au poignet Quand j'avais pas mes clés, j'dormais sur l'palier Quand la voisine du dessus pouvait pas m'saquer Quand j'courrais très vite pour pas m'faire matraquer Aujourd'hui j'regarde ma montre et j'rigole bêtement Maintenant c'est clair que non non j'n'ai plus du tout le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Je suis seul dans ma folie mais je n'ai pas trop le temps Je vais te parler d'ma story mais je n'ai pas trop le temps Mais je n'ai pas trop le temps Mais je n'ai pas trop le temps</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Ouais la famille, bienvenue sur MDR. MDR Mec de Rue, même derrière, représente ma gueule, ha ha. Woogataga poto, aïe, aïe, aïe, bon, on est là, en direct de cette putain d'maison d'arrêt d'merde, là. Merci à toutes et à tous d'avoir acheter la p'tite mixtape MDR, poto, wAllah, en attendant la sortie, insha'Allah. L'album arrivera en temps et en heure dès qu'j'serais sortis d'cette putain d'maison d'arrêt là mais insha'Allah, vous inquiétez pas. Y a qu'les hesses qui m'veulent juste ici, un coup d'calibre dans leur gueule, ma gueule, ha ha ha. Aïe, aïe, aïe, en attendant, bah ouais, ça grattouille, ça grattouille, vous inquiétez pas, wAllah. Et mais la sortie, elle va faire mal wAllah et écoutez ce p'tit texte écrit t'as vu, dès qu'j'suis arrivé, t'as vu, ouais, j'ai commencé à gratouiller, vas-y ça donne ça Eh, fin d'année 2009, fallait qu'ces bâtards m'attrapent Là, j'suis à la Santé, j'ai la santé mais l'gradé m'lâche pas la grappe Eh poto, j'fais pas dodo, t'inquiète, j'écris des bêtes de textes Et j'sais qu'les murs ont des oreilles et qu'toutes les f'nêtres sont en train d'me zieuter au parloir Ça bouffe des croissants, ça camoufle des M300 Là, j'suis avec Youssouph' au gniouf, dans mon affaire, lui il a prit trois ans Woogataga, pour , khapta, il nous faut une quette-pla Montrez nous qui sont vos potes, nous on vous dira qui vous n'êtes pas J'sais pas c'qui s'passe dans ma tête, c'est tous les jours l'21 juin Les mecs comme oi-m, au hebs, ils fument tous les jours 31 joints, ha ha Woogataga, tard, ouais, j'arrive et j'vous rassure moi Je n'dormirai tranquille que quand mes ennemis veilleront sur moi J'sais pas pourquoi y a autant d'3eineurs qui ont envie d'me uer-t J'crois qu'c'est p't-être parce que j'bois du cristal et qu'j'pisse du Moët Force, marcher avec les pingouins ou s'envoler avec les mouettes Mais pour partir loin, il faut du pétrole, j'vais investir au Koweït, ha ha Vous inquiétez pas, dès qu'j'sors là, j'vais en Arabie Saoudite, tout ça là, au Qatar ou j'sais pas quoi là, Dubaï, tout c'que vous voulez. On va investir mais j'les ma gueule, un coup d'calibre dans leur bouche, ma gueule. Woogatag, bon hassoul, merci à toutes et à tous encore, d'avoir acheter mon p'tit projet là, la p'tite mixtape MDR et encore, merci à toutes et à tous pour votre soutien qu'vous m'apportez tous les jours, wAllah. Et mais Dieu vous l'rendra, insha'Allah et sur ce, le mot d'la fin j'termine comme j'ai commencé, avec une rime en C, ah Woogataga, nique l'État, poto, aïe, aïe, aïe et merci, je vous aime Pour effacer, tapez 2 pour transférer vers votre e-mail SFR.fr, tapez 7 pour réécouter, tapez 3You might also like</t>
+          <t>Ouais la famille, bienvenue sur MDR. MDR Mec de Rue, même derrière, représente ma gueule, ha ha. Woogataga poto, aïe, aïe, aïe, bon, on est là, en direct de cette putain d'maison d'arrêt d'merde, là. Merci à toutes et à tous d'avoir acheter la p'tite mixtape MDR, poto, wAllah, en attendant la sortie, insha'Allah. L'album arrivera en temps et en heure dès qu'j'serais sortis d'cette putain d'maison d'arrêt là mais insha'Allah, vous inquiétez pas. Y a qu'les hesses qui m'veulent juste ici, un coup d'calibre dans leur gueule, ma gueule, ha ha ha. Aïe, aïe, aïe, en attendant, bah ouais, ça grattouille, ça grattouille, vous inquiétez pas, wAllah. Et mais la sortie, elle va faire mal wAllah et écoutez ce p'tit texte écrit t'as vu, dès qu'j'suis arrivé, t'as vu, ouais, j'ai commencé à gratouiller, vas-y ça donne ça Eh, fin d'année 2009, fallait qu'ces bâtards m'attrapent Là, j'suis à la Santé, j'ai la santé mais l'gradé m'lâche pas la grappe Eh poto, j'fais pas dodo, t'inquiète, j'écris des bêtes de textes Et j'sais qu'les murs ont des oreilles et qu'toutes les f'nêtres sont en train d'me zieuter au parloir Ça bouffe des croissants, ça camoufle des M300 Là, j'suis avec Youssouph' au gniouf, dans mon affaire, lui il a prit trois ans Woogataga, pour , khapta, il nous faut une quette-pla Montrez nous qui sont vos potes, nous on vous dira qui vous n'êtes pas J'sais pas c'qui s'passe dans ma tête, c'est tous les jours l'21 juin Les mecs comme oi-m, au hebs, ils fument tous les jours 31 joints, ha ha Woogataga, tard, ouais, j'arrive et j'vous rassure moi Je n'dormirai tranquille que quand mes ennemis veilleront sur moi J'sais pas pourquoi y a autant d'3eineurs qui ont envie d'me uer-t J'crois qu'c'est p't-être parce que j'bois du cristal et qu'j'pisse du Moët Force, marcher avec les pingouins ou s'envoler avec les mouettes Mais pour partir loin, il faut du pétrole, j'vais investir au Koweït, ha ha Vous inquiétez pas, dès qu'j'sors là, j'vais en Arabie Saoudite, tout ça là, au Qatar ou j'sais pas quoi là, Dubaï, tout c'que vous voulez. On va investir mais j'les ma gueule, un coup d'calibre dans leur bouche, ma gueule. Woogatag, bon hassoul, merci à toutes et à tous encore, d'avoir acheter mon p'tit projet là, la p'tite mixtape MDR et encore, merci à toutes et à tous pour votre soutien qu'vous m'apportez tous les jours, wAllah. Et mais Dieu vous l'rendra, insha'Allah et sur ce, le mot d'la fin j'termine comme j'ai commencé, avec une rime en C, ah Woogataga, nique l'État, poto, aïe, aïe, aïe et merci, je vous aime Pour effacer, tapez 2 pour transférer vers votre e-mail SFR.fr, tapez 7 pour réécouter, tapez 3</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MDR2, MDR 2 Depuis le temps que je patiente dans cette chambre noire Jentends les surveillants qui chantent au fond du couloir Je repense à toutes ces bombes qui tombent un peu partout sur nos terres Dahwa pour venger nos frères, je fumerais bien Bush comme un zdèh Et puis je repense à tout ce mal Frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin Frère quon a fait Les petits murissent, grandissent trop vite, prennent le mauvais chemin Mais quest-ce quon a fait ? À traîner devant le hall, épauler par la poisse Mais frère tinquiètes on se refait, on se refait, on se refait On se refait ma gueule Représente Paris 19 et jen suis fier Qui ose traverser les grands fleuves, ne crains pas les petites rivières Dans la baraque du trafiquant, tous les enfants savent compter Connaissent la gueule du procureur et de tous les keufs dà côté Rendre service aux autres, cest se rendre service à soi-même On sait quen faisant une faute, bah on peut grailler la gamelle Des années de prison, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres, quon va chier du Cardin Je suis dans ma grotte frère mais je te mets au parfum Nan franchis pas la frontière du 19 par le 20 Woogataga, laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, dahwa toujours la mentale Même la plus forte des clim, négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les îles Canaris Mais bon lÉtat il ma mis en cage, un peu comme un canari Au chtar je fais pas de sport, jai toujours le même gabarit Je pense au bled où cest la merde 100 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroître lintelligence, éradiquons la bêtise Eux ce quils veulent cest nous détruire, malgré tous nos efforts Donc pensons à nous unir, histoire dêtre plus forts You might also likeBelleville, Belleville, Belleville Woogataga, Woogataga, Woogataga On peut tout perdre sur un coup de tête Un peu comme super Nanny On peut se faire fumer comme une barrette Ouais mec demande à Laouni Ou bien à Nabil, même ta meuf sen lèche les babines Appelle lingé, je suis chaud, je vais foutre le feu dans la cabine 19ème on revient à lancienne, en Roneur 180 Mesdames et Mesdemoiselles, je me présente je suis celui qui a très faim Cest pas la fin du film les frères Au contraire cest que le début On va tout niquer sa mère Ya zerh notre son cest de la re-pu</t>
+          <t>MDR2, MDR 2 Depuis le temps que je patiente dans cette chambre noire Jentends les surveillants qui chantent au fond du couloir Je repense à toutes ces bombes qui tombent un peu partout sur nos terres Dahwa pour venger nos frères, je fumerais bien Bush comme un zdèh Et puis je repense à tout ce mal Frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin Frère quon a fait Les petits murissent, grandissent trop vite, prennent le mauvais chemin Mais quest-ce quon a fait ? À traîner devant le hall, épauler par la poisse Mais frère tinquiètes on se refait, on se refait, on se refait On se refait ma gueule Représente Paris 19 et jen suis fier Qui ose traverser les grands fleuves, ne crains pas les petites rivières Dans la baraque du trafiquant, tous les enfants savent compter Connaissent la gueule du procureur et de tous les keufs dà côté Rendre service aux autres, cest se rendre service à soi-même On sait quen faisant une faute, bah on peut grailler la gamelle Des années de prison, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres, quon va chier du Cardin Je suis dans ma grotte frère mais je te mets au parfum Nan franchis pas la frontière du 19 par le 20 Woogataga, laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, dahwa toujours la mentale Même la plus forte des clim, négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les îles Canaris Mais bon lÉtat il ma mis en cage, un peu comme un canari Au chtar je fais pas de sport, jai toujours le même gabarit Je pense au bled où cest la merde 100 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroître lintelligence, éradiquons la bêtise Eux ce quils veulent cest nous détruire, malgré tous nos efforts Donc pensons à nous unir, histoire dêtre plus forts Belleville, Belleville, Belleville Woogataga, Woogataga, Woogataga On peut tout perdre sur un coup de tête Un peu comme super Nanny On peut se faire fumer comme une barrette Ouais mec demande à Laouni Ou bien à Nabil, même ta meuf sen lèche les babines Appelle lingé, je suis chaud, je vais foutre le feu dans la cabine 19ème on revient à lancienne, en Roneur 180 Mesdames et Mesdemoiselles, je me présente je suis celui qui a très faim Cest pas la fin du film les frères Au contraire cest que le début On va tout niquer sa mère Ya zerh notre son cest de la re-pu</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Mister you gataga Le grand mechant you c'est dans les bac ma gueule booska p c'est comment Afif XXX Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter ils vont faire comment Jpars en tourné jgagne de quoi acheter un appartement Ceux qui me boycottent laisse les parlés Jconnais plus personne meme sans harley Jfume un peu plus que Bob Marley Si ta fait le million Tbarak'Allah Hlik Quand jsuis dans le periph pepere j'accelere Quand jsuis dans le rif jnegocie lfeleh Dans le rap francais jsuis toujours defoncé Dans la chambre XXX en train de lui niqué sa mere Des cheques et des cheques putains de sa mere Lahsa levrette que des fesse a l'air L'oeuil du tigre comme le pti salah Il me capte au bled mieux que Itisalate Fait pas shab tu me baise arrete tes salades Jai mon 7 ma sacoche solo jme balade Armé d'un ke-glo jcroise Baracuda Ya plus de conso c le Maroc ou dab You might also likeOugata roll royce jaguar mercedes BM En bas de la pente on remonte l'echelle Jreve que de liasse de panas , de tigresse et de chiennes Aime ce putain de billet d'500 Tout tout tous looké regarde mes mains 100 En promenade jaimerais ne plus pouvoir a refaire sa J'aimerai que la juge me tape une lehssa Si tu veux la paix noublie jamais qu'faut faire la guerre Sort ton shlass ton automatique goutte au revolver Mais n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Non n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Si tu veux la paix noublie jamais qu'faut faire la guerre Sort ton shlass ton automatique goutte au revolver Mais n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Non n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Ougataaaa Le torse est bombé Fuck le A et le plan B J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP Je m'adresse à toute l'Afrique du Tachel'hit au Wolofs Dans la street c'est la guerre c'est 100 fois pire que Call Of' Ca traîne qu'entre galériens ça rêve de se faire les haggars Ca se tire dessus pour un rien, plus le temps pour la bagarre J'suis galbé comme un balai l'état veut me foutre au placard C'est l'histoire d'un sénégalais qui rêve de Paris à Dakar Qui voit les jeunes venir de ce-fran tout l'été et bé-flam Maintenant même lui il veut tout péter dans le trafic de stupéfiants Il veut être la source comme Evian petit veut doubler les grands Il a des couilles il a du cran personne le fera blé-trem J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP Omnibulé par la haine les 3ayneurs n'ont aucun rêve Y m'faut une mitraillette ou un tokarev rêve Hôtel palace restaurant luxueux Hélicoptère jet privé de quoi en mettre plein les yeux Mesdames et messieurs écoutez bien cette histoire Celle d'un prince plein aux as plus riche que n'importe quelle star Des féfés, des bentleys escortés par des vitos Des djellabas d'chez Louis Vuitton Des puits d'pétrole des équipes de footballers Bien sûr qu'l'oseille il en rentre à toute heure Le pétrodollar il en connait la valeur Tout c'qui connait pas c'est le bonheur J'ai dit aux prof nique ta mère Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP1</t>
+          <t>Mister you gataga Le grand mechant you c'est dans les bac ma gueule booska p c'est comment Afif XXX Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter Ils sdemandent tous pour marreter ils vont faire comment Jpars en tourné jgagne de quoi acheter un appartement Ceux qui me boycottent laisse les parlés Jconnais plus personne meme sans harley Jfume un peu plus que Bob Marley Si ta fait le million Tbarak'Allah Hlik Quand jsuis dans le periph pepere j'accelere Quand jsuis dans le rif jnegocie lfeleh Dans le rap francais jsuis toujours defoncé Dans la chambre XXX en train de lui niqué sa mere Des cheques et des cheques putains de sa mere Lahsa levrette que des fesse a l'air L'oeuil du tigre comme le pti salah Il me capte au bled mieux que Itisalate Fait pas shab tu me baise arrete tes salades Jai mon 7 ma sacoche solo jme balade Armé d'un ke-glo jcroise Baracuda Ya plus de conso c le Maroc ou dab Ougata roll royce jaguar mercedes BM En bas de la pente on remonte l'echelle Jreve que de liasse de panas , de tigresse et de chiennes Aime ce putain de billet d'500 Tout tout tous looké regarde mes mains 100 En promenade jaimerais ne plus pouvoir a refaire sa J'aimerai que la juge me tape une lehssa Si tu veux la paix noublie jamais qu'faut faire la guerre Sort ton shlass ton automatique goutte au revolver Mais n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Non n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Si tu veux la paix noublie jamais qu'faut faire la guerre Sort ton shlass ton automatique goutte au revolver Mais n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Non n'hesite pas n'hesite n'hesite pas n'hesite n'hesite pas Ougataaaa Le torse est bombé Fuck le A et le plan B J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP Je m'adresse à toute l'Afrique du Tachel'hit au Wolofs Dans la street c'est la guerre c'est 100 fois pire que Call Of' Ca traîne qu'entre galériens ça rêve de se faire les haggars Ca se tire dessus pour un rien, plus le temps pour la bagarre J'suis galbé comme un balai l'état veut me foutre au placard C'est l'histoire d'un sénégalais qui rêve de Paris à Dakar Qui voit les jeunes venir de ce-fran tout l'été et bé-flam Maintenant même lui il veut tout péter dans le trafic de stupéfiants Il veut être la source comme Evian petit veut doubler les grands Il a des couilles il a du cran personne le fera blé-trem J'ai dit aux prof nique ta mère et ton re-pè Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP Omnibulé par la haine les 3ayneurs n'ont aucun rêve Y m'faut une mitraillette ou un tokarev rêve Hôtel palace restaurant luxueux Hélicoptère jet privé de quoi en mettre plein les yeux Mesdames et messieurs écoutez bien cette histoire Celle d'un prince plein aux as plus riche que n'importe quelle star Des féfés, des bentleys escortés par des vitos Des djellabas d'chez Louis Vuitton Des puits d'pétrole des équipes de footballers Bien sûr qu'l'oseille il en rentre à toute heure Le pétrodollar il en connait la valeur Tout c'qui connait pas c'est le bonheur J'ai dit aux prof nique ta mère Le jour où j'ai raté mon BEP Tranquille, pépère j'sors un EP un album, une mixtape, t'inquiète j'suis OP1</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Quitter le quartier On a pris de loseille on sest fait la belle On a quitté le quartier Quitter le quartier On a pris de loseille on sest fait la belle On a quitté le quartier On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Eh gars tsais quoi jsuis venu faire des dégâts Je suis zéga devant la roulette à Las Vegas je re vois ma jeunesse dans la lère-ga Gros dans la vie on a toujours ce quon mérite Nique sa mère lEurope sa mère lAmérique Je veux une vue sur la mer et je fuck la mairie Je fou la merde avec mes dreri Je veux plus dherbe dans la prairie Ce quon teste ils ont péri Un pour la mafia ouais darwa demande à Miklo C'est deux pour mifa non chez nous ya pas damigo Vrai vato loco toujours chaud pas qu'au micro Pegep PGP moi j'ai pas d'bigo c'soir on pète la Veuve Cliquot You might also like On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Ils parlent de moi mais jai tout mérité Je suis plus l'beur de la rue Je rap la vérité en toute sincérité Même quand je les vouvoie ça pue la vulgarité Dégaine de Latino nous arrivons, t'arrache ton pilon Pas besoin de lire ma bio j'ai vendu plus de blanche quaux JO Je fais cogiter le prof de philo Jai envie de me faire dirlo ouais, ouais Je veux de loseille comme les gambino Escobar Emilio, jai envie de faire des millions ouais, ouais, ouais Je veux de loseille comme les gambino Escobar Rmilio, jai envie de faire des millions ouais Un pour la mafia ouais darwa demande à Miklo C'est deux pour mifa non chez nous ya pas damigo Vrai vato loco toujours chaud pas qu'au micro Pegep PGP moi j'ai pas d'bigo c'soir on pète la Veuve Cliquot On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Pour faire de loseille ouais faut tout prendre, allez fréro yalla Faut aller le chercher, faut tout arracher tant quil y en a Pour faire de loseille ouais faut tout prendre, allez fréro yalla Faut aller le chercher, faut tout arracher tant quil y en a On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant On a pris de loseille on sest fait la belle On a quitté le quartier On a pris de loseille on sest fait la belle On a quitté le quartier</t>
+          <t>Quitter le quartier On a pris de loseille on sest fait la belle On a quitté le quartier Quitter le quartier On a pris de loseille on sest fait la belle On a quitté le quartier On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Eh gars tsais quoi jsuis venu faire des dégâts Je suis zéga devant la roulette à Las Vegas je re vois ma jeunesse dans la lère-ga Gros dans la vie on a toujours ce quon mérite Nique sa mère lEurope sa mère lAmérique Je veux une vue sur la mer et je fuck la mairie Je fou la merde avec mes dreri Je veux plus dherbe dans la prairie Ce quon teste ils ont péri Un pour la mafia ouais darwa demande à Miklo C'est deux pour mifa non chez nous ya pas damigo Vrai vato loco toujours chaud pas qu'au micro Pegep PGP moi j'ai pas d'bigo c'soir on pète la Veuve Cliquot On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Ils parlent de moi mais jai tout mérité Je suis plus l'beur de la rue Je rap la vérité en toute sincérité Même quand je les vouvoie ça pue la vulgarité Dégaine de Latino nous arrivons, t'arrache ton pilon Pas besoin de lire ma bio j'ai vendu plus de blanche quaux JO Je fais cogiter le prof de philo Jai envie de me faire dirlo ouais, ouais Je veux de loseille comme les gambino Escobar Emilio, jai envie de faire des millions ouais, ouais, ouais Je veux de loseille comme les gambino Escobar Rmilio, jai envie de faire des millions ouais Un pour la mafia ouais darwa demande à Miklo C'est deux pour mifa non chez nous ya pas damigo Vrai vato loco toujours chaud pas qu'au micro Pegep PGP moi j'ai pas d'bigo c'soir on pète la Veuve Cliquot On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant Pour faire de loseille ouais faut tout prendre, allez fréro yalla Faut aller le chercher, faut tout arracher tant quil y en a Pour faire de loseille ouais faut tout prendre, allez fréro yalla Faut aller le chercher, faut tout arracher tant quil y en a On crime pour la monnaie On rime pour la monnaie On charbonne pour la monnaie Là je sors lalbum pour la monnaie Je veux de lor et des diamants Dfaçon les anciens sont là depuis un an On ma dit calme toi tes trop violent Je fume que la beuh dHollande je suis chargée passe le volant On a pris de loseille on sest fait la belle On a quitté le quartier On a pris de loseille on sest fait la belle On a quitté le quartier</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Des féfés pour faire le buzz Des fois xxxxxxxxx Moi je vends des grosses caisses quand le pe-ra nous laisse J'investis les hassanats comme le père à Younes Pull, veste, Givenchy Arrêtes la musique ouais si tu vends le shit J'patiente gratuitement vu qu'paye rien pour attendre Ça sert à quoi qu'tu mentes vu qu'ta plus rien a vendre J'ai un gros kerch j'suis pas obèse Chasse le naturel il revient avec des gros bzèzs Mister You, A.L.P mon negro Showcase xxxxxx xxxx Monnaie crame, monnaie haram, la monnaie des grammes Quiero la comida pour mes gars J'suis pas Hamida big up au méga J'ai pas le sida donc y'a pas de lère-ga Les groupies j'calcule pas même avec les regards J'men bat les couilles de tout même si j'ai l'air carré J'vous ai menti j'suis plus barbu mais j'suis taré Gamos, plaque italienne, synonyme de crédit soldé Mes voisins ne sont pas serviable nan, nan C'est pas les filles d'à côté Si le hram est tendance j'avoue je suis démodé Si tu marche de travers c'est que je t'ai démonté C'est pour mes locos, xxxxxx xx xxxx Fumeurs de hiyaa, big up aux xxxxx You might also like Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x À vos marques prêt feu buvez Crevettes, caviar, champagne dans l'buffet J'pars en tournée reufré j'suis refais J'rap j'baise des kèh et j'lève mon reuvé Tu peux me croiser rhabta avec Pépé Ou sapé de la tête aux pieds en P.P Ou encore, cagoulé en GP pour le biff Pour l'biz faut investir le PGP Si t'as un boule chargé comme mon casier Mon glock ou mon dobé moi j'suis OP Nique ta mère, tes frères, ton reu-pé Nhal zoc khaltec si tu veux pas ieupé OK, ALP Akram rien que ça crame Des gamoss, des bécanes Dans l'blunt y'a 4 grammes On m'a connu au sous-sol et puis en cavale Puis number one d'ce putain d'underground Laisse, laisse, laissez passer l'animal Si on me canne pleurez pas nan Ramenez moi un imam On se bouffe entre nous On est devenu des cannibales On te fais la guerre mondiale Pour même pas 10 balles Wesh, wesh, maintenant faut se réveiller On paye rien pour attendre ni pour te balayer Fils d'ouvriers on veut finir millionnaire On fume du shit et de l'herbe Pour calmer nos nerfs Putain de sa mère, bordel de merde Demande aux gars de Tanger À quoi sert un scooter de mer Pour voir nos ieucous pas besoin d'un scanner Tu peux compter sur nous dans n'importe quelles galères Les concurrents on les graille comme des crustacés C'est le début d'la fin on en a plus qu'assez C'est pour les frères au hebs Qu'ont pas pu se casser Qui exécutent leurs peines Et qui prennent pas de cachets! Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x</t>
+          <t>Des féfés pour faire le buzz Des fois xxxxxxxxx Moi je vends des grosses caisses quand le pe-ra nous laisse J'investis les hassanats comme le père à Younes Pull, veste, Givenchy Arrêtes la musique ouais si tu vends le shit J'patiente gratuitement vu qu'paye rien pour attendre Ça sert à quoi qu'tu mentes vu qu'ta plus rien a vendre J'ai un gros kerch j'suis pas obèse Chasse le naturel il revient avec des gros bzèzs Mister You, A.L.P mon negro Showcase xxxxxx xxxx Monnaie crame, monnaie haram, la monnaie des grammes Quiero la comida pour mes gars J'suis pas Hamida big up au méga J'ai pas le sida donc y'a pas de lère-ga Les groupies j'calcule pas même avec les regards J'men bat les couilles de tout même si j'ai l'air carré J'vous ai menti j'suis plus barbu mais j'suis taré Gamos, plaque italienne, synonyme de crédit soldé Mes voisins ne sont pas serviable nan, nan C'est pas les filles d'à côté Si le hram est tendance j'avoue je suis démodé Si tu marche de travers c'est que je t'ai démonté C'est pour mes locos, xxxxxx xx xxxx Fumeurs de hiyaa, big up aux xxxxx Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x À vos marques prêt feu buvez Crevettes, caviar, champagne dans l'buffet J'pars en tournée reufré j'suis refais J'rap j'baise des kèh et j'lève mon reuvé Tu peux me croiser rhabta avec Pépé Ou sapé de la tête aux pieds en P.P Ou encore, cagoulé en GP pour le biff Pour l'biz faut investir le PGP Si t'as un boule chargé comme mon casier Mon glock ou mon dobé moi j'suis OP Nique ta mère, tes frères, ton reu-pé Nhal zoc khaltec si tu veux pas ieupé OK, ALP Akram rien que ça crame Des gamoss, des bécanes Dans l'blunt y'a 4 grammes On m'a connu au sous-sol et puis en cavale Puis number one d'ce putain d'underground Laisse, laisse, laissez passer l'animal Si on me canne pleurez pas nan Ramenez moi un imam On se bouffe entre nous On est devenu des cannibales On te fais la guerre mondiale Pour même pas 10 balles Wesh, wesh, maintenant faut se réveiller On paye rien pour attendre ni pour te balayer Fils d'ouvriers on veut finir millionnaire On fume du shit et de l'herbe Pour calmer nos nerfs Putain de sa mère, bordel de merde Demande aux gars de Tanger À quoi sert un scooter de mer Pour voir nos ieucous pas besoin d'un scanner Tu peux compter sur nous dans n'importe quelles galères Les concurrents on les graille comme des crustacés C'est le début d'la fin on en a plus qu'assez C'est pour les frères au hebs Qu'ont pas pu se casser Qui exécutent leurs peines Et qui prennent pas de cachets! Va sur Snapchat regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x Regarde nos stories A.L.P , Kalsha, Mister You Xxxxx xx xxxxxx xxxxx Avec ta khnuna on peut faire du cke-cra Wesh t'a crus quoi? Qu'tu serais pas grillé? Cigarette plein d'sel3a dans l'cendrier Ta keh toute la terre l'a fait crié Xxxxx xxxxx x</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Ils ont ramené un jeu d'échec, on a ramené deux calibres Distribution à grande échelle, on a vécu dans la jungle, nos mamas n'sont pas câlines Demande à Youness, il faut porter ses couilles On va le faire, face au danger, j't'allume, moi, j'ai jamais les mains moites Hey, il en suffit d'une seule dans l'barillet, sur l'parking, j'te fais danser comme dans la boîte Mister You, il a pris du poids, maintenant, met quarante dans des boîtes Fetuccini parsemés d'truffe, ça vient changer le goût des pâtes Depuis tout p'tit, on rêve que d'oseille, la prison, c'est mieux qu'un porno Si on a pris, on va pas remettre, tout ça là comme Momo Vise le crâne et non pas le fémur, en go-fast, plus de Étoiles sur l'plafond pour le gamos, une sur l'mur pour Mohamed Ali Snap la rfissa, Mohamed Henni, le faciès devient un délit Laissez-nous dans nos délires, on rêve d'une putain dembelli J'reconnais pas mes tords, moi non plus, j'aime pas les porcs J'ai des baveux face à la juge, j'lui dis quand même nique tes morts Tout allait bien, c'était l'terrain, maintenant, j'les passe à Dubaï Et l'été, c'était le hebs, y a trois putes sur la côte à Cannes On sort le pétard ça fait pam-pam à Los Angeles La mélo' d'la guitare me rappelle ma jeunesse Des mecs d'Afrique du Nord avec des armes de l'Est You might also like On en a fait des platas, connard, on a fait des remontada, eh Sono le piu bello, le rebeu est en Prada, j'sors en Lambo sur la Strada J'viens du 9.4 et j'suis en feat avec Belleville, mille euros qu'on a mis dans le mille Eh, dans la ville, des vampires capuchés qui sont le cauchemar du Devil-vil Moi, j'suis qu'un pauvre qu'a de l'oseille, comme vous l'a d'jà dit Lamecri C'est le mektoub, c'est d'jà écrit, des fois, khapta, j'fais des dingueries Putain d'soirée sous Jack, comparution immédiate, on r'cherche la protection d'Allah contre les humains, les djinns et l'Diable On n'a pas changé pour d'l'oseille, on n'a pas changé pour des chattes On a r'tourné ce putain d'game, on a d'jà parchoqué les charts Lex-Ro, black card, Dior, Balenciaga, nous, notre rap, c'est pour les hommes, pas pour les tiagas J'reconnais pas mes tords, moi non plus, j'aime pas les porcs J'ai des baveux face à la juge, j'lui dis quand même nique tes morts Tout allait bien, c'était l'terrain, maintenant, j'les passe à Dubaï Et l'été, c'était le hebs, avec trois putes sur la côte à Cannes On sort le pétard ça fait pam-pam à Los Angeles La mélo' d'la guitare me rappelle ma jeunesse Des mecs d'Afrique du Nord avec des armes de l'Est</t>
+          <t>Ils ont ramené un jeu d'échec, on a ramené deux calibres Distribution à grande échelle, on a vécu dans la jungle, nos mamas n'sont pas câlines Demande à Youness, il faut porter ses couilles On va le faire, face au danger, j't'allume, moi, j'ai jamais les mains moites Hey, il en suffit d'une seule dans l'barillet, sur l'parking, j'te fais danser comme dans la boîte Mister You, il a pris du poids, maintenant, met quarante dans des boîtes Fetuccini parsemés d'truffe, ça vient changer le goût des pâtes Depuis tout p'tit, on rêve que d'oseille, la prison, c'est mieux qu'un porno Si on a pris, on va pas remettre, tout ça là comme Momo Vise le crâne et non pas le fémur, en go-fast, plus de Étoiles sur l'plafond pour le gamos, une sur l'mur pour Mohamed Ali Snap la rfissa, Mohamed Henni, le faciès devient un délit Laissez-nous dans nos délires, on rêve d'une putain dembelli J'reconnais pas mes tords, moi non plus, j'aime pas les porcs J'ai des baveux face à la juge, j'lui dis quand même nique tes morts Tout allait bien, c'était l'terrain, maintenant, j'les passe à Dubaï Et l'été, c'était le hebs, y a trois putes sur la côte à Cannes On sort le pétard ça fait pam-pam à Los Angeles La mélo' d'la guitare me rappelle ma jeunesse Des mecs d'Afrique du Nord avec des armes de l'Est On en a fait des platas, connard, on a fait des remontada, eh Sono le piu bello, le rebeu est en Prada, j'sors en Lambo sur la Strada J'viens du 9.4 et j'suis en feat avec Belleville, mille euros qu'on a mis dans le mille Eh, dans la ville, des vampires capuchés qui sont le cauchemar du Devil-vil Moi, j'suis qu'un pauvre qu'a de l'oseille, comme vous l'a d'jà dit Lamecri C'est le mektoub, c'est d'jà écrit, des fois, khapta, j'fais des dingueries Putain d'soirée sous Jack, comparution immédiate, on r'cherche la protection d'Allah contre les humains, les djinns et l'Diable On n'a pas changé pour d'l'oseille, on n'a pas changé pour des chattes On a r'tourné ce putain d'game, on a d'jà parchoqué les charts Lex-Ro, black card, Dior, Balenciaga, nous, notre rap, c'est pour les hommes, pas pour les tiagas J'reconnais pas mes tords, moi non plus, j'aime pas les porcs J'ai des baveux face à la juge, j'lui dis quand même nique tes morts Tout allait bien, c'était l'terrain, maintenant, j'les passe à Dubaï Et l'été, c'était le hebs, avec trois putes sur la côte à Cannes On sort le pétard ça fait pam-pam à Los Angeles La mélo' d'la guitare me rappelle ma jeunesse Des mecs d'Afrique du Nord avec des armes de l'Est</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>On fout la merde On-on-on on fout la merde Ça pue l'oseille dans la cave J'suis pas venu au monde pour toucher la CAF Ta gueule, je te mets des baffes si tu gaffes Pourquoi m'inquiéter, dans leur équipe que des caves J'ai sorti les crocs, se sont mis à miauler 4 ans pour une barrette, 6 mois si t'as violé Pour voir la vie en rose il m'faut du violet Versace, Brisa, Lacoste, on est violents Putain d'merde, c'st les condés au volant Tu veux rapper mais t's trop lent Trop laid, l'album arrive, on t'a trollé C'est la merde et le roi s'est fait détrôner On fout la merde, p'tite villa, bord d'la mer On fout la On fout la merde, p'tite villa, bord d'la mer On fout la merde You might also like Ils investissent dans l'bois pour cramer des allumettes Remplissent les gueules de bois et crament tout en boite Les haineux m'observent avec un fusil à lunettes Veulent que j'graille des pâtes juste parce que je les épate J'suis toujours dans les blocs', j'ai traversé les époques Chez nous ça clic-rah, tu peux ramener tes potes Toc, toc, toc, nan nan c'est pas les condés C'est Brisa, Mister You, les oiseaux on va les compter On fout la merde, p'tite villa, bord d'la mer On fout la On fout la merde, p'tite villa, bord d'la mer On fout la merde 1</t>
+          <t>On fout la merde On-on-on on fout la merde Ça pue l'oseille dans la cave J'suis pas venu au monde pour toucher la CAF Ta gueule, je te mets des baffes si tu gaffes Pourquoi m'inquiéter, dans leur équipe que des caves J'ai sorti les crocs, se sont mis à miauler 4 ans pour une barrette, 6 mois si t'as violé Pour voir la vie en rose il m'faut du violet Versace, Brisa, Lacoste, on est violents Putain d'merde, c'st les condés au volant Tu veux rapper mais t's trop lent Trop laid, l'album arrive, on t'a trollé C'est la merde et le roi s'est fait détrôner On fout la merde, p'tite villa, bord d'la mer On fout la On fout la merde, p'tite villa, bord d'la mer On fout la merde Ils investissent dans l'bois pour cramer des allumettes Remplissent les gueules de bois et crament tout en boite Les haineux m'observent avec un fusil à lunettes Veulent que j'graille des pâtes juste parce que je les épate J'suis toujours dans les blocs', j'ai traversé les époques Chez nous ça clic-rah, tu peux ramener tes potes Toc, toc, toc, nan nan c'est pas les condés C'est Brisa, Mister You, les oiseaux on va les compter On fout la merde, p'tite villa, bord d'la mer On fout la On fout la merde, p'tite villa, bord d'la mer On fout la merde 1</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ok J'commence tous doux big up le rok'ma madou Comme ils dit ougataga Mister You do what We Gonna Do ? Vas-y fout le feu tant qu'tu r'présente Belleville Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo D'mande à Sambou, à Siyabou, à Hibou à Chikabou ' comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ' J'ai qu'une kave'pou au ste-po sa fait pas d'crise d'épilepsie Ça ravale pas sa langue hein ça surveille pas son lexique Comme dit nass Belleville c'est och y'a plus de keufs qu'à l'avenue foch Les rg sa pourrait être tes proches alors conseil surveille tes poches J'ai fait du flous big up pinus madifili J'sais qu'investir dans une raflure, c'est mieux qu'faire de l'Haltérophilie William stouky a eu la même mort que Zied et Bouna Les coups de talki moi, j'en est manger j'avais de la h3nouna C'est Mister You là, mauvaise graine de Belleville Zoo là Seule femme que j'aime, c'est celle qui ma fait tété l'bzoula Querer un poco de Vokda, con sumo de naranja C'Mister Yougataga moi, j'ai grandit dans l'rhla Dans le hlam à Paris pas, à Marly-Gomont Crois-moi pour percer j'aurais pa un stylie teh les gol-mons J'compte demonter les barrières, nique la mère aux detectives Avec Ladji et Bakaou derrière c'est impossible tu peu test Yves Envers la race humaine j'aurais p'tetre un peu d'estime frère Quand l'État d'Israël y s'appellera enfin Palestine You might also like Tout est verrouillé, akhi ça fait qu'j'dois toquer J'dois faire le maximum poto, pour ne pas finir toquer J'te raconte ma story, c'est rude tu l'as d'ja lu sur pochette T'as vu , tu prends des rides, c'est nul et en plus ça coûte trop cher T'as vu, des fois j'suis là, j'dévie la bougeotte comme en concert T'as vu , y'en a qui s'mettent à l'aise moi j'graille des boîtes de conserve Du bon pilon, soirée thé-lo Voilà comment j'me console Le truc dans l'quel j'me perds, moi c'est les voyelles et les consoles J'peux pas tout détailler, parce que c'est grave, tellement ça consomme Ça passe des nuits entières à se défoncer devant la console Toujours les mêmes questions, les mêmes réponses ' Gros c'est quand qu'on sort ? ' On s'parle avec les yeuz', parce que c'est naze et qu'j'suis pas trop sobre C'est l'3eme prototype, pourquoi c'est gore, en gros ça tronçonne Les chroniques du 7.5, c'est la décharge d'un éléctro-choc C'est Jr feat. Younes, tah le bitume la night en prend forme J'ai vu des êtres humains et des gamos devenir tout difforme J'demande de l'aide, l'impression qu'la vie m'délaisse Mec de l'Est, là où tout les non-fumeurs demandent de l'aide Quand on étaient p'tit à la mairie on leurs a demander un terrain de foot Ils ont refuser on s'est mit à bicrave on a ouvert des terrain d'shnoufs ! Ils s'tappent des pavtars, pendant qu'ils r'fillent des sale doigts Des ardoises, des zephas qui choquent autant qu'un Sale noir ! Un truc de ouf, ognouf , la liberté , on s'en vas tisé En allant au parloir, hashek avec le trou d'bal ' Nivéatisé ' La chaise électrique, lourde sentence pour Zied et Bouna 10 piges aux assiètes, c'est ta carrières qui s'mange une bounia Ils parlent qu'en dollard, le baveux veut des payes tah la mafia Du coup l'rêve d'un tollard s'rai d'finir sa peine à la MAAF Sérieux moi, Dahwa, j'suis très hystérique Si j'prend une peine à 2 chiffres, la branlette sa m'rendrait stérile C'est Mister You j'suis amateur de Sensimilia D'après l'Coran y'en a 40 comme moi sur 5-6 milliards Et ouais, quand tu calcul sa n'fait pas plizèf Au fait, représente 20ème, 11ème et l'19 J'finit sourd, ni aveugle , j'n'aurait que cliko pour veuve À la vus de Nico je n'ai qu'une envie c'est d'cliké sur l'9 Moi j'braque 357 rappeurs, parents J'ai les mêmes dont que Corleone, et on m'apelle ' Le parain ' Dans l'tiékar, on m'as appris à ne pas séparer OrNiCar, j'ai jamais sus il est passer par où Par où le fric m'attire, donc j'ai la rime pas bonne J'ai horreur d'fouiller mes poches, tout en sachant qu'ya foye Je sais qu'c'est moi l'best, impossible que j'm'affole SARKOZY !!! Tu m'doit l'respect, ta le même cul qu'ma folle Dit leurs Jrrrrrr ! Y'a des médocs, et des mots d'crâne Des murs crade, j'ai fait l'adition et v'la l'résultat Gangsta, avec ou sans job' qui rêve de grande salle D'argent salle, j'sais qu'on est pas loin mais c'est pas l'Kansas J'fait percut' Comme celui qu'tu vois qu'a pas d'couverture Convertit c'est toujours la modéstie qu'ont perturbe Verdure , dans tout les sous-sols ou tout plein d'textures J'me masturbe sous l'gouvernement parce c'est absurde C'est hardcore, sur la trajectoire Pas mal de gens s'gourre C'est mesquin, pas b'soin d'se salir les mains, les gens s'goumment Les boulevards, c'est contaminé par la nouvelle mode Si c'est l'top, ouvrez-moi la porte alors si c'est l'code Visez l'4, avoir la patate d'un pit en vale-ca Dans l'coltard, tout les jours sa rêve d'aller piller l'cash Dans les stades La Sexion D'assaut première sur l'estrade Un extrait, surprennant comme la défonce sous exta' J'demande de l'aide, l'impression qu'la vie m'délaisse Mec de l'Est, là où tout les non-fumeurs demandent de l'aide Quand on étaient p'tit à la mairie on leurs a demander un terrain de foot Ils ont refuser on s'est mit à bicrave on a ouvert des terrain d'shnoufs ! Ils s'tappent des pavtars, pendant qu'ils r'fillent des sale doigts Des ardoises, des zephas qui choquent autant qu'un Sale noir ! Un truc de ouf, ognouf , la liberté , on s'en vas tisé En allant au parloir, hashek avec le trou d'bal ' Nivéatisé ' Ha ha haha ha ha haha</t>
+          <t>Ok J'commence tous doux big up le rok'ma madou Comme ils dit ougataga Mister You do what We Gonna Do ? Vas-y fout le feu tant qu'tu r'présente Belleville Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo D'mande à Sambou, à Siyabou, à Hibou à Chikabou ' comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ' J'ai qu'une kave'pou au ste-po sa fait pas d'crise d'épilepsie Ça ravale pas sa langue hein ça surveille pas son lexique Comme dit nass Belleville c'est och y'a plus de keufs qu'à l'avenue foch Les rg sa pourrait être tes proches alors conseil surveille tes poches J'ai fait du flous big up pinus madifili J'sais qu'investir dans une raflure, c'est mieux qu'faire de l'Haltérophilie William stouky a eu la même mort que Zied et Bouna Les coups de talki moi, j'en est manger j'avais de la h3nouna C'est Mister You là, mauvaise graine de Belleville Zoo là Seule femme que j'aime, c'est celle qui ma fait tété l'bzoula Querer un poco de Vokda, con sumo de naranja C'Mister Yougataga moi, j'ai grandit dans l'rhla Dans le hlam à Paris pas, à Marly-Gomont Crois-moi pour percer j'aurais pa un stylie teh les gol-mons J'compte demonter les barrières, nique la mère aux detectives Avec Ladji et Bakaou derrière c'est impossible tu peu test Yves Envers la race humaine j'aurais p'tetre un peu d'estime frère Quand l'État d'Israël y s'appellera enfin Palestine Tout est verrouillé, akhi ça fait qu'j'dois toquer J'dois faire le maximum poto, pour ne pas finir toquer J'te raconte ma story, c'est rude tu l'as d'ja lu sur pochette T'as vu , tu prends des rides, c'est nul et en plus ça coûte trop cher T'as vu, des fois j'suis là, j'dévie la bougeotte comme en concert T'as vu , y'en a qui s'mettent à l'aise moi j'graille des boîtes de conserve Du bon pilon, soirée thé-lo Voilà comment j'me console Le truc dans l'quel j'me perds, moi c'est les voyelles et les consoles J'peux pas tout détailler, parce que c'est grave, tellement ça consomme Ça passe des nuits entières à se défoncer devant la console Toujours les mêmes questions, les mêmes réponses ' Gros c'est quand qu'on sort ? ' On s'parle avec les yeuz', parce que c'est naze et qu'j'suis pas trop sobre C'est l'3eme prototype, pourquoi c'est gore, en gros ça tronçonne Les chroniques du 7.5, c'est la décharge d'un éléctro-choc C'est Jr feat. Younes, tah le bitume la night en prend forme J'ai vu des êtres humains et des gamos devenir tout difforme J'demande de l'aide, l'impression qu'la vie m'délaisse Mec de l'Est, là où tout les non-fumeurs demandent de l'aide Quand on étaient p'tit à la mairie on leurs a demander un terrain de foot Ils ont refuser on s'est mit à bicrave on a ouvert des terrain d'shnoufs ! Ils s'tappent des pavtars, pendant qu'ils r'fillent des sale doigts Des ardoises, des zephas qui choquent autant qu'un Sale noir ! Un truc de ouf, ognouf , la liberté , on s'en vas tisé En allant au parloir, hashek avec le trou d'bal ' Nivéatisé ' La chaise électrique, lourde sentence pour Zied et Bouna 10 piges aux assiètes, c'est ta carrières qui s'mange une bounia Ils parlent qu'en dollard, le baveux veut des payes tah la mafia Du coup l'rêve d'un tollard s'rai d'finir sa peine à la MAAF Sérieux moi, Dahwa, j'suis très hystérique Si j'prend une peine à 2 chiffres, la branlette sa m'rendrait stérile C'est Mister You j'suis amateur de Sensimilia D'après l'Coran y'en a 40 comme moi sur 5-6 milliards Et ouais, quand tu calcul sa n'fait pas plizèf Au fait, représente 20ème, 11ème et l'19 J'finit sourd, ni aveugle , j'n'aurait que cliko pour veuve À la vus de Nico je n'ai qu'une envie c'est d'cliké sur l'9 Moi j'braque 357 rappeurs, parents J'ai les mêmes dont que Corleone, et on m'apelle ' Le parain ' Dans l'tiékar, on m'as appris à ne pas séparer OrNiCar, j'ai jamais sus il est passer par où Par où le fric m'attire, donc j'ai la rime pas bonne J'ai horreur d'fouiller mes poches, tout en sachant qu'ya foye Je sais qu'c'est moi l'best, impossible que j'm'affole SARKOZY !!! Tu m'doit l'respect, ta le même cul qu'ma folle Dit leurs Jrrrrrr ! Y'a des médocs, et des mots d'crâne Des murs crade, j'ai fait l'adition et v'la l'résultat Gangsta, avec ou sans job' qui rêve de grande salle D'argent salle, j'sais qu'on est pas loin mais c'est pas l'Kansas J'fait percut' Comme celui qu'tu vois qu'a pas d'couverture Convertit c'est toujours la modéstie qu'ont perturbe Verdure , dans tout les sous-sols ou tout plein d'textures J'me masturbe sous l'gouvernement parce c'est absurde C'est hardcore, sur la trajectoire Pas mal de gens s'gourre C'est mesquin, pas b'soin d'se salir les mains, les gens s'goumment Les boulevards, c'est contaminé par la nouvelle mode Si c'est l'top, ouvrez-moi la porte alors si c'est l'code Visez l'4, avoir la patate d'un pit en vale-ca Dans l'coltard, tout les jours sa rêve d'aller piller l'cash Dans les stades La Sexion D'assaut première sur l'estrade Un extrait, surprennant comme la défonce sous exta' J'demande de l'aide, l'impression qu'la vie m'délaisse Mec de l'Est, là où tout les non-fumeurs demandent de l'aide Quand on étaient p'tit à la mairie on leurs a demander un terrain de foot Ils ont refuser on s'est mit à bicrave on a ouvert des terrain d'shnoufs ! Ils s'tappent des pavtars, pendant qu'ils r'fillent des sale doigts Des ardoises, des zephas qui choquent autant qu'un Sale noir ! Un truc de ouf, ognouf , la liberté , on s'en vas tisé En allant au parloir, hashek avec le trou d'bal ' Nivéatisé ' Ha ha haha ha ha haha</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système Oyima si tu me voyais je deviens fou A force de rester en chien ici on deviens loup Fiston, n'attend pas l'alarme Et si sa chauffe tant mieux sa séchera tes larmes Soldat du tiek son de taille robrah Direction le bled, Casablanca J'fais n'importe nawak, mais j'fais pas exprer Alors je fume, bois et souffre en secret L'Etat nous baratine avec un tas d'truc bidon Donne moi d'la vas'line que j'encule Cupidon La sère-mi à fait d'nous des sans coeur C'est la Hass ici pas d'place pour les pleurs Absolut, et je la vend encore Même fonce-dé je n'perd pas le nord Laisse, le passé au passé A La Youv mentalité j'en ai jamais assez You might also like On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système On fais pété l'alcool, on fait pété les grenades Déterminé comme à Grenoble ou sa s'mettent même en promenade Ok zoogataga darwa c'est l'son des cassos Comme au tacos de liori bah mon gars j'balance la sauce J'suis à la recherche d'la liberté donc ramenez moi dl'herbe J'rappe comme tous les quartiers, Villeuve, Smh, Malherbe Partout c'est la merde, là ou partout sa bicrave Là ou partout c'est la guerre mec là ou partout sa mitraille Une spéciale pour pirate, pour Trawali et pour wali J'ai grandi dans l'halam c'est pour sa mon com faut du wali Toujours chaud darwa on va tourné l'clip dans un cratère Moi c'est Yougataga j'veux foutre le feu dans toute la terre sa mère J'veux cramer tout l'univers passe moi juste une allumette A La youv Canardo ramène du muette que j'me huette Il y a pas d'balance chez nous rendez vous a porte d'l'a muette Ok zoogataga zoogataga gainst to gainst Canardo et Mister you On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système Il faut qu'ils comprennent pourquoi on traine C'est Canardo et Mister You Il faut qu'ils comprennent pourquoi on traine C'est Canardo et Mister You Yeah , mentalité a la youv Henijai Music , mentalité a la youv</t>
+          <t>On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système Oyima si tu me voyais je deviens fou A force de rester en chien ici on deviens loup Fiston, n'attend pas l'alarme Et si sa chauffe tant mieux sa séchera tes larmes Soldat du tiek son de taille robrah Direction le bled, Casablanca J'fais n'importe nawak, mais j'fais pas exprer Alors je fume, bois et souffre en secret L'Etat nous baratine avec un tas d'truc bidon Donne moi d'la vas'line que j'encule Cupidon La sère-mi à fait d'nous des sans coeur C'est la Hass ici pas d'place pour les pleurs Absolut, et je la vend encore Même fonce-dé je n'perd pas le nord Laisse, le passé au passé A La Youv mentalité j'en ai jamais assez On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système On fais pété l'alcool, on fait pété les grenades Déterminé comme à Grenoble ou sa s'mettent même en promenade Ok zoogataga darwa c'est l'son des cassos Comme au tacos de liori bah mon gars j'balance la sauce J'suis à la recherche d'la liberté donc ramenez moi dl'herbe J'rappe comme tous les quartiers, Villeuve, Smh, Malherbe Partout c'est la merde, là ou partout sa bicrave Là ou partout c'est la guerre mec là ou partout sa mitraille Une spéciale pour pirate, pour Trawali et pour wali J'ai grandi dans l'halam c'est pour sa mon com faut du wali Toujours chaud darwa on va tourné l'clip dans un cratère Moi c'est Yougataga j'veux foutre le feu dans toute la terre sa mère J'veux cramer tout l'univers passe moi juste une allumette A La youv Canardo ramène du muette que j'me huette Il y a pas d'balance chez nous rendez vous a porte d'l'a muette Ok zoogataga zoogataga gainst to gainst Canardo et Mister you On encaisse, sa ira mieux demain Des promesses, des souhaits sans lendemain Oublie pas le passé, J'oublie pas le passé Celui qui t'a forgé, Celui qui m'a forgé Ma cavale, mes problèmes Zoogataga mon emblème Nique sa mère le système Il faut qu'ils comprennent pourquoi on traine C'est Canardo et Mister You Il faut qu'ils comprennent pourquoi on traine C'est Canardo et Mister You Yeah , mentalité a la youv Henijai Music , mentalité a la youv</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>J'suis avec You, normal, on passe le temps J'suis khapta toute la journée, en studio, en show, en tournée J'ai pris d'la moula à Aulnay, d'la beuh conditionnée J'fais du son pour les faire danser, et ouais, ma pote, ça charbonne encore Te laisse pas influencer, frère, même aux hebs, ils veulent être dehors J'me fais plaisir, j'aime trop dépenser J'suis khapta, je lève le Raptor En l'air, j'ai passé les rapports Tu m'parles de lui, j'vois pas le rapport Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Et poto, sientate, arrête de faire la te-tê Sauver ne s'rait ce qu'une vie, c'est comme sauver l'humanité Toujours bien pé-sa, jamais mal accompagné Chez nous, même la hess, elle a une Audemard au poignet Chez moi, ça joue pour gagner, j'suis né dans la calle Eux, ont pris l'ascenseur, nous, on a pris l'escalier Darwa, la cons' est callée, rap pour mes carnalés, personne peut nous égaler Chauffez vous les gars, oh Montrez leur que la street est bouillante, qu'elle est chic, qu'elle est belle et brillante J'connais ni Molière, ni Chateaubriand, allez niquer vos mères, j'connais que des brigands You might also like Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang J'suis khapta toute la journée, en studio, en show, en tournée J'ai d'la beldia et d'l'amné', deux verres m'l'a ramené J'suis khapta toute la journée, en studio, en show, en tournée J'ai d'la beldia et d'l'amné', deux verres m'l'a ramené Au charbon, toute la journée, d'vant les cocotiers tah Punta Cana On gratte du ferme comme deux gros gourmets, on veut Gucci et Dolce Gabbana J'ai pris le RS6, je l'ai fait patiner, j'ai gué-lar la police, je les ai fatigué Je me lève à six heures, j'évite les condés, j'esquive les descentes pendant les remontées Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang</t>
+          <t>J'suis avec You, normal, on passe le temps J'suis khapta toute la journée, en studio, en show, en tournée J'ai pris d'la moula à Aulnay, d'la beuh conditionnée J'fais du son pour les faire danser, et ouais, ma pote, ça charbonne encore Te laisse pas influencer, frère, même aux hebs, ils veulent être dehors J'me fais plaisir, j'aime trop dépenser J'suis khapta, je lève le Raptor En l'air, j'ai passé les rapports Tu m'parles de lui, j'vois pas le rapport Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Et poto, sientate, arrête de faire la te-tê Sauver ne s'rait ce qu'une vie, c'est comme sauver l'humanité Toujours bien pé-sa, jamais mal accompagné Chez nous, même la hess, elle a une Audemard au poignet Chez moi, ça joue pour gagner, j'suis né dans la calle Eux, ont pris l'ascenseur, nous, on a pris l'escalier Darwa, la cons' est callée, rap pour mes carnalés, personne peut nous égaler Chauffez vous les gars, oh Montrez leur que la street est bouillante, qu'elle est chic, qu'elle est belle et brillante J'connais ni Molière, ni Chateaubriand, allez niquer vos mères, j'connais que des brigands Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang J'suis khapta toute la journée, en studio, en show, en tournée J'ai d'la beldia et d'l'amné', deux verres m'l'a ramené J'suis khapta toute la journée, en studio, en show, en tournée J'ai d'la beldia et d'l'amné', deux verres m'l'a ramené Au charbon, toute la journée, d'vant les cocotiers tah Punta Cana On gratte du ferme comme deux gros gourmets, on veut Gucci et Dolce Gabbana J'ai pris le RS6, je l'ai fait patiner, j'ai gué-lar la police, je les ai fatigué Je me lève à six heures, j'évite les condés, j'esquive les descentes pendant les remontées Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang Ils font les fous, sont là, ils font les grands T'en bats les couilles, on laisse parler les gens J'suis avec You, on fait passer le temps Belleville Air Bel zoo, t'inquiète pas, c'est le sang</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts Montrez moi la niche jvous dirais la race du chien Jsuis faya jai plus dfeuilles mais il mreste du shit Dites à vos pittbull quils arretent de miauler La loi cest comme la beuh elle a été faite pour être violé Sur un arbre au perché maître chimpanzé Vient dpenser que seul en promenade il a vu les chiens bronzer Tu sais, en lull-cé cest vite fait dêtre stressé Ils savent quta du shit Ils taccroupissent et ils tfont tousser Jai horreur dme répéter, la liberté ça coute cher Quand jerre dans les couloirs le maton joue lphacochere Clochard, tu mas dis la 8.6 cest mieux qul'Jack Suce ma bite, boniment dit fais la bise à Kojak On ma parlé dun gros chèque, cest normal que jaccoure Younes Marvin, Notorious Big Tupac Shakur Je sais quen chacun de nous se cache un chacal Sors une bouteille de sky moi jassure les machakil Dans lrap on comprend larabe mais pas lhébreu Trop ténébreux, on sfait aider par des léprons On sera les premiers, mais bon faut pas la grogner, pour percer, jai plus dun litron dans mon grenier Prenez tout cque vous voulez à part mon fusil Jen aurai besoin pour récupérer la saisie Jpeux être dur jpeux être tendre Jpeux descendre, jpeux détendre Moi jrefroidis, si jserai un mois jserai décembre Cherche pas à comprendre, jai la rime incandescente Le pere Noël est plein dsang Linnocence elle sest fait pendre BELLEVILLE! on voit plus loin ça suffit pas On analyse la merde, si tu la cherche ça fait brah You might also likex2 Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts Jdédicace à la menace, santé au poto Yassine Jvais pas vous cacher, la peine fait mal aux assises Les mères nous bassinent, on est rêveurs croyants tout facile Mais on sperdra a la fin parce que la rue nous fascine La vie nest pas simple, nous on veut juste brasser dans lbassin, une bibine à la main De la vie jpeux tfaire quun dessin La rue déborde de suspects Les sous faut les faire tak tak La rue elle te braque, petit ou grand Demande a bak-bak Les patates, cest tout cquon mange Vu quil y a qudes bâtards Donc ne tétonne pas quand y a des crimes en abattage Demande à Carter on veut juste respirer la gagne nous Connaitre laccalmie, qunos proches ils séloignent de la came On vit quune fois faut quon en profite Avant de voir le voile Des fois jveux faire le bien mais le côté noir se dévoile Toute la nuit ça carbure Quand y a les pu on met les voiles A force de grandir dans la bi Peut-être quon rejoindra Balavoine Cest dBelleville, cest si tranquille et si mal famé à la fois Demande à kiki un affamé se reconnait à lavoine Nos vies ségarent, en es tu conscient tous les soirs La vie de rêve sais tu combien ils tueraient pour lavoir La mort frappe le sang coule même quand on ne s'y attend pas Comme toi javais des rêves mais ils sont morts dans lattentat Jsuis comme un lion dans une arène, poussé par les barrettes Avec les poussées dadrénaline quand jvois passer les touaregs Tout lmonde rêve mais la rue te baise Ne crois pas quelle est loyale Car tous les soirs dans le whisky la même noyade On temmène dans un voyage Younes Marvin vient pour fumer un royal Encore un son sous marijuana x2 Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts1</t>
+          <t>Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts Montrez moi la niche jvous dirais la race du chien Jsuis faya jai plus dfeuilles mais il mreste du shit Dites à vos pittbull quils arretent de miauler La loi cest comme la beuh elle a été faite pour être violé Sur un arbre au perché maître chimpanzé Vient dpenser que seul en promenade il a vu les chiens bronzer Tu sais, en lull-cé cest vite fait dêtre stressé Ils savent quta du shit Ils taccroupissent et ils tfont tousser Jai horreur dme répéter, la liberté ça coute cher Quand jerre dans les couloirs le maton joue lphacochere Clochard, tu mas dis la 8.6 cest mieux qul'Jack Suce ma bite, boniment dit fais la bise à Kojak On ma parlé dun gros chèque, cest normal que jaccoure Younes Marvin, Notorious Big Tupac Shakur Je sais quen chacun de nous se cache un chacal Sors une bouteille de sky moi jassure les machakil Dans lrap on comprend larabe mais pas lhébreu Trop ténébreux, on sfait aider par des léprons On sera les premiers, mais bon faut pas la grogner, pour percer, jai plus dun litron dans mon grenier Prenez tout cque vous voulez à part mon fusil Jen aurai besoin pour récupérer la saisie Jpeux être dur jpeux être tendre Jpeux descendre, jpeux détendre Moi jrefroidis, si jserai un mois jserai décembre Cherche pas à comprendre, jai la rime incandescente Le pere Noël est plein dsang Linnocence elle sest fait pendre BELLEVILLE! on voit plus loin ça suffit pas On analyse la merde, si tu la cherche ça fait brah x2 Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts Jdédicace à la menace, santé au poto Yassine Jvais pas vous cacher, la peine fait mal aux assises Les mères nous bassinent, on est rêveurs croyants tout facile Mais on sperdra a la fin parce que la rue nous fascine La vie nest pas simple, nous on veut juste brasser dans lbassin, une bibine à la main De la vie jpeux tfaire quun dessin La rue déborde de suspects Les sous faut les faire tak tak La rue elle te braque, petit ou grand Demande a bak-bak Les patates, cest tout cquon mange Vu quil y a qudes bâtards Donc ne tétonne pas quand y a des crimes en abattage Demande à Carter on veut juste respirer la gagne nous Connaitre laccalmie, qunos proches ils séloignent de la came On vit quune fois faut quon en profite Avant de voir le voile Des fois jveux faire le bien mais le côté noir se dévoile Toute la nuit ça carbure Quand y a les pu on met les voiles A force de grandir dans la bi Peut-être quon rejoindra Balavoine Cest dBelleville, cest si tranquille et si mal famé à la fois Demande à kiki un affamé se reconnait à lavoine Nos vies ségarent, en es tu conscient tous les soirs La vie de rêve sais tu combien ils tueraient pour lavoir La mort frappe le sang coule même quand on ne s'y attend pas Comme toi javais des rêves mais ils sont morts dans lattentat Jsuis comme un lion dans une arène, poussé par les barrettes Avec les poussées dadrénaline quand jvois passer les touaregs Tout lmonde rêve mais la rue te baise Ne crois pas quelle est loyale Car tous les soirs dans le whisky la même noyade On temmène dans un voyage Younes Marvin vient pour fumer un royal Encore un son sous marijuana x2 Cest Younes Marvin Si tu lignores on tmet au parfum Franchis pas la frontière du 19 par l20 On en revient, toujours par les crimes les nuisances sonores Belleville là où jsuis né et la où les reufs ils sont morts1</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Ouéouéouéouéouéouéoué Darwa Mister Yougataga pour MDR volume 2 Ça continue aaaaaaaa Aie aie aie merci encore à toutes et à tous d'avoir acheter le cd, d'avoir acheter le projet Merci à toutes et à tous pour tout le soutien, grâce a vous qu'j'en suis là el hamdoulilah ça va ça continuera En tout cas je tenais à vous remercier Mais le cd il est pas fini on va se quitter sur un p'tit son tranquille t'as vu C'est les vacances rires la vie elle est belle mettez-vous bien quoi Tinlinlintinlinlinlin palapapa ouéoué darwa zoogataga zoogataga woogatamouahhhh Hein? Tu me demandes si j'suis un mec bien? Mais bien suce! Bonsoir, un menu mc j'te ken s'il te plait La sauce? de la sauce?? rires Yougataga Bref j'allais oublier un truc primordial c'est un truc de ouff qui m'est arrivé et qui a surement dû vous arrivez à vous aussi et Ouais mais j'peux pas le raconter vite comme ça faut que j'rentre dans les détails tout ça donc euuuu rendez-vous dans MDR volume 3 la famille aaaaahah woogataga zoogataga woogatabraaaaaaahYou might also like</t>
+          <t>Ouéouéouéouéouéouéoué Darwa Mister Yougataga pour MDR volume 2 Ça continue aaaaaaaa Aie aie aie merci encore à toutes et à tous d'avoir acheter le cd, d'avoir acheter le projet Merci à toutes et à tous pour tout le soutien, grâce a vous qu'j'en suis là el hamdoulilah ça va ça continuera En tout cas je tenais à vous remercier Mais le cd il est pas fini on va se quitter sur un p'tit son tranquille t'as vu C'est les vacances rires la vie elle est belle mettez-vous bien quoi Tinlinlintinlinlinlin palapapa ouéoué darwa zoogataga zoogataga woogatamouahhhh Hein? Tu me demandes si j'suis un mec bien? Mais bien suce! Bonsoir, un menu mc j'te ken s'il te plait La sauce? de la sauce?? rires Yougataga Bref j'allais oublier un truc primordial c'est un truc de ouff qui m'est arrivé et qui a surement dû vous arrivez à vous aussi et Ouais mais j'peux pas le raconter vite comme ça faut que j'rentre dans les détails tout ça donc euuuu rendez-vous dans MDR volume 3 la famille aaaaahah woogataga zoogataga woogatabraaaaaaah</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Attention, Yougataga-Yougataga Da3wa ça d'vient chaud Attention mauvais garçon, mauvais gar-gar-, mauvais ga- Be-Be-Be-Be-Be-Be-Be-Belleville, opérationnelle Yougataga Yougataga, jcrois qu'c'est lheure, j'crois qu'c'est l'heure Et avec une balle, j'te fais du karatéka Salut mon pote ! La rue ou la prison Mec, à c'tt' heure-ci, jenvie dtout quer-n' Jm'en bats les couilles, moi j'sors du Zoogataga-oogataga-gataga Prod tah Wisla, tah Wisla, tah Wisla Zoo-zoo-zoo-zoogataga-gataga C'est plus moi qui tiens les murs là, cest eux qui sont en train d'me t'nir Zoogataga-gataga-gatagaYou might also like</t>
+          <t>Attention, Yougataga-Yougataga Da3wa ça d'vient chaud Attention mauvais garçon, mauvais gar-gar-, mauvais ga- Be-Be-Be-Be-Be-Be-Be-Belleville, opérationnelle Yougataga Yougataga, jcrois qu'c'est lheure, j'crois qu'c'est l'heure Et avec une balle, j'te fais du karatéka Salut mon pote ! La rue ou la prison Mec, à c'tt' heure-ci, jenvie dtout quer-n' Jm'en bats les couilles, moi j'sors du Zoogataga-oogataga-gataga Prod tah Wisla, tah Wisla, tah Wisla Zoo-zoo-zoo-zoogataga-gataga C'est plus moi qui tiens les murs là, cest eux qui sont en train d'me t'nir Zoogataga-gataga-gataga</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Nan on va pas r'commencer Wesh mon frérot Erise dis-leur comment c'est Ils sont là tous à m'parler du bendo, ils ont pas connu Trafic de , de bedo, hé ho J'mettrai pas tous mes billets dans le même panier J'préfère être seul que mal accompagné J'veux plus voir les keufs de Mézières posés sur mon palier J'veux plus aller chez l'juge, les poings liés La daronne s'lève dans un palace, pas dans un grenier Titi il a été méchant, il a Grosminet Il a fêté ça sur les Champs vu qu'le zoo était trop miné Les impôts ils sont trop forts obligé de défiscaliser C'est plus du rap game, c'est d'la bande organisée La SACEM madame est sur un jet-ski, prochain contrôle fiscal j'serai obligé de le ves-qui Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi You might also like Ils sont là tous à m'parler du bendo, ils ont pas connu le Trafic de , de bedo, la street est traître faut pas lui tourner l'dos Ça t'fait la bise pis ça t'allume, Belleville, Barbès Ça poucave pas chez les leurs-dea, ça rentre du shit à chaque parlu On dit qu'le procureur connaît tout sauf la pitié L'alcool fort c'est mieux qu'les produits laitiers On dit aussi qu'les dettes servent de ciseaux pour l'amitié Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Ils sont là tous à m'parler du bendo, ils ont pas connu le Trafic de , de bedo, la street est traître faut pas lui tourner l'dos Big up mon poto Bersa, j'm'occupe que de mes J'veux Shakira sans jouer au Barca, Monica pour , pour m'cirer les pompes J'suis là pour faire du salace, trois quatre billets que t'as eu dans un palace j'cogite avec mon kamas, l'Afrique a jeté l'savon, faut bien qu'l'Europe elle ramasse Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi</t>
+          <t>Nan on va pas r'commencer Wesh mon frérot Erise dis-leur comment c'est Ils sont là tous à m'parler du bendo, ils ont pas connu Trafic de , de bedo, hé ho J'mettrai pas tous mes billets dans le même panier J'préfère être seul que mal accompagné J'veux plus voir les keufs de Mézières posés sur mon palier J'veux plus aller chez l'juge, les poings liés La daronne s'lève dans un palace, pas dans un grenier Titi il a été méchant, il a Grosminet Il a fêté ça sur les Champs vu qu'le zoo était trop miné Les impôts ils sont trop forts obligé de défiscaliser C'est plus du rap game, c'est d'la bande organisée La SACEM madame est sur un jet-ski, prochain contrôle fiscal j'serai obligé de le ves-qui Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Ils sont là tous à m'parler du bendo, ils ont pas connu le Trafic de , de bedo, la street est traître faut pas lui tourner l'dos Ça t'fait la bise pis ça t'allume, Belleville, Barbès Ça poucave pas chez les leurs-dea, ça rentre du shit à chaque parlu On dit qu'le procureur connaît tout sauf la pitié L'alcool fort c'est mieux qu'les produits laitiers On dit aussi qu'les dettes servent de ciseaux pour l'amitié Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Ils sont là tous à m'parler du bendo, ils ont pas connu le Trafic de , de bedo, la street est traître faut pas lui tourner l'dos Big up mon poto Bersa, j'm'occupe que de mes J'veux Shakira sans jouer au Barca, Monica pour , pour m'cirer les pompes J'suis là pour faire du salace, trois quatre billets que t'as eu dans un palace j'cogite avec mon kamas, l'Afrique a jeté l'savon, faut bien qu'l'Europe elle ramasse Dans ce bas-monde je n'ai confiance en personne J'leur indique la lune, ils bloquent sur mon doigt Mon public attend mon prochain album, comme un qui doit r'cevoir un mandat Dehors ça défourai-aille à balles réelles L'meilleur conseil poto c'est rentre chez toi Moi j'ai grandis dans les ruelles cruelles, un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi Un p'tit d'chez moi vaut mieux qu'deux grands d'chez toi</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Non même pas, wAllah, cest juste la rue Cest rien, cest la rue WAllah, cest lamour et la mort SHK Cest compliqué des fois Avec ISK, ça s'passe toujours comme ça, tu connais La rue ma eu Très tôt, j'suis tombé dans ses bras Ah ouais Cest Dieu qui donne et cest lui qui reprendra En quelques secondes, j'me branche tout seul, en cinq minutes j'fais ta baraque J'fais du bien en f'sant du sale, ils appellent ça travail dArabe Ah ouais Avant dagir, j'pens aux répercussions, les bons, les mauvais tch Un texte, des punch', des percussions, j'te fais tourner la tête Cest nous la street, pas celle quils admirent, celle qui passe sur BFM la vraie Ils sont pas nets comme des immigrés qui vont voter FN Jai mes raisons et jai mes torts, pour eux, jai tort davoir raison Vaut mieux prévenir que guérir, jattends encore la guérison Mon cur est sale, noirci par mes crasses, mes douleurs et mes peines ah ouais Dis-moi c'que cest la mort si la vie est une chienne On court après les sous, on en d'vient fou, on d'vient pas des ingrats jamais Guette la taille de leur langue et pas celle de leur bras Moi, j'suis l'même, frérot, jai pas changé, d'mande à la Rose ou Slime Cest les trophées qui cachent tous mes défauts, pas l'revers de la médaille You might also like Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez l'véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Arracheur de sacoches, le cauchemar des touristes La voiture, cest Porsche, l'assurance, c'est tous risques Eux, ils connaissent rien du tout mais ils aiment trop faire les puristes Nous, depuis p'tits, on sen bat les couilles et on fait courir la police Je me rappelle de la Santé, tordu comme la Tour de Pise À membrouiller avec les gradés, cette salope de directrice Quatre roues motrices comme Néo dans la matrice Fin d'carrière assez triste quand ça se termine à lOCRTIS Et ouais dahoua, cest la crise, à deux doigts d'chopper un ulcère Tout ce que je sais, cest quon finira poussière Intervention qui te massacrent à plusieurs Fais attention aux garçons, à n'pas finir comme un looser Cest le 7.7 et Belleville, un parigot et un banlieusard Tous les jours, j'fume de lherbe, la richesse est dans les arbres Petit conseil dArabe , ninvestis pas dans les armes Et si tu cherches la merde, tu périras par les armes Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite</t>
+          <t>Non même pas, wAllah, cest juste la rue Cest rien, cest la rue WAllah, cest lamour et la mort SHK Cest compliqué des fois Avec ISK, ça s'passe toujours comme ça, tu connais La rue ma eu Très tôt, j'suis tombé dans ses bras Ah ouais Cest Dieu qui donne et cest lui qui reprendra En quelques secondes, j'me branche tout seul, en cinq minutes j'fais ta baraque J'fais du bien en f'sant du sale, ils appellent ça travail dArabe Ah ouais Avant dagir, j'pens aux répercussions, les bons, les mauvais tch Un texte, des punch', des percussions, j'te fais tourner la tête Cest nous la street, pas celle quils admirent, celle qui passe sur BFM la vraie Ils sont pas nets comme des immigrés qui vont voter FN Jai mes raisons et jai mes torts, pour eux, jai tort davoir raison Vaut mieux prévenir que guérir, jattends encore la guérison Mon cur est sale, noirci par mes crasses, mes douleurs et mes peines ah ouais Dis-moi c'que cest la mort si la vie est une chienne On court après les sous, on en d'vient fou, on d'vient pas des ingrats jamais Guette la taille de leur langue et pas celle de leur bras Moi, j'suis l'même, frérot, jai pas changé, d'mande à la Rose ou Slime Cest les trophées qui cachent tous mes défauts, pas l'revers de la médaille Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez l'véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Arracheur de sacoches, le cauchemar des touristes La voiture, cest Porsche, l'assurance, c'est tous risques Eux, ils connaissent rien du tout mais ils aiment trop faire les puristes Nous, depuis p'tits, on sen bat les couilles et on fait courir la police Je me rappelle de la Santé, tordu comme la Tour de Pise À membrouiller avec les gradés, cette salope de directrice Quatre roues motrices comme Néo dans la matrice Fin d'carrière assez triste quand ça se termine à lOCRTIS Et ouais dahoua, cest la crise, à deux doigts d'chopper un ulcère Tout ce que je sais, cest quon finira poussière Intervention qui te massacrent à plusieurs Fais attention aux garçons, à n'pas finir comme un looser Cest le 7.7 et Belleville, un parigot et un banlieusard Tous les jours, j'fume de lherbe, la richesse est dans les arbres Petit conseil dArabe , ninvestis pas dans les armes Et si tu cherches la merde, tu périras par les armes Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite Jai des frères en cavale et dautres en mandat de dépôt On a vendu l'bédo donc la vie nous a calcinés On est sorti du zoo mais on va pas chez le véto On fait pas les James Bond, 3.5.7, pas d'ciné Cest la rue qui ma eu, j'suis tombé dans ses bras Dans ma tête, cest la vendetta, il faut qu'j'me refasse tout d'suite Cest la rue qui ma eu, j'suis tombé dans ses bras En YZ ou en Clio 3, serein en pleine course-poursuite</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais Voluptyk Voluptyk Yougataga L'Allemand Mister You Six Nueve 7.5 haha Wouh, wouh, rrah Putain dépoque de bâtard, c'est 4000 E la guitare Y en a qui tirent sur la chicha, y'en a qui tlaissent sur l'trottoir Ça poucave dans les dépôts, ça s'fait shlasser dans l'couloir T'arrives en mandat d'dépôt, c'est même plus toi dans l'miroir Et manque de peau, manque de sous, pas en manque de soucis Et cqui ttue pas t'endurcit, jvis ma vie sans raccourci Et puis ma foi, c'pas la même que l'Imam de Drancy J'perds mes sens, dans cpays d'insensés Ils diront qu'j'suis pas sensible, ils diront qu'j'suis pas français Moi j'ai ma rage qui vient des trips, algérien des deux côtés Si tu m'applles c'est tac-o-tac que j'te réponds ma beauté Ils ont des quotas eux pour voir toi si t'es côté, pelo Et fais hendek à tous tes potes parce qu'ils f'ront part du complot Moi, pour walou j'suis comblé, dès la naissance j'ai pleuré J'ai vu qu'la vie c'est pas facile ici, espèce d'enculé Vas-y va t'faire enculo, on peut même plus reculer J'sais pas pourquoi tu m'dis le deum chez nous l'sang il a coulé Chez nous tu viens avec tes couilles, tu repars émasculé You might also like Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Dans la matrice j'fais du sale, j'laisse pas d'indice J'les baise tous c'est trop facile, Yougataga côté un dix J'suis passé par le dispatching, pour percer l'coffre des maisons d'disque J'fais l'roro, j'ai fait l'platine, j'ai fait percer toute ma team J'ai bercé tous les ghettos d'France, j'ai épaulé tous les taulards C'est moi l'ministre de la défonce, minuit, sur la Daytona Toujours la fermer en G.A.V, et garde la pêche et mange le navet Ils auraient voulu être comme nous, mais ils avaient pas la rage qu'on avait Les obstacles on les a passés, les concurrents on les a froissés Wallaï Billaï qu'on s'est surpassé, nan faut pas oublier l'passé 'Jourd'hui ça parle de oi-m, sur BFM et TF1 Aujourd'hui ça rêve de jet, darwa, nique sa mère la F1 J'ai plus d'pitié, ouais t'y es, l'amitié j'y crois pas trop Squatte pas la rue si t'as pas d'rôle, tu t'f'ras fumer, gros, c'est pas drôle Le nerf d'la guerre c'est le pétrole, c'est l'oseille et c'est les folles Tu comprends vite que c'est la merde, quand ça répond plus au téléphone Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo</t>
+          <t>Ouais, ouais, ouais Voluptyk Voluptyk Yougataga L'Allemand Mister You Six Nueve 7.5 haha Wouh, wouh, rrah Putain dépoque de bâtard, c'est 4000 E la guitare Y en a qui tirent sur la chicha, y'en a qui tlaissent sur l'trottoir Ça poucave dans les dépôts, ça s'fait shlasser dans l'couloir T'arrives en mandat d'dépôt, c'est même plus toi dans l'miroir Et manque de peau, manque de sous, pas en manque de soucis Et cqui ttue pas t'endurcit, jvis ma vie sans raccourci Et puis ma foi, c'pas la même que l'Imam de Drancy J'perds mes sens, dans cpays d'insensés Ils diront qu'j'suis pas sensible, ils diront qu'j'suis pas français Moi j'ai ma rage qui vient des trips, algérien des deux côtés Si tu m'applles c'est tac-o-tac que j'te réponds ma beauté Ils ont des quotas eux pour voir toi si t'es côté, pelo Et fais hendek à tous tes potes parce qu'ils f'ront part du complot Moi, pour walou j'suis comblé, dès la naissance j'ai pleuré J'ai vu qu'la vie c'est pas facile ici, espèce d'enculé Vas-y va t'faire enculo, on peut même plus reculer J'sais pas pourquoi tu m'dis le deum chez nous l'sang il a coulé Chez nous tu viens avec tes couilles, tu repars émasculé Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Dans la matrice j'fais du sale, j'laisse pas d'indice J'les baise tous c'est trop facile, Yougataga côté un dix J'suis passé par le dispatching, pour percer l'coffre des maisons d'disque J'fais l'roro, j'ai fait l'platine, j'ai fait percer toute ma team J'ai bercé tous les ghettos d'France, j'ai épaulé tous les taulards C'est moi l'ministre de la défonce, minuit, sur la Daytona Toujours la fermer en G.A.V, et garde la pêche et mange le navet Ils auraient voulu être comme nous, mais ils avaient pas la rage qu'on avait Les obstacles on les a passés, les concurrents on les a froissés Wallaï Billaï qu'on s'est surpassé, nan faut pas oublier l'passé 'Jourd'hui ça parle de oi-m, sur BFM et TF1 Aujourd'hui ça rêve de jet, darwa, nique sa mère la F1 J'ai plus d'pitié, ouais t'y es, l'amitié j'y crois pas trop Squatte pas la rue si t'as pas d'rôle, tu t'f'ras fumer, gros, c'est pas drôle Le nerf d'la guerre c'est le pétrole, c'est l'oseille et c'est les folles Tu comprends vite que c'est la merde, quand ça répond plus au téléphone Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo Elle a perdu la tête, ta bella À faire la folle jusqu'à Marbella Il a perdu la tête, ton pelo Il a mis tout c'qui reste dans l'bédo</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Hey Mister You, raconte comment c'était pour toi, raconte comment c'était dedans Wesh wesh wesh frère, je suis peut-être pas très intelligent Mais je préfère courir à ma perte que de galoper derrière les gens J'ai connu des jours étincelants, des remonter de promenade en sang Des recalages assez vexants, des bêtes de soirées dansantes Y a plus de ketchup y a que du piment cash du lundi au dimanche Les illeus-cou c'est pas ça qui manque, plus le temps pour les sentiments On sait bien que le chef du bâtiments il va pas nous parler gentiment J'ai grandi dans la street, dans mes veines coule du ciment Au prétoir jespère pas glisser, au parloir le sarouel baissé Le train de vie d'un canard WC, je prend le micro c'est que pour le blesser Les matonnes je leur mets ma bite comme je l'ai fait à se putain de rap français C'est plus des coups, c'est des liasses que je voudrait encaisser Les tons-ma qui jouent les cromas dites leurs d'aller XXX C'est toujours les mêmes qui parlent donc c'est toujours les mêmes qu'on visent WoogataMouah, freestyle pour hip-hop convictYou might also like</t>
+          <t>Hey Mister You, raconte comment c'était pour toi, raconte comment c'était dedans Wesh wesh wesh frère, je suis peut-être pas très intelligent Mais je préfère courir à ma perte que de galoper derrière les gens J'ai connu des jours étincelants, des remonter de promenade en sang Des recalages assez vexants, des bêtes de soirées dansantes Y a plus de ketchup y a que du piment cash du lundi au dimanche Les illeus-cou c'est pas ça qui manque, plus le temps pour les sentiments On sait bien que le chef du bâtiments il va pas nous parler gentiment J'ai grandi dans la street, dans mes veines coule du ciment Au prétoir jespère pas glisser, au parloir le sarouel baissé Le train de vie d'un canard WC, je prend le micro c'est que pour le blesser Les matonnes je leur mets ma bite comme je l'ai fait à se putain de rap français C'est plus des coups, c'est des liasses que je voudrait encaisser Les tons-ma qui jouent les cromas dites leurs d'aller XXX C'est toujours les mêmes qui parlent donc c'est toujours les mêmes qu'on visent WoogataMouah, freestyle pour hip-hop convict</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Chez nous les petits te braquent sur un CBR à trois Jul Mister You, sur MDR 3 Jprétends pas être le meilleur quoi Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Jme suis mis à vendre la drogue comme beaucoup dgavons Jai persisté, me suis incrusté dans pas mal de plavons On dit jamais jamais à part quand faut ramasser la savon À part quand faut sucer des bites Mais bon ça nous lsavons Si tes chaud ya dquoi trefroidir Pleins dclandos dans la voiture Baise la douane en jet-ski You plein dplaquettes dans la toiture En direct de Tanger, Marocain cest danger Quatre litres quatre prêt à gouacher Révisé, vidangé Cquil faut cest manger, impossible de mloger Jsuis enclenché, quitte à crever faut svenger Baise lÉtat dans son point G Jai putain dprojets, jsuis très loin dmon apogée Jvous conseille dvous accrocher Écoute quand jpose comme jtabasse Jai marqué la rue comme François Besse Jtagresse ya lacrizeomic Jai faim dsous comme les petits dma tess Et qui veut test ? Jfais pas semblant, jai pas la tête Contre moi-même jsuis en guerre Jsais plus qui jsuis en fait Ya pas dsous jvois les petits qui guettent Rabattent les clients, lpatron il gueule Petit frère sfait des temps pleins Pour spayer un Desert Eagle Ils zone en fizer ou en TDM il risque sa vie pour sassumer Calibre autour dla taille, y'a pas d'muay thaï il va tfumer Les jaloux, rien quils taillent Ils sont à laffut dun petit détail Jles calcule pas moi jsuis die Il mfaut le BM gros et tailler Ouais ma caille, ils veulent boycott mais cest la même Avant on sfaisait la bise Maintenant on se serre la main Jte parle dma vie oui de la mienne Jaime pas les mythomanes Sans lsavoir des fois Aux traîtres on sfie normal Ferme ta gueule regarde Gauche-droite jsuis sur mes gardes Tfais lfou avec ta mère après tu pleures Quand les flics disent on te garde Jai eu lenvie jai cartonné Tas trahi jai pardonné On men veux tu lsais tu mlas pas dit Tu vas repartir avec une marque au nez Toi et moi cest fini jcrois quon pourra plus srecoller Sous la cagoule cest Jul, et maintenant tu mreconnais ? Tu fais lvoyou tu sais pas tenir ta langue au poste Eh yo carnale on trahit pas les vatos locos Tu feras le voyou quand tas lâge Tu verras qui est là quand tas mal Les petits dchez moi sont fous Embrouille ça sort le katana Nique zouk mouk XXX hrak jed bebek le karaté Jai ma rafleuse et ma moto Pour être certain de pas trater Ça parle des mères tranquille pépère Chez moi ya plus dsujets tabous M.D.R jme tape des barres Pendant qusur moi ils sont tous à bout Big up Nirmou, big up Siabou qui mont dit You sors ton kabouss Nique leur grand-mère à tous ces shmetts Faut quleur cervelles elles éclaboussent Jsuis dlà où tout les coups sont permis Jsuis un lion mois jveux des llions-mi Pour faire profiter mes homies Les sortir de la sère-mi Faut qujme roule un petit zdeh Vu qulà il est déjà six heures et demie Faut qujinvestisse dans un cimetière Pour enterrer mes ennemis Souvent jsuis rabta sur scène Mais quand même jdéchire Des fois jai une bite dans la tête Donc jme gratte les couilles pour réfléchir Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédalesYou might also like2</t>
+          <t>Chez nous les petits te braquent sur un CBR à trois Jul Mister You, sur MDR 3 Jprétends pas être le meilleur quoi Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Jme suis mis à vendre la drogue comme beaucoup dgavons Jai persisté, me suis incrusté dans pas mal de plavons On dit jamais jamais à part quand faut ramasser la savon À part quand faut sucer des bites Mais bon ça nous lsavons Si tes chaud ya dquoi trefroidir Pleins dclandos dans la voiture Baise la douane en jet-ski You plein dplaquettes dans la toiture En direct de Tanger, Marocain cest danger Quatre litres quatre prêt à gouacher Révisé, vidangé Cquil faut cest manger, impossible de mloger Jsuis enclenché, quitte à crever faut svenger Baise lÉtat dans son point G Jai putain dprojets, jsuis très loin dmon apogée Jvous conseille dvous accrocher Écoute quand jpose comme jtabasse Jai marqué la rue comme François Besse Jtagresse ya lacrizeomic Jai faim dsous comme les petits dma tess Et qui veut test ? Jfais pas semblant, jai pas la tête Contre moi-même jsuis en guerre Jsais plus qui jsuis en fait Ya pas dsous jvois les petits qui guettent Rabattent les clients, lpatron il gueule Petit frère sfait des temps pleins Pour spayer un Desert Eagle Ils zone en fizer ou en TDM il risque sa vie pour sassumer Calibre autour dla taille, y'a pas d'muay thaï il va tfumer Les jaloux, rien quils taillent Ils sont à laffut dun petit détail Jles calcule pas moi jsuis die Il mfaut le BM gros et tailler Ouais ma caille, ils veulent boycott mais cest la même Avant on sfaisait la bise Maintenant on se serre la main Jte parle dma vie oui de la mienne Jaime pas les mythomanes Sans lsavoir des fois Aux traîtres on sfie normal Ferme ta gueule regarde Gauche-droite jsuis sur mes gardes Tfais lfou avec ta mère après tu pleures Quand les flics disent on te garde Jai eu lenvie jai cartonné Tas trahi jai pardonné On men veux tu lsais tu mlas pas dit Tu vas repartir avec une marque au nez Toi et moi cest fini jcrois quon pourra plus srecoller Sous la cagoule cest Jul, et maintenant tu mreconnais ? Tu fais lvoyou tu sais pas tenir ta langue au poste Eh yo carnale on trahit pas les vatos locos Tu feras le voyou quand tas lâge Tu verras qui est là quand tas mal Les petits dchez moi sont fous Embrouille ça sort le katana Nique zouk mouk XXX hrak jed bebek le karaté Jai ma rafleuse et ma moto Pour être certain de pas trater Ça parle des mères tranquille pépère Chez moi ya plus dsujets tabous M.D.R jme tape des barres Pendant qusur moi ils sont tous à bout Big up Nirmou, big up Siabou qui mont dit You sors ton kabouss Nique leur grand-mère à tous ces shmetts Faut quleur cervelles elles éclaboussent Jsuis dlà où tout les coups sont permis Jsuis un lion mois jveux des llions-mi Pour faire profiter mes homies Les sortir de la sère-mi Faut qujme roule un petit zdeh Vu qulà il est déjà six heures et demie Faut qujinvestisse dans un cimetière Pour enterrer mes ennemis Souvent jsuis rabta sur scène Mais quand même jdéchire Des fois jai une bite dans la tête Donc jme gratte les couilles pour réfléchir Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales Cest un son de tess pour les mecs die Linstru on la baise on lui fait des câlins Tu veux faire la course nous on détale On est en gros cube toi tu pédales2</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Ha'tention ! Ok ok, Numéro 7 MisterYou Numéro Seven Numéro 7 Mister You Zoogatablaaaaah On est ce que l'ont est On est ce que l'ont est, ok ok Parole d'homme, parole de rajel Kamel et Momo sur un Tmax Vrouum Vroum Blaaaaah C'est dans l'regard de ma mère que j'ai trouvé le mot amour Dans le faubourg de ma vie, j'ai calé en route J'ai, vu des proches me trahir, convoiter celle que j'aime Y'a qu'chez les frères muslims qu'j'ai trouvé la pêche J'en suis à la trentaine, j'ai côtoyé Clan Campbell Rendez vous avec sheitan pour un dîner au chandelles Mais le réveil est rude, la réalité débile Te brise tes rêves, quand les chmits te lèvent On a pas peur de mourir, nous ont garde le sourire Le but final est le djena et ses plus belle orées Parigo et fier même si l'ambiance est bouillante Là où certains frères au poste s'tape des coulantes Enculo, comme Omar Suarez Vous m'avez fait des caresses avant de m'planter le dos Eh, putain de quartier, ça a fait de nous des hommes Comme Cyril Khider et son grand frère Christophe Respect à nos familles et à la culture du bled Quand ont dit Hamdoulah on est plus riche que Bill Gates Prêt à mourir au combat pour nos surs en Jilbab Quand j'embrasse ma fille, j'trouve qu'la vie est si belle Dur de tenir le choc, facile de péter un plomb Si la vie c'était la guerre je ne serais qu'un soldat de plomb Endormi par le pilon, excité par le zbeul Le vice ma charmé comme la beauté d'une femme Peul J'ai puisé ma force dans le regard de mon père J'aimerai qu'il fasse la Salat mais la guidé viens d'Allah Le mal que j'ai fait, il vient de mes mains C'est moi qui la voulu, j'suis maître de mon chemin Le destin me guette c'est la vérité qui m'rattrape Demande à Mister You on appelle çà le Mektoub Le jour de ma mort je n'veux pas de larmes Enterrez-moi selon la Sounah et dites Allahou Akbar You might also like Seven pourquoi j'en suis là ? C'est parce que y'a trop de Bâtards Trop de radal et trop de traîtres qui m'souhaite que l'placard Qui kifferaient que j'finisse en cage comme un Farkh Mais leurs mères j'les baisent, j'les prends en otage comme un Farc J'en suis là car, je suis un sadique Et j'représente les chiens de la casse qui sont venu chier sur le syndic J'dédicace à Yas, à Nas et à Bara Moussa Quand ça s'tire dessus chez moi c'est pas des balles en mousse ah nan Même les petits possèdent des armes plus grande qu'eux Le plus sloughi, eh beh c'est c'lui qu'a la plus grande queue Woogataga, Seven dit leurs pourquoi j'en suis là Parce que trop de hineurs veulent pas que j'construise ma villa Il m'parle de m'réinsérer, j'dirai starfallah Ma gastronomie à comme un arrière gout téh l' Fèlfla Moi pourquoi j'en suis là et pourquoi j'charbonne ? C'est parce que j'sais que se faire la belle c'est mieux que de se faire la bonne Mais pourquoi t'en est là ? Moi c'est à cause du système Et toi darwa dis moi pourquoi t'en est là ? C'est à cause de l'oseille, la misère ma té-cla, la vie n'est pas facile On pète les plombs pire qu'a l'asile Mais on reste des rajel, de St Blaise à Belleville Imagine, être en cavale et mourir libre Dirigé dans l'din, Hamdoullilah Cette vie de criminel, aïe aïe aïe, Koulchi Bèl Kheir</t>
+          <t>Ha'tention ! Ok ok, Numéro 7 MisterYou Numéro Seven Numéro 7 Mister You Zoogatablaaaaah On est ce que l'ont est On est ce que l'ont est, ok ok Parole d'homme, parole de rajel Kamel et Momo sur un Tmax Vrouum Vroum Blaaaaah C'est dans l'regard de ma mère que j'ai trouvé le mot amour Dans le faubourg de ma vie, j'ai calé en route J'ai, vu des proches me trahir, convoiter celle que j'aime Y'a qu'chez les frères muslims qu'j'ai trouvé la pêche J'en suis à la trentaine, j'ai côtoyé Clan Campbell Rendez vous avec sheitan pour un dîner au chandelles Mais le réveil est rude, la réalité débile Te brise tes rêves, quand les chmits te lèvent On a pas peur de mourir, nous ont garde le sourire Le but final est le djena et ses plus belle orées Parigo et fier même si l'ambiance est bouillante Là où certains frères au poste s'tape des coulantes Enculo, comme Omar Suarez Vous m'avez fait des caresses avant de m'planter le dos Eh, putain de quartier, ça a fait de nous des hommes Comme Cyril Khider et son grand frère Christophe Respect à nos familles et à la culture du bled Quand ont dit Hamdoulah on est plus riche que Bill Gates Prêt à mourir au combat pour nos surs en Jilbab Quand j'embrasse ma fille, j'trouve qu'la vie est si belle Dur de tenir le choc, facile de péter un plomb Si la vie c'était la guerre je ne serais qu'un soldat de plomb Endormi par le pilon, excité par le zbeul Le vice ma charmé comme la beauté d'une femme Peul J'ai puisé ma force dans le regard de mon père J'aimerai qu'il fasse la Salat mais la guidé viens d'Allah Le mal que j'ai fait, il vient de mes mains C'est moi qui la voulu, j'suis maître de mon chemin Le destin me guette c'est la vérité qui m'rattrape Demande à Mister You on appelle çà le Mektoub Le jour de ma mort je n'veux pas de larmes Enterrez-moi selon la Sounah et dites Allahou Akbar Seven pourquoi j'en suis là ? C'est parce que y'a trop de Bâtards Trop de radal et trop de traîtres qui m'souhaite que l'placard Qui kifferaient que j'finisse en cage comme un Farkh Mais leurs mères j'les baisent, j'les prends en otage comme un Farc J'en suis là car, je suis un sadique Et j'représente les chiens de la casse qui sont venu chier sur le syndic J'dédicace à Yas, à Nas et à Bara Moussa Quand ça s'tire dessus chez moi c'est pas des balles en mousse ah nan Même les petits possèdent des armes plus grande qu'eux Le plus sloughi, eh beh c'est c'lui qu'a la plus grande queue Woogataga, Seven dit leurs pourquoi j'en suis là Parce que trop de hineurs veulent pas que j'construise ma villa Il m'parle de m'réinsérer, j'dirai starfallah Ma gastronomie à comme un arrière gout téh l' Fèlfla Moi pourquoi j'en suis là et pourquoi j'charbonne ? C'est parce que j'sais que se faire la belle c'est mieux que de se faire la bonne Mais pourquoi t'en est là ? Moi c'est à cause du système Et toi darwa dis moi pourquoi t'en est là ? C'est à cause de l'oseille, la misère ma té-cla, la vie n'est pas facile On pète les plombs pire qu'a l'asile Mais on reste des rajel, de St Blaise à Belleville Imagine, être en cavale et mourir libre Dirigé dans l'din, Hamdoullilah Cette vie de criminel, aïe aïe aïe, Koulchi Bèl Kheir</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>J'suis sortie de lombre telle la lune de la pénombre Le crack brûle la nuit, moi j'suis pas né après une pipe Joint vrette-le j'défile, je suis venu imprégner le bip Trop le jhour, jtend pas l'autre joue bien que j'respecte la Bible Dans l'ombre, le ciel n'est pas bleu, l'exemple c'est Pablo Un innocent paye à chaque fois que contemple un coupable Dans mon zoo, les rottes-ca ne rendent pas aimable J'noircis la lueur et berce un tueur à chaque syllabe Coupable même sans preuve a lappui Ya plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on lsait depuis Qui croit édifier une montagne ne fait que creuser un puits La rue et la son-pri, on n'est pas à l'abri de la tromperie Sois silencieux car le seuil de nos vies te fait toujours grand bruit Elle peut te coûter la vie, l'hésitation parrainant le choix A trop jouer les gros poissons, on se fait hameçonner par un anchois Tous présumés coupables, même sans preuve à lappui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits You might also like Tous présumés coupables jusqu'à preuve du contraire Ils ont pris nos terres mais c'est leur bétail qu'ils comptent traire Notre ministre de merde, faudrait qu'on le serre et qu'on le crève On assiste aux pénuries vu que les grossistes ils font la grève Car y'en a marre de voir autant de gent-ar s'évaporer Sans m'apeurer, là j'vous laisse rire, j'sais que demain ça va pleurer Ca serait mentir de me dire que ma mère n'est plus reine Un combat c'est singulier, un abattage c'est au pluriel Faut savoir prendre son mal en patience vu que toute rage elle se domine Pour rentrer dans les annales, faut pratiquer la sodomie Je rappe pour les frères, les vrais, les véridiques, pas les to-mi Souri, Carter, Limsou, Bazou, Vieux rat et Khaled doumi Atomiques sont mes rimes, nique le maire et la mairie L'Europe et l'Amérique, Mariah Carey et Amery, gros Si j'tourne pas rond, ils me cachetonnerons et ils me rendront paro J'vois minuit à la porte vu qu'à la fenêtre y'a trop de barreaux Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits J'défouraille braaah J'laisse un Y par impact Tout voyage même le plus long ne se commencera que par un x Moi j'ppe-ra pas pour que les suceurs m'écoutent Pour l'instant j'fais ce truc vu que les stups ils sont sur mes côtes La censure j'découvre Elle fait pipi sur elle dès que j'parle de pédophilie Et de gamines que Pépé surine Rdv au stand à quiconque veut monter sur le ring Sur la merde j'patine, y'a des toilettes aux platines You, présumé coupable, be-be-be-be-be-belleville C'qui m'faudrait c'est un grossiste en Amérique latine J'suis sur la liste de Madame Oumouk Nadine J'dois ligoter le physio pour faire rentrer toute ma team Belleville pour autographe, j'ai rêvé du disque d'platine J'me suis réveillé en gardav' puis direction le dispatching Les ton-ma ils s'la pètent, l'être humain il s'la vide 5000e, qu'est-ce tu veux, c'est la rançon d'un kidnapping Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits X2</t>
+          <t>J'suis sortie de lombre telle la lune de la pénombre Le crack brûle la nuit, moi j'suis pas né après une pipe Joint vrette-le j'défile, je suis venu imprégner le bip Trop le jhour, jtend pas l'autre joue bien que j'respecte la Bible Dans l'ombre, le ciel n'est pas bleu, l'exemple c'est Pablo Un innocent paye à chaque fois que contemple un coupable Dans mon zoo, les rottes-ca ne rendent pas aimable J'noircis la lueur et berce un tueur à chaque syllabe Coupable même sans preuve a lappui Ya plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on lsait depuis Qui croit édifier une montagne ne fait que creuser un puits La rue et la son-pri, on n'est pas à l'abri de la tromperie Sois silencieux car le seuil de nos vies te fait toujours grand bruit Elle peut te coûter la vie, l'hésitation parrainant le choix A trop jouer les gros poissons, on se fait hameçonner par un anchois Tous présumés coupables, même sans preuve à lappui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables jusqu'à preuve du contraire Ils ont pris nos terres mais c'est leur bétail qu'ils comptent traire Notre ministre de merde, faudrait qu'on le serre et qu'on le crève On assiste aux pénuries vu que les grossistes ils font la grève Car y'en a marre de voir autant de gent-ar s'évaporer Sans m'apeurer, là j'vous laisse rire, j'sais que demain ça va pleurer Ca serait mentir de me dire que ma mère n'est plus reine Un combat c'est singulier, un abattage c'est au pluriel Faut savoir prendre son mal en patience vu que toute rage elle se domine Pour rentrer dans les annales, faut pratiquer la sodomie Je rappe pour les frères, les vrais, les véridiques, pas les to-mi Souri, Carter, Limsou, Bazou, Vieux rat et Khaled doumi Atomiques sont mes rimes, nique le maire et la mairie L'Europe et l'Amérique, Mariah Carey et Amery, gros Si j'tourne pas rond, ils me cachetonnerons et ils me rendront paro J'vois minuit à la porte vu qu'à la fenêtre y'a trop de barreaux Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits J'défouraille braaah J'laisse un Y par impact Tout voyage même le plus long ne se commencera que par un x Moi j'ppe-ra pas pour que les suceurs m'écoutent Pour l'instant j'fais ce truc vu que les stups ils sont sur mes côtes La censure j'découvre Elle fait pipi sur elle dès que j'parle de pédophilie Et de gamines que Pépé surine Rdv au stand à quiconque veut monter sur le ring Sur la merde j'patine, y'a des toilettes aux platines You, présumé coupable, be-be-be-be-be-belleville C'qui m'faudrait c'est un grossiste en Amérique latine J'suis sur la liste de Madame Oumouk Nadine J'dois ligoter le physio pour faire rentrer toute ma team Belleville pour autographe, j'ai rêvé du disque d'platine J'me suis réveillé en gardav' puis direction le dispatching Les ton-ma ils s'la pètent, l'être humain il s'la vide 5000e, qu'est-ce tu veux, c'est la rançon d'un kidnapping Tous présumés coupables, même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie L'homme court à sa perte, ça on l'sait depuis Qui croit édifier une montagne ne fait que creuser un puits Tous présumés coupables même sans preuve à l'appui Y'a plus le beau temps mais un ouragan après la pluie Qui pèche par orgueil court à sa perte, et puis Qui croit édifier une montagne ne fait que creuser un puits X2</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Niveau teille-bou jsuis d'ces mecs qui t'en tise dix À Belleville-Zoo técla loca mass quantistas Younes anti-3atros anti-tass Si on te lave pas ça t'fras pas Nike mais Adidas La preuve j'suis candidat, pas d'prof j'suis autodidacte Ramène moi l'shlass papillon que j'prémédite l'acte de barbarie Prise d'otage du rap par Paris Ça doit du biff à tout l'monde, ça mise des 10 barres par paris C'trop paro gros, à ce que Astone m'a dit Si l'rap ça s'rais un bolide bah l'mien ça s'rais une Aston Martin Moi je ne baisse pas l'jean, bon à part au dispatching Disque d'shit et d'keco plus déco qu'le disque platine A moi les grasses matinée Les hassass se vexent en mandat j'reçoit leurs salaires pour cantiner J'en aurais pas marre de dealer, j'vais sortir j'vais continuer Augmente le volume c'est l'dégivrage d'la buée Huée bestiale poussée par les magistrats Quand j'gué-lar le rap sur une roue debout sur une magic strikes Moi j'suis strict alcoolo avec la réserve d'un chameau Abattage lyrical on recense un braquage à chaque mot Ougata You chicos pétés pour l'design J'préfère être seul avec mon cheval que d'être guidé par 10 ânes J'voudrais être convoité par de radieuses courtisanes Mais là j'bois l'sky bouillant avec d'la skunk pour tisane You might also like Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger J'préfère faire ma peine à Fleury que d'faire le quart aux Baumettes Pour la mettre aux gars d'seille-Mar y'a pas besoin d'leurs savonnettes Mec c'est zoo Belleville, le monde est à nous You shab Dhorasso et Kalou Les Marseillais c'est des bouffons au microphone rien qu'ils mythonnent La preuve même un 2Be3 ben il a ssacre-ma Akhenaton Menzo il rappe comme une pute on dirait que c'est l'reuf à Nelly Et les mecs du sud ils sont si nuls qu'ils simulent comme Ravanelli L'jour et la nuit sur l'terrain j'collectionne les cartons rouge Le game j'le baise comme une pute tah l'quartier rouge Comme ils disent j'suis fada, d'la street trop fana J'représente pas Youssouf Fofana Les bolosses chrome j'les sert pas aussi bien qu'Angela Bower Le Vélodrome il finira comme les Twins Towers J'suis capitaine j'sais qu'c'est la capitale qu'a le power Le bras cassé, j'vous la met à la Beckenbauer J'suis m'bowak si tu boycotte nia moroté Tout l'terrain il est sur écoute c'est pour ça qu'jsuis pas numéroté J'ai poiroter en calèche du coup nique la mère à l'état PSG j'termine ce match par un crochet d'Pauleta Yougataga le Vélodrome est assiégé Ahougataga ouais ouais ouais PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Yougataga le Vélodrome est assiégé Ahougataga ouais ouais ouais PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Aa Attention bebebebebebebebebe BELLEVILLE !!1</t>
+          <t>Niveau teille-bou jsuis d'ces mecs qui t'en tise dix À Belleville-Zoo técla loca mass quantistas Younes anti-3atros anti-tass Si on te lave pas ça t'fras pas Nike mais Adidas La preuve j'suis candidat, pas d'prof j'suis autodidacte Ramène moi l'shlass papillon que j'prémédite l'acte de barbarie Prise d'otage du rap par Paris Ça doit du biff à tout l'monde, ça mise des 10 barres par paris C'trop paro gros, à ce que Astone m'a dit Si l'rap ça s'rais un bolide bah l'mien ça s'rais une Aston Martin Moi je ne baisse pas l'jean, bon à part au dispatching Disque d'shit et d'keco plus déco qu'le disque platine A moi les grasses matinée Les hassass se vexent en mandat j'reçoit leurs salaires pour cantiner J'en aurais pas marre de dealer, j'vais sortir j'vais continuer Augmente le volume c'est l'dégivrage d'la buée Huée bestiale poussée par les magistrats Quand j'gué-lar le rap sur une roue debout sur une magic strikes Moi j'suis strict alcoolo avec la réserve d'un chameau Abattage lyrical on recense un braquage à chaque mot Ougata You chicos pétés pour l'design J'préfère être seul avec mon cheval que d'être guidé par 10 ânes J'voudrais être convoité par de radieuses courtisanes Mais là j'bois l'sky bouillant avec d'la skunk pour tisane Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger J'préfère faire ma peine à Fleury que d'faire le quart aux Baumettes Pour la mettre aux gars d'seille-Mar y'a pas besoin d'leurs savonnettes Mec c'est zoo Belleville, le monde est à nous You shab Dhorasso et Kalou Les Marseillais c'est des bouffons au microphone rien qu'ils mythonnent La preuve même un 2Be3 ben il a ssacre-ma Akhenaton Menzo il rappe comme une pute on dirait que c'est l'reuf à Nelly Et les mecs du sud ils sont si nuls qu'ils simulent comme Ravanelli L'jour et la nuit sur l'terrain j'collectionne les cartons rouge Le game j'le baise comme une pute tah l'quartier rouge Comme ils disent j'suis fada, d'la street trop fana J'représente pas Youssouf Fofana Les bolosses chrome j'les sert pas aussi bien qu'Angela Bower Le Vélodrome il finira comme les Twins Towers J'suis capitaine j'sais qu'c'est la capitale qu'a le power Le bras cassé, j'vous la met à la Beckenbauer J'suis m'bowak si tu boycotte nia moroté Tout l'terrain il est sur écoute c'est pour ça qu'jsuis pas numéroté J'ai poiroter en calèche du coup nique la mère à l'état PSG j'termine ce match par un crochet d'Pauleta Yougataga le Vélodrome est assiégé Ahougataga ouais ouais ouais PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Yougataga le Vélodrome est assiégé Ahougataga ouais ouais ouais PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Prise d'otage, le Vélodrome est assiégé Prise d'otage, de l'OM par l'PSG J'ai pris en otage tout l'zness-bi mais j'vous laisserais p'tetre 1G Moi c'est Younes Belleville, faites donc péter les Taittinger Aa Attention bebebebebebebebebe BELLEVILLE !!1</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>On s'en bat les couilles, on les baise, c'est des fils de pute Nique tous leurs grand-mères, ces p'tits suceurs de bites de boycotteurs, yah Répression Lyricale haha Zoogata-Zoo Unité d'Feu dahwa Si dans ta caisse, tes baffes sont sèches, mets-leur la Crème d'Île-de-France Et s'tu boycottes, j'te botte les fesses et Alk', direct il t'l'enfonce, haha Fils, tu veux une interview d'Katana ? A.L.K, Répression et Mister Yougataga Ouvre nous ta baraque, ainsi qu'tes courrois nasales Si tu m'vois pas, tu crois pas, t'inquiète pas, tu goûteras ma came salope 9-1 Évry, rouleurs de spliff, les griffes de Freddy Krueger J'entends que des cris d'douleur On a le matériel, on te prend par derrière Va passer la serpillère ou on t'jette dans la clairière suceur Y a d'l'orage dans l'air Les gros camemberts fondent dans les chaudes flammes d'l'Enfer si si Rap ultra conscient, la rue t'parle, ça pue l'rlah Comme dans les rues de Calcutta exact J'ai les bombonnes et les capsules à Bulma D'la pure came dissimilée dans un sac Lafuma Y a que d'la pule-cra à puche-ca Dracula m'calcule pas, on assumera même quand on s'ra plus là You might also like Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Sur un dos-d'âne, j'suis en train d'bosser Mais bon, j'sens qu'ça va explosé J'ai qu'des balles à proposer à ceux qui rêveraient qu'j'sois cadenassé Crois-moi pour être crédible, dahwa le ton pas besoin d'l'hausser J'boufferai du thon j'le sais, car nan j'suis pas Keyser Söze Nous accroupissent et nous font tousser, c'est d'travers qu'ils nous font pousser Coupable, à tous les procès, le proc' c'bâtard on aimerait l'crosser Les mecs comme moi ils s'font pas relaxer, l'baveux, il kifferais l'tabasser Sur la route d'la liberté, le juge peut t'en fermer l'accès À peine tu sors tu re-béton, tu remontres ton cul, hop fais tes lacets Les sous scellés, ton pécule, toi t'sais même pas c'qu'il s'est passé Nique l'État, nique tout l'gouvernement français T'sais ma troisième be-jam, ils savent très bien où ils peuvent s'l'enfoncer Mec le seum faut pas trop l'doser, si t'as un plan faut nous l'proposer Nan on a pas grandi dans l'zoo, mais nos rêves pourraient s'exaucer Sors le Mercier pour nous remercier et n'oublie pas d'nous financer Moi j'termine comme j'ai commencé avec une rime en cé Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions J'suis en mode crime Mes victimes sont les mecs en mode frime Sans aucun motif te brise tes jambes Même pour une moquerie Son égotrip, prototype, l'arrivée est dramatique Représente ma banlieue sud, bouleverse les pronostics Roule un gros spliff, j'suis trop speed, viens caresser ma grosse bite Si tu veux un bon feat avec les boss du pe-ra hostile Viens caresser nos grosses bites, bande de putains Mister You, l'Unité d'Feu, Répression J'te cache pas qu'j'veux faire du cash, donc vas-y, aboule le keush S'te-plait, n'fais pas ta quiche, sur la vie d'ma mère, j't'arrache les veux-ch' Et fais passer le virement, juste que j'fasse quelques virées Histoire d'sortir d'la tess les p'tits du collège s'sont fait virés Que j'investisse un peu d'pilon, fêter ça au rhum J't'ai p't-être pas dit qu'nous dealons, tirons On planque ça dans les buissons, des poches pleins de poison Et sur les keufs, nous pissons sur la Crème d'Île-de-France, ouais j'représente les Pyra' Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions</t>
+          <t>On s'en bat les couilles, on les baise, c'est des fils de pute Nique tous leurs grand-mères, ces p'tits suceurs de bites de boycotteurs, yah Répression Lyricale haha Zoogata-Zoo Unité d'Feu dahwa Si dans ta caisse, tes baffes sont sèches, mets-leur la Crème d'Île-de-France Et s'tu boycottes, j'te botte les fesses et Alk', direct il t'l'enfonce, haha Fils, tu veux une interview d'Katana ? A.L.K, Répression et Mister Yougataga Ouvre nous ta baraque, ainsi qu'tes courrois nasales Si tu m'vois pas, tu crois pas, t'inquiète pas, tu goûteras ma came salope 9-1 Évry, rouleurs de spliff, les griffes de Freddy Krueger J'entends que des cris d'douleur On a le matériel, on te prend par derrière Va passer la serpillère ou on t'jette dans la clairière suceur Y a d'l'orage dans l'air Les gros camemberts fondent dans les chaudes flammes d'l'Enfer si si Rap ultra conscient, la rue t'parle, ça pue l'rlah Comme dans les rues de Calcutta exact J'ai les bombonnes et les capsules à Bulma D'la pure came dissimilée dans un sac Lafuma Y a que d'la pule-cra à puche-ca Dracula m'calcule pas, on assumera même quand on s'ra plus là Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Sur un dos-d'âne, j'suis en train d'bosser Mais bon, j'sens qu'ça va explosé J'ai qu'des balles à proposer à ceux qui rêveraient qu'j'sois cadenassé Crois-moi pour être crédible, dahwa le ton pas besoin d'l'hausser J'boufferai du thon j'le sais, car nan j'suis pas Keyser Söze Nous accroupissent et nous font tousser, c'est d'travers qu'ils nous font pousser Coupable, à tous les procès, le proc' c'bâtard on aimerait l'crosser Les mecs comme moi ils s'font pas relaxer, l'baveux, il kifferais l'tabasser Sur la route d'la liberté, le juge peut t'en fermer l'accès À peine tu sors tu re-béton, tu remontres ton cul, hop fais tes lacets Les sous scellés, ton pécule, toi t'sais même pas c'qu'il s'est passé Nique l'État, nique tout l'gouvernement français T'sais ma troisième be-jam, ils savent très bien où ils peuvent s'l'enfoncer Mec le seum faut pas trop l'doser, si t'as un plan faut nous l'proposer Nan on a pas grandi dans l'zoo, mais nos rêves pourraient s'exaucer Sors le Mercier pour nous remercier et n'oublie pas d'nous financer Moi j'termine comme j'ai commencé avec une rime en cé Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions J'suis en mode crime Mes victimes sont les mecs en mode frime Sans aucun motif te brise tes jambes Même pour une moquerie Son égotrip, prototype, l'arrivée est dramatique Représente ma banlieue sud, bouleverse les pronostics Roule un gros spliff, j'suis trop speed, viens caresser ma grosse bite Si tu veux un bon feat avec les boss du pe-ra hostile Viens caresser nos grosses bites, bande de putains Mister You, l'Unité d'Feu, Répression J'te cache pas qu'j'veux faire du cash, donc vas-y, aboule le keush S'te-plait, n'fais pas ta quiche, sur la vie d'ma mère, j't'arrache les veux-ch' Et fais passer le virement, juste que j'fasse quelques virées Histoire d'sortir d'la tess les p'tits du collège s'sont fait virés Que j'investisse un peu d'pilon, fêter ça au rhum J't'ai p't-être pas dit qu'nous dealons, tirons On planque ça dans les buissons, des poches pleins de poison Et sur les keufs, nous pissons sur la Crème d'Île-de-France, ouais j'représente les Pyra' Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions Approchez d'l'action, du 19ème au 91 Pas d'modération dans nos agglomérations Trop veulent ta prosternation, la grosse effraction Et l'prochain avion, gonflé à cause des tractions</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Arrête moi si tu peux, tes bâtons pourront pas me freiner Moi quand j'croise les tipeu, j'leur demande de plus trop traîner Quand j'croise un loss-bo, j'l'envoi au métro Pyrénées Puis quand j'croise un haïneur j'lui dis Ramssa fi Heynèkk Moi j'suis présumé coupable donc c'est pas innocent que j'vais plaider Quand j'croise un mec en galère j'me sens comme obligé de l'aider Quand j'croise un PD j'lui fais pas la zebi non Même si c'est un loss-bo beh je n'ai pas besoin de son feubi Quand j'croise une tasspé, j'lui dis suce moi la tebi Qu'est-ce que tu me parles de respect oublie pas que tu n'es qu'une tcheu-bi Par contre j'ai toujours tiépi, j'fais une Sadaqqa quand j'croise un mendiant La rue c'est pire que lÉthiopie et moi j'suis un peu comme tant d'gens Feinte crochet passements de jambes, suivi d'un grand pont Marche pas sur l'herbe elle se fume grand con retire tes crampons Nique les jambons et la rue et le carpla c'est parallèle Moi quand j'croise un porc, j'lui rappelle qu'il est pas halal On est tous de la même race mais on est pas tous de la même tribu Ca fait pas l'bonheur l'flouz mais par contre, ça y contribue Moi quand j'croise une gazelle, elle croît qu'j'suis un garde forestier J'gratte une lehssa et j'dis demoiselle bah en faite j'peux pas trop rester Car j'suis un loup, une hyène, un bête de renard à l'affût j'te l'répète Marche pas sur l'herbe car dans l'tierquar on la fume J'leur fait croire qu'y a foye dahwa quand j'croise les gratteurs WOU GATAGA chez moi on s'prosterne que devant le créateur You might also like A-ttention bébébélleville Gorsafara, Lacrim Mister yougatagaaa, brrrrraaaaaaaah On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin Quand je croise un meuf stylé big bang moulé J'ai qu'une envie c'est de me défouler si je l'emballe c'est good soirée Quand je croise des hypocrites s'ils me font la bise c'est que c'est des pd Pas un franc j'croiserai leurs mères on ira tous a l'hotel baiser Quand je croise les vil-ci j'me ves-qui si j'ai de la poudre dans les couilles J'ai souvent cavalé croisé les doigts pour éviter la fouille Quand je vois ????????????? si tous va bien c'est grâce au respect Quand je croise un mec bourré agressive ça peu vite m'énerver La sale gueule d'un skins j'ai tout de suite envie de le troué La peau blanche est une cousine j'me dit que son peuple égaré J'croise plus de girofares a chaque augmentation de chômage Les Banlieues d'plus en plus jeune qui s'attaque au moins de fois leurs age J'croise plus de meuf en hess donnant leur pussy pour des liasses Les deux petites bourgeoises princesse plaignant que la coke leurs donnent la chiasse On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin Lacrim Dis leurs You que la rue c'est pas Eurodisney Quand j'croise une bijouterie y'a mon instinct de l'uro qui né Si t'as une voiture tu t'arrêtes que t'es un travelo Sur ma mère que j'te balaye que je rentre a vélo Quand j'croise une pub sur les Caraïbes J'me rappel de moi là bas toujours un ???? C'est pas les Canaris là bas la vie est si simple Une paire de teille de champ' dans ma chambre j'attend qu'elle arrive Quand j'croise une patrouille qui m'contrôle et joue les patrons C'est contre eux que j'incite partons il faut les baiser et ça c'est pas drôle eh Quand j'croise mon petit j'me rend compte qu'ils grandissent vite Rêve d'être l'auteur c'est le conte de ....... Woogatagaa Belek y'a les flics au tournant Tu sais qu'elle rêve de nous avoir avec nous faire une tournante non !!! Mister you Bien sûr que si Lacrim refré j'vois ce qu'tu veux dire Quand le proc il demande 6 piges le juge c'batard il est en train d'applaudir Bravooooo bravoooo ah c'est super youpiii !!!! On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin</t>
+          <t>Arrête moi si tu peux, tes bâtons pourront pas me freiner Moi quand j'croise les tipeu, j'leur demande de plus trop traîner Quand j'croise un loss-bo, j'l'envoi au métro Pyrénées Puis quand j'croise un haïneur j'lui dis Ramssa fi Heynèkk Moi j'suis présumé coupable donc c'est pas innocent que j'vais plaider Quand j'croise un mec en galère j'me sens comme obligé de l'aider Quand j'croise un PD j'lui fais pas la zebi non Même si c'est un loss-bo beh je n'ai pas besoin de son feubi Quand j'croise une tasspé, j'lui dis suce moi la tebi Qu'est-ce que tu me parles de respect oublie pas que tu n'es qu'une tcheu-bi Par contre j'ai toujours tiépi, j'fais une Sadaqqa quand j'croise un mendiant La rue c'est pire que lÉthiopie et moi j'suis un peu comme tant d'gens Feinte crochet passements de jambes, suivi d'un grand pont Marche pas sur l'herbe elle se fume grand con retire tes crampons Nique les jambons et la rue et le carpla c'est parallèle Moi quand j'croise un porc, j'lui rappelle qu'il est pas halal On est tous de la même race mais on est pas tous de la même tribu Ca fait pas l'bonheur l'flouz mais par contre, ça y contribue Moi quand j'croise une gazelle, elle croît qu'j'suis un garde forestier J'gratte une lehssa et j'dis demoiselle bah en faite j'peux pas trop rester Car j'suis un loup, une hyène, un bête de renard à l'affût j'te l'répète Marche pas sur l'herbe car dans l'tierquar on la fume J'leur fait croire qu'y a foye dahwa quand j'croise les gratteurs WOU GATAGA chez moi on s'prosterne que devant le créateur A-ttention bébébélleville Gorsafara, Lacrim Mister yougatagaaa, brrrrraaaaaaaah On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin Quand je croise un meuf stylé big bang moulé J'ai qu'une envie c'est de me défouler si je l'emballe c'est good soirée Quand je croise des hypocrites s'ils me font la bise c'est que c'est des pd Pas un franc j'croiserai leurs mères on ira tous a l'hotel baiser Quand je croise les vil-ci j'me ves-qui si j'ai de la poudre dans les couilles J'ai souvent cavalé croisé les doigts pour éviter la fouille Quand je vois ????????????? si tous va bien c'est grâce au respect Quand je croise un mec bourré agressive ça peu vite m'énerver La sale gueule d'un skins j'ai tout de suite envie de le troué La peau blanche est une cousine j'me dit que son peuple égaré J'croise plus de girofares a chaque augmentation de chômage Les Banlieues d'plus en plus jeune qui s'attaque au moins de fois leurs age J'croise plus de meuf en hess donnant leur pussy pour des liasses Les deux petites bourgeoises princesse plaignant que la coke leurs donnent la chiasse On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin Lacrim Dis leurs You que la rue c'est pas Eurodisney Quand j'croise une bijouterie y'a mon instinct de l'uro qui né Si t'as une voiture tu t'arrêtes que t'es un travelo Sur ma mère que j'te balaye que je rentre a vélo Quand j'croise une pub sur les Caraïbes J'me rappel de moi là bas toujours un ???? C'est pas les Canaris là bas la vie est si simple Une paire de teille de champ' dans ma chambre j'attend qu'elle arrive Quand j'croise une patrouille qui m'contrôle et joue les patrons C'est contre eux que j'incite partons il faut les baiser et ça c'est pas drôle eh Quand j'croise mon petit j'me rend compte qu'ils grandissent vite Rêve d'être l'auteur c'est le conte de ....... Woogatagaa Belek y'a les flics au tournant Tu sais qu'elle rêve de nous avoir avec nous faire une tournante non !!! Mister you Bien sûr que si Lacrim refré j'vois ce qu'tu veux dire Quand le proc il demande 6 piges le juge c'batard il est en train d'applaudir Bravooooo bravoooo ah c'est super youpiii !!!! On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danses On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin On s'croise tout les jours mais personne avance dans le même sens Les collections de quelques verres ou qui sait de plusieurs danse On s'aime on s'fais la guerre mais chacun poursuit son chemin Ils nous arrivent de s'faire des fleurs mais trop souvent l'amitié fais le tapin</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Bouffon, woogataga Coup d'calibre dans ta gueule ma gueule, woogataga Nique mhoums ou jéd babahoum l'kalb! Coup d'calibre dans leurs gueules ma gueule On les baise, on s'en bat les couilles L'amour nous a rayés de la liste comme la richesse a rayé l'Afrique Comme une poucave qu'on a rayés de la street khey Plus personne n'attend rien de personne, on peut pas se faire seul Pourtant on finit en solo dans un cercueil Gros, époque de bâtards, pas assez de mains pour compter tous mes potes au placard Entre ceux qui vendent l'haschich et ceux qui vendent la came, l'atmosphère est macabre La mort est partout, l'amour a rayé tous mes chiens de la casse J'préfère un ennemi qui me shlass qu'un poto qui me trahi Quand t'es au top, ça suce, ils te calculent pas quand c'est la faillite Mister YouGatazoo, N.I.R.O Belleville Zoo, c'est tout l'Maghrib qui pose sur MDR Zouje Des fois j'envie les gens qui sont dans le coma Depuis qu'j'suis né j'suis au chômage, ils préfèrent écouter des mythomanes L'amour nous a rayés, la haine a fait de nous ce qu'on est Le ghetto m'a imprégné, ici c'est le zoo man, j'ai saigné Baigné, dans la violence qui a régné grâce à nos aînés Traîné dans les rues khey, j'ai ves-qui leur ciné Je respecte moins Zé Pequeno, je préfèrais Bené J'ai fait mes armes à kened, le rap game mon frère c'est khéné Bavure commanditée par le commissaire, pour ceux qui sortent du pays sous contrôle judiciaire Lorsque tes potes deviennent adversaires, qu'est-ce que tu veux faire, qu'est-ce que tu peux faire? You might also likeJe me rappelle en primaire l'opinel dans le cartable J'rap pour les frères même primaires qui prennent des peines de bâtards On est tous passés par le chtar, on a tous connu le prétoire Les toilettes turques, le mitard, les allumettes, les grattoirs Le zbar sous cellophane et les, trous de balle nivéatisés En manque de plus belle la vie et du journal télévisé Pour les gradés on est que du crédit ils sont là pour nous épuiser Et aussi pour nous mépriser ils kifferaient qu'on devienne la risée de tous Faire des boules avec du P.Q viser le trou histoire de s'amuser Une couverture tellement vieille qu'elle devrait être dans un musée On passe du banc de la tess, à celui des accusés Et quand c'est pour cess' ils t'envoient loin, le procureur a une fusée Nationalité française, ils ne peuvent pas m'expulser Dites à leurs mères que je les baise et après qu'elles viennent me sucer Faites péter le son, roulez des zdah vous serez bien dans vos lycées C'est Mister You je suis pas pressé mais je compte bientôt vous laisser, éssé! Dis leur Niro, faut des lingots dans nos bureaux Ma vie c'est un casino et je suis un peu comme Robert De Niro Mais j'espère que ma Ginger ne fera pas la kaha avec mes soces Car ça laisse un goût amer zèh ça laisse un goût meussousse La trahison ça pue le thon dahwa ça pue la sardine Noureddine ça pue le dispatching et nan ça sent pas le tajine Haha! Lorsque tes frères deviennent adversaires Qu'est ce que tu veux faire, qu'est ce que tu peux faire?? Lorsque tes potes deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire frère? Lorsque tes frères deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire? Dur, dur d'oublier les profonds chagrins Lorsque ton destin soudain, a changé de chemin Lorsque tes frères deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire, frère?</t>
+          <t>Bouffon, woogataga Coup d'calibre dans ta gueule ma gueule, woogataga Nique mhoums ou jéd babahoum l'kalb! Coup d'calibre dans leurs gueules ma gueule On les baise, on s'en bat les couilles L'amour nous a rayés de la liste comme la richesse a rayé l'Afrique Comme une poucave qu'on a rayés de la street khey Plus personne n'attend rien de personne, on peut pas se faire seul Pourtant on finit en solo dans un cercueil Gros, époque de bâtards, pas assez de mains pour compter tous mes potes au placard Entre ceux qui vendent l'haschich et ceux qui vendent la came, l'atmosphère est macabre La mort est partout, l'amour a rayé tous mes chiens de la casse J'préfère un ennemi qui me shlass qu'un poto qui me trahi Quand t'es au top, ça suce, ils te calculent pas quand c'est la faillite Mister YouGatazoo, N.I.R.O Belleville Zoo, c'est tout l'Maghrib qui pose sur MDR Zouje Des fois j'envie les gens qui sont dans le coma Depuis qu'j'suis né j'suis au chômage, ils préfèrent écouter des mythomanes L'amour nous a rayés, la haine a fait de nous ce qu'on est Le ghetto m'a imprégné, ici c'est le zoo man, j'ai saigné Baigné, dans la violence qui a régné grâce à nos aînés Traîné dans les rues khey, j'ai ves-qui leur ciné Je respecte moins Zé Pequeno, je préfèrais Bené J'ai fait mes armes à kened, le rap game mon frère c'est khéné Bavure commanditée par le commissaire, pour ceux qui sortent du pays sous contrôle judiciaire Lorsque tes potes deviennent adversaires, qu'est-ce que tu veux faire, qu'est-ce que tu peux faire? Je me rappelle en primaire l'opinel dans le cartable J'rap pour les frères même primaires qui prennent des peines de bâtards On est tous passés par le chtar, on a tous connu le prétoire Les toilettes turques, le mitard, les allumettes, les grattoirs Le zbar sous cellophane et les, trous de balle nivéatisés En manque de plus belle la vie et du journal télévisé Pour les gradés on est que du crédit ils sont là pour nous épuiser Et aussi pour nous mépriser ils kifferaient qu'on devienne la risée de tous Faire des boules avec du P.Q viser le trou histoire de s'amuser Une couverture tellement vieille qu'elle devrait être dans un musée On passe du banc de la tess, à celui des accusés Et quand c'est pour cess' ils t'envoient loin, le procureur a une fusée Nationalité française, ils ne peuvent pas m'expulser Dites à leurs mères que je les baise et après qu'elles viennent me sucer Faites péter le son, roulez des zdah vous serez bien dans vos lycées C'est Mister You je suis pas pressé mais je compte bientôt vous laisser, éssé! Dis leur Niro, faut des lingots dans nos bureaux Ma vie c'est un casino et je suis un peu comme Robert De Niro Mais j'espère que ma Ginger ne fera pas la kaha avec mes soces Car ça laisse un goût amer zèh ça laisse un goût meussousse La trahison ça pue le thon dahwa ça pue la sardine Noureddine ça pue le dispatching et nan ça sent pas le tajine Haha! Lorsque tes frères deviennent adversaires Qu'est ce que tu veux faire, qu'est ce que tu peux faire?? Lorsque tes potes deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire frère? Lorsque tes frères deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire? Dur, dur d'oublier les profonds chagrins Lorsque ton destin soudain, a changé de chemin Lorsque tes frères deviennent adversaires Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire, frère?</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Mister Yougataga Ouais, Sky C'est la Dream Tiiw Tricinti Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah 7naya 7regna ddwaw w ntouma che33elto l3afya Jaybin l3ezz, hazz rraya lmeghribiya Bayna gha f choufa ga3 lghoumma li fiya L3eqliya mafia w lkmaya rifiya Ll3aqa f chamal w soukhra f Sebta F blad l'confiture, semmawna zzebda Lfil w nnemla, kberna w khdemna Khoya, li ytzreb yt3ettel, jrina w ndemna Wa bla ma ttsettaw 3liya, wellahi ma baghi villa Baghi qser w villat, nqesser f l3roubiya Ntiya malki 3eryana, tgouli ma 3endek ma tlebsi T3ellemna nle3bou l'golf, khoya, gha b ssebsi You might also like Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah Ce matin, j'suis dans l'tieks et le soir, en backstage L'lendemain, la jet-set avec tous mes frangins On va foutre la merde, on va mouiller l'maillot Les tiens nous observent, on va mouiller l'maillot Laisse-les parler, ils feront walou à part appeler des marabouts Ils m'ont placé des pièges à loup, 3emmi, pas de problème Laisse-les parler, c'est des jaloux, aujourd'hui, le monde est à nous J'ai ramené tout ce qu'il nous fallait, oublie tous tes problèmes J'vais te sortir du ghetto, hein hein Les keufs nous prennent en photo, hein hein Si c'est pas moi, c'est mon poto, hein hein La voisine d'la voisine, hein hein Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah J'suis à Cap-de-l'Eau, lhout w l'pastèque T'as sorti l'Merco ? Cousin, bsahtek Viens pas tout gâcher, sers-moi un panaché On va t'kalasher et tes potes vont t'lâcher Bro, j'suis dans l'riyad, ça sent la grillade J'roule la bonne salade, dans ma tête, fusillade Elle fait bent nnas, elle monte dans l'RS Elle aime les caresses, chichou, bijoux Hermès J'suis d'en bas, hbiba, j'suis d'la zone, bella Elle veut la villa, Bali, Punta Cana Monte dans le carrosse, j'suis méchant colosse Marocos locos, que des pueros Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah</t>
+          <t>Mister Yougataga Ouais, Sky C'est la Dream Tiiw Tricinti Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah 7naya 7regna ddwaw w ntouma che33elto l3afya Jaybin l3ezz, hazz rraya lmeghribiya Bayna gha f choufa ga3 lghoumma li fiya L3eqliya mafia w lkmaya rifiya Ll3aqa f chamal w soukhra f Sebta F blad l'confiture, semmawna zzebda Lfil w nnemla, kberna w khdemna Khoya, li ytzreb yt3ettel, jrina w ndemna Wa bla ma ttsettaw 3liya, wellahi ma baghi villa Baghi qser w villat, nqesser f l3roubiya Ntiya malki 3eryana, tgouli ma 3endek ma tlebsi T3ellemna nle3bou l'golf, khoya, gha b ssebsi Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah Ce matin, j'suis dans l'tieks et le soir, en backstage L'lendemain, la jet-set avec tous mes frangins On va foutre la merde, on va mouiller l'maillot Les tiens nous observent, on va mouiller l'maillot Laisse-les parler, ils feront walou à part appeler des marabouts Ils m'ont placé des pièges à loup, 3emmi, pas de problème Laisse-les parler, c'est des jaloux, aujourd'hui, le monde est à nous J'ai ramené tout ce qu'il nous fallait, oublie tous tes problèmes J'vais te sortir du ghetto, hein hein Les keufs nous prennent en photo, hein hein Si c'est pas moi, c'est mon poto, hein hein La voisine d'la voisine, hein hein Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah J'suis à Cap-de-l'Eau, lhout w l'pastèque T'as sorti l'Merco ? Cousin, bsahtek Viens pas tout gâcher, sers-moi un panaché On va t'kalasher et tes potes vont t'lâcher Bro, j'suis dans l'riyad, ça sent la grillade J'roule la bonne salade, dans ma tête, fusillade Elle fait bent nnas, elle monte dans l'RS Elle aime les caresses, chichou, bijoux Hermès J'suis d'en bas, hbiba, j'suis d'la zone, bella Elle veut la villa, Bali, Punta Cana Monte dans le carrosse, j'suis méchant colosse Marocos locos, que des pueros Puerto d'Nador, eh eh J'ai monté l'Raptor, eh eh Ktama mi amor, eh eh Zit zitoun sur l'corps, eh eh J'ai dragué ma voisine, ouais ouais J'suis au bord d'la piscine, ouais ouais Ta meuf fait des signes, ouais ouais J'ai roulé la résine, yeah yeah</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2008, sors de chez oit à tes risques et périls Des phases et des histoires j'peux t'en sortir une encyclopédie Rien qu'on essaie d'gravir les montagnes mais ça d'vient trop pénible On est dans l'ombre comme 2 meurtriers qui bombardent sur l'périph' Ça vit la nuit sous les projecteurs pas grave j'suis cagoulé Vécu d'malade, laisse moi dans mon coin faudrait capituler ou ? C'est les mecs de l'ombre avec une ampoule, du sky un bout d'pilon J'suis dans ma zone l'ambiance est brutale comme la course aux Pour éviter d's'faire cramer la gueule rien qu'on s'met dans les coins On ouvre les cages tinquiète y'a c'qui faut dans les pieds dans les poings Terrain miné, y'a toujours moyens d'faire 2-3 petites manuvres On vit dans l'ombre comme les sans papiers j'te parle des gens d'couleurs J'suis lunatique, sortis des coins sombre à la lumière du jour Plutôt du genre à pas trop ler-par parce que là faut des sous Vas-y surveille tes lèvres parole de soldat des ténèbres J.R O Crom, You, Gorsafara bienvenue dans nos tunnels Ils pourront pas nous empêcher d'avancer de prier on reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta You might also like Tu veux qu'j'arrête de rapper, c'est gâté Demande à J.R les mecs comme moi ils arrêterons le rap quand les athée ils feront la prière A woogataga les 3ineurs niquez vos mères J'bicrave du seum d'la lette-ga de la coke et du commère Le tonnerre, bâtard c'est tout c'qui m'serre de clarté Au parloir fouille le XXX de tout ceux qui veulent pas clare-dé J'vais pas t'rater hak din islam bataradé J'sais qu'investir dans une rafleuse c'est mieux que d'faire du karaté Yougataga j'sors ma bite pour les intimes Là ou j'habite y'a pas d'nutella y'a qu'd'la dakatine Le disque platine, j'le verrais peut être un de ces 4 Mais pour bazoo et souleymane j'plastique le D4 au C4 On s'écarte de la droiture dit leur Gorsafara La route est dure elle est si longue comme sourate al baqara C'est Yougataga j'suis venu représenter Le genre de mec faya qu'les gens ils aiment pas trop fréquenter Mister Yougataga j'ai toujours les yeux plissés Hachek j'suis v'nu gratter une lahsa parce que j'ai pas l'temps d'baiser Ok, c'est Yougataga une goutte de sky dans la canette J'répète wougataga on s'lève pour la maille pas pour danette ! Ils pourront pas nous empêcher d'avancer de prier On reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta Sous shit et sous alcool elle empoisonne nos âmes Fait fuir les anges de nos épaules, plonger dans le haram Voilà la mort ou bien la taule, trop d'avenirs qui crament Nos jeunesses grandissent dans ces écoles ou on comprend que les flammes C'est la violence envahi le zoo Les larmes font coulés le blood, sale quotidien du hood Tous les habitants du ghetto bidonvilles et man de tess Tous ces partisans du feu continuent d'flamber des caisses Tu joues les macros tu XXX Eh gros, t'es balaise mais t'fais pas le poids devant les XXX Te frotte pas à ceux qui n'jouent pas, font parler les métaux Pas a l'abri d'la mort tous les rats vivent sous le même bateau Ils pourront pas nous empêcher d'avancer de prier On reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta</t>
+          <t>2008, sors de chez oit à tes risques et périls Des phases et des histoires j'peux t'en sortir une encyclopédie Rien qu'on essaie d'gravir les montagnes mais ça d'vient trop pénible On est dans l'ombre comme 2 meurtriers qui bombardent sur l'périph' Ça vit la nuit sous les projecteurs pas grave j'suis cagoulé Vécu d'malade, laisse moi dans mon coin faudrait capituler ou ? C'est les mecs de l'ombre avec une ampoule, du sky un bout d'pilon J'suis dans ma zone l'ambiance est brutale comme la course aux Pour éviter d's'faire cramer la gueule rien qu'on s'met dans les coins On ouvre les cages tinquiète y'a c'qui faut dans les pieds dans les poings Terrain miné, y'a toujours moyens d'faire 2-3 petites manuvres On vit dans l'ombre comme les sans papiers j'te parle des gens d'couleurs J'suis lunatique, sortis des coins sombre à la lumière du jour Plutôt du genre à pas trop ler-par parce que là faut des sous Vas-y surveille tes lèvres parole de soldat des ténèbres J.R O Crom, You, Gorsafara bienvenue dans nos tunnels Ils pourront pas nous empêcher d'avancer de prier on reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta Tu veux qu'j'arrête de rapper, c'est gâté Demande à J.R les mecs comme moi ils arrêterons le rap quand les athée ils feront la prière A woogataga les 3ineurs niquez vos mères J'bicrave du seum d'la lette-ga de la coke et du commère Le tonnerre, bâtard c'est tout c'qui m'serre de clarté Au parloir fouille le XXX de tout ceux qui veulent pas clare-dé J'vais pas t'rater hak din islam bataradé J'sais qu'investir dans une rafleuse c'est mieux que d'faire du karaté Yougataga j'sors ma bite pour les intimes Là ou j'habite y'a pas d'nutella y'a qu'd'la dakatine Le disque platine, j'le verrais peut être un de ces 4 Mais pour bazoo et souleymane j'plastique le D4 au C4 On s'écarte de la droiture dit leur Gorsafara La route est dure elle est si longue comme sourate al baqara C'est Yougataga j'suis venu représenter Le genre de mec faya qu'les gens ils aiment pas trop fréquenter Mister Yougataga j'ai toujours les yeux plissés Hachek j'suis v'nu gratter une lahsa parce que j'ai pas l'temps d'baiser Ok, c'est Yougataga une goutte de sky dans la canette J'répète wougataga on s'lève pour la maille pas pour danette ! Ils pourront pas nous empêcher d'avancer de prier On reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta Sous shit et sous alcool elle empoisonne nos âmes Fait fuir les anges de nos épaules, plonger dans le haram Voilà la mort ou bien la taule, trop d'avenirs qui crament Nos jeunesses grandissent dans ces écoles ou on comprend que les flammes C'est la violence envahi le zoo Les larmes font coulés le blood, sale quotidien du hood Tous les habitants du ghetto bidonvilles et man de tess Tous ces partisans du feu continuent d'flamber des caisses Tu joues les macros tu XXX Eh gros, t'es balaise mais t'fais pas le poids devant les XXX Te frotte pas à ceux qui n'jouent pas, font parler les métaux Pas a l'abri d'la mort tous les rats vivent sous le même bateau Ils pourront pas nous empêcher d'avancer de prier On reste debout jusqu'à la mort real man gangsta On vit dans l'ombre pas dans la XXX tout l'monde est affamé À la recherche du khalis khalis real man gangsta On chante nos vies sans la musique on serait surement dead Mais tant qu' on es encore en vie on kill real man gangsta Ghetto man la misère elle doit nous inspirer Commet des meurtres derrière les mic real man gangsta</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Rébéval rue des Envierges On est v'nus s'faire sucer la bite par des tasses-pé soit disant vierges Younes lel-Bi, Kill O Mic Rébéval rue des Envierges On est v'nus on va la mettre dans l'cul à ces tains-pu soit disant vierges ! Y'a plus d'cerise sur mon gâteau, s'y t'faut l'même écrase des biscuits J'sors du habs, donc ceux qui veulent me faire la bise qu'ils aillent... Du fond du cur niquer leur maman... z'aillent... Du fond du cur niquer leur maman... Car quand j'étais en galère, j'ai pas reçu leurs dats-man Donc, faudrait un JB après un cuite un bon Perrier Ça fait bizarre d'voir l'renard qu'attend l'lapin d'vant son terrier ! 91 705 raison d'pas être végétarien Belleville-zoo, woogataga s'tu vas pas t'bouger t'as rien J'plane dans les airs, pour observer tous les terriens On m'ramène des affaires au parloir et au secrétariat Clic-paaah ! Bataillons, j'suis à Fleury pas Pattaya Marvin, et l'poto You un brin d'ske-kun et un peu d'haya Wallah j'suis faya, et par mégarde j'me suis fourvoyé En allant à la school, du coup j'me suis fait renvoyé J'ai crié Vengeance !, frais comme Orangina Rap J'suis v'nu rendre la France aux français, d'origine arabe Rap, rapta mon dialecte, j'suis pas net, j'fuck toute la planète J'ai mangé tout l'teau-gâ, et maintenant j'veux les miettes ! Belleville, woogataga, qui veut test, que j'lui mette ? J'suis d'ceux qui passent au prétoire, shit coffré, l'allure nette Mobb Deep c'est l'grattoire, Souris c'est l'allumette Nadjib c'est fusil, lel-Bi la lunette Dis aux condés qu'y niquent leur mère, d'a part de Joe Kounta Vatos Locos, Sarko Loco y fait partie d'la khouda ! Rap de vampire, dès qu'ils m'écoutent les gens saignent La haine, j'enseigne d'où elle vient qu'est-ce j'en sais ? Même quand j'dors j'suis debout les jeunes savent plus quoi penser C'est une horde de loups qui m'a apprit à danser ! Avec ma plus belle arme, j'braque le Code Pénal Au microphone j'cambriole comme Halim et Karim Belham J'dédicace, à Yass à Nass Kouli et lim-Sa Les barreaux c'comme des lopes-sa dès qu'y en a faut qu'on lime ça ! Nique sa, mère, j'suis plus primaire J'me, promène en plein air au quartier disciplinaire C'est la merde certes frère mais ne t'inquiète pas pour moi Même quand j'suis pas là c'moi qui gagne le tournoi ! You might also like Un cro-mi, un gros seize, un MC, une grossesse Y'a pas qu'le beat que j'baise donc, prépare ta gonzesse Younes m'écrit qu'il a la haine qu'y veut cogner deux-trois hasses J'cherche pas d'meuf mais une porteuse, de shit de beuh et d'cess ! C'est Kill O Mic on fait trop mal te, d'mande pas c'est quand qu'on cesse J'ai trop la dalle et pour qu'j'm'arrête y'a même la basse qui n'cesse Mon rap il est vénère c'est c'qu'il m'a dit l'p'tit Al Hassan Le Glock y t'nique ta mère t'as beau pousser à la salle J'suis pas blindé j'suis l'genre de mec qui loupe la Brinks et s'fait la brise J'suis juste un rappeur délabré met tes pin's à l'abri J'rappe la bite dans la prise personne me parle l'électrocute Y nique ses nuits dans ta tise y t'fore, même un trou du cul Ça sauve la santé au card-pla croit, pas qu'Fleury l'a freine Bien au contraire les grosses peines ils ressortent comme, comme barracuda Tellement en chien qu'y tripe, sur des 3agounas Bilel c'est Bentley et le reste, c'est qu'des Lagunas ! J'rapperais, jusqu'à qu'on m'interne c'est sur l'allée, qu'j'ai grandi J'ai pas appris la crave-bi dans un internat Celle là c'est pour, Derb à terre-Nan, à ta sortie, j'pète le pagne-cham Saïd, il a pas d'chance, dans l'rap, moi j'ai pas d'temps ! J'baise, un tas d'gens, soulève, un tas d'gens J'rêve de baise et d'argent, la tess', moi j'la chante Chacun rappe de son côté et les carrières s'ront mieux gardées Moi, j'suis pas trop coté l'3ineur, y m'a trop r'gardé ! Toi, t'as tellement sucé qu'tu d'vrais, chanter à genoux Moi, j'pète la forme donc faut encore voir le marabout Ma pitié bah elle mendie tandis qu'ma rancune elle baise tout Belleville m'a dit v'nez m'test et j'vous baise tous ! Rébéval rue des Envierges On est v'nus s'faire sucer la bite par des tasses-pé soit disant vierges Younes lel-Bi, Kill O Mic Rébéval rue des Envierges On est v'nus on va la mettre dans l'cul à ces tains-pu soit disant vierges !</t>
+          <t>Rébéval rue des Envierges On est v'nus s'faire sucer la bite par des tasses-pé soit disant vierges Younes lel-Bi, Kill O Mic Rébéval rue des Envierges On est v'nus on va la mettre dans l'cul à ces tains-pu soit disant vierges ! Y'a plus d'cerise sur mon gâteau, s'y t'faut l'même écrase des biscuits J'sors du habs, donc ceux qui veulent me faire la bise qu'ils aillent... Du fond du cur niquer leur maman... z'aillent... Du fond du cur niquer leur maman... Car quand j'étais en galère, j'ai pas reçu leurs dats-man Donc, faudrait un JB après un cuite un bon Perrier Ça fait bizarre d'voir l'renard qu'attend l'lapin d'vant son terrier ! 91 705 raison d'pas être végétarien Belleville-zoo, woogataga s'tu vas pas t'bouger t'as rien J'plane dans les airs, pour observer tous les terriens On m'ramène des affaires au parloir et au secrétariat Clic-paaah ! Bataillons, j'suis à Fleury pas Pattaya Marvin, et l'poto You un brin d'ske-kun et un peu d'haya Wallah j'suis faya, et par mégarde j'me suis fourvoyé En allant à la school, du coup j'me suis fait renvoyé J'ai crié Vengeance !, frais comme Orangina Rap J'suis v'nu rendre la France aux français, d'origine arabe Rap, rapta mon dialecte, j'suis pas net, j'fuck toute la planète J'ai mangé tout l'teau-gâ, et maintenant j'veux les miettes ! Belleville, woogataga, qui veut test, que j'lui mette ? J'suis d'ceux qui passent au prétoire, shit coffré, l'allure nette Mobb Deep c'est l'grattoire, Souris c'est l'allumette Nadjib c'est fusil, lel-Bi la lunette Dis aux condés qu'y niquent leur mère, d'a part de Joe Kounta Vatos Locos, Sarko Loco y fait partie d'la khouda ! Rap de vampire, dès qu'ils m'écoutent les gens saignent La haine, j'enseigne d'où elle vient qu'est-ce j'en sais ? Même quand j'dors j'suis debout les jeunes savent plus quoi penser C'est une horde de loups qui m'a apprit à danser ! Avec ma plus belle arme, j'braque le Code Pénal Au microphone j'cambriole comme Halim et Karim Belham J'dédicace, à Yass à Nass Kouli et lim-Sa Les barreaux c'comme des lopes-sa dès qu'y en a faut qu'on lime ça ! Nique sa, mère, j'suis plus primaire J'me, promène en plein air au quartier disciplinaire C'est la merde certes frère mais ne t'inquiète pas pour moi Même quand j'suis pas là c'moi qui gagne le tournoi ! Un cro-mi, un gros seize, un MC, une grossesse Y'a pas qu'le beat que j'baise donc, prépare ta gonzesse Younes m'écrit qu'il a la haine qu'y veut cogner deux-trois hasses J'cherche pas d'meuf mais une porteuse, de shit de beuh et d'cess ! C'est Kill O Mic on fait trop mal te, d'mande pas c'est quand qu'on cesse J'ai trop la dalle et pour qu'j'm'arrête y'a même la basse qui n'cesse Mon rap il est vénère c'est c'qu'il m'a dit l'p'tit Al Hassan Le Glock y t'nique ta mère t'as beau pousser à la salle J'suis pas blindé j'suis l'genre de mec qui loupe la Brinks et s'fait la brise J'suis juste un rappeur délabré met tes pin's à l'abri J'rappe la bite dans la prise personne me parle l'électrocute Y nique ses nuits dans ta tise y t'fore, même un trou du cul Ça sauve la santé au card-pla croit, pas qu'Fleury l'a freine Bien au contraire les grosses peines ils ressortent comme, comme barracuda Tellement en chien qu'y tripe, sur des 3agounas Bilel c'est Bentley et le reste, c'est qu'des Lagunas ! J'rapperais, jusqu'à qu'on m'interne c'est sur l'allée, qu'j'ai grandi J'ai pas appris la crave-bi dans un internat Celle là c'est pour, Derb à terre-Nan, à ta sortie, j'pète le pagne-cham Saïd, il a pas d'chance, dans l'rap, moi j'ai pas d'temps ! J'baise, un tas d'gens, soulève, un tas d'gens J'rêve de baise et d'argent, la tess', moi j'la chante Chacun rappe de son côté et les carrières s'ront mieux gardées Moi, j'suis pas trop coté l'3ineur, y m'a trop r'gardé ! Toi, t'as tellement sucé qu'tu d'vrais, chanter à genoux Moi, j'pète la forme donc faut encore voir le marabout Ma pitié bah elle mendie tandis qu'ma rancune elle baise tout Belleville m'a dit v'nez m'test et j'vous baise tous ! Rébéval rue des Envierges On est v'nus s'faire sucer la bite par des tasses-pé soit disant vierges Younes lel-Bi, Kill O Mic Rébéval rue des Envierges On est v'nus on va la mettre dans l'cul à ces tains-pu soit disant vierges !</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Woogataga BELLEVILLE Younes Marvin Des fois appeler Younes et bah c'est pas une super idée J'ai un seul complexe c'est celui de supériorité Chez moi l'runner 180 il sert 700 fois plus qu'un Hummer J'suis d'ceux qu'ont trop faim, sont toujours de mauvaise humeur Venez tester mon tier-quar c'est sûr qu'on va vous niquer vos mères Amateur de sky, cherchant à s'die jusqu'à vomir A vos marques, prêt, feu c'est bon té-cla toute ta masse de gras Mets-toi à genoux et suce c'est la pose 19 du kamasutra Au micro j'ai la bouche propre, parce que j'embrasse pas les seuses-cra J'braque pas les banques non, j'préfère sser-cro les ssistes-gro Écoute gros il m'faut un bang, j'ai trop d'gue-dro il m'faut une planque Dans mon gang j'suis un pacha c'est pas aux chattes que j'donne ma langue Quand j'frotte ma lampe, jeme vois sortir que des litrons d'sperme Le hassesse a l'mord, dans la raie du cul j'ai trop d'sbar Au trou puis dehors j'prend l'autoroute pour l'import-export Certes j'suis instruis, faut pas qu'baiser une truie pour être porc ! C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein You might also like C'est pas mystérieux faut faire du biff' pour les cantines Mister You a dit sors en fin d'peine pas en condi Continue l'combat donc ça sera jamais fini Il sera taro d'taga d'rissou et dmadifili Woogataga il a l'feeling il a d'jà mis l'instru en string C'est l'papa du ghetto sans lui la street serait orpheline C'est trop bouillant dans son zoo la mouche elle bouffe le crapaud Y'a marqué surveillant pas bleu blanc rouge sur son drapeau Il a pas d'bol il est libérable et il re ber-tom 10 jours après Il est pas du genre à prévenir la police quand y'a un blème Il aime le blé, les grosses liasses, les pétasses et les gros blunt Il pilote comme un kamikaze et il gué-lar les CR en stunt Mais une fois sous skunk, ben il devient trop paranoïaque Si t'achètes pas son skeud bah il rétorque paraneyek Il aime trop dire passe moi l'niaks d'la gue-dro il est trop maniaque Faya, il rêve que d'cognac, de bitch et d'Cadillac C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein On dit qu'j'suis trop deuss car ma bécane est débridée Mes premiers parloirs, j'm'entrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre où on n'fait pousser que d'la beu-her J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais du m'taire... lorsque le juge s'est mit à m'parler Y m'a demandé Est-ce que tu fumes ?, j'lui ai dit Plus que Bob Marley ! Younès, les RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces bâtards, les matons jouent les mafieux shab les ritals Trois mojitos, j'suis faya, j'déclare ça y est mojéta Charge une keuchné, fuis l'matard, dis lui elle décoffre dans ma guitare J'ressors du mitard, paf' le gradé y fait demi-tour 45 jours au marché d'Fleury j'te jure les carottes sont chères Si t'en manges une j'te dis cheh pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu j'te donne 3 petits et j'te dis gère ! C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein</t>
+          <t>Woogataga BELLEVILLE Younes Marvin Des fois appeler Younes et bah c'est pas une super idée J'ai un seul complexe c'est celui de supériorité Chez moi l'runner 180 il sert 700 fois plus qu'un Hummer J'suis d'ceux qu'ont trop faim, sont toujours de mauvaise humeur Venez tester mon tier-quar c'est sûr qu'on va vous niquer vos mères Amateur de sky, cherchant à s'die jusqu'à vomir A vos marques, prêt, feu c'est bon té-cla toute ta masse de gras Mets-toi à genoux et suce c'est la pose 19 du kamasutra Au micro j'ai la bouche propre, parce que j'embrasse pas les seuses-cra J'braque pas les banques non, j'préfère sser-cro les ssistes-gro Écoute gros il m'faut un bang, j'ai trop d'gue-dro il m'faut une planque Dans mon gang j'suis un pacha c'est pas aux chattes que j'donne ma langue Quand j'frotte ma lampe, jeme vois sortir que des litrons d'sperme Le hassesse a l'mord, dans la raie du cul j'ai trop d'sbar Au trou puis dehors j'prend l'autoroute pour l'import-export Certes j'suis instruis, faut pas qu'baiser une truie pour être porc ! C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est pas mystérieux faut faire du biff' pour les cantines Mister You a dit sors en fin d'peine pas en condi Continue l'combat donc ça sera jamais fini Il sera taro d'taga d'rissou et dmadifili Woogataga il a l'feeling il a d'jà mis l'instru en string C'est l'papa du ghetto sans lui la street serait orpheline C'est trop bouillant dans son zoo la mouche elle bouffe le crapaud Y'a marqué surveillant pas bleu blanc rouge sur son drapeau Il a pas d'bol il est libérable et il re ber-tom 10 jours après Il est pas du genre à prévenir la police quand y'a un blème Il aime le blé, les grosses liasses, les pétasses et les gros blunt Il pilote comme un kamikaze et il gué-lar les CR en stunt Mais une fois sous skunk, ben il devient trop paranoïaque Si t'achètes pas son skeud bah il rétorque paraneyek Il aime trop dire passe moi l'niaks d'la gue-dro il est trop maniaque Faya, il rêve que d'cognac, de bitch et d'Cadillac C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein On dit qu'j'suis trop deuss car ma bécane est débridée Mes premiers parloirs, j'm'entrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre où on n'fait pousser que d'la beu-her J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais du m'taire... lorsque le juge s'est mit à m'parler Y m'a demandé Est-ce que tu fumes ?, j'lui ai dit Plus que Bob Marley ! Younès, les RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces bâtards, les matons jouent les mafieux shab les ritals Trois mojitos, j'suis faya, j'déclare ça y est mojéta Charge une keuchné, fuis l'matard, dis lui elle décoffre dans ma guitare J'ressors du mitard, paf' le gradé y fait demi-tour 45 jours au marché d'Fleury j'te jure les carottes sont chères Si t'en manges une j'te dis cheh pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu j'te donne 3 petits et j'te dis gère ! C'est Belleville-Zoo, r'garde nos gueules chez nous on n'payera pas en tremblant Nos murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise bah j'pourrais t'passer qu'un tremplin J'te ferai cogiter comme un mec qu'a fait 4 ans plein C'est Mister You r'garde ma gueule chez moi on n'payera pas en tremblant Mes murs ne s'appellent pas Michael mais quand même faudrait les repeindre en blanc Si t'es au bord d'une falaise j'pourrais t'passer qu'un tremplin, ouais J'te ferai cogiter comme un mec qu'a fait 4 ans plein</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Quand c'est la mif on donne de bon cur on est pas dans les calculs Mecs de Cartage té-ma la plume on a les deux pieds sur le bitume Pour mes grands frères en cellule faut remplir le pécule, la vie on en a qu'une C'est vrai que j'ai des lacunes, mais aime moi comme je suis Pour débiter faut rester concentré qualité quantité, balance faut éviter agir sans hésiter comme ça qu'on réussi On dévoile pas nos vies on respecte nos familles, on s'en fout de ton avis Tu critiques tous les jours sans savoir vraiment ce qu'on a subit C'est ISK et Mister Yougataga soixante dix-sept 7.7, c'est l'RS6 ou le RS5 J'suis au bigo avec le zinc on pourrait te faire des trucs de dingue, j'suis bourré de talent viens on trinque, braque le Game sans laisser empreinte On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous Pour Bakar et Abdoullah, darwa j'aime trop le pognon, un taulard c'est comme un vampire ça supporte plus les oignons On vend des blanches et vertes on vendait pas la marron, là chque jour ce que je gagne c'est que touchait par mois mon daron La rie c'est dur darwa la rue c'est pas marrant, on veut plus charger les go-fast non mais las catamarans J'ai vu mon re-fré tirait dehors frère ça rigole pas celui qui viendra te faire aura peut être fait la bise aux ren-pa Clic clic bah quand t'as rendez-vous faut y aller, on rappe tarh les fous allier Nique la mère aux douaniers y'a de la selhra dans le voilier ouais darwa faut mailler, c'est l'heure du crime au poignet You might also like On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous Quand tu parles de One Millon ils parlent de parfum nous quand on parle de neige on parle pas aux Alpins Nous on fait plus de détail on bicrave même les blanches nains, ouais c'est vrai qu'elle est mignonne mais n'oublie pas que c'est un tapin Oublie pas que ton pote aussi il disparait quand problème grossit, tu fais le grossiste le Montana Tony on a cramé ton vice Même un doigt tu me l'as pas tendu alors que je te rendais des services J'connais rien de tel que la relation père fils, ouais darwa la rue c'est paro l'amitié ça vaut trente euros C'est pour les renois mes camaros Allah ramoh je repense à Maro C'est notre sehlra sur la gomme donc c'est nous qu'on impose les tarots Les prix sont les mêmes pour tout le monde si tu payes pas on t'arrose On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous</t>
+          <t>Quand c'est la mif on donne de bon cur on est pas dans les calculs Mecs de Cartage té-ma la plume on a les deux pieds sur le bitume Pour mes grands frères en cellule faut remplir le pécule, la vie on en a qu'une C'est vrai que j'ai des lacunes, mais aime moi comme je suis Pour débiter faut rester concentré qualité quantité, balance faut éviter agir sans hésiter comme ça qu'on réussi On dévoile pas nos vies on respecte nos familles, on s'en fout de ton avis Tu critiques tous les jours sans savoir vraiment ce qu'on a subit C'est ISK et Mister Yougataga soixante dix-sept 7.7, c'est l'RS6 ou le RS5 J'suis au bigo avec le zinc on pourrait te faire des trucs de dingue, j'suis bourré de talent viens on trinque, braque le Game sans laisser empreinte On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous Pour Bakar et Abdoullah, darwa j'aime trop le pognon, un taulard c'est comme un vampire ça supporte plus les oignons On vend des blanches et vertes on vendait pas la marron, là chque jour ce que je gagne c'est que touchait par mois mon daron La rie c'est dur darwa la rue c'est pas marrant, on veut plus charger les go-fast non mais las catamarans J'ai vu mon re-fré tirait dehors frère ça rigole pas celui qui viendra te faire aura peut être fait la bise aux ren-pa Clic clic bah quand t'as rendez-vous faut y aller, on rappe tarh les fous allier Nique la mère aux douaniers y'a de la selhra dans le voilier ouais darwa faut mailler, c'est l'heure du crime au poignet On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous Quand tu parles de One Millon ils parlent de parfum nous quand on parle de neige on parle pas aux Alpins Nous on fait plus de détail on bicrave même les blanches nains, ouais c'est vrai qu'elle est mignonne mais n'oublie pas que c'est un tapin Oublie pas que ton pote aussi il disparait quand problème grossit, tu fais le grossiste le Montana Tony on a cramé ton vice Même un doigt tu me l'as pas tendu alors que je te rendais des services J'connais rien de tel que la relation père fils, ouais darwa la rue c'est paro l'amitié ça vaut trente euros C'est pour les renois mes camaros Allah ramoh je repense à Maro C'est notre sehlra sur la gomme donc c'est nous qu'on impose les tarots Les prix sont les mêmes pour tout le monde si tu payes pas on t'arrose On a trop manigancé on en a mis des KO C'est notre manière de penser frérot la rue c'est paro On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous On a plus besoin de se présenter, on est écouté par les kaïras et les voyous J'suis en Espagne dans un méchant XXX je me fais flashé faut pas que je rate le rendez-vous</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Regarde pas ce que j'écris regarde plutôt ce que je décris À cause du shit j'ai maigri à cause des flics j'suis yégri Y'a pas de taf donc obligé de partir au bonchar 1000 euros par mois tu fais le triple si t'as du bon chav J'suis pas dans le mouv pas de boîte d'audi Q7 Le soir ça groove avec du shit de maudit cul sec C'est la nuit que se déviergent les petites pucelles Mets ta poteca à moins que tu veuilles pousser une poussette Tu veux du bon son bah vois les connaisseurs Toujours souriant mes soucis sont voilés comme mes soeurs OK fumeur de ... qui pousse à faire des grasses mat Faut que je me décrasse J'baise le FN et toute sa propagande Dis leur que je baise des blanches et que j'ai de la drogue à vendre Et puis des comptes à rendre chez moi c'est pas la thanksgiving Les petits sont armés et sache que c'est pas les cents qu'ils visent À 12 sur une pizza on a le sens du partage Paris c'est pas Ibiza y'a pas d'âge pour un paquetage Là c'est Abis je pense prétends pas voyou Mais tu vas bouffer des cailloux ça c'est pour la mixtape à YouYou might also like</t>
+          <t>Regarde pas ce que j'écris regarde plutôt ce que je décris À cause du shit j'ai maigri à cause des flics j'suis yégri Y'a pas de taf donc obligé de partir au bonchar 1000 euros par mois tu fais le triple si t'as du bon chav J'suis pas dans le mouv pas de boîte d'audi Q7 Le soir ça groove avec du shit de maudit cul sec C'est la nuit que se déviergent les petites pucelles Mets ta poteca à moins que tu veuilles pousser une poussette Tu veux du bon son bah vois les connaisseurs Toujours souriant mes soucis sont voilés comme mes soeurs OK fumeur de ... qui pousse à faire des grasses mat Faut que je me décrasse J'baise le FN et toute sa propagande Dis leur que je baise des blanches et que j'ai de la drogue à vendre Et puis des comptes à rendre chez moi c'est pas la thanksgiving Les petits sont armés et sache que c'est pas les cents qu'ils visent À 12 sur une pizza on a le sens du partage Paris c'est pas Ibiza y'a pas d'âge pour un paquetage Là c'est Abis je pense prétends pas voyou Mais tu vas bouffer des cailloux ça c'est pour la mixtape à You</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Hades Hasta la muerte la vida loca, wesh mon poto Ju-Ju-JuL et Yougataga Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul La roue tourne, les poucaves, t'inquiète pas qu'elles vont payer C'est pour les braves comme les frères du Select à Montpellier C'est l'heure de manger, j'veux des crevettes pili-pili J'passe par Tanger voir David au Bling Bling Faut faire du chiffre, rien à foutre d'l'alphabet Sirote un Jack avec Hamid au Myah Bay, moi Ouais, j'veux des diamants avec beaucoup d'carats Big up , big up tout le Clara Au volant d'un Audi, matrixé J'sors le son même s'il est pas mixé Ici, tu peux t'prendre une balle à force de fixer Y a que quand les gens m'rendent parano que j'fais des fixettes Plein de big soucis, j't'avais dit d'faire comme ça et tu l'as pas fait comme Tony et Sosa Moi c'est anti cé'-cé' et société Moi j'suis pas là pour ces seins, j'sais qui j'étais You might also like Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Accélération tah Farès Chaïbi, moi Ouais, j'veux des millions à la banque Chaabi J'ai toujours c'qui faut, gros, même au tard-mi Et comme dit 3ami, faut vendre les kil' par mille J'ai pas l'temps d'en perdre vu qu'ça s'rachète pas On a beau viser l'ciel, on finira terre-par Les faux, j'ai pas l'temps pour eux, même Richard Millésé C'qu'ils rêvaient d'faire ? Pour nous c'est normalisé Viens on s'prend pas la tête, béa Après j'ai envie d'tout niquer comme dans GTA C'soir on va au restau', j'sors la CBA dans la sacoche CPA Plusieurs fumées, ça m'reconnaît au péage J'ai pas fumé, j'viens d'me lever, j'suis en serrage Faut voir qui t'es, toi, quand t'es là Faut voir qui t'aide quand c'est large Là j'suis avec Kakou, Danil, Chico et Houariz Ici ça part en couilles, à deux doigts d'faire mes valises C'est loin d'être merveilleux comme le pays d'Alice Les jeunes, ils font des dingueries parce qu'ils ont pas de khaliss Reste tranquille, j'ai pas la tête à ça Reste tranquille ou j'nique tout Reste tranquille, c'est Paris, c'est Marseille Reste tranquille, on n'a plus l'temps Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul J'ai du trier pendant toutes ces années Ça fait mal au cur, des fois, on perd ses amis Va arroser si la fleur s'est fanée C'est qu'j'te considère vraiment si nous deux on s'allie On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde</t>
+          <t>Hades Hasta la muerte la vida loca, wesh mon poto Ju-Ju-JuL et Yougataga Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul La roue tourne, les poucaves, t'inquiète pas qu'elles vont payer C'est pour les braves comme les frères du Select à Montpellier C'est l'heure de manger, j'veux des crevettes pili-pili J'passe par Tanger voir David au Bling Bling Faut faire du chiffre, rien à foutre d'l'alphabet Sirote un Jack avec Hamid au Myah Bay, moi Ouais, j'veux des diamants avec beaucoup d'carats Big up , big up tout le Clara Au volant d'un Audi, matrixé J'sors le son même s'il est pas mixé Ici, tu peux t'prendre une balle à force de fixer Y a que quand les gens m'rendent parano que j'fais des fixettes Plein de big soucis, j't'avais dit d'faire comme ça et tu l'as pas fait comme Tony et Sosa Moi c'est anti cé'-cé' et société Moi j'suis pas là pour ces seins, j'sais qui j'étais Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Accélération tah Farès Chaïbi, moi Ouais, j'veux des millions à la banque Chaabi J'ai toujours c'qui faut, gros, même au tard-mi Et comme dit 3ami, faut vendre les kil' par mille J'ai pas l'temps d'en perdre vu qu'ça s'rachète pas On a beau viser l'ciel, on finira terre-par Les faux, j'ai pas l'temps pour eux, même Richard Millésé C'qu'ils rêvaient d'faire ? Pour nous c'est normalisé Viens on s'prend pas la tête, béa Après j'ai envie d'tout niquer comme dans GTA C'soir on va au restau', j'sors la CBA dans la sacoche CPA Plusieurs fumées, ça m'reconnaît au péage J'ai pas fumé, j'viens d'me lever, j'suis en serrage Faut voir qui t'es, toi, quand t'es là Faut voir qui t'aide quand c'est large Là j'suis avec Kakou, Danil, Chico et Houariz Ici ça part en couilles, à deux doigts d'faire mes valises C'est loin d'être merveilleux comme le pays d'Alice Les jeunes, ils font des dingueries parce qu'ils ont pas de khaliss Reste tranquille, j'ai pas la tête à ça Reste tranquille ou j'nique tout Reste tranquille, c'est Paris, c'est Marseille Reste tranquille, on n'a plus l'temps Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul J'ai du trier pendant toutes ces années Ça fait mal au cur, des fois, on perd ses amis Va arroser si la fleur s'est fanée C'est qu'j'te considère vraiment si nous deux on s'allie On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade On n'oublie pas les vrais et crois pas que l'on blague Big up Mister You, sous DP en promenade Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde mais t'es tout seul Les p'tits ils ont grandi, maintenant ils ont les gants Fais pas l', fais pas l'tout seul Nan, nan, nan, c'est plus comme avant Tu connais plein d'monde</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Esé Mister Yougataga Que des putains d'péripéties Marvelous Si, si 71 Beats Stef Becker beatmaker Le cercle d'amis s'est rétréci Derrière chaque homme, y a de grosses plaies ou des blessures bénignes Beaucoup d'questions, combien d'réponses s'cachent dans le livre délit ? Un gros joint d'herbe, un caillou d'crack, c'est pas le même délire Dans la vraie vie, c'est pas l riche qu'a lu le plus de livrs Y a pas un seul feignant ici qu'aura sa part de riz Nous on s'amuse pourtant y a pas, on tape des barres de rire La plupart de nos choix divers comporte une part de risques J'connais la plupart de mes s7ab depuis la garderie Me foutre en l'air, j'peux pas, pour un regard ça perd la vie Ne neige pas qu'en décembre, t'expulser, ils en meurent d'envie Depuis ma tendre enfance, j'rêve l'oseille des qataris J'mouille le maillot comme Hakimi, j'représente toujours Paris Bien sûr qu'on est réglo, on veut des billets mauves Jamais sans mes frérots, jamais sans mes loves J'arrache pas la SACEM, j'investis dans la drogue J'défouraille au mic comme si j'tirais sur des opps You might also like Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Chaque jour que Dieu fait, j'essaye d'être mieux qu'la veille J'représente Belleville, j'fume le doré d'la veille Y a pas qu'les grands qui dealent, y a pas qu'les p'tits qui volent J'sais qu'les tarés rêveraient qu'j'finisse comme King Von J'ai fait disque d'roro et disque de platinum J'suis en train d'grailler un kebab sur rue des Batignolles Y a les condés qui passent et d'un coup qui s'arrêtent Ils veulent prendre un selfie, sur moi j'ai quatre barrettes J'suis en train d'sourire, j'ai failli courir J'me rappelle du proc', du réquisitoire, j'croyais qu'j'allais mourir Ils veulent nous pourrir, nan c'est pas pour rire Sous la pluie des balles tirée par la BAC, on aurait pu périr Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Ils veulent m'enterrer, j'suis une graine qui pousse C'est la sécheresse et y a qu'mes larmes qui coulent J'aime trop écrire, même sur des feuilles qui coupent Ils aiment le teh mais c'est d'la merde c'qu'ils touchent Plus d'amitié dès qu'il s'agit d'gros sous On s'ra jugé pour tout c'qui sort d'nos bouches Le jour, on riait, c'est le soir qu'on doute Fonds-moi ton prix comme à cette poule qui couve Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés</t>
+          <t>Esé Mister Yougataga Que des putains d'péripéties Marvelous Si, si 71 Beats Stef Becker beatmaker Le cercle d'amis s'est rétréci Derrière chaque homme, y a de grosses plaies ou des blessures bénignes Beaucoup d'questions, combien d'réponses s'cachent dans le livre délit ? Un gros joint d'herbe, un caillou d'crack, c'est pas le même délire Dans la vraie vie, c'est pas l riche qu'a lu le plus de livrs Y a pas un seul feignant ici qu'aura sa part de riz Nous on s'amuse pourtant y a pas, on tape des barres de rire La plupart de nos choix divers comporte une part de risques J'connais la plupart de mes s7ab depuis la garderie Me foutre en l'air, j'peux pas, pour un regard ça perd la vie Ne neige pas qu'en décembre, t'expulser, ils en meurent d'envie Depuis ma tendre enfance, j'rêve l'oseille des qataris J'mouille le maillot comme Hakimi, j'représente toujours Paris Bien sûr qu'on est réglo, on veut des billets mauves Jamais sans mes frérots, jamais sans mes loves J'arrache pas la SACEM, j'investis dans la drogue J'défouraille au mic comme si j'tirais sur des opps Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Chaque jour que Dieu fait, j'essaye d'être mieux qu'la veille J'représente Belleville, j'fume le doré d'la veille Y a pas qu'les grands qui dealent, y a pas qu'les p'tits qui volent J'sais qu'les tarés rêveraient qu'j'finisse comme King Von J'ai fait disque d'roro et disque de platinum J'suis en train d'grailler un kebab sur rue des Batignolles Y a les condés qui passent et d'un coup qui s'arrêtent Ils veulent prendre un selfie, sur moi j'ai quatre barrettes J'suis en train d'sourire, j'ai failli courir J'me rappelle du proc', du réquisitoire, j'croyais qu'j'allais mourir Ils veulent nous pourrir, nan c'est pas pour rire Sous la pluie des balles tirée par la BAC, on aurait pu périr Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés Ils veulent m'enterrer, j'suis une graine qui pousse C'est la sécheresse et y a qu'mes larmes qui coulent J'aime trop écrire, même sur des feuilles qui coupent Ils aiment le teh mais c'est d'la merde c'qu'ils touchent Plus d'amitié dès qu'il s'agit d'gros sous On s'ra jugé pour tout c'qui sort d'nos bouches Le jour, on riait, c'est le soir qu'on doute Fonds-moi ton prix comme à cette poule qui couve Laisse pas tes paluches sur le calibre Sweat à capuche, on fait nos valises Teste le produit, la drogue est balinaise Tout l'monde s'emballe, ils veulent être validés Barbe et qamis, la France panique On perd son il même dans une manif' Fumons-les tous tant qu'c'est d'la qualité On meurt en dragon ou en canidés</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Wesh, prépare-toi Brams, Mister You C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa J'ai rien à perdre, ni à prendre des sous Du khaba qu'tu grattes, c'est pas ma came J'ai choisi la 'sique J'préfère rester classique Adidas, Asics Corrompez pas mon esprit lucide Mon talent j'le valide, kiffez ma 'sique, les gars ou faites vos valises J'suis un sérieux rival, comme vous j'ai la dalle Comme vous je mange mal, économisez les balles là c'est que le début du bal Yougatabrah, Rebeval, dresser le C'est le ghetto qui parle You, Brams, pas de soucis, à vie, on vous régale J'parle peu, j'suis efficace autant qu'un baveu J'tue le time chez No Time j'tiens pas à baver Toujours rebelle, mic en main dans le Woogataga, êtes-vous d'accord le beat j'le taba' You might also like Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Le contraire de Kamini L'genre de mec qu'arrive faya en te-boi à 4h d'l'après minuit C'est Mister You, ok roule un sdeh que jm'échauffe Kiffez ma 'sique, les gars ou faites vos valises You, Brams, pas de soucis, à vie, on vous régale Fuck les stups, sur l'rrain-té posté 24 sur 36 C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa</t>
+          <t>Wesh, prépare-toi Brams, Mister You C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa J'ai rien à perdre, ni à prendre des sous Du khaba qu'tu grattes, c'est pas ma came J'ai choisi la 'sique J'préfère rester classique Adidas, Asics Corrompez pas mon esprit lucide Mon talent j'le valide, kiffez ma 'sique, les gars ou faites vos valises J'suis un sérieux rival, comme vous j'ai la dalle Comme vous je mange mal, économisez les balles là c'est que le début du bal Yougatabrah, Rebeval, dresser le C'est le ghetto qui parle You, Brams, pas de soucis, à vie, on vous régale J'parle peu, j'suis efficace autant qu'un baveu J'tue le time chez No Time j'tiens pas à baver Toujours rebelle, mic en main dans le Woogataga, êtes-vous d'accord le beat j'le taba' Producteur, vendeur de coke, j'pisse sur les trois 6 Fuck les stups, sur l'rrain-té posté 24 sur 36 Le contraire de Kamini L'genre de mec qu'arrive faya en te-boi à 4h d'l'après minuit C'est Mister You, ok roule un sdeh que jm'échauffe Kiffez ma 'sique, les gars ou faites vos valises You, Brams, pas de soucis, à vie, on vous régale Fuck les stups, sur l'rrain-té posté 24 sur 36 C'est Mister You, ok roule un sdeh que jm'échauffe J'veux autant de sous que chez les pauvres que y'a autant de poux chez les chauves Woogataga les Jet-seteuse kiffent la wawa Les femmes courent à notre perte, r'garde c'qu'Adam a fait pour awa</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Si no lo veo, pues no lo creo Si no lo veo A-LA-LA-LA-LA-LA-LA-LA-LA M-M-M-M.D.L.R A-LA-LA-LA-LA-LA-LA-LA-LA Yougataga Y no me cuentes cuentos que a ti ya te han contao' Aquí se paga o el traslado no se hace Y sobre todo no acepto, nunca lo he fiao por fiarte a veces te la hacen Los niños hace días que yo los tengo montao' Y siguen metiendo lo trabajo Y por fajo tranquilo que yo ya he contao' Así que problemas rápido yo me mojo Si no lo veo nunca lo cojo A veces no lo cojo porque lo veo flojo Porque a veces pa que t coje y se moja Pero m lo tomo todo como un trabajo Me gustan los fajos en gomas Aunque a veces sean mejor en el banco Si no lo veo no es por ciego Y si no lo cojo no ha sido por manco You might also like Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Joder, madre mía, no pasa nada tío Soy caliente, si, tu mujer tiene frío Nosotros en el coche, dime que tu eres mía Chivas por la noche, Sangría por el día Haciendo dinero la policía detrás mío Soy como todos los moros, primero la familia Gucci, Balenciaga, Prada, Louis Vuitton Escúchame guapa, te dedico esta canción No es un rumoreo, dinero te amo Dame la maleta, quemando la goma Si no lo veo, no lo creo Te lo juro hermano, eh, si Dame billete', te doy paquete Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo</t>
+          <t>Si no lo veo, pues no lo creo Si no lo veo A-LA-LA-LA-LA-LA-LA-LA-LA M-M-M-M.D.L.R A-LA-LA-LA-LA-LA-LA-LA-LA Yougataga Y no me cuentes cuentos que a ti ya te han contao' Aquí se paga o el traslado no se hace Y sobre todo no acepto, nunca lo he fiao por fiarte a veces te la hacen Los niños hace días que yo los tengo montao' Y siguen metiendo lo trabajo Y por fajo tranquilo que yo ya he contao' Así que problemas rápido yo me mojo Si no lo veo nunca lo cojo A veces no lo cojo porque lo veo flojo Porque a veces pa que t coje y se moja Pero m lo tomo todo como un trabajo Me gustan los fajos en gomas Aunque a veces sean mejor en el banco Si no lo veo no es por ciego Y si no lo cojo no ha sido por manco Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Joder, madre mía, no pasa nada tío Soy caliente, si, tu mujer tiene frío Nosotros en el coche, dime que tu eres mía Chivas por la noche, Sangría por el día Haciendo dinero la policía detrás mío Soy como todos los moros, primero la familia Gucci, Balenciaga, Prada, Louis Vuitton Escúchame guapa, te dedico esta canción No es un rumoreo, dinero te amo Dame la maleta, quemando la goma Si no lo veo, no lo creo Te lo juro hermano, eh, si Dame billete', te doy paquete Que se escuchen solo rumoreo Rumo-reo-reo-reo-reo-reo Rumoreo pero a ninguno lo veo No lo veo-veo-veo-veo-veo Rumoreo pero a ninguno a la cara A la cara-cara-cara-cara-cara-cara A la cara guapo y a la espalda to' feo Todo feo-feo-feo-feo-feo Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Buscando lo caro, lo gratuito Aunque yo era pequeñito Metido en lo' delito Aunque nunca fuese bonito Y nunca fui al instituto Pero más que ellos era listo En la calle siempre astuto Prefiero siempre estar suelto Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo Si no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo-no lo veo Y no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo-no lo creo</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Non!Non!Non! Jpas eu le choix , que je le fasse il fallait Affronter tout les obstacles , a lheure ou tout les autres stagne Si!Si!Si! Tu connais pas, moi cest AL YASS MONEY RIDERZ Pour les connaisseurs Featuring nouvelle fraicheur !! Montréal doit accoucher De A.L sa spourrais 3heur on est pas couché Et si tu pense a mtoucher Tes mieu de ne pas mlouper Ou tu va tfaire cartoucher ARABIZER CAHLOUCHER Sa tapprendra a loucher Tu nous cherche on est partout Disparru comme Ssama-Ou Ya pas 36 solutions Sa va Ou Sa va pas La magouille La Khadma Ta pas dflouz ta pas dfemme Ta wallou ta pas dshab Mister You et Al Yass Fonceeee a 240 Javance en sachant Que le bien sappel GARBRIELLE kIBLISS sallonge dans sa chambre Enfance sans argent Jannonce le gagnant. al yass moenay riderz! La mise aux jeux est tentatrice et nous on est cerné d'dans La vie est un combat alors jla boxe et je serre les dents Encerclé dans une atmosphere sale et macabre Si j'étais super man pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape Si j'étais super man pour qui j'irais salir ma cape! You might also likeAl Yass ''Montréal dois ACCOUCHER De AL SA S'POURRAIS 3h00 on est PAS COUCHER Et si tu pense A M'TOUCHER T'es mieu de ne PAS M'LOUPER Ou tu va t'faire CARTOUCHER ARABISÉCAHLOUCHER Sa t'apprendra A LOUCHER'' Mister You - ''I'm not in the biz ''I'M THE BIZ'' I Fuck the muthafuckin police with my muthafuckin homies sit the fuck down !!'' - ''A cet heur ci , j'crois bien que les jeux sont FAIT la jsuis FAIT j'suis REFAIT j'suis en train de vivre un compte de FÉE my name is YOU GA TA GA... Im not a muthafucker... I'm not a sucker, but I play soccer !!''</t>
+          <t>Non!Non!Non! Jpas eu le choix , que je le fasse il fallait Affronter tout les obstacles , a lheure ou tout les autres stagne Si!Si!Si! Tu connais pas, moi cest AL YASS MONEY RIDERZ Pour les connaisseurs Featuring nouvelle fraicheur !! Montréal doit accoucher De A.L sa spourrais 3heur on est pas couché Et si tu pense a mtoucher Tes mieu de ne pas mlouper Ou tu va tfaire cartoucher ARABIZER CAHLOUCHER Sa tapprendra a loucher Tu nous cherche on est partout Disparru comme Ssama-Ou Ya pas 36 solutions Sa va Ou Sa va pas La magouille La Khadma Ta pas dflouz ta pas dfemme Ta wallou ta pas dshab Mister You et Al Yass Fonceeee a 240 Javance en sachant Que le bien sappel GARBRIELLE kIBLISS sallonge dans sa chambre Enfance sans argent Jannonce le gagnant. al yass moenay riderz! La mise aux jeux est tentatrice et nous on est cerné d'dans La vie est un combat alors jla boxe et je serre les dents Encerclé dans une atmosphere sale et macabre Si j'étais super man pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape.... Salir ma cape.... salir ma cape Pour qui j'irais salir ma cape Si j'étais super man pour qui j'irais salir ma cape! Al Yass ''Montréal dois ACCOUCHER De AL SA S'POURRAIS 3h00 on est PAS COUCHER Et si tu pense A M'TOUCHER T'es mieu de ne PAS M'LOUPER Ou tu va t'faire CARTOUCHER ARABISÉCAHLOUCHER Sa t'apprendra A LOUCHER'' Mister You - ''I'm not in the biz ''I'M THE BIZ'' I Fuck the muthafuckin police with my muthafuckin homies sit the fuck down !!'' - ''A cet heur ci , j'crois bien que les jeux sont FAIT la jsuis FAIT j'suis REFAIT j'suis en train de vivre un compte de FÉE my name is YOU GA TA GA... Im not a muthafucker... I'm not a sucker, but I play soccer !!''</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Elle a vomi sa blanquette sur ma banquette Obligé d'mettre tempête les 3atay enquêtent l'hypothèque, saperlipopette T'es même pas foutu d'faire partir une plaquette J'suis sous neurones stimulateur, han Calibré, j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han J'te remonte grâce au traceur, la chatte à ta sur Joue pas trop les mousquetaires wAllah étranglement coup du mousqueton Tu peux pas fumer ça c'est d'la mousse, le teh Fuck les suceurs, bouffe tes ongles J'roule des pétards et des mécaniques J'baise des panthères et des méga milfs J'rappe plus que toi c'est ma thématique Un seul couplet téma t'es ma bitch Tu jouais aux légo devant l'instit' On comptait plus de kichtas que d'élastiques Petit reste tranquille fais pas la street Fais le sportif l'entrepreneur fait l'artiste, han J'suis dans les astres, la voie lactée surnommée l'Hayce des Hayce Les yeux rouge sang, les idées noires comme J'm'endors sur la voix d'Arte avec une p'tite Kendale J'ai un nine tout neuf t'sais quoi J'crois qu'j'vais t'pull up chez toi Askip j'suis aud-ch c'est tout Les graille, les boire, j'sais pas J'ai jeté le Magnum Champagne écrire au cur d'une grasse campagne Moi j' j'sais comment les ingrats s'comportent La vérité dérange toujours le même qui en parle J'recompte pas, bordel de merde Gouvernement nous divise depuis le bord de mer Manipulent depuis piscine à débordement Des manuels à la file de nos bandes de merde Langue de Molière comme un prof de lettres Vieillit bien comme le vin Bordelais Ils sont là Aucun fils de putain ne m'apporte de l'aide Au bord de l'eau, verre de Crystal Poitrine généreuse pleine de lait J'suis au bord de l'eau j'ai moins peur de l'autre Et j'ai fini d'acheter ma villa en bord de mer Hasta la Muerte Hasta la Muerte Hasta la Muerte Hasta la Muerte H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5, le zinc' You might also like Ici tout l'monde a une guitare, pourtant, personne ne connait les Beatles Bac-térie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de Grrr-Grrr, quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vers le sol, hey Cimetière de mauvais pêchers vient pyramide de Benjamin Franklin J'marche avec les requins j'danse avec les loups rage et folie ne feront qu'un La bavette a frotté la police a frappé déféré au parquet j'fais couler son fond d'teint Algérien toujours effronté entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe C'est l'retour du grand méchant You J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Brr-t, Brr-t, hey J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Gare au Tokarev chargé sous le manteau noir Tu vas ravaler ton venin par l'entonnoir Moi j'ai donné sans jamais recevoir j'les ai vus pleurer avant qu'il s'mette à pleuvoir Beaucoup de pouvoir mais très peu d'argent, ou beaucoup d'argent mais très peu de pouvoir Vallet baise la Reine pour devenir le Roi, le gladiateur sur un cheval de Troie J'sors le que-tru j'vais compter jusqu'à trois, Juste un scato de plus, viens chercher la merde dans une fosse septique petit grand c'est la même Sur le rain-té d'une démarche solennelle y a la mache en en lamelles Rebeu j'suis trop éclectique, j'ai le biff' et la fiche technique J'ai ché-cra pour ton vieille pute, que j'te cite Shakespire Ou qu'j'te vêtisse de chic textile sans la bulle bleue j'sais pas si j' Nébuleuse affiche Big Lemsi rafale pluvieuse peureuse ineptie Et je sais qu'j'les ai choqués Mon shooteur arrive en chuchotant fait crier le Grr-ah les jaloux vont s'affiner La canon du 11-43 te faire perdre le bras J'suis toujours là pour le fight, hey H.L.M 2 dans les bacs', han H.L.M 2 dans les bacs', hey H.L.M 2 dans les bacs', han, hey Dans quel tiroir tu vas ranger l'polichinelle On t'a vu garer voiture de sport t'introduire dans les stores deux jumelles full Chanel Poussé par mon père hermano j'récupère depuis qu'j'suis prépubère, dans l'four sa mère Algéria recherche de Martin Luther humain faire depuis l'pêcher originel Toujours vers solitaire, j'veux pilot' l'hélicoptère sans mis-per Une kichta deux kichtas j'récupère une , premier bikow qui donne un prix qui perd Wo, crochet du gauche plus d'lumière wo, sagittaire mal luné Tout droit sorti d'une tempête de sable noir on m'a trouvé dans un berceau sublunaire Pas de Subutex pas de S dans les sinus Est-ce que la vida vaut d'être vécue sans Urus la télévision j'ai la vision depuis la fusée folie passionnelle et métaphores en fusion J'ai refusé j'ai mes raisons d'envisager de les rafaler tous de les voler leurs maisons Méga Husstler, gros SLR, gros SLS dans l'parking Bingston, chargé comme Kinston marche avec des mercenaires en kaki Elle veut qu'j'lui paye tout elle m'prend pour un chien Trop curieuse elle m'demande combien j'prends pour un show Ces bikow pourraient sucer pour un shoot j'vais t'éclater si ces bikow t'prennent pour un chaud Elle sait très bien comment j'aime la vitesse elle dégueule à 320 sur les marées-chau' Les plus timides ils savent pas s'arrêter La sur les réchauds Big gauche pop Henni, j'vais pull up ces ops à la Henneni Pas très magnanime pas de bel3ani Big bad Hayce fait les bails 3ami À la base moi j'suis là pour déconner J'ai commencé dans l'parking avec les rats tu connais On mène la vie d'tess, tous les jours, c'est pas du comique Et puis c'est moi j'sais qu'j'suis l'acteur de c'que j'ai commis Eh 2020 c'est fini, qu'est-ce qu'il nous attend le kho Parce qu'on sait pas d'quoi s'ra fait demain dans c'monde c'est bizarre Ils nous envoient des virus, ils nous enferment au mitard Ils nous font croire que l'bonheur il s'est perdu vers Ibiza Mais bon on est que de passage, j'ai soufflé 26 bougies C'est loin l'époque où on dansaient tous sur du Boogie Woogie J'ai mon crâne sur l'appui-tête, y'a mon pied collé au plancher J'ai vu des mecs qui suivent des mecs et même quand ils vont pisser C'est quoi la tess sans le shit c'est quoi la vie sans les flics C'est quoi L'Allemand sans ses potos, sans sa famille, son équipe Walou, walou, walou, walou, 6.9 la trik ouais pelo Représentant d'la ville j'mets des buts comme El Fenomeno Dans ce fils de pute de rap j'suis v'nu avec les potos Si c'était 15 piges en arrière t'écouterais dans ta Punto Dans un 406 V6 ou une Golf IV R32 Avec ton pack de 12, d'l'a fume à 50 de beuh Pour toutes les cités Love and Peace, personne va nous diviser Avant l'showcase, la boule au ventre, ça passe pas quand j'vais pisser J'suis pas du côté d'la victime, j'suis du côté d'l'accusé C'est nous on t'nique et c'est toi qui repars cicatrices au visage Et aujourd'hui c'est une époque où tout l'monde il est bizarre Ils veulent le beurre, ils veulent le buzz, ils veulent la beurette qui passe Eh pelo moi j'veux m'en sortir et j'men balec' de qui reste Ouais c'est fini les promesses, tu peux rien quand t'agonises Mais toi j'sais pas, t'es un fils de traître comme Bafétimbi Gomis J'aime bien les khos qui ont des couilles et qui les portent en qamis Pas ceux qui jactent trop à tout l'monde et même à ta miss Tu nous connais, nous les ratus on la met trois fois ta mise J'mets mon tapis comme Bernard, rêvant d'une vie plus peinard C'est moi qui provoque toute l'action et j'te laisse tirer l'péno Chez nous y'a pas d'numéro 10 y'a qu'des numéros d'écrou Y'a des frérots qui deviennent fous et qui ramassent des mégots Ça vend du shit et d'la beuh, mélangés à l'ecstasy Ouais vers chez nous tu trouves de tout, le four c'est la pharmacie Du jaune teh la Seleção, enfume toi si t'es primaire Moi j'suis comme toi, j'ai fais d'la taule, enfermé tout un hiver</t>
+          <t>Elle a vomi sa blanquette sur ma banquette Obligé d'mettre tempête les 3atay enquêtent l'hypothèque, saperlipopette T'es même pas foutu d'faire partir une plaquette J'suis sous neurones stimulateur, han Calibré, j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han J'te remonte grâce au traceur, la chatte à ta sur Joue pas trop les mousquetaires wAllah étranglement coup du mousqueton Tu peux pas fumer ça c'est d'la mousse, le teh Fuck les suceurs, bouffe tes ongles J'roule des pétards et des mécaniques J'baise des panthères et des méga milfs J'rappe plus que toi c'est ma thématique Un seul couplet téma t'es ma bitch Tu jouais aux légo devant l'instit' On comptait plus de kichtas que d'élastiques Petit reste tranquille fais pas la street Fais le sportif l'entrepreneur fait l'artiste, han J'suis dans les astres, la voie lactée surnommée l'Hayce des Hayce Les yeux rouge sang, les idées noires comme J'm'endors sur la voix d'Arte avec une p'tite Kendale J'ai un nine tout neuf t'sais quoi J'crois qu'j'vais t'pull up chez toi Askip j'suis aud-ch c'est tout Les graille, les boire, j'sais pas J'ai jeté le Magnum Champagne écrire au cur d'une grasse campagne Moi j' j'sais comment les ingrats s'comportent La vérité dérange toujours le même qui en parle J'recompte pas, bordel de merde Gouvernement nous divise depuis le bord de mer Manipulent depuis piscine à débordement Des manuels à la file de nos bandes de merde Langue de Molière comme un prof de lettres Vieillit bien comme le vin Bordelais Ils sont là Aucun fils de putain ne m'apporte de l'aide Au bord de l'eau, verre de Crystal Poitrine généreuse pleine de lait J'suis au bord de l'eau j'ai moins peur de l'autre Et j'ai fini d'acheter ma villa en bord de mer Hasta la Muerte Hasta la Muerte Hasta la Muerte Hasta la Muerte H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5 H.L.M 2 dans les bacs', le 5, le zinc' Ici tout l'monde a une guitare, pourtant, personne ne connait les Beatles Bac-térie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de Grrr-Grrr, quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vers le sol, hey Cimetière de mauvais pêchers vient pyramide de Benjamin Franklin J'marche avec les requins j'danse avec les loups rage et folie ne feront qu'un La bavette a frotté la police a frappé déféré au parquet j'fais couler son fond d'teint Algérien toujours effronté entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe H.L.M 2 dans les bacs', Yeah Hoe C'est l'retour du grand méchant You J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Brr-t, Brr-t, hey J'ai demandé le chemin d'la gloire, on m'a indiqué celui d'la gare Gare au Tokarev chargé sous le manteau noir Tu vas ravaler ton venin par l'entonnoir Moi j'ai donné sans jamais recevoir j'les ai vus pleurer avant qu'il s'mette à pleuvoir Beaucoup de pouvoir mais très peu d'argent, ou beaucoup d'argent mais très peu de pouvoir Vallet baise la Reine pour devenir le Roi, le gladiateur sur un cheval de Troie J'sors le que-tru j'vais compter jusqu'à trois, Juste un scato de plus, viens chercher la merde dans une fosse septique petit grand c'est la même Sur le rain-té d'une démarche solennelle y a la mache en en lamelles Rebeu j'suis trop éclectique, j'ai le biff' et la fiche technique J'ai ché-cra pour ton vieille pute, que j'te cite Shakespire Ou qu'j'te vêtisse de chic textile sans la bulle bleue j'sais pas si j' Nébuleuse affiche Big Lemsi rafale pluvieuse peureuse ineptie Et je sais qu'j'les ai choqués Mon shooteur arrive en chuchotant fait crier le Grr-ah les jaloux vont s'affiner La canon du 11-43 te faire perdre le bras J'suis toujours là pour le fight, hey H.L.M 2 dans les bacs', han H.L.M 2 dans les bacs', hey H.L.M 2 dans les bacs', han, hey Dans quel tiroir tu vas ranger l'polichinelle On t'a vu garer voiture de sport t'introduire dans les stores deux jumelles full Chanel Poussé par mon père hermano j'récupère depuis qu'j'suis prépubère, dans l'four sa mère Algéria recherche de Martin Luther humain faire depuis l'pêcher originel Toujours vers solitaire, j'veux pilot' l'hélicoptère sans mis-per Une kichta deux kichtas j'récupère une , premier bikow qui donne un prix qui perd Wo, crochet du gauche plus d'lumière wo, sagittaire mal luné Tout droit sorti d'une tempête de sable noir on m'a trouvé dans un berceau sublunaire Pas de Subutex pas de S dans les sinus Est-ce que la vida vaut d'être vécue sans Urus la télévision j'ai la vision depuis la fusée folie passionnelle et métaphores en fusion J'ai refusé j'ai mes raisons d'envisager de les rafaler tous de les voler leurs maisons Méga Husstler, gros SLR, gros SLS dans l'parking Bingston, chargé comme Kinston marche avec des mercenaires en kaki Elle veut qu'j'lui paye tout elle m'prend pour un chien Trop curieuse elle m'demande combien j'prends pour un show Ces bikow pourraient sucer pour un shoot j'vais t'éclater si ces bikow t'prennent pour un chaud Elle sait très bien comment j'aime la vitesse elle dégueule à 320 sur les marées-chau' Les plus timides ils savent pas s'arrêter La sur les réchauds Big gauche pop Henni, j'vais pull up ces ops à la Henneni Pas très magnanime pas de bel3ani Big bad Hayce fait les bails 3ami À la base moi j'suis là pour déconner J'ai commencé dans l'parking avec les rats tu connais On mène la vie d'tess, tous les jours, c'est pas du comique Et puis c'est moi j'sais qu'j'suis l'acteur de c'que j'ai commis Eh 2020 c'est fini, qu'est-ce qu'il nous attend le kho Parce qu'on sait pas d'quoi s'ra fait demain dans c'monde c'est bizarre Ils nous envoient des virus, ils nous enferment au mitard Ils nous font croire que l'bonheur il s'est perdu vers Ibiza Mais bon on est que de passage, j'ai soufflé 26 bougies C'est loin l'époque où on dansaient tous sur du Boogie Woogie J'ai mon crâne sur l'appui-tête, y'a mon pied collé au plancher J'ai vu des mecs qui suivent des mecs et même quand ils vont pisser C'est quoi la tess sans le shit c'est quoi la vie sans les flics C'est quoi L'Allemand sans ses potos, sans sa famille, son équipe Walou, walou, walou, walou, 6.9 la trik ouais pelo Représentant d'la ville j'mets des buts comme El Fenomeno Dans ce fils de pute de rap j'suis v'nu avec les potos Si c'était 15 piges en arrière t'écouterais dans ta Punto Dans un 406 V6 ou une Golf IV R32 Avec ton pack de 12, d'l'a fume à 50 de beuh Pour toutes les cités Love and Peace, personne va nous diviser Avant l'showcase, la boule au ventre, ça passe pas quand j'vais pisser J'suis pas du côté d'la victime, j'suis du côté d'l'accusé C'est nous on t'nique et c'est toi qui repars cicatrices au visage Et aujourd'hui c'est une époque où tout l'monde il est bizarre Ils veulent le beurre, ils veulent le buzz, ils veulent la beurette qui passe Eh pelo moi j'veux m'en sortir et j'men balec' de qui reste Ouais c'est fini les promesses, tu peux rien quand t'agonises Mais toi j'sais pas, t'es un fils de traître comme Bafétimbi Gomis J'aime bien les khos qui ont des couilles et qui les portent en qamis Pas ceux qui jactent trop à tout l'monde et même à ta miss Tu nous connais, nous les ratus on la met trois fois ta mise J'mets mon tapis comme Bernard, rêvant d'une vie plus peinard C'est moi qui provoque toute l'action et j'te laisse tirer l'péno Chez nous y'a pas d'numéro 10 y'a qu'des numéros d'écrou Y'a des frérots qui deviennent fous et qui ramassent des mégots Ça vend du shit et d'la beuh, mélangés à l'ecstasy Ouais vers chez nous tu trouves de tout, le four c'est la pharmacie Du jaune teh la Seleção, enfume toi si t'es primaire Moi j'suis comme toi, j'ai fais d'la taule, enfermé tout un hiver</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ouh, ouh J'fais réveiller des couche tards, éveiller des vrais Hmar , rhabiller des petites kehs avec un Q.I de calamar J'ai fait évader des taulards à l'Aide de mes cordes vocales Message à la racaille, qui vole et vend de la caille Incapable d'être réglo, tu tailles un jour avant que tu die Questions de principes l'argent n'est qu'un détail Personne se mouill pour une race de morts mais pour un frèr en or, on s'embrouille annule des représailles Ils ont étudié nos failles, 9-4 mentale, On fait des bébés parloir pour la condi parentale J'entends mes sons quand je cavale en promenade Je fais pas la resta, c'est d'égal à égal Les fouilles sont brutales, même pour une heja Que Dieu nous pardonne, nous aides à zapper illicite et chicha On est des mecs Hnine, d'origine, j'essaie de suivre le Dine Des fois je perds la main comme mel-Ja J'Marche plus sur des ufs mais sur des poussins, Je suis passé du Georges V au foyer des maliens Les portes du coeur sont nos yeux, mais on ne voit rien Sans la barakah ta richesse ne vaut rien La street nous a éduqués Agis comme un homme, on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide You might also like Je me rappelle de ma cavale quand mes potes m'esquivaient Quand je vois les yeux de mon fils bah faut que je le fasse kiffer Nan nan, crois pas que tout est carré des fois je me sens trop égaré Quand j'suis confiant avec une paire d'As madame la juge sort le carré Je passe en conseil de discipline, collège école primaire ensuite j'suis passé par Fleury ce putain de quartier disciplinaire Les panneaux de portes rempli de sel3a je revenais de Rotter d'un air serein Solo comme un mercenaire je me fait péter, m'en fou c'est rien En vrai ma mère à trop souffert je l'ai fait vieillir avant l'âge Non crois pas que je suis fier d'être dans ce putain d'engrenage Petit fréro fais gaffe à oi-t car l'amitié vaut que 30 euros Ton meilleur pote pourrait te fumer et venir pleurer à ton enterrement J'suis comme un mec qui sur j'ai serré que des paquets, bon la plupart c'était des connes niveau dialogue c'était claqué Darwa toi t'as perdu ta perle parce que t'aimais trop les rées-soi Aujourd'hui chacun sa merde chacun doit s'occuper de soi Hier ça parlait d'amour aujourd'hui ça parle de pension Cette folle t'as fait du shour, elle t'as fait boire sa potion Dans la rue, t'es le toubib, frérot, viens chez le patient La rue m'a pris du temps et m'a appris à être patient La street nous a éduqués Agis comme un homme on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide Reste polie polie, on a évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli Reste polie polie, on à évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide La street qui nous a éduqués Agis comme un homme on donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide C'est pour les gars solide ma gueule, lourd les mecs de la street. En chaire et en shit Woogataga Quand on dofmait parterre ma gueule Roh2guerre On s'est cassé le dos sur le terrain Wallah Aujourd'hui palace, hélicoptère, jet privé ma gueule Rolls Royce, Limousine Ça bouge pas une oreille À l'aise en Clio 1 comme en Bentley Ta mère C'est la street gros en chaire et en shit wallah Accélération. Ça pars, ça reviens Accélération sur la A7 ta mère. hahaha Pour les Vrai de Vrai gros, ceux qui ont charbonnés qui ont tout donné Pas pour les girouettes faire Woogataga les gars C'est pour les hommes POUR LES GARS SOLIDE,SOLIDE !</t>
+          <t>Ouh, ouh J'fais réveiller des couche tards, éveiller des vrais Hmar , rhabiller des petites kehs avec un Q.I de calamar J'ai fait évader des taulards à l'Aide de mes cordes vocales Message à la racaille, qui vole et vend de la caille Incapable d'être réglo, tu tailles un jour avant que tu die Questions de principes l'argent n'est qu'un détail Personne se mouill pour une race de morts mais pour un frèr en or, on s'embrouille annule des représailles Ils ont étudié nos failles, 9-4 mentale, On fait des bébés parloir pour la condi parentale J'entends mes sons quand je cavale en promenade Je fais pas la resta, c'est d'égal à égal Les fouilles sont brutales, même pour une heja Que Dieu nous pardonne, nous aides à zapper illicite et chicha On est des mecs Hnine, d'origine, j'essaie de suivre le Dine Des fois je perds la main comme mel-Ja J'Marche plus sur des ufs mais sur des poussins, Je suis passé du Georges V au foyer des maliens Les portes du coeur sont nos yeux, mais on ne voit rien Sans la barakah ta richesse ne vaut rien La street nous a éduqués Agis comme un homme, on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide Je me rappelle de ma cavale quand mes potes m'esquivaient Quand je vois les yeux de mon fils bah faut que je le fasse kiffer Nan nan, crois pas que tout est carré des fois je me sens trop égaré Quand j'suis confiant avec une paire d'As madame la juge sort le carré Je passe en conseil de discipline, collège école primaire ensuite j'suis passé par Fleury ce putain de quartier disciplinaire Les panneaux de portes rempli de sel3a je revenais de Rotter d'un air serein Solo comme un mercenaire je me fait péter, m'en fou c'est rien En vrai ma mère à trop souffert je l'ai fait vieillir avant l'âge Non crois pas que je suis fier d'être dans ce putain d'engrenage Petit fréro fais gaffe à oi-t car l'amitié vaut que 30 euros Ton meilleur pote pourrait te fumer et venir pleurer à ton enterrement J'suis comme un mec qui sur j'ai serré que des paquets, bon la plupart c'était des connes niveau dialogue c'était claqué Darwa toi t'as perdu ta perle parce que t'aimais trop les rées-soi Aujourd'hui chacun sa merde chacun doit s'occuper de soi Hier ça parlait d'amour aujourd'hui ça parle de pension Cette folle t'as fait du shour, elle t'as fait boire sa potion Dans la rue, t'es le toubib, frérot, viens chez le patient La rue m'a pris du temps et m'a appris à être patient La street nous a éduqués Agis comme un homme on t'donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide Reste polie polie, on a évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli Reste polie polie, on à évité la folie, folie La sorcière est jolie jolie, à cause d'elle tu t'es ramolli-moli C'est pour les gars solide solide, solide solide Pour les gars solide solide, solide solide La street qui nous a éduqués Agis comme un homme on donne le respect On vient d'en bas réussite méritée Assume comme un homme et ne sois pas mauvais C'est pour les gars solide solide, Solide, solide Pour les gars solide solide, Solide, solide C'est pour les gars solide ma gueule, lourd les mecs de la street. En chaire et en shit Woogataga Quand on dofmait parterre ma gueule Roh2guerre On s'est cassé le dos sur le terrain Wallah Aujourd'hui palace, hélicoptère, jet privé ma gueule Rolls Royce, Limousine Ça bouge pas une oreille À l'aise en Clio 1 comme en Bentley Ta mère C'est la street gros en chaire et en shit wallah Accélération. Ça pars, ça reviens Accélération sur la A7 ta mère. hahaha Pour les Vrai de Vrai gros, ceux qui ont charbonnés qui ont tout donné Pas pour les girouettes faire Woogataga les gars C'est pour les hommes POUR LES GARS SOLIDE,SOLIDE !</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Quand les anges brillent dans le ciel le diable s'agite sur le trottoir C'est trop tard le mal fait, me bouleverse la haine est gratuite J'entend des coup d'feu, les âmes quittent leurs corps et gravitent On navigue, on parle d'million virtuel avec le ventre vide C'est Koh-Lanta j'part en expédition même sans vivre Moi jespère vivre jusquà la destruction de Belleville J'relativise, vise pas la tête ou c'est lhémorragie Je réagis, kill plutôt le mic comme Bilel Nadjib Quand on m'dit coronaire j'sais que c'est d'un mort qu'il s'agit Quand j'voit ma mère en pleur je ne voit pas le drapeau qui s'agite Laisser pour compte, toujours les même qui tombe pour coke La même misère en bas j'te refait le monde avec un cône Très désorienté, j'veux sortir en indé Je n'm'interdit plus rien faut faire du chiffre sur le terrain Indigent, on rêve de faire sauter la diligence Baiser les dirigeant qui nous croient en manque d'intelligence On rêve d'un harem, niquer la meuf d'Pharrell Et on s'questionne, Dieu, comment a tu fait un monde pareil ? On aimes toucher et coucher, regarder l'coucher su soleil Approcher nos rêve, pouvoir s'réveiller du sommeil J'aime, la vie qu'je mène même si c'est l'bordel Avec la volonté tout sa mènera au bord d'la mer Bref, j'réve, d'authentifier mon existence Mais le rap est pris pour cible comparé pour délinquance Quand j'pense au disparu, a la beuh ou au charrue A ses kilo d'coco qui sont écouler dans nos rue La Russie n'est qu'a deux pat sais-tu que la roulette aussi On rêve dêtre docile, tout autour tout est nocif On signe d'un Z avec un zeste de poésie Souvent on s'arme pour pas laisser notre peau ici Donc ? la vie en bas elle nous sidère On s'croit dans count striker et on aime tirer au ? A force de traîner on s'y perd Dans nos peine, on s'y baigne, on fera péter ton sasse au décibel On ressasse le bon et l'mauvais, on chekera José Bové Le bonheur n'est pas loin il est difficile a trouver Éprouver par cette vie y a comme un gout de mélancolie J'suis seul sur ma colline moi et mon taux d'alcoolémie J'les laisse me blesser, croire qu'ils mont mis en laisse Mais la rue m'a plus appris que leur Pythagore est a l'est Donc jespère vivre libre tant qu'je respire J'vie a Belleville de mon ghetto je m'inspire M'en méfie comme de la peste, de la belle, de la bête J'reste humble car je perdrai si j'me la pète La perte est proche le diable appel et on décroche On veux s'la faire pépère jusqu'au dernier coup de cross On a toujours les crocs, on partira sans un centimes Si j'doit cané demain Younes m'enterra en Guyane Cest gentiment que je t'exprime juste un ressentiment Garde le pour toi lEurope n'est pas mon continent 22 ans, maintenant, encore en vie c'est étonnant J'aide toujours mon prochain car j'aime recevoir en donnant J'suis précis, j'ai des principes j'ai surtout des valeur De l'honneur mais, s'il vont tous au sud j'irai au Nord Mon cur renferme tant d'haine et de joie a la fois Père, je pense a toi je l'jure Aussi fort que j'pense au poto You A la renaissance Pataya, linnocence des Ghetto Youth On court vers un avenir surement incertain Pour un ? j'peu m'prendre une balle comme a Verdun Et j'souhaite remplacé l'sky J'souhaite, contre les verre d'eau Préserver ma famille de la dépendance et de l'overdose J'ose faire parler de moi d'effrayer la chronique J'reste pas là sans bouger le cul poser sur le granit C'est grave, ? nous interdit pas au dicave Chaque journée ? je cotoie le handicap Des fois mon coeur gueule me dit de n'pas baisser les bras Qu'un jour tout se payera Et nique sa mère l'jour où on se sépare J'te dit à taleur mais on sais pas De l'autre coté d'la rue je peux me prendre un coup d'barre Partir, y'a 1000 kalash de raisons d'mourir Ma mère, rien ne remplace son sourireYou might also like</t>
+          <t>Quand les anges brillent dans le ciel le diable s'agite sur le trottoir C'est trop tard le mal fait, me bouleverse la haine est gratuite J'entend des coup d'feu, les âmes quittent leurs corps et gravitent On navigue, on parle d'million virtuel avec le ventre vide C'est Koh-Lanta j'part en expédition même sans vivre Moi jespère vivre jusquà la destruction de Belleville J'relativise, vise pas la tête ou c'est lhémorragie Je réagis, kill plutôt le mic comme Bilel Nadjib Quand on m'dit coronaire j'sais que c'est d'un mort qu'il s'agit Quand j'voit ma mère en pleur je ne voit pas le drapeau qui s'agite Laisser pour compte, toujours les même qui tombe pour coke La même misère en bas j'te refait le monde avec un cône Très désorienté, j'veux sortir en indé Je n'm'interdit plus rien faut faire du chiffre sur le terrain Indigent, on rêve de faire sauter la diligence Baiser les dirigeant qui nous croient en manque d'intelligence On rêve d'un harem, niquer la meuf d'Pharrell Et on s'questionne, Dieu, comment a tu fait un monde pareil ? On aimes toucher et coucher, regarder l'coucher su soleil Approcher nos rêve, pouvoir s'réveiller du sommeil J'aime, la vie qu'je mène même si c'est l'bordel Avec la volonté tout sa mènera au bord d'la mer Bref, j'réve, d'authentifier mon existence Mais le rap est pris pour cible comparé pour délinquance Quand j'pense au disparu, a la beuh ou au charrue A ses kilo d'coco qui sont écouler dans nos rue La Russie n'est qu'a deux pat sais-tu que la roulette aussi On rêve dêtre docile, tout autour tout est nocif On signe d'un Z avec un zeste de poésie Souvent on s'arme pour pas laisser notre peau ici Donc ? la vie en bas elle nous sidère On s'croit dans count striker et on aime tirer au ? A force de traîner on s'y perd Dans nos peine, on s'y baigne, on fera péter ton sasse au décibel On ressasse le bon et l'mauvais, on chekera José Bové Le bonheur n'est pas loin il est difficile a trouver Éprouver par cette vie y a comme un gout de mélancolie J'suis seul sur ma colline moi et mon taux d'alcoolémie J'les laisse me blesser, croire qu'ils mont mis en laisse Mais la rue m'a plus appris que leur Pythagore est a l'est Donc jespère vivre libre tant qu'je respire J'vie a Belleville de mon ghetto je m'inspire M'en méfie comme de la peste, de la belle, de la bête J'reste humble car je perdrai si j'me la pète La perte est proche le diable appel et on décroche On veux s'la faire pépère jusqu'au dernier coup de cross On a toujours les crocs, on partira sans un centimes Si j'doit cané demain Younes m'enterra en Guyane Cest gentiment que je t'exprime juste un ressentiment Garde le pour toi lEurope n'est pas mon continent 22 ans, maintenant, encore en vie c'est étonnant J'aide toujours mon prochain car j'aime recevoir en donnant J'suis précis, j'ai des principes j'ai surtout des valeur De l'honneur mais, s'il vont tous au sud j'irai au Nord Mon cur renferme tant d'haine et de joie a la fois Père, je pense a toi je l'jure Aussi fort que j'pense au poto You A la renaissance Pataya, linnocence des Ghetto Youth On court vers un avenir surement incertain Pour un ? j'peu m'prendre une balle comme a Verdun Et j'souhaite remplacé l'sky J'souhaite, contre les verre d'eau Préserver ma famille de la dépendance et de l'overdose J'ose faire parler de moi d'effrayer la chronique J'reste pas là sans bouger le cul poser sur le granit C'est grave, ? nous interdit pas au dicave Chaque journée ? je cotoie le handicap Des fois mon coeur gueule me dit de n'pas baisser les bras Qu'un jour tout se payera Et nique sa mère l'jour où on se sépare J'te dit à taleur mais on sais pas De l'autre coté d'la rue je peux me prendre un coup d'barre Partir, y'a 1000 kalash de raisons d'mourir Ma mère, rien ne remplace son sourire</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Suce ma bite Lèche mes boules Lèche ma bite Suce mes boules Suce mes boules, lèche ma bite Lèche ma bite, suce mes boules Suce mes boules, suce mes boules Lèche ma bite, lèche ma bite Lèche mes boules, lèche mes boules Suce ma bite, suce ma bite Suce ma bite, lèch mes boules, lèche ms boules C'était pas prévu au programme Mais tu vas cé-su nos godasses Car c'est du trop haut de gamme Jonathan H la mitrailleuse Envoie des rimes mafieuses Et fourre des filles hargneuses Taille-moi une pipe sale chieuse si t'as la gueule de Nathalie Baye Laisse-moi faire mes bails pour que la famille graille salope Trop dhéroïnomanes et de ravissantes demoiselles Cocaïnomane transforme leurs narines en toilettes J'décapite ta tête de pute comme Marie-Antoinette C'est rapide atteste le but, gros, j'arrive en touareg J'te fascine en trois seize, que j'manigance moi-même encore Qu'est-ce que tu crois, mec encore, lèche mes noisettes encore Je me fais contrôler par des blondinets J'ai combiné la drogue, l'alcool et j'ai sacrifié mon dîner J'suis pas allé à la fac mais à la Fnac J'suis pas rasé sale macaque, j'passe à l'attaque ! You might also like Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Avec ma queue j'fais c'que j'veux alors tu m'laisses ball Avec ma queue, on joue pas au billard on fait du baseball Caresse la batte, mets toi à quatre pattes et j'tire au paintball Avec mon gun tu passes aux assiettes si t'as pas d'bol Avec ma gueule, ma gueule, t'es sur d'être mis sur l'té-co Fuck la plage, j'veux un château avec une vue sur l'ghetto Avec Michael, j'gueule, le mic', rime avec Tyson Devant lautre Michael, jrajoute Daniels pour que Jackson Wilkinson tranchants dès lors où la perquise sonne Jredoute personne à part les shtars de peur qu'ils m'saignent Jsuis pisté par les pe-stu, en X5 Le micro j'le fais bler-trem, il attrape Parkinson Le crack imprègne mes disques sans passer par Kingston Si deux PD préméditent, c'est 100 pour qu'ils s'donnent Armé dun uzi, l'esprit lucide quand les gens rentrent solo Si la vie s'rait une pute, ouais, je l'appellerais Sharon Stone Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Ce son, cest comme cette putain de chaine cryptée la nuit le samedi Que des fous, que des loups même prêts à ler-vio le cro-mi Le 20ème, cest mon réseau, les keufs nous té-ma avec trop d'ces-vi Va dire à ces batards qu'on restera là sans les servir J'vais sévir sur l'beat, appelle ça violence gratuite J'vais te buter sans but pourquoi pas pécho des thunes Si j'pécho une pute ce qu'on fera, c'est du bite à bouche On fuck les dirigeants Français en glissant capotes dans l'urne Ils disent tes lyrics sont dun vulgaire Fermes ta gueule, cest soit ça ou bien ma bulle dair Dans ta bouche, ton crew Vas-y bouge ou tauras la même impression quaprès-avoir laissé lsavon dans la douche Mon équipe, te liquide, te rend fou, comme deux shits Eh reste cool face au futur leader Nouvelle école, Alcailllou, jcrois que tas vu la couleur Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous</t>
+          <t>Suce ma bite Lèche mes boules Lèche ma bite Suce mes boules Suce mes boules, lèche ma bite Lèche ma bite, suce mes boules Suce mes boules, suce mes boules Lèche ma bite, lèche ma bite Lèche mes boules, lèche mes boules Suce ma bite, suce ma bite Suce ma bite, lèch mes boules, lèche ms boules C'était pas prévu au programme Mais tu vas cé-su nos godasses Car c'est du trop haut de gamme Jonathan H la mitrailleuse Envoie des rimes mafieuses Et fourre des filles hargneuses Taille-moi une pipe sale chieuse si t'as la gueule de Nathalie Baye Laisse-moi faire mes bails pour que la famille graille salope Trop dhéroïnomanes et de ravissantes demoiselles Cocaïnomane transforme leurs narines en toilettes J'décapite ta tête de pute comme Marie-Antoinette C'est rapide atteste le but, gros, j'arrive en touareg J'te fascine en trois seize, que j'manigance moi-même encore Qu'est-ce que tu crois, mec encore, lèche mes noisettes encore Je me fais contrôler par des blondinets J'ai combiné la drogue, l'alcool et j'ai sacrifié mon dîner J'suis pas allé à la fac mais à la Fnac J'suis pas rasé sale macaque, j'passe à l'attaque ! Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Avec ma queue j'fais c'que j'veux alors tu m'laisses ball Avec ma queue, on joue pas au billard on fait du baseball Caresse la batte, mets toi à quatre pattes et j'tire au paintball Avec mon gun tu passes aux assiettes si t'as pas d'bol Avec ma gueule, ma gueule, t'es sur d'être mis sur l'té-co Fuck la plage, j'veux un château avec une vue sur l'ghetto Avec Michael, j'gueule, le mic', rime avec Tyson Devant lautre Michael, jrajoute Daniels pour que Jackson Wilkinson tranchants dès lors où la perquise sonne Jredoute personne à part les shtars de peur qu'ils m'saignent Jsuis pisté par les pe-stu, en X5 Le micro j'le fais bler-trem, il attrape Parkinson Le crack imprègne mes disques sans passer par Kingston Si deux PD préméditent, c'est 100 pour qu'ils s'donnent Armé dun uzi, l'esprit lucide quand les gens rentrent solo Si la vie s'rait une pute, ouais, je l'appellerais Sharon Stone Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Ce son, cest comme cette putain de chaine cryptée la nuit le samedi Que des fous, que des loups même prêts à ler-vio le cro-mi Le 20ème, cest mon réseau, les keufs nous té-ma avec trop d'ces-vi Va dire à ces batards qu'on restera là sans les servir J'vais sévir sur l'beat, appelle ça violence gratuite J'vais te buter sans but pourquoi pas pécho des thunes Si j'pécho une pute ce qu'on fera, c'est du bite à bouche On fuck les dirigeants Français en glissant capotes dans l'urne Ils disent tes lyrics sont dun vulgaire Fermes ta gueule, cest soit ça ou bien ma bulle dair Dans ta bouche, ton crew Vas-y bouge ou tauras la même impression quaprès-avoir laissé lsavon dans la douche Mon équipe, te liquide, te rend fou, comme deux shits Eh reste cool face au futur leader Nouvelle école, Alcailllou, jcrois que tas vu la couleur Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous Suce nos bites, salope, lèche nos boules de bowling Fais nous plaisir et mets la langue, ouais, utilise ton piercing Là c'est Still Fresh, Alkpote et Mister You Zougataga mon pote, eh ouais c'est l'rap tah les voyous</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>J'touche pas aux vlo-tra j'baise qu'les go sans triques Je suis, comment vous dites ? égocentrique Sucer des bites, c'est pas autoriser J'ai écris c'texte à Fleury, à Fresnes j'vais le remastériser Vaporisez les billets, comme à ça ils auront une odeur Les 3ineurs s'que j'sais c'est qu'ils volent mieux qu'Harry Potter Un répondeur, ça sert à vesqui les gens Tu veux qu'on dorme ? t'es folle, écarte un peu les jambes Le feu d'l'amour on l'éteint pas en l'attisant Houbi, t'a un regard traumatisant Zebi, à la barre j'fais l'mec til-gen Mais l'juge s'bâtard il veut m'mettre 10 ans Woogataga Belleville grosse dédicace Miss reste en chatte et graille des whiskas Y'a l'36 postiché en bas d'la house Moi, j'm'en fiche là j'suis en train d'danser sur d'la house What in the world is a girl to do? When in this smokey place I only see you Was far away when you caught my eye You've brought me back and now you're making me high I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me You might also like C'soir évite les embrouilles même si on t'parles mal C'est la fête soit cool paye un verre au barman Sur la piste y'a qu'des missiles, c'est la guerre mondiale J'les aimes fines et sportives genre Sophie Thalmann C'est pour ceux et aussi celles qu'on pris la vie sur un coup d'tête Les voyous à la table qui enchaîne les bouteilles C'est pour Steve, Mamadou et Be-be-bechir J'ai entendu un pull up, pull up ça dé-dé-déchire C'est l'94 gataga connexion, Rap de barj' en action pour les braves On fais du son pure en illicite Marre d'voir XXX XXX Malfrat dans la boite ça peut douiller Gare aux mésaventure si t'espérais me fouiller J'ai le biff dans les fouilles si y'a heja J'vais faire des dégâts avec poto Tadja Eh excuse moi, eh demoiselle, wesh t'es sérieuse ? eh wallah j'vais t'charrier hey Anorexique 44 kilos poids net Tu fais pas d'pipi tu sniff dans les toilettes Gucci, Versace, Dolce Gabanna A la bouche un gare-ci tah la Havana Faya sous vodka j'préfère le whisky Suivi d'une lahsa d'Monica Lewinsky I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes</t>
+          <t>J'touche pas aux vlo-tra j'baise qu'les go sans triques Je suis, comment vous dites ? égocentrique Sucer des bites, c'est pas autoriser J'ai écris c'texte à Fleury, à Fresnes j'vais le remastériser Vaporisez les billets, comme à ça ils auront une odeur Les 3ineurs s'que j'sais c'est qu'ils volent mieux qu'Harry Potter Un répondeur, ça sert à vesqui les gens Tu veux qu'on dorme ? t'es folle, écarte un peu les jambes Le feu d'l'amour on l'éteint pas en l'attisant Houbi, t'a un regard traumatisant Zebi, à la barre j'fais l'mec til-gen Mais l'juge s'bâtard il veut m'mettre 10 ans Woogataga Belleville grosse dédicace Miss reste en chatte et graille des whiskas Y'a l'36 postiché en bas d'la house Moi, j'm'en fiche là j'suis en train d'danser sur d'la house What in the world is a girl to do? When in this smokey place I only see you Was far away when you caught my eye You've brought me back and now you're making me high I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me C'soir évite les embrouilles même si on t'parles mal C'est la fête soit cool paye un verre au barman Sur la piste y'a qu'des missiles, c'est la guerre mondiale J'les aimes fines et sportives genre Sophie Thalmann C'est pour ceux et aussi celles qu'on pris la vie sur un coup d'tête Les voyous à la table qui enchaîne les bouteilles C'est pour Steve, Mamadou et Be-be-bechir J'ai entendu un pull up, pull up ça dé-dé-déchire C'est l'94 gataga connexion, Rap de barj' en action pour les braves On fais du son pure en illicite Marre d'voir XXX XXX Malfrat dans la boite ça peut douiller Gare aux mésaventure si t'espérais me fouiller J'ai le biff dans les fouilles si y'a heja J'vais faire des dégâts avec poto Tadja Eh excuse moi, eh demoiselle, wesh t'es sérieuse ? eh wallah j'vais t'charrier hey Anorexique 44 kilos poids net Tu fais pas d'pipi tu sniff dans les toilettes Gucci, Versace, Dolce Gabanna A la bouche un gare-ci tah la Havana Faya sous vodka j'préfère le whisky Suivi d'une lahsa d'Monica Lewinsky I was alone out there, with no one else around Now I've fallen for you gataga and there's no coming down Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes What can I do? I'm looking right at you This feeling is all new, I want you addicted to me Till there was you, I know what you're needing My thoughts are leading, me straight into your eyes</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Eh ma gueule, ouais, ouais, ouais Eh, eh Eh, eh, eh Nique ta mère et ton re-pè Ah-ah Le jour où j'ai raté mon BEP Mister Yougataga, ALP Alpha Lima Pedro Eh, eh, eh Rah J'me réveille, j'suis dans les hautes sphères, dans des problèmes, dans mon domaine Elle veut mon visage en poster, que j'la balade, que j'lui promette J'vois son sourire jusqu'aux pommettes, ses yeux bridés, j'vois ses fossettes J'suis trop distant, j'fais mon possible, l re-noi est violent t docile Lima a grandi à Bercy, volé à Bercy, chanté à Bercy J'vais pas t'quémander un merci pour un service, j'ai des principes On fait la rue, on fait la té-ci, on est très précis si tu persistes Heures du matin, c'est les perquises, t'as pas coffré, ils t'ont saisi Ma daronne a confiance en moi, j'peux pas flancher, j'peux pas lâcher J'finis un jet, donner mon cur, ils ont tout gâché, ils l'ont cassé Pas une nuit sans penser à brasser, à brasser, à embrasser J'aimais la rue donc j'l'ai embrassé, embrassé, la rue embrassée Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi You might also like Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Quand y a drah, on n'a jamais balisé Balisé, les keufs sont v'nus nous faire baliser Baliser Chez nous, ça traîne qu'en bande organisée Organisée d'la maternelle au lycée Ouais, yeah Grosse Ferrari, r'présente Paris, doublé d'Mbappé, feinte de frappe tah Neymar crari J'fais tmenick j'ai mal au dos et bicyclette dans vos grands-mères C'est Mister You, Alpha Lima Pedro, y a d'la frappe d'Outre-Mer On fait d'l'oseille, on sort les armes, les keufs sans hlel dans la lasagne J'suis d'ceux qu'investissent en Lausanne, y a les ch'vaux d'course et y a les ânes Yeah, yeah Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine</t>
+          <t>Eh ma gueule, ouais, ouais, ouais Eh, eh Eh, eh, eh Nique ta mère et ton re-pè Ah-ah Le jour où j'ai raté mon BEP Mister Yougataga, ALP Alpha Lima Pedro Eh, eh, eh Rah J'me réveille, j'suis dans les hautes sphères, dans des problèmes, dans mon domaine Elle veut mon visage en poster, que j'la balade, que j'lui promette J'vois son sourire jusqu'aux pommettes, ses yeux bridés, j'vois ses fossettes J'suis trop distant, j'fais mon possible, l re-noi est violent t docile Lima a grandi à Bercy, volé à Bercy, chanté à Bercy J'vais pas t'quémander un merci pour un service, j'ai des principes On fait la rue, on fait la té-ci, on est très précis si tu persistes Heures du matin, c'est les perquises, t'as pas coffré, ils t'ont saisi Ma daronne a confiance en moi, j'peux pas flancher, j'peux pas lâcher J'finis un jet, donner mon cur, ils ont tout gâché, ils l'ont cassé Pas une nuit sans penser à brasser, à brasser, à embrasser J'aimais la rue donc j'l'ai embrassé, embrassé, la rue embrassée Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Quand y a drah, on n'a jamais balisé Balisé, les keufs sont v'nus nous faire baliser Baliser Chez nous, ça traîne qu'en bande organisée Organisée d'la maternelle au lycée Ouais, yeah Grosse Ferrari, r'présente Paris, doublé d'Mbappé, feinte de frappe tah Neymar crari J'fais tmenick j'ai mal au dos et bicyclette dans vos grands-mères C'est Mister You, Alpha Lima Pedro, y a d'la frappe d'Outre-Mer On fait d'l'oseille, on sort les armes, les keufs sans hlel dans la lasagne J'suis d'ceux qu'investissent en Lausanne, y a les ch'vaux d'course et y a les ânes Yeah, yeah Ils nous reconnaissent tous ou qui nous pointent du doigt J'suis sur le toit d'la tour, je sais qu'on compte sur moi Ils m'ont pris pour un fou, les jaloux ont peur du poids Elle veut qu'j'lui fasse la cour, elle veut être la femme du roi Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Dans la cuisine Ce soir, j'me suis endormi dans l'bain Dans l'bain J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine Oh ouais, oh ouais, oh ouais, oh ouais J'me réveille le matin dans la cuisine</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Dj Kayz Paris,Oran New York Bimbim Mister You Braaah Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Scuse-moi désolé de te déranger J'ai rêvé de nous tous les deux allongés sous un oranger Si tes copines elles m'aimes pas C'est pas grave laisse les rager De toute façon j'suis courageux Timinik j'me suis rangé Une heure dans tes bras c'est mieux que le tour du monde Ouai Pour toi j'ferais la guerre J'pourrais tuer tout le monde Non c'est pas vrai, t'sais bien que j'fais le tomi Ce que j'veux c'est te serrer et finir dans ton lit Accroche toi direction le septième ciel Dans tes petits yeux j'ai vu l'étincelle Mets tes porte-jarretelles jt'emmène en balade Ouai J'vais t'faire passer une soirée de malade... You might also like Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Bienvenue dans ma city tu vas faire des saltos Tellement t'es mimi moi j'ai sorti le smalto FENDI, ZILLI J'suis sous col-al On fini au sommet on est parti des halls crades Si tu fais du sale un jour ou l'autre tu paye Évidemment j'voulais pas que les keufs nous pètent Tu m'as fait du charme quand t'as vu les billets Ma montre briller, et là jt'ai grillé! Cette meuf est maléfique ouai elle aime les grossistes Le biffe les profits, les hits les gros feats Tu m'a donné ton cur pour une coupe de champagne J'ai laissé 30 balles j'partirai pas sans toi... Elle m'a mis les menottes pris de vitesse Ce soir tu conduis, moi j'suis dans l'ivresse On s'retrouve au parking On s'fait pas remarquer J'peux oublier la tess et le business Les galères les drames et la tristesse C'est pas la fin dla partie Rizer remet le paquet! Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs</t>
+          <t>Dj Kayz Paris,Oran New York Bimbim Mister You Braaah Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Scuse-moi désolé de te déranger J'ai rêvé de nous tous les deux allongés sous un oranger Si tes copines elles m'aimes pas C'est pas grave laisse les rager De toute façon j'suis courageux Timinik j'me suis rangé Une heure dans tes bras c'est mieux que le tour du monde Ouai Pour toi j'ferais la guerre J'pourrais tuer tout le monde Non c'est pas vrai, t'sais bien que j'fais le tomi Ce que j'veux c'est te serrer et finir dans ton lit Accroche toi direction le septième ciel Dans tes petits yeux j'ai vu l'étincelle Mets tes porte-jarretelles jt'emmène en balade Ouai J'vais t'faire passer une soirée de malade... Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs Bienvenue dans ma city tu vas faire des saltos Tellement t'es mimi moi j'ai sorti le smalto FENDI, ZILLI J'suis sous col-al On fini au sommet on est parti des halls crades Si tu fais du sale un jour ou l'autre tu paye Évidemment j'voulais pas que les keufs nous pètent Tu m'as fait du charme quand t'as vu les billets Ma montre briller, et là jt'ai grillé! Cette meuf est maléfique ouai elle aime les grossistes Le biffe les profits, les hits les gros feats Tu m'a donné ton cur pour une coupe de champagne J'ai laissé 30 balles j'partirai pas sans toi... Elle m'a mis les menottes pris de vitesse Ce soir tu conduis, moi j'suis dans l'ivresse On s'retrouve au parking On s'fait pas remarquer J'peux oublier la tess et le business Les galères les drames et la tristesse C'est pas la fin dla partie Rizer remet le paquet! Donne-moi la main ma chérie j'vais te faire danser Ce soir c'est moi qui paye j'ai tout financé J'vais t'faire oublier ton mari ou ton fiancé Si t'es célibataire laisse-moi t'ambiancer, essai Fais-moi kiffer scoue ton fessier Ralenti 2 secondes fais pas ta pressée Toi-même tu sais j'suis par la pour te stresser J'aime pas profiter d'mon succès J'crois qu'elle veut boire, elle regarde le bar J'vois qu'il est 4h sur sa montre chopard J'me dis qu'il s'fait tard, j'lemmène à ma table Et place à la magie tah les premiers soirs</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Mister Yougataga On vie dans une putain d'époque, on vend dla drogue, on fuck le proc' Bois d'Arcy, nes-Fres, la té-San ouais, ouais, ouais, on pourrait tourner pendant dix ans Fuck les jaloux, on va les écraser, Bentley ou Testarossa, ça vend le shit, ça vend la CC, ça mène une putain dvie de laud-sa J'te jure frérot crois-moi, j'ai vu des trucs insensés, ils sont bés-tom deux-trois mois, ils veulent m'apprendre à danser Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent Jai commencé par fumer lpilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, jai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas J'reviens mettre la fessée au rap français, les trois quarts des MC peuvent mappeler papa Y'a qu'au dispatching que l'froc est baissé Et si tu nous crois pas, rendez-vous là-bas Pas b'soin d' ou de psychanalyse pour savoir qu'y a du khaliss dans la valise Quand y a les keufs, crois pas que j'balise You c'est la Tour Eiffel à Bériz You might also like Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent J'ai commencé par fumer l'pilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, j'ai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Mister Yougataga</t>
+          <t>Mister Yougataga On vie dans une putain d'époque, on vend dla drogue, on fuck le proc' Bois d'Arcy, nes-Fres, la té-San ouais, ouais, ouais, on pourrait tourner pendant dix ans Fuck les jaloux, on va les écraser, Bentley ou Testarossa, ça vend le shit, ça vend la CC, ça mène une putain dvie de laud-sa J'te jure frérot crois-moi, j'ai vu des trucs insensés, ils sont bés-tom deux-trois mois, ils veulent m'apprendre à danser Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent Jai commencé par fumer lpilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, jai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas J'reviens mettre la fessée au rap français, les trois quarts des MC peuvent mappeler papa Y'a qu'au dispatching que l'froc est baissé Et si tu nous crois pas, rendez-vous là-bas Pas b'soin d' ou de psychanalyse pour savoir qu'y a du khaliss dans la valise Quand y a les keufs, crois pas que j'balise You c'est la Tour Eiffel à Bériz Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Si j'me suis mis à faire du son, c'est pour ne pas qu'les flics m'arrêtent J'ai commencé par fumer l'pilon avant de bédave la cigarette, ouais, ouais, ouais J'ai pas commencé guetteur, nan, nan, nan, j'ai détaillé direct Avec ma clique, le tos-ma j'le mettais dans les boîtes aux lettres Eh Yougataga, cette année on va racoller d'la tchagua Bye bye à toutes celles qui voulaient pas y a des hauts, y a des bas Pu-pu-putain mais dis moi qu'est ce que tu croyais ? Au chtar, les avocats se font soudoyer À la base, j'suis pas là pour festoyer S't'as bu la tasse, moi, j'me suis noyé Mister Yougataga</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>J'ai fini l'jeu éteins ta console, j'suis la tête de gondole T'arrête pas d'parler chinois mais t'as une tête de mongole Rhalala qu'est-ce qu'elle est bonne mais khey qu'est-ce qu'elle consomme Elle veut faire un gosse dans l'dos mais j'oublie pas les condoms Ils portent l'il ils ont du mal à m'localiser Ils veulent tous rapper, miskine j'vais les traumatiser Vive le ter-ter niqu son père la retraite j'ai pas cotisé Alcoolisé du soir au soir y a trop d'brouillons à corrigr J'vais leur faire l'effet d'une bombe, tu vas t'croire à Bagdad Quand j'enverrais la purée ils sentiront pas la patate J'baise vos grandes surs comme si j'étais à Pattaya J'm'endors tranquillement à l'hôtel en sirotant mon Ruinart sale bâtard Ils vont s'en mordre les doigts à en devenir manchots J'viens d'paname un peu d'respect m'appelle pas l'sancho J'vais pas retourner ma veste j'ai déjà c'qu'y faut sous l'manteau J'fais flipper comme un revenant quand tu m'vois dans l'Rolls Phantom C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide You might also like J'me noie dans l'alcool tu crois que tout baigne Tu sors la poubelle je sers la plus belle En vrai jusqu'à mon dernier souffle, comme Abdelhak et Youssouf Quand y a les portières qui s'ouvrent, ben y a plein de mères qui souffrent Là j'suis posé sur le sofa, j'te refroidis fuck le chauffage Tu m'testes tu pers l'sophage, j'ai grandi avec les sauvages Spécialiste tah les go fast, j'suis chargé comme une gova Armé d'kalashnikov, là ça sécurise les convois Y a ceux qui envoient et ceux qu'on voit Y a ceux qui mordent y a ceux qui aboient Y a ceux qui assurent et ceux qui foirent Une chose est sûre c'est que ce soir on va foutre le feu avec mes enfoirés Ouais l'surveillant Oh zehma tu fais pas passer hein Eh j'te revois dehors j'te nique ta mère C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Faut le diamant de la couronne, tah la reine Elisabeth Tu claques ton 'seille dans le miel, j'investis sur les abeilles Ca casse du sucre les hypocrites vont finir avec le diabète Gros tu connais dans la street faut chiffrer avant que ça pète Tu peux pas m'la faire, tu la fais qu'aux p'tits Jamais j'trahirai ma team comme Totti Si tu m'as taclé dans l'dos c'est qu'entre nous t'es l'fautif Arrête de casser les couilles ou j'désactive les notifs Paraît que j'suis pas trop émotif Y a que les gros chiffres qui me motivent J'veux pas vieillir comme un pauvre type J'avais huit piges j'écoutais Mob Deep Fuck tous tes rappeurs de merde, moi t'inquiète pas j'me démerde J'ai grandi dans le de-mer, quatre boites dans scooter des mers Y a pas d'règles ça pue l'urine, j'suis avec You en featuring J'veux une oseille de JR Ewing, j'te fume ta mère sur le ring C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Trop de dos d'âne il faudrait qu'on pile Parle pas en face sois un peu comme pile Copain copine il faudrait qu'on pine Faut qu't'arrête tah Mary Poppins C'est l'album qui baise ta compil' C'est Mister You c'est BimBim C'est nous les best t'as compris? C'est Mister You c'est BimBim T'inquiète pas ça gère le style, de Verollot à Rebeval La street sur un pied d'estale, il n'y a que la maille qui maille</t>
+          <t>J'ai fini l'jeu éteins ta console, j'suis la tête de gondole T'arrête pas d'parler chinois mais t'as une tête de mongole Rhalala qu'est-ce qu'elle est bonne mais khey qu'est-ce qu'elle consomme Elle veut faire un gosse dans l'dos mais j'oublie pas les condoms Ils portent l'il ils ont du mal à m'localiser Ils veulent tous rapper, miskine j'vais les traumatiser Vive le ter-ter niqu son père la retraite j'ai pas cotisé Alcoolisé du soir au soir y a trop d'brouillons à corrigr J'vais leur faire l'effet d'une bombe, tu vas t'croire à Bagdad Quand j'enverrais la purée ils sentiront pas la patate J'baise vos grandes surs comme si j'étais à Pattaya J'm'endors tranquillement à l'hôtel en sirotant mon Ruinart sale bâtard Ils vont s'en mordre les doigts à en devenir manchots J'viens d'paname un peu d'respect m'appelle pas l'sancho J'vais pas retourner ma veste j'ai déjà c'qu'y faut sous l'manteau J'fais flipper comme un revenant quand tu m'vois dans l'Rolls Phantom C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide J'me noie dans l'alcool tu crois que tout baigne Tu sors la poubelle je sers la plus belle En vrai jusqu'à mon dernier souffle, comme Abdelhak et Youssouf Quand y a les portières qui s'ouvrent, ben y a plein de mères qui souffrent Là j'suis posé sur le sofa, j'te refroidis fuck le chauffage Tu m'testes tu pers l'sophage, j'ai grandi avec les sauvages Spécialiste tah les go fast, j'suis chargé comme une gova Armé d'kalashnikov, là ça sécurise les convois Y a ceux qui envoient et ceux qu'on voit Y a ceux qui mordent y a ceux qui aboient Y a ceux qui assurent et ceux qui foirent Une chose est sûre c'est que ce soir on va foutre le feu avec mes enfoirés Ouais l'surveillant Oh zehma tu fais pas passer hein Eh j'te revois dehors j'te nique ta mère C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Faut le diamant de la couronne, tah la reine Elisabeth Tu claques ton 'seille dans le miel, j'investis sur les abeilles Ca casse du sucre les hypocrites vont finir avec le diabète Gros tu connais dans la street faut chiffrer avant que ça pète Tu peux pas m'la faire, tu la fais qu'aux p'tits Jamais j'trahirai ma team comme Totti Si tu m'as taclé dans l'dos c'est qu'entre nous t'es l'fautif Arrête de casser les couilles ou j'désactive les notifs Paraît que j'suis pas trop émotif Y a que les gros chiffres qui me motivent J'veux pas vieillir comme un pauvre type J'avais huit piges j'écoutais Mob Deep Fuck tous tes rappeurs de merde, moi t'inquiète pas j'me démerde J'ai grandi dans le de-mer, quatre boites dans scooter des mers Y a pas d'règles ça pue l'urine, j'suis avec You en featuring J'veux une oseille de JR Ewing, j'te fume ta mère sur le ring C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide C'est qui les best, tu devines Yougata Gangst to the Bim Arrête ton rap de débile on va t'la mettre dans le bide Trop de dos d'âne il faudrait qu'on pile Parle pas en face sois un peu comme pile Copain copine il faudrait qu'on pine Faut qu't'arrête tah Mary Poppins C'est l'album qui baise ta compil' C'est Mister You c'est BimBim C'est nous les best t'as compris? C'est Mister You c'est BimBim T'inquiète pas ça gère le style, de Verollot à Rebeval La street sur un pied d'estale, il n'y a que la maille qui maille</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Hades Hasta la muerte, on a connu le meilleur et le pire On va se démerder, solo pour bâtir un empire Qu'est-ce que j'voulais dire ? Y a du lourd dans le ffre-co de la tire On aboie pas, on mord rect-di, on braque pas, on ré-ti J'descends du Rif, j'descends pas du singe et pourtant j'suis khfif J'dois faire du biff, pour ça faut faire passer la marchandise Samantha, Bogota, Véronique, Point-à-Pitre, que des litres Adeline, Medellín, Hanane, Paname, Dominique, Pierrefitte, han Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Une boîte plus deux plus trois plus quatre Il m'faut un zodiac, pas juste un scooter des mers Sous Jack, Dom Pé, Chivas, Toucas Que ces fils de timp aillent tous niquer leurs mères On fume du shit et de l'herbe On a grandi dans la merde Quand t'es en chien, personne t'aide Les gens veulent même te voir dead Vida loca, vida vida loca Fuck les condés venus vider la ve-ca Ils ont pris le pilon, ils ont pris la me-ca Ces putains de fils de pute font péter un ble-câ ah Pas de krav-maga, j'ai mon bouche-ca gé-char pour calmer tous tes gars crr, crr Yougataga, tu connais Yougataga ah, brrrah You might also like Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non J'suis défoncé, mes pensées deviennent diaboliques Pied au plancher, j'accélère dans un bolide J'ai la potion, j'vais la bicrave au druide Plus noir que la weed Le caviar, le saumon, le foie gars vont remplacer les frites, on rêve d'être millionnaires On fume de la bonne résine, de la putain de ganja histoire de calmer nos nerfs L'oseille, l'argent, les lovés On a fait des trucs de fou pour en trouver Parfois, j'ai même failli en crever Gros, tu peux remballer J'ai fait tout ce qu'il fallait, non, j'ai plus rien à prouver Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non</t>
+          <t>Hades Hasta la muerte, on a connu le meilleur et le pire On va se démerder, solo pour bâtir un empire Qu'est-ce que j'voulais dire ? Y a du lourd dans le ffre-co de la tire On aboie pas, on mord rect-di, on braque pas, on ré-ti J'descends du Rif, j'descends pas du singe et pourtant j'suis khfif J'dois faire du biff, pour ça faut faire passer la marchandise Samantha, Bogota, Véronique, Point-à-Pitre, que des litres Adeline, Medellín, Hanane, Paname, Dominique, Pierrefitte, han Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Une boîte plus deux plus trois plus quatre Il m'faut un zodiac, pas juste un scooter des mers Sous Jack, Dom Pé, Chivas, Toucas Que ces fils de timp aillent tous niquer leurs mères On fume du shit et de l'herbe On a grandi dans la merde Quand t'es en chien, personne t'aide Les gens veulent même te voir dead Vida loca, vida vida loca Fuck les condés venus vider la ve-ca Ils ont pris le pilon, ils ont pris la me-ca Ces putains de fils de pute font péter un ble-câ ah Pas de krav-maga, j'ai mon bouche-ca gé-char pour calmer tous tes gars crr, crr Yougataga, tu connais Yougataga ah, brrrah Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non J'suis défoncé, mes pensées deviennent diaboliques Pied au plancher, j'accélère dans un bolide J'ai la potion, j'vais la bicrave au druide Plus noir que la weed Le caviar, le saumon, le foie gars vont remplacer les frites, on rêve d'être millionnaires On fume de la bonne résine, de la putain de ganja histoire de calmer nos nerfs L'oseille, l'argent, les lovés On a fait des trucs de fou pour en trouver Parfois, j'ai même failli en crever Gros, tu peux remballer J'ai fait tout ce qu'il fallait, non, j'ai plus rien à prouver Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non Touche à mon biff, je t'allume ta mère petit fils de timp Toucher mon biff, non, non, non, non Faut pas toucher mon biff, non, non</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais ce qu'on dit Plutôt que d'squatter l'palace d'une pute et beh vaut mieux son ptit taudis Mon soce fait peter l'son dans ton Porshe ou ton Audi C'est Mister you rap de barge ouais freestyle d'antologie Commissaire j'madresse à oit, ouais arrêtes moi si tu peux Paris woogataga nique la Bac et les stupeux Sous sky dans les virages ça joue les Raïkkonen Les faux c'est des fils de pute mais t'inquiéte les vrais y connaissent 96 heures operationnel mais c'est pas fini Mandat de depot criminel j'freestyle jusqu'à l'infinie Woogataa'rtfou sur la gueule des batards les matons Ainsi que les gradés qui revent que d'nous foutre au mitard J'ai du rétrogradé vus qu'les an-ges étaient en retard J'ai enclanché la marche arrière ils arrivent toujours pas a m'guélar Quand j'cris Bébébelleville tout l'tier-quar bébébégaye T'es une belle fille jt'ai dit hobbi c'étais juste pour tkékékéne - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 You might also like Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais c'qu'on dit La parole vaut l'homme mais nous n'sommes pas des Carabantes Faut pas s'mentir jsuis pas d'ceux qui cassent des brinks C'est pour ceux qui brise le ter-ter que j'casse-dedi Les suceurs ils ont de l'herpes j'crois pas qu'ils gouteront a ma tise Les vrais j'les respecte par contre les faux j'les traumatise J'ai trop squatté la street j'en ai attrapé des rhumatismes C'est les Bloods et les Crips entre Alphonse Kert et Rue Mathys J'suis d'lautre côté du mouchoir celui qu'est remplie de khnouna Le revers d'la medaille si on trahit n'3el bouna A Belleville en mémoire à Zyad et Bouna On a graillé les poulets une boite de 4 par laguna - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 Y se acabó la di... J'arrive et j'vous affranchis Tranquillement tu connais moi j'suis pas un apprenti C'est la merde A st'heure ci j'vien d'prendre une peine de bandit Inch'Allah j'connais du monde j'sortirais donc en condi Woogataga eh mon gars viens j'te dis Crame mon blaze une, deux,trois fois et j'deviens mal Kandi J'arrive trop lourd donc les rappeurs s'inscrivent à la gym Ils crient tous A3oudou Billah mina shaytan ar rajim Tranquillement j'arrive et j'les affranchis J'suis faya j'suis fonc-dé mais j'réfrite un ptit bout d'shit Demande aux gars d'la street c'est qui le best des best ils t'diront Woogataga you wanna gangst to gangst Quand sa sent l'Must ou bien l'Pasha tèh Cartier Bah y'a 36 fois plus de keufs que d'meufs dans l'quartier Il nous faut Monica Bellucci Eh ouais c'est çà p'tit on boycott Fabio Lucci pour Gianni Versace Leche ma eue'qu et t'auras ptetre un ech de one Enchanté Laziza mais nan jm'appelle pas Balavoine Wesh me gusta la vida me gusta tu J'laisse les aufx en levrette et les vrais j'leurs dedicasse tous Si elle m'kiff la rue c'est parce qu'elle est pas conne MrYOU.SKYROCK.COM Si t'es un batard tu peux garder tes commentaires J'rap pour l'placard pour Fleury pour Fresnes pour Nanterre Pour Aboubakar, pour Abdelkader Ma plus belle nuit à moi c'était Laylat al-Qadr Akhi nan j'finirais pas comme De Villepin Moi j'terminrais comme les frères qui sortent de Villepinte J'rap pour No times fansdé Moh aux platines A la gloire Inch'allah du dispatching au disque platine T'as qu'a demander a la street c'est qui le best des best Bebebelleville zoo wanna gangst to gangst - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2</t>
+          <t>Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais ce qu'on dit Plutôt que d'squatter l'palace d'une pute et beh vaut mieux son ptit taudis Mon soce fait peter l'son dans ton Porshe ou ton Audi C'est Mister you rap de barge ouais freestyle d'antologie Commissaire j'madresse à oit, ouais arrêtes moi si tu peux Paris woogataga nique la Bac et les stupeux Sous sky dans les virages ça joue les Raïkkonen Les faux c'est des fils de pute mais t'inquiéte les vrais y connaissent 96 heures operationnel mais c'est pas fini Mandat de depot criminel j'freestyle jusqu'à l'infinie Woogataa'rtfou sur la gueule des batards les matons Ainsi que les gradés qui revent que d'nous foutre au mitard J'ai du rétrogradé vus qu'les an-ges étaient en retard J'ai enclanché la marche arrière ils arrivent toujours pas a m'guélar Quand j'cris Bébébelleville tout l'tier-quar bébébégaye T'es une belle fille jt'ai dit hobbi c'étais juste pour tkékékéne - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 Premièrement, tranquillement j'arrive et j'vous affranchis Deuxiémement tu connais moi j'suis pas un apprenti Troisiemement à st'heure ci j'viens d'prendre une peine de bandit Quatriemement j'connais du monde j'sortirais donc en condi Woogataga dahwa t'sais c'qu'on dit La parole vaut l'homme mais nous n'sommes pas des Carabantes Faut pas s'mentir jsuis pas d'ceux qui cassent des brinks C'est pour ceux qui brise le ter-ter que j'casse-dedi Les suceurs ils ont de l'herpes j'crois pas qu'ils gouteront a ma tise Les vrais j'les respecte par contre les faux j'les traumatise J'ai trop squatté la street j'en ai attrapé des rhumatismes C'est les Bloods et les Crips entre Alphonse Kert et Rue Mathys J'suis d'lautre côté du mouchoir celui qu'est remplie de khnouna Le revers d'la medaille si on trahit n'3el bouna A Belleville en mémoire à Zyad et Bouna On a graillé les poulets une boite de 4 par laguna - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2 Y se acabó la di... J'arrive et j'vous affranchis Tranquillement tu connais moi j'suis pas un apprenti C'est la merde A st'heure ci j'vien d'prendre une peine de bandit Inch'Allah j'connais du monde j'sortirais donc en condi Woogataga eh mon gars viens j'te dis Crame mon blaze une, deux,trois fois et j'deviens mal Kandi J'arrive trop lourd donc les rappeurs s'inscrivent à la gym Ils crient tous A3oudou Billah mina shaytan ar rajim Tranquillement j'arrive et j'les affranchis J'suis faya j'suis fonc-dé mais j'réfrite un ptit bout d'shit Demande aux gars d'la street c'est qui le best des best ils t'diront Woogataga you wanna gangst to gangst Quand sa sent l'Must ou bien l'Pasha tèh Cartier Bah y'a 36 fois plus de keufs que d'meufs dans l'quartier Il nous faut Monica Bellucci Eh ouais c'est çà p'tit on boycott Fabio Lucci pour Gianni Versace Leche ma eue'qu et t'auras ptetre un ech de one Enchanté Laziza mais nan jm'appelle pas Balavoine Wesh me gusta la vida me gusta tu J'laisse les aufx en levrette et les vrais j'leurs dedicasse tous Si elle m'kiff la rue c'est parce qu'elle est pas conne MrYOU.SKYROCK.COM Si t'es un batard tu peux garder tes commentaires J'rap pour l'placard pour Fleury pour Fresnes pour Nanterre Pour Aboubakar, pour Abdelkader Ma plus belle nuit à moi c'était Laylat al-Qadr Akhi nan j'finirais pas comme De Villepin Moi j'terminrais comme les frères qui sortent de Villepinte J'rap pour No times fansdé Moh aux platines A la gloire Inch'allah du dispatching au disque platine T'as qu'a demander a la street c'est qui le best des best Bebebelleville zoo wanna gangst to gangst - Refrain - Y se acabó la diversión Llegó el Comandante y mandó a parar X2</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !You might also like</t>
+          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>11ème 19ème 20ème Triste époque mon pote ! Eh ouuuais aaaaaaaaaaaaaah tention' Bébébébélleville Wesh dahwa parait que ta fait ton halal zooogataga Psartek en ce qui m'concerne moi J'ai fait le haram avec ma rue quand j'ai bédave ma première barrette On s'est marié direct le jour où j'ai bicrave la première galette C'est pour les braves comme Nas, comme Sidyou, comme Toumi, Khaled À tous ceux que j'aurais oublié les mecs qui auront su m'venir en aide Khabta mon bien être j'suis pas net j'fuck toute la planète Y'a trop de sky dans ma canette regarde ma gueule sur internet À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre Ohh il est dejà l'heure j'big up Shakar El Mansour Triste Epoque, mon pote le monde il part en glawi oui oui J'me verrai bien au bled avec Abderrazak El Mahraoui Blanchir juste un lion-mi léjéh el baraka L'rap français pour moi c'est comme du bachi pour un maraka J'oublie pas No Times Records Boubakar Tristan Comme dit Wisla fuck les bâtards qu'ils fument tout seul leurs tipisla Un conseil joue pas le voyou arrête le rap et fais du basket C'est Mister You sur écoute comme Avon barksdale You might also like Woogataga le refré Yaston À Slimane a Souleymane, ah woogatabraaaaaaaaaaaaaaaa J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assess Triste époque mon pote j'te jure demande à Aladin J'fume du seum, j'ai du plomb et donc du monde dans la tête Les mecs pour une barrette ils te mettent une peine exemplaire Rachida il faut qu'elle s'en va, Sarko faut qui nique son père J'me sens seul comme cette goutte d'huile dans l'océan J'essaie en vain de rentabiliser les séances Là j'tourne en rond autant qu'un taulard en promenade Ou un mec qui cherche un bête de taf, mais qu'a le teint trop mat Moi quand j'sors de gard'av c'est que j'rentre au placard V.I.P en chaussette, nique les 3asses bande de batard Ils sont là pour t'faire la misère fouille cellulaire à 6h J'ai pas le profil de l'auxiliaire moi c'est pour ça qu'ils m'ont dans le viseur Le rôle j'vais m'l'accaparer çà j'te l'dit fih seh Y'a plus de coke à Paris qu'y a de neige dans le Val dIsère C'est Mister Youu Gataga pour les intimes Pour tous les mecs cramés, comme les dramé baka ou Latifi J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses1</t>
+          <t>11ème 19ème 20ème Triste époque mon pote ! Eh ouuuais aaaaaaaaaaaaaah tention' Bébébébélleville Wesh dahwa parait que ta fait ton halal zooogataga Psartek en ce qui m'concerne moi J'ai fait le haram avec ma rue quand j'ai bédave ma première barrette On s'est marié direct le jour où j'ai bicrave la première galette C'est pour les braves comme Nas, comme Sidyou, comme Toumi, Khaled À tous ceux que j'aurais oublié les mecs qui auront su m'venir en aide Khabta mon bien être j'suis pas net j'fuck toute la planète Y'a trop de sky dans ma canette regarde ma gueule sur internet À trop écouter du rap de merde tu peux en devenir carrément sourd J'regarde ma montre Ohh il est dejà l'heure j'big up Shakar El Mansour Triste Epoque, mon pote le monde il part en glawi oui oui J'me verrai bien au bled avec Abderrazak El Mahraoui Blanchir juste un lion-mi léjéh el baraka L'rap français pour moi c'est comme du bachi pour un maraka J'oublie pas No Times Records Boubakar Tristan Comme dit Wisla fuck les bâtards qu'ils fument tout seul leurs tipisla Un conseil joue pas le voyou arrête le rap et fais du basket C'est Mister You sur écoute comme Avon barksdale Woogataga le refré Yaston À Slimane a Souleymane, ah woogatabraaaaaaaaaaaaaaaa J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assess Triste époque mon pote j'te jure demande à Aladin J'fume du seum, j'ai du plomb et donc du monde dans la tête Les mecs pour une barrette ils te mettent une peine exemplaire Rachida il faut qu'elle s'en va, Sarko faut qui nique son père J'me sens seul comme cette goutte d'huile dans l'océan J'essaie en vain de rentabiliser les séances Là j'tourne en rond autant qu'un taulard en promenade Ou un mec qui cherche un bête de taf, mais qu'a le teint trop mat Moi quand j'sors de gard'av c'est que j'rentre au placard V.I.P en chaussette, nique les 3asses bande de batard Ils sont là pour t'faire la misère fouille cellulaire à 6h J'ai pas le profil de l'auxiliaire moi c'est pour ça qu'ils m'ont dans le viseur Le rôle j'vais m'l'accaparer çà j'te l'dit fih seh Y'a plus de coke à Paris qu'y a de neige dans le Val dIsère C'est Mister Youu Gataga pour les intimes Pour tous les mecs cramés, comme les dramé baka ou Latifi J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses J'suis pas enrayé comme une kalash datant de l'ex U.R.S.S Briiidchal j'prends 20 ans j'serais obligé de tuer un 3assses1</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up? Bellek track Jfais danser ta mère, ton père, ta cousine, c'est Mister You avec Uzi L'salaire du procureur ne vaut pas ma paire de Gucci Veulent voir la vie en rose, on va leur bicrave dla toussi Des bulles, v'là les pa-pages, sur les chèques et dans le jacuzzi Dahwa, on a trop de soucis, on a mis du Jack dans le smoothie Remballe ta gueule de shneck, remballe ta gueule d pussy J'rappe pour mes Congolais, mes Algérins, mes Mgharba Tounsi Dans la zone, j'transforme tous mes billets bleus J'suis comme on en fait plus, on fait la diff', on fait les eu' J'te laisse pas perdre, si on prend la gratte à deux Jveux tlaisser par terre, t'as vu la haine dans mes yeux On sconnaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça sen bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh You might also like Tu lui dis je t'aime habibi, elle t'demande combien tu poses pour la dote Donc y'a qu'nos mères qu'on aime, et il n'y'a qu'Allah qu'on adore Pied au plancher, j'suis déjà à 3.40, même Bugs Bunny s'est fait carotte Ce qui fait l'homme, c'est la parole ce qui fait l'homme, c'est la parole C'est pour de vrai quand ça rafale, devant les keufs, ça parlera pas J'continue, c'est pas pour l'rap, c'est pour faire rentrer des oiseaux Regarder mon fils graille le gratin, quand sur ces catins Debout à seize heures, tous les matins, j'suis trop loin plus rien ne m'atteint T'as ouvert ton clapet, ils s'étaient broliqués, wow, yo, yo, yo T'as joué les cros-ma, tu t'es fais niquer, wow, yo, yo, yo On s'connaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça s'en bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh</t>
+          <t>Nabz, nigga, what's up? Bellek track Jfais danser ta mère, ton père, ta cousine, c'est Mister You avec Uzi L'salaire du procureur ne vaut pas ma paire de Gucci Veulent voir la vie en rose, on va leur bicrave dla toussi Des bulles, v'là les pa-pages, sur les chèques et dans le jacuzzi Dahwa, on a trop de soucis, on a mis du Jack dans le smoothie Remballe ta gueule de shneck, remballe ta gueule d pussy J'rappe pour mes Congolais, mes Algérins, mes Mgharba Tounsi Dans la zone, j'transforme tous mes billets bleus J'suis comme on en fait plus, on fait la diff', on fait les eu' J'te laisse pas perdre, si on prend la gratte à deux Jveux tlaisser par terre, t'as vu la haine dans mes yeux On sconnaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça sen bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh Tu lui dis je t'aime habibi, elle t'demande combien tu poses pour la dote Donc y'a qu'nos mères qu'on aime, et il n'y'a qu'Allah qu'on adore Pied au plancher, j'suis déjà à 3.40, même Bugs Bunny s'est fait carotte Ce qui fait l'homme, c'est la parole ce qui fait l'homme, c'est la parole C'est pour de vrai quand ça rafale, devant les keufs, ça parlera pas J'continue, c'est pas pour l'rap, c'est pour faire rentrer des oiseaux Regarder mon fils graille le gratin, quand sur ces catins Debout à seize heures, tous les matins, j'suis trop loin plus rien ne m'atteint T'as ouvert ton clapet, ils s'étaient broliqués, wow, yo, yo, yo T'as joué les cros-ma, tu t'es fais niquer, wow, yo, yo, yo On s'connaît bien mais j'suis plus trop dans les sentiments Ça vendait la mort comme à Balti' dans mon bâtiment Cinq étoiles, business class, changement d'continent Reste le même, ça s'en bat les oiseaux quand tu manges J'connais l'affaire, ils vont t'trahir pour un billet J'ai des choses à faire, j'reprends ma route, j'aimerais oublier On veut l'million d'euro, million d'euro Boîte à vendre à trois-quatre zéros, trois-quatre zéros On veut l'million d'euro, million d'euro Deux-trois pièces au Trocadéro, Trocadéro, eh, eh</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre You might also like Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
+          <t>Ok, j'commence tout doux j'big up le roc-Ma Mamadou Comme il dit woogataga Mister You do what you gonna do Vas-y fous le feu tant que tu représentes Belleville-Zoo Et tant que les gens de la zone se rassasient chez toi et Bazoo Demande à Sanbou, à Siyabou, à Hibou, à Chikabou Comment faire pour s'en sortir quand c'est le système qui nous pousse à bout ? J'sais qu'une cave-pou au ste-po ça fait pas de crise d'épilepsie Ça ravale pas sa langue nan ça surveille pas son lexique Comme dit Nass Belleville c'est aud-ch y'a plus de keufs qu'à l'avenue Foch Les RG ça pourrait être tes proches alors conseil surveille tes poches J'ai fait du flouze big up Pinus Madifili J'sais qu'investir dans une rafleuse c'est mieux qu'faire de l'haltérophilie Williams Tookie beh il a la même mort que Zied et Bouna Les coups de talkies moi j'en ai mangé j'avais de la khnouna C'est Mister You là, mauvaise graine de Belleville zoo là Seule femme que j'aime c'est celle qui m'a fait tété l'bzoula Quiero un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style ta3 les gol-mon J'compte démonter les barrières nique la mère aux détectives Avec Lajdi et Bakaou derrière c'est impossible tu peux test Yves Envers la race humaine j'aurais peut être un peu d'estime frère Quand l'état d'Israël il s'appellera enfin Palestine J'aime pas les stups Woogataga depuis belle lurette c'est déclaré C'est moi le king qui maque la reine je suis Räikkönnen sans McLaren Mon Dieu tout comme Mathieu j'compte réussir avec la haine Et si j'y arrive pas c'est qu'un bâtard ma mis l'3ain À la barre prendre une peine à 2 chiffre ça me ferait de la peine Au placard tout comme la bête bah j'rêverais que de me faire la belle Le seum et la beuh c'est mon label je vend de la wawa je suis producteur J'représente les hors-la-loi je suis leur traducteur Fuck les pointeurs les boycotteurs ainsi que les menteurs Sur le ter-ter quand ça détourne fuck le trois quart des rabatteurs Ma première phrase au loir-pa c'est j'espère lghosba moujoud L'avenir m'appartient pas pourtant je suis debout depuis l'eau chaude Nique les juges, la justice les stups et j'insinue Que c'est bien des fils de putes car fallait pas me mettre en cellule Voir toutes ces lunes graviter, en solo cogiter Méditer à m'demander quand liberté voudra m'inviter À péter les plombs impressionner l'auxi-télé L'argent fait pas le bonheur mais ça attire les putes même si t'es laid Cette année il y a des MC qui vont gouter une sale tannée J'compte m'installer, fuck M6 vive Hassan Tani J'rackette que le pe-ra mon meilleur sport c'est le tennis C'est pas aux anglais la promenade t'as cru que le shtar c'était Nice Fuck la police et les poucaves qui leur tapent des te-po Moi mes seuls autographes c'est la gard'av' où le mandat de dépôt C'est Youuugataga alias Latifi pour les 3essess J'suis à la recherche d'une fille bien pour faire passer 10 kilos de cess Bientôt le sperme y pourra se crave-bi tellement y'a des lahèss Yasse7 au tar-mi on a tous rencard avec la hass On sort pas de la tèce non non on reste H24 dedans On rêve que de Benz et de Runner 180 deux temps Tout le temps faya Thug Life formée par 2Pac Shakur Dédié à Daddy, à tout le quartier à mon poto Shakir J'vois que les petits ils tirent plus d'un sac devant ma tour J'ai plus d'un tour dans mon sac y'a plus d'un shlag devant ma tour Un marocain quand il va s'baigner même un requin il crie au secours Il a pas besoin de costard mais d'un gros z'déh pour les discours On sera pas hardcore en étant cool les heures passent le temps coule Les médias salissent l'islam on encule la race à Betancourt grosse salope Dédicace à Yass alias le renard dans la basse cour Bazou et oi-m on brasse des liasses donc à notre vue les pétasses courent Vu qu'souris, il est sur le ter-ter vers orto ça miaule comme des chats J'vends de la mort j'sors avec Aicha Qandisha Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Fasciné par l'pavé beh même les gosses ils veulent vendre Be-belleville on a tous les couilles plus grosses que le ventre Quiere un poco de vokda con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont Crois-moi pour percer j'aurais pas un style tah les gol-mon Quiere un poco de vodka con zumo de naranja C'est Mister Yougataga moi j'ai grandi dans le khra Dans le haram à Paris pas à Marly-Gomont À croire que pour percer il faut avoir un style ta3 les gol-mon</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer J't'ai tout donné mais t'as douté d'moi Maintenant dans mon cur tout est noir J'ai déjà enfreint toutes les lois J'ai tourné j'ai coffré l'pénav J'ai pas vendu des cinquenta C'est moi qui paie toutes les cuenta Dans le VIP d'Olivia Valere Versace jusque sur l'peignoir J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rjoindre mes hermanos Ma p'tit andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella You might also like J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza a Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Partito dalla cite Oui oui, comment tu t'appelles Ma chérie, je suis italien Con il binks binks, fino a Malaga Ah Marbella, All' Habana Jack Daniel's le sere mon bebe Quiere fumar conmigo Amigo, mentalita' don Vito Una bebecita zero cellulite a Cadiz Vetri neri sopra l'AMG Mangio pasta al Olivia Valere Otto mafia tu non sei mio frere Philip, Mister You, Hayce Lemsi J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Meute de loups suivie par des hyènes Sdeh Marocain chemise Italienne J'passe de l'opinel à la mitraillette Le jet s'arrête à l'hôtel Hyat Pour un dollar c'est lance-roquettes Ou finir en chien graille des croquettes Y a un gros calibre dans les discothèques Genre du si j'veux je rentre en claquettes J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rejoindre mes hermanos Ma p'tite andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella</t>
+          <t>Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer Et ça fait rom pom pom j'suis dans l'carré Elle est belle, elle est bonne j'vais la démarrer J't'ai tout donné mais t'as douté d'moi Maintenant dans mon cur tout est noir J'ai déjà enfreint toutes les lois J'ai tourné j'ai coffré l'pénav J'ai pas vendu des cinquenta C'est moi qui paie toutes les cuenta Dans le VIP d'Olivia Valere Versace jusque sur l'peignoir J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rjoindre mes hermanos Ma p'tit andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza a Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Partito dalla cite Oui oui, comment tu t'appelles Ma chérie, je suis italien Con il binks binks, fino a Malaga Ah Marbella, All' Habana Jack Daniel's le sere mon bebe Quiere fumar conmigo Amigo, mentalita' don Vito Una bebecita zero cellulite a Cadiz Vetri neri sopra l'AMG Mangio pasta al Olivia Valere Otto mafia tu non sei mio frere Philip, Mister You, Hayce Lemsi J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Meute de loups suivie par des hyènes Sdeh Marocain chemise Italienne J'passe de l'opinel à la mitraillette Le jet s'arrête à l'hôtel Hyat Pour un dollar c'est lance-roquettes Ou finir en chien graille des croquettes Y a un gros calibre dans les discothèques Genre du si j'veux je rentre en claquettes J'ai sorti un gros gamos J'descends sur Puerto Bañus J'vais rejoindre mes hermanos Ma p'tite andalouse est jalouse Ma p'tite andalouse est jalouse J'passe les vacances à Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella Sono in vacanza Marbella J'passe les vacances à Marbella</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>La nouvelle école décolle future patronne du rap Chez nous ca bicrave tous c'qui s'fume nique sa mère les biens durables Négro ca vient du zoo tous les frelots s'mette debout Pour les darons qu'on deux femmes dix gosses mais qu'arrive pas à joindre les deux bouts Elle est loin l'insouciance d'la maternelle Maintenant mes potes plaident coupable rien est éternel Si tu poucaves les coups partent et tu l'sais rheys Les problèmes partent mais reviennent agravés et tu l'sais rheys Le 7.5 c'est frais zinks surtout quand t'as du bif L'argent fait pas l'bonheur c'est que si j'en ai qu'j'vais t'le dire Mais j'me sens seul sans ça comme Gainsbourg sans sa Havanne Lil Wayne sans son sureau Biggie sans sa canne Négro on cherche ça on cherche les dames on cherche le drame En gros on cherche la merde comme un mec bourré en boîte Pour régler ça dans les équipes toujours un casse machoire Si c'est pas avec 10 keums c'est avec un gun qu'on marche le soir On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 2010 faites de la place que j'pète le tympan des puristes Putain putain d'dédicaces a tous les frérots qui prennent des risques Qui s'en battent les cojones qui restent posés sur l'pavé J'me présente moi c'est Youness c'lui qui r'ssort jamais d'GAV J't'ai dis surveille tes seufs j'suis d'ceux qui rentre direct au hebs A 200 000 Km dahwa j'peut t'dire qu'ca va très deus Aïe aïe aïe Saddam Husen non il est pas mort C'est la vengeance d'la guerre du golfe j'enfonce un club dans l'bide des porcs J'suis venu sodomisé leur maman l'rap j'suis comme son médicaments D'mande à Fialso ou bien Still fresh comment on représente nos département? C'est hasta la muerte comue Guevara cha Hasta la victoria siempre comme dirait Da Djé Het p'tit sur la mecque sa rigole ap Et sur la tombe de mon grand pere qu'on nique la mere a c'putain d'rap Dahwa c'est d'la frappe donc faut l'écouter par le zen J'répete c'est d'la frappe don c c'est normal que ca passe creme You might also likeOn vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 Le rap c'était mieux avant jusqu'a c'que You et Fresh arrive Deux gars qui cherche du liquide pour arrosé nos terre aride Man ils nous font perdre la santé on nous enferment a Bois D'Arcy La mauvaise graine a frennes et c'est plus de haine qui fleuris On perd trop d'espoir dans cette vie la Moi j'veux vite croire au mot victoire Donc fuck la proc appelle tes potes défoce les portes Pour qui nous entendes desfois obligé d'lancer l'coktail molotov Merde un con gamberge Un seul faux pas et tu peut etre a 20 000 lieues dans la merde Nouvelle école ca vient d'Paris pur black MC Dis pas qu't'aime si mon teint t'gene comme un barbu dans un jet petit T'attache pas a la vie c'est une garce on m'a dit Que des gars qui médisent et des tass qui font les garcons manqués Pff dédicace a Mister You Une vie d'voyou implique des peines de voyous On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x4</t>
+          <t>La nouvelle école décolle future patronne du rap Chez nous ca bicrave tous c'qui s'fume nique sa mère les biens durables Négro ca vient du zoo tous les frelots s'mette debout Pour les darons qu'on deux femmes dix gosses mais qu'arrive pas à joindre les deux bouts Elle est loin l'insouciance d'la maternelle Maintenant mes potes plaident coupable rien est éternel Si tu poucaves les coups partent et tu l'sais rheys Les problèmes partent mais reviennent agravés et tu l'sais rheys Le 7.5 c'est frais zinks surtout quand t'as du bif L'argent fait pas l'bonheur c'est que si j'en ai qu'j'vais t'le dire Mais j'me sens seul sans ça comme Gainsbourg sans sa Havanne Lil Wayne sans son sureau Biggie sans sa canne Négro on cherche ça on cherche les dames on cherche le drame En gros on cherche la merde comme un mec bourré en boîte Pour régler ça dans les équipes toujours un casse machoire Si c'est pas avec 10 keums c'est avec un gun qu'on marche le soir On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 2010 faites de la place que j'pète le tympan des puristes Putain putain d'dédicaces a tous les frérots qui prennent des risques Qui s'en battent les cojones qui restent posés sur l'pavé J'me présente moi c'est Youness c'lui qui r'ssort jamais d'GAV J't'ai dis surveille tes seufs j'suis d'ceux qui rentre direct au hebs A 200 000 Km dahwa j'peut t'dire qu'ca va très deus Aïe aïe aïe Saddam Husen non il est pas mort C'est la vengeance d'la guerre du golfe j'enfonce un club dans l'bide des porcs J'suis venu sodomisé leur maman l'rap j'suis comme son médicaments D'mande à Fialso ou bien Still fresh comment on représente nos département? C'est hasta la muerte comue Guevara cha Hasta la victoria siempre comme dirait Da Djé Het p'tit sur la mecque sa rigole ap Et sur la tombe de mon grand pere qu'on nique la mere a c'putain d'rap Dahwa c'est d'la frappe donc faut l'écouter par le zen J'répete c'est d'la frappe don c c'est normal que ca passe creme On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x2 Le rap c'était mieux avant jusqu'a c'que You et Fresh arrive Deux gars qui cherche du liquide pour arrosé nos terre aride Man ils nous font perdre la santé on nous enferment a Bois D'Arcy La mauvaise graine a frennes et c'est plus de haine qui fleuris On perd trop d'espoir dans cette vie la Moi j'veux vite croire au mot victoire Donc fuck la proc appelle tes potes défoce les portes Pour qui nous entendes desfois obligé d'lancer l'coktail molotov Merde un con gamberge Un seul faux pas et tu peut etre a 20 000 lieues dans la merde Nouvelle école ca vient d'Paris pur black MC Dis pas qu't'aime si mon teint t'gene comme un barbu dans un jet petit T'attache pas a la vie c'est une garce on m'a dit Que des gars qui médisent et des tass qui font les garcons manqués Pff dédicace a Mister You Une vie d'voyou implique des peines de voyous On vent d'la merde pour sortir de la merde Les clients veulent donc on les sert monsieur le commissaire On n'est pas fou ni saoul tout c'qu'on veut nous c'est des sous Zoogataga mon pote dahwa c'est l'rap tah les voyous x4</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>J'suis déconseillé aux mines-ga Aux michtonneuses et de manière générale A toutes les meufs zine-ga J'ai pas de temps et encore moins de tunes à perdre Donc si t'es bonne et que tu frimes pas, faut que tu m'appelles John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie J'suis pas un plouc arrache toi Je chante pas la Cucaracha Moi j'suis un loup, j'tire mon coup et j'natchave C'est aussi simple que d'dire bonjour Tu t'es fais belle coquine, là c'est sur ton boule qu'on zoome Dis-le moi si ça te déplait, arrête de faire ta mijaurée steuplait J'te manque pas d'respect, tu fais exprès, j'ai cramé ton vice Je sais bien où tu veux en venir mais oublie c'est pas méthodique C'est bon, on les connait les meufs comme toi Qui font leurs coups en douce et ont des airs de psychopathe Tu trompes ton gars avec le premier venu Tu seras bien près de mes burnes, attends que je m'occupe de ton cas là Et puis merde, j'm'en tape, t'as 2 ans d'âge mental Les ta-tass comme toi ça court les rues J'préfère les filles sérieuses qui se respectent Pas celles qui se laissent faire et qui se comportent comme des chiennes J'balance des 16 en vrac pour les gros comiques qui m'font gol-ri Lorsqu'ils me parlent d'hydroponic C'est Wira Zaka, enchanté mesdames et mesdames J'me fous de leurs médailles, venez juste embrasser mes burnes You might also like John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Madame n'est pas une michtonneuse mais elle n'sort pas avec les pauvres Il en faut plein pour être heureuse, elle ouvre son cur devant une clé de coffre Elle est pas là pour ton argent car c'est clair, elle préfère l'or A la recherche de l'espoir, rallume tes phares, il pourrait faire noir Woogataga, j'ai vu et là j'vous raconte ce qu'elles m'ont fait voir Elles m'ont montré que l'avenir rime avec gent-ar donc désespoir Si timide puis si vulgaire, si si, j'vous pousse à l'croire C'est le nerf de la guerre, wallah les meufs c'est que des histoires La vérité c'est peu plaisant, c'est blessant tels des rasoirs La liberté s'cache en prison, si j'guide mon peuple ça s'ra dérisoire On dirait le soir dans ma tête même quand il est 14 heures Une folle m'a dit faut faire la fête, c'est à bronzer que l'équateur sert Dieu est grand, le monde est petit, tu connais tous les coins tah sah Yes, sah el sbah, sans mascara t'as l'air bizarre Une fois à l'hotel bah tu ressort plus avant 13 heures C'est plus Lancôme ton trésor vu que t'as l'cul dans le compresseur Et c'est le désordre dans ta tête et encore t'as que 20 piges T'as une reput' de vraie pute mais bon toi tu t'en fiches Tu veux être riche, shab tu sniffes, tu veux faire partie d'la jet-set Tu mérites qu'un tour d'YZ, espèce de vieille khenzete John Steed Espèce de vieille meuf, t'as senti l'odeur des tunes et des véhicules Ca y est, t'es prête à échanger ton cul Mister You Espèce de vieille meuf, j'voulais t'laisser mon numéro Tu m'as dit OK mais si de côté t'a mis au moins 100 000 euros Wira Espèce de vieille meuf, si y'a que les biftons qui t'attirent Arrête de faire des manières et viens nous faire une petite gâterie Dry Espèce de vieille meuf, ici nos sacs sont remplis de billets Tu veux ton Louis Vuitton? Viens taffer, on va te rhabiller Moi j'kiffe pas les fouffes qu